--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAA6C23-7456-4255-9D7A-5B17BC51D281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6902A8-88BD-4676-BFB4-85413E68542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -728,13 +728,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -782,19 +783,28 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -806,13 +816,10 @@
       <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
+      <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -970,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$37</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1075,117 +1082,123 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$37</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>3.4062520594881299E-3</c:v>
+                  <c:v>3.3553865235238698E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8344158870712298E-3</c:v>
+                  <c:v>5.6147381844112304E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00133286052215E-2</c:v>
+                  <c:v>9.7936509025615404E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.73957812652164E-2</c:v>
+                  <c:v>1.7069084131894698E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.30431746505716E-2</c:v>
+                  <c:v>2.2716477517249901E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7591257085717399E-2</c:v>
+                  <c:v>2.8233650032455499E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1120407401081499E-2</c:v>
+                  <c:v>4.2432765084690002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9909130799047602E-2</c:v>
+                  <c:v>5.1221488482656098E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.80360163756974E-2</c:v>
+                  <c:v>5.9348374059305903E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2852840319622794E-2</c:v>
+                  <c:v>6.4165198003231297E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5579025812788697E-2</c:v>
+                  <c:v>6.7178411483243397E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8009228284576798E-2</c:v>
+                  <c:v>6.9661040464172097E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3568735216577294E-2</c:v>
+                  <c:v>7.5220547396172593E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9793143320287701E-2</c:v>
+                  <c:v>7.1444955499883001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.9997946457385996E-2</c:v>
+                  <c:v>7.1649758636981295E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.9989180217129604E-2</c:v>
+                  <c:v>7.1640992396724903E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3782209580257802E-2</c:v>
+                  <c:v>7.5434021759853101E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.5254460486636601E-2</c:v>
+                  <c:v>7.6906272666231901E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.1906219156417298E-2</c:v>
+                  <c:v>8.3558031336012598E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.3702091347371402E-2</c:v>
+                  <c:v>8.5353903526966701E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.0042972396079696E-2</c:v>
+                  <c:v>9.1694784575675106E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.4074882473635393E-2</c:v>
+                  <c:v>9.5726694653230707E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.1500760508160903E-2</c:v>
+                  <c:v>9.2648932263189501E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.2758023836970099E-2</c:v>
+                  <c:v>9.4695610615694301E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.7434406873513402E-2</c:v>
+                  <c:v>9.9859385927561495E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.9864650021023293E-2</c:v>
+                  <c:v>0.102301846794994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.6942413301638997E-2</c:v>
+                  <c:v>9.9664917344394102E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.100065089335312</c:v>
+                  <c:v>0.102787593378067</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.102201990272385</c:v>
+                  <c:v>0.10492449431514</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10404730659179701</c:v>
+                  <c:v>0.106769810634552</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.112206858502962</c:v>
+                  <c:v>0.115238637165266</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.119588889630663</c:v>
+                  <c:v>0.122822610426608</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.118573638494338</c:v>
+                  <c:v>0.121807359290284</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.124905827891806</c:v>
+                  <c:v>0.12813954868775199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.13075364249027599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,10 +1591,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$37</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1683,117 +1696,123 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45338</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$37</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>3.5487963068424502E-3</c:v>
+                  <c:v>3.3442870266167401E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3097639177373093E-3</c:v>
+                  <c:v>8.0872151907797497E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3314198955248E-2</c:v>
+                  <c:v>1.4035730842634399E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6601288992406101E-2</c:v>
+                  <c:v>1.7322820879792498E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8987272652899101E-2</c:v>
+                  <c:v>3.0274949825849499E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3385237973427698E-2</c:v>
+                  <c:v>3.4632695258080298E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5815318420005897E-2</c:v>
+                  <c:v>3.70029138057116E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8550855816686297E-2</c:v>
+                  <c:v>3.9902594081052803E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5025381147017901E-2</c:v>
+                  <c:v>4.6509251899121598E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6535075367404498E-2</c:v>
+                  <c:v>4.8262480829716098E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9214554211101998E-2</c:v>
+                  <c:v>5.1093720984072902E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2048494228832898E-2</c:v>
+                  <c:v>5.3893594396740498E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4281284331921101E-2</c:v>
+                  <c:v>5.6126384499828798E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6993203552411498E-2</c:v>
+                  <c:v>5.8935157978193799E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8469348695783803E-2</c:v>
+                  <c:v>6.0548042300985198E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.2015196051772102E-2</c:v>
+                  <c:v>6.4209209932217307E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3407908469495206E-2</c:v>
+                  <c:v>6.5669538944621603E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7804238354400803E-2</c:v>
+                  <c:v>7.0127579980156798E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0919598455831803E-2</c:v>
+                  <c:v>7.3871904975142594E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.3208800709989794E-2</c:v>
+                  <c:v>7.6219322690460195E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6659654217236306E-2</c:v>
+                  <c:v>7.9149471524769394E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.7477410083722997E-2</c:v>
+                  <c:v>8.0008873669262098E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8901543374033198E-2</c:v>
+                  <c:v>8.1442721055169504E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.1057797393499095E-2</c:v>
+                  <c:v>8.3665102186806395E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.2459722019198198E-2</c:v>
+                  <c:v>8.5427559817886606E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.5831796873358096E-2</c:v>
+                  <c:v>8.8988194881492302E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.0644684075322904E-2</c:v>
+                  <c:v>9.4086389200574494E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.5482800140321095E-2</c:v>
+                  <c:v>9.9213696001125604E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9447520777365794E-2</c:v>
+                  <c:v>0.10324941556073</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10133046817082</c:v>
+                  <c:v>0.10515106362832501</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.106473902573076</c:v>
+                  <c:v>0.11022787787183699</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.108066972230825</c:v>
+                  <c:v>0.11190827905582</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11379785068616401</c:v>
+                  <c:v>0.11711244053698799</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.11839431579729701</c:v>
+                  <c:v>0.120918395381288</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.12423888255141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3240,20 +3259,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L37" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L38" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cumulative Realized Return" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Average Realized Days_x000a_Held" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Realized Weighted Daily_x000a_Return" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cumulative Realized Weighted Return" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unrealized Daily Return" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cumulative Unrealized Return" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Average Unrealized Days_x000a_Held" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unrealized Weighted Daily Return" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Cumulative Unrealized Weighted Return" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cumulative Realized Return" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Average Realized Days_x000a_Held" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Realized Weighted Daily_x000a_Return" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cumulative Realized Weighted Return" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unrealized Daily Return" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cumulative Unrealized Return" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Average Unrealized Days_x000a_Held" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unrealized Weighted Daily Return" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Cumulative Unrealized Weighted Return" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3558,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z45" sqref="Z45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3587,18 +3606,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="N2" s="23" t="str">
+      <c r="N2" s="24" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 268%</v>
-      </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 277%</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" spans="2:25" s="6" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
@@ -3639,95 +3658,95 @@
       <c r="B4" s="13">
         <v>45289</v>
       </c>
-      <c r="C4" s="1">
-        <v>3.4062520594881299E-3</v>
+      <c r="C4" s="26">
+        <v>3.3553865235238698E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>3.4062520594881299E-3</v>
+        <v>3.3553865235238698E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>24.4615384615384</v>
+        <v>25.8333333333333</v>
       </c>
       <c r="F4" s="4">
-        <v>8.3322165762863706E-2</v>
+        <v>8.6680818524366696E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>8.3322165762863706E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3.5487963068424502E-3</v>
+        <v>8.6680818524366696E-2</v>
+      </c>
+      <c r="H4" s="26">
+        <v>3.3442870266167401E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>3.5487963068424502E-3</v>
+        <v>3.3442870266167401E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>31.043478260869499</v>
+        <v>31.4545454545454</v>
       </c>
       <c r="K4" s="4">
-        <v>0.110166981003717</v>
+        <v>0.105193028291762</v>
       </c>
       <c r="L4" s="3">
-        <v>0.110166981003717</v>
+        <v>0.105193028291762</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.6737008203472483E-3</v>
+        <v>3.7358183568650498E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B5" s="13">
         <v>45293</v>
       </c>
-      <c r="C5" s="1">
-        <v>2.4281638275830898E-3</v>
+      <c r="C5" s="26">
+        <v>2.2593516608873502E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>5.8344158870712298E-3</v>
+        <v>5.6147381844112304E-3</v>
       </c>
       <c r="E5" s="5">
-        <v>25.4</v>
+        <v>26.105263157894701</v>
       </c>
       <c r="F5" s="4">
-        <v>6.1675361220610597E-2</v>
+        <v>5.8980969673691E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.14499752698347401</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.7609676108948604E-3</v>
+        <v>0.145661788198057</v>
+      </c>
+      <c r="H5" s="26">
+        <v>4.74292816416301E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.3097639177373093E-3</v>
+        <v>8.0872151907797497E-3</v>
       </c>
       <c r="J5" s="5">
-        <v>36.108108108108098</v>
+        <v>37.257142857142803</v>
       </c>
       <c r="K5" s="4">
-        <v>0.171909533193392</v>
+        <v>0.176707952173387</v>
       </c>
       <c r="L5" s="3">
-        <v>0.28207651419711</v>
+        <v>0.28190098046515</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.4011942600943121E-2</v>
+        <v>8.51843311212198E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B6" s="13">
         <v>45294</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="26">
         <v>4.1789127181503004E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.00133286052215E-2</v>
+        <v>9.7936509025615404E-3</v>
       </c>
       <c r="E6" s="5">
         <v>26.615384615384599</v>
@@ -3736,55 +3755,55 @@
         <v>0.111223369267692</v>
       </c>
       <c r="G6" s="3">
-        <v>0.25622089625116701</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5.00443503751072E-3</v>
+        <v>0.25688515746575002</v>
+      </c>
+      <c r="H6" s="26">
+        <v>5.9485156518546802E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.3314198955248E-2</v>
+        <v>1.4035730842634399E-2</v>
       </c>
       <c r="J6" s="5">
-        <v>31.5833333333333</v>
+        <v>35.3333333333333</v>
       </c>
       <c r="K6" s="4">
-        <v>0.158056739934713</v>
+        <v>0.210180886365532</v>
       </c>
       <c r="L6" s="3">
-        <v>0.44013325413182403</v>
+        <v>0.492081866830682</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>27.103655009421235</v>
+        <v>27.14678029167743</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B7" s="13">
         <v>45295</v>
       </c>
-      <c r="C7" s="1">
-        <v>7.3824526599948698E-3</v>
+      <c r="C7" s="26">
+        <v>7.2754332293332004E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.73957812652164E-2</v>
+        <v>1.7069084131894698E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>33.846153846153797</v>
+        <v>33.5833333333333</v>
       </c>
       <c r="F7" s="4">
-        <v>0.24986762849213401</v>
+        <v>0.244333299285106</v>
       </c>
       <c r="G7" s="3">
-        <v>0.50608852474330102</v>
-      </c>
-      <c r="H7" s="1">
+        <v>0.50121845675085697</v>
+      </c>
+      <c r="H7" s="26">
         <v>3.2870900371580599E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.6601288992406101E-2</v>
+        <v>1.7322820879792498E-2</v>
       </c>
       <c r="J7" s="5">
         <v>28.909090909090899</v>
@@ -3793,18 +3812,18 @@
         <v>9.5026784710569606E-2</v>
       </c>
       <c r="L7" s="3">
-        <v>0.53516003884239305</v>
+        <v>0.58710865154125202</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B8" s="13">
         <v>45296</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="26">
         <v>5.6473933853551997E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.30431746505716E-2</v>
+        <v>2.2716477517249901E-2</v>
       </c>
       <c r="E8" s="5">
         <v>23.5</v>
@@ -3813,124 +3832,124 @@
         <v>0.132713744555847</v>
       </c>
       <c r="G8" s="3">
-        <v>0.63880226929914796</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.2385983660493E-2</v>
+        <v>0.63393220130670402</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1.2952128946057E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>2.8987272652899101E-2</v>
+        <v>3.0274949825849499E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>48.410256410256402</v>
+        <v>49.4324324324324</v>
       </c>
       <c r="K8" s="4">
-        <v>0.59960864489771304</v>
+        <v>0.640255238982119</v>
       </c>
       <c r="L8" s="3">
-        <v>1.1347686837401001</v>
+        <v>1.2273638905233699</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.4821857587440364E-3</v>
+        <v>3.5496823586117325E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B9" s="13">
         <v>45299</v>
       </c>
-      <c r="C9" s="1">
-        <v>4.5480824351458197E-3</v>
+      <c r="C9" s="26">
+        <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.7591257085717399E-2</v>
+        <v>2.8233650032455499E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>36.8888888888888</v>
+        <v>39.375</v>
       </c>
       <c r="F9" s="4">
-        <v>0.16777370760760099</v>
+        <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>0.80657597690674998</v>
-      </c>
-      <c r="H9" s="1">
-        <v>4.3979653205286099E-3</v>
+        <v>0.85117086909292605</v>
+      </c>
+      <c r="H9" s="26">
+        <v>4.3577454322306997E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.3385237973427698E-2</v>
+        <v>3.4632695258080298E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>23.275862068965498</v>
+        <v>24</v>
       </c>
       <c r="K9" s="4">
-        <v>0.102366434184717</v>
+        <v>0.10458589037353599</v>
       </c>
       <c r="L9" s="3">
-        <v>1.23713511792482</v>
+        <v>1.3319497808969001</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>9.7372955472211711E-2</v>
+        <v>0.10109537779656089</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B10" s="13">
         <v>45300</v>
       </c>
-      <c r="C10" s="1">
-        <v>1.35291503153641E-2</v>
+      <c r="C10" s="26">
+        <v>1.41991150522345E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>4.1120407401081499E-2</v>
+        <v>4.2432765084690002E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>14.8421052631578</v>
+        <v>15.4444444444444</v>
       </c>
       <c r="F10" s="4">
-        <v>0.20080107310171999</v>
+        <v>0.21929744358451</v>
       </c>
       <c r="G10" s="3">
-        <v>1.00737705000847</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2.43008044657821E-3</v>
+        <v>1.0704683126774299</v>
+      </c>
+      <c r="H10" s="26">
+        <v>2.3702185476313499E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>3.5815318420005897E-2</v>
+        <v>3.70029138057116E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>14.818181818181801</v>
+        <v>15.018867924528299</v>
       </c>
       <c r="K10" s="4">
-        <v>3.6009373890204303E-2</v>
+        <v>3.5597999319142502E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.2731444918150201</v>
+        <v>1.3675477802160501</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>26.656494872697547</v>
+        <v>27.000076796299908</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B11" s="13">
         <v>45301</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="26">
         <v>8.7887233979660109E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.9909130799047602E-2</v>
+        <v>5.1221488482656098E-2</v>
       </c>
       <c r="E11" s="5">
         <v>10.5555555555555</v>
@@ -3939,33 +3958,33 @@
         <v>9.2769858089641194E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.1001469080981101</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.73553739668042E-3</v>
+        <v>1.16323817076707</v>
+      </c>
+      <c r="H11" s="26">
+        <v>2.89968027534116E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.8550855816686297E-2</v>
+        <v>3.9902594081052803E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>20.552631578947299</v>
+        <v>20.702702702702702</v>
       </c>
       <c r="K11" s="4">
-        <v>5.6222492284405498E-2</v>
+        <v>6.0031218673279201E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.32936698409943</v>
+        <v>1.4275789988893299</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B12" s="13">
         <v>45302</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="26">
         <v>8.1268855766498393E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.80360163756974E-2</v>
+        <v>5.9348374059305903E-2</v>
       </c>
       <c r="E12" s="5">
         <v>26.3333333333333</v>
@@ -3974,40 +3993,40 @@
         <v>0.21400798685177899</v>
       </c>
       <c r="G12" s="3">
-        <v>1.31415489494989</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6.4745253303315703E-3</v>
+        <v>1.3772461576188499</v>
+      </c>
+      <c r="H12" s="26">
+        <v>6.6066578180688004E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>4.5025381147017901E-2</v>
+        <v>4.6509251899121598E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>19.431372549019599</v>
+        <v>19.52</v>
       </c>
       <c r="K12" s="4">
-        <v>0.125808913771737</v>
+        <v>0.12896196060870299</v>
       </c>
       <c r="L12" s="3">
-        <v>1.45517589787117</v>
+        <v>1.55654095949803</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.578739770780525E-3</v>
+        <v>3.6430025127389578E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B13" s="13">
         <v>45303</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="26">
         <v>4.8168239439253897E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.2852840319622794E-2</v>
+        <v>6.4165198003231297E-2</v>
       </c>
       <c r="E13" s="5">
         <v>24.5625</v>
@@ -4016,99 +4035,99 @@
         <v>0.118313238122667</v>
       </c>
       <c r="G13" s="3">
-        <v>1.4324681330725499</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.5096942203865499E-3</v>
+        <v>1.4955593957415201</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1.75322893059451E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.6535075367404498E-2</v>
+        <v>4.8262480829716098E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>20.103448275862</v>
+        <v>20.962962962962902</v>
       </c>
       <c r="K13" s="4">
-        <v>3.0350059671908999E-2</v>
+        <v>3.6752873137647898E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.4855259575430799</v>
+        <v>1.59329383263568</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>9.0636882670455068E-2</v>
+        <v>9.3118300057694045E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>45307</v>
       </c>
-      <c r="C14" s="1">
-        <v>2.72618549316587E-3</v>
+      <c r="C14" s="26">
+        <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.5579025812788697E-2</v>
+        <v>6.7178411483243397E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>16.1428571428571</v>
+        <v>18.1666666666666</v>
       </c>
       <c r="F14" s="4">
-        <v>4.4008422961106297E-2</v>
+        <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.4764765560336599</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2.6794788436975401E-3</v>
+        <v>1.5502994406284101</v>
+      </c>
+      <c r="H14" s="26">
+        <v>2.83124015435677E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>4.9214554211101998E-2</v>
+        <v>5.1093720984072902E-2</v>
       </c>
       <c r="J14" s="5">
-        <v>30.258064516129</v>
+        <v>30.275862068965498</v>
       </c>
       <c r="K14" s="4">
-        <v>8.1075843722203195E-2</v>
+        <v>8.5718236397422196E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.56660180126528</v>
+        <v>1.6790120690331001</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B15" s="13">
         <v>45308</v>
       </c>
-      <c r="C15" s="1">
-        <v>2.43020247178815E-3</v>
+      <c r="C15" s="26">
+        <v>2.48262898092871E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>6.8009228284576798E-2</v>
+        <v>6.9661040464172097E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="4">
-        <v>6.0755061794703802E-2</v>
+        <v>5.9583095542289001E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.53723161782836</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2.8339400177308498E-3</v>
+        <v>1.6098825361707001</v>
+      </c>
+      <c r="H15" s="26">
+        <v>2.7998734126676601E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>5.2048494228832898E-2</v>
+        <v>5.3893594396740498E-2</v>
       </c>
       <c r="J15" s="5">
-        <v>98.210526315789394</v>
+        <v>102.444444444444</v>
       </c>
       <c r="K15" s="4">
-        <v>0.27832274068872498</v>
+        <v>0.28683147627550898</v>
       </c>
       <c r="L15" s="3">
-        <v>1.8449245419539999</v>
+        <v>1.9658435453086101</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4121,11 +4140,11 @@
       <c r="B16" s="13">
         <v>45309</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="26">
         <v>5.5595069320004704E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>7.3568735216577294E-2</v>
+        <v>7.5220547396172593E-2</v>
       </c>
       <c r="E16" s="5">
         <v>24.25</v>
@@ -4134,13 +4153,13 @@
         <v>0.134818043101011</v>
       </c>
       <c r="G16" s="3">
-        <v>1.67204966092938</v>
-      </c>
-      <c r="H16" s="1">
+        <v>1.7447005792717101</v>
+      </c>
+      <c r="H16" s="26">
         <v>2.2327901030882698E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>5.4281284331921101E-2</v>
+        <v>5.6126384499828798E-2</v>
       </c>
       <c r="J16" s="5">
         <v>36.757575757575701</v>
@@ -4149,29 +4168,29 @@
         <v>8.2071951365032494E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.92699649331904</v>
+        <v>2.0479154966736401</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.4426605380196249</v>
+        <v>1.4820770077555183</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.6836651874039221</v>
+        <v>2.7707719458782716</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B17" s="13">
         <v>45310</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="26">
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>6.9793143320287701E-2</v>
+        <v>7.1444955499883001E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4180,33 +4199,33 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.46439210663345</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2.7119192204903401E-3</v>
+        <v>1.53704302497578</v>
+      </c>
+      <c r="H17" s="26">
+        <v>2.8087734783649901E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>5.6993203552411498E-2</v>
+        <v>5.8935157978193799E-2</v>
       </c>
       <c r="J17" s="5">
-        <v>16.4482758620689</v>
+        <v>17.035714285714199</v>
       </c>
       <c r="K17" s="4">
-        <v>4.4606395454272099E-2</v>
+        <v>4.7849462470718002E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.9716028887733099</v>
+        <v>2.0957649591443599</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>8.269837732433297</v>
+        <v>8.6462647013625613</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>24.818161470696822</v>
+        <v>26.363043175492834</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4216,11 +4235,11 @@
       <c r="B18" s="13">
         <v>45313</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="26">
         <v>2.0480313709833801E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>6.9997946457385996E-2</v>
+        <v>7.1649758636981295E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.230769230769202</v>
@@ -4229,33 +4248,33 @@
         <v>3.9385218672757403E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.46833062850072</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.4761451433722701E-3</v>
+        <v>1.5409815468430601</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1.6128843227913999E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>5.8469348695783803E-2</v>
+        <v>6.0548042300985198E-2</v>
       </c>
       <c r="J18" s="5">
-        <v>28.6</v>
+        <v>28.035714285714199</v>
       </c>
       <c r="K18" s="4">
-        <v>4.2217751100447003E-2</v>
+        <v>4.5218364049687501E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2.0138206398737601</v>
+        <v>2.14098332319405</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="13">
         <v>45314</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="26">
         <v>-8.7662402564750207E-6</v>
       </c>
       <c r="D19" s="2">
-        <v>6.9989180217129604E-2</v>
+        <v>7.1640992396724903E-2</v>
       </c>
       <c r="E19" s="5">
         <v>31</v>
@@ -4264,33 +4283,33 @@
         <v>-2.7175344795072497E-4</v>
       </c>
       <c r="G19" s="3">
-        <v>1.4680588750527701</v>
-      </c>
-      <c r="H19" s="1">
-        <v>3.54584735598831E-3</v>
+        <v>1.5407097933951099</v>
+      </c>
+      <c r="H19" s="26">
+        <v>3.6611676312320999E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>6.2015196051772102E-2</v>
+        <v>6.4209209932217307E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>23.966666666666601</v>
+        <v>24.6551724137931</v>
       </c>
       <c r="K19" s="4">
-        <v>8.4982141631853095E-2</v>
+        <v>9.0266719183826005E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>2.0988027815056101</v>
+        <v>2.2312500423778698</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13">
         <v>45315</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="26">
         <v>3.7930293631282101E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>7.3782209580257802E-2</v>
+        <v>7.5434021759853101E-2</v>
       </c>
       <c r="E20" s="5">
         <v>35.9166666666666</v>
@@ -4299,33 +4318,33 @@
         <v>0.13623297129235501</v>
       </c>
       <c r="G20" s="3">
-        <v>1.6042918463451299</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.39271241772309E-3</v>
+        <v>1.67694276468746</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1.4603290124042801E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>6.3407908469495206E-2</v>
+        <v>6.5669538944621603E-2</v>
       </c>
       <c r="J20" s="5">
-        <v>16.399999999999999</v>
+        <v>15.7391304347826</v>
       </c>
       <c r="K20" s="4">
-        <v>2.2840483650658799E-2</v>
+        <v>2.2984308803928301E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>2.12164326515627</v>
+        <v>2.2542343511817999</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13">
         <v>45316</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="26">
         <v>1.4722509063788401E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>7.5254460486636601E-2</v>
+        <v>7.6906272666231901E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.700000000000003</v>
@@ -4334,33 +4353,33 @@
         <v>5.1087106451345697E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.65537895279647</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4.3963298849055898E-3</v>
+        <v>1.72802987113881</v>
+      </c>
+      <c r="H21" s="26">
+        <v>4.4580410355351497E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>6.7804238354400803E-2</v>
+        <v>7.0127579980156798E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>21.953488372092998</v>
+        <v>20.8095238095238</v>
       </c>
       <c r="K21" s="4">
-        <v>9.6514777008159899E-2</v>
+        <v>9.2769711072803004E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>2.21815804216443</v>
+        <v>2.3470040622545998</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13">
         <v>45317</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="26">
         <v>6.6517586697807099E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>8.1906219156417298E-2</v>
+        <v>8.3558031336012598E-2</v>
       </c>
       <c r="E22" s="5">
         <v>29.714285714285701</v>
@@ -4369,33 +4388,33 @@
         <v>0.197652257616341</v>
       </c>
       <c r="G22" s="3">
-        <v>1.8530312104128199</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3.11536010143104E-3</v>
+        <v>1.92568212875515</v>
+      </c>
+      <c r="H22" s="26">
+        <v>3.74432499498586E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>7.0919598455831803E-2</v>
+        <v>7.3871904975142594E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>27.921052631578899</v>
+        <v>29.529411764705799</v>
       </c>
       <c r="K22" s="4">
-        <v>8.6984133358377194E-2</v>
+        <v>0.110567714557817</v>
       </c>
       <c r="L22" s="3">
-        <v>2.3051421755228101</v>
+        <v>2.4575717768124199</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="13">
         <v>45320</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="26">
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.3702091347371402E-2</v>
+        <v>8.5353903526966701E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4404,33 +4423,33 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>1.92989454018565</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2.2892022541579301E-3</v>
+        <v>2.00254545852798</v>
+      </c>
+      <c r="H23" s="26">
+        <v>2.34741771531757E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>7.3208800709989794E-2</v>
+        <v>7.6219322690460195E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>23.893939393939299</v>
+        <v>25.25</v>
       </c>
       <c r="K23" s="4">
-        <v>5.4698059921319098E-2</v>
+        <v>5.9272297311768599E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>2.3598402354441301</v>
+        <v>2.5168440741241902</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="13">
         <v>45321</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="26">
         <v>6.3408810487083599E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>9.0042972396079696E-2</v>
+        <v>9.1694784575675106E-2</v>
       </c>
       <c r="E24" s="5">
         <v>28.6666666666666</v>
@@ -4439,33 +4458,33 @@
         <v>0.18177192339630599</v>
       </c>
       <c r="G24" s="3">
-        <v>2.11166646358196</v>
-      </c>
-      <c r="H24" s="1">
-        <v>3.4508535072465098E-3</v>
+        <v>2.18431738192429</v>
+      </c>
+      <c r="H24" s="26">
+        <v>2.93014883430916E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>7.6659654217236306E-2</v>
+        <v>7.9149471524769394E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>26.442307692307601</v>
+        <v>27.959183673469301</v>
       </c>
       <c r="K24" s="4">
-        <v>9.12485302396914E-2</v>
+        <v>8.1924569449052201E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>2.4510887656838198</v>
+        <v>2.5987686435732398</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="13">
         <v>45322</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="26">
         <v>4.0319100775555996E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.4074882473635393E-2</v>
+        <v>9.5726694653230707E-2</v>
       </c>
       <c r="E25" s="5">
         <v>29</v>
@@ -4474,208 +4493,208 @@
         <v>0.116925392249112</v>
       </c>
       <c r="G25" s="3">
-        <v>2.2285918558310698</v>
-      </c>
-      <c r="H25" s="1">
-        <v>8.1775586648674702E-4</v>
+        <v>2.3012427741733998</v>
+      </c>
+      <c r="H25" s="26">
+        <v>8.5940214449276497E-4</v>
       </c>
       <c r="I25" s="2">
-        <v>7.7477410083722997E-2</v>
+        <v>8.0008873669262098E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>34.902439024390198</v>
+        <v>34.358974358974301</v>
       </c>
       <c r="K25" s="4">
-        <v>2.8541674266891099E-2</v>
+        <v>2.95281762466745E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.4796304399507099</v>
+        <v>2.6282968198199201</v>
       </c>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26" s="13">
         <v>45323</v>
       </c>
-      <c r="C26" s="1">
-        <v>-2.57412196547441E-3</v>
+      <c r="C26" s="26">
+        <v>-3.0777623900411699E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.1500760508160903E-2</v>
+        <v>9.2648932263189501E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>43.5</v>
+        <v>43.692307692307601</v>
       </c>
       <c r="F26" s="4">
-        <v>-0.111974305498137</v>
+        <v>-0.13447454134949099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.1166175503329301</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1.42413329031017E-3</v>
+        <v>2.1667682328239102</v>
+      </c>
+      <c r="H26" s="26">
+        <v>1.4338473859073801E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>7.8901543374033198E-2</v>
+        <v>8.1442721055169504E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>25.376344086021501</v>
+        <v>24.9545454545454</v>
       </c>
       <c r="K26" s="4">
-        <v>3.6139296399269001E-2</v>
+        <v>3.5781009766506999E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.5157697363499798</v>
+        <v>2.6640778295864198</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B27" s="13">
         <v>45324</v>
       </c>
-      <c r="C27" s="1">
-        <v>1.2572633288091999E-3</v>
+      <c r="C27" s="26">
+        <v>2.0466783525047699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.2758023836970099E-2</v>
+        <v>9.4695610615694301E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>18.1666666666666</v>
+        <v>15.4117647058823</v>
       </c>
       <c r="F27" s="4">
-        <v>2.2840283806700501E-2</v>
+        <v>3.1542925197426401E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.13945783413963</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2.1562540194659699E-3</v>
+        <v>2.1983111580213399</v>
+      </c>
+      <c r="H27" s="26">
+        <v>2.22238113163692E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>8.1057797393499095E-2</v>
+        <v>8.3665102186806395E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>21.2842105263157</v>
+        <v>21.478260869565201</v>
       </c>
       <c r="K27" s="4">
-        <v>4.5894164498528303E-2</v>
+        <v>4.7732881696897399E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.5616639008485098</v>
+        <v>2.7118107112833201</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B28" s="13">
         <v>45327</v>
       </c>
-      <c r="C28" s="1">
-        <v>4.6763830365432997E-3</v>
+      <c r="C28" s="26">
+        <v>5.1637753118672801E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>9.7434406873513402E-2</v>
+        <v>9.9859385927561495E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>25</v>
+        <v>26.3125</v>
       </c>
       <c r="F28" s="4">
-        <v>0.116909575913582</v>
+        <v>0.13587183789350801</v>
       </c>
       <c r="G28" s="3">
-        <v>2.2563674100532101</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1.40192462569907E-3</v>
+        <v>2.3341829959148401</v>
+      </c>
+      <c r="H28" s="26">
+        <v>1.7624576310801799E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>8.2459722019198198E-2</v>
+        <v>8.5427559817886606E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>21.6212121212121</v>
+        <v>21.737704918032701</v>
       </c>
       <c r="K28" s="4">
-        <v>3.0311309710190599E-2</v>
+        <v>3.8311783914956002E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.5919752105586999</v>
+        <v>2.7501224951982799</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B29" s="13">
         <v>45328</v>
       </c>
-      <c r="C29" s="1">
-        <v>2.4302431475098901E-3</v>
+      <c r="C29" s="26">
+        <v>2.4424608674327398E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>9.9864650021023293E-2</v>
+        <v>0.102301846794994</v>
       </c>
       <c r="E29" s="5">
-        <v>26</v>
+        <v>27.294117647058801</v>
       </c>
       <c r="F29" s="4">
-        <v>6.31863218352572E-2</v>
+        <v>6.6664814264046496E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.3195537318884698</v>
-      </c>
-      <c r="H29" s="1">
-        <v>3.3720748541598701E-3</v>
+        <v>2.4008478101788899</v>
+      </c>
+      <c r="H29" s="26">
+        <v>3.5606350636056801E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.5831796873358096E-2</v>
+        <v>8.8988194881492302E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>19.741071428571399</v>
+        <v>19.935185185185102</v>
       </c>
       <c r="K29" s="4">
-        <v>6.65683705584596E-2</v>
+        <v>7.0981919369842897E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.65854358111716</v>
+        <v>2.8211044145681199</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B30" s="13">
         <v>45329</v>
       </c>
-      <c r="C30" s="1">
-        <v>-2.9222367193843198E-3</v>
+      <c r="C30" s="26">
+        <v>-2.6369294506001801E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>9.6942413301638997E-2</v>
+        <v>9.9664917344394102E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>28.090909090909001</v>
+        <v>30</v>
       </c>
       <c r="F30" s="4">
-        <v>-8.2088286026341495E-2</v>
+        <v>-7.9107883518005601E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.2374654458621301</v>
-      </c>
-      <c r="H30" s="1">
-        <v>4.8128872019648E-3</v>
+        <v>2.32173992666088</v>
+      </c>
+      <c r="H30" s="26">
+        <v>5.0981943190821603E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.0644684075322904E-2</v>
+        <v>9.4086389200574494E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>18.8333333333333</v>
+        <v>18.712499999999999</v>
       </c>
       <c r="K30" s="4">
-        <v>9.0642708970336994E-2</v>
+        <v>9.5399961195824903E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>2.7491862900874899</v>
+        <v>2.9165043757639499</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B31" s="13">
         <v>45330</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="26">
         <v>3.1226760336731398E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.100065089335312</v>
+        <v>0.102787593378067</v>
       </c>
       <c r="E31" s="5">
         <v>24.0625</v>
@@ -4684,33 +4703,33 @@
         <v>7.5139392060260005E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>2.31260483792239</v>
-      </c>
-      <c r="H31" s="1">
-        <v>4.8381160649982203E-3</v>
+        <v>2.3968793187211399</v>
+      </c>
+      <c r="H31" s="26">
+        <v>5.12730680055114E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.5482800140321095E-2</v>
+        <v>9.9213696001125604E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>20.3010752688172</v>
+        <v>20.5</v>
       </c>
       <c r="K31" s="4">
-        <v>9.8218958394802505E-2</v>
+        <v>0.105109789411298</v>
       </c>
       <c r="L31" s="3">
-        <v>2.8474052484822998</v>
+        <v>3.0216141651752402</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32" s="13">
         <v>45331</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="26">
         <v>2.1369009370730699E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.102201990272385</v>
+        <v>0.10492449431514</v>
       </c>
       <c r="E32" s="5">
         <v>28.368421052631501</v>
@@ -4719,33 +4738,33 @@
         <v>6.0620505530651903E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.3732253434530399</v>
-      </c>
-      <c r="H32" s="1">
-        <v>3.9647206370446398E-3</v>
+        <v>2.4574998242518</v>
+      </c>
+      <c r="H32" s="26">
+        <v>4.0357195596043898E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>9.9447520777365794E-2</v>
+        <v>0.10324941556073</v>
       </c>
       <c r="J32" s="5">
-        <v>17.6483516483516</v>
+        <v>17.7045454545454</v>
       </c>
       <c r="K32" s="4">
-        <v>6.99707839900406E-2</v>
+        <v>7.1450580384814097E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>2.9173760324723399</v>
+        <v>3.0930647455600599</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="13">
         <v>45334</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="26">
         <v>1.8453163194119401E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.10404730659179701</v>
+        <v>0.106769810634552</v>
       </c>
       <c r="E33" s="5">
         <v>23.409090909090899</v>
@@ -4754,103 +4773,103 @@
         <v>4.3197177477143203E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.4164225209301899</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1.88294739345507E-3</v>
+        <v>2.5006970017289398</v>
+      </c>
+      <c r="H33" s="26">
+        <v>1.9016480675958199E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.10133046817082</v>
+        <v>0.10515106362832501</v>
       </c>
       <c r="J33" s="5">
-        <v>22.475000000000001</v>
+        <v>22.589743589743499</v>
       </c>
       <c r="K33" s="4">
-        <v>4.2319242667902802E-2</v>
+        <v>4.2957742244921E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>2.9596952751402399</v>
+        <v>3.1360224878049801</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="13">
         <v>45335</v>
       </c>
-      <c r="C34" s="1">
-        <v>8.1595519111649101E-3</v>
+      <c r="C34" s="26">
+        <v>8.4688265307143497E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.112206858502962</v>
+        <v>0.115238637165266</v>
       </c>
       <c r="E34" s="5">
-        <v>19.1714285714285</v>
+        <v>15.484848484848399</v>
       </c>
       <c r="F34" s="4">
-        <v>0.15643026663976101</v>
+        <v>0.13113849567257599</v>
       </c>
       <c r="G34" s="3">
-        <v>2.5728527875699498</v>
-      </c>
-      <c r="H34" s="1">
-        <v>5.1434344022558099E-3</v>
+        <v>2.6318354974015201</v>
+      </c>
+      <c r="H34" s="26">
+        <v>5.0768142435114296E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.106473902573076</v>
+        <v>0.11022787787183699</v>
       </c>
       <c r="J34" s="5">
-        <v>24.939655172413701</v>
+        <v>24.688073394495401</v>
       </c>
       <c r="K34" s="4">
-        <v>0.12827548039419001</v>
+        <v>0.12533676265402999</v>
       </c>
       <c r="L34" s="3">
-        <v>3.08797075553443</v>
+        <v>3.2613592504590101</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="13">
         <v>45336</v>
       </c>
-      <c r="C35" s="1">
-        <v>7.3820311277009503E-3</v>
+      <c r="C35" s="26">
+        <v>7.5839732613421102E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.119588889630663</v>
+        <v>0.122822610426608</v>
       </c>
       <c r="E35" s="5">
-        <v>15.6315789473684</v>
+        <v>15.4444444444444</v>
       </c>
       <c r="F35" s="4">
-        <v>0.115392802364588</v>
+        <v>0.11713025370294999</v>
       </c>
       <c r="G35" s="3">
-        <v>2.6882455899345401</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1.5930696577490201E-3</v>
+        <v>2.7489657511044698</v>
+      </c>
+      <c r="H35" s="26">
+        <v>1.6804011839827999E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.108066972230825</v>
+        <v>0.11190827905582</v>
       </c>
       <c r="J35" s="5">
-        <v>16.5</v>
+        <v>16.5042016806722</v>
       </c>
       <c r="K35" s="4">
-        <v>2.62856493528589E-2</v>
+        <v>2.7733680044892701E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>3.1142564048872901</v>
+        <v>3.2890929305038998</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B36" s="13">
         <v>45337</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="26">
         <v>-1.0152511363241299E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.118573638494338</v>
+        <v>0.121807359290284</v>
       </c>
       <c r="E36" s="5">
         <v>21.6666666666666</v>
@@ -4859,24 +4878,24 @@
         <v>-2.1997107953689501E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.6662484819808498</v>
-      </c>
-      <c r="H36" s="1">
-        <v>5.73087845533885E-3</v>
+        <v>2.72696864315078</v>
+      </c>
+      <c r="H36" s="26">
+        <v>5.2041614811681996E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.11379785068616401</v>
+        <v>0.11711244053698799</v>
       </c>
       <c r="J36" s="5">
-        <v>20.7586206896551</v>
+        <v>21.129629629629601</v>
       </c>
       <c r="K36" s="4">
-        <v>0.118965132072896</v>
+        <v>0.10996200462986799</v>
       </c>
       <c r="L36" s="3">
-        <v>3.2332215369601802</v>
-      </c>
-      <c r="N36" s="25" t="s">
+        <v>3.39905493513377</v>
+      </c>
+      <c r="N36" s="23" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4884,11 +4903,11 @@
       <c r="B37" s="13">
         <v>45338</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="26">
         <v>6.3321893974676103E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.124905827891806</v>
+        <v>0.12813954868775199</v>
       </c>
       <c r="E37" s="5">
         <v>30.030303030302999</v>
@@ -4897,29 +4916,62 @@
         <v>0.190157566451224</v>
       </c>
       <c r="G37" s="3">
-        <v>2.8564060484320701</v>
-      </c>
-      <c r="H37" s="1">
-        <v>4.5964651111327897E-3</v>
+        <v>2.9171262096019999</v>
+      </c>
+      <c r="H37" s="26">
+        <v>3.8059548442998599E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.11839431579729701</v>
+        <v>0.120918395381288</v>
       </c>
       <c r="J37" s="5">
-        <v>16.851851851851801</v>
+        <v>15.869158878504599</v>
       </c>
       <c r="K37" s="4">
-        <v>7.7458949095015495E-2</v>
+        <v>6.0397302108608997E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>3.3106804860552002</v>
-      </c>
-      <c r="N37" s="25" t="s">
+        <v>3.4594522372423802</v>
+      </c>
+      <c r="N37" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="N38" s="25" t="s">
+      <c r="B38" s="13">
+        <v>45342</v>
+      </c>
+      <c r="C38" s="26">
+        <v>2.6140938025245798E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.13075364249027599</v>
+      </c>
+      <c r="E38" s="5">
+        <v>24.607142857142801</v>
+      </c>
+      <c r="F38" s="4">
+        <v>6.4325379640694305E-2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2.9814515892426998</v>
+      </c>
+      <c r="H38" s="26">
+        <v>3.3204871701226699E-3</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.12423888255141</v>
+      </c>
+      <c r="J38" s="5">
+        <v>23.7573529411764</v>
+      </c>
+      <c r="K38" s="4">
+        <v>7.8885985637252701E-2</v>
+      </c>
+      <c r="L38" s="3">
+        <v>3.5383382228796298</v>
+      </c>
+      <c r="N38" s="23" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6902A8-88BD-4676-BFB4-85413E68542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81152887-E3D3-4A55-AD89-583911858F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,13 +729,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -783,28 +783,22 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -816,10 +810,16 @@
       <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -977,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$38</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1085,16 +1085,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$38</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>3.3553865235238698E-3</c:v>
                 </c:pt>
@@ -1102,103 +1105,106 @@
                   <c:v>5.6147381844112304E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7936509025615404E-3</c:v>
+                  <c:v>9.3043948821248893E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7069084131894698E-2</c:v>
+                  <c:v>1.6033661384547902E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2716477517249901E-2</c:v>
+                  <c:v>2.1681054769903101E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8233650032455499E-2</c:v>
+                  <c:v>2.71982272851088E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2432765084690002E-2</c:v>
+                  <c:v>3.8883873346184698E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1221488482656098E-2</c:v>
+                  <c:v>4.7672596744150697E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9348374059305903E-2</c:v>
+                  <c:v>5.5821618883489403E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4165198003231297E-2</c:v>
+                  <c:v>6.0190003952039002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7178411483243397E-2</c:v>
+                  <c:v>6.3203217432051095E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9661040464172097E-2</c:v>
+                  <c:v>6.5685846412979795E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5220547396172593E-2</c:v>
+                  <c:v>6.7241877496208899E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1444955499883001E-2</c:v>
+                  <c:v>6.3466285599919306E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1649758636981295E-2</c:v>
+                  <c:v>6.36710887370176E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.1640992396724903E-2</c:v>
+                  <c:v>6.4297708424596006E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.5434021759853101E-2</c:v>
+                  <c:v>6.8200867570666401E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.6906272666231901E-2</c:v>
+                  <c:v>7.0258112381535398E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3558031336012598E-2</c:v>
+                  <c:v>7.6909871051316095E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.5353903526966701E-2</c:v>
+                  <c:v>7.8705743242270199E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.1694784575675106E-2</c:v>
+                  <c:v>8.5046624290978604E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.5726694653230707E-2</c:v>
+                  <c:v>8.8817178835012306E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.2648932263189501E-2</c:v>
+                  <c:v>8.57394164449711E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.4695610615694301E-2</c:v>
+                  <c:v>8.77860947974759E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.9859385927561495E-2</c:v>
+                  <c:v>9.2949870109343094E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.102301846794994</c:v>
+                  <c:v>9.5392330976775894E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.9664917344394102E-2</c:v>
+                  <c:v>9.2755401526175701E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.102787593378067</c:v>
+                  <c:v>9.5988214489745205E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10492449431514</c:v>
+                  <c:v>9.8125115426818302E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.106769810634552</c:v>
+                  <c:v>0.100394021934277</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.115238637165266</c:v>
+                  <c:v>0.109070377488018</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.122822610426608</c:v>
+                  <c:v>0.11665435074935999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.121807359290284</c:v>
+                  <c:v>0.11563909961303601</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12813954868775199</c:v>
+                  <c:v>0.12201196275557299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13075364249027599</c:v>
+                  <c:v>0.124626056558098</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.127119421776519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,10 +1597,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$38</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1699,120 +1705,126 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$38</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.3442870266167401E-3</c:v>
+                  <c:v>2.7495750654940999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0872151907797497E-3</c:v>
+                  <c:v>7.4925032296571104E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4035730842634399E-2</c:v>
+                  <c:v>1.3441018881511699E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7322820879792498E-2</c:v>
+                  <c:v>1.6728108918669798E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0274949825849499E-2</c:v>
+                  <c:v>2.9680237864726899E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4632695258080298E-2</c:v>
+                  <c:v>3.3651272040849903E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.70029138057116E-2</c:v>
+                  <c:v>3.6021490588481198E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9902594081052803E-2</c:v>
+                  <c:v>3.89211708638224E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6509251899121598E-2</c:v>
+                  <c:v>4.5527828681891203E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8262480829716098E-2</c:v>
+                  <c:v>4.74178940133737E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1093720984072902E-2</c:v>
+                  <c:v>5.0249134167730497E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3893594396740498E-2</c:v>
+                  <c:v>5.1947039794292799E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6126384499828798E-2</c:v>
+                  <c:v>5.4179829897381099E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8935157978193799E-2</c:v>
+                  <c:v>5.69886033757461E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0548042300985198E-2</c:v>
+                  <c:v>5.8601487698537499E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4209209932217307E-2</c:v>
+                  <c:v>6.2492420583048797E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5669538944621603E-2</c:v>
+                  <c:v>6.3952749595452996E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0127579980156798E-2</c:v>
+                  <c:v>6.8601577005115197E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3871904975142594E-2</c:v>
+                  <c:v>7.2345902000101006E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6219322690460195E-2</c:v>
+                  <c:v>7.4803362947266402E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.9149471524769394E-2</c:v>
+                  <c:v>7.7824498983235096E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0008873669262098E-2</c:v>
+                  <c:v>7.9935532887784905E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1442721055169504E-2</c:v>
+                  <c:v>8.1422154412370606E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3665102186806395E-2</c:v>
+                  <c:v>8.3684939552970905E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5427559817886606E-2</c:v>
+                  <c:v>8.5801312108656394E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.8988194881492302E-2</c:v>
+                  <c:v>8.9531916228778596E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.4086389200574494E-2</c:v>
+                  <c:v>9.4694644653165599E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9213696001125604E-2</c:v>
+                  <c:v>9.9938314198415507E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10324941556073</c:v>
+                  <c:v>0.10346341793012501</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10515106362832501</c:v>
+                  <c:v>0.104974455751774</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11022787787183699</c:v>
+                  <c:v>0.10955181292845401</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11190827905582</c:v>
+                  <c:v>0.111286131734465</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11711244053698799</c:v>
+                  <c:v>0.116250553469763</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.120918395381288</c:v>
+                  <c:v>0.11925497800400001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12423888255141</c:v>
+                  <c:v>0.12178025786366301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.123330103305004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3184,15 +3196,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3220,15 +3232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3259,20 +3271,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L38" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L39" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cumulative Realized Return" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Average Realized Days_x000a_Held" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Realized Weighted Daily_x000a_Return" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cumulative Realized Weighted Return" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unrealized Daily Return" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cumulative Unrealized Return" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Average Unrealized Days_x000a_Held" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unrealized Weighted Daily Return" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Cumulative Unrealized Weighted Return" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cumulative Realized Return" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Average Realized Days_x000a_Held" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Realized Weighted Daily_x000a_Return" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cumulative Realized Weighted Return" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Unrealized Daily Return" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cumulative Unrealized Return" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Average Unrealized Days_x000a_Held" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Unrealized Weighted Daily Return" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Cumulative Unrealized Weighted Return" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3575,10 +3587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z38"/>
+  <dimension ref="B2:Z39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3606,18 +3618,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="N2" s="24" t="str">
+      <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 277%</v>
-      </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 255%</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
     </row>
     <row r="3" spans="2:25" s="6" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
@@ -3658,7 +3670,7 @@
       <c r="B4" s="13">
         <v>45289</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>3.3553865235238698E-3</v>
       </c>
       <c r="D4" s="2">
@@ -3673,34 +3685,34 @@
       <c r="G4" s="3">
         <v>8.6680818524366696E-2</v>
       </c>
-      <c r="H4" s="26">
-        <v>3.3442870266167401E-3</v>
+      <c r="H4" s="24">
+        <v>2.7495750654940999E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>3.3442870266167401E-3</v>
+        <v>2.7495750654940999E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>31.4545454545454</v>
+        <v>32.857142857142797</v>
       </c>
       <c r="K4" s="4">
-        <v>0.105193028291762</v>
+        <v>9.03431807233777E-2</v>
       </c>
       <c r="L4" s="3">
-        <v>0.105193028291762</v>
+        <v>9.03431807233777E-2</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.7358183568650498E-3</v>
+        <v>3.5310950493477461E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B5" s="13">
         <v>45293</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>2.2593516608873502E-3</v>
       </c>
       <c r="D5" s="2">
@@ -3715,11 +3727,11 @@
       <c r="G5" s="3">
         <v>0.145661788198057</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>4.74292816416301E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.0872151907797497E-3</v>
+        <v>7.4925032296571104E-3</v>
       </c>
       <c r="J5" s="5">
         <v>37.257142857142803</v>
@@ -3728,40 +3740,40 @@
         <v>0.176707952173387</v>
       </c>
       <c r="L5" s="3">
-        <v>0.28190098046515</v>
+        <v>0.26705113289676502</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.51843311212198E-2</v>
+        <v>8.1116894024735542E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B6" s="13">
         <v>45294</v>
       </c>
-      <c r="C6" s="26">
-        <v>4.1789127181503004E-3</v>
+      <c r="C6" s="24">
+        <v>3.6896566977136498E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>9.7936509025615404E-3</v>
+        <v>9.3043948821248893E-3</v>
       </c>
       <c r="E6" s="5">
-        <v>26.615384615384599</v>
+        <v>24.6666666666666</v>
       </c>
       <c r="F6" s="4">
-        <v>0.111223369267692</v>
+        <v>9.1011531876936905E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>0.25688515746575002</v>
-      </c>
-      <c r="H6" s="26">
+        <v>0.236673320074994</v>
+      </c>
+      <c r="H6" s="24">
         <v>5.9485156518546802E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.4035730842634399E-2</v>
+        <v>1.3441018881511699E-2</v>
       </c>
       <c r="J6" s="5">
         <v>35.3333333333333</v>
@@ -3770,40 +3782,40 @@
         <v>0.210180886365532</v>
       </c>
       <c r="L6" s="3">
-        <v>0.492081866830682</v>
+        <v>0.47723201926229702</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>27.14678029167743</v>
+        <v>26.896176507137607</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B7" s="13">
         <v>45295</v>
       </c>
-      <c r="C7" s="26">
-        <v>7.2754332293332004E-3</v>
+      <c r="C7" s="24">
+        <v>6.7292665024230799E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.7069084131894698E-2</v>
+        <v>1.6033661384547902E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>33.5833333333333</v>
+        <v>33.272727272727202</v>
       </c>
       <c r="F7" s="4">
-        <v>0.244333299285106</v>
+        <v>0.223901049080622</v>
       </c>
       <c r="G7" s="3">
-        <v>0.50121845675085697</v>
-      </c>
-      <c r="H7" s="26">
+        <v>0.460574369155617</v>
+      </c>
+      <c r="H7" s="24">
         <v>3.2870900371580599E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.7322820879792498E-2</v>
+        <v>1.6728108918669798E-2</v>
       </c>
       <c r="J7" s="5">
         <v>28.909090909090899</v>
@@ -3812,18 +3824,18 @@
         <v>9.5026784710569606E-2</v>
       </c>
       <c r="L7" s="3">
-        <v>0.58710865154125202</v>
+        <v>0.57225880397286699</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B8" s="13">
         <v>45296</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>5.6473933853551997E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.2716477517249901E-2</v>
+        <v>2.1681054769903101E-2</v>
       </c>
       <c r="E8" s="5">
         <v>23.5</v>
@@ -3832,13 +3844,13 @@
         <v>0.132713744555847</v>
       </c>
       <c r="G8" s="3">
-        <v>0.63393220130670402</v>
-      </c>
-      <c r="H8" s="26">
+        <v>0.59328811371146395</v>
+      </c>
+      <c r="H8" s="24">
         <v>1.2952128946057E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>3.0274949825849499E-2</v>
+        <v>2.9680237864726899E-2</v>
       </c>
       <c r="J8" s="5">
         <v>49.4324324324324</v>
@@ -3847,25 +3859,25 @@
         <v>0.640255238982119</v>
       </c>
       <c r="L8" s="3">
-        <v>1.2273638905233699</v>
+        <v>1.2125140429549801</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.5496823586117325E-3</v>
+        <v>3.4258362029167817E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B9" s="13">
         <v>45299</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.8233650032455499E-2</v>
+        <v>2.71982272851088E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3874,55 +3886,55 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>0.85117086909292605</v>
-      </c>
-      <c r="H9" s="26">
-        <v>4.3577454322306997E-3</v>
+        <v>0.81052678149768598</v>
+      </c>
+      <c r="H9" s="24">
+        <v>3.9710341761229704E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.4632695258080298E-2</v>
+        <v>3.3651272040849903E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>24</v>
+        <v>23.407407407407401</v>
       </c>
       <c r="K9" s="4">
-        <v>0.10458589037353599</v>
+        <v>9.2951614789248904E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>1.3319497808969001</v>
+        <v>1.3054656577442301</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>0.10109537779656089</v>
+        <v>9.6265437611075089E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B10" s="13">
         <v>45300</v>
       </c>
-      <c r="C10" s="26">
-        <v>1.41991150522345E-2</v>
+      <c r="C10" s="24">
+        <v>1.16856460610759E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>4.2432765084690002E-2</v>
+        <v>3.8883873346184698E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>15.4444444444444</v>
+        <v>16.294117647058801</v>
       </c>
       <c r="F10" s="4">
-        <v>0.21929744358451</v>
+        <v>0.19040729170105999</v>
       </c>
       <c r="G10" s="3">
-        <v>1.0704683126774299</v>
-      </c>
-      <c r="H10" s="26">
+        <v>1.0009340731987399</v>
+      </c>
+      <c r="H10" s="24">
         <v>2.3702185476313499E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>3.70029138057116E-2</v>
+        <v>3.6021490588481198E-2</v>
       </c>
       <c r="J10" s="5">
         <v>15.018867924528299</v>
@@ -3931,25 +3943,25 @@
         <v>3.5597999319142502E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.3675477802160501</v>
+        <v>1.3410636570633701</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>27.000076796299908</v>
+        <v>27.129694457970615</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B11" s="13">
         <v>45301</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>8.7887233979660109E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>5.1221488482656098E-2</v>
+        <v>4.7672596744150697E-2</v>
       </c>
       <c r="E11" s="5">
         <v>10.5555555555555</v>
@@ -3958,13 +3970,13 @@
         <v>9.2769858089641194E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.16323817076707</v>
-      </c>
-      <c r="H11" s="26">
+        <v>1.0937039312883801</v>
+      </c>
+      <c r="H11" s="24">
         <v>2.89968027534116E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.9902594081052803E-2</v>
+        <v>3.89211708638224E-2</v>
       </c>
       <c r="J11" s="5">
         <v>20.702702702702702</v>
@@ -3973,33 +3985,33 @@
         <v>6.0031218673279201E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.4275789988893299</v>
+        <v>1.4010948757366499</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B12" s="13">
         <v>45302</v>
       </c>
-      <c r="C12" s="26">
-        <v>8.1268855766498393E-3</v>
+      <c r="C12" s="24">
+        <v>8.1490221393387494E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.9348374059305903E-2</v>
+        <v>5.5821618883489403E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>26.3333333333333</v>
+        <v>28.75</v>
       </c>
       <c r="F12" s="4">
-        <v>0.21400798685177899</v>
+        <v>0.23428438650598901</v>
       </c>
       <c r="G12" s="3">
-        <v>1.3772461576188499</v>
-      </c>
-      <c r="H12" s="26">
+        <v>1.3279883177943701</v>
+      </c>
+      <c r="H12" s="24">
         <v>6.6066578180688004E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>4.6509251899121598E-2</v>
+        <v>4.5527828681891203E-2</v>
       </c>
       <c r="J12" s="5">
         <v>19.52</v>
@@ -4008,67 +4020,67 @@
         <v>0.12896196060870299</v>
       </c>
       <c r="L12" s="3">
-        <v>1.55654095949803</v>
+        <v>1.5300568363453599</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.6430025127389578E-3</v>
+        <v>3.4782381440973931E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B13" s="13">
         <v>45303</v>
       </c>
-      <c r="C13" s="26">
-        <v>4.8168239439253897E-3</v>
+      <c r="C13" s="24">
+        <v>4.3683850685495096E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.4165198003231297E-2</v>
+        <v>6.0190003952039002E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>24.5625</v>
+        <v>25.933333333333302</v>
       </c>
       <c r="F13" s="4">
-        <v>0.118313238122667</v>
+        <v>0.11328678611105</v>
       </c>
       <c r="G13" s="3">
-        <v>1.4955593957415201</v>
-      </c>
-      <c r="H13" s="26">
-        <v>1.75322893059451E-3</v>
+        <v>1.4412751039054199</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1.89006533148253E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.8262480829716098E-2</v>
+        <v>4.74178940133737E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>20.962962962962902</v>
+        <v>21.1538461538461</v>
       </c>
       <c r="K13" s="4">
-        <v>3.6752873137647898E-2</v>
+        <v>3.9982151242899701E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.59329383263568</v>
+        <v>1.5700389875882499</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>9.3118300057694045E-2</v>
+        <v>8.8723904363283604E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>45307</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="24">
         <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.7178411483243397E-2</v>
+        <v>6.3203217432051095E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4077,13 +4089,13 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.5502994406284101</v>
-      </c>
-      <c r="H14" s="26">
+        <v>1.4960151487923099</v>
+      </c>
+      <c r="H14" s="24">
         <v>2.83124015435677E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>5.1093720984072902E-2</v>
+        <v>5.0249134167730497E-2</v>
       </c>
       <c r="J14" s="5">
         <v>30.275862068965498</v>
@@ -4092,18 +4104,18 @@
         <v>8.5718236397422196E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.6790120690331001</v>
+        <v>1.6557572239856799</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B15" s="13">
         <v>45308</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="24">
         <v>2.48262898092871E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>6.9661040464172097E-2</v>
+        <v>6.5685846412979795E-2</v>
       </c>
       <c r="E15" s="5">
         <v>24</v>
@@ -4112,22 +4124,22 @@
         <v>5.9583095542289001E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.6098825361707001</v>
-      </c>
-      <c r="H15" s="26">
-        <v>2.7998734126676601E-3</v>
+        <v>1.5555982443345999</v>
+      </c>
+      <c r="H15" s="24">
+        <v>1.69790562656233E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>5.3893594396740498E-2</v>
+        <v>5.1947039794292799E-2</v>
       </c>
       <c r="J15" s="5">
-        <v>102.444444444444</v>
+        <v>104.64705882352899</v>
       </c>
       <c r="K15" s="4">
-        <v>0.28683147627550898</v>
+        <v>0.17768082997967</v>
       </c>
       <c r="L15" s="3">
-        <v>1.9658435453086101</v>
+        <v>1.8334380539653501</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4140,26 +4152,26 @@
       <c r="B16" s="13">
         <v>45309</v>
       </c>
-      <c r="C16" s="26">
-        <v>5.5595069320004704E-3</v>
+      <c r="C16" s="24">
+        <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>7.5220547396172593E-2</v>
+        <v>6.7241877496208899E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>24.25</v>
+        <v>28</v>
       </c>
       <c r="F16" s="4">
-        <v>0.134818043101011</v>
+        <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.7447005792717101</v>
-      </c>
-      <c r="H16" s="26">
+        <v>1.5991671146650099</v>
+      </c>
+      <c r="H16" s="24">
         <v>2.2327901030882698E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>5.6126384499828798E-2</v>
+        <v>5.4179829897381099E-2</v>
       </c>
       <c r="J16" s="5">
         <v>36.757575757575701</v>
@@ -4168,29 +4180,29 @@
         <v>8.2071951365032494E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>2.0479154966736401</v>
+        <v>1.91551000533038</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.4820770077555183</v>
+        <v>1.3822627373694845</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.7707719458782716</v>
+        <v>2.5514434212318937</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B17" s="13">
         <v>45310</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>7.1444955499883001E-2</v>
+        <v>6.3466285599919306E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4199,13 +4211,13 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.53704302497578</v>
-      </c>
-      <c r="H17" s="26">
+        <v>1.3915095603690899</v>
+      </c>
+      <c r="H17" s="24">
         <v>2.8087734783649901E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>5.8935157978193799E-2</v>
+        <v>5.69886033757461E-2</v>
       </c>
       <c r="J17" s="5">
         <v>17.035714285714199</v>
@@ -4214,18 +4226,18 @@
         <v>4.7849462470718002E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>2.0957649591443599</v>
+        <v>1.9633594678010999</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>8.6462647013625613</v>
+        <v>7.7102596832857255</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>26.363043175492834</v>
+        <v>22.574658506680237</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4235,11 +4247,11 @@
       <c r="B18" s="13">
         <v>45313</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>2.0480313709833801E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>7.1649758636981295E-2</v>
+        <v>6.36710887370176E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.230769230769202</v>
@@ -4248,13 +4260,13 @@
         <v>3.9385218672757403E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.5409815468430601</v>
-      </c>
-      <c r="H18" s="26">
+        <v>1.39544808223636</v>
+      </c>
+      <c r="H18" s="24">
         <v>1.6128843227913999E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>6.0548042300985198E-2</v>
+        <v>5.8601487698537499E-2</v>
       </c>
       <c r="J18" s="5">
         <v>28.035714285714199</v>
@@ -4263,68 +4275,68 @@
         <v>4.5218364049687501E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2.14098332319405</v>
+        <v>2.0085778318507899</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="13">
         <v>45314</v>
       </c>
-      <c r="C19" s="26">
-        <v>-8.7662402564750207E-6</v>
+      <c r="C19" s="24">
+        <v>6.2661968757838304E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>7.1640992396724903E-2</v>
+        <v>6.4297708424596006E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>31</v>
+        <v>32.1111111111111</v>
       </c>
       <c r="F19" s="4">
-        <v>-2.7175344795072497E-4</v>
+        <v>2.0121454412239202E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.5407097933951099</v>
-      </c>
-      <c r="H19" s="26">
-        <v>3.6611676312320999E-3</v>
+        <v>1.4155695366486001</v>
+      </c>
+      <c r="H19" s="24">
+        <v>3.8909328845112201E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>6.4209209932217307E-2</v>
+        <v>6.2492420583048797E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>24.6551724137931</v>
+        <v>24.571428571428498</v>
       </c>
       <c r="K19" s="4">
-        <v>9.0266719183826005E-2</v>
+        <v>9.5605779447990105E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>2.2312500423778698</v>
+        <v>2.10418361129878</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13">
         <v>45315</v>
       </c>
-      <c r="C20" s="26">
-        <v>3.7930293631282101E-3</v>
+      <c r="C20" s="24">
+        <v>3.90315914607038E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>7.5434021759853101E-2</v>
+        <v>6.8200867570666401E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>35.9166666666666</v>
+        <v>34.181818181818102</v>
       </c>
       <c r="F20" s="4">
-        <v>0.13623297129235501</v>
+        <v>0.133417076265678</v>
       </c>
       <c r="G20" s="3">
-        <v>1.67694276468746</v>
-      </c>
-      <c r="H20" s="26">
+        <v>1.54898661291428</v>
+      </c>
+      <c r="H20" s="24">
         <v>1.4603290124042801E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>6.5669538944621603E-2</v>
+        <v>6.3952749595452996E-2</v>
       </c>
       <c r="J20" s="5">
         <v>15.7391304347826</v>
@@ -4333,53 +4345,53 @@
         <v>2.2984308803928301E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>2.2542343511817999</v>
+        <v>2.1271679201026998</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13">
         <v>45316</v>
       </c>
-      <c r="C21" s="26">
-        <v>1.4722509063788401E-3</v>
+      <c r="C21" s="24">
+        <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>7.6906272666231901E-2</v>
+        <v>7.0258112381535398E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>34.700000000000003</v>
+        <v>34.3333333333333</v>
       </c>
       <c r="F21" s="4">
-        <v>5.1087106451345697E-2</v>
+        <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.72802987113881</v>
-      </c>
-      <c r="H21" s="26">
-        <v>4.4580410355351497E-3</v>
+        <v>1.6196186847541201</v>
+      </c>
+      <c r="H21" s="24">
+        <v>4.6488274096621301E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>7.0127579980156798E-2</v>
+        <v>6.8601577005115197E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>20.8095238095238</v>
+        <v>20.609756097560901</v>
       </c>
       <c r="K21" s="4">
-        <v>9.2769711072803004E-2</v>
+        <v>9.58111990527927E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>2.3470040622545998</v>
+        <v>2.2229791191555002</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13">
         <v>45317</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>6.6517586697807099E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>8.3558031336012598E-2</v>
+        <v>7.6909871051316095E-2</v>
       </c>
       <c r="E22" s="5">
         <v>29.714285714285701</v>
@@ -4388,13 +4400,13 @@
         <v>0.197652257616341</v>
       </c>
       <c r="G22" s="3">
-        <v>1.92568212875515</v>
-      </c>
-      <c r="H22" s="26">
+        <v>1.8172709423704601</v>
+      </c>
+      <c r="H22" s="24">
         <v>3.74432499498586E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>7.3871904975142594E-2</v>
+        <v>7.2345902000101006E-2</v>
       </c>
       <c r="J22" s="5">
         <v>29.529411764705799</v>
@@ -4403,18 +4415,18 @@
         <v>0.110567714557817</v>
       </c>
       <c r="L22" s="3">
-        <v>2.4575717768124199</v>
+        <v>2.3335468337133101</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="13">
         <v>45320</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.5353903526966701E-2</v>
+        <v>7.8705743242270199E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4423,33 +4435,33 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>2.00254545852798</v>
-      </c>
-      <c r="H23" s="26">
-        <v>2.34741771531757E-3</v>
+        <v>1.8941342721432901</v>
+      </c>
+      <c r="H23" s="24">
+        <v>2.4574609471653998E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>7.6219322690460195E-2</v>
+        <v>7.4803362947266402E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>25.25</v>
+        <v>25.551724137931</v>
       </c>
       <c r="K23" s="4">
-        <v>5.9272297311768599E-2</v>
+        <v>6.2792364201709E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>2.5168440741241902</v>
+        <v>2.3963391979150201</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="13">
         <v>45321</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
         <v>6.3408810487083599E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>9.1694784575675106E-2</v>
+        <v>8.5046624290978604E-2</v>
       </c>
       <c r="E24" s="5">
         <v>28.6666666666666</v>
@@ -4458,68 +4470,68 @@
         <v>0.18177192339630599</v>
       </c>
       <c r="G24" s="3">
-        <v>2.18431738192429</v>
-      </c>
-      <c r="H24" s="26">
-        <v>2.93014883430916E-3</v>
+        <v>2.0759061955395999</v>
+      </c>
+      <c r="H24" s="24">
+        <v>3.0211360359686402E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>7.9149471524769394E-2</v>
+        <v>7.7824498983235096E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>27.959183673469301</v>
+        <v>27.8333333333333</v>
       </c>
       <c r="K24" s="4">
-        <v>8.1924569449052201E-2</v>
+        <v>8.4088286334460693E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>2.5987686435732398</v>
+        <v>2.4804274842494798</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="13">
         <v>45322</v>
       </c>
-      <c r="C25" s="26">
-        <v>4.0319100775555996E-3</v>
+      <c r="C25" s="24">
+        <v>3.7705545440336798E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.5726694653230707E-2</v>
+        <v>8.8817178835012306E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>29</v>
+        <v>29.689655172413701</v>
       </c>
       <c r="F25" s="4">
-        <v>0.116925392249112</v>
+        <v>0.11194646422113699</v>
       </c>
       <c r="G25" s="3">
-        <v>2.3012427741733998</v>
-      </c>
-      <c r="H25" s="26">
-        <v>8.5940214449276497E-4</v>
+        <v>2.1878526597607402</v>
+      </c>
+      <c r="H25" s="24">
+        <v>2.11103390454983E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>8.0008873669262098E-2</v>
+        <v>7.9935532887784905E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>34.358974358974301</v>
+        <v>35.210526315789402</v>
       </c>
       <c r="K25" s="4">
-        <v>2.95281762466745E-2</v>
+        <v>7.4330614849675597E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.6282968198199201</v>
+        <v>2.5547580990991601</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="13">
         <v>45323</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <v>-3.0777623900411699E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.2648932263189501E-2</v>
+        <v>8.57394164449711E-2</v>
       </c>
       <c r="E26" s="5">
         <v>43.692307692307601</v>
@@ -4528,33 +4540,33 @@
         <v>-0.13447454134949099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.1667682328239102</v>
-      </c>
-      <c r="H26" s="26">
-        <v>1.4338473859073801E-3</v>
+        <v>2.0533781184112398</v>
+      </c>
+      <c r="H26" s="24">
+        <v>1.48662152458569E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>8.1442721055169504E-2</v>
+        <v>8.1422154412370606E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>24.9545454545454</v>
+        <v>25.116279069767401</v>
       </c>
       <c r="K26" s="4">
-        <v>3.5781009766506999E-2</v>
+        <v>3.7338401082617503E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.6640778295864198</v>
+        <v>2.5920965001817802</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B27" s="13">
         <v>45324</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <v>2.0466783525047699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.4695610615694301E-2</v>
+        <v>8.77860947974759E-2</v>
       </c>
       <c r="E27" s="5">
         <v>15.4117647058823</v>
@@ -4563,33 +4575,33 @@
         <v>3.1542925197426401E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.1983111580213399</v>
-      </c>
-      <c r="H27" s="26">
-        <v>2.22238113163692E-3</v>
+        <v>2.08492104360867</v>
+      </c>
+      <c r="H27" s="24">
+        <v>2.26278514060024E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>8.3665102186806395E-2</v>
+        <v>8.3684939552970905E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>21.478260869565201</v>
+        <v>21.307692307692299</v>
       </c>
       <c r="K27" s="4">
-        <v>4.7732881696897399E-2</v>
+        <v>4.8214729534328198E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.7118107112833201</v>
+        <v>2.6403112297161102</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B28" s="13">
         <v>45327</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="24">
         <v>5.1637753118672801E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>9.9859385927561495E-2</v>
+        <v>9.2949870109343094E-2</v>
       </c>
       <c r="E28" s="5">
         <v>26.3125</v>
@@ -4598,33 +4610,33 @@
         <v>0.13587183789350801</v>
       </c>
       <c r="G28" s="3">
-        <v>2.3341829959148401</v>
-      </c>
-      <c r="H28" s="26">
-        <v>1.7624576310801799E-3</v>
+        <v>2.22079288150218</v>
+      </c>
+      <c r="H28" s="24">
+        <v>2.1163725556854699E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>8.5427559817886606E-2</v>
+        <v>8.5801312108656394E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>21.737704918032701</v>
+        <v>22.355932203389798</v>
       </c>
       <c r="K28" s="4">
-        <v>3.8311783914956002E-2</v>
+        <v>4.7313481372019302E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.7501224951982799</v>
+        <v>2.6876247110881302</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B29" s="13">
         <v>45328</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="24">
         <v>2.4424608674327398E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.102301846794994</v>
+        <v>9.5392330976775894E-2</v>
       </c>
       <c r="E29" s="5">
         <v>27.294117647058801</v>
@@ -4633,33 +4645,33 @@
         <v>6.6664814264046496E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.4008478101788899</v>
-      </c>
-      <c r="H29" s="26">
-        <v>3.5606350636056801E-3</v>
+        <v>2.2874576957662298</v>
+      </c>
+      <c r="H29" s="24">
+        <v>3.7306041201222301E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.8988194881492302E-2</v>
+        <v>8.9531916228778596E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>19.935185185185102</v>
+        <v>20.235849056603701</v>
       </c>
       <c r="K29" s="4">
-        <v>7.0981919369842897E-2</v>
+        <v>7.5491941864737705E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.8211044145681199</v>
+        <v>2.7631166529528599</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B30" s="13">
         <v>45329</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="24">
         <v>-2.6369294506001801E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>9.9664917344394102E-2</v>
+        <v>9.2755401526175701E-2</v>
       </c>
       <c r="E30" s="5">
         <v>30</v>
@@ -4668,68 +4680,68 @@
         <v>-7.9107883518005601E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.32173992666088</v>
-      </c>
-      <c r="H30" s="26">
-        <v>5.0981943190821603E-3</v>
+        <v>2.2083498122482199</v>
+      </c>
+      <c r="H30" s="24">
+        <v>5.1627284243869996E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.4086389200574494E-2</v>
+        <v>9.4694644653165599E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>18.712499999999999</v>
+        <v>18.949367088607499</v>
       </c>
       <c r="K30" s="4">
-        <v>9.5399961195824903E-2</v>
+        <v>9.7830436092498002E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>2.9165043757639499</v>
+        <v>2.8609470890453599</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B31" s="13">
         <v>45330</v>
       </c>
-      <c r="C31" s="26">
-        <v>3.1226760336731398E-3</v>
+      <c r="C31" s="24">
+        <v>3.23281296356952E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.102787593378067</v>
+        <v>9.5988214489745205E-2</v>
       </c>
       <c r="E31" s="5">
-        <v>24.0625</v>
+        <v>21.8666666666666</v>
       </c>
       <c r="F31" s="4">
-        <v>7.5139392060260005E-2</v>
+        <v>7.0690843470053596E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>2.3968793187211399</v>
-      </c>
-      <c r="H31" s="26">
-        <v>5.12730680055114E-3</v>
+        <v>2.2790406557182701</v>
+      </c>
+      <c r="H31" s="24">
+        <v>5.2436695452498499E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.9213696001125604E-2</v>
+        <v>9.9938314198415507E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>20.5</v>
+        <v>20.8333333333333</v>
       </c>
       <c r="K31" s="4">
-        <v>0.105109789411298</v>
+        <v>0.10924311552603801</v>
       </c>
       <c r="L31" s="3">
-        <v>3.0216141651752402</v>
+        <v>2.9701902045713999</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32" s="13">
         <v>45331</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="24">
         <v>2.1369009370730699E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.10492449431514</v>
+        <v>9.8125115426818302E-2</v>
       </c>
       <c r="E32" s="5">
         <v>28.368421052631501</v>
@@ -4738,103 +4750,103 @@
         <v>6.0620505530651903E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.4574998242518</v>
-      </c>
-      <c r="H32" s="26">
-        <v>4.0357195596043898E-3</v>
+        <v>2.3396611612489302</v>
+      </c>
+      <c r="H32" s="24">
+        <v>3.5251037317097001E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>0.10324941556073</v>
+        <v>0.10346341793012501</v>
       </c>
       <c r="J32" s="5">
-        <v>17.7045454545454</v>
+        <v>17.952380952380899</v>
       </c>
       <c r="K32" s="4">
-        <v>7.1450580384814097E-2</v>
+        <v>6.3284005088312306E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>3.0930647455600599</v>
+        <v>3.03347420965971</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="13">
         <v>45334</v>
       </c>
-      <c r="C33" s="26">
-        <v>1.8453163194119401E-3</v>
+      <c r="C33" s="24">
+        <v>2.2689065074588499E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.106769810634552</v>
+        <v>0.100394021934277</v>
       </c>
       <c r="E33" s="5">
-        <v>23.409090909090899</v>
+        <v>23.571428571428498</v>
       </c>
       <c r="F33" s="4">
-        <v>4.3197177477143203E-2</v>
+        <v>5.3481367675815801E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.5006970017289398</v>
-      </c>
-      <c r="H33" s="26">
-        <v>1.9016480675958199E-3</v>
+        <v>2.3931425289247401</v>
+      </c>
+      <c r="H33" s="24">
+        <v>1.51103782164941E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.10515106362832501</v>
+        <v>0.104974455751774</v>
       </c>
       <c r="J33" s="5">
-        <v>22.589743589743499</v>
+        <v>21.921052631578899</v>
       </c>
       <c r="K33" s="4">
-        <v>4.2957742244921E-2</v>
+        <v>3.3123539616683198E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>3.1360224878049801</v>
+        <v>3.0665977492763998</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="13">
         <v>45335</v>
       </c>
-      <c r="C34" s="26">
-        <v>8.4688265307143497E-3</v>
+      <c r="C34" s="24">
+        <v>8.6763555537410792E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.115238637165266</v>
+        <v>0.109070377488018</v>
       </c>
       <c r="E34" s="5">
-        <v>15.484848484848399</v>
+        <v>15.909090909090899</v>
       </c>
       <c r="F34" s="4">
-        <v>0.13113849567257599</v>
+        <v>0.13803292926406199</v>
       </c>
       <c r="G34" s="3">
-        <v>2.6318354974015201</v>
-      </c>
-      <c r="H34" s="26">
-        <v>5.0768142435114296E-3</v>
+        <v>2.5311754581888</v>
+      </c>
+      <c r="H34" s="24">
+        <v>4.5773571766795397E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.11022787787183699</v>
+        <v>0.10955181292845401</v>
       </c>
       <c r="J34" s="5">
-        <v>24.688073394495401</v>
+        <v>24.871287128712801</v>
       </c>
       <c r="K34" s="4">
-        <v>0.12533676265402999</v>
+        <v>0.113844764631871</v>
       </c>
       <c r="L34" s="3">
-        <v>3.2613592504590101</v>
+        <v>3.1804425139082699</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="13">
         <v>45336</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <v>7.5839732613421102E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.122822610426608</v>
+        <v>0.11665435074935999</v>
       </c>
       <c r="E35" s="5">
         <v>15.4444444444444</v>
@@ -4843,33 +4855,33 @@
         <v>0.11713025370294999</v>
       </c>
       <c r="G35" s="3">
-        <v>2.7489657511044698</v>
-      </c>
-      <c r="H35" s="26">
-        <v>1.6804011839827999E-3</v>
+        <v>2.6483057118917599</v>
+      </c>
+      <c r="H35" s="24">
+        <v>1.7343188060116299E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.11190827905582</v>
+        <v>0.111286131734465</v>
       </c>
       <c r="J35" s="5">
-        <v>16.5042016806722</v>
+        <v>16.743362831858398</v>
       </c>
       <c r="K35" s="4">
-        <v>2.7733680044892701E-2</v>
+        <v>2.90383290351682E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>3.2890929305038998</v>
+        <v>3.20948084294344</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B36" s="13">
         <v>45337</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="24">
         <v>-1.0152511363241299E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.121807359290284</v>
+        <v>0.11563909961303601</v>
       </c>
       <c r="E36" s="5">
         <v>21.6666666666666</v>
@@ -4878,22 +4890,22 @@
         <v>-2.1997107953689501E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.72696864315078</v>
-      </c>
-      <c r="H36" s="26">
-        <v>5.2041614811681996E-3</v>
+        <v>2.6263086039380701</v>
+      </c>
+      <c r="H36" s="24">
+        <v>4.9644217352980396E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.11711244053698799</v>
+        <v>0.116250553469763</v>
       </c>
       <c r="J36" s="5">
-        <v>21.129629629629601</v>
+        <v>21.362745098039198</v>
       </c>
       <c r="K36" s="4">
-        <v>0.10996200462986799</v>
+        <v>0.106053676090337</v>
       </c>
       <c r="L36" s="3">
-        <v>3.39905493513377</v>
+        <v>3.3155345190337702</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>18</v>
@@ -4903,35 +4915,35 @@
       <c r="B37" s="13">
         <v>45338</v>
       </c>
-      <c r="C37" s="26">
-        <v>6.3321893974676103E-3</v>
+      <c r="C37" s="24">
+        <v>6.37286314253747E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.12813954868775199</v>
+        <v>0.12201196275557299</v>
       </c>
       <c r="E37" s="5">
-        <v>30.030303030302999</v>
+        <v>30.9375</v>
       </c>
       <c r="F37" s="4">
-        <v>0.190157566451224</v>
+        <v>0.197160453472253</v>
       </c>
       <c r="G37" s="3">
-        <v>2.9171262096019999</v>
-      </c>
-      <c r="H37" s="26">
-        <v>3.8059548442998599E-3</v>
+        <v>2.8234690574103198</v>
+      </c>
+      <c r="H37" s="24">
+        <v>3.0044245342361799E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.120918395381288</v>
+        <v>0.11925497800400001</v>
       </c>
       <c r="J37" s="5">
-        <v>15.869158878504599</v>
+        <v>16.514851485148501</v>
       </c>
       <c r="K37" s="4">
-        <v>6.0397302108608997E-2</v>
+        <v>4.9617624981247103E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>3.4594522372423802</v>
+        <v>3.3651521440150201</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>19</v>
@@ -4941,11 +4953,11 @@
       <c r="B38" s="13">
         <v>45342</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="24">
         <v>2.6140938025245798E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.13075364249027599</v>
+        <v>0.124626056558098</v>
       </c>
       <c r="E38" s="5">
         <v>24.607142857142801</v>
@@ -4954,25 +4966,60 @@
         <v>6.4325379640694305E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.9814515892426998</v>
-      </c>
-      <c r="H38" s="26">
-        <v>3.3204871701226699E-3</v>
+        <v>2.88779443705101</v>
+      </c>
+      <c r="H38" s="24">
+        <v>2.5252798596632001E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.12423888255141</v>
+        <v>0.12178025786366301</v>
       </c>
       <c r="J38" s="5">
-        <v>23.7573529411764</v>
+        <v>24.893442622950801</v>
       </c>
       <c r="K38" s="4">
-        <v>7.8885985637252701E-2</v>
+        <v>6.28629092934192E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>3.5383382228796298</v>
+        <v>3.4280150533084401</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39" s="13">
+        <v>45343</v>
+      </c>
+      <c r="C39" s="24">
+        <v>2.49336521842068E-3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.127119421776519</v>
+      </c>
+      <c r="E39" s="5">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3.2413747839468897E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2.92020818489048</v>
+      </c>
+      <c r="H39" s="24">
+        <v>1.54984544134117E-3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.123330103305004</v>
+      </c>
+      <c r="J39" s="5">
+        <v>24.2222222222222</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3.7540700690263898E-2</v>
+      </c>
+      <c r="L39" s="3">
+        <v>3.4655557539987001</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81152887-E3D3-4A55-AD89-583911858F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807852F2-57ED-4B9F-AA35-80C743D2E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1108,103 +1108,103 @@
                   <c:v>9.3043948821248893E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6033661384547902E-2</c:v>
+                  <c:v>1.7619817424676901E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1681054769903101E-2</c:v>
+                  <c:v>2.32672108100321E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.71982272851088E-2</c:v>
+                  <c:v>2.8784383325237799E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8883873346184698E-2</c:v>
+                  <c:v>4.2983498377472298E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7672596744150697E-2</c:v>
+                  <c:v>5.1772221775438297E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5821618883489403E-2</c:v>
+                  <c:v>5.9921243914777003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0190003952039002E-2</c:v>
+                  <c:v>6.4221989356373799E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3203217432051095E-2</c:v>
+                  <c:v>6.7235202836385899E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5685846412979795E-2</c:v>
+                  <c:v>6.9717831817314599E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7241877496208899E-2</c:v>
+                  <c:v>7.1273862900543702E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3466285599919306E-2</c:v>
+                  <c:v>6.7498271004254096E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.36710887370176E-2</c:v>
+                  <c:v>6.7703074141352404E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4297708424596006E-2</c:v>
+                  <c:v>6.8329693828930796E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8200867570666401E-2</c:v>
+                  <c:v>7.2122723192058993E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0258112381535398E-2</c:v>
+                  <c:v>7.4179968002928101E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.6909871051316095E-2</c:v>
+                  <c:v>8.0831726672708798E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8705743242270199E-2</c:v>
+                  <c:v>8.2627598863662804E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.5046624290978604E-2</c:v>
+                  <c:v>8.8968479912371196E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.8817178835012306E-2</c:v>
+                  <c:v>9.2746655669932898E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.57394164449711E-2</c:v>
+                  <c:v>8.9668893279891707E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.77860947974759E-2</c:v>
+                  <c:v>9.1715571632396506E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.2949870109343094E-2</c:v>
+                  <c:v>9.6879346944263797E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.5392330976775894E-2</c:v>
+                  <c:v>9.93218078116965E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.2755401526175701E-2</c:v>
+                  <c:v>9.6558054209701399E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.5988214489745205E-2</c:v>
+                  <c:v>9.9790867173271E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.8125115426818302E-2</c:v>
+                  <c:v>0.101927768110344</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.100394021934277</c:v>
+                  <c:v>0.103773084429756</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.109070377488018</c:v>
+                  <c:v>0.111106800555791</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11665435074935999</c:v>
+                  <c:v>0.118849599174599</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11563909961303601</c:v>
+                  <c:v>0.117834348038275</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12201196275557299</c:v>
+                  <c:v>0.124207211180812</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.124626056558098</c:v>
+                  <c:v>0.12682130498333699</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.127119421776519</c:v>
+                  <c:v>0.129288635430583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,112 +1719,112 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>2.7495750654940999E-3</c:v>
+                  <c:v>3.3442870266167401E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4925032296571104E-3</c:v>
+                  <c:v>8.2067720958756696E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3441018881511699E-2</c:v>
+                  <c:v>1.41552877477303E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6728108918669798E-2</c:v>
+                  <c:v>1.7442377784888399E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9680237864726899E-2</c:v>
+                  <c:v>3.03945067309455E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3651272040849903E-2</c:v>
+                  <c:v>3.43655409070684E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6021490588481198E-2</c:v>
+                  <c:v>3.6735759454699798E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.89211708638224E-2</c:v>
+                  <c:v>3.9635439730041001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5527828681891203E-2</c:v>
+                  <c:v>4.6242097548109803E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.74178940133737E-2</c:v>
+                  <c:v>4.7995326478704303E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0249134167730497E-2</c:v>
+                  <c:v>5.0826566633061003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1947039794292799E-2</c:v>
+                  <c:v>5.2524472259623402E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4179829897381099E-2</c:v>
+                  <c:v>5.4757262362711702E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.69886033757461E-2</c:v>
+                  <c:v>5.7566035841076703E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8601487698537499E-2</c:v>
+                  <c:v>5.9178920163868103E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.2492420583048797E-2</c:v>
+                  <c:v>6.2840087795100197E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3952749595452996E-2</c:v>
+                  <c:v>6.4300416807504507E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8601577005115197E-2</c:v>
+                  <c:v>6.8758457843039605E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.2345902000101006E-2</c:v>
+                  <c:v>7.2502782838025498E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.4803362947266402E-2</c:v>
+                  <c:v>7.4889987294280605E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7824498983235096E-2</c:v>
+                  <c:v>7.7820136128589804E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.9935532887784905E-2</c:v>
+                  <c:v>7.9931170033139695E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1422154412370606E-2</c:v>
+                  <c:v>8.1381498423482801E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3684939552970905E-2</c:v>
+                  <c:v>8.3603879555119706E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5801312108656394E-2</c:v>
+                  <c:v>8.5756741292799699E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.9531916228778596E-2</c:v>
+                  <c:v>8.9272507639064497E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.4694644653165599E-2</c:v>
+                  <c:v>9.44352360634515E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9938314198415507E-2</c:v>
+                  <c:v>9.9604405934706999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10346341793012501</c:v>
+                  <c:v>0.10319836719802999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.104974455751774</c:v>
+                  <c:v>0.104709405019679</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10955181292845401</c:v>
+                  <c:v>0.10933877439527501</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.111286131734465</c:v>
+                  <c:v>0.11108082065409899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.116250553469763</c:v>
+                  <c:v>0.116035347024588</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.11925497800400001</c:v>
+                  <c:v>0.119770295342833</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12178025786366301</c:v>
+                  <c:v>0.122505418777104</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.123330103305004</c:v>
+                  <c:v>0.12517674320057601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3232,15 +3232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3589,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3620,7 +3620,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 255%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 262%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3686,26 +3686,26 @@
         <v>8.6680818524366696E-2</v>
       </c>
       <c r="H4" s="24">
-        <v>2.7495750654940999E-3</v>
+        <v>3.3442870266167401E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>2.7495750654940999E-3</v>
+        <v>3.3442870266167401E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>32.857142857142797</v>
+        <v>31.4545454545454</v>
       </c>
       <c r="K4" s="4">
-        <v>9.03431807233777E-2</v>
+        <v>0.105193028291762</v>
       </c>
       <c r="L4" s="3">
-        <v>9.03431807233777E-2</v>
+        <v>0.105193028291762</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.5310950493477461E-3</v>
+        <v>3.5913509841828672E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3728,26 +3728,26 @@
         <v>0.145661788198057</v>
       </c>
       <c r="H5" s="24">
-        <v>4.74292816416301E-3</v>
+        <v>4.8624850692589299E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>7.4925032296571104E-3</v>
+        <v>8.2067720958756696E-3</v>
       </c>
       <c r="J5" s="5">
-        <v>37.257142857142803</v>
+        <v>37.735294117647001</v>
       </c>
       <c r="K5" s="4">
-        <v>0.176707952173387</v>
+        <v>0.183487304231153</v>
       </c>
       <c r="L5" s="3">
-        <v>0.26705113289676502</v>
+        <v>0.28868033252291603</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.1116894024735542E-2</v>
+        <v>8.3011950749112537E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3773,7 +3773,7 @@
         <v>5.9485156518546802E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.3441018881511699E-2</v>
+        <v>1.41552877477303E-2</v>
       </c>
       <c r="J6" s="5">
         <v>35.3333333333333</v>
@@ -3782,14 +3782,14 @@
         <v>0.210180886365532</v>
       </c>
       <c r="L6" s="3">
-        <v>0.47723201926229702</v>
+        <v>0.49886121888844798</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>26.896176507137607</v>
+        <v>27.106436547819385</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3797,25 +3797,25 @@
         <v>45295</v>
       </c>
       <c r="C7" s="24">
-        <v>6.7292665024230799E-3</v>
+        <v>8.3154225425520704E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.6033661384547902E-2</v>
+        <v>1.7619817424676901E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>33.272727272727202</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="F7" s="4">
-        <v>0.223901049080622</v>
+        <v>0.29686058476910898</v>
       </c>
       <c r="G7" s="3">
-        <v>0.460574369155617</v>
+        <v>0.53353390484410301</v>
       </c>
       <c r="H7" s="24">
         <v>3.2870900371580599E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.6728108918669798E-2</v>
+        <v>1.7442377784888399E-2</v>
       </c>
       <c r="J7" s="5">
         <v>28.909090909090899</v>
@@ -3824,7 +3824,7 @@
         <v>9.5026784710569606E-2</v>
       </c>
       <c r="L7" s="3">
-        <v>0.57225880397286699</v>
+        <v>0.59388800359901806</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3835,7 +3835,7 @@
         <v>5.6473933853551997E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.1681054769903101E-2</v>
+        <v>2.32672108100321E-2</v>
       </c>
       <c r="E8" s="5">
         <v>23.5</v>
@@ -3844,13 +3844,13 @@
         <v>0.132713744555847</v>
       </c>
       <c r="G8" s="3">
-        <v>0.59328811371146395</v>
+        <v>0.66624764939995096</v>
       </c>
       <c r="H8" s="24">
         <v>1.2952128946057E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>2.9680237864726899E-2</v>
+        <v>3.03945067309455E-2</v>
       </c>
       <c r="J8" s="5">
         <v>49.4324324324324</v>
@@ -3859,14 +3859,14 @@
         <v>0.640255238982119</v>
       </c>
       <c r="L8" s="3">
-        <v>1.2125140429549801</v>
+        <v>1.2341432425811301</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.4258362029167817E-3</v>
+        <v>3.477131755571568E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3877,7 +3877,7 @@
         <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.71982272851088E-2</v>
+        <v>2.8784383325237799E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3886,13 +3886,13 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>0.81052678149768598</v>
+        <v>0.88348631718617299</v>
       </c>
       <c r="H9" s="24">
         <v>3.9710341761229704E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.3651272040849903E-2</v>
+        <v>3.43655409070684E-2</v>
       </c>
       <c r="J9" s="5">
         <v>23.407407407407401</v>
@@ -3901,14 +3901,14 @@
         <v>9.2951614789248904E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>1.3054656577442301</v>
+        <v>1.32709485737038</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>9.6265437611075089E-2</v>
+        <v>9.7771671122250436E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3916,25 +3916,25 @@
         <v>45300</v>
       </c>
       <c r="C10" s="24">
-        <v>1.16856460610759E-2</v>
+        <v>1.41991150522345E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>3.8883873346184698E-2</v>
+        <v>4.2983498377472298E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>16.294117647058801</v>
+        <v>15.4444444444444</v>
       </c>
       <c r="F10" s="4">
-        <v>0.19040729170105999</v>
+        <v>0.21929744358451</v>
       </c>
       <c r="G10" s="3">
-        <v>1.0009340731987399</v>
+        <v>1.1027837607706801</v>
       </c>
       <c r="H10" s="24">
         <v>2.3702185476313499E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>3.6021490588481198E-2</v>
+        <v>3.6735759454699798E-2</v>
       </c>
       <c r="J10" s="5">
         <v>15.018867924528299</v>
@@ -3943,14 +3943,14 @@
         <v>3.5597999319142502E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.3410636570633701</v>
+        <v>1.36269285668952</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>27.129694457970615</v>
+        <v>27.19723679108079</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -3961,7 +3961,7 @@
         <v>8.7887233979660109E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.7672596744150697E-2</v>
+        <v>5.1772221775438297E-2</v>
       </c>
       <c r="E11" s="5">
         <v>10.5555555555555</v>
@@ -3970,13 +3970,13 @@
         <v>9.2769858089641194E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.0937039312883801</v>
+        <v>1.19555361886032</v>
       </c>
       <c r="H11" s="24">
         <v>2.89968027534116E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.89211708638224E-2</v>
+        <v>3.9635439730041001E-2</v>
       </c>
       <c r="J11" s="5">
         <v>20.702702702702702</v>
@@ -3985,7 +3985,7 @@
         <v>6.0031218673279201E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.4010948757366499</v>
+        <v>1.4227240753628001</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -3996,7 +3996,7 @@
         <v>8.1490221393387494E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.5821618883489403E-2</v>
+        <v>5.9921243914777003E-2</v>
       </c>
       <c r="E12" s="5">
         <v>28.75</v>
@@ -4005,13 +4005,13 @@
         <v>0.23428438650598901</v>
       </c>
       <c r="G12" s="3">
-        <v>1.3279883177943701</v>
+        <v>1.42983800536631</v>
       </c>
       <c r="H12" s="24">
         <v>6.6066578180688004E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>4.5527828681891203E-2</v>
+        <v>4.6242097548109803E-2</v>
       </c>
       <c r="J12" s="5">
         <v>19.52</v>
@@ -4020,14 +4020,14 @@
         <v>0.12896196060870299</v>
       </c>
       <c r="L12" s="3">
-        <v>1.5300568363453599</v>
+        <v>1.5516860359715099</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.4782381440973931E-3</v>
+        <v>3.534145877868065E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4035,41 +4035,41 @@
         <v>45303</v>
       </c>
       <c r="C13" s="24">
-        <v>4.3683850685495096E-3</v>
+        <v>4.30074544159672E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.0190003952039002E-2</v>
+        <v>6.4221989356373799E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>25.933333333333302</v>
+        <v>25.6428571428571</v>
       </c>
       <c r="F13" s="4">
-        <v>0.11328678611105</v>
+        <v>0.11028340096665799</v>
       </c>
       <c r="G13" s="3">
-        <v>1.4412751039054199</v>
+        <v>1.54012140633297</v>
       </c>
       <c r="H13" s="24">
-        <v>1.89006533148253E-3</v>
+        <v>1.75322893059451E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.74178940133737E-2</v>
+        <v>4.7995326478704303E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>21.1538461538461</v>
+        <v>20.962962962962902</v>
       </c>
       <c r="K13" s="4">
-        <v>3.9982151242899701E-2</v>
+        <v>3.6752873137647898E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.5700389875882499</v>
+        <v>1.58843890910915</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.8723904363283604E-2</v>
+        <v>9.0404150673658201E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4080,7 +4080,7 @@
         <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.3203217432051095E-2</v>
+        <v>6.7235202836385899E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4089,13 +4089,13 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.4960151487923099</v>
+        <v>1.59486145121985</v>
       </c>
       <c r="H14" s="24">
         <v>2.83124015435677E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>5.0249134167730497E-2</v>
+        <v>5.0826566633061003E-2</v>
       </c>
       <c r="J14" s="5">
         <v>30.275862068965498</v>
@@ -4104,7 +4104,7 @@
         <v>8.5718236397422196E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.6557572239856799</v>
+        <v>1.67415714550658</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4115,7 +4115,7 @@
         <v>2.48262898092871E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>6.5685846412979795E-2</v>
+        <v>6.9717831817314599E-2</v>
       </c>
       <c r="E15" s="5">
         <v>24</v>
@@ -4124,13 +4124,13 @@
         <v>5.9583095542289001E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.5555982443345999</v>
+        <v>1.65444454676214</v>
       </c>
       <c r="H15" s="24">
         <v>1.69790562656233E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>5.1947039794292799E-2</v>
+        <v>5.2524472259623402E-2</v>
       </c>
       <c r="J15" s="5">
         <v>104.64705882352899</v>
@@ -4139,7 +4139,7 @@
         <v>0.17768082997967</v>
       </c>
       <c r="L15" s="3">
-        <v>1.8334380539653501</v>
+        <v>1.85183797548625</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4156,7 +4156,7 @@
         <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>6.7241877496208899E-2</v>
+        <v>7.1273862900543702E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4165,13 +4165,13 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.5991671146650099</v>
+        <v>1.69801341709256</v>
       </c>
       <c r="H16" s="24">
         <v>2.2327901030882698E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>5.4179829897381099E-2</v>
+        <v>5.4757262362711702E-2</v>
       </c>
       <c r="J16" s="5">
         <v>36.757575757575701</v>
@@ -4180,18 +4180,18 @@
         <v>8.2071951365032494E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.91551000533038</v>
+        <v>1.93390992685128</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.3822627373694845</v>
+        <v>1.4156752746961048</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.5514434212318937</v>
+        <v>2.6244013966448443</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4202,7 +4202,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>6.3466285599919306E-2</v>
+        <v>6.7498271004254096E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4211,13 +4211,13 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.3915095603690899</v>
+        <v>1.49035586279663</v>
       </c>
       <c r="H17" s="24">
         <v>2.8087734783649901E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>5.69886033757461E-2</v>
+        <v>5.7566035841076703E-2</v>
       </c>
       <c r="J17" s="5">
         <v>17.035714285714199</v>
@@ -4226,18 +4226,18 @@
         <v>4.7849462470718002E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.9633594678010999</v>
+        <v>1.981759389322</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>7.7102596832857255</v>
+        <v>8.0172581517415509</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>22.574658506680237</v>
+        <v>23.797549995657221</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4251,7 +4251,7 @@
         <v>2.0480313709833801E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>6.36710887370176E-2</v>
+        <v>6.7703074141352404E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.230769230769202</v>
@@ -4260,13 +4260,13 @@
         <v>3.9385218672757403E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.39544808223636</v>
+        <v>1.4942943846639101</v>
       </c>
       <c r="H18" s="24">
         <v>1.6128843227913999E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>5.8601487698537499E-2</v>
+        <v>5.9178920163868103E-2</v>
       </c>
       <c r="J18" s="5">
         <v>28.035714285714199</v>
@@ -4275,7 +4275,7 @@
         <v>4.5218364049687501E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2.0085778318507899</v>
+        <v>2.0269777533716802</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4286,7 +4286,7 @@
         <v>6.2661968757838304E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>6.4297708424596006E-2</v>
+        <v>6.8329693828930796E-2</v>
       </c>
       <c r="E19" s="5">
         <v>32.1111111111111</v>
@@ -4295,22 +4295,22 @@
         <v>2.0121454412239202E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.4155695366486001</v>
+        <v>1.51441583907615</v>
       </c>
       <c r="H19" s="24">
-        <v>3.8909328845112201E-3</v>
+        <v>3.6611676312320999E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>6.2492420583048797E-2</v>
+        <v>6.2840087795100197E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>24.571428571428498</v>
+        <v>24.6551724137931</v>
       </c>
       <c r="K19" s="4">
-        <v>9.5605779447990105E-2</v>
+        <v>9.0266719183826005E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>2.10418361129878</v>
+        <v>2.1172444725555102</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4318,25 +4318,25 @@
         <v>45315</v>
       </c>
       <c r="C20" s="24">
-        <v>3.90315914607038E-3</v>
+        <v>3.7930293631282101E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>6.8200867570666401E-2</v>
+        <v>7.2122723192058993E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>34.181818181818102</v>
+        <v>35.9166666666666</v>
       </c>
       <c r="F20" s="4">
-        <v>0.133417076265678</v>
+        <v>0.13623297129235501</v>
       </c>
       <c r="G20" s="3">
-        <v>1.54898661291428</v>
+        <v>1.6506488103685</v>
       </c>
       <c r="H20" s="24">
         <v>1.4603290124042801E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>6.3952749595452996E-2</v>
+        <v>6.4300416807504507E-2</v>
       </c>
       <c r="J20" s="5">
         <v>15.7391304347826</v>
@@ -4345,7 +4345,7 @@
         <v>2.2984308803928301E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>2.1271679201026998</v>
+        <v>2.1402287813594398</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4356,7 +4356,7 @@
         <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>7.0258112381535398E-2</v>
+        <v>7.4179968002928101E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.3333333333333</v>
@@ -4365,22 +4365,22 @@
         <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.6196186847541201</v>
+        <v>1.7212808822083401</v>
       </c>
       <c r="H21" s="24">
-        <v>4.6488274096621301E-3</v>
+        <v>4.4580410355351497E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>6.8601577005115197E-2</v>
+        <v>6.8758457843039605E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>20.609756097560901</v>
+        <v>20.8095238095238</v>
       </c>
       <c r="K21" s="4">
-        <v>9.58111990527927E-2</v>
+        <v>9.2769711072803004E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>2.2229791191555002</v>
+        <v>2.2329984924322401</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4391,7 +4391,7 @@
         <v>6.6517586697807099E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>7.6909871051316095E-2</v>
+        <v>8.0831726672708798E-2</v>
       </c>
       <c r="E22" s="5">
         <v>29.714285714285701</v>
@@ -4400,13 +4400,13 @@
         <v>0.197652257616341</v>
       </c>
       <c r="G22" s="3">
-        <v>1.8172709423704601</v>
+        <v>1.9189331398246801</v>
       </c>
       <c r="H22" s="24">
         <v>3.74432499498586E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>7.2345902000101006E-2</v>
+        <v>7.2502782838025498E-2</v>
       </c>
       <c r="J22" s="5">
         <v>29.529411764705799</v>
@@ -4415,7 +4415,7 @@
         <v>0.110567714557817</v>
       </c>
       <c r="L22" s="3">
-        <v>2.3335468337133101</v>
+        <v>2.3435662069900598</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4426,7 +4426,7 @@
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>7.8705743242270199E-2</v>
+        <v>8.2627598863662804E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4435,22 +4435,22 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>1.8941342721432901</v>
+        <v>1.9957964695975099</v>
       </c>
       <c r="H23" s="24">
-        <v>2.4574609471653998E-3</v>
+        <v>2.38720445625515E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>7.4803362947266402E-2</v>
+        <v>7.4889987294280605E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>25.551724137931</v>
+        <v>25.677966101694899</v>
       </c>
       <c r="K23" s="4">
-        <v>6.2792364201709E-2</v>
+        <v>6.1298555105534898E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>2.3963391979150201</v>
+        <v>2.4048647620955999</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4461,7 +4461,7 @@
         <v>6.3408810487083599E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>8.5046624290978604E-2</v>
+        <v>8.8968479912371196E-2</v>
       </c>
       <c r="E24" s="5">
         <v>28.6666666666666</v>
@@ -4470,22 +4470,22 @@
         <v>0.18177192339630599</v>
       </c>
       <c r="G24" s="3">
-        <v>2.0759061955395999</v>
+        <v>2.1775683929938201</v>
       </c>
       <c r="H24" s="24">
-        <v>3.0211360359686402E-3</v>
+        <v>2.93014883430916E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>7.7824498983235096E-2</v>
+        <v>7.7820136128589804E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>27.8333333333333</v>
+        <v>27.959183673469301</v>
       </c>
       <c r="K24" s="4">
-        <v>8.4088286334460693E-2</v>
+        <v>8.1924569449052201E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>2.4804274842494798</v>
+        <v>2.4867893315446499</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4493,25 +4493,25 @@
         <v>45322</v>
       </c>
       <c r="C25" s="24">
-        <v>3.7705545440336798E-3</v>
+        <v>3.7781757575616501E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>8.8817178835012306E-2</v>
+        <v>9.2746655669932898E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>29.689655172413701</v>
+        <v>30.678571428571399</v>
       </c>
       <c r="F25" s="4">
-        <v>0.11194646422113699</v>
+        <v>0.115909034848052</v>
       </c>
       <c r="G25" s="3">
-        <v>2.1878526597607402</v>
+        <v>2.2934774278418701</v>
       </c>
       <c r="H25" s="24">
         <v>2.11103390454983E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>7.9935532887784905E-2</v>
+        <v>7.9931170033139695E-2</v>
       </c>
       <c r="J25" s="5">
         <v>35.210526315789402</v>
@@ -4520,7 +4520,7 @@
         <v>7.4330614849675597E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.5547580990991601</v>
+        <v>2.5611199463943199</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4531,7 +4531,7 @@
         <v>-3.0777623900411699E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>8.57394164449711E-2</v>
+        <v>8.9668893279891707E-2</v>
       </c>
       <c r="E26" s="5">
         <v>43.692307692307601</v>
@@ -4540,22 +4540,22 @@
         <v>-0.13447454134949099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.0533781184112398</v>
+        <v>2.15900288649238</v>
       </c>
       <c r="H26" s="24">
-        <v>1.48662152458569E-3</v>
+        <v>1.4503283903430999E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>8.1422154412370606E-2</v>
+        <v>8.1381498423482801E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>25.116279069767401</v>
+        <v>25.241379310344801</v>
       </c>
       <c r="K26" s="4">
-        <v>3.7338401082617503E-2</v>
+        <v>3.6608289025212098E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.5920965001817802</v>
+        <v>2.5977282354195399</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.35">
@@ -4566,7 +4566,7 @@
         <v>2.0466783525047699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>8.77860947974759E-2</v>
+        <v>9.1715571632396506E-2</v>
       </c>
       <c r="E27" s="5">
         <v>15.4117647058823</v>
@@ -4575,22 +4575,22 @@
         <v>3.1542925197426401E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.08492104360867</v>
+        <v>2.1905458116898102</v>
       </c>
       <c r="H27" s="24">
-        <v>2.26278514060024E-3</v>
+        <v>2.22238113163692E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>8.3684939552970905E-2</v>
+        <v>8.3603879555119706E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>21.307692307692299</v>
+        <v>21.478260869565201</v>
       </c>
       <c r="K27" s="4">
-        <v>4.8214729534328198E-2</v>
+        <v>4.7732881696897399E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.6403112297161102</v>
+        <v>2.6454611171164299</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.35">
@@ -4601,7 +4601,7 @@
         <v>5.1637753118672801E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>9.2949870109343094E-2</v>
+        <v>9.6879346944263797E-2</v>
       </c>
       <c r="E28" s="5">
         <v>26.3125</v>
@@ -4610,22 +4610,22 @@
         <v>0.13587183789350801</v>
       </c>
       <c r="G28" s="3">
-        <v>2.22079288150218</v>
+        <v>2.32641764958331</v>
       </c>
       <c r="H28" s="24">
-        <v>2.1163725556854699E-3</v>
+        <v>2.1528617376800501E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>8.5801312108656394E-2</v>
+        <v>8.5756741292799699E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>22.355932203389798</v>
+        <v>22.741379310344801</v>
       </c>
       <c r="K28" s="4">
-        <v>4.7313481372019302E-2</v>
+        <v>4.8959045379310097E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.6876247110881302</v>
+        <v>2.69442016249574</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
@@ -4636,7 +4636,7 @@
         <v>2.4424608674327398E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>9.5392330976775894E-2</v>
+        <v>9.93218078116965E-2</v>
       </c>
       <c r="E29" s="5">
         <v>27.294117647058801</v>
@@ -4645,22 +4645,22 @@
         <v>6.6664814264046496E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.2874576957662298</v>
+        <v>2.3930824638473598</v>
       </c>
       <c r="H29" s="24">
-        <v>3.7306041201222301E-3</v>
+        <v>3.5157663462647998E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.9531916228778596E-2</v>
+        <v>8.9272507639064497E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>20.235849056603701</v>
+        <v>20.4190476190476</v>
       </c>
       <c r="K29" s="4">
-        <v>7.5491941864737705E-2</v>
+        <v>7.1788600441826098E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.7631166529528599</v>
+        <v>2.7662087629375698</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
@@ -4668,25 +4668,25 @@
         <v>45329</v>
       </c>
       <c r="C30" s="24">
-        <v>-2.6369294506001801E-3</v>
+        <v>-2.76375360199506E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>9.2755401526175701E-2</v>
+        <v>9.6558054209701399E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>30</v>
+        <v>33.1111111111111</v>
       </c>
       <c r="F30" s="4">
-        <v>-7.9107883518005601E-2</v>
+        <v>-9.1510952599392195E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.2083498122482199</v>
+        <v>2.3015715112479702</v>
       </c>
       <c r="H30" s="24">
         <v>5.1627284243869996E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.4694644653165599E-2</v>
+        <v>9.44352360634515E-2</v>
       </c>
       <c r="J30" s="5">
         <v>18.949367088607499</v>
@@ -4695,7 +4695,7 @@
         <v>9.7830436092498002E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>2.8609470890453599</v>
+        <v>2.8640391990300702</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
@@ -4706,7 +4706,7 @@
         <v>3.23281296356952E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>9.5988214489745205E-2</v>
+        <v>9.9790867173271E-2</v>
       </c>
       <c r="E31" s="5">
         <v>21.8666666666666</v>
@@ -4715,22 +4715,22 @@
         <v>7.0690843470053596E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>2.2790406557182701</v>
+        <v>2.3722623547180199</v>
       </c>
       <c r="H31" s="24">
-        <v>5.2436695452498499E-3</v>
+        <v>5.1691698712554301E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.9938314198415507E-2</v>
+        <v>9.9604405934706999E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>20.8333333333333</v>
+        <v>21.121951219512098</v>
       </c>
       <c r="K31" s="4">
-        <v>0.10924311552603801</v>
+        <v>0.109182953866029</v>
       </c>
       <c r="L31" s="3">
-        <v>2.9701902045713999</v>
+        <v>2.9732221528961</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4741,7 +4741,7 @@
         <v>2.1369009370730699E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>9.8125115426818302E-2</v>
+        <v>0.101927768110344</v>
       </c>
       <c r="E32" s="5">
         <v>28.368421052631501</v>
@@ -4750,22 +4750,22 @@
         <v>6.0620505530651903E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.3396611612489302</v>
+        <v>2.4328828602486801</v>
       </c>
       <c r="H32" s="24">
-        <v>3.5251037317097001E-3</v>
+        <v>3.5939612633234899E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>0.10346341793012501</v>
+        <v>0.10319836719802999</v>
       </c>
       <c r="J32" s="5">
-        <v>17.952380952380899</v>
+        <v>17.773809523809501</v>
       </c>
       <c r="K32" s="4">
-        <v>6.3284005088312306E-2</v>
+        <v>6.3878382930261698E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>3.03347420965971</v>
+        <v>3.0371005358263599</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4773,25 +4773,25 @@
         <v>45334</v>
       </c>
       <c r="C33" s="24">
-        <v>2.2689065074588499E-3</v>
+        <v>1.8453163194119401E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.100394021934277</v>
+        <v>0.103773084429756</v>
       </c>
       <c r="E33" s="5">
-        <v>23.571428571428498</v>
+        <v>23.409090909090899</v>
       </c>
       <c r="F33" s="4">
-        <v>5.3481367675815801E-2</v>
+        <v>4.3197177477143203E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.3931425289247401</v>
+        <v>2.4760800377258199</v>
       </c>
       <c r="H33" s="24">
         <v>1.51103782164941E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.104974455751774</v>
+        <v>0.104709405019679</v>
       </c>
       <c r="J33" s="5">
         <v>21.921052631578899</v>
@@ -4800,7 +4800,7 @@
         <v>3.3123539616683198E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>3.0665977492763998</v>
+        <v>3.0702240754430399</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4808,34 +4808,34 @@
         <v>45335</v>
       </c>
       <c r="C34" s="24">
-        <v>8.6763555537410792E-3</v>
+        <v>7.3337161260358602E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.109070377488018</v>
+        <v>0.111106800555791</v>
       </c>
       <c r="E34" s="5">
-        <v>15.909090909090899</v>
+        <v>16.375</v>
       </c>
       <c r="F34" s="4">
-        <v>0.13803292926406199</v>
+        <v>0.120089601563837</v>
       </c>
       <c r="G34" s="3">
-        <v>2.5311754581888</v>
+        <v>2.59616963928966</v>
       </c>
       <c r="H34" s="24">
-        <v>4.5773571766795397E-3</v>
+        <v>4.62936937559532E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.10955181292845401</v>
+        <v>0.10933877439527501</v>
       </c>
       <c r="J34" s="5">
-        <v>24.871287128712801</v>
+        <v>24.722772277227701</v>
       </c>
       <c r="K34" s="4">
-        <v>0.113844764631871</v>
+        <v>0.114450844860015</v>
       </c>
       <c r="L34" s="3">
-        <v>3.1804425139082699</v>
+        <v>3.1846749203030602</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4843,37 +4843,37 @@
         <v>45336</v>
       </c>
       <c r="C35" s="24">
-        <v>7.5839732613421102E-3</v>
+        <v>7.7427986188073001E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.11665435074935999</v>
+        <v>0.118849599174599</v>
       </c>
       <c r="E35" s="5">
-        <v>15.4444444444444</v>
+        <v>15.588235294117601</v>
       </c>
       <c r="F35" s="4">
-        <v>0.11713025370294999</v>
+        <v>0.120696566704937</v>
       </c>
       <c r="G35" s="3">
-        <v>2.6483057118917599</v>
+        <v>2.7168662059945898</v>
       </c>
       <c r="H35" s="24">
-        <v>1.7343188060116299E-3</v>
+        <v>1.74204625882387E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.111286131734465</v>
+        <v>0.11108082065409899</v>
       </c>
       <c r="J35" s="5">
-        <v>16.743362831858398</v>
+        <v>17.276785714285701</v>
       </c>
       <c r="K35" s="4">
-        <v>2.90383290351682E-2</v>
+        <v>3.00969599180732E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>3.20948084294344</v>
+        <v>3.21477188022113</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="13">
         <v>45337</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>-1.0152511363241299E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.11563909961303601</v>
+        <v>0.117834348038275</v>
       </c>
       <c r="E36" s="5">
         <v>21.6666666666666</v>
@@ -4890,25 +4890,22 @@
         <v>-2.1997107953689501E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.6263086039380701</v>
+        <v>2.6948690980409</v>
       </c>
       <c r="H36" s="24">
-        <v>4.9644217352980396E-3</v>
+        <v>4.95452637048901E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.116250553469763</v>
+        <v>0.116035347024588</v>
       </c>
       <c r="J36" s="5">
-        <v>21.362745098039198</v>
+        <v>21.504950495049499</v>
       </c>
       <c r="K36" s="4">
-        <v>0.106053676090337</v>
+        <v>0.106546844323783</v>
       </c>
       <c r="L36" s="3">
-        <v>3.3155345190337702</v>
-      </c>
-      <c r="N36" s="23" t="s">
-        <v>18</v>
+        <v>3.3213187245449101</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -4919,7 +4916,7 @@
         <v>6.37286314253747E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.12201196275557299</v>
+        <v>0.124207211180812</v>
       </c>
       <c r="E37" s="5">
         <v>30.9375</v>
@@ -4928,28 +4925,28 @@
         <v>0.197160453472253</v>
       </c>
       <c r="G37" s="3">
-        <v>2.8234690574103198</v>
+        <v>2.89202955151316</v>
       </c>
       <c r="H37" s="24">
-        <v>3.0044245342361799E-3</v>
+        <v>3.73494831824531E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.11925497800400001</v>
+        <v>0.119770295342833</v>
       </c>
       <c r="J37" s="5">
-        <v>16.514851485148501</v>
+        <v>16.445544554455399</v>
       </c>
       <c r="K37" s="4">
-        <v>4.9617624981247103E-2</v>
+        <v>6.1423258976291702E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>3.3651521440150201</v>
+        <v>3.3827419835211998</v>
       </c>
       <c r="N37" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B38" s="13">
         <v>45342</v>
       </c>
@@ -4957,7 +4954,7 @@
         <v>2.6140938025245798E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.124626056558098</v>
+        <v>0.12682130498333699</v>
       </c>
       <c r="E38" s="5">
         <v>24.607142857142801</v>
@@ -4966,60 +4963,63 @@
         <v>6.4325379640694305E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.88779443705101</v>
+        <v>2.9563549311538502</v>
       </c>
       <c r="H38" s="24">
-        <v>2.5252798596632001E-3</v>
+        <v>2.7351234342706302E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.12178025786366301</v>
+        <v>0.122505418777104</v>
       </c>
       <c r="J38" s="5">
-        <v>24.893442622950801</v>
+        <v>25.330508474576199</v>
       </c>
       <c r="K38" s="4">
-        <v>6.28629092934192E-2</v>
+        <v>6.92820673308044E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>3.4280150533084401</v>
+        <v>3.4520240508520099</v>
       </c>
       <c r="N38" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B39" s="13">
         <v>45343</v>
       </c>
       <c r="C39" s="24">
-        <v>2.49336521842068E-3</v>
+        <v>2.4673304472462199E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.127119421776519</v>
+        <v>0.129288635430583</v>
       </c>
       <c r="E39" s="5">
         <v>13</v>
       </c>
       <c r="F39" s="4">
-        <v>3.2413747839468897E-2</v>
+        <v>3.2075295814200898E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.92020818489048</v>
+        <v>2.9884302269680498</v>
       </c>
       <c r="H39" s="24">
-        <v>1.54984544134117E-3</v>
+        <v>2.67132442347258E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.123330103305004</v>
+        <v>0.12517674320057601</v>
       </c>
       <c r="J39" s="5">
-        <v>24.2222222222222</v>
+        <v>25.364238410595998</v>
       </c>
       <c r="K39" s="4">
-        <v>3.7540700690263898E-2</v>
+        <v>6.7756109549006696E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>3.4655557539987001</v>
+        <v>3.5197801604010199</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807852F2-57ED-4B9F-AA35-80C743D2E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDBD80A-F718-44D1-BC59-B41E6D1F53DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1132,79 +1132,79 @@
                   <c:v>6.7235202836385899E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9717831817314599E-2</c:v>
+                  <c:v>6.9734403534483694E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1273862900543702E-2</c:v>
+                  <c:v>7.1290434617712797E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7498271004254096E-2</c:v>
+                  <c:v>6.7514842721423204E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7703074141352404E-2</c:v>
+                  <c:v>6.7719645858521499E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8329693828930796E-2</c:v>
+                  <c:v>6.8346265546099905E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2122723192058993E-2</c:v>
+                  <c:v>6.9067182498130403E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.4179968002928101E-2</c:v>
+                  <c:v>7.1124427308999399E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0831726672708798E-2</c:v>
+                  <c:v>7.7776185978780096E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2627598863662804E-2</c:v>
+                  <c:v>7.95720581697342E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.8968479912371196E-2</c:v>
+                  <c:v>8.5912939218442494E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.2746655669932898E-2</c:v>
+                  <c:v>8.9691114976004196E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.9668893279891707E-2</c:v>
+                  <c:v>8.6613352585963005E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.1715571632396506E-2</c:v>
+                  <c:v>8.8660030938467804E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.6879346944263797E-2</c:v>
+                  <c:v>9.3823806250335096E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.93218078116965E-2</c:v>
+                  <c:v>9.6433912728941903E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.6558054209701399E-2</c:v>
+                  <c:v>9.36701591269469E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9790867173271E-2</c:v>
+                  <c:v>9.6902972090516404E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.101927768110344</c:v>
+                  <c:v>9.9039873027589501E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.103773084429756</c:v>
+                  <c:v>0.100885189347001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.111106800555791</c:v>
+                  <c:v>0.108218905473037</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.118849599174599</c:v>
+                  <c:v>0.115961704091844</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.117834348038275</c:v>
+                  <c:v>0.11494645295552</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.124207211180812</c:v>
+                  <c:v>0.121319316098057</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12682130498333699</c:v>
+                  <c:v>0.123991845373052</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.129288635430583</c:v>
+                  <c:v>0.12699730683411001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,109 +1722,109 @@
                   <c:v>3.3442870266167401E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2067720958756696E-3</c:v>
+                  <c:v>8.2336256332996103E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.41552877477303E-2</c:v>
+                  <c:v>1.4182141285154199E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7442377784888399E-2</c:v>
+                  <c:v>1.74692313223123E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.03945067309455E-2</c:v>
+                  <c:v>3.0421360268369401E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.43655409070684E-2</c:v>
+                  <c:v>3.4406158303095603E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6735759454699798E-2</c:v>
+                  <c:v>3.6713323440628901E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9635439730041001E-2</c:v>
+                  <c:v>3.9613003715970103E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6242097548109803E-2</c:v>
+                  <c:v>4.6219661534038899E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7995326478704303E-2</c:v>
+                  <c:v>4.8264916671843301E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0826566633061003E-2</c:v>
+                  <c:v>5.1082639932585203E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2524472259623402E-2</c:v>
+                  <c:v>5.2745042980244697E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4757262362711702E-2</c:v>
+                  <c:v>5.5047607774054499E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7566035841076703E-2</c:v>
+                  <c:v>5.78563812524195E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9178920163868103E-2</c:v>
+                  <c:v>5.94692655752109E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.2840087795100197E-2</c:v>
+                  <c:v>6.3154498809896306E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4300416807504507E-2</c:v>
+                  <c:v>6.4614827822300602E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8758457843039605E-2</c:v>
+                  <c:v>6.9035944712505695E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.2502782838025498E-2</c:v>
+                  <c:v>7.27405791583038E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.4889987294280605E-2</c:v>
+                  <c:v>7.5127783614559004E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7820136128589804E-2</c:v>
+                  <c:v>7.8057932448868106E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.9931170033139695E-2</c:v>
+                  <c:v>8.0168966353417997E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1381498423482801E-2</c:v>
+                  <c:v>8.1619294743761103E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3603879555119706E-2</c:v>
+                  <c:v>8.3841675875397995E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5756741292799699E-2</c:v>
+                  <c:v>8.5994537613078098E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.9272507639064497E-2</c:v>
+                  <c:v>8.9510303959342896E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.44352360634515E-2</c:v>
+                  <c:v>9.4673032383729899E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9604405934706999E-2</c:v>
+                  <c:v>9.9926920991521506E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10319836719802999</c:v>
+                  <c:v>0.103520882254845</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.104709405019679</c:v>
+                  <c:v>0.10503192007649401</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10933877439527501</c:v>
+                  <c:v>0.10970656805625401</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11108082065409899</c:v>
+                  <c:v>0.11144861431507801</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.116035347024588</c:v>
+                  <c:v>0.11640314068556699</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.119770295342833</c:v>
+                  <c:v>0.12017385723125799</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.122505418777104</c:v>
+                  <c:v>0.122512880255099</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12517674320057601</c:v>
+                  <c:v>0.12514331252865801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3589,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z47" sqref="Z47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3620,7 +3620,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 262%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 258%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.5913509841828672E-3</v>
+        <v>3.5277029676141838E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3728,26 +3728,26 @@
         <v>0.145661788198057</v>
       </c>
       <c r="H5" s="24">
-        <v>4.8624850692589299E-3</v>
+        <v>4.8893386066828698E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.2067720958756696E-3</v>
+        <v>8.2336256332996103E-3</v>
       </c>
       <c r="J5" s="5">
-        <v>37.735294117647001</v>
+        <v>37.818181818181799</v>
       </c>
       <c r="K5" s="4">
-        <v>0.183487304231153</v>
+        <v>0.184905896398188</v>
       </c>
       <c r="L5" s="3">
-        <v>0.28868033252291603</v>
+        <v>0.29009892468995102</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.3011950749112537E-2</v>
+        <v>8.0121529850381776E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3773,7 +3773,7 @@
         <v>5.9485156518546802E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.41552877477303E-2</v>
+        <v>1.4182141285154199E-2</v>
       </c>
       <c r="J6" s="5">
         <v>35.3333333333333</v>
@@ -3782,14 +3782,14 @@
         <v>0.210180886365532</v>
       </c>
       <c r="L6" s="3">
-        <v>0.49886121888844798</v>
+        <v>0.50027981105548303</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>27.106436547819385</v>
+        <v>27.060029589974519</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3815,7 +3815,7 @@
         <v>3.2870900371580599E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.7442377784888399E-2</v>
+        <v>1.74692313223123E-2</v>
       </c>
       <c r="J7" s="5">
         <v>28.909090909090899</v>
@@ -3824,7 +3824,7 @@
         <v>9.5026784710569606E-2</v>
       </c>
       <c r="L7" s="3">
-        <v>0.59388800359901806</v>
+        <v>0.59530659576605305</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3850,7 +3850,7 @@
         <v>1.2952128946057E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>3.03945067309455E-2</v>
+        <v>3.0421360268369401E-2</v>
       </c>
       <c r="J8" s="5">
         <v>49.4324324324324</v>
@@ -3859,14 +3859,14 @@
         <v>0.640255238982119</v>
       </c>
       <c r="L8" s="3">
-        <v>1.2341432425811301</v>
+        <v>1.2355618347481701</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.477131755571568E-3</v>
+        <v>3.476203125796063E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3889,26 +3889,26 @@
         <v>0.88348631718617299</v>
       </c>
       <c r="H9" s="24">
-        <v>3.9710341761229704E-3</v>
+        <v>3.9847980347261797E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.43655409070684E-2</v>
+        <v>3.4406158303095603E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>23.407407407407401</v>
+        <v>23.075471698113201</v>
       </c>
       <c r="K9" s="4">
-        <v>9.2951614789248904E-2</v>
+        <v>9.1951094273021006E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>1.32709485737038</v>
+        <v>1.32751292902119</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>9.7771671122250436E-2</v>
+        <v>9.6926029169565039E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3931,26 +3931,26 @@
         <v>1.1027837607706801</v>
       </c>
       <c r="H10" s="24">
-        <v>2.3702185476313499E-3</v>
+        <v>2.3071651375333401E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>3.6735759454699798E-2</v>
+        <v>3.6713323440628901E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>15.018867924528299</v>
+        <v>14.2264150943396</v>
       </c>
       <c r="K10" s="4">
-        <v>3.5597999319142502E-2</v>
+        <v>3.2822688937738501E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.36269285668952</v>
+        <v>1.3603356179589301</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>27.19723679108079</v>
+        <v>26.941605474770647</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -3976,7 +3976,7 @@
         <v>2.89968027534116E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.9635439730041001E-2</v>
+        <v>3.9613003715970103E-2</v>
       </c>
       <c r="J11" s="5">
         <v>20.702702702702702</v>
@@ -3985,7 +3985,7 @@
         <v>6.0031218673279201E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.4227240753628001</v>
+        <v>1.42036683663221</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4011,7 +4011,7 @@
         <v>6.6066578180688004E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>4.6242097548109803E-2</v>
+        <v>4.6219661534038899E-2</v>
       </c>
       <c r="J12" s="5">
         <v>19.52</v>
@@ -4020,14 +4020,14 @@
         <v>0.12896196060870299</v>
       </c>
       <c r="L12" s="3">
-        <v>1.5516860359715099</v>
+        <v>1.54932879724091</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.534145877868065E-3</v>
+        <v>3.5020095155804932E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4050,26 +4050,26 @@
         <v>1.54012140633297</v>
       </c>
       <c r="H13" s="24">
-        <v>1.75322893059451E-3</v>
+        <v>2.0452551378044499E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.7995326478704303E-2</v>
+        <v>4.8264916671843301E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>20.962962962962902</v>
+        <v>19.407407407407401</v>
       </c>
       <c r="K13" s="4">
-        <v>3.6752873137647898E-2</v>
+        <v>3.9693099711464203E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.58843890910915</v>
+        <v>1.5890218969523699</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>9.0404150673658201E-2</v>
+        <v>8.8505353605267637E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4092,19 +4092,19 @@
         <v>1.59486145121985</v>
       </c>
       <c r="H14" s="24">
-        <v>2.83124015435677E-3</v>
+        <v>2.8177232607418299E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>5.0826566633061003E-2</v>
+        <v>5.1082639932585203E-2</v>
       </c>
       <c r="J14" s="5">
-        <v>30.275862068965498</v>
+        <v>28.827586206896498</v>
       </c>
       <c r="K14" s="4">
-        <v>8.5718236397422196E-2</v>
+        <v>8.1228160206212902E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.67415714550658</v>
+        <v>1.6702500571585901</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4112,34 +4112,34 @@
         <v>45308</v>
       </c>
       <c r="C15" s="24">
-        <v>2.48262898092871E-3</v>
+        <v>2.4992006980978101E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>6.9717831817314599E-2</v>
+        <v>6.9734403534483694E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>24</v>
+        <v>23.3333333333333</v>
       </c>
       <c r="F15" s="4">
-        <v>5.9583095542289001E-2</v>
+        <v>5.8314682955615503E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.65444454676214</v>
+        <v>1.65317613417547</v>
       </c>
       <c r="H15" s="24">
-        <v>1.69790562656233E-3</v>
+        <v>1.66240304765952E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>5.2524472259623402E-2</v>
+        <v>5.2745042980244697E-2</v>
       </c>
       <c r="J15" s="5">
-        <v>104.64705882352899</v>
+        <v>102.17647058823501</v>
       </c>
       <c r="K15" s="4">
-        <v>0.17768082997967</v>
+        <v>0.16985847610497601</v>
       </c>
       <c r="L15" s="3">
-        <v>1.85183797548625</v>
+        <v>1.8401085332635601</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4156,7 +4156,7 @@
         <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>7.1273862900543702E-2</v>
+        <v>7.1290434617712797E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4165,33 +4165,33 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.69801341709256</v>
+        <v>1.6967450045058901</v>
       </c>
       <c r="H16" s="24">
-        <v>2.2327901030882698E-3</v>
+        <v>2.3025647938097801E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>5.4757262362711702E-2</v>
+        <v>5.5047607774054499E-2</v>
       </c>
       <c r="J16" s="5">
-        <v>36.757575757575701</v>
+        <v>37.90625</v>
       </c>
       <c r="K16" s="4">
-        <v>8.2071951365032494E-2</v>
+        <v>8.7281596715351906E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.93390992685128</v>
+        <v>1.92739012997892</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.4156752746961048</v>
+        <v>1.3964127693394133</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.6244013966448443</v>
+        <v>2.5822836641425542</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4202,7 +4202,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>6.7498271004254096E-2</v>
+        <v>6.7514842721423204E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4211,13 +4211,13 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.49035586279663</v>
+        <v>1.48908745020996</v>
       </c>
       <c r="H17" s="24">
         <v>2.8087734783649901E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>5.7566035841076703E-2</v>
+        <v>5.78563812524195E-2</v>
       </c>
       <c r="J17" s="5">
         <v>17.035714285714199</v>
@@ -4226,18 +4226,18 @@
         <v>4.7849462470718002E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.981759389322</v>
+        <v>1.97523959244963</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>8.0172581517415509</v>
+        <v>7.8394989964073183</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>23.797549995657221</v>
+        <v>23.087091934367091</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4251,7 +4251,7 @@
         <v>2.0480313709833801E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>6.7703074141352404E-2</v>
+        <v>6.7719645858521499E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.230769230769202</v>
@@ -4260,13 +4260,13 @@
         <v>3.9385218672757403E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.4942943846639101</v>
+        <v>1.4930259720772301</v>
       </c>
       <c r="H18" s="24">
         <v>1.6128843227913999E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>5.9178920163868103E-2</v>
+        <v>5.94692655752109E-2</v>
       </c>
       <c r="J18" s="5">
         <v>28.035714285714199</v>
@@ -4275,7 +4275,7 @@
         <v>4.5218364049687501E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2.0269777533716802</v>
+        <v>2.0204579564993201</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4286,7 +4286,7 @@
         <v>6.2661968757838304E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>6.8329693828930796E-2</v>
+        <v>6.8346265546099905E-2</v>
       </c>
       <c r="E19" s="5">
         <v>32.1111111111111</v>
@@ -4295,22 +4295,22 @@
         <v>2.0121454412239202E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.51441583907615</v>
+        <v>1.51314742648947</v>
       </c>
       <c r="H19" s="24">
-        <v>3.6611676312320999E-3</v>
+        <v>3.68523323468541E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>6.2840087795100197E-2</v>
+        <v>6.3154498809896306E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>24.6551724137931</v>
+        <v>23.535714285714199</v>
       </c>
       <c r="K19" s="4">
-        <v>9.0266719183826005E-2</v>
+        <v>8.6734596487774498E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>2.1172444725555102</v>
+        <v>2.1071925529871001</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4318,25 +4318,25 @@
         <v>45315</v>
       </c>
       <c r="C20" s="24">
-        <v>3.7930293631282101E-3</v>
+        <v>7.2091695203043901E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>7.2122723192058993E-2</v>
+        <v>6.9067182498130403E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>35.9166666666666</v>
+        <v>37.4</v>
       </c>
       <c r="F20" s="4">
-        <v>0.13623297129235501</v>
+        <v>2.69622940059384E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.6506488103685</v>
+        <v>1.54010972049541</v>
       </c>
       <c r="H20" s="24">
         <v>1.4603290124042801E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>6.4300416807504507E-2</v>
+        <v>6.4614827822300602E-2</v>
       </c>
       <c r="J20" s="5">
         <v>15.7391304347826</v>
@@ -4345,7 +4345,7 @@
         <v>2.2984308803928301E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>2.1402287813594398</v>
+        <v>2.1301768617910199</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4356,7 +4356,7 @@
         <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>7.4179968002928101E-2</v>
+        <v>7.1124427308999399E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.3333333333333</v>
@@ -4365,22 +4365,22 @@
         <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.7212808822083401</v>
+        <v>1.6107417923352501</v>
       </c>
       <c r="H21" s="24">
-        <v>4.4580410355351497E-3</v>
+        <v>4.4211168902051302E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>6.8758457843039605E-2</v>
+        <v>6.9035944712505695E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>20.8095238095238</v>
+        <v>19.8095238095238</v>
       </c>
       <c r="K21" s="4">
-        <v>9.2769711072803004E-2</v>
+        <v>8.7580220301206504E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>2.2329984924322401</v>
+        <v>2.2177570820922301</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4391,7 +4391,7 @@
         <v>6.6517586697807099E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>8.0831726672708798E-2</v>
+        <v>7.7776185978780096E-2</v>
       </c>
       <c r="E22" s="5">
         <v>29.714285714285701</v>
@@ -4400,22 +4400,22 @@
         <v>0.197652257616341</v>
       </c>
       <c r="G22" s="3">
-        <v>1.9189331398246801</v>
+        <v>1.80839404995159</v>
       </c>
       <c r="H22" s="24">
-        <v>3.74432499498586E-3</v>
+        <v>3.70463444579806E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>7.2502782838025498E-2</v>
+        <v>7.27405791583038E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>29.529411764705799</v>
+        <v>28.294117647058801</v>
       </c>
       <c r="K22" s="4">
-        <v>0.110567714557817</v>
+        <v>0.10481936284875699</v>
       </c>
       <c r="L22" s="3">
-        <v>2.3435662069900598</v>
+        <v>2.32257644494099</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4426,7 +4426,7 @@
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.2627598863662804E-2</v>
+        <v>7.95720581697342E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4435,13 +4435,13 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>1.9957964695975099</v>
+        <v>1.8852573797244201</v>
       </c>
       <c r="H23" s="24">
         <v>2.38720445625515E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>7.4889987294280605E-2</v>
+        <v>7.5127783614559004E-2</v>
       </c>
       <c r="J23" s="5">
         <v>25.677966101694899</v>
@@ -4450,7 +4450,7 @@
         <v>6.1298555105534898E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>2.4048647620955999</v>
+        <v>2.3838750000465199</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4461,7 +4461,7 @@
         <v>6.3408810487083599E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>8.8968479912371196E-2</v>
+        <v>8.5912939218442494E-2</v>
       </c>
       <c r="E24" s="5">
         <v>28.6666666666666</v>
@@ -4470,13 +4470,13 @@
         <v>0.18177192339630599</v>
       </c>
       <c r="G24" s="3">
-        <v>2.1775683929938201</v>
+        <v>2.0670293031207301</v>
       </c>
       <c r="H24" s="24">
         <v>2.93014883430916E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>7.7820136128589804E-2</v>
+        <v>7.8057932448868106E-2</v>
       </c>
       <c r="J24" s="5">
         <v>27.959183673469301</v>
@@ -4485,7 +4485,7 @@
         <v>8.1924569449052201E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>2.4867893315446499</v>
+        <v>2.4657995694955801</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4496,7 +4496,7 @@
         <v>3.7781757575616501E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.2746655669932898E-2</v>
+        <v>8.9691114976004196E-2</v>
       </c>
       <c r="E25" s="5">
         <v>30.678571428571399</v>
@@ -4505,13 +4505,13 @@
         <v>0.115909034848052</v>
       </c>
       <c r="G25" s="3">
-        <v>2.2934774278418701</v>
+        <v>2.1829383379687801</v>
       </c>
       <c r="H25" s="24">
         <v>2.11103390454983E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>7.9931170033139695E-2</v>
+        <v>8.0168966353417997E-2</v>
       </c>
       <c r="J25" s="5">
         <v>35.210526315789402</v>
@@ -4520,7 +4520,7 @@
         <v>7.4330614849675597E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.5611199463943199</v>
+        <v>2.5401301843452502</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4531,7 +4531,7 @@
         <v>-3.0777623900411699E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>8.9668893279891707E-2</v>
+        <v>8.6613352585963005E-2</v>
       </c>
       <c r="E26" s="5">
         <v>43.692307692307601</v>
@@ -4540,13 +4540,13 @@
         <v>-0.13447454134949099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.15900288649238</v>
+        <v>2.04846379661929</v>
       </c>
       <c r="H26" s="24">
         <v>1.4503283903430999E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>8.1381498423482801E-2</v>
+        <v>8.1619294743761103E-2</v>
       </c>
       <c r="J26" s="5">
         <v>25.241379310344801</v>
@@ -4555,7 +4555,7 @@
         <v>3.6608289025212098E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.5977282354195399</v>
+        <v>2.5767384733704599</v>
       </c>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.35">
@@ -4566,7 +4566,7 @@
         <v>2.0466783525047699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.1715571632396506E-2</v>
+        <v>8.8660030938467804E-2</v>
       </c>
       <c r="E27" s="5">
         <v>15.4117647058823</v>
@@ -4575,13 +4575,13 @@
         <v>3.1542925197426401E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.1905458116898102</v>
+        <v>2.0800067218167202</v>
       </c>
       <c r="H27" s="24">
         <v>2.22238113163692E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>8.3603879555119706E-2</v>
+        <v>8.3841675875397995E-2</v>
       </c>
       <c r="J27" s="5">
         <v>21.478260869565201</v>
@@ -4590,7 +4590,7 @@
         <v>4.7732881696897399E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.6454611171164299</v>
+        <v>2.6244713550673602</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.35">
@@ -4601,7 +4601,7 @@
         <v>5.1637753118672801E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>9.6879346944263797E-2</v>
+        <v>9.3823806250335096E-2</v>
       </c>
       <c r="E28" s="5">
         <v>26.3125</v>
@@ -4610,13 +4610,13 @@
         <v>0.13587183789350801</v>
       </c>
       <c r="G28" s="3">
-        <v>2.32641764958331</v>
+        <v>2.21587855971022</v>
       </c>
       <c r="H28" s="24">
         <v>2.1528617376800501E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>8.5756741292799699E-2</v>
+        <v>8.5994537613078098E-2</v>
       </c>
       <c r="J28" s="5">
         <v>22.741379310344801</v>
@@ -4625,7 +4625,7 @@
         <v>4.8959045379310097E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.69442016249574</v>
+        <v>2.6734304004466698</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
@@ -4633,25 +4633,25 @@
         <v>45328</v>
       </c>
       <c r="C29" s="24">
-        <v>2.4424608674327398E-3</v>
+        <v>2.61010647860684E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>9.93218078116965E-2</v>
+        <v>9.6433912728941903E-2</v>
       </c>
       <c r="E29" s="5">
-        <v>27.294117647058801</v>
+        <v>27.117647058823501</v>
       </c>
       <c r="F29" s="4">
-        <v>6.6664814264046496E-2</v>
+        <v>7.0779946272809202E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.3930824638473598</v>
+        <v>2.2866585059830302</v>
       </c>
       <c r="H29" s="24">
         <v>3.5157663462647998E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.9272507639064497E-2</v>
+        <v>8.9510303959342896E-2</v>
       </c>
       <c r="J29" s="5">
         <v>20.4190476190476</v>
@@ -4660,7 +4660,7 @@
         <v>7.1788600441826098E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.7662087629375698</v>
+        <v>2.7452190008885</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
@@ -4671,7 +4671,7 @@
         <v>-2.76375360199506E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>9.6558054209701399E-2</v>
+        <v>9.36701591269469E-2</v>
       </c>
       <c r="E30" s="5">
         <v>33.1111111111111</v>
@@ -4680,13 +4680,13 @@
         <v>-9.1510952599392195E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.3015715112479702</v>
+        <v>2.1951475533836402</v>
       </c>
       <c r="H30" s="24">
         <v>5.1627284243869996E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.44352360634515E-2</v>
+        <v>9.4673032383729899E-2</v>
       </c>
       <c r="J30" s="5">
         <v>18.949367088607499</v>
@@ -4695,7 +4695,7 @@
         <v>9.7830436092498002E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>2.8640391990300702</v>
+        <v>2.843049436981</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
@@ -4706,7 +4706,7 @@
         <v>3.23281296356952E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>9.9790867173271E-2</v>
+        <v>9.6902972090516404E-2</v>
       </c>
       <c r="E31" s="5">
         <v>21.8666666666666</v>
@@ -4715,22 +4715,22 @@
         <v>7.0690843470053596E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>2.3722623547180199</v>
+        <v>2.2658383968537001</v>
       </c>
       <c r="H31" s="24">
-        <v>5.1691698712554301E-3</v>
+        <v>5.2538886077915896E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.9604405934706999E-2</v>
+        <v>9.9926920991521506E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>21.121951219512098</v>
+        <v>21.123456790123399</v>
       </c>
       <c r="K31" s="4">
-        <v>0.109182953866029</v>
+        <v>0.11098028898680699</v>
       </c>
       <c r="L31" s="3">
-        <v>2.9732221528961</v>
+        <v>2.9540297259677999</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4741,7 +4741,7 @@
         <v>2.1369009370730699E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.101927768110344</v>
+        <v>9.9039873027589501E-2</v>
       </c>
       <c r="E32" s="5">
         <v>28.368421052631501</v>
@@ -4750,13 +4750,13 @@
         <v>6.0620505530651903E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.4328828602486801</v>
+        <v>2.32645890238435</v>
       </c>
       <c r="H32" s="24">
         <v>3.5939612633234899E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>0.10319836719802999</v>
+        <v>0.103520882254845</v>
       </c>
       <c r="J32" s="5">
         <v>17.773809523809501</v>
@@ -4765,7 +4765,7 @@
         <v>6.3878382930261698E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>3.0371005358263599</v>
+        <v>3.0179081088980602</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4776,7 +4776,7 @@
         <v>1.8453163194119401E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.103773084429756</v>
+        <v>0.100885189347001</v>
       </c>
       <c r="E33" s="5">
         <v>23.409090909090899</v>
@@ -4785,13 +4785,13 @@
         <v>4.3197177477143203E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.4760800377258199</v>
+        <v>2.3696560798614899</v>
       </c>
       <c r="H33" s="24">
         <v>1.51103782164941E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.104709405019679</v>
+        <v>0.10503192007649401</v>
       </c>
       <c r="J33" s="5">
         <v>21.921052631578899</v>
@@ -4800,7 +4800,7 @@
         <v>3.3123539616683198E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>3.0702240754430399</v>
+        <v>3.0510316485147499</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4811,7 +4811,7 @@
         <v>7.3337161260358602E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.111106800555791</v>
+        <v>0.108218905473037</v>
       </c>
       <c r="E34" s="5">
         <v>16.375</v>
@@ -4820,22 +4820,22 @@
         <v>0.120089601563837</v>
       </c>
       <c r="G34" s="3">
-        <v>2.59616963928966</v>
+        <v>2.48974568142533</v>
       </c>
       <c r="H34" s="24">
-        <v>4.62936937559532E-3</v>
+        <v>4.6746479797599803E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.10933877439527501</v>
+        <v>0.10970656805625401</v>
       </c>
       <c r="J34" s="5">
-        <v>24.722772277227701</v>
+        <v>24.55</v>
       </c>
       <c r="K34" s="4">
-        <v>0.114450844860015</v>
+        <v>0.11476260790310699</v>
       </c>
       <c r="L34" s="3">
-        <v>3.1846749203030602</v>
+        <v>3.1657942564178598</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4846,7 +4846,7 @@
         <v>7.7427986188073001E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.118849599174599</v>
+        <v>0.115961704091844</v>
       </c>
       <c r="E35" s="5">
         <v>15.588235294117601</v>
@@ -4855,13 +4855,13 @@
         <v>0.120696566704937</v>
       </c>
       <c r="G35" s="3">
-        <v>2.7168662059945898</v>
+        <v>2.61044224813027</v>
       </c>
       <c r="H35" s="24">
         <v>1.74204625882387E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.11108082065409899</v>
+        <v>0.11144861431507801</v>
       </c>
       <c r="J35" s="5">
         <v>17.276785714285701</v>
@@ -4870,7 +4870,7 @@
         <v>3.00969599180732E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>3.21477188022113</v>
+        <v>3.1958912163359301</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4881,7 +4881,7 @@
         <v>-1.0152511363241299E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.117834348038275</v>
+        <v>0.11494645295552</v>
       </c>
       <c r="E36" s="5">
         <v>21.6666666666666</v>
@@ -4890,13 +4890,13 @@
         <v>-2.1997107953689501E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.6948690980409</v>
+        <v>2.5884451401765798</v>
       </c>
       <c r="H36" s="24">
         <v>4.95452637048901E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.116035347024588</v>
+        <v>0.11640314068556699</v>
       </c>
       <c r="J36" s="5">
         <v>21.504950495049499</v>
@@ -4905,7 +4905,7 @@
         <v>0.106546844323783</v>
       </c>
       <c r="L36" s="3">
-        <v>3.3213187245449101</v>
+        <v>3.3024380606597101</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -4916,7 +4916,7 @@
         <v>6.37286314253747E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.124207211180812</v>
+        <v>0.121319316098057</v>
       </c>
       <c r="E37" s="5">
         <v>30.9375</v>
@@ -4925,22 +4925,22 @@
         <v>0.197160453472253</v>
       </c>
       <c r="G37" s="3">
-        <v>2.89202955151316</v>
+        <v>2.78560559364883</v>
       </c>
       <c r="H37" s="24">
-        <v>3.73494831824531E-3</v>
+        <v>3.77071654569105E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.119770295342833</v>
+        <v>0.12017385723125799</v>
       </c>
       <c r="J37" s="5">
-        <v>16.445544554455399</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="K37" s="4">
-        <v>6.1423258976291702E-2</v>
+        <v>6.1047900874738201E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>3.3827419835211998</v>
+        <v>3.3634859615344501</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>18</v>
@@ -4951,34 +4951,34 @@
         <v>45342</v>
       </c>
       <c r="C38" s="24">
-        <v>2.6140938025245798E-3</v>
+        <v>2.6725292749944E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.12682130498333699</v>
+        <v>0.123991845373052</v>
       </c>
       <c r="E38" s="5">
-        <v>24.607142857142801</v>
+        <v>21.962962962962902</v>
       </c>
       <c r="F38" s="4">
-        <v>6.4325379640694305E-2</v>
+        <v>5.8696661484136298E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.9563549311538502</v>
+        <v>2.8443022551329702</v>
       </c>
       <c r="H38" s="24">
-        <v>2.7351234342706302E-3</v>
+        <v>2.3390230238413499E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.122505418777104</v>
+        <v>0.122512880255099</v>
       </c>
       <c r="J38" s="5">
-        <v>25.330508474576199</v>
+        <v>25.243478260869502</v>
       </c>
       <c r="K38" s="4">
-        <v>6.92820673308044E-2</v>
+        <v>5.9045076854012501E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>3.4520240508520099</v>
+        <v>3.4225310383884602</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>19</v>
@@ -4989,34 +4989,34 @@
         <v>45343</v>
       </c>
       <c r="C39" s="24">
-        <v>2.4673304472462199E-3</v>
+        <v>3.0054614610584098E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.129288635430583</v>
+        <v>0.12699730683411001</v>
       </c>
       <c r="E39" s="5">
-        <v>13</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="F39" s="4">
-        <v>3.2075295814200898E-2</v>
+        <v>4.0072819480778898E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.9884302269680498</v>
+        <v>2.88437507461374</v>
       </c>
       <c r="H39" s="24">
-        <v>2.67132442347258E-3</v>
+        <v>2.6304322735587701E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.12517674320057601</v>
+        <v>0.12514331252865801</v>
       </c>
       <c r="J39" s="5">
-        <v>25.364238410595998</v>
+        <v>25.397350993377401</v>
       </c>
       <c r="K39" s="4">
-        <v>6.7756109549006696E-2</v>
+        <v>6.6806011715880007E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>3.5197801604010199</v>
+        <v>3.4893370501043401</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>20</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDBD80A-F718-44D1-BC59-B41E6D1F53DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F5356-4BF4-4623-B148-317456B405AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$40</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1088,16 +1088,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45343</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$40</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>3.3553865235238698E-3</c:v>
                 </c:pt>
@@ -1105,106 +1108,109 @@
                   <c:v>5.6147381844112304E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3043948821248893E-3</c:v>
+                  <c:v>8.9358334209609595E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7619817424676901E-2</c:v>
+                  <c:v>1.7251255963512999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.32672108100321E-2</c:v>
+                  <c:v>2.56020977237683E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8784383325237799E-2</c:v>
+                  <c:v>3.1119270238973901E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2983498377472298E-2</c:v>
+                  <c:v>4.53183852912084E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1772221775438297E-2</c:v>
+                  <c:v>5.4107108689174399E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9921243914777003E-2</c:v>
+                  <c:v>6.2256130828513202E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4221989356373799E-2</c:v>
+                  <c:v>6.6556876270109894E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7235202836385899E-2</c:v>
+                  <c:v>6.9570089750122105E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9734403534483694E-2</c:v>
+                  <c:v>7.2910487195529797E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1290434617712797E-2</c:v>
+                  <c:v>7.44665182787589E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7514842721423204E-2</c:v>
+                  <c:v>7.0690926382469293E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7719645858521499E-2</c:v>
+                  <c:v>7.0615514114101094E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8346265546099905E-2</c:v>
+                  <c:v>7.12421338016795E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.9067182498130403E-2</c:v>
+                  <c:v>7.1963050753709901E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.1124427308999399E-2</c:v>
+                  <c:v>7.4020295564578995E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.7776185978780096E-2</c:v>
+                  <c:v>8.0672054234359705E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.95720581697342E-2</c:v>
+                  <c:v>8.2467926425313698E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.5912939218442494E-2</c:v>
+                  <c:v>8.8808807474022103E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9691114976004196E-2</c:v>
+                  <c:v>9.2586983231583694E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6613352585963005E-2</c:v>
+                  <c:v>8.9447571294414593E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.8660030938467804E-2</c:v>
+                  <c:v>9.1494249646919407E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.3823806250335096E-2</c:v>
+                  <c:v>9.6658024958786698E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.6433912728941903E-2</c:v>
+                  <c:v>9.9268131437393506E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.36701591269469E-2</c:v>
+                  <c:v>9.6504377835398406E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.6902972090516404E-2</c:v>
+                  <c:v>9.9737190798968006E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9039873027589501E-2</c:v>
+                  <c:v>0.101759049412647</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.100885189347001</c:v>
+                  <c:v>0.103604365732059</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.108218905473037</c:v>
+                  <c:v>0.109669666550059</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.115961704091844</c:v>
+                  <c:v>0.117412465168866</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11494645295552</c:v>
+                  <c:v>0.116008481253844</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.121319316098057</c:v>
+                  <c:v>0.122381344396382</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.123991845373052</c:v>
+                  <c:v>0.12478184995989999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12699730683411001</c:v>
+                  <c:v>0.12778731142095801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.13503212060249101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,10 +1603,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$40</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1708,123 +1714,129 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45343</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$40</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>3.3442870266167401E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2336256332996103E-3</c:v>
+                  <c:v>8.1370421394099599E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4182141285154199E-2</c:v>
+                  <c:v>1.4085557791264599E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.74692313223123E-2</c:v>
+                  <c:v>1.73726478284227E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0421360268369401E-2</c:v>
+                  <c:v>3.0684558134092502E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4406158303095603E-2</c:v>
+                  <c:v>3.4399678378685301E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6713323440628901E-2</c:v>
+                  <c:v>3.66458866623997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9613003715970103E-2</c:v>
+                  <c:v>4.0719601400055101E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6219661534038899E-2</c:v>
+                  <c:v>4.7374307046454497E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8264916671843301E-2</c:v>
+                  <c:v>4.9419562184258997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1082639932585203E-2</c:v>
+                  <c:v>5.2237285445000801E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2745042980244697E-2</c:v>
+                  <c:v>5.38996884926604E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5047607774054499E-2</c:v>
+                  <c:v>5.6202253286470098E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.78563812524195E-2</c:v>
+                  <c:v>5.9104980623456302E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.94692655752109E-2</c:v>
+                  <c:v>6.0717864946247702E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3154498809896306E-2</c:v>
+                  <c:v>6.3612551767532305E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4614827822300602E-2</c:v>
+                  <c:v>6.5072880779936601E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.9035944712505695E-2</c:v>
+                  <c:v>6.9493997670141694E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.27405791583038E-2</c:v>
+                  <c:v>7.3198632115939799E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5127783614559004E-2</c:v>
+                  <c:v>7.5690043423612394E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8057932448868106E-2</c:v>
+                  <c:v>7.8168277228124305E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0168966353417997E-2</c:v>
+                  <c:v>8.0412356727217901E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1619294743761103E-2</c:v>
+                  <c:v>8.1957463614088094E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3841675875397995E-2</c:v>
+                  <c:v>8.40342656992355E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5994537613078098E-2</c:v>
+                  <c:v>8.6187127436915603E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.9510303959342896E-2</c:v>
+                  <c:v>8.9705634718486693E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.4673032383729899E-2</c:v>
+                  <c:v>9.5591540919228599E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9926920991521506E-2</c:v>
+                  <c:v>0.101005505788032</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.103520882254845</c:v>
+                  <c:v>0.104902451645164</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10503192007649401</c:v>
+                  <c:v>0.106433636637769</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10970656805625401</c:v>
+                  <c:v>0.111324612561849</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11144861431507801</c:v>
+                  <c:v>0.113275112601505</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11640314068556699</c:v>
+                  <c:v>0.118094696630726</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12017385723125799</c:v>
+                  <c:v>0.121880629868722</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.122512880255099</c:v>
+                  <c:v>0.124025751057372</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12514331252865801</c:v>
+                  <c:v>0.126649087542443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.12947270329500599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3232,15 +3244,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3271,8 +3283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L39" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L40" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
@@ -3587,10 +3599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z39"/>
+  <dimension ref="B2:Z40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3620,7 +3632,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 258%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 268%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3705,7 +3717,7 @@
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.5277029676141838E-3</v>
+        <v>3.6495167730403186E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3728,26 +3740,26 @@
         <v>0.145661788198057</v>
       </c>
       <c r="H5" s="24">
-        <v>4.8893386066828698E-3</v>
+        <v>4.7927551127932202E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.2336256332996103E-3</v>
+        <v>8.1370421394099599E-3</v>
       </c>
       <c r="J5" s="5">
-        <v>37.818181818181799</v>
+        <v>38.258064516128997</v>
       </c>
       <c r="K5" s="4">
-        <v>0.184905896398188</v>
+        <v>0.18336153431525001</v>
       </c>
       <c r="L5" s="3">
-        <v>0.29009892468995102</v>
+        <v>0.28855456260701301</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.0121529850381776E-2</v>
+        <v>8.3627504645490666E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3755,25 +3767,25 @@
         <v>45294</v>
       </c>
       <c r="C6" s="24">
-        <v>3.6896566977136498E-3</v>
+        <v>3.3210952365497299E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>9.3043948821248893E-3</v>
+        <v>8.9358334209609595E-3</v>
       </c>
       <c r="E6" s="5">
-        <v>24.6666666666666</v>
+        <v>26.818181818181799</v>
       </c>
       <c r="F6" s="4">
-        <v>9.1011531876936905E-2</v>
+        <v>8.9065735889288303E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>0.236673320074994</v>
+        <v>0.23472752408734601</v>
       </c>
       <c r="H6" s="24">
         <v>5.9485156518546802E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.4182141285154199E-2</v>
+        <v>1.4085557791264599E-2</v>
       </c>
       <c r="J6" s="5">
         <v>35.3333333333333</v>
@@ -3782,14 +3794,14 @@
         <v>0.210180886365532</v>
       </c>
       <c r="L6" s="3">
-        <v>0.50027981105548303</v>
+        <v>0.49873544897254501</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>27.060029589974519</v>
+        <v>27.126954191542691</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3800,7 +3812,7 @@
         <v>8.3154225425520704E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.7619817424676901E-2</v>
+        <v>1.7251255963512999E-2</v>
       </c>
       <c r="E7" s="5">
         <v>35.700000000000003</v>
@@ -3809,13 +3821,13 @@
         <v>0.29686058476910898</v>
       </c>
       <c r="G7" s="3">
-        <v>0.53353390484410301</v>
+        <v>0.53158810885645502</v>
       </c>
       <c r="H7" s="24">
         <v>3.2870900371580599E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.74692313223123E-2</v>
+        <v>1.73726478284227E-2</v>
       </c>
       <c r="J7" s="5">
         <v>28.909090909090899</v>
@@ -3824,7 +3836,7 @@
         <v>9.5026784710569606E-2</v>
       </c>
       <c r="L7" s="3">
-        <v>0.59530659576605305</v>
+        <v>0.59376223368311498</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3832,41 +3844,41 @@
         <v>45296</v>
       </c>
       <c r="C8" s="24">
-        <v>5.6473933853551997E-3</v>
+        <v>8.3508417602552992E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.32672108100321E-2</v>
+        <v>2.56020977237683E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4">
-        <v>0.132713744555847</v>
+        <v>0.18371851872561601</v>
       </c>
       <c r="G8" s="3">
-        <v>0.66624764939995096</v>
+        <v>0.71530662758207197</v>
       </c>
       <c r="H8" s="24">
-        <v>1.2952128946057E-2</v>
+        <v>1.3311910305669699E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>3.0421360268369401E-2</v>
+        <v>3.0684558134092502E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>49.4324324324324</v>
+        <v>50.8055555555555</v>
       </c>
       <c r="K8" s="4">
-        <v>0.640255238982119</v>
+        <v>0.676318998585278</v>
       </c>
       <c r="L8" s="3">
-        <v>1.2355618347481701</v>
+        <v>1.2700812322683901</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.476203125796063E-3</v>
+        <v>3.4992622512163779E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3877,7 +3889,7 @@
         <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.8784383325237799E-2</v>
+        <v>3.1119270238973901E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3886,29 +3898,29 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>0.88348631718617299</v>
+        <v>0.932545295368293</v>
       </c>
       <c r="H9" s="24">
-        <v>3.9847980347261797E-3</v>
+        <v>3.71512024459287E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.4406158303095603E-2</v>
+        <v>3.4399678378685301E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>23.075471698113201</v>
+        <v>24.14</v>
       </c>
       <c r="K9" s="4">
-        <v>9.1951094273021006E-2</v>
+        <v>8.9683002704472006E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>1.32751292902119</v>
+        <v>1.35976423497286</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>9.6926029169565039E-2</v>
+        <v>9.8108630586431753E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3919,7 +3931,7 @@
         <v>1.41991150522345E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>4.2983498377472298E-2</v>
+        <v>4.53183852912084E-2</v>
       </c>
       <c r="E10" s="5">
         <v>15.4444444444444</v>
@@ -3928,29 +3940,29 @@
         <v>0.21929744358451</v>
       </c>
       <c r="G10" s="3">
-        <v>1.1027837607706801</v>
+        <v>1.1518427389528001</v>
       </c>
       <c r="H10" s="24">
-        <v>2.3071651375333401E-3</v>
+        <v>2.2462082837143502E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>3.6713323440628901E-2</v>
+        <v>3.66458866623997E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>14.2264150943396</v>
+        <v>14.4230769230769</v>
       </c>
       <c r="K10" s="4">
-        <v>3.2822688937738501E-2</v>
+        <v>3.2397234861264598E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.3603356179589301</v>
+        <v>1.39216146983413</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>26.941605474770647</v>
+        <v>27.095202209988805</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -3961,7 +3973,7 @@
         <v>8.7887233979660109E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>5.1772221775438297E-2</v>
+        <v>5.4107108689174399E-2</v>
       </c>
       <c r="E11" s="5">
         <v>10.5555555555555</v>
@@ -3970,22 +3982,22 @@
         <v>9.2769858089641194E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.19555361886032</v>
+        <v>1.24461259704244</v>
       </c>
       <c r="H11" s="24">
-        <v>2.89968027534116E-3</v>
+        <v>4.0737147376554003E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.9613003715970103E-2</v>
+        <v>4.0719601400055101E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>20.702702702702702</v>
+        <v>21.685714285714202</v>
       </c>
       <c r="K11" s="4">
-        <v>6.0031218673279201E-2</v>
+        <v>8.8341413882298603E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.42036683663221</v>
+        <v>1.48050288371642</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -3996,7 +4008,7 @@
         <v>8.1490221393387494E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.9921243914777003E-2</v>
+        <v>6.2256130828513202E-2</v>
       </c>
       <c r="E12" s="5">
         <v>28.75</v>
@@ -4005,29 +4017,29 @@
         <v>0.23428438650598901</v>
       </c>
       <c r="G12" s="3">
-        <v>1.42983800536631</v>
+        <v>1.47889698354843</v>
       </c>
       <c r="H12" s="24">
-        <v>6.6066578180688004E-3</v>
+        <v>6.6547056463994499E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>4.6219661534038899E-2</v>
+        <v>4.7374307046454497E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>19.52</v>
+        <v>19.7959183673469</v>
       </c>
       <c r="K12" s="4">
-        <v>0.12896196060870299</v>
+        <v>0.131736009734846</v>
       </c>
       <c r="L12" s="3">
-        <v>1.54932879724091</v>
+        <v>1.6122388934512699</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.5020095155804932E-3</v>
+        <v>3.5744335059412283E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4038,7 +4050,7 @@
         <v>4.30074544159672E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.4221989356373799E-2</v>
+        <v>6.6556876270109894E-2</v>
       </c>
       <c r="E13" s="5">
         <v>25.6428571428571</v>
@@ -4047,13 +4059,13 @@
         <v>0.11028340096665799</v>
       </c>
       <c r="G13" s="3">
-        <v>1.54012140633297</v>
+        <v>1.58918038451509</v>
       </c>
       <c r="H13" s="24">
         <v>2.0452551378044499E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.8264916671843301E-2</v>
+        <v>4.9419562184258997E-2</v>
       </c>
       <c r="J13" s="5">
         <v>19.407407407407401</v>
@@ -4062,14 +4074,14 @@
         <v>3.9693099711464203E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.5890218969523699</v>
+        <v>1.6519319931627401</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.8505353605267637E-2</v>
+        <v>9.0863827610820597E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4080,7 +4092,7 @@
         <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.7235202836385899E-2</v>
+        <v>6.9570089750122105E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4089,13 +4101,13 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.59486145121985</v>
+        <v>1.64392042940198</v>
       </c>
       <c r="H14" s="24">
         <v>2.8177232607418299E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>5.1082639932585203E-2</v>
+        <v>5.2237285445000801E-2</v>
       </c>
       <c r="J14" s="5">
         <v>28.827586206896498</v>
@@ -4104,7 +4116,7 @@
         <v>8.1228160206212902E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.6702500571585901</v>
+        <v>1.73316015336895</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4112,25 +4124,25 @@
         <v>45308</v>
       </c>
       <c r="C15" s="24">
-        <v>2.4992006980978101E-3</v>
+        <v>3.34039744540771E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>6.9734403534483694E-2</v>
+        <v>7.2910487195529797E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>23.3333333333333</v>
+        <v>25.571428571428498</v>
       </c>
       <c r="F15" s="4">
-        <v>5.8314682955615503E-2</v>
+        <v>8.5418734675425795E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.65317613417547</v>
+        <v>1.7293391640774001</v>
       </c>
       <c r="H15" s="24">
         <v>1.66240304765952E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>5.2745042980244697E-2</v>
+        <v>5.38996884926604E-2</v>
       </c>
       <c r="J15" s="5">
         <v>102.17647058823501</v>
@@ -4139,7 +4151,7 @@
         <v>0.16985847610497601</v>
       </c>
       <c r="L15" s="3">
-        <v>1.8401085332635601</v>
+        <v>1.90301862947392</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4156,7 +4168,7 @@
         <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>7.1290434617712797E-2</v>
+        <v>7.44665182787589E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4165,13 +4177,13 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.6967450045058901</v>
+        <v>1.7729080344078201</v>
       </c>
       <c r="H16" s="24">
         <v>2.3025647938097801E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>5.5047607774054499E-2</v>
+        <v>5.6202253286470098E-2</v>
       </c>
       <c r="J16" s="5">
         <v>37.90625</v>
@@ -4180,18 +4192,18 @@
         <v>8.7281596715351906E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.92739012997892</v>
+        <v>1.9903002261892799</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.3964127693394133</v>
+        <v>1.4400416289441393</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.5822836641425542</v>
+        <v>2.6779004015247638</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4202,7 +4214,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>6.7514842721423204E-2</v>
+        <v>7.0690926382469293E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4211,33 +4223,33 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.48908745020996</v>
+        <v>1.5652504801118901</v>
       </c>
       <c r="H17" s="24">
-        <v>2.8087734783649901E-3</v>
+        <v>2.9027273369861598E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>5.78563812524195E-2</v>
+        <v>5.9104980623456302E-2</v>
       </c>
       <c r="J17" s="5">
-        <v>17.035714285714199</v>
+        <v>17.807692307692299</v>
       </c>
       <c r="K17" s="4">
-        <v>4.7849462470718002E-2</v>
+        <v>5.1690875270176698E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.97523959244963</v>
+        <v>2.0419911014594501</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>7.8394989964073183</v>
+        <v>8.2451428030686191</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>23.087091934367091</v>
+        <v>24.717804506920988</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4248,25 +4260,25 @@
         <v>45313</v>
       </c>
       <c r="C18" s="24">
-        <v>2.0480313709833801E-4</v>
+        <v>-7.5412268368191604E-5</v>
       </c>
       <c r="D18" s="2">
-        <v>6.7719645858521499E-2</v>
+        <v>7.0615514114101094E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>19.230769230769202</v>
+        <v>19.6666666666666</v>
       </c>
       <c r="F18" s="4">
-        <v>3.9385218672757403E-3</v>
+        <v>-1.48310794457443E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.4930259720772301</v>
+        <v>1.56376737216731</v>
       </c>
       <c r="H18" s="24">
         <v>1.6128843227913999E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>5.94692655752109E-2</v>
+        <v>6.0717864946247702E-2</v>
       </c>
       <c r="J18" s="5">
         <v>28.035714285714199</v>
@@ -4275,7 +4287,7 @@
         <v>4.5218364049687501E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2.0204579564993201</v>
+        <v>2.0872094655091402</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4286,7 +4298,7 @@
         <v>6.2661968757838304E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>6.8346265546099905E-2</v>
+        <v>7.12421338016795E-2</v>
       </c>
       <c r="E19" s="5">
         <v>32.1111111111111</v>
@@ -4295,22 +4307,22 @@
         <v>2.0121454412239202E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.51314742648947</v>
+        <v>1.5838888265795501</v>
       </c>
       <c r="H19" s="24">
-        <v>3.68523323468541E-3</v>
+        <v>2.8946868212845599E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>6.3154498809896306E-2</v>
+        <v>6.3612551767532305E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>23.535714285714199</v>
+        <v>24.259259259259199</v>
       </c>
       <c r="K19" s="4">
-        <v>8.6734596487774498E-2</v>
+        <v>7.0222958071903194E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>2.1071925529871001</v>
+        <v>2.15743242358104</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4321,7 +4333,7 @@
         <v>7.2091695203043901E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>6.9067182498130403E-2</v>
+        <v>7.1963050753709901E-2</v>
       </c>
       <c r="E20" s="5">
         <v>37.4</v>
@@ -4330,13 +4342,13 @@
         <v>2.69622940059384E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.54010972049541</v>
+        <v>1.6108511205854901</v>
       </c>
       <c r="H20" s="24">
         <v>1.4603290124042801E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>6.4614827822300602E-2</v>
+        <v>6.5072880779936601E-2</v>
       </c>
       <c r="J20" s="5">
         <v>15.7391304347826</v>
@@ -4345,7 +4357,7 @@
         <v>2.2984308803928301E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>2.1301768617910199</v>
+        <v>2.1804167323849701</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4356,7 +4368,7 @@
         <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>7.1124427308999399E-2</v>
+        <v>7.4020295564578995E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.3333333333333</v>
@@ -4365,13 +4377,13 @@
         <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.6107417923352501</v>
+        <v>1.68148319242533</v>
       </c>
       <c r="H21" s="24">
         <v>4.4211168902051302E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>6.9035944712505695E-2</v>
+        <v>6.9493997670141694E-2</v>
       </c>
       <c r="J21" s="5">
         <v>19.8095238095238</v>
@@ -4380,7 +4392,7 @@
         <v>8.7580220301206504E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>2.2177570820922301</v>
+        <v>2.2679969526861798</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4391,7 +4403,7 @@
         <v>6.6517586697807099E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>7.7776185978780096E-2</v>
+        <v>8.0672054234359705E-2</v>
       </c>
       <c r="E22" s="5">
         <v>29.714285714285701</v>
@@ -4400,13 +4412,13 @@
         <v>0.197652257616341</v>
       </c>
       <c r="G22" s="3">
-        <v>1.80839404995159</v>
+        <v>1.8791354500416699</v>
       </c>
       <c r="H22" s="24">
         <v>3.70463444579806E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>7.27405791583038E-2</v>
+        <v>7.3198632115939799E-2</v>
       </c>
       <c r="J22" s="5">
         <v>28.294117647058801</v>
@@ -4415,7 +4427,7 @@
         <v>0.10481936284875699</v>
       </c>
       <c r="L22" s="3">
-        <v>2.32257644494099</v>
+        <v>2.3728163155349402</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4426,7 +4438,7 @@
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>7.95720581697342E-2</v>
+        <v>8.2467926425313698E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4435,22 +4447,22 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>1.8852573797244201</v>
+        <v>1.9559987798145</v>
       </c>
       <c r="H23" s="24">
-        <v>2.38720445625515E-3</v>
+        <v>2.4914113076725999E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>7.5127783614559004E-2</v>
+        <v>7.5690043423612394E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>25.677966101694899</v>
+        <v>26.625</v>
       </c>
       <c r="K23" s="4">
-        <v>6.1298555105534898E-2</v>
+        <v>6.6333826066783202E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>2.3838750000465199</v>
+        <v>2.4391501416017198</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4461,7 +4473,7 @@
         <v>6.3408810487083599E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>8.5912939218442494E-2</v>
+        <v>8.8808807474022103E-2</v>
       </c>
       <c r="E24" s="5">
         <v>28.6666666666666</v>
@@ -4470,22 +4482,22 @@
         <v>0.18177192339630599</v>
       </c>
       <c r="G24" s="3">
-        <v>2.0670293031207301</v>
+        <v>2.1377707032108102</v>
       </c>
       <c r="H24" s="24">
-        <v>2.93014883430916E-3</v>
+        <v>2.47823380451194E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>7.8057932448868106E-2</v>
+        <v>7.8168277228124305E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>27.959183673469301</v>
+        <v>29.127659574468002</v>
       </c>
       <c r="K24" s="4">
-        <v>8.1924569449052201E-2</v>
+        <v>7.2185150603762904E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>2.4657995694955801</v>
+        <v>2.5113352922054801</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4496,7 +4508,7 @@
         <v>3.7781757575616501E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>8.9691114976004196E-2</v>
+        <v>9.2586983231583694E-2</v>
       </c>
       <c r="E25" s="5">
         <v>30.678571428571399</v>
@@ -4505,22 +4517,22 @@
         <v>0.115909034848052</v>
       </c>
       <c r="G25" s="3">
-        <v>2.1829383379687801</v>
+        <v>2.2536797380588598</v>
       </c>
       <c r="H25" s="24">
-        <v>2.11103390454983E-3</v>
+        <v>2.2440794990935399E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>8.0168966353417997E-2</v>
+        <v>8.0412356727217901E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>35.210526315789402</v>
+        <v>36.108108108108098</v>
       </c>
       <c r="K25" s="4">
-        <v>7.4330614849675597E-2</v>
+        <v>8.1029465156458702E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.5401301843452502</v>
+        <v>2.5923647573619402</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4528,37 +4540,37 @@
         <v>45323</v>
       </c>
       <c r="C26" s="24">
-        <v>-3.0777623900411699E-3</v>
+        <v>-3.1394119371691499E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>8.6613352585963005E-2</v>
+        <v>8.9447571294414593E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>43.692307692307601</v>
+        <v>42.75</v>
       </c>
       <c r="F26" s="4">
-        <v>-0.13447454134949099</v>
+        <v>-0.13420986031398099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.04846379661929</v>
+        <v>2.1194698777448799</v>
       </c>
       <c r="H26" s="24">
-        <v>1.4503283903430999E-3</v>
+        <v>1.5451068868702501E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>8.1619294743761103E-2</v>
+        <v>8.1957463614088094E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>25.241379310344801</v>
+        <v>25.5</v>
       </c>
       <c r="K26" s="4">
-        <v>3.6608289025212098E-2</v>
+        <v>3.9400225615191499E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.5767384733704599</v>
+        <v>2.6317649829771299</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13">
         <v>45324</v>
       </c>
@@ -4566,7 +4578,7 @@
         <v>2.0466783525047699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>8.8660030938467804E-2</v>
+        <v>9.1494249646919407E-2</v>
       </c>
       <c r="E27" s="5">
         <v>15.4117647058823</v>
@@ -4575,22 +4587,22 @@
         <v>3.1542925197426401E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.0800067218167202</v>
+        <v>2.1510128029423101</v>
       </c>
       <c r="H27" s="24">
-        <v>2.22238113163692E-3</v>
+        <v>2.07680208514739E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>8.3841675875397995E-2</v>
+        <v>8.40342656992355E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>21.478260869565201</v>
+        <v>21.8666666666666</v>
       </c>
       <c r="K27" s="4">
-        <v>4.7732881696897399E-2</v>
+        <v>4.5412738928556302E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.6244713550673602</v>
+        <v>2.6771777219056898</v>
       </c>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.35">
@@ -4601,7 +4613,7 @@
         <v>5.1637753118672801E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>9.3823806250335096E-2</v>
+        <v>9.6658024958786698E-2</v>
       </c>
       <c r="E28" s="5">
         <v>26.3125</v>
@@ -4610,13 +4622,13 @@
         <v>0.13587183789350801</v>
       </c>
       <c r="G28" s="3">
-        <v>2.21587855971022</v>
+        <v>2.2868846408358201</v>
       </c>
       <c r="H28" s="24">
         <v>2.1528617376800501E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>8.5994537613078098E-2</v>
+        <v>8.6187127436915603E-2</v>
       </c>
       <c r="J28" s="5">
         <v>22.741379310344801</v>
@@ -4625,7 +4637,7 @@
         <v>4.8959045379310097E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.6734304004466698</v>
+        <v>2.7261367672849999</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
@@ -4636,7 +4648,7 @@
         <v>2.61010647860684E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>9.6433912728941903E-2</v>
+        <v>9.9268131437393506E-2</v>
       </c>
       <c r="E29" s="5">
         <v>27.117647058823501</v>
@@ -4645,22 +4657,22 @@
         <v>7.0779946272809202E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.2866585059830302</v>
+        <v>2.3576645871086299</v>
       </c>
       <c r="H29" s="24">
-        <v>3.5157663462647998E-3</v>
+        <v>3.5185072815711298E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.9510303959342896E-2</v>
+        <v>8.9705634718486693E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>20.4190476190476</v>
+        <v>20.862745098039198</v>
       </c>
       <c r="K29" s="4">
-        <v>7.1788600441826098E-2</v>
+        <v>7.3405720541013506E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.7452190008885</v>
+        <v>2.79954248782601</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
@@ -4671,7 +4683,7 @@
         <v>-2.76375360199506E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>9.36701591269469E-2</v>
+        <v>9.6504377835398406E-2</v>
       </c>
       <c r="E30" s="5">
         <v>33.1111111111111</v>
@@ -4680,22 +4692,22 @@
         <v>-9.1510952599392195E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.1951475533836402</v>
+        <v>2.2661536345092301</v>
       </c>
       <c r="H30" s="24">
-        <v>5.1627284243869996E-3</v>
+        <v>5.8859062007418899E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.4673032383729899E-2</v>
+        <v>9.5591540919228599E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>18.949367088607499</v>
+        <v>19.25</v>
       </c>
       <c r="K30" s="4">
-        <v>9.7830436092498002E-2</v>
+        <v>0.113303694364281</v>
       </c>
       <c r="L30" s="3">
-        <v>2.843049436981</v>
+        <v>2.91284618219029</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
@@ -4706,7 +4718,7 @@
         <v>3.23281296356952E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>9.6902972090516404E-2</v>
+        <v>9.9737190798968006E-2</v>
       </c>
       <c r="E31" s="5">
         <v>21.8666666666666</v>
@@ -4715,22 +4727,22 @@
         <v>7.0690843470053596E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>2.2658383968537001</v>
+        <v>2.3368444779792901</v>
       </c>
       <c r="H31" s="24">
-        <v>5.2538886077915896E-3</v>
+        <v>5.41396486880399E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.9926920991521506E-2</v>
+        <v>0.101005505788032</v>
       </c>
       <c r="J31" s="5">
-        <v>21.123456790123399</v>
+        <v>21.3108108108108</v>
       </c>
       <c r="K31" s="4">
-        <v>0.11098028898680699</v>
+        <v>0.115375981055458</v>
       </c>
       <c r="L31" s="3">
-        <v>2.9540297259677999</v>
+        <v>3.0282221632457502</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4738,34 +4750,34 @@
         <v>45331</v>
       </c>
       <c r="C32" s="24">
-        <v>2.1369009370730699E-3</v>
+        <v>2.0218586136795001E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>9.9039873027589501E-2</v>
+        <v>0.101759049412647</v>
       </c>
       <c r="E32" s="5">
-        <v>28.368421052631501</v>
+        <v>29.8888888888888</v>
       </c>
       <c r="F32" s="4">
-        <v>6.0620505530651903E-2</v>
+        <v>6.0431107453309603E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.32645890238435</v>
+        <v>2.3972755854326002</v>
       </c>
       <c r="H32" s="24">
-        <v>3.5939612633234899E-3</v>
+        <v>3.8969458571319602E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>0.103520882254845</v>
+        <v>0.104902451645164</v>
       </c>
       <c r="J32" s="5">
-        <v>17.773809523809501</v>
+        <v>16.8125</v>
       </c>
       <c r="K32" s="4">
-        <v>6.3878382930261698E-2</v>
+        <v>6.5517402223031096E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>3.0179081088980602</v>
+        <v>3.09373956546878</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4776,7 +4788,7 @@
         <v>1.8453163194119401E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.100885189347001</v>
+        <v>0.103604365732059</v>
       </c>
       <c r="E33" s="5">
         <v>23.409090909090899</v>
@@ -4785,22 +4797,22 @@
         <v>4.3197177477143203E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.3696560798614899</v>
+        <v>2.44047276290974</v>
       </c>
       <c r="H33" s="24">
-        <v>1.51103782164941E-3</v>
+        <v>1.53118499260474E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.10503192007649401</v>
+        <v>0.106433636637769</v>
       </c>
       <c r="J33" s="5">
-        <v>21.921052631578899</v>
+        <v>22.213333333333299</v>
       </c>
       <c r="K33" s="4">
-        <v>3.3123539616683198E-2</v>
+        <v>3.4012722635726599E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>3.0510316485147499</v>
+        <v>3.1277522881045101</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4808,34 +4820,34 @@
         <v>45335</v>
       </c>
       <c r="C34" s="24">
-        <v>7.3337161260358602E-3</v>
+        <v>6.0653008180002197E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.108218905473037</v>
+        <v>0.109669666550059</v>
       </c>
       <c r="E34" s="5">
-        <v>16.375</v>
+        <v>16.870967741935399</v>
       </c>
       <c r="F34" s="4">
-        <v>0.120089601563837</v>
+        <v>0.10232749444561599</v>
       </c>
       <c r="G34" s="3">
-        <v>2.48974568142533</v>
+        <v>2.5428002573553599</v>
       </c>
       <c r="H34" s="24">
-        <v>4.6746479797599803E-3</v>
+        <v>4.8909759240798002E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.10970656805625401</v>
+        <v>0.111324612561849</v>
       </c>
       <c r="J34" s="5">
-        <v>24.55</v>
+        <v>23.736842105263101</v>
       </c>
       <c r="K34" s="4">
-        <v>0.11476260790310699</v>
+        <v>0.116096323250525</v>
       </c>
       <c r="L34" s="3">
-        <v>3.1657942564178598</v>
+        <v>3.2438486113550402</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4846,7 +4858,7 @@
         <v>7.7427986188073001E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.115961704091844</v>
+        <v>0.117412465168866</v>
       </c>
       <c r="E35" s="5">
         <v>15.588235294117601</v>
@@ -4855,22 +4867,22 @@
         <v>0.120696566704937</v>
       </c>
       <c r="G35" s="3">
-        <v>2.61044224813027</v>
+        <v>2.6634968240602901</v>
       </c>
       <c r="H35" s="24">
-        <v>1.74204625882387E-3</v>
+        <v>1.9505000396563301E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.11144861431507801</v>
+        <v>0.113275112601505</v>
       </c>
       <c r="J35" s="5">
-        <v>17.276785714285701</v>
+        <v>16.952830188679201</v>
       </c>
       <c r="K35" s="4">
-        <v>3.00969599180732E-2</v>
+        <v>3.3066495955305898E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>3.1958912163359301</v>
+        <v>3.27691510731034</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4878,34 +4890,34 @@
         <v>45337</v>
       </c>
       <c r="C36" s="24">
-        <v>-1.0152511363241299E-3</v>
+        <v>-1.40398391502214E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.11494645295552</v>
+        <v>0.116008481253844</v>
       </c>
       <c r="E36" s="5">
-        <v>21.6666666666666</v>
+        <v>22.909090909090899</v>
       </c>
       <c r="F36" s="4">
-        <v>-2.1997107953689501E-2</v>
+        <v>-3.2163995144143698E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.5884451401765798</v>
+        <v>2.6313328289161499</v>
       </c>
       <c r="H36" s="24">
-        <v>4.95452637048901E-3</v>
+        <v>4.8195840292209399E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.11640314068556699</v>
+        <v>0.118094696630726</v>
       </c>
       <c r="J36" s="5">
-        <v>21.504950495049499</v>
+        <v>21.515151515151501</v>
       </c>
       <c r="K36" s="4">
-        <v>0.106546844323783</v>
+        <v>0.10369408062869299</v>
       </c>
       <c r="L36" s="3">
-        <v>3.3024380606597101</v>
+        <v>3.3806091879390299</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -4916,7 +4928,7 @@
         <v>6.37286314253747E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.121319316098057</v>
+        <v>0.122381344396382</v>
       </c>
       <c r="E37" s="5">
         <v>30.9375</v>
@@ -4925,22 +4937,22 @@
         <v>0.197160453472253</v>
       </c>
       <c r="G37" s="3">
-        <v>2.78560559364883</v>
+        <v>2.8284932823884001</v>
       </c>
       <c r="H37" s="24">
-        <v>3.77071654569105E-3</v>
+        <v>3.7859332379963301E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.12017385723125799</v>
+        <v>0.121880629868722</v>
       </c>
       <c r="J37" s="5">
-        <v>16.190000000000001</v>
+        <v>16.03125</v>
       </c>
       <c r="K37" s="4">
-        <v>6.1047900874738201E-2</v>
+        <v>6.06932422216288E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>3.3634859615344501</v>
+        <v>3.4413024301606598</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>18</v>
@@ -4951,34 +4963,34 @@
         <v>45342</v>
       </c>
       <c r="C38" s="24">
-        <v>2.6725292749944E-3</v>
+        <v>2.4005055635179201E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.123991845373052</v>
+        <v>0.12478184995989999</v>
       </c>
       <c r="E38" s="5">
-        <v>21.962962962962902</v>
+        <v>22</v>
       </c>
       <c r="F38" s="4">
-        <v>5.8696661484136298E-2</v>
+        <v>5.2811122397394397E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.8443022551329702</v>
+        <v>2.8813044047858001</v>
       </c>
       <c r="H38" s="24">
-        <v>2.3390230238413499E-3</v>
+        <v>2.1451211886499401E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.122512880255099</v>
+        <v>0.124025751057372</v>
       </c>
       <c r="J38" s="5">
-        <v>25.243478260869502</v>
+        <v>25.527272727272699</v>
       </c>
       <c r="K38" s="4">
-        <v>5.9045076854012501E-2</v>
+        <v>5.47590936157187E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>3.4225310383884602</v>
+        <v>3.4960615237763801</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>19</v>
@@ -4992,7 +5004,7 @@
         <v>3.0054614610584098E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.12699730683411001</v>
+        <v>0.12778731142095801</v>
       </c>
       <c r="E39" s="5">
         <v>13.3333333333333</v>
@@ -5001,25 +5013,60 @@
         <v>4.0072819480778898E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.88437507461374</v>
+        <v>2.9213772242665801</v>
       </c>
       <c r="H39" s="24">
-        <v>2.6304322735587701E-3</v>
+        <v>2.6233364850703502E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.12514331252865801</v>
+        <v>0.126649087542443</v>
       </c>
       <c r="J39" s="5">
-        <v>25.397350993377401</v>
+        <v>25.807692307692299</v>
       </c>
       <c r="K39" s="4">
-        <v>6.6806011715880007E-2</v>
+        <v>6.77022608262388E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>3.4893370501043401</v>
+        <v>3.56376378460262</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B40" s="13">
+        <v>45344</v>
+      </c>
+      <c r="C40" s="24">
+        <v>7.2448091815333097E-3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.13503212060249101</v>
+      </c>
+      <c r="E40" s="5">
+        <v>23.857142857142801</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.17284044761657999</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3.0942176718831602</v>
+      </c>
+      <c r="H40" s="24">
+        <v>2.8236157525631201E-3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.12947270329500599</v>
+      </c>
+      <c r="J40" s="5">
+        <v>23.4647887323943</v>
+      </c>
+      <c r="K40" s="4">
+        <v>6.6255547095354403E-2</v>
+      </c>
+      <c r="L40" s="3">
+        <v>3.6300193316979699</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F5356-4BF4-4623-B148-317456B405AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003A2FA0-A587-42A0-8FDB-FC0570F31659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$41</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1091,126 +1091,132 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$41</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>3.3553865235238698E-3</c:v>
+                  <c:v>4.5541033094187097E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6147381844112304E-3</c:v>
+                  <c:v>6.8134549703060699E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9358334209609595E-3</c:v>
+                  <c:v>1.0134550206855801E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7251255963512999E-2</c:v>
+                  <c:v>1.8449972749407802E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.56020977237683E-2</c:v>
+                  <c:v>2.6800814509663099E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1119270238973901E-2</c:v>
+                  <c:v>3.2317987024868801E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.53183852912084E-2</c:v>
+                  <c:v>4.6896373437147899E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4107108689174399E-2</c:v>
+                  <c:v>5.5685096835114002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2256130828513202E-2</c:v>
+                  <c:v>6.4474176928412896E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6556876270109894E-2</c:v>
+                  <c:v>6.9820080807019194E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9570089750122105E-2</c:v>
+                  <c:v>7.2833294287031294E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.2910487195529797E-2</c:v>
+                  <c:v>7.6173691732439E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.44665182787589E-2</c:v>
+                  <c:v>7.7729722815668104E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0690926382469293E-2</c:v>
+                  <c:v>7.3954130919378497E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.0615514114101094E-2</c:v>
+                  <c:v>7.3878718651010297E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.12421338016795E-2</c:v>
+                  <c:v>7.4505338338588703E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1963050753709901E-2</c:v>
+                  <c:v>7.5226255290619104E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.4020295564578995E-2</c:v>
+                  <c:v>7.7283500101488198E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0672054234359705E-2</c:v>
+                  <c:v>8.3157192919974907E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2467926425313698E-2</c:v>
+                  <c:v>8.4953065110928996E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.8808807474022103E-2</c:v>
+                  <c:v>9.1467860283075103E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.2586983231583694E-2</c:v>
+                  <c:v>9.5320509538324397E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.9447571294414593E-2</c:v>
+                  <c:v>9.2181097601155296E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.1494249646919407E-2</c:v>
+                  <c:v>9.4227775953659998E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.6658024958786698E-2</c:v>
+                  <c:v>9.9624682253175806E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.9268131437393506E-2</c:v>
+                  <c:v>0.102234788731782</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.6504377835398406E-2</c:v>
+                  <c:v>9.8624137540842594E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9737190798968006E-2</c:v>
+                  <c:v>0.102617970393207</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.101759049412647</c:v>
+                  <c:v>0.10419717153215199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.103604365732059</c:v>
+                  <c:v>0.106042487851564</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.109669666550059</c:v>
+                  <c:v>0.11078501507979099</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.117412465168866</c:v>
+                  <c:v>0.11852781369859899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.116008481253844</c:v>
+                  <c:v>0.11712382978357599</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.122381344396382</c:v>
+                  <c:v>0.12323677420350899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12478184995989999</c:v>
+                  <c:v>0.12534892483423901</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12778731142095801</c:v>
+                  <c:v>0.128307800860369</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13503212060249101</c:v>
+                  <c:v>0.135552610041902</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.136379141933749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,10 +1609,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$41</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1717,126 +1723,132 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45344</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$41</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>3.3442870266167401E-3</c:v>
+                  <c:v>3.4364567965802098E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1370421394099599E-3</c:v>
+                  <c:v>8.6893544613432395E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4085557791264599E-2</c:v>
+                  <c:v>1.46467500484677E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.73726478284227E-2</c:v>
+                  <c:v>1.7986543512677401E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0684558134092502E-2</c:v>
+                  <c:v>3.1753207742234599E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4399678378685301E-2</c:v>
+                  <c:v>3.5519536586863999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.66458866623997E-2</c:v>
+                  <c:v>3.7698046431735799E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0719601400055101E-2</c:v>
+                  <c:v>4.1791797871567601E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7374307046454497E-2</c:v>
+                  <c:v>4.8427951679626401E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9419562184258997E-2</c:v>
+                  <c:v>5.0825049041596099E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2237285445000801E-2</c:v>
+                  <c:v>5.2974601936675102E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.38996884926604E-2</c:v>
+                  <c:v>5.4285679740062799E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6202253286470098E-2</c:v>
+                  <c:v>5.6438967885814401E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9104980623456302E-2</c:v>
+                  <c:v>5.9440777444746899E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0717864946247702E-2</c:v>
+                  <c:v>6.0871699695429597E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3612551767532305E-2</c:v>
+                  <c:v>6.4338107927493296E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5072880779936601E-2</c:v>
+                  <c:v>6.5906138756465504E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.9493997670141694E-2</c:v>
+                  <c:v>7.0358113989461193E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3198632115939799E-2</c:v>
+                  <c:v>7.4170911294606998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5690043423612394E-2</c:v>
+                  <c:v>7.6532912745504805E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8168277228124305E-2</c:v>
+                  <c:v>7.8980920510278496E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0412356727217901E-2</c:v>
+                  <c:v>8.0980242878943107E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1957463614088094E-2</c:v>
+                  <c:v>8.2267293674194997E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.40342656992355E-2</c:v>
+                  <c:v>8.4566792064455304E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.6187127436915603E-2</c:v>
+                  <c:v>8.6499168518634206E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.9705634718486693E-2</c:v>
+                  <c:v>9.0071375259013695E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.5591540919228599E-2</c:v>
+                  <c:v>9.6107934066178805E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.101005505788032</c:v>
+                  <c:v>0.101717957926914</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.104902451645164</c:v>
+                  <c:v>0.105868996191764</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.106433636637769</c:v>
+                  <c:v>0.107540510599898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.111324612561849</c:v>
+                  <c:v>0.111980659436736</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.113275112601505</c:v>
+                  <c:v>0.113815577098034</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.118094696630726</c:v>
+                  <c:v>0.118492964651105</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.121880629868722</c:v>
+                  <c:v>0.122126438525541</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.124025751057372</c:v>
+                  <c:v>0.124235424204803</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.126649087542443</c:v>
+                  <c:v>0.12694792781438299</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.12947270329500599</c:v>
+                  <c:v>0.12993307428333201</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13388842205316501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3246,13 +3258,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3283,8 +3295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L40" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L41" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
@@ -3599,10 +3611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z40"/>
+  <dimension ref="B1:Z41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA48" sqref="AA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3629,10 +3641,11 @@
     <col min="26" max="26" width="3.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:25" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 268%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 265%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3683,41 +3696,41 @@
         <v>45289</v>
       </c>
       <c r="C4" s="24">
-        <v>3.3553865235238698E-3</v>
+        <v>4.5541033094187097E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>3.3553865235238698E-3</v>
+        <v>4.5541033094187097E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>25.8333333333333</v>
+        <v>28.090909090909001</v>
       </c>
       <c r="F4" s="4">
-        <v>8.6680818524366696E-2</v>
+        <v>0.12792890205548901</v>
       </c>
       <c r="G4" s="3">
-        <v>8.6680818524366696E-2</v>
+        <v>0.12792890205548901</v>
       </c>
       <c r="H4" s="24">
-        <v>3.3442870266167401E-3</v>
+        <v>3.4364567965802098E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>3.3442870266167401E-3</v>
+        <v>3.4364567965802098E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>31.4545454545454</v>
+        <v>30.904761904761902</v>
       </c>
       <c r="K4" s="4">
-        <v>0.105193028291762</v>
+        <v>0.106202879094312</v>
       </c>
       <c r="L4" s="3">
-        <v>0.105193028291762</v>
+        <v>0.106202879094312</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.6495167730403186E-3</v>
+        <v>3.5889247877302407E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3728,7 +3741,7 @@
         <v>2.2593516608873502E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>5.6147381844112304E-3</v>
+        <v>6.8134549703060699E-3</v>
       </c>
       <c r="E5" s="5">
         <v>26.105263157894701</v>
@@ -3737,29 +3750,29 @@
         <v>5.8980969673691E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.145661788198057</v>
+        <v>0.18690987172918</v>
       </c>
       <c r="H5" s="24">
-        <v>4.7927551127932202E-3</v>
+        <v>5.2528976647630296E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.1370421394099599E-3</v>
+        <v>8.6893544613432395E-3</v>
       </c>
       <c r="J5" s="5">
-        <v>38.258064516128997</v>
+        <v>36.178571428571402</v>
       </c>
       <c r="K5" s="4">
-        <v>0.18336153431525001</v>
+        <v>0.190042333371605</v>
       </c>
       <c r="L5" s="3">
-        <v>0.28855456260701301</v>
+        <v>0.29624521246591701</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.3627504645490666E-2</v>
+        <v>8.1122057975199363E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3770,7 +3783,7 @@
         <v>3.3210952365497299E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>8.9358334209609595E-3</v>
+        <v>1.0134550206855801E-2</v>
       </c>
       <c r="E6" s="5">
         <v>26.818181818181799</v>
@@ -3779,29 +3792,29 @@
         <v>8.9065735889288303E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>0.23472752408734601</v>
+        <v>0.27597560761846801</v>
       </c>
       <c r="H6" s="24">
-        <v>5.9485156518546802E-3</v>
+        <v>5.9573955871245398E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.4085557791264599E-2</v>
+        <v>1.46467500484677E-2</v>
       </c>
       <c r="J6" s="5">
-        <v>35.3333333333333</v>
+        <v>34.736842105263101</v>
       </c>
       <c r="K6" s="4">
-        <v>0.210180886365532</v>
+        <v>0.20694110986853601</v>
       </c>
       <c r="L6" s="3">
-        <v>0.49873544897254501</v>
+        <v>0.50318632233445404</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>27.126954191542691</v>
+        <v>27.101163211133464</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3812,7 +3825,7 @@
         <v>8.3154225425520704E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.7251255963512999E-2</v>
+        <v>1.8449972749407802E-2</v>
       </c>
       <c r="E7" s="5">
         <v>35.700000000000003</v>
@@ -3821,22 +3834,22 @@
         <v>0.29686058476910898</v>
       </c>
       <c r="G7" s="3">
-        <v>0.53158810885645502</v>
+        <v>0.57283619238757799</v>
       </c>
       <c r="H7" s="24">
-        <v>3.2870900371580599E-3</v>
+        <v>3.33979346420967E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.73726478284227E-2</v>
+        <v>1.7986543512677401E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>28.909090909090899</v>
+        <v>29.05</v>
       </c>
       <c r="K7" s="4">
-        <v>9.5026784710569606E-2</v>
+        <v>9.7021000135290997E-2</v>
       </c>
       <c r="L7" s="3">
-        <v>0.59376223368311498</v>
+        <v>0.60020732246974495</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3847,7 +3860,7 @@
         <v>8.3508417602552992E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.56020977237683E-2</v>
+        <v>2.6800814509663099E-2</v>
       </c>
       <c r="E8" s="5">
         <v>22</v>
@@ -3856,29 +3869,29 @@
         <v>0.18371851872561601</v>
       </c>
       <c r="G8" s="3">
-        <v>0.71530662758207197</v>
+        <v>0.75655471111319395</v>
       </c>
       <c r="H8" s="24">
-        <v>1.3311910305669699E-2</v>
+        <v>1.37666642295571E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>3.0684558134092502E-2</v>
+        <v>3.1753207742234599E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>50.8055555555555</v>
+        <v>52.735294117647001</v>
       </c>
       <c r="K8" s="4">
-        <v>0.676318998585278</v>
+        <v>0.72598908716458699</v>
       </c>
       <c r="L8" s="3">
-        <v>1.2700812322683901</v>
+        <v>1.3261964096343299</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.4992622512163779E-3</v>
+        <v>3.5233795277148663E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3889,7 +3902,7 @@
         <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.1119270238973901E-2</v>
+        <v>3.2317987024868801E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3898,29 +3911,29 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>0.932545295368293</v>
+        <v>0.97379337889941597</v>
       </c>
       <c r="H9" s="24">
-        <v>3.71512024459287E-3</v>
+        <v>3.76632884462941E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.4399678378685301E-2</v>
+        <v>3.5519536586863999E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>24.14</v>
+        <v>23.1489361702127</v>
       </c>
       <c r="K9" s="4">
-        <v>8.9683002704472006E-2</v>
+        <v>8.7186506020357504E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>1.35976423497286</v>
+        <v>1.41338291565469</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>9.8108630586431753E-2</v>
+        <v>9.6278315363224259E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3928,41 +3941,41 @@
         <v>45300</v>
       </c>
       <c r="C10" s="24">
-        <v>1.41991150522345E-2</v>
+        <v>1.45783864122791E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>4.53183852912084E-2</v>
+        <v>4.6896373437147899E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>15.4444444444444</v>
+        <v>13.8823529411764</v>
       </c>
       <c r="F10" s="4">
-        <v>0.21929744358451</v>
+        <v>0.20238230548811001</v>
       </c>
       <c r="G10" s="3">
-        <v>1.1518427389528001</v>
+        <v>1.17617568438752</v>
       </c>
       <c r="H10" s="24">
-        <v>2.2462082837143502E-3</v>
+        <v>2.1785098448718599E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>3.66458866623997E-2</v>
+        <v>3.7698046431735799E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>14.4230769230769</v>
+        <v>13.9183673469387</v>
       </c>
       <c r="K10" s="4">
-        <v>3.2397234861264598E-2</v>
+        <v>3.0321300289849199E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.39216146983413</v>
+        <v>1.4437042159445299</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>27.095202209988805</v>
+        <v>26.76176326986635</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -3973,7 +3986,7 @@
         <v>8.7887233979660109E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>5.4107108689174399E-2</v>
+        <v>5.5685096835114002E-2</v>
       </c>
       <c r="E11" s="5">
         <v>10.5555555555555</v>
@@ -3982,22 +3995,22 @@
         <v>9.2769858089641194E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.24461259704244</v>
+        <v>1.2689455424771601</v>
       </c>
       <c r="H11" s="24">
-        <v>4.0737147376554003E-3</v>
+        <v>4.0937514398317202E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>4.0719601400055101E-2</v>
+        <v>4.1791797871567601E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>21.685714285714202</v>
+        <v>19.2903225806451</v>
       </c>
       <c r="K11" s="4">
-        <v>8.8341413882298603E-2</v>
+        <v>7.8969785839334505E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.48050288371642</v>
+        <v>1.52267400178387</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4005,41 +4018,41 @@
         <v>45302</v>
       </c>
       <c r="C12" s="24">
-        <v>8.1490221393387494E-3</v>
+        <v>8.7890800932988993E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>6.2256130828513202E-2</v>
+        <v>6.4474176928412896E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>28.75</v>
+        <v>20.571428571428498</v>
       </c>
       <c r="F12" s="4">
-        <v>0.23428438650598901</v>
+        <v>0.18080393334786299</v>
       </c>
       <c r="G12" s="3">
-        <v>1.47889698354843</v>
+        <v>1.44974947582503</v>
       </c>
       <c r="H12" s="24">
-        <v>6.6547056463994499E-3</v>
+        <v>6.6361538080588599E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>4.7374307046454497E-2</v>
+        <v>4.8427951679626401E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>19.7959183673469</v>
+        <v>18.3404255319148</v>
       </c>
       <c r="K12" s="4">
-        <v>0.131736009734846</v>
+        <v>0.12170988473503599</v>
       </c>
       <c r="L12" s="3">
-        <v>1.6122388934512699</v>
+        <v>1.64438388651891</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.5744335059412283E-3</v>
+        <v>3.5563586639305611E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4047,41 +4060,41 @@
         <v>45303</v>
       </c>
       <c r="C13" s="24">
-        <v>4.30074544159672E-3</v>
+        <v>5.3459038786062996E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.6556876270109894E-2</v>
+        <v>6.9820080807019194E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>25.6428571428571</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4">
-        <v>0.11028340096665799</v>
+        <v>0.14433940472237</v>
       </c>
       <c r="G13" s="3">
-        <v>1.58918038451509</v>
+        <v>1.5940888805474001</v>
       </c>
       <c r="H13" s="24">
-        <v>2.0452551378044499E-3</v>
+        <v>2.3970973619696998E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.9419562184258997E-2</v>
+        <v>5.0825049041596099E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>19.407407407407401</v>
+        <v>18.857142857142801</v>
       </c>
       <c r="K13" s="4">
-        <v>3.9693099711464203E-2</v>
+        <v>4.5202407397142999E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.6519319931627401</v>
+        <v>1.68958629391605</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>9.0863827610820597E-2</v>
+        <v>8.8652435523819254E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4092,7 +4105,7 @@
         <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.9570089750122105E-2</v>
+        <v>7.2833294287031294E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4101,22 +4114,22 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.64392042940198</v>
+        <v>1.6488289254342801</v>
       </c>
       <c r="H14" s="24">
-        <v>2.8177232607418299E-3</v>
+        <v>2.14955289507899E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>5.2237285445000801E-2</v>
+        <v>5.2974601936675102E-2</v>
       </c>
       <c r="J14" s="5">
-        <v>28.827586206896498</v>
+        <v>28.52</v>
       </c>
       <c r="K14" s="4">
-        <v>8.1228160206212902E-2</v>
+        <v>6.1305248567652897E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.73316015336895</v>
+        <v>1.7508915424836999</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4127,7 +4140,7 @@
         <v>3.34039744540771E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.2910487195529797E-2</v>
+        <v>7.6173691732439E-2</v>
       </c>
       <c r="E15" s="5">
         <v>25.571428571428498</v>
@@ -4136,22 +4149,22 @@
         <v>8.5418734675425795E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.7293391640774001</v>
+        <v>1.7342476601097101</v>
       </c>
       <c r="H15" s="24">
-        <v>1.66240304765952E-3</v>
+        <v>1.3110778033877E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>5.38996884926604E-2</v>
+        <v>5.4285679740062799E-2</v>
       </c>
       <c r="J15" s="5">
-        <v>102.17647058823501</v>
+        <v>110.666666666666</v>
       </c>
       <c r="K15" s="4">
-        <v>0.16985847610497601</v>
+        <v>0.145092610241572</v>
       </c>
       <c r="L15" s="3">
-        <v>1.90301862947392</v>
+        <v>1.8959841527252701</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4168,7 +4181,7 @@
         <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>7.44665182787589E-2</v>
+        <v>7.7729722815668104E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4177,33 +4190,33 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.7729080344078201</v>
+        <v>1.7778165304401199</v>
       </c>
       <c r="H16" s="24">
-        <v>2.3025647938097801E-3</v>
+        <v>2.1532881457515399E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>5.6202253286470098E-2</v>
+        <v>5.6438967885814401E-2</v>
       </c>
       <c r="J16" s="5">
-        <v>37.90625</v>
+        <v>38.933333333333302</v>
       </c>
       <c r="K16" s="4">
-        <v>8.7281596715351906E-2</v>
+        <v>8.3834685141260204E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.9903002261892799</v>
+        <v>1.97981883786653</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.4400416289441393</v>
+        <v>1.4290796565576951</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.6779004015247638</v>
+        <v>2.6538016278515904</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4214,7 +4227,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>7.0690926382469293E-2</v>
+        <v>7.3954130919378497E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4223,33 +4236,33 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.5652504801118901</v>
+        <v>1.5701589761442001</v>
       </c>
       <c r="H17" s="24">
-        <v>2.9027273369861598E-3</v>
+        <v>3.0018095589325099E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>5.9104980623456302E-2</v>
+        <v>5.9440777444746899E-2</v>
       </c>
       <c r="J17" s="5">
-        <v>17.807692307692299</v>
+        <v>19.434782608695599</v>
       </c>
       <c r="K17" s="4">
-        <v>5.1690875270176698E-2</v>
+        <v>5.8339516210558003E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>2.0419911014594501</v>
+        <v>2.03815835407709</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>8.2451428030686191</v>
+        <v>8.1422025813991983</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>24.717804506920988</v>
+        <v>24.300798463554138</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4263,7 +4276,7 @@
         <v>-7.5412268368191604E-5</v>
       </c>
       <c r="D18" s="2">
-        <v>7.0615514114101094E-2</v>
+        <v>7.3878718651010297E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.6666666666666</v>
@@ -4272,22 +4285,22 @@
         <v>-1.48310794457443E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.56376737216731</v>
+        <v>1.56867586819962</v>
       </c>
       <c r="H18" s="24">
-        <v>1.6128843227913999E-3</v>
+        <v>1.4309222506827201E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>6.0717864946247702E-2</v>
+        <v>6.0871699695429597E-2</v>
       </c>
       <c r="J18" s="5">
-        <v>28.035714285714199</v>
+        <v>29.3333333333333</v>
       </c>
       <c r="K18" s="4">
-        <v>4.5218364049687501E-2</v>
+        <v>4.1973719353360001E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2.0872094655091402</v>
+        <v>2.08013207343045</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4298,7 +4311,7 @@
         <v>6.2661968757838304E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>7.12421338016795E-2</v>
+        <v>7.4505338338588703E-2</v>
       </c>
       <c r="E19" s="5">
         <v>32.1111111111111</v>
@@ -4307,22 +4320,22 @@
         <v>2.0121454412239202E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.5838888265795501</v>
+        <v>1.5887973226118599</v>
       </c>
       <c r="H19" s="24">
-        <v>2.8946868212845599E-3</v>
+        <v>3.4664082320636398E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>6.3612551767532305E-2</v>
+        <v>6.4338107927493296E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>24.259259259259199</v>
+        <v>26.727272727272702</v>
       </c>
       <c r="K19" s="4">
-        <v>7.0222958071903194E-2</v>
+        <v>9.2647638202428301E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>2.15743242358104</v>
+        <v>2.17277971163288</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4333,7 +4346,7 @@
         <v>7.2091695203043901E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>7.1963050753709901E-2</v>
+        <v>7.5226255290619104E-2</v>
       </c>
       <c r="E20" s="5">
         <v>37.4</v>
@@ -4342,22 +4355,22 @@
         <v>2.69622940059384E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.6108511205854901</v>
+        <v>1.6157596166178001</v>
       </c>
       <c r="H20" s="24">
-        <v>1.4603290124042801E-3</v>
+        <v>1.5680308289722101E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>6.5072880779936601E-2</v>
+        <v>6.5906138756465504E-2</v>
       </c>
       <c r="J20" s="5">
-        <v>15.7391304347826</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="K20" s="4">
-        <v>2.2984308803928301E-2</v>
+        <v>2.61077133023872E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>2.1804167323849701</v>
+        <v>2.1988874249352701</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4368,7 +4381,7 @@
         <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>7.4020295564578995E-2</v>
+        <v>7.7283500101488198E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.3333333333333</v>
@@ -4377,22 +4390,22 @@
         <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.68148319242533</v>
+        <v>1.68639168845764</v>
       </c>
       <c r="H21" s="24">
-        <v>4.4211168902051302E-3</v>
+        <v>4.4519752329957004E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>6.9493997670141694E-2</v>
+        <v>7.0358113989461193E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>19.8095238095238</v>
+        <v>19.292682926829201</v>
       </c>
       <c r="K21" s="4">
-        <v>8.7580220301206504E-2</v>
+        <v>8.5890546568282905E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>2.2679969526861798</v>
+        <v>2.2847779715035501</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4400,34 +4413,34 @@
         <v>45317</v>
       </c>
       <c r="C22" s="24">
-        <v>6.6517586697807099E-3</v>
+        <v>5.8736928184867096E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>8.0672054234359705E-2</v>
+        <v>8.3157192919974907E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>29.714285714285701</v>
+        <v>27.8888888888888</v>
       </c>
       <c r="F22" s="4">
-        <v>0.197652257616341</v>
+        <v>0.16381076638223999</v>
       </c>
       <c r="G22" s="3">
-        <v>1.8791354500416699</v>
+        <v>1.8502024548398801</v>
       </c>
       <c r="H22" s="24">
-        <v>3.70463444579806E-3</v>
+        <v>3.8127973051458302E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>7.3198632115939799E-2</v>
+        <v>7.4170911294606998E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>28.294117647058801</v>
+        <v>28.515151515151501</v>
       </c>
       <c r="K22" s="4">
-        <v>0.10481936284875699</v>
+        <v>0.10872249285279401</v>
       </c>
       <c r="L22" s="3">
-        <v>2.3728163155349402</v>
+        <v>2.3935004643563502</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4438,7 +4451,7 @@
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.2467926425313698E-2</v>
+        <v>8.4953065110928996E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4447,22 +4460,22 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>1.9559987798145</v>
+        <v>1.9270657846127099</v>
       </c>
       <c r="H23" s="24">
-        <v>2.4914113076725999E-3</v>
+        <v>2.3620014508977999E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>7.5690043423612394E-2</v>
+        <v>7.6532912745504805E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>26.625</v>
+        <v>26.7959183673469</v>
       </c>
       <c r="K23" s="4">
-        <v>6.6333826066783202E-2</v>
+        <v>6.3291998061812405E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>2.4391501416017198</v>
+        <v>2.4567924624181599</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4470,34 +4483,34 @@
         <v>45321</v>
       </c>
       <c r="C24" s="24">
-        <v>6.3408810487083599E-3</v>
+        <v>6.5147951721461804E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>8.8808807474022103E-2</v>
+        <v>9.1467860283075103E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>28.6666666666666</v>
+        <v>27.782608695652101</v>
       </c>
       <c r="F24" s="4">
-        <v>0.18177192339630599</v>
+        <v>0.180998005000061</v>
       </c>
       <c r="G24" s="3">
-        <v>2.1377707032108102</v>
+        <v>2.1080637896127699</v>
       </c>
       <c r="H24" s="24">
-        <v>2.47823380451194E-3</v>
+        <v>2.44800776477368E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>7.8168277228124305E-2</v>
+        <v>7.8980920510278496E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>29.127659574468002</v>
+        <v>28.113636363636299</v>
       </c>
       <c r="K24" s="4">
-        <v>7.2185150603762904E-2</v>
+        <v>6.8822400114205595E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>2.5113352922054801</v>
+        <v>2.5256148625323598</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4505,34 +4518,34 @@
         <v>45322</v>
       </c>
       <c r="C25" s="24">
-        <v>3.7781757575616501E-3</v>
+        <v>3.8526492552492602E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.2586983231583694E-2</v>
+        <v>9.5320509538324397E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>30.678571428571399</v>
+        <v>27.923076923076898</v>
       </c>
       <c r="F25" s="4">
-        <v>0.115909034848052</v>
+        <v>0.10757782151196001</v>
       </c>
       <c r="G25" s="3">
-        <v>2.2536797380588598</v>
+        <v>2.2156416111247301</v>
       </c>
       <c r="H25" s="24">
-        <v>2.2440794990935399E-3</v>
+        <v>1.9993223686645698E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>8.0412356727217901E-2</v>
+        <v>8.0980242878943107E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>36.108108108108098</v>
+        <v>37.34375</v>
       </c>
       <c r="K25" s="4">
-        <v>8.1029465156458702E-2</v>
+        <v>7.4662194704817705E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.5923647573619402</v>
+        <v>2.6002770572371801</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4543,7 +4556,7 @@
         <v>-3.1394119371691499E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>8.9447571294414593E-2</v>
+        <v>9.2181097601155296E-2</v>
       </c>
       <c r="E26" s="5">
         <v>42.75</v>
@@ -4552,22 +4565,22 @@
         <v>-0.13420986031398099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.1194698777448799</v>
+        <v>2.0814317508107498</v>
       </c>
       <c r="H26" s="24">
-        <v>1.5451068868702501E-3</v>
+        <v>1.2870507952518801E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>8.1957463614088094E-2</v>
+        <v>8.2267293674194997E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>25.5</v>
+        <v>25.1666666666666</v>
       </c>
       <c r="K26" s="4">
-        <v>3.9400225615191499E-2</v>
+        <v>3.2390778347172501E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.6317649829771299</v>
+        <v>2.6326678355843498</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4578,7 +4591,7 @@
         <v>2.0466783525047699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.1494249646919407E-2</v>
+        <v>9.4227775953659998E-2</v>
       </c>
       <c r="E27" s="5">
         <v>15.4117647058823</v>
@@ -4587,57 +4600,57 @@
         <v>3.1542925197426401E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.1510128029423101</v>
+        <v>2.11297467600818</v>
       </c>
       <c r="H27" s="24">
-        <v>2.07680208514739E-3</v>
+        <v>2.2994983902603098E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>8.40342656992355E-2</v>
+        <v>8.4566792064455304E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>21.8666666666666</v>
+        <v>20.764705882352899</v>
       </c>
       <c r="K27" s="4">
-        <v>4.5412738928556302E-2</v>
+        <v>4.7748407750699502E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.6771777219056898</v>
+        <v>2.68041624333505</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13">
         <v>45327</v>
       </c>
       <c r="C28" s="24">
-        <v>5.1637753118672801E-3</v>
+        <v>5.3969062995158201E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>9.6658024958786698E-2</v>
+        <v>9.9624682253175806E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>26.3125</v>
+        <v>27.8</v>
       </c>
       <c r="F28" s="4">
-        <v>0.13587183789350801</v>
+        <v>0.150033995126539</v>
       </c>
       <c r="G28" s="3">
-        <v>2.2868846408358201</v>
+        <v>2.2630086711347199</v>
       </c>
       <c r="H28" s="24">
-        <v>2.1528617376800501E-3</v>
+        <v>1.93237645417897E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>8.6187127436915603E-2</v>
+        <v>8.6499168518634206E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>22.741379310344801</v>
+        <v>23.203703703703699</v>
       </c>
       <c r="K28" s="4">
-        <v>4.8959045379310097E-2</v>
+        <v>4.4838290686782398E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.7261367672849999</v>
+        <v>2.7252545340218401</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
@@ -4648,7 +4661,7 @@
         <v>2.61010647860684E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>9.9268131437393506E-2</v>
+        <v>0.102234788731782</v>
       </c>
       <c r="E29" s="5">
         <v>27.117647058823501</v>
@@ -4657,22 +4670,22 @@
         <v>7.0779946272809202E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.3576645871086299</v>
+        <v>2.3337886174075302</v>
       </c>
       <c r="H29" s="24">
-        <v>3.5185072815711298E-3</v>
+        <v>3.5722067403794701E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.9705634718486693E-2</v>
+        <v>9.0071375259013695E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>20.862745098039198</v>
+        <v>19.5416666666666</v>
       </c>
       <c r="K29" s="4">
-        <v>7.3405720541013506E-2</v>
+        <v>6.9806873384915494E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.79954248782601</v>
+        <v>2.7950614074067501</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
@@ -4680,34 +4693,34 @@
         <v>45329</v>
       </c>
       <c r="C30" s="24">
-        <v>-2.76375360199506E-3</v>
+        <v>-3.61065119094009E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>9.6504377835398406E-2</v>
+        <v>9.8624137540842594E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>33.1111111111111</v>
+        <v>30.25</v>
       </c>
       <c r="F30" s="4">
-        <v>-9.1510952599392195E-2</v>
+        <v>-0.10922219852593799</v>
       </c>
       <c r="G30" s="3">
-        <v>2.2661536345092301</v>
+        <v>2.2245664188815901</v>
       </c>
       <c r="H30" s="24">
-        <v>5.8859062007418899E-3</v>
+        <v>6.03655880716511E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.5591540919228599E-2</v>
+        <v>9.6107934066178805E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>19.25</v>
+        <v>17.915492957746402</v>
       </c>
       <c r="K30" s="4">
-        <v>0.113303694364281</v>
+        <v>0.108147926798789</v>
       </c>
       <c r="L30" s="3">
-        <v>2.91284618219029</v>
+        <v>2.9032093342055401</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
@@ -4715,34 +4728,34 @@
         <v>45330</v>
       </c>
       <c r="C31" s="24">
-        <v>3.23281296356952E-3</v>
+        <v>3.9938328523645697E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>9.9737190798968006E-2</v>
+        <v>0.102617970393207</v>
       </c>
       <c r="E31" s="5">
-        <v>21.8666666666666</v>
+        <v>24.615384615384599</v>
       </c>
       <c r="F31" s="4">
-        <v>7.0690843470053596E-2</v>
+        <v>9.8309731750512497E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>2.3368444779792901</v>
+        <v>2.3228761506321001</v>
       </c>
       <c r="H31" s="24">
-        <v>5.41396486880399E-3</v>
+        <v>5.6100238607353099E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>0.101005505788032</v>
+        <v>0.101717957926914</v>
       </c>
       <c r="J31" s="5">
-        <v>21.3108108108108</v>
+        <v>18.742857142857101</v>
       </c>
       <c r="K31" s="4">
-        <v>0.115375981055458</v>
+        <v>0.10514787578978101</v>
       </c>
       <c r="L31" s="3">
-        <v>3.0282221632457502</v>
+        <v>3.00835720999532</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4750,34 +4763,34 @@
         <v>45331</v>
       </c>
       <c r="C32" s="24">
-        <v>2.0218586136795001E-3</v>
+        <v>1.57920113894559E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.101759049412647</v>
+        <v>0.10419717153215199</v>
       </c>
       <c r="E32" s="5">
-        <v>29.8888888888888</v>
+        <v>29.588235294117599</v>
       </c>
       <c r="F32" s="4">
-        <v>6.0431107453309603E-2</v>
+        <v>4.6725774875860798E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.3972755854326002</v>
+        <v>2.3696019255079599</v>
       </c>
       <c r="H32" s="24">
-        <v>3.8969458571319602E-3</v>
+        <v>4.1510382648505704E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>0.104902451645164</v>
+        <v>0.105868996191764</v>
       </c>
       <c r="J32" s="5">
-        <v>16.8125</v>
+        <v>14.8767123287671</v>
       </c>
       <c r="K32" s="4">
-        <v>6.5517402223031096E-2</v>
+        <v>6.1753802131886498E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>3.09373956546878</v>
+        <v>3.0701110121272102</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4788,7 +4801,7 @@
         <v>1.8453163194119401E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.103604365732059</v>
+        <v>0.106042487851564</v>
       </c>
       <c r="E33" s="5">
         <v>23.409090909090899</v>
@@ -4797,22 +4810,22 @@
         <v>4.3197177477143203E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.44047276290974</v>
+        <v>2.4127991029851099</v>
       </c>
       <c r="H33" s="24">
-        <v>1.53118499260474E-3</v>
+        <v>1.6715144081333501E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.106433636637769</v>
+        <v>0.107540510599898</v>
       </c>
       <c r="J33" s="5">
-        <v>22.213333333333299</v>
+        <v>21.014285714285698</v>
       </c>
       <c r="K33" s="4">
-        <v>3.4012722635726599E-2</v>
+        <v>3.5125681348059497E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>3.1277522881045101</v>
+        <v>3.1052366934752702</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4820,34 +4833,34 @@
         <v>45335</v>
       </c>
       <c r="C34" s="24">
-        <v>6.0653008180002197E-3</v>
+        <v>4.7425272282269901E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.109669666550059</v>
+        <v>0.11078501507979099</v>
       </c>
       <c r="E34" s="5">
-        <v>16.870967741935399</v>
+        <v>17.965517241379299</v>
       </c>
       <c r="F34" s="4">
-        <v>0.10232749444561599</v>
+        <v>8.5201954686422901E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>2.5428002573553599</v>
+        <v>2.4980010576715301</v>
       </c>
       <c r="H34" s="24">
-        <v>4.8909759240798002E-3</v>
+        <v>4.4401488368381904E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.111324612561849</v>
+        <v>0.111980659436736</v>
       </c>
       <c r="J34" s="5">
-        <v>23.736842105263101</v>
+        <v>21.735632183907999</v>
       </c>
       <c r="K34" s="4">
-        <v>0.116096323250525</v>
+        <v>9.6509441959322206E-2</v>
       </c>
       <c r="L34" s="3">
-        <v>3.2438486113550402</v>
+        <v>3.2017461354345902</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4858,7 +4871,7 @@
         <v>7.7427986188073001E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.117412465168866</v>
+        <v>0.11852781369859899</v>
       </c>
       <c r="E35" s="5">
         <v>15.588235294117601</v>
@@ -4867,22 +4880,22 @@
         <v>0.120696566704937</v>
       </c>
       <c r="G35" s="3">
-        <v>2.6634968240602901</v>
+        <v>2.6186976243764701</v>
       </c>
       <c r="H35" s="24">
-        <v>1.9505000396563301E-3</v>
+        <v>1.83491766129843E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.113275112601505</v>
+        <v>0.113815577098034</v>
       </c>
       <c r="J35" s="5">
-        <v>16.952830188679201</v>
+        <v>16.561224489795901</v>
       </c>
       <c r="K35" s="4">
-        <v>3.3066495955305898E-2</v>
+        <v>3.0388483309054699E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>3.27691510731034</v>
+        <v>3.2321346187436499</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4893,7 +4906,7 @@
         <v>-1.40398391502214E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.116008481253844</v>
+        <v>0.11712382978357599</v>
       </c>
       <c r="E36" s="5">
         <v>22.909090909090899</v>
@@ -4902,139 +4915,133 @@
         <v>-3.2163995144143698E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.6313328289161499</v>
+        <v>2.5865336292323202</v>
       </c>
       <c r="H36" s="24">
-        <v>4.8195840292209399E-3</v>
+        <v>4.6773875530703602E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.118094696630726</v>
+        <v>0.118492964651105</v>
       </c>
       <c r="J36" s="5">
-        <v>21.515151515151501</v>
+        <v>20.494623655913902</v>
       </c>
       <c r="K36" s="4">
-        <v>0.10369408062869299</v>
+        <v>9.5861297593033495E-2</v>
       </c>
       <c r="L36" s="3">
-        <v>3.3806091879390299</v>
+        <v>3.3279959163366799</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="13">
         <v>45338</v>
       </c>
       <c r="C37" s="24">
-        <v>6.37286314253747E-3</v>
+        <v>6.1129444199326402E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.122381344396382</v>
+        <v>0.12323677420350899</v>
       </c>
       <c r="E37" s="5">
-        <v>30.9375</v>
+        <v>33.806451612903203</v>
       </c>
       <c r="F37" s="4">
-        <v>0.197160453472253</v>
+        <v>0.20665695974481901</v>
       </c>
       <c r="G37" s="3">
-        <v>2.8284932823884001</v>
+        <v>2.79319058897714</v>
       </c>
       <c r="H37" s="24">
-        <v>3.7859332379963301E-3</v>
+        <v>3.6334738744364199E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.121880629868722</v>
+        <v>0.122126438525541</v>
       </c>
       <c r="J37" s="5">
-        <v>16.03125</v>
+        <v>15.326086956521699</v>
       </c>
       <c r="K37" s="4">
-        <v>6.06932422216288E-2</v>
+        <v>5.5686936553862497E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>3.4413024301606598</v>
-      </c>
-      <c r="N37" s="23" t="s">
-        <v>18</v>
+        <v>3.3836828528905398</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="13">
         <v>45342</v>
       </c>
       <c r="C38" s="24">
-        <v>2.4005055635179201E-3</v>
+        <v>2.1121506307297702E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.12478184995989999</v>
+        <v>0.12534892483423901</v>
       </c>
       <c r="E38" s="5">
-        <v>22</v>
+        <v>23.590909090909001</v>
       </c>
       <c r="F38" s="4">
-        <v>5.2811122397394397E-2</v>
+        <v>4.9827553515852302E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.8813044047858001</v>
+        <v>2.8430181424929999</v>
       </c>
       <c r="H38" s="24">
-        <v>2.1451211886499401E-3</v>
+        <v>2.1089856792618502E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.124025751057372</v>
+        <v>0.124235424204803</v>
       </c>
       <c r="J38" s="5">
-        <v>25.527272727272699</v>
+        <v>24.050505050504999</v>
       </c>
       <c r="K38" s="4">
-        <v>5.47590936157187E-2</v>
+        <v>5.0722170730530002E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>3.4960615237763801</v>
-      </c>
-      <c r="N38" s="23" t="s">
-        <v>19</v>
+        <v>3.4344050236210699</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B39" s="13">
         <v>45343</v>
       </c>
       <c r="C39" s="24">
-        <v>3.0054614610584098E-3</v>
+        <v>2.95887602613003E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.12778731142095801</v>
+        <v>0.128307800860369</v>
       </c>
       <c r="E39" s="5">
-        <v>13.3333333333333</v>
+        <v>14.090909090908999</v>
       </c>
       <c r="F39" s="4">
-        <v>4.0072819480778898E-2</v>
+        <v>4.1693253095468702E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.9213772242665801</v>
+        <v>2.88471139558846</v>
       </c>
       <c r="H39" s="24">
-        <v>2.6233364850703502E-3</v>
+        <v>2.7125036095797502E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.126649087542443</v>
+        <v>0.12694792781438299</v>
       </c>
       <c r="J39" s="5">
-        <v>25.807692307692299</v>
+        <v>25.608333333333299</v>
       </c>
       <c r="K39" s="4">
-        <v>6.77022608262388E-2</v>
+        <v>6.9462696601988103E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>3.56376378460262</v>
+        <v>3.5038677202230599</v>
       </c>
       <c r="N39" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B40" s="13">
         <v>45344</v>
       </c>
@@ -5042,7 +5049,7 @@
         <v>7.2448091815333097E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.13503212060249101</v>
+        <v>0.135552610041902</v>
       </c>
       <c r="E40" s="5">
         <v>23.857142857142801</v>
@@ -5051,22 +5058,63 @@
         <v>0.17284044761657999</v>
       </c>
       <c r="G40" s="3">
-        <v>3.0942176718831602</v>
+        <v>3.0575518432050401</v>
       </c>
       <c r="H40" s="24">
-        <v>2.8236157525631201E-3</v>
+        <v>2.9851464689496401E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.12947270329500599</v>
+        <v>0.12993307428333201</v>
       </c>
       <c r="J40" s="5">
-        <v>23.4647887323943</v>
+        <v>21.785046728971899</v>
       </c>
       <c r="K40" s="4">
-        <v>6.6255547095354403E-2</v>
+        <v>6.5031555318893694E-2</v>
       </c>
       <c r="L40" s="3">
-        <v>3.6300193316979699</v>
+        <v>3.5688992755419502</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="B41" s="13">
+        <v>45345</v>
+      </c>
+      <c r="C41" s="24">
+        <v>8.2653189184667196E-4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.136379141933749</v>
+      </c>
+      <c r="E41" s="5">
+        <v>30.351351351351301</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2.5086359852535399E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3.0826382030575799</v>
+      </c>
+      <c r="H41" s="24">
+        <v>3.9553477698323399E-3</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.13388842205316501</v>
+      </c>
+      <c r="J41" s="5">
+        <v>22.672268907563002</v>
+      </c>
+      <c r="K41" s="4">
+        <v>8.9676708260568602E-2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3.6585759838025198</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003A2FA0-A587-42A0-8FDB-FC0570F31659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A304FA5-7328-4042-A128-A8B495E3F553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1108,115 +1108,115 @@
                   <c:v>4.5541033094187097E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8134549703060699E-3</c:v>
+                  <c:v>6.7339212367343E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0134550206855801E-2</c:v>
+                  <c:v>1.0055016473284E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8449972749407802E-2</c:v>
+                  <c:v>1.8370439015836099E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6800814509663099E-2</c:v>
+                  <c:v>2.67212807760914E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2317987024868801E-2</c:v>
+                  <c:v>3.2238453291297001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6896373437147899E-2</c:v>
+                  <c:v>4.6816839703576203E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5685096835114002E-2</c:v>
+                  <c:v>5.5605563101542202E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4474176928412896E-2</c:v>
+                  <c:v>6.4394643194841103E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9820080807019194E-2</c:v>
+                  <c:v>6.9740547073447401E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2833294287031294E-2</c:v>
+                  <c:v>7.2753760553459501E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6173691732439E-2</c:v>
+                  <c:v>7.6094157998867207E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.7729722815668104E-2</c:v>
+                  <c:v>7.7650189082096296E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3954130919378497E-2</c:v>
+                  <c:v>7.3874597185806704E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3878718651010297E-2</c:v>
+                  <c:v>7.4018250607368094E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4505338338588703E-2</c:v>
+                  <c:v>7.46448702949465E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.5226255290619104E-2</c:v>
+                  <c:v>7.5365787246976998E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7283500101488198E-2</c:v>
+                  <c:v>7.7423032057845995E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3157192919974907E-2</c:v>
+                  <c:v>8.3296724876332703E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.4953065110928996E-2</c:v>
+                  <c:v>8.5092597067286793E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.1467860283075103E-2</c:v>
+                  <c:v>9.1607392239432997E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.5320509538324397E-2</c:v>
+                  <c:v>9.5460041494682193E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.2181097601155296E-2</c:v>
+                  <c:v>9.2320629557513106E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.4227775953659998E-2</c:v>
+                  <c:v>9.4367307910017795E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.9624682253175806E-2</c:v>
+                  <c:v>9.97642142095337E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.102234788731782</c:v>
+                  <c:v>0.10237432068813999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.8624137540842594E-2</c:v>
+                  <c:v>9.8763669497200404E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.102617970393207</c:v>
+                  <c:v>0.102757502349565</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10419717153215199</c:v>
+                  <c:v>0.10433670348851</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.106042487851564</c:v>
+                  <c:v>0.106182019807922</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11078501507979099</c:v>
+                  <c:v>0.110924547036149</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11852781369859899</c:v>
+                  <c:v>0.118667345654956</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11712382978357599</c:v>
+                  <c:v>0.117263361739934</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12323677420350899</c:v>
+                  <c:v>0.123376306159867</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12534892483423901</c:v>
+                  <c:v>0.125488456790597</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.128307800860369</c:v>
+                  <c:v>0.12844733281672699</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.135552610041902</c:v>
+                  <c:v>0.13569214199825999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.136379141933749</c:v>
+                  <c:v>0.13639752915891201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,106 +1749,106 @@
                   <c:v>1.7986543512677401E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1753207742234599E-2</c:v>
+                  <c:v>3.1359874478532897E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5519536586863999E-2</c:v>
+                  <c:v>3.5191115315228803E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7698046431735799E-2</c:v>
+                  <c:v>3.6729714577599E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1791797871567601E-2</c:v>
+                  <c:v>4.0823466017430698E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8427951679626401E-2</c:v>
+                  <c:v>4.7459619825489602E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0825049041596099E-2</c:v>
+                  <c:v>4.9889166326698403E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2974601936675102E-2</c:v>
+                  <c:v>5.2038719221777399E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4285679740062799E-2</c:v>
+                  <c:v>5.3349797025165097E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6438967885814401E-2</c:v>
+                  <c:v>5.5503085170916698E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.9440777444746899E-2</c:v>
+                  <c:v>5.8504894729849197E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.0871699695429597E-2</c:v>
+                  <c:v>5.9935816980531902E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4338107927493296E-2</c:v>
+                  <c:v>6.34022252125956E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5906138756465504E-2</c:v>
+                  <c:v>6.5044839669926205E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0358113989461193E-2</c:v>
+                  <c:v>6.9496814902921894E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4170911294606998E-2</c:v>
+                  <c:v>7.3201449348719999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.6532912745504805E-2</c:v>
+                  <c:v>7.5563450799617807E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8980920510278496E-2</c:v>
+                  <c:v>7.8093852491406393E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0980242878943107E-2</c:v>
+                  <c:v>8.0093174860071004E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.2267293674194997E-2</c:v>
+                  <c:v>8.1350862657339998E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.4566792064455304E-2</c:v>
+                  <c:v>8.3590787653077994E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.6499168518634206E-2</c:v>
+                  <c:v>8.5523164107256994E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.0071375259013695E-2</c:v>
+                  <c:v>8.9124539154655597E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.6107934066178805E-2</c:v>
+                  <c:v>9.5270605225618393E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.101717957926914</c:v>
+                  <c:v>0.10088062908635299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.105868996191764</c:v>
+                  <c:v>0.10503166735120401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.107540510599898</c:v>
+                  <c:v>0.106703181759337</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.111980659436736</c:v>
+                  <c:v>0.111143330596175</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.113815577098034</c:v>
+                  <c:v>0.113019587188813</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.118492964651105</c:v>
+                  <c:v>0.11765131740226201</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.122126438525541</c:v>
+                  <c:v>0.121240994826913</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.124235424204803</c:v>
+                  <c:v>0.123324019333217</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12694792781438299</c:v>
+                  <c:v>0.126019946533487</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.12993307428333201</c:v>
+                  <c:v>0.12896383462386901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13388842205316501</c:v>
+                  <c:v>0.133167751390491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3613,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA48" sqref="AA48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3645,7 +3645,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 265%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 264%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.5889247877302407E-3</v>
+        <v>3.5894086620766393E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3738,19 +3738,19 @@
         <v>45293</v>
       </c>
       <c r="C5" s="24">
-        <v>2.2593516608873502E-3</v>
+        <v>2.1798179273155799E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>6.8134549703060699E-3</v>
+        <v>6.7339212367343E-3</v>
       </c>
       <c r="E5" s="5">
-        <v>26.105263157894701</v>
+        <v>25.7777777777777</v>
       </c>
       <c r="F5" s="4">
-        <v>5.8980969673691E-2</v>
+        <v>5.6190862126357398E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.18690987172918</v>
+        <v>0.184119764181846</v>
       </c>
       <c r="H5" s="24">
         <v>5.2528976647630296E-3</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.1122057975199363E-2</v>
+        <v>8.107081129945716E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3783,7 +3783,7 @@
         <v>3.3210952365497299E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.0134550206855801E-2</v>
+        <v>1.0055016473284E-2</v>
       </c>
       <c r="E6" s="5">
         <v>26.818181818181799</v>
@@ -3792,7 +3792,7 @@
         <v>8.9065735889288303E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>0.27597560761846801</v>
+        <v>0.27318550007113501</v>
       </c>
       <c r="H6" s="24">
         <v>5.9573955871245398E-3</v>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>27.101163211133464</v>
+        <v>27.099794871537981</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3825,7 +3825,7 @@
         <v>8.3154225425520704E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.8449972749407802E-2</v>
+        <v>1.8370439015836099E-2</v>
       </c>
       <c r="E7" s="5">
         <v>35.700000000000003</v>
@@ -3834,7 +3834,7 @@
         <v>0.29686058476910898</v>
       </c>
       <c r="G7" s="3">
-        <v>0.57283619238757799</v>
+        <v>0.57004608484024399</v>
       </c>
       <c r="H7" s="24">
         <v>3.33979346420967E-3</v>
@@ -3860,7 +3860,7 @@
         <v>8.3508417602552992E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.6800814509663099E-2</v>
+        <v>2.67212807760914E-2</v>
       </c>
       <c r="E8" s="5">
         <v>22</v>
@@ -3869,29 +3869,29 @@
         <v>0.18371851872561601</v>
       </c>
       <c r="G8" s="3">
-        <v>0.75655471111319395</v>
+        <v>0.75376460356586095</v>
       </c>
       <c r="H8" s="24">
-        <v>1.37666642295571E-2</v>
+        <v>1.3373330965855501E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>3.1753207742234599E-2</v>
+        <v>3.1359874478532897E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>52.735294117647001</v>
+        <v>51.228571428571399</v>
       </c>
       <c r="K8" s="4">
-        <v>0.72598908716458699</v>
+        <v>0.68509664062225495</v>
       </c>
       <c r="L8" s="3">
-        <v>1.3261964096343299</v>
+        <v>1.285303963092</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.5233795277148663E-3</v>
+        <v>3.5044145102760878E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3902,7 +3902,7 @@
         <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.2317987024868801E-2</v>
+        <v>3.2238453291297001E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3911,29 +3911,29 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>0.97379337889941597</v>
+        <v>0.97100327135208298</v>
       </c>
       <c r="H9" s="24">
-        <v>3.76632884462941E-3</v>
+        <v>3.8312408366959001E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.5519536586863999E-2</v>
+        <v>3.5191115315228803E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>23.1489361702127</v>
+        <v>23.212765957446798</v>
       </c>
       <c r="K9" s="4">
-        <v>8.7186506020357504E-2</v>
+        <v>8.8933696868834705E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>1.41338291565469</v>
+        <v>1.3742376599608299</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>9.6278315363224259E-2</v>
+        <v>9.5166654145866322E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3944,7 +3944,7 @@
         <v>1.45783864122791E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>4.6896373437147899E-2</v>
+        <v>4.6816839703576203E-2</v>
       </c>
       <c r="E10" s="5">
         <v>13.8823529411764</v>
@@ -3953,29 +3953,29 @@
         <v>0.20238230548811001</v>
       </c>
       <c r="G10" s="3">
-        <v>1.17617568438752</v>
+        <v>1.17338557684019</v>
       </c>
       <c r="H10" s="24">
-        <v>2.1785098448718599E-3</v>
+        <v>1.53859926237014E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>3.7698046431735799E-2</v>
+        <v>3.6729714577599E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>13.9183673469387</v>
+        <v>13.979591836734601</v>
       </c>
       <c r="K10" s="4">
-        <v>3.0321300289849199E-2</v>
+        <v>2.15089896882356E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.4437042159445299</v>
+        <v>1.39574664964907</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>26.76176326986635</v>
+        <v>26.744353606038288</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -3986,7 +3986,7 @@
         <v>8.7887233979660109E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>5.5685096835114002E-2</v>
+        <v>5.5605563101542202E-2</v>
       </c>
       <c r="E11" s="5">
         <v>10.5555555555555</v>
@@ -3995,13 +3995,13 @@
         <v>9.2769858089641194E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.2689455424771601</v>
+        <v>1.2661554349298301</v>
       </c>
       <c r="H11" s="24">
         <v>4.0937514398317202E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>4.1791797871567601E-2</v>
+        <v>4.0823466017430698E-2</v>
       </c>
       <c r="J11" s="5">
         <v>19.2903225806451</v>
@@ -4010,7 +4010,7 @@
         <v>7.8969785839334505E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.52267400178387</v>
+        <v>1.4747164354883999</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4021,7 +4021,7 @@
         <v>8.7890800932988993E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>6.4474176928412896E-2</v>
+        <v>6.4394643194841103E-2</v>
       </c>
       <c r="E12" s="5">
         <v>20.571428571428498</v>
@@ -4030,13 +4030,13 @@
         <v>0.18080393334786299</v>
       </c>
       <c r="G12" s="3">
-        <v>1.44974947582503</v>
+        <v>1.44695936827769</v>
       </c>
       <c r="H12" s="24">
         <v>6.6361538080588599E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>4.8427951679626401E-2</v>
+        <v>4.7459619825489602E-2</v>
       </c>
       <c r="J12" s="5">
         <v>18.3404255319148</v>
@@ -4045,14 +4045,14 @@
         <v>0.12170988473503599</v>
       </c>
       <c r="L12" s="3">
-        <v>1.64438388651891</v>
+        <v>1.5964263202234401</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.5563586639305611E-3</v>
+        <v>3.5471921220352289E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4063,7 +4063,7 @@
         <v>5.3459038786062996E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.9820080807019194E-2</v>
+        <v>6.9740547073447401E-2</v>
       </c>
       <c r="E13" s="5">
         <v>27</v>
@@ -4072,29 +4072,29 @@
         <v>0.14433940472237</v>
       </c>
       <c r="G13" s="3">
-        <v>1.5940888805474001</v>
+        <v>1.5912987730000601</v>
       </c>
       <c r="H13" s="24">
-        <v>2.3970973619696998E-3</v>
+        <v>2.4295465012088499E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>5.0825049041596099E-2</v>
+        <v>4.9889166326698403E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>18.857142857142801</v>
+        <v>18.318181818181799</v>
       </c>
       <c r="K13" s="4">
-        <v>4.5202407397142999E-2</v>
+        <v>4.4504874544871197E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.68958629391605</v>
+        <v>1.6409311947683101</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.8652435523819254E-2</v>
+        <v>8.8072207293610719E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4105,7 +4105,7 @@
         <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.2833294287031294E-2</v>
+        <v>7.2753760553459501E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4114,13 +4114,13 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.6488289254342801</v>
+        <v>1.6460388178869501</v>
       </c>
       <c r="H14" s="24">
         <v>2.14955289507899E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>5.2974601936675102E-2</v>
+        <v>5.2038719221777399E-2</v>
       </c>
       <c r="J14" s="5">
         <v>28.52</v>
@@ -4129,7 +4129,7 @@
         <v>6.1305248567652897E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.7508915424836999</v>
+        <v>1.70223644333596</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4140,7 +4140,7 @@
         <v>3.34039744540771E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.6173691732439E-2</v>
+        <v>7.6094157998867207E-2</v>
       </c>
       <c r="E15" s="5">
         <v>25.571428571428498</v>
@@ -4149,13 +4149,13 @@
         <v>8.5418734675425795E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.7342476601097101</v>
+        <v>1.7314575525623801</v>
       </c>
       <c r="H15" s="24">
         <v>1.3110778033877E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>5.4285679740062799E-2</v>
+        <v>5.3349797025165097E-2</v>
       </c>
       <c r="J15" s="5">
         <v>110.666666666666</v>
@@ -4164,7 +4164,7 @@
         <v>0.145092610241572</v>
       </c>
       <c r="L15" s="3">
-        <v>1.8959841527252701</v>
+        <v>1.84732905357753</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4181,7 +4181,7 @@
         <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>7.7729722815668104E-2</v>
+        <v>7.7650189082096296E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4190,13 +4190,13 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.7778165304401199</v>
+        <v>1.7750264228927899</v>
       </c>
       <c r="H16" s="24">
         <v>2.1532881457515399E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>5.6438967885814401E-2</v>
+        <v>5.5503085170916698E-2</v>
       </c>
       <c r="J16" s="5">
         <v>38.933333333333302</v>
@@ -4205,18 +4205,18 @@
         <v>8.3834685141260204E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.97981883786653</v>
+        <v>1.9311637387187901</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.4290796565576951</v>
+        <v>1.4235391210455117</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.6538016278515904</v>
+        <v>2.6416403330193923</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4227,7 +4227,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>7.3954130919378497E-2</v>
+        <v>7.3874597185806704E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4236,13 +4236,13 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.5701589761442001</v>
+        <v>1.5673688685968601</v>
       </c>
       <c r="H17" s="24">
         <v>3.0018095589325099E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>5.9440777444746899E-2</v>
+        <v>5.8504894729849197E-2</v>
       </c>
       <c r="J17" s="5">
         <v>19.434782608695599</v>
@@ -4251,18 +4251,18 @@
         <v>5.8339516210558003E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>2.03815835407709</v>
+        <v>1.9895032549293501</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>8.1422025813991983</v>
+        <v>8.0904341993759861</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>24.300798463554138</v>
+        <v>24.091900471529154</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4273,25 +4273,25 @@
         <v>45313</v>
       </c>
       <c r="C18" s="24">
-        <v>-7.5412268368191604E-5</v>
+        <v>1.43653421561418E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>7.3878718651010297E-2</v>
+        <v>7.4018250607368094E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>19.6666666666666</v>
+        <v>19.636363636363601</v>
       </c>
       <c r="F18" s="4">
-        <v>-1.48310794457443E-3</v>
+        <v>2.82083082338784E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.56867586819962</v>
+        <v>1.57018969942025</v>
       </c>
       <c r="H18" s="24">
         <v>1.4309222506827201E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>6.0871699695429597E-2</v>
+        <v>5.9935816980531902E-2</v>
       </c>
       <c r="J18" s="5">
         <v>29.3333333333333</v>
@@ -4300,7 +4300,7 @@
         <v>4.1973719353360001E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2.08013207343045</v>
+        <v>2.0314769742827101</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4311,7 +4311,7 @@
         <v>6.2661968757838304E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>7.4505338338588703E-2</v>
+        <v>7.46448702949465E-2</v>
       </c>
       <c r="E19" s="5">
         <v>32.1111111111111</v>
@@ -4320,13 +4320,13 @@
         <v>2.0121454412239202E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.5887973226118599</v>
+        <v>1.5903111538324901</v>
       </c>
       <c r="H19" s="24">
         <v>3.4664082320636398E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>6.4338107927493296E-2</v>
+        <v>6.34022252125956E-2</v>
       </c>
       <c r="J19" s="5">
         <v>26.727272727272702</v>
@@ -4335,7 +4335,7 @@
         <v>9.2647638202428301E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>2.17277971163288</v>
+        <v>2.1241246124851401</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4346,7 +4346,7 @@
         <v>7.2091695203043901E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>7.5226255290619104E-2</v>
+        <v>7.5365787246976998E-2</v>
       </c>
       <c r="E20" s="5">
         <v>37.4</v>
@@ -4355,22 +4355,22 @@
         <v>2.69622940059384E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.6157596166178001</v>
+        <v>1.6172734478384301</v>
       </c>
       <c r="H20" s="24">
-        <v>1.5680308289722101E-3</v>
+        <v>1.6426144573306501E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>6.5906138756465504E-2</v>
+        <v>6.5044839669926205E-2</v>
       </c>
       <c r="J20" s="5">
-        <v>16.649999999999999</v>
+        <v>16.684210526315699</v>
       </c>
       <c r="K20" s="4">
-        <v>2.61077133023872E-2</v>
+        <v>2.7405725419674499E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>2.1988874249352701</v>
+        <v>2.1515303379048198</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4381,7 +4381,7 @@
         <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>7.7283500101488198E-2</v>
+        <v>7.7423032057845995E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.3333333333333</v>
@@ -4390,13 +4390,13 @@
         <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.68639168845764</v>
+        <v>1.68790551967827</v>
       </c>
       <c r="H21" s="24">
         <v>4.4519752329957004E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>7.0358113989461193E-2</v>
+        <v>6.9496814902921894E-2</v>
       </c>
       <c r="J21" s="5">
         <v>19.292682926829201</v>
@@ -4405,7 +4405,7 @@
         <v>8.5890546568282905E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>2.2847779715035501</v>
+        <v>2.2374208844730998</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4416,7 +4416,7 @@
         <v>5.8736928184867096E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>8.3157192919974907E-2</v>
+        <v>8.3296724876332703E-2</v>
       </c>
       <c r="E22" s="5">
         <v>27.8888888888888</v>
@@ -4425,22 +4425,22 @@
         <v>0.16381076638223999</v>
       </c>
       <c r="G22" s="3">
-        <v>1.8502024548398801</v>
+        <v>1.8517162860605101</v>
       </c>
       <c r="H22" s="24">
-        <v>3.8127973051458302E-3</v>
+        <v>3.70463444579806E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>7.4170911294606998E-2</v>
+        <v>7.3201449348719999E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>28.515151515151501</v>
+        <v>28.294117647058801</v>
       </c>
       <c r="K22" s="4">
-        <v>0.10872249285279401</v>
+        <v>0.10481936284875699</v>
       </c>
       <c r="L22" s="3">
-        <v>2.3935004643563502</v>
+        <v>2.3422402473218602</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4451,7 +4451,7 @@
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.4953065110928996E-2</v>
+        <v>8.5092597067286793E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4460,13 +4460,13 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>1.9270657846127099</v>
+        <v>1.9285796158333399</v>
       </c>
       <c r="H23" s="24">
         <v>2.3620014508977999E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>7.6532912745504805E-2</v>
+        <v>7.5563450799617807E-2</v>
       </c>
       <c r="J23" s="5">
         <v>26.7959183673469</v>
@@ -4475,7 +4475,7 @@
         <v>6.3291998061812405E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>2.4567924624181599</v>
+        <v>2.4055322453836698</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4486,7 +4486,7 @@
         <v>6.5147951721461804E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>9.1467860283075103E-2</v>
+        <v>9.1607392239432997E-2</v>
       </c>
       <c r="E24" s="5">
         <v>27.782608695652101</v>
@@ -4495,22 +4495,22 @@
         <v>0.180998005000061</v>
       </c>
       <c r="G24" s="3">
-        <v>2.1080637896127699</v>
+        <v>2.1095776208334001</v>
       </c>
       <c r="H24" s="24">
-        <v>2.44800776477368E-3</v>
+        <v>2.5304016917886401E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>7.8980920510278496E-2</v>
+        <v>7.8093852491406393E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>28.113636363636299</v>
+        <v>28.837209302325501</v>
       </c>
       <c r="K24" s="4">
-        <v>6.8822400114205595E-2</v>
+        <v>7.2969723205067893E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>2.5256148625323598</v>
+        <v>2.4785019685887399</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4521,7 +4521,7 @@
         <v>3.8526492552492602E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.5320509538324397E-2</v>
+        <v>9.5460041494682193E-2</v>
       </c>
       <c r="E25" s="5">
         <v>27.923076923076898</v>
@@ -4530,13 +4530,13 @@
         <v>0.10757782151196001</v>
       </c>
       <c r="G25" s="3">
-        <v>2.2156416111247301</v>
+        <v>2.2171554423453599</v>
       </c>
       <c r="H25" s="24">
         <v>1.9993223686645698E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>8.0980242878943107E-2</v>
+        <v>8.0093174860071004E-2</v>
       </c>
       <c r="J25" s="5">
         <v>37.34375</v>
@@ -4545,7 +4545,7 @@
         <v>7.4662194704817705E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.6002770572371801</v>
+        <v>2.55316416329355</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4556,7 +4556,7 @@
         <v>-3.1394119371691499E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.2181097601155296E-2</v>
+        <v>9.2320629557513106E-2</v>
       </c>
       <c r="E26" s="5">
         <v>42.75</v>
@@ -4565,22 +4565,22 @@
         <v>-0.13420986031398099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.0814317508107498</v>
+        <v>2.08294558203138</v>
       </c>
       <c r="H26" s="24">
-        <v>1.2870507952518801E-3</v>
+        <v>1.25768779726898E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>8.2267293674194997E-2</v>
+        <v>8.1350862657339998E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>25.1666666666666</v>
+        <v>25.467532467532401</v>
       </c>
       <c r="K26" s="4">
-        <v>3.2390778347172501E-2</v>
+        <v>3.20302048109673E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.6326678355843498</v>
+        <v>2.5851943681045202</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4591,7 +4591,7 @@
         <v>2.0466783525047699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.4227775953659998E-2</v>
+        <v>9.4367307910017795E-2</v>
       </c>
       <c r="E27" s="5">
         <v>15.4117647058823</v>
@@ -4600,22 +4600,22 @@
         <v>3.1542925197426401E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.11297467600818</v>
+        <v>2.1144885072288102</v>
       </c>
       <c r="H27" s="24">
-        <v>2.2994983902603098E-3</v>
+        <v>2.2399249957380202E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>8.4566792064455304E-2</v>
+        <v>8.3590787653077994E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>20.764705882352899</v>
+        <v>20.729411764705802</v>
       </c>
       <c r="K27" s="4">
-        <v>4.7748407750699502E-2</v>
+        <v>4.6432327558710497E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.68041624333505</v>
+        <v>2.6316266956632299</v>
       </c>
     </row>
     <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4626,7 +4626,7 @@
         <v>5.3969062995158201E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>9.9624682253175806E-2</v>
+        <v>9.97642142095337E-2</v>
       </c>
       <c r="E28" s="5">
         <v>27.8</v>
@@ -4635,13 +4635,13 @@
         <v>0.150033995126539</v>
       </c>
       <c r="G28" s="3">
-        <v>2.2630086711347199</v>
+        <v>2.2645225023553501</v>
       </c>
       <c r="H28" s="24">
         <v>1.93237645417897E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>8.6499168518634206E-2</v>
+        <v>8.5523164107256994E-2</v>
       </c>
       <c r="J28" s="5">
         <v>23.203703703703699</v>
@@ -4650,7 +4650,7 @@
         <v>4.4838290686782398E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.7252545340218401</v>
+        <v>2.6764649863500098</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
@@ -4661,7 +4661,7 @@
         <v>2.61010647860684E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.102234788731782</v>
+        <v>0.10237432068813999</v>
       </c>
       <c r="E29" s="5">
         <v>27.117647058823501</v>
@@ -4670,22 +4670,22 @@
         <v>7.0779946272809202E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.3337886174075302</v>
+        <v>2.3353024486281599</v>
       </c>
       <c r="H29" s="24">
-        <v>3.5722067403794701E-3</v>
+        <v>3.60137504739867E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>9.0071375259013695E-2</v>
+        <v>8.9124539154655597E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>19.5416666666666</v>
+        <v>19.5104166666666</v>
       </c>
       <c r="K29" s="4">
-        <v>6.9806873384915494E-2</v>
+        <v>7.0264327747684596E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.7950614074067501</v>
+        <v>2.7467293140977</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
@@ -4696,7 +4696,7 @@
         <v>-3.61065119094009E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>9.8624137540842594E-2</v>
+        <v>9.8763669497200404E-2</v>
       </c>
       <c r="E30" s="5">
         <v>30.25</v>
@@ -4705,22 +4705,22 @@
         <v>-0.10922219852593799</v>
       </c>
       <c r="G30" s="3">
-        <v>2.2245664188815901</v>
+        <v>2.2260802501022199</v>
       </c>
       <c r="H30" s="24">
-        <v>6.03655880716511E-3</v>
+        <v>6.1460660709627499E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.6107934066178805E-2</v>
+        <v>9.5270605225618393E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>17.915492957746402</v>
+        <v>17.742857142857101</v>
       </c>
       <c r="K30" s="4">
-        <v>0.108147926798789</v>
+        <v>0.109048772287653</v>
       </c>
       <c r="L30" s="3">
-        <v>2.9032093342055401</v>
+        <v>2.8557780863853499</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
@@ -4731,7 +4731,7 @@
         <v>3.9938328523645697E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.102617970393207</v>
+        <v>0.102757502349565</v>
       </c>
       <c r="E31" s="5">
         <v>24.615384615384599</v>
@@ -4740,13 +4740,13 @@
         <v>9.8309731750512497E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>2.3228761506321001</v>
+        <v>2.3243899818527298</v>
       </c>
       <c r="H31" s="24">
         <v>5.6100238607353099E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>0.101717957926914</v>
+        <v>0.10088062908635299</v>
       </c>
       <c r="J31" s="5">
         <v>18.742857142857101</v>
@@ -4755,7 +4755,7 @@
         <v>0.10514787578978101</v>
       </c>
       <c r="L31" s="3">
-        <v>3.00835720999532</v>
+        <v>2.9609259621751298</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4766,7 +4766,7 @@
         <v>1.57920113894559E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.10419717153215199</v>
+        <v>0.10433670348851</v>
       </c>
       <c r="E32" s="5">
         <v>29.588235294117599</v>
@@ -4775,13 +4775,13 @@
         <v>4.6725774875860798E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.3696019255079599</v>
+        <v>2.3711157567285901</v>
       </c>
       <c r="H32" s="24">
         <v>4.1510382648505704E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>0.105868996191764</v>
+        <v>0.10503166735120401</v>
       </c>
       <c r="J32" s="5">
         <v>14.8767123287671</v>
@@ -4790,7 +4790,7 @@
         <v>6.1753802131886498E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>3.0701110121272102</v>
+        <v>3.02267976430702</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4801,7 +4801,7 @@
         <v>1.8453163194119401E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.106042487851564</v>
+        <v>0.106182019807922</v>
       </c>
       <c r="E33" s="5">
         <v>23.409090909090899</v>
@@ -4810,13 +4810,13 @@
         <v>4.3197177477143203E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.4127991029851099</v>
+        <v>2.4143129342057299</v>
       </c>
       <c r="H33" s="24">
         <v>1.6715144081333501E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.107540510599898</v>
+        <v>0.106703181759337</v>
       </c>
       <c r="J33" s="5">
         <v>21.014285714285698</v>
@@ -4825,7 +4825,7 @@
         <v>3.5125681348059497E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>3.1052366934752702</v>
+        <v>3.0578054456550801</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4836,7 +4836,7 @@
         <v>4.7425272282269901E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.11078501507979099</v>
+        <v>0.110924547036149</v>
       </c>
       <c r="E34" s="5">
         <v>17.965517241379299</v>
@@ -4845,13 +4845,13 @@
         <v>8.5201954686422901E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>2.4980010576715301</v>
+        <v>2.4995148888921599</v>
       </c>
       <c r="H34" s="24">
         <v>4.4401488368381904E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.111980659436736</v>
+        <v>0.111143330596175</v>
       </c>
       <c r="J34" s="5">
         <v>21.735632183907999</v>
@@ -4860,7 +4860,7 @@
         <v>9.6509441959322206E-2</v>
       </c>
       <c r="L34" s="3">
-        <v>3.2017461354345902</v>
+        <v>3.1543148876144</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4871,7 +4871,7 @@
         <v>7.7427986188073001E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.11852781369859899</v>
+        <v>0.118667345654956</v>
       </c>
       <c r="E35" s="5">
         <v>15.588235294117601</v>
@@ -4880,22 +4880,22 @@
         <v>0.120696566704937</v>
       </c>
       <c r="G35" s="3">
-        <v>2.6186976243764701</v>
+        <v>2.6202114555970999</v>
       </c>
       <c r="H35" s="24">
-        <v>1.83491766129843E-3</v>
+        <v>1.8762565926371301E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.113815577098034</v>
+        <v>0.113019587188813</v>
       </c>
       <c r="J35" s="5">
-        <v>16.561224489795901</v>
+        <v>16.3505154639175</v>
       </c>
       <c r="K35" s="4">
-        <v>3.0388483309054699E-2</v>
+        <v>3.06777624321906E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>3.2321346187436499</v>
+        <v>3.1849926500465902</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4906,7 +4906,7 @@
         <v>-1.40398391502214E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.11712382978357599</v>
+        <v>0.117263361739934</v>
       </c>
       <c r="E36" s="5">
         <v>22.909090909090899</v>
@@ -4915,22 +4915,22 @@
         <v>-3.2163995144143698E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.5865336292323202</v>
+        <v>2.58804746045295</v>
       </c>
       <c r="H36" s="24">
-        <v>4.6773875530703602E-3</v>
+        <v>4.6317302134493699E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.118492964651105</v>
+        <v>0.11765131740226201</v>
       </c>
       <c r="J36" s="5">
-        <v>20.494623655913902</v>
+        <v>20.680851063829699</v>
       </c>
       <c r="K36" s="4">
-        <v>9.5861297593033495E-2</v>
+        <v>9.5788122712186993E-2</v>
       </c>
       <c r="L36" s="3">
-        <v>3.3279959163366799</v>
+        <v>3.2807807727587801</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4941,7 +4941,7 @@
         <v>6.1129444199326402E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.12323677420350899</v>
+        <v>0.123376306159867</v>
       </c>
       <c r="E37" s="5">
         <v>33.806451612903203</v>
@@ -4950,22 +4950,22 @@
         <v>0.20665695974481901</v>
       </c>
       <c r="G37" s="3">
-        <v>2.79319058897714</v>
+        <v>2.7947044201977702</v>
       </c>
       <c r="H37" s="24">
-        <v>3.6334738744364199E-3</v>
+        <v>3.58967742465066E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.122126438525541</v>
+        <v>0.121240994826913</v>
       </c>
       <c r="J37" s="5">
-        <v>15.326086956521699</v>
+        <v>15.6129032258064</v>
       </c>
       <c r="K37" s="4">
-        <v>5.5686936553862497E-2</v>
+        <v>5.6045286242932903E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>3.3836828528905398</v>
+        <v>3.33682605900171</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -4976,7 +4976,7 @@
         <v>2.1121506307297702E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.12534892483423901</v>
+        <v>0.125488456790597</v>
       </c>
       <c r="E38" s="5">
         <v>23.590909090909001</v>
@@ -4985,22 +4985,22 @@
         <v>4.9827553515852302E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.8430181424929999</v>
+        <v>2.8445319737136199</v>
       </c>
       <c r="H38" s="24">
-        <v>2.1089856792618502E-3</v>
+        <v>2.0830245063047301E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.124235424204803</v>
+        <v>0.123324019333217</v>
       </c>
       <c r="J38" s="5">
-        <v>24.050505050504999</v>
+        <v>24.27</v>
       </c>
       <c r="K38" s="4">
-        <v>5.0722170730530002E-2</v>
+        <v>5.0555004768015797E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>3.4344050236210699</v>
+        <v>3.3873810637697299</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -5011,7 +5011,7 @@
         <v>2.95887602613003E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.128307800860369</v>
+        <v>0.12844733281672699</v>
       </c>
       <c r="E39" s="5">
         <v>14.090909090908999</v>
@@ -5020,22 +5020,22 @@
         <v>4.1693253095468702E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.88471139558846</v>
+        <v>2.8862252268090902</v>
       </c>
       <c r="H39" s="24">
-        <v>2.7125036095797502E-3</v>
+        <v>2.6959272002697798E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.12694792781438299</v>
+        <v>0.126019946533487</v>
       </c>
       <c r="J39" s="5">
-        <v>25.608333333333299</v>
+        <v>25.785123966942098</v>
       </c>
       <c r="K39" s="4">
-        <v>6.9462696601988103E-2</v>
+        <v>6.9514817064807694E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>3.5038677202230599</v>
+        <v>3.4568958808345398</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>7.2448091815333097E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.135552610041902</v>
+        <v>0.13569214199825999</v>
       </c>
       <c r="E40" s="5">
         <v>23.857142857142801</v>
@@ -5058,22 +5058,22 @@
         <v>0.17284044761657999</v>
       </c>
       <c r="G40" s="3">
-        <v>3.0575518432050401</v>
+        <v>3.0590656744256699</v>
       </c>
       <c r="H40" s="24">
-        <v>2.9851464689496401E-3</v>
+        <v>2.9438880903822598E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.12993307428333201</v>
+        <v>0.12896383462386901</v>
       </c>
       <c r="J40" s="5">
-        <v>21.785046728971899</v>
+        <v>21.7981651376146</v>
       </c>
       <c r="K40" s="4">
-        <v>6.5031555318893694E-2</v>
+        <v>6.4171358740809703E-2</v>
       </c>
       <c r="L40" s="3">
-        <v>3.5688992755419502</v>
+        <v>3.5210672395753502</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>19</v>
@@ -5084,34 +5084,34 @@
         <v>45345</v>
       </c>
       <c r="C41" s="24">
-        <v>8.2653189184667196E-4</v>
+        <v>7.0538716065200095E-4</v>
       </c>
       <c r="D41" s="2">
-        <v>0.136379141933749</v>
+        <v>0.13639752915891201</v>
       </c>
       <c r="E41" s="5">
-        <v>30.351351351351301</v>
+        <v>30.657142857142802</v>
       </c>
       <c r="F41" s="4">
-        <v>2.5086359852535399E-2</v>
+        <v>2.1625154953702701E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>3.0826382030575799</v>
+        <v>3.08069082937938</v>
       </c>
       <c r="H41" s="24">
-        <v>3.9553477698323399E-3</v>
+        <v>4.2039167666216596E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.13388842205316501</v>
+        <v>0.133167751390491</v>
       </c>
       <c r="J41" s="5">
-        <v>22.672268907563002</v>
+        <v>22.661157024793301</v>
       </c>
       <c r="K41" s="4">
-        <v>8.9676708260568602E-2</v>
+        <v>9.5265617967575197E-2</v>
       </c>
       <c r="L41" s="3">
-        <v>3.6585759838025198</v>
+        <v>3.6163328575429201</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>20</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A304FA5-7328-4042-A128-A8B495E3F553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429B3010-CF79-42A3-8280-B1E3B1E22144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,49 +1806,49 @@
                   <c:v>8.1350862657339998E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3590787653077994E-2</c:v>
+                  <c:v>8.3590779239550494E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5523164107256994E-2</c:v>
+                  <c:v>8.5523155693729397E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.9124539154655597E-2</c:v>
+                  <c:v>8.9124530741128097E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.5270605225618393E-2</c:v>
+                  <c:v>9.5270596812090894E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10088062908635299</c:v>
+                  <c:v>0.10088062067282599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10503166735120401</c:v>
+                  <c:v>0.10503165893767601</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.106703181759337</c:v>
+                  <c:v>0.10670317334581</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.111143330596175</c:v>
+                  <c:v>0.111143322182648</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.113019587188813</c:v>
+                  <c:v>0.113019578775285</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11765131740226201</c:v>
+                  <c:v>0.11765130898873399</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.121240994826913</c:v>
+                  <c:v>0.121240986413385</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.123324019333217</c:v>
+                  <c:v>0.12332401091969</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.126019946533487</c:v>
+                  <c:v>0.12601993811996001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.12896383462386901</c:v>
+                  <c:v>0.128963826210342</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.133167751390491</c:v>
+                  <c:v>0.13316774301227999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.5044145102760878E-3</v>
+        <v>3.5044142897968518E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>9.5166654145866322E-2</v>
+        <v>9.5166649577256776E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.5471921220352289E-3</v>
+        <v>3.5471920125233359E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.8072207293610719E-2</v>
+        <v>8.8072205024385328E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4212,11 +4212,11 @@
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.4235391210455117</v>
+        <v>1.4235390549285492</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.6416403330193923</v>
+        <v>2.6416401879710496</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4258,11 +4258,11 @@
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>8.0904341993759861</v>
+        <v>8.0904335826507463</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>24.091900471529154</v>
+        <v>24.091897986145145</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4603,19 +4603,19 @@
         <v>2.1144885072288102</v>
       </c>
       <c r="H27" s="24">
-        <v>2.2399249957380202E-3</v>
+        <v>2.2399165822104901E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>8.3590787653077994E-2</v>
+        <v>8.3590779239550494E-2</v>
       </c>
       <c r="J27" s="5">
         <v>20.729411764705802</v>
       </c>
       <c r="K27" s="4">
-        <v>4.6432327558710497E-2</v>
+        <v>4.6432153151234001E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.6316266956632299</v>
+        <v>2.6316265212557499</v>
       </c>
     </row>
     <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4641,7 +4641,7 @@
         <v>1.93237645417897E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>8.5523164107256994E-2</v>
+        <v>8.5523155693729397E-2</v>
       </c>
       <c r="J28" s="5">
         <v>23.203703703703699</v>
@@ -4650,7 +4650,7 @@
         <v>4.4838290686782398E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.6764649863500098</v>
+        <v>2.67646481194254</v>
       </c>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.35">
@@ -4676,7 +4676,7 @@
         <v>3.60137504739867E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.9124539154655597E-2</v>
+        <v>8.9124530741128097E-2</v>
       </c>
       <c r="J29" s="5">
         <v>19.5104166666666</v>
@@ -4685,7 +4685,7 @@
         <v>7.0264327747684596E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.7467293140977</v>
+        <v>2.74672913969022</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
@@ -4711,7 +4711,7 @@
         <v>6.1460660709627499E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.5270605225618393E-2</v>
+        <v>9.5270596812090894E-2</v>
       </c>
       <c r="J30" s="5">
         <v>17.742857142857101</v>
@@ -4720,7 +4720,7 @@
         <v>0.109048772287653</v>
       </c>
       <c r="L30" s="3">
-        <v>2.8557780863853499</v>
+        <v>2.8557779119778699</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
@@ -4746,7 +4746,7 @@
         <v>5.6100238607353099E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>0.10088062908635299</v>
+        <v>0.10088062067282599</v>
       </c>
       <c r="J31" s="5">
         <v>18.742857142857101</v>
@@ -4755,7 +4755,7 @@
         <v>0.10514787578978101</v>
       </c>
       <c r="L31" s="3">
-        <v>2.9609259621751298</v>
+        <v>2.96092578776766</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4781,7 +4781,7 @@
         <v>4.1510382648505704E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>0.10503166735120401</v>
+        <v>0.10503165893767601</v>
       </c>
       <c r="J32" s="5">
         <v>14.8767123287671</v>
@@ -4790,7 +4790,7 @@
         <v>6.1753802131886498E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>3.02267976430702</v>
+        <v>3.02267958989954</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4816,7 +4816,7 @@
         <v>1.6715144081333501E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.106703181759337</v>
+        <v>0.10670317334581</v>
       </c>
       <c r="J33" s="5">
         <v>21.014285714285698</v>
@@ -4825,7 +4825,7 @@
         <v>3.5125681348059497E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>3.0578054456550801</v>
+        <v>3.0578052712476</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4851,7 +4851,7 @@
         <v>4.4401488368381904E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.111143330596175</v>
+        <v>0.111143322182648</v>
       </c>
       <c r="J34" s="5">
         <v>21.735632183907999</v>
@@ -4860,7 +4860,7 @@
         <v>9.6509441959322206E-2</v>
       </c>
       <c r="L34" s="3">
-        <v>3.1543148876144</v>
+        <v>3.1543147132069298</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4886,7 +4886,7 @@
         <v>1.8762565926371301E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.113019587188813</v>
+        <v>0.113019578775285</v>
       </c>
       <c r="J35" s="5">
         <v>16.3505154639175</v>
@@ -4895,7 +4895,7 @@
         <v>3.06777624321906E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>3.1849926500465902</v>
+        <v>3.1849924756391199</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4921,7 +4921,7 @@
         <v>4.6317302134493699E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.11765131740226201</v>
+        <v>0.11765130898873399</v>
       </c>
       <c r="J36" s="5">
         <v>20.680851063829699</v>
@@ -4930,7 +4930,7 @@
         <v>9.5788122712186993E-2</v>
       </c>
       <c r="L36" s="3">
-        <v>3.2807807727587801</v>
+        <v>3.2807805983513001</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4956,7 +4956,7 @@
         <v>3.58967742465066E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.121240994826913</v>
+        <v>0.121240986413385</v>
       </c>
       <c r="J37" s="5">
         <v>15.6129032258064</v>
@@ -4965,7 +4965,7 @@
         <v>5.6045286242932903E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>3.33682605900171</v>
+        <v>3.3368258845942398</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -4991,7 +4991,7 @@
         <v>2.0830245063047301E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.123324019333217</v>
+        <v>0.12332401091969</v>
       </c>
       <c r="J38" s="5">
         <v>24.27</v>
@@ -5000,7 +5000,7 @@
         <v>5.0555004768015797E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>3.3873810637697299</v>
+        <v>3.3873808893622499</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -5026,7 +5026,7 @@
         <v>2.6959272002697798E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.126019946533487</v>
+        <v>0.12601993811996001</v>
       </c>
       <c r="J39" s="5">
         <v>25.785123966942098</v>
@@ -5035,7 +5035,7 @@
         <v>6.9514817064807694E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>3.4568958808345398</v>
+        <v>3.4568957064270598</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>18</v>
@@ -5064,7 +5064,7 @@
         <v>2.9438880903822598E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.12896383462386901</v>
+        <v>0.128963826210342</v>
       </c>
       <c r="J40" s="5">
         <v>21.7981651376146</v>
@@ -5073,7 +5073,7 @@
         <v>6.4171358740809703E-2</v>
       </c>
       <c r="L40" s="3">
-        <v>3.5210672395753502</v>
+        <v>3.5210670651678702</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>19</v>
@@ -5099,19 +5099,19 @@
         <v>3.08069082937938</v>
       </c>
       <c r="H41" s="24">
-        <v>4.2039167666216596E-3</v>
+        <v>4.2039168019382001E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.133167751390491</v>
+        <v>0.13316774301227999</v>
       </c>
       <c r="J41" s="5">
         <v>22.661157024793301</v>
       </c>
       <c r="K41" s="4">
-        <v>9.5265617967575197E-2</v>
+        <v>9.5265618767888804E-2</v>
       </c>
       <c r="L41" s="3">
-        <v>3.6163328575429201</v>
+        <v>3.6163326839357599</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>20</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429B3010-CF79-42A3-8280-B1E3B1E22144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5F66E6-1D44-4A55-A994-E2E5C1C324F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$42</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1094,129 +1094,135 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$42</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>4.5541033094187097E-3</c:v>
+                  <c:v>4.49736663815544E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7339212367343E-3</c:v>
+                  <c:v>6.6771845654710303E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0055016473284E-2</c:v>
+                  <c:v>1.20646126576088E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8370439015836099E-2</c:v>
+                  <c:v>2.0648841562449002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.67212807760914E-2</c:v>
+                  <c:v>2.8999683322704299E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2238453291297001E-2</c:v>
+                  <c:v>3.45168558379099E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6816839703576203E-2</c:v>
+                  <c:v>4.9095242250189103E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5605563101542202E-2</c:v>
+                  <c:v>5.7883965648155102E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4394643194841103E-2</c:v>
+                  <c:v>6.69066074233437E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9740547073447401E-2</c:v>
+                  <c:v>7.2252511301949998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2753760553459501E-2</c:v>
+                  <c:v>7.5265724781962098E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6094157998867207E-2</c:v>
+                  <c:v>7.8606122227369804E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.7650189082096296E-2</c:v>
+                  <c:v>8.0162153310598894E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3874597185806704E-2</c:v>
+                  <c:v>7.6386561414309301E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4018250607368094E-2</c:v>
+                  <c:v>7.6530214835870802E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.46448702949465E-2</c:v>
+                  <c:v>7.7156834523449097E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.5365787246976998E-2</c:v>
+                  <c:v>7.7877751475479595E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7423032057845995E-2</c:v>
+                  <c:v>7.9934996286348606E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3296724876332703E-2</c:v>
+                  <c:v>8.5808689104835301E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.5092597067286793E-2</c:v>
+                  <c:v>8.7604561295789404E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.1607392239432997E-2</c:v>
+                  <c:v>9.4119356467935594E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.5460041494682193E-2</c:v>
+                  <c:v>9.7819660336505701E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.2320629557513106E-2</c:v>
+                  <c:v>9.46802483993366E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.4367307910017795E-2</c:v>
+                  <c:v>9.6726926751841302E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.97642142095337E-2</c:v>
+                  <c:v>0.102123833051357</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.10237432068813999</c:v>
+                  <c:v>0.104733939529964</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.8763669497200404E-2</c:v>
+                  <c:v>0.101123288339023</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.102757502349565</c:v>
+                  <c:v>0.105117121191388</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10433670348851</c:v>
+                  <c:v>0.10669632233033401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.106182019807922</c:v>
+                  <c:v>0.108541638649746</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.110924547036149</c:v>
+                  <c:v>0.11338804614155799</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.118667345654956</c:v>
+                  <c:v>0.121386114197215</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.117263361739934</c:v>
+                  <c:v>0.119383420298886</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.123376306159867</c:v>
+                  <c:v>0.125724146080405</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.125488456790597</c:v>
+                  <c:v>0.127836296711135</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12844733281672699</c:v>
+                  <c:v>0.13088093179920801</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13569214199825999</c:v>
+                  <c:v>0.135765009168861</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13639752915891201</c:v>
+                  <c:v>0.13647039632951299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.139792969949733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,10 +1615,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$42</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1726,129 +1732,135 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45345</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$42</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>3.4364567965802098E-3</c:v>
+                  <c:v>3.3811437425932101E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6893544613432395E-3</c:v>
+                  <c:v>8.6340414073562393E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.46467500484677E-2</c:v>
+                  <c:v>1.45914369944807E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7986543512677401E-2</c:v>
+                  <c:v>1.8107009062069902E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1359874478532897E-2</c:v>
+                  <c:v>2.21984795233542E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5191115315228803E-2</c:v>
+                  <c:v>2.59859261499754E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6729714577599E-2</c:v>
+                  <c:v>2.7820791064672699E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0823466017430698E-2</c:v>
+                  <c:v>3.1149928309016001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7459619825489602E-2</c:v>
+                  <c:v>3.7552926937519701E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9889166326698403E-2</c:v>
+                  <c:v>3.9817529754575497E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2038719221777399E-2</c:v>
+                  <c:v>4.1888967237485503E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3349797025165097E-2</c:v>
+                  <c:v>4.32000450408732E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5503085170916698E-2</c:v>
+                  <c:v>4.5288696993138297E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8504894729849197E-2</c:v>
+                  <c:v>4.8240651772987503E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9935816980531902E-2</c:v>
+                  <c:v>4.9671574023670201E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.34022252125956E-2</c:v>
+                  <c:v>5.3137982255733802E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5044839669926205E-2</c:v>
+                  <c:v>5.4780596713064497E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.9496814902921894E-2</c:v>
+                  <c:v>5.92325719460602E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3201449348719999E-2</c:v>
+                  <c:v>6.3045369251206004E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5563450799617807E-2</c:v>
+                  <c:v>6.5407370702103798E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8093852491406393E-2</c:v>
+                  <c:v>6.8059590125765193E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0093174860071004E-2</c:v>
+                  <c:v>6.9497903954811494E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1350862657339998E-2</c:v>
+                  <c:v>7.0663303335587596E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3590779239550494E-2</c:v>
+                  <c:v>7.2908487276305403E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5523155693729397E-2</c:v>
+                  <c:v>7.4825640941166699E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.9124530741128097E-2</c:v>
+                  <c:v>7.8134789660130793E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.5270596812090894E-2</c:v>
+                  <c:v>8.4333833939928896E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10088062067282599</c:v>
+                  <c:v>8.9812975942808806E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10503165893767601</c:v>
+                  <c:v>9.3964014207659402E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10670317334581</c:v>
+                  <c:v>9.5533594329662297E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.111143322182648</c:v>
+                  <c:v>9.9973743166500498E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.113019578775285</c:v>
+                  <c:v>0.101970149858296</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11765130898873399</c:v>
+                  <c:v>0.106592185776041</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.121240986413385</c:v>
+                  <c:v>0.11037935540994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12332401091969</c:v>
+                  <c:v>0.112578740145129</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12601993811996001</c:v>
+                  <c:v>0.115360206104555</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.128963826210342</c:v>
+                  <c:v>0.118535511192867</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13316774301227999</c:v>
+                  <c:v>0.122456763853752</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.12536568504748699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,15 +3232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>250825</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3255,16 +3267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3295,8 +3307,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L41" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L42" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
@@ -3611,10 +3623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z41"/>
+  <dimension ref="B1:Z42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L41"/>
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3645,7 +3657,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 264%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 245%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3696,41 +3708,41 @@
         <v>45289</v>
       </c>
       <c r="C4" s="24">
-        <v>4.5541033094187097E-3</v>
+        <v>4.49736663815544E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>4.5541033094187097E-3</v>
+        <v>4.49736663815544E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>28.090909090909001</v>
+        <v>23.1</v>
       </c>
       <c r="F4" s="4">
-        <v>0.12792890205548901</v>
+        <v>0.10388916934139</v>
       </c>
       <c r="G4" s="3">
-        <v>0.12792890205548901</v>
+        <v>0.10388916934139</v>
       </c>
       <c r="H4" s="24">
-        <v>3.4364567965802098E-3</v>
+        <v>3.3811437425932101E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>3.4364567965802098E-3</v>
+        <v>3.3811437425932101E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>30.904761904761902</v>
+        <v>28.75</v>
       </c>
       <c r="K4" s="4">
-        <v>0.106202879094312</v>
+        <v>9.7207882599554707E-2</v>
       </c>
       <c r="L4" s="3">
-        <v>0.106202879094312</v>
+        <v>9.7207882599554707E-2</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.5894086620766393E-3</v>
+        <v>3.5844351269162457E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3741,7 +3753,7 @@
         <v>2.1798179273155799E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>6.7339212367343E-3</v>
+        <v>6.6771845654710303E-3</v>
       </c>
       <c r="E5" s="5">
         <v>25.7777777777777</v>
@@ -3750,13 +3762,13 @@
         <v>5.6190862126357398E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.184119764181846</v>
+        <v>0.16008003146774799</v>
       </c>
       <c r="H5" s="24">
         <v>5.2528976647630296E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.6893544613432395E-3</v>
+        <v>8.6340414073562393E-3</v>
       </c>
       <c r="J5" s="5">
         <v>36.178571428571402</v>
@@ -3765,14 +3777,14 @@
         <v>0.190042333371605</v>
       </c>
       <c r="L5" s="3">
-        <v>0.29624521246591701</v>
+        <v>0.28725021597116002</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.107081129945716E-2</v>
+        <v>8.1127966248090461E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3780,25 +3792,25 @@
         <v>45294</v>
       </c>
       <c r="C6" s="24">
-        <v>3.3210952365497299E-3</v>
+        <v>5.3874280921377901E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.0055016473284E-2</v>
+        <v>1.20646126576088E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>26.818181818181799</v>
+        <v>28.9</v>
       </c>
       <c r="F6" s="4">
-        <v>8.9065735889288303E-2</v>
+        <v>0.15569667186278199</v>
       </c>
       <c r="G6" s="3">
-        <v>0.27318550007113501</v>
+        <v>0.31577670333052998</v>
       </c>
       <c r="H6" s="24">
         <v>5.9573955871245398E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.46467500484677E-2</v>
+        <v>1.45914369944807E-2</v>
       </c>
       <c r="J6" s="5">
         <v>34.736842105263101</v>
@@ -3807,14 +3819,14 @@
         <v>0.20694110986853601</v>
       </c>
       <c r="L6" s="3">
-        <v>0.50318632233445404</v>
+        <v>0.49419132583969599</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>27.099794871537981</v>
+        <v>27.070254689095901</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3822,34 +3834,34 @@
         <v>45295</v>
       </c>
       <c r="C7" s="24">
-        <v>8.3154225425520704E-3</v>
+        <v>8.5842289048402107E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>1.8370439015836099E-2</v>
+        <v>2.0648841562449002E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>35.700000000000003</v>
+        <v>35.8888888888888</v>
       </c>
       <c r="F7" s="4">
-        <v>0.29686058476910898</v>
+        <v>0.30807843736259799</v>
       </c>
       <c r="G7" s="3">
-        <v>0.57004608484024399</v>
+        <v>0.62385514069312897</v>
       </c>
       <c r="H7" s="24">
-        <v>3.33979346420967E-3</v>
+        <v>3.5155720675891298E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.7986543512677401E-2</v>
+        <v>1.8107009062069902E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>29.05</v>
+        <v>30.578947368421002</v>
       </c>
       <c r="K7" s="4">
-        <v>9.7021000135290997E-2</v>
+        <v>0.107502493224699</v>
       </c>
       <c r="L7" s="3">
-        <v>0.60020732246974495</v>
+        <v>0.60169381906439601</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3860,7 +3872,7 @@
         <v>8.3508417602552992E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.67212807760914E-2</v>
+        <v>2.8999683322704299E-2</v>
       </c>
       <c r="E8" s="5">
         <v>22</v>
@@ -3869,29 +3881,29 @@
         <v>0.18371851872561601</v>
       </c>
       <c r="G8" s="3">
-        <v>0.75376460356586095</v>
+        <v>0.80757365941874504</v>
       </c>
       <c r="H8" s="24">
-        <v>1.3373330965855501E-2</v>
+        <v>4.0914704612843699E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>3.1359874478532897E-2</v>
+        <v>2.21984795233542E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>51.228571428571399</v>
+        <v>57.096774193548299</v>
       </c>
       <c r="K8" s="4">
-        <v>0.68509664062225495</v>
+        <v>0.23360976504752701</v>
       </c>
       <c r="L8" s="3">
-        <v>1.285303963092</v>
+        <v>0.83530358411192296</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.5044142897968518E-3</v>
+        <v>3.2145047448073646E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3902,7 +3914,7 @@
         <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.2238453291297001E-2</v>
+        <v>3.45168558379099E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3911,29 +3923,29 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>0.97100327135208298</v>
+        <v>1.0248123272049601</v>
       </c>
       <c r="H9" s="24">
-        <v>3.8312408366959001E-3</v>
+        <v>3.7874466266211702E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>3.5191115315228803E-2</v>
+        <v>2.59859261499754E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>23.212765957446798</v>
+        <v>23.622222222222199</v>
       </c>
       <c r="K9" s="4">
-        <v>8.8933696868834705E-2</v>
+        <v>8.94679058688512E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>1.3742376599608299</v>
+        <v>0.92477148998077396</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>9.5166649577256776E-2</v>
+        <v>8.1005668286604576E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3944,7 +3956,7 @@
         <v>1.45783864122791E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>4.6816839703576203E-2</v>
+        <v>4.9095242250189103E-2</v>
       </c>
       <c r="E10" s="5">
         <v>13.8823529411764</v>
@@ -3953,29 +3965,29 @@
         <v>0.20238230548811001</v>
       </c>
       <c r="G10" s="3">
-        <v>1.17338557684019</v>
+        <v>1.2271946326930701</v>
       </c>
       <c r="H10" s="24">
-        <v>1.53859926237014E-3</v>
+        <v>1.83486491469729E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>3.6729714577599E-2</v>
+        <v>2.7820791064672699E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>13.979591836734601</v>
+        <v>14.7173913043478</v>
       </c>
       <c r="K10" s="4">
-        <v>2.15089896882356E-2</v>
+        <v>2.7004424940218898E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.39574664964907</v>
+        <v>0.951775914920993</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>26.744353606038288</v>
+        <v>26.45353247866279</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -3986,7 +3998,7 @@
         <v>8.7887233979660109E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>5.5605563101542202E-2</v>
+        <v>5.7883965648155102E-2</v>
       </c>
       <c r="E11" s="5">
         <v>10.5555555555555</v>
@@ -3995,22 +4007,22 @@
         <v>9.2769858089641194E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.2661554349298301</v>
+        <v>1.3199644907827099</v>
       </c>
       <c r="H11" s="24">
-        <v>4.0937514398317202E-3</v>
+        <v>3.3291372443432902E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>4.0823466017430698E-2</v>
+        <v>3.1149928309016001E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>19.2903225806451</v>
+        <v>19.482758620689602</v>
       </c>
       <c r="K11" s="4">
-        <v>7.8969785839334505E-2</v>
+        <v>6.4860777346688298E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.4747164354883999</v>
+        <v>1.0166366922676799</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4018,41 +4030,41 @@
         <v>45302</v>
       </c>
       <c r="C12" s="24">
-        <v>8.7890800932988993E-3</v>
+        <v>9.0226417751885796E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>6.4394643194841103E-2</v>
+        <v>6.69066074233437E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>20.571428571428498</v>
+        <v>20.5</v>
       </c>
       <c r="F12" s="4">
-        <v>0.18080393334786299</v>
+        <v>0.18496415639136499</v>
       </c>
       <c r="G12" s="3">
-        <v>1.44695936827769</v>
+        <v>1.5049286471740799</v>
       </c>
       <c r="H12" s="24">
-        <v>6.6361538080588599E-3</v>
+        <v>6.4029986285036996E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>4.7459619825489602E-2</v>
+        <v>3.7552926937519701E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>18.3404255319148</v>
+        <v>18.586956521739101</v>
       </c>
       <c r="K12" s="4">
-        <v>0.12170988473503599</v>
+        <v>0.11901225711675301</v>
       </c>
       <c r="L12" s="3">
-        <v>1.5964263202234401</v>
+        <v>1.13564894938443</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.5471920125233359E-3</v>
+        <v>3.4016011778294697E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4063,7 +4075,7 @@
         <v>5.3459038786062996E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.9740547073447401E-2</v>
+        <v>7.2252511301949998E-2</v>
       </c>
       <c r="E13" s="5">
         <v>27</v>
@@ -4072,29 +4084,29 @@
         <v>0.14433940472237</v>
       </c>
       <c r="G13" s="3">
-        <v>1.5912987730000601</v>
+        <v>1.64926805189645</v>
       </c>
       <c r="H13" s="24">
-        <v>2.4295465012088499E-3</v>
+        <v>2.2646028170557699E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.9889166326698403E-2</v>
+        <v>3.9817529754575497E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>18.318181818181799</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="K13" s="4">
-        <v>4.4504874544871197E-2</v>
+        <v>4.1555461692973403E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.6409311947683101</v>
+        <v>1.1772044110774</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.8072205024385328E-2</v>
+        <v>8.1067521850049257E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4105,7 +4117,7 @@
         <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.2753760553459501E-2</v>
+        <v>7.5265724781962098E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4114,22 +4126,22 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.6460388178869501</v>
+        <v>1.70400809678334</v>
       </c>
       <c r="H14" s="24">
-        <v>2.14955289507899E-3</v>
+        <v>2.0714374829100099E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>5.2038719221777399E-2</v>
+        <v>4.1888967237485503E-2</v>
       </c>
       <c r="J14" s="5">
-        <v>28.52</v>
+        <v>25.875</v>
       </c>
       <c r="K14" s="4">
-        <v>6.1305248567652897E-2</v>
+        <v>5.3598444870296601E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.70223644333596</v>
+        <v>1.2308028559477</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4140,7 +4152,7 @@
         <v>3.34039744540771E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.6094157998867207E-2</v>
+        <v>7.8606122227369804E-2</v>
       </c>
       <c r="E15" s="5">
         <v>25.571428571428498</v>
@@ -4149,13 +4161,13 @@
         <v>8.5418734675425795E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.7314575525623801</v>
+        <v>1.78942683145876</v>
       </c>
       <c r="H15" s="24">
         <v>1.3110778033877E-3</v>
       </c>
       <c r="I15" s="2">
-        <v>5.3349797025165097E-2</v>
+        <v>4.32000450408732E-2</v>
       </c>
       <c r="J15" s="5">
         <v>110.666666666666</v>
@@ -4164,7 +4176,7 @@
         <v>0.145092610241572</v>
       </c>
       <c r="L15" s="3">
-        <v>1.84732905357753</v>
+        <v>1.3758954661892699</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4181,7 +4193,7 @@
         <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>7.7650189082096296E-2</v>
+        <v>8.0162153310598894E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4190,33 +4202,33 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.7750264228927899</v>
+        <v>1.83299570178918</v>
       </c>
       <c r="H16" s="24">
-        <v>2.1532881457515399E-3</v>
+        <v>2.0886519522651001E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>5.5503085170916698E-2</v>
+        <v>4.5288696993138297E-2</v>
       </c>
       <c r="J16" s="5">
-        <v>38.933333333333302</v>
+        <v>37.034482758620598</v>
       </c>
       <c r="K16" s="4">
-        <v>8.3834685141260204E-2</v>
+        <v>7.7352144714921398E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.9311637387187901</v>
+        <v>1.4532476109041901</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.4235390549285492</v>
+        <v>1.3372083509599904</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.6416401879710496</v>
+        <v>2.4538084437629455</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4227,7 +4239,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>7.3874597185806704E-2</v>
+        <v>7.6386561414309301E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4236,33 +4248,33 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.5673688685968601</v>
+        <v>1.62533814749325</v>
       </c>
       <c r="H17" s="24">
-        <v>3.0018095589325099E-3</v>
+        <v>2.9519547798491602E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>5.8504894729849197E-2</v>
+        <v>4.8240651772987503E-2</v>
       </c>
       <c r="J17" s="5">
-        <v>19.434782608695599</v>
+        <v>16</v>
       </c>
       <c r="K17" s="4">
-        <v>5.8339516210558003E-2</v>
+        <v>4.7231276477586598E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.9895032549293501</v>
+        <v>1.50047888738178</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>8.0904335826507463</v>
+        <v>7.3062803939834495</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>24.091897986145145</v>
+        <v>20.995488801595481</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4276,7 +4288,7 @@
         <v>1.43653421561418E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>7.4018250607368094E-2</v>
+        <v>7.6530214835870802E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.636363636363601</v>
@@ -4285,13 +4297,13 @@
         <v>2.82083082338784E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.57018969942025</v>
+        <v>1.6281589783166399</v>
       </c>
       <c r="H18" s="24">
         <v>1.4309222506827201E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>5.9935816980531902E-2</v>
+        <v>4.9671574023670201E-2</v>
       </c>
       <c r="J18" s="5">
         <v>29.3333333333333</v>
@@ -4300,7 +4312,7 @@
         <v>4.1973719353360001E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2.0314769742827101</v>
+        <v>1.5424526067351401</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4311,7 +4323,7 @@
         <v>6.2661968757838304E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>7.46448702949465E-2</v>
+        <v>7.7156834523449097E-2</v>
       </c>
       <c r="E19" s="5">
         <v>32.1111111111111</v>
@@ -4320,13 +4332,13 @@
         <v>2.0121454412239202E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.5903111538324901</v>
+        <v>1.64828043272888</v>
       </c>
       <c r="H19" s="24">
         <v>3.4664082320636398E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>6.34022252125956E-2</v>
+        <v>5.3137982255733802E-2</v>
       </c>
       <c r="J19" s="5">
         <v>26.727272727272702</v>
@@ -4335,7 +4347,7 @@
         <v>9.2647638202428301E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>2.1241246124851401</v>
+        <v>1.63510024493757</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4346,7 +4358,7 @@
         <v>7.2091695203043901E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>7.5365787246976998E-2</v>
+        <v>7.7877751475479595E-2</v>
       </c>
       <c r="E20" s="5">
         <v>37.4</v>
@@ -4355,13 +4367,13 @@
         <v>2.69622940059384E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.6172734478384301</v>
+        <v>1.67524272673482</v>
       </c>
       <c r="H20" s="24">
         <v>1.6426144573306501E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>6.5044839669926205E-2</v>
+        <v>5.4780596713064497E-2</v>
       </c>
       <c r="J20" s="5">
         <v>16.684210526315699</v>
@@ -4370,7 +4382,7 @@
         <v>2.7405725419674499E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>2.1515303379048198</v>
+        <v>1.66250597035724</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4381,7 +4393,7 @@
         <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>7.7423032057845995E-2</v>
+        <v>7.9934996286348606E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.3333333333333</v>
@@ -4390,13 +4402,13 @@
         <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.68790551967827</v>
+        <v>1.7458747985746501</v>
       </c>
       <c r="H21" s="24">
         <v>4.4519752329957004E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>6.9496814902921894E-2</v>
+        <v>5.92325719460602E-2</v>
       </c>
       <c r="J21" s="5">
         <v>19.292682926829201</v>
@@ -4405,7 +4417,7 @@
         <v>8.5890546568282905E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>2.2374208844730998</v>
+        <v>1.74839651692553</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4416,7 +4428,7 @@
         <v>5.8736928184867096E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>8.3296724876332703E-2</v>
+        <v>8.5808689104835301E-2</v>
       </c>
       <c r="E22" s="5">
         <v>27.8888888888888</v>
@@ -4425,22 +4437,22 @@
         <v>0.16381076638223999</v>
       </c>
       <c r="G22" s="3">
-        <v>1.8517162860605101</v>
+        <v>1.90968556495689</v>
       </c>
       <c r="H22" s="24">
-        <v>3.70463444579806E-3</v>
+        <v>3.8127973051458302E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>7.3201449348719999E-2</v>
+        <v>6.3045369251206004E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>28.294117647058801</v>
+        <v>28.515151515151501</v>
       </c>
       <c r="K22" s="4">
-        <v>0.10481936284875699</v>
+        <v>0.10872249285279401</v>
       </c>
       <c r="L22" s="3">
-        <v>2.3422402473218602</v>
+        <v>1.8571190097783199</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4451,7 +4463,7 @@
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.5092597067286793E-2</v>
+        <v>8.7604561295789404E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4460,13 +4472,13 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>1.9285796158333399</v>
+        <v>1.9865488947297301</v>
       </c>
       <c r="H23" s="24">
         <v>2.3620014508977999E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>7.5563450799617807E-2</v>
+        <v>6.5407370702103798E-2</v>
       </c>
       <c r="J23" s="5">
         <v>26.7959183673469</v>
@@ -4475,7 +4487,7 @@
         <v>6.3291998061812405E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>2.4055322453836698</v>
+        <v>1.92041100784013</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4486,7 +4498,7 @@
         <v>6.5147951721461804E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>9.1607392239432997E-2</v>
+        <v>9.4119356467935594E-2</v>
       </c>
       <c r="E24" s="5">
         <v>27.782608695652101</v>
@@ -4495,22 +4507,22 @@
         <v>0.180998005000061</v>
       </c>
       <c r="G24" s="3">
-        <v>2.1095776208334001</v>
+        <v>2.16754689972979</v>
       </c>
       <c r="H24" s="24">
-        <v>2.5304016917886401E-3</v>
+        <v>2.6522194236613698E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>7.8093852491406393E-2</v>
+        <v>6.8059590125765193E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>28.837209302325501</v>
+        <v>29.634146341463399</v>
       </c>
       <c r="K24" s="4">
-        <v>7.2969723205067893E-2</v>
+        <v>7.8596258530452906E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>2.4785019685887399</v>
+        <v>1.99900726637059</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4518,34 +4530,34 @@
         <v>45322</v>
       </c>
       <c r="C25" s="24">
-        <v>3.8526492552492602E-3</v>
+        <v>3.7003038685701501E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.5460041494682193E-2</v>
+        <v>9.7819660336505701E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>27.923076923076898</v>
+        <v>28.84</v>
       </c>
       <c r="F25" s="4">
-        <v>0.10757782151196001</v>
+        <v>0.106716763569563</v>
       </c>
       <c r="G25" s="3">
-        <v>2.2171554423453599</v>
+        <v>2.27426366329935</v>
       </c>
       <c r="H25" s="24">
-        <v>1.9993223686645698E-3</v>
+        <v>1.43831382904624E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>8.0093174860071004E-2</v>
+        <v>6.9497903954811494E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>37.34375</v>
+        <v>38.516129032258</v>
       </c>
       <c r="K25" s="4">
-        <v>7.4662194704817705E-2</v>
+        <v>5.5398281028426401E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.55316416329355</v>
+        <v>2.0544055473990102</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4556,7 +4568,7 @@
         <v>-3.1394119371691499E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.2320629557513106E-2</v>
+        <v>9.46802483993366E-2</v>
       </c>
       <c r="E26" s="5">
         <v>42.75</v>
@@ -4565,22 +4577,22 @@
         <v>-0.13420986031398099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.08294558203138</v>
+        <v>2.1400538029853702</v>
       </c>
       <c r="H26" s="24">
-        <v>1.25768779726898E-3</v>
+        <v>1.1653993807761601E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>8.1350862657339998E-2</v>
+        <v>7.0663303335587596E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>25.467532467532401</v>
+        <v>26.162162162162101</v>
       </c>
       <c r="K26" s="4">
-        <v>3.20302048109673E-2</v>
+        <v>3.0489367583549198E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.5851943681045202</v>
+        <v>2.0848949149825602</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4591,7 +4603,7 @@
         <v>2.0466783525047699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.4367307910017795E-2</v>
+        <v>9.6726926751841302E-2</v>
       </c>
       <c r="E27" s="5">
         <v>15.4117647058823</v>
@@ -4600,22 +4612,22 @@
         <v>3.1542925197426401E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.1144885072288102</v>
+        <v>2.1715967281827999</v>
       </c>
       <c r="H27" s="24">
-        <v>2.2399165822104901E-3</v>
+        <v>2.24518394071784E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>8.3590779239550494E-2</v>
+        <v>7.2908487276305403E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>20.729411764705802</v>
+        <v>20.337349397590302</v>
       </c>
       <c r="K27" s="4">
-        <v>4.6432153151234001E-2</v>
+        <v>4.5661090264237501E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.6316265212557499</v>
+        <v>2.1305560052467998</v>
       </c>
     </row>
     <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4626,7 +4638,7 @@
         <v>5.3969062995158201E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>9.97642142095337E-2</v>
+        <v>0.102123833051357</v>
       </c>
       <c r="E28" s="5">
         <v>27.8</v>
@@ -4635,25 +4647,25 @@
         <v>0.150033995126539</v>
       </c>
       <c r="G28" s="3">
-        <v>2.2645225023553501</v>
+        <v>2.3216307233093398</v>
       </c>
       <c r="H28" s="24">
-        <v>1.93237645417897E-3</v>
+        <v>1.91715366486127E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>8.5523155693729397E-2</v>
+        <v>7.4825640941166699E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>23.203703703703699</v>
+        <v>20.803921568627398</v>
       </c>
       <c r="K28" s="4">
-        <v>4.4838290686782398E-2</v>
+        <v>3.9884314478780603E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.67646481194254</v>
+        <v>2.1704403197255799</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:26" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="13">
         <v>45328</v>
       </c>
@@ -4661,7 +4673,7 @@
         <v>2.61010647860684E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.10237432068813999</v>
+        <v>0.104733939529964</v>
       </c>
       <c r="E29" s="5">
         <v>27.117647058823501</v>
@@ -4670,22 +4682,22 @@
         <v>7.0779946272809202E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.3353024486281599</v>
+        <v>2.3924106695821501</v>
       </c>
       <c r="H29" s="24">
-        <v>3.60137504739867E-3</v>
+        <v>3.3091487189640901E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.9124530741128097E-2</v>
+        <v>7.8134789660130793E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>19.5104166666666</v>
+        <v>19.797872340425499</v>
       </c>
       <c r="K29" s="4">
-        <v>7.0264327747684596E-2</v>
+        <v>6.5514103893533904E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.74672913969022</v>
+        <v>2.23595442361911</v>
       </c>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.35">
@@ -4696,7 +4708,7 @@
         <v>-3.61065119094009E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>9.8763669497200404E-2</v>
+        <v>0.101123288339023</v>
       </c>
       <c r="E30" s="5">
         <v>30.25</v>
@@ -4705,22 +4717,22 @@
         <v>-0.10922219852593799</v>
       </c>
       <c r="G30" s="3">
-        <v>2.2260802501022199</v>
+        <v>2.28318847105621</v>
       </c>
       <c r="H30" s="24">
-        <v>6.1460660709627499E-3</v>
+        <v>6.1990442797981403E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>9.5270596812090894E-2</v>
+        <v>8.4333833939928896E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>17.742857142857101</v>
+        <v>17.8840579710144</v>
       </c>
       <c r="K30" s="4">
-        <v>0.109048772287653</v>
+        <v>0.110864067264795</v>
       </c>
       <c r="L30" s="3">
-        <v>2.8557779119778699</v>
+        <v>2.3468184908839098</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
@@ -4731,7 +4743,7 @@
         <v>3.9938328523645697E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.102757502349565</v>
+        <v>0.105117121191388</v>
       </c>
       <c r="E31" s="5">
         <v>24.615384615384599</v>
@@ -4740,22 +4752,22 @@
         <v>9.8309731750512497E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>2.3243899818527298</v>
+        <v>2.38149820280672</v>
       </c>
       <c r="H31" s="24">
-        <v>5.6100238607353099E-3</v>
+        <v>5.4791420028798702E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>0.10088062067282599</v>
+        <v>8.9812975942808806E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>18.742857142857101</v>
+        <v>18.75</v>
       </c>
       <c r="K31" s="4">
-        <v>0.10514787578978101</v>
+        <v>0.102733912553997</v>
       </c>
       <c r="L31" s="3">
-        <v>2.96092578776766</v>
+        <v>2.4495524034379099</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4766,7 +4778,7 @@
         <v>1.57920113894559E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.10433670348851</v>
+        <v>0.10669632233033401</v>
       </c>
       <c r="E32" s="5">
         <v>29.588235294117599</v>
@@ -4775,13 +4787,13 @@
         <v>4.6725774875860798E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.3711157567285901</v>
+        <v>2.4282239776825798</v>
       </c>
       <c r="H32" s="24">
         <v>4.1510382648505704E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>0.10503165893767601</v>
+        <v>9.3964014207659402E-2</v>
       </c>
       <c r="J32" s="5">
         <v>14.8767123287671</v>
@@ -4790,7 +4802,7 @@
         <v>6.1753802131886498E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>3.02267958989954</v>
+        <v>2.5113062055697899</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4801,7 +4813,7 @@
         <v>1.8453163194119401E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.106182019807922</v>
+        <v>0.108541638649746</v>
       </c>
       <c r="E33" s="5">
         <v>23.409090909090899</v>
@@ -4810,22 +4822,22 @@
         <v>4.3197177477143203E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.4143129342057299</v>
+        <v>2.4714211551597298</v>
       </c>
       <c r="H33" s="24">
-        <v>1.6715144081333501E-3</v>
+        <v>1.56958012200286E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.10670317334581</v>
+        <v>9.5533594329662297E-2</v>
       </c>
       <c r="J33" s="5">
-        <v>21.014285714285698</v>
+        <v>20.279411764705799</v>
       </c>
       <c r="K33" s="4">
-        <v>3.5125681348059497E-2</v>
+        <v>3.1830161591793402E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>3.0578052712476</v>
+        <v>2.5431363671615901</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4833,25 +4845,25 @@
         <v>45335</v>
       </c>
       <c r="C34" s="24">
-        <v>4.7425272282269901E-3</v>
+        <v>4.8464074918128696E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.110924547036149</v>
+        <v>0.11338804614155799</v>
       </c>
       <c r="E34" s="5">
-        <v>17.965517241379299</v>
+        <v>16.3928571428571</v>
       </c>
       <c r="F34" s="4">
-        <v>8.5201954686422901E-2</v>
+        <v>7.9446465669361102E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>2.4995148888921599</v>
+        <v>2.5508676208290901</v>
       </c>
       <c r="H34" s="24">
         <v>4.4401488368381904E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.111143322182648</v>
+        <v>9.9973743166500498E-2</v>
       </c>
       <c r="J34" s="5">
         <v>21.735632183907999</v>
@@ -4860,7 +4872,7 @@
         <v>9.6509441959322206E-2</v>
       </c>
       <c r="L34" s="3">
-        <v>3.1543147132069298</v>
+        <v>2.6396458091209101</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4868,34 +4880,34 @@
         <v>45336</v>
       </c>
       <c r="C35" s="24">
-        <v>7.7427986188073001E-3</v>
+        <v>7.9980680556569293E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.118667345654956</v>
+        <v>0.121386114197215</v>
       </c>
       <c r="E35" s="5">
-        <v>15.588235294117601</v>
+        <v>16.125</v>
       </c>
       <c r="F35" s="4">
-        <v>0.120696566704937</v>
+        <v>0.128968847397467</v>
       </c>
       <c r="G35" s="3">
-        <v>2.6202114555970999</v>
+        <v>2.6798364682265499</v>
       </c>
       <c r="H35" s="24">
-        <v>1.8762565926371301E-3</v>
+        <v>1.9964066917964201E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.113019578775285</v>
+        <v>0.101970149858296</v>
       </c>
       <c r="J35" s="5">
-        <v>16.3505154639175</v>
+        <v>15.9479166666666</v>
       </c>
       <c r="K35" s="4">
-        <v>3.06777624321906E-2</v>
+        <v>3.1838527553545E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>3.1849924756391199</v>
+        <v>2.6714843366744598</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4903,34 +4915,34 @@
         <v>45337</v>
       </c>
       <c r="C36" s="24">
-        <v>-1.40398391502214E-3</v>
+        <v>-2.00269389832986E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.117263361739934</v>
+        <v>0.119383420298886</v>
       </c>
       <c r="E36" s="5">
-        <v>22.909090909090899</v>
+        <v>25.1</v>
       </c>
       <c r="F36" s="4">
-        <v>-3.2163995144143698E-2</v>
+        <v>-5.0267616848079698E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.58804746045295</v>
+        <v>2.6295688513784801</v>
       </c>
       <c r="H36" s="24">
-        <v>4.6317302134493699E-3</v>
+        <v>4.6220359177444499E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.11765130898873399</v>
+        <v>0.106592185776041</v>
       </c>
       <c r="J36" s="5">
-        <v>20.680851063829699</v>
+        <v>20.274725274725199</v>
       </c>
       <c r="K36" s="4">
-        <v>9.5788122712186993E-2</v>
+        <v>9.3710508442181595E-2</v>
       </c>
       <c r="L36" s="3">
-        <v>3.2807805983513001</v>
+        <v>2.7651948451166399</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4938,34 +4950,34 @@
         <v>45338</v>
       </c>
       <c r="C37" s="24">
-        <v>6.1129444199326402E-3</v>
+        <v>6.3407257815193E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.123376306159867</v>
+        <v>0.125724146080405</v>
       </c>
       <c r="E37" s="5">
-        <v>33.806451612903203</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="F37" s="4">
-        <v>0.20665695974481901</v>
+        <v>0.20734173305568099</v>
       </c>
       <c r="G37" s="3">
-        <v>2.7947044201977702</v>
+        <v>2.8369105844341602</v>
       </c>
       <c r="H37" s="24">
-        <v>3.58967742465066E-3</v>
+        <v>3.7871696338986501E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.121240986413385</v>
+        <v>0.11037935540994</v>
       </c>
       <c r="J37" s="5">
-        <v>15.6129032258064</v>
+        <v>15.2</v>
       </c>
       <c r="K37" s="4">
-        <v>5.6045286242932903E-2</v>
+        <v>5.7564978435259602E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>3.3368258845942398</v>
+        <v>2.8227598235519</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -4976,7 +4988,7 @@
         <v>2.1121506307297702E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.125488456790597</v>
+        <v>0.127836296711135</v>
       </c>
       <c r="E38" s="5">
         <v>23.590909090909001</v>
@@ -4985,60 +4997,57 @@
         <v>4.9827553515852302E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.8445319737136199</v>
+        <v>2.8867381379500099</v>
       </c>
       <c r="H38" s="24">
-        <v>2.0830245063047301E-3</v>
+        <v>2.19938473518916E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.12332401091969</v>
+        <v>0.112578740145129</v>
       </c>
       <c r="J38" s="5">
-        <v>24.27</v>
+        <v>22.84375</v>
       </c>
       <c r="K38" s="4">
-        <v>5.0555004768015797E-2</v>
+        <v>5.0242195044477397E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>3.3873808893622499</v>
+        <v>2.8730020185963698</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="13">
         <v>45343</v>
       </c>
       <c r="C39" s="24">
-        <v>2.95887602613003E-3</v>
+        <v>3.0446350880736499E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.12844733281672699</v>
+        <v>0.13088093179920801</v>
       </c>
       <c r="E39" s="5">
-        <v>14.090909090908999</v>
+        <v>13</v>
       </c>
       <c r="F39" s="4">
-        <v>4.1693253095468702E-2</v>
+        <v>3.9580256144957499E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.8862252268090902</v>
+        <v>2.9263183940949702</v>
       </c>
       <c r="H39" s="24">
-        <v>2.6959272002697798E-3</v>
+        <v>2.7814659594262601E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.12601993811996001</v>
+        <v>0.115360206104555</v>
       </c>
       <c r="J39" s="5">
-        <v>25.785123966942098</v>
+        <v>24.432203389830502</v>
       </c>
       <c r="K39" s="4">
-        <v>6.9514817064807694E-2</v>
+        <v>6.7957342042592503E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>3.4568957064270598</v>
-      </c>
-      <c r="N39" s="23" t="s">
-        <v>18</v>
+        <v>2.9409593606389701</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -5046,40 +5055,40 @@
         <v>45344</v>
       </c>
       <c r="C40" s="24">
-        <v>7.2448091815333097E-3</v>
+        <v>4.88407736965237E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.13569214199825999</v>
+        <v>0.135765009168861</v>
       </c>
       <c r="E40" s="5">
-        <v>23.857142857142801</v>
+        <v>26.176470588235201</v>
       </c>
       <c r="F40" s="4">
-        <v>0.17284044761657999</v>
+        <v>0.12784790761737</v>
       </c>
       <c r="G40" s="3">
-        <v>3.0590656744256699</v>
+        <v>3.0541663017123399</v>
       </c>
       <c r="H40" s="24">
-        <v>2.9438880903822598E-3</v>
+        <v>3.1753050883115501E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.128963826210342</v>
+        <v>0.118535511192867</v>
       </c>
       <c r="J40" s="5">
-        <v>21.7981651376146</v>
+        <v>22.138613861386101</v>
       </c>
       <c r="K40" s="4">
-        <v>6.4171358740809703E-2</v>
+        <v>7.0296853242224094E-2</v>
       </c>
       <c r="L40" s="3">
-        <v>3.5210670651678702</v>
+        <v>3.01125621388119</v>
       </c>
       <c r="N40" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B41" s="13">
         <v>45345</v>
       </c>
@@ -5087,7 +5096,7 @@
         <v>7.0538716065200095E-4</v>
       </c>
       <c r="D41" s="2">
-        <v>0.13639752915891201</v>
+        <v>0.13647039632951299</v>
       </c>
       <c r="E41" s="5">
         <v>30.657142857142802</v>
@@ -5096,24 +5105,62 @@
         <v>2.1625154953702701E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>3.08069082937938</v>
+        <v>3.0757914566660398</v>
       </c>
       <c r="H41" s="24">
-        <v>4.2039168019382001E-3</v>
+        <v>3.9212526608851496E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.13316774301227999</v>
+        <v>0.122456763853752</v>
       </c>
       <c r="J41" s="5">
-        <v>22.661157024793301</v>
+        <v>22.4646464646464</v>
       </c>
       <c r="K41" s="4">
-        <v>9.5265618767888804E-2</v>
+        <v>8.8089554725339095E-2</v>
       </c>
       <c r="L41" s="3">
-        <v>3.6163326839357599</v>
+        <v>3.09934576860653</v>
       </c>
       <c r="N41" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="B42" s="13">
+        <v>45348</v>
+      </c>
+      <c r="C42" s="24">
+        <v>3.3225736202206401E-3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.139792969949733</v>
+      </c>
+      <c r="E42" s="5">
+        <v>26.545454545454501</v>
+      </c>
+      <c r="F42" s="4">
+        <v>8.8199227009493494E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3.16399068367553</v>
+      </c>
+      <c r="H42" s="24">
+        <v>2.9089211937351899E-3</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.12536568504748699</v>
+      </c>
+      <c r="J42" s="5">
+        <v>20.5833333333333</v>
+      </c>
+      <c r="K42" s="4">
+        <v>5.9875294571049502E-2</v>
+      </c>
+      <c r="L42" s="3">
+        <v>3.1592210631775801</v>
+      </c>
+      <c r="N42" s="23" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5F66E6-1D44-4A55-A994-E2E5C1C324F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60172A85-D675-45FC-BDD7-438F99B99FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$43</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1097,132 +1097,138 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$43</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>4.49736663815544E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6771845654710303E-3</c:v>
+                  <c:v>6.8552362729229202E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.20646126576088E-2</c:v>
+                  <c:v>1.2242664365060701E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0648841562449002E-2</c:v>
+                  <c:v>2.1687645474098301E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8999683322704299E-2</c:v>
+                  <c:v>3.0038487234353602E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.45168558379099E-2</c:v>
+                  <c:v>3.55556597495593E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9095242250189103E-2</c:v>
+                  <c:v>5.0134046161838398E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7883965648155102E-2</c:v>
+                  <c:v>6.0701263396872998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.69066074233437E-2</c:v>
+                  <c:v>6.9723905172061604E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2252511301949998E-2</c:v>
+                  <c:v>7.5069809050667902E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5265724781962098E-2</c:v>
+                  <c:v>7.8083022530680002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.8606122227369804E-2</c:v>
+                  <c:v>8.1423419976087694E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0162153310598894E-2</c:v>
+                  <c:v>8.2979451059316797E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6386561414309301E-2</c:v>
+                  <c:v>7.9203859163027204E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6530214835870802E-2</c:v>
+                  <c:v>7.9347512584588595E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.7156834523449097E-2</c:v>
+                  <c:v>8.0221137263381703E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.7877751475479595E-2</c:v>
+                  <c:v>8.0942054215412104E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9934996286348606E-2</c:v>
+                  <c:v>8.2999299026281198E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.5808689104835301E-2</c:v>
+                  <c:v>8.8872991844767907E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.7604561295789404E-2</c:v>
+                  <c:v>9.0668864035721997E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.4119356467935594E-2</c:v>
+                  <c:v>9.7183659207868103E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.7819660336505701E-2</c:v>
+                  <c:v>9.9777030543089701E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.46802483993366E-2</c:v>
+                  <c:v>9.6637618605920503E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.6726926751841302E-2</c:v>
+                  <c:v>9.8684296958425302E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.102123833051357</c:v>
+                  <c:v>0.104081203257941</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.104733939529964</c:v>
+                  <c:v>0.106533818896741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.101123288339023</c:v>
+                  <c:v>0.1029231677058</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.105117121191388</c:v>
+                  <c:v>0.10329858295611601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10669632233033401</c:v>
+                  <c:v>0.104850370597824</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.108541638649746</c:v>
+                  <c:v>0.106574497163159</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11338804614155799</c:v>
+                  <c:v>0.11142090465497199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.121386114197215</c:v>
+                  <c:v>0.119418972710629</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.119383420298886</c:v>
+                  <c:v>0.117416278812299</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.125724146080405</c:v>
+                  <c:v>0.123757004593818</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.127836296711135</c:v>
+                  <c:v>0.125869155224548</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.13088093179920801</c:v>
+                  <c:v>0.12891379031262101</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.135765009168861</c:v>
+                  <c:v>0.133797867682274</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13647039632951299</c:v>
+                  <c:v>0.13473986865312099</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.139792969949733</c:v>
+                  <c:v>0.13925827274480099</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.142949177081625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,8 +1585,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.4145123385534934"/>
-                  <c:y val="-4.9794046264026906E-2"/>
+                  <c:x val="-0.41381302232618411"/>
+                  <c:y val="-4.100227790432802E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1615,10 +1621,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$43</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1735,132 +1741,138 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$43</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.3811437425932101E-3</c:v>
+                  <c:v>4.0473516598901896E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6340414073562393E-3</c:v>
+                  <c:v>8.8225989844549196E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.45914369944807E-2</c:v>
+                  <c:v>1.47799945715794E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8107009062069902E-2</c:v>
+                  <c:v>1.88963720305265E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.21984795233542E-2</c:v>
+                  <c:v>2.29001879393219E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.59859261499754E-2</c:v>
+                  <c:v>2.64186817920949E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7820791064672699E-2</c:v>
+                  <c:v>2.8460500167742198E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1149928309016001E-2</c:v>
+                  <c:v>3.1331816745136E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7552926937519701E-2</c:v>
+                  <c:v>3.7565788247177198E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9817529754575497E-2</c:v>
+                  <c:v>4.0251820025339703E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1888967237485503E-2</c:v>
+                  <c:v>4.2323257508249702E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.32000450408732E-2</c:v>
+                  <c:v>4.2681911337577698E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5288696993138297E-2</c:v>
+                  <c:v>4.4287565813534199E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8240651772987503E-2</c:v>
+                  <c:v>4.7239520593383301E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9671574023670201E-2</c:v>
+                  <c:v>4.8912438050886499E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3137982255733802E-2</c:v>
+                  <c:v>5.2359058932942598E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4780596713064497E-2</c:v>
+                  <c:v>5.42287198645841E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.92325719460602E-2</c:v>
+                  <c:v>5.8818273459569199E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3045369251206004E-2</c:v>
+                  <c:v>6.2631070764715094E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.5407370702103798E-2</c:v>
+                  <c:v>6.5053420771178094E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.8059590125765193E-2</c:v>
+                  <c:v>6.7668294155902906E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.9497903954811494E-2</c:v>
+                  <c:v>6.9160726635593001E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0663303335587596E-2</c:v>
+                  <c:v>7.0339982922038496E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2908487276305403E-2</c:v>
+                  <c:v>7.3028933483094804E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.4825640941166699E-2</c:v>
+                  <c:v>7.5229359754718006E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.8134789660130793E-2</c:v>
+                  <c:v>7.8566945901341501E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.4333833939928896E-2</c:v>
+                  <c:v>8.47659901811397E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.9812975942808806E-2</c:v>
+                  <c:v>9.02451321840195E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.3964014207659402E-2</c:v>
+                  <c:v>9.4599810554970395E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.5533594329662297E-2</c:v>
+                  <c:v>9.6001770564586503E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.9973743166500498E-2</c:v>
+                  <c:v>0.100482992335448</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.101970149858296</c:v>
+                  <c:v>0.102378793267591</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.106592185776041</c:v>
+                  <c:v>0.107022879294319</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.11037935540994</c:v>
+                  <c:v>0.11083124245732801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.112578740145129</c:v>
+                  <c:v>0.11292036890809699</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.115360206104555</c:v>
+                  <c:v>0.115609418047442</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.118535511192867</c:v>
+                  <c:v>0.118736671762031</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.122456763853752</c:v>
+                  <c:v>0.122901018012518</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.12536568504748699</c:v>
+                  <c:v>0.12575057943017701</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.131384037116834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,16 +3279,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3307,8 +3319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L42" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L43" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
@@ -3623,10 +3635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z42"/>
+  <dimension ref="B1:Z43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+      <selection activeCell="Y49" sqref="Y49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3657,7 +3669,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 245%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 249%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3723,26 +3735,26 @@
         <v>0.10388916934139</v>
       </c>
       <c r="H4" s="24">
-        <v>3.3811437425932101E-3</v>
+        <v>4.0473516598901896E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>3.3811437425932101E-3</v>
+        <v>4.0473516598901896E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>28.75</v>
+        <v>30.470588235294102</v>
       </c>
       <c r="K4" s="4">
-        <v>9.7207882599554707E-2</v>
+        <v>0.123325185871948</v>
       </c>
       <c r="L4" s="3">
-        <v>9.7207882599554707E-2</v>
+        <v>0.123325185871948</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.5844351269162457E-3</v>
+        <v>3.5737294270406414E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3750,41 +3762,41 @@
         <v>45293</v>
       </c>
       <c r="C5" s="24">
-        <v>2.1798179273155799E-3</v>
+        <v>2.3578696347674702E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>6.6771845654710303E-3</v>
+        <v>6.8552362729229202E-3</v>
       </c>
       <c r="E5" s="5">
-        <v>25.7777777777777</v>
+        <v>26.210526315789402</v>
       </c>
       <c r="F5" s="4">
-        <v>5.6190862126357398E-2</v>
+        <v>6.1801004111273698E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.16008003146774799</v>
+        <v>0.16569017345266401</v>
       </c>
       <c r="H5" s="24">
-        <v>5.2528976647630296E-3</v>
+        <v>4.7752473245647204E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.6340414073562393E-3</v>
+        <v>8.8225989844549196E-3</v>
       </c>
       <c r="J5" s="5">
-        <v>36.178571428571402</v>
+        <v>35.346153846153797</v>
       </c>
       <c r="K5" s="4">
-        <v>0.190042333371605</v>
+        <v>0.16878662658749899</v>
       </c>
       <c r="L5" s="3">
-        <v>0.28725021597116002</v>
+        <v>0.29211181245944701</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.1127966248090461E-2</v>
+        <v>8.1259347461989484E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3795,7 +3807,7 @@
         <v>5.3874280921377901E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.20646126576088E-2</v>
+        <v>1.2242664365060701E-2</v>
       </c>
       <c r="E6" s="5">
         <v>28.9</v>
@@ -3804,13 +3816,13 @@
         <v>0.15569667186278199</v>
       </c>
       <c r="G6" s="3">
-        <v>0.31577670333052998</v>
+        <v>0.32138684531544598</v>
       </c>
       <c r="H6" s="24">
         <v>5.9573955871245398E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.45914369944807E-2</v>
+        <v>1.47799945715794E-2</v>
       </c>
       <c r="J6" s="5">
         <v>34.736842105263101</v>
@@ -3819,14 +3831,14 @@
         <v>0.20694110986853601</v>
       </c>
       <c r="L6" s="3">
-        <v>0.49419132583969599</v>
+        <v>0.49905292232798398</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>27.070254689095901</v>
+        <v>27.071685440380794</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3834,34 +3846,34 @@
         <v>45295</v>
       </c>
       <c r="C7" s="24">
-        <v>8.5842289048402107E-3</v>
+        <v>9.4449811090376607E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.0648841562449002E-2</v>
+        <v>2.1687645474098301E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>35.8888888888888</v>
+        <v>40.25</v>
       </c>
       <c r="F7" s="4">
-        <v>0.30807843736259799</v>
+        <v>0.38016048963876498</v>
       </c>
       <c r="G7" s="3">
-        <v>0.62385514069312897</v>
+        <v>0.70154733495421195</v>
       </c>
       <c r="H7" s="24">
-        <v>3.5155720675891298E-3</v>
+        <v>4.11637745894708E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.8107009062069902E-2</v>
+        <v>1.88963720305265E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>30.578947368421002</v>
+        <v>31.8333333333333</v>
       </c>
       <c r="K7" s="4">
-        <v>0.107502493224699</v>
+        <v>0.131038015776482</v>
       </c>
       <c r="L7" s="3">
-        <v>0.60169381906439601</v>
+        <v>0.63009093810446604</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3872,7 +3884,7 @@
         <v>8.3508417602552992E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.8999683322704299E-2</v>
+        <v>3.0038487234353602E-2</v>
       </c>
       <c r="E8" s="5">
         <v>22</v>
@@ -3881,29 +3893,29 @@
         <v>0.18371851872561601</v>
       </c>
       <c r="G8" s="3">
-        <v>0.80757365941874504</v>
+        <v>0.88526585367982902</v>
       </c>
       <c r="H8" s="24">
-        <v>4.0914704612843699E-3</v>
+        <v>4.0038159087953497E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>2.21984795233542E-2</v>
+        <v>2.29001879393219E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>57.096774193548299</v>
+        <v>57.766666666666602</v>
       </c>
       <c r="K8" s="4">
-        <v>0.23360976504752701</v>
+        <v>0.23128709899807801</v>
       </c>
       <c r="L8" s="3">
-        <v>0.83530358411192296</v>
+        <v>0.86137803710254401</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.2145047448073646E-3</v>
+        <v>3.2846009279208651E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3914,7 +3926,7 @@
         <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.45168558379099E-2</v>
+        <v>3.55556597495593E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3923,29 +3935,29 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>1.0248123272049601</v>
+        <v>1.10250452146605</v>
       </c>
       <c r="H9" s="24">
-        <v>3.7874466266211702E-3</v>
+        <v>3.5184938527730802E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>2.59859261499754E-2</v>
+        <v>2.64186817920949E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>23.622222222222199</v>
+        <v>22.659090909090899</v>
       </c>
       <c r="K9" s="4">
-        <v>8.94679058688512E-2</v>
+        <v>7.9725872073062906E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>0.92477148998077396</v>
+        <v>0.94110390917560705</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>8.1005668286604576E-2</v>
+        <v>7.9753454560454712E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3956,7 +3968,7 @@
         <v>1.45783864122791E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>4.9095242250189103E-2</v>
+        <v>5.0134046161838398E-2</v>
       </c>
       <c r="E10" s="5">
         <v>13.8823529411764</v>
@@ -3965,29 +3977,29 @@
         <v>0.20238230548811001</v>
       </c>
       <c r="G10" s="3">
-        <v>1.2271946326930701</v>
+        <v>1.30488682695416</v>
       </c>
       <c r="H10" s="24">
-        <v>1.83486491469729E-3</v>
+        <v>2.0418183756471999E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>2.7820791064672699E-2</v>
+        <v>2.8460500167742198E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>14.7173913043478</v>
+        <v>15.090909090908999</v>
       </c>
       <c r="K10" s="4">
-        <v>2.7004424940218898E-2</v>
+        <v>3.08128954870397E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>0.951775914920993</v>
+        <v>0.97191680466264696</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>26.45353247866279</v>
+        <v>26.509908909883318</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -3995,34 +4007,34 @@
         <v>45301</v>
       </c>
       <c r="C11" s="24">
-        <v>8.7887233979660109E-3</v>
+        <v>1.0567217235034501E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>5.7883965648155102E-2</v>
+        <v>6.0701263396872998E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>10.5555555555555</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4">
-        <v>9.2769858089641194E-2</v>
+        <v>0.105672172350345</v>
       </c>
       <c r="G11" s="3">
-        <v>1.3199644907827099</v>
+        <v>1.4105589993045</v>
       </c>
       <c r="H11" s="24">
-        <v>3.3291372443432902E-3</v>
+        <v>2.8713165773937999E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.1149928309016001E-2</v>
+        <v>3.1331816745136E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>19.482758620689602</v>
+        <v>17.75</v>
       </c>
       <c r="K11" s="4">
-        <v>6.4860777346688298E-2</v>
+        <v>5.0965869248739998E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.0166366922676799</v>
+        <v>1.0228826739113801</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4033,7 +4045,7 @@
         <v>9.0226417751885796E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>6.69066074233437E-2</v>
+        <v>6.9723905172061604E-2</v>
       </c>
       <c r="E12" s="5">
         <v>20.5</v>
@@ -4042,29 +4054,29 @@
         <v>0.18496415639136499</v>
       </c>
       <c r="G12" s="3">
-        <v>1.5049286471740799</v>
+        <v>1.59552315569587</v>
       </c>
       <c r="H12" s="24">
-        <v>6.4029986285036996E-3</v>
+        <v>6.2339715020412302E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>3.7552926937519701E-2</v>
+        <v>3.7565788247177198E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>18.586956521739101</v>
+        <v>16.886363636363601</v>
       </c>
       <c r="K12" s="4">
-        <v>0.11901225711675301</v>
+        <v>0.10526910968219599</v>
       </c>
       <c r="L12" s="3">
-        <v>1.13564894938443</v>
+        <v>1.1281517835935799</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.4016011778294697E-3</v>
+        <v>3.4306808621768982E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4075,7 +4087,7 @@
         <v>5.3459038786062996E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>7.2252511301949998E-2</v>
+        <v>7.5069809050667902E-2</v>
       </c>
       <c r="E13" s="5">
         <v>27</v>
@@ -4084,29 +4096,29 @@
         <v>0.14433940472237</v>
       </c>
       <c r="G13" s="3">
-        <v>1.64926805189645</v>
+        <v>1.7398625604182401</v>
       </c>
       <c r="H13" s="24">
-        <v>2.2646028170557699E-3</v>
+        <v>2.6860317781625298E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>3.9817529754575497E-2</v>
+        <v>4.0251820025339703E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>18.350000000000001</v>
+        <v>18.473684210526301</v>
       </c>
       <c r="K13" s="4">
-        <v>4.1555461692973403E-2</v>
+        <v>4.9620902849213201E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.1772044110774</v>
+        <v>1.17777268644279</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.1067521850049257E-2</v>
+        <v>8.0514295282564555E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4117,7 +4129,7 @@
         <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.5265724781962098E-2</v>
+        <v>7.8083022530680002E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4126,13 +4138,13 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.70400809678334</v>
+        <v>1.79460260530513</v>
       </c>
       <c r="H14" s="24">
         <v>2.0714374829100099E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>4.1888967237485503E-2</v>
+        <v>4.2323257508249702E-2</v>
       </c>
       <c r="J14" s="5">
         <v>25.875</v>
@@ -4141,7 +4153,7 @@
         <v>5.3598444870296601E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.2308028559477</v>
+        <v>1.23137113131309</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4152,7 +4164,7 @@
         <v>3.34039744540771E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.8606122227369804E-2</v>
+        <v>8.1423419976087694E-2</v>
       </c>
       <c r="E15" s="5">
         <v>25.571428571428498</v>
@@ -4161,22 +4173,22 @@
         <v>8.5418734675425795E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.78942683145876</v>
+        <v>1.8800213399805501</v>
       </c>
       <c r="H15" s="24">
-        <v>1.3110778033877E-3</v>
+        <v>3.5865382932792199E-4</v>
       </c>
       <c r="I15" s="2">
-        <v>4.32000450408732E-2</v>
+        <v>4.2681911337577698E-2</v>
       </c>
       <c r="J15" s="5">
-        <v>110.666666666666</v>
+        <v>121.30769230769199</v>
       </c>
       <c r="K15" s="4">
-        <v>0.145092610241572</v>
+        <v>4.3507468373087201E-2</v>
       </c>
       <c r="L15" s="3">
-        <v>1.3758954661892699</v>
+        <v>1.27487859968618</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4193,7 +4205,7 @@
         <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.0162153310598894E-2</v>
+        <v>8.2979451059316797E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4202,33 +4214,33 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.83299570178918</v>
+        <v>1.9235902103109701</v>
       </c>
       <c r="H16" s="24">
-        <v>2.0886519522651001E-3</v>
+        <v>1.6056544759565001E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>4.5288696993138297E-2</v>
+        <v>4.4287565813534199E-2</v>
       </c>
       <c r="J16" s="5">
-        <v>37.034482758620598</v>
+        <v>35.1111111111111</v>
       </c>
       <c r="K16" s="4">
-        <v>7.7352144714921398E-2</v>
+        <v>5.6376312711361697E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.4532476109041901</v>
+        <v>1.3312549123975399</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.3372083509599904</v>
+        <v>1.3542033154699462</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.4538084437629455</v>
+        <v>2.4905365650422819</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4239,7 +4251,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>7.6386561414309301E-2</v>
+        <v>7.9203859163027204E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4248,13 +4260,13 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.62533814749325</v>
+        <v>1.7159326560150401</v>
       </c>
       <c r="H17" s="24">
         <v>2.9519547798491602E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>4.8240651772987503E-2</v>
+        <v>4.7239520593383301E-2</v>
       </c>
       <c r="J17" s="5">
         <v>16</v>
@@ -4263,18 +4275,18 @@
         <v>4.7231276477586598E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.50047888738178</v>
+        <v>1.3784861888751201</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>7.3062803939834495</v>
+        <v>7.457323907159374</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>20.995488801595481</v>
+        <v>21.581881671528041</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4288,7 +4300,7 @@
         <v>1.43653421561418E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>7.6530214835870802E-2</v>
+        <v>7.9347512584588595E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.636363636363601</v>
@@ -4297,22 +4309,22 @@
         <v>2.82083082338784E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.6281589783166399</v>
+        <v>1.71875348683843</v>
       </c>
       <c r="H18" s="24">
-        <v>1.4309222506827201E-3</v>
+        <v>1.6729174575032099E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>4.9671574023670201E-2</v>
+        <v>4.8912438050886499E-2</v>
       </c>
       <c r="J18" s="5">
-        <v>29.3333333333333</v>
+        <v>29.478260869565201</v>
       </c>
       <c r="K18" s="4">
-        <v>4.1973719353360001E-2</v>
+        <v>4.93146972255296E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>1.5424526067351401</v>
+        <v>1.4278008861006499</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4320,34 +4332,34 @@
         <v>45314</v>
       </c>
       <c r="C19" s="24">
-        <v>6.2661968757838304E-4</v>
+        <v>8.7362467879305598E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>7.7156834523449097E-2</v>
+        <v>8.0221137263381703E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>32.1111111111111</v>
+        <v>32.75</v>
       </c>
       <c r="F19" s="4">
-        <v>2.0121454412239202E-2</v>
+        <v>2.8611208230472501E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.64828043272888</v>
+        <v>1.7473646950688999</v>
       </c>
       <c r="H19" s="24">
-        <v>3.4664082320636398E-3</v>
+        <v>3.4466208820560099E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>5.3137982255733802E-2</v>
+        <v>5.2359058932942598E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>26.727272727272702</v>
+        <v>25.380952380952301</v>
       </c>
       <c r="K19" s="4">
-        <v>9.2647638202428301E-2</v>
+        <v>8.7478520482659902E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>1.63510024493757</v>
+        <v>1.51527940658331</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4358,7 +4370,7 @@
         <v>7.2091695203043901E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>7.7877751475479595E-2</v>
+        <v>8.0942054215412104E-2</v>
       </c>
       <c r="E20" s="5">
         <v>37.4</v>
@@ -4367,22 +4379,22 @@
         <v>2.69622940059384E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.67524272673482</v>
+        <v>1.7743269890748401</v>
       </c>
       <c r="H20" s="24">
-        <v>1.6426144573306501E-3</v>
+        <v>1.86966093164153E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>5.4780596713064497E-2</v>
+        <v>5.42287198645841E-2</v>
       </c>
       <c r="J20" s="5">
-        <v>16.684210526315699</v>
+        <v>16.0555555555555</v>
       </c>
       <c r="K20" s="4">
-        <v>2.7405725419674499E-2</v>
+        <v>3.0018444958022299E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>1.66250597035724</v>
+        <v>1.54529785154134</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4393,7 +4405,7 @@
         <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>7.9934996286348606E-2</v>
+        <v>8.2999299026281198E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.3333333333333</v>
@@ -4402,22 +4414,22 @@
         <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.7458747985746501</v>
+        <v>1.84495906091467</v>
       </c>
       <c r="H21" s="24">
-        <v>4.4519752329957004E-3</v>
+        <v>4.5895535949851199E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>5.92325719460602E-2</v>
+        <v>5.8818273459569199E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>19.292682926829201</v>
+        <v>19.05</v>
       </c>
       <c r="K21" s="4">
-        <v>8.5890546568282905E-2</v>
+        <v>8.7430995984466506E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>1.74839651692553</v>
+        <v>1.6327288475257999</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4428,7 +4440,7 @@
         <v>5.8736928184867096E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>8.5808689104835301E-2</v>
+        <v>8.8872991844767907E-2</v>
       </c>
       <c r="E22" s="5">
         <v>27.8888888888888</v>
@@ -4437,13 +4449,13 @@
         <v>0.16381076638223999</v>
       </c>
       <c r="G22" s="3">
-        <v>1.90968556495689</v>
+        <v>2.0087698272969101</v>
       </c>
       <c r="H22" s="24">
         <v>3.8127973051458302E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>6.3045369251206004E-2</v>
+        <v>6.2631070764715094E-2</v>
       </c>
       <c r="J22" s="5">
         <v>28.515151515151501</v>
@@ -4452,7 +4464,7 @@
         <v>0.10872249285279401</v>
       </c>
       <c r="L22" s="3">
-        <v>1.8571190097783199</v>
+        <v>1.7414513403786001</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4463,7 +4475,7 @@
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.7604561295789404E-2</v>
+        <v>9.0668864035721997E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4472,22 +4484,22 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>1.9865488947297301</v>
+        <v>2.0856331570697502</v>
       </c>
       <c r="H23" s="24">
-        <v>2.3620014508977999E-3</v>
+        <v>2.4223500064630599E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>6.5407370702103798E-2</v>
+        <v>6.5053420771178094E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>26.7959183673469</v>
+        <v>26.6666666666666</v>
       </c>
       <c r="K23" s="4">
-        <v>6.3291998061812405E-2</v>
+        <v>6.4596000172348303E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>1.92041100784013</v>
+        <v>1.8060473405509501</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4498,7 +4510,7 @@
         <v>6.5147951721461804E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>9.4119356467935594E-2</v>
+        <v>9.7183659207868103E-2</v>
       </c>
       <c r="E24" s="5">
         <v>27.782608695652101</v>
@@ -4507,22 +4519,22 @@
         <v>0.180998005000061</v>
       </c>
       <c r="G24" s="3">
-        <v>2.16754689972979</v>
+        <v>2.2666311620698099</v>
       </c>
       <c r="H24" s="24">
-        <v>2.6522194236613698E-3</v>
+        <v>2.6148733847248199E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>6.8059590125765193E-2</v>
+        <v>6.7668294155902906E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>29.634146341463399</v>
+        <v>28.824999999999999</v>
       </c>
       <c r="K24" s="4">
-        <v>7.8596258530452906E-2</v>
+        <v>7.5373725314692996E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>1.99900726637059</v>
+        <v>1.8814210658656401</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4530,34 +4542,34 @@
         <v>45322</v>
       </c>
       <c r="C25" s="24">
-        <v>3.7003038685701501E-3</v>
+        <v>2.5933713352215399E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.7819660336505701E-2</v>
+        <v>9.9777030543089701E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>28.84</v>
+        <v>30</v>
       </c>
       <c r="F25" s="4">
-        <v>0.106716763569563</v>
+        <v>7.7801140056646304E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>2.27426366329935</v>
+        <v>2.3444323021264601</v>
       </c>
       <c r="H25" s="24">
-        <v>1.43831382904624E-3</v>
+        <v>1.4924324796900101E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>6.9497903954811494E-2</v>
+        <v>6.9160726635593001E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>38.516129032258</v>
+        <v>37.866666666666603</v>
       </c>
       <c r="K25" s="4">
-        <v>5.5398281028426401E-2</v>
+        <v>5.6513443230928502E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>2.0544055473990102</v>
+        <v>1.9379345090965701</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4568,7 +4580,7 @@
         <v>-3.1394119371691499E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.46802483993366E-2</v>
+        <v>9.6637618605920503E-2</v>
       </c>
       <c r="E26" s="5">
         <v>42.75</v>
@@ -4577,22 +4589,22 @@
         <v>-0.13420986031398099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.1400538029853702</v>
+        <v>2.2102224418124798</v>
       </c>
       <c r="H26" s="24">
-        <v>1.1653993807761601E-3</v>
+        <v>1.1792562864455E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>7.0663303335587596E-2</v>
+        <v>7.0339982922038496E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>26.162162162162101</v>
+        <v>26.0694444444444</v>
       </c>
       <c r="K26" s="4">
-        <v>3.0489367583549198E-2</v>
+        <v>3.0742556245252899E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.0848949149825602</v>
+        <v>1.96867706534182</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4603,7 +4615,7 @@
         <v>2.0466783525047699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.6726926751841302E-2</v>
+        <v>9.8684296958425302E-2</v>
       </c>
       <c r="E27" s="5">
         <v>15.4117647058823</v>
@@ -4612,22 +4624,22 @@
         <v>3.1542925197426401E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.1715967281827999</v>
+        <v>2.2417653670098998</v>
       </c>
       <c r="H27" s="24">
-        <v>2.24518394071784E-3</v>
+        <v>2.6889505610563501E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>7.2908487276305403E-2</v>
+        <v>7.3028933483094804E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>20.337349397590302</v>
+        <v>20</v>
       </c>
       <c r="K27" s="4">
-        <v>4.5661090264237501E-2</v>
+        <v>5.3779011221127E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.1305560052467998</v>
+        <v>2.0224560765629498</v>
       </c>
     </row>
     <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4638,7 +4650,7 @@
         <v>5.3969062995158201E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.102123833051357</v>
+        <v>0.104081203257941</v>
       </c>
       <c r="E28" s="5">
         <v>27.8</v>
@@ -4647,22 +4659,22 @@
         <v>0.150033995126539</v>
       </c>
       <c r="G28" s="3">
-        <v>2.3216307233093398</v>
+        <v>2.3917993621364402</v>
       </c>
       <c r="H28" s="24">
-        <v>1.91715366486127E-3</v>
+        <v>2.2004262716231698E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>7.4825640941166699E-2</v>
+        <v>7.5229359754718006E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>20.803921568627398</v>
+        <v>20.755102040816301</v>
       </c>
       <c r="K28" s="4">
-        <v>3.9884314478780603E-2</v>
+        <v>4.56700718008319E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.1704403197255799</v>
+        <v>2.0681261483637798</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4670,37 +4682,37 @@
         <v>45328</v>
       </c>
       <c r="C29" s="24">
-        <v>2.61010647860684E-3</v>
+        <v>2.4526156387998598E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.104733939529964</v>
+        <v>0.106533818896741</v>
       </c>
       <c r="E29" s="5">
-        <v>27.117647058823501</v>
+        <v>23.3125</v>
       </c>
       <c r="F29" s="4">
-        <v>7.0779946272809202E-2</v>
+        <v>5.7176602079521903E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.3924106695821501</v>
+        <v>2.4489759642159599</v>
       </c>
       <c r="H29" s="24">
-        <v>3.3091487189640901E-3</v>
+        <v>3.3375861466235501E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>7.8134789660130793E-2</v>
+        <v>7.8566945901341501E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>19.797872340425499</v>
+        <v>19.728260869565201</v>
       </c>
       <c r="K29" s="4">
-        <v>6.5514103893533904E-2</v>
+        <v>6.5844770175236406E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.23595442361911</v>
+        <v>2.1339709185390201</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:26" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="13">
         <v>45329</v>
       </c>
@@ -4708,7 +4720,7 @@
         <v>-3.61065119094009E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.101123288339023</v>
+        <v>0.1029231677058</v>
       </c>
       <c r="E30" s="5">
         <v>30.25</v>
@@ -4717,13 +4729,13 @@
         <v>-0.10922219852593799</v>
       </c>
       <c r="G30" s="3">
-        <v>2.28318847105621</v>
+        <v>2.33975376569003</v>
       </c>
       <c r="H30" s="24">
         <v>6.1990442797981403E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>8.4333833939928896E-2</v>
+        <v>8.47659901811397E-2</v>
       </c>
       <c r="J30" s="5">
         <v>17.8840579710144</v>
@@ -4732,7 +4744,7 @@
         <v>0.110864067264795</v>
       </c>
       <c r="L30" s="3">
-        <v>2.3468184908839098</v>
+        <v>2.2448349858038101</v>
       </c>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.35">
@@ -4740,25 +4752,25 @@
         <v>45330</v>
       </c>
       <c r="C31" s="24">
-        <v>3.9938328523645697E-3</v>
+        <v>3.7541525031581802E-4</v>
       </c>
       <c r="D31" s="2">
-        <v>0.105117121191388</v>
+        <v>0.10329858295611601</v>
       </c>
       <c r="E31" s="5">
-        <v>24.615384615384599</v>
+        <v>25.090909090909001</v>
       </c>
       <c r="F31" s="4">
-        <v>9.8309731750512497E-2</v>
+        <v>9.4195099170150693E-3</v>
       </c>
       <c r="G31" s="3">
-        <v>2.38149820280672</v>
+        <v>2.3491732756070398</v>
       </c>
       <c r="H31" s="24">
         <v>5.4791420028798702E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>8.9812975942808806E-2</v>
+        <v>9.02451321840195E-2</v>
       </c>
       <c r="J31" s="5">
         <v>18.75</v>
@@ -4767,7 +4779,7 @@
         <v>0.102733912553997</v>
       </c>
       <c r="L31" s="3">
-        <v>2.4495524034379099</v>
+        <v>2.3475688983578098</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4775,34 +4787,34 @@
         <v>45331</v>
       </c>
       <c r="C32" s="24">
-        <v>1.57920113894559E-3</v>
+        <v>1.55178764170779E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.10669632233033401</v>
+        <v>0.104850370597824</v>
       </c>
       <c r="E32" s="5">
-        <v>29.588235294117599</v>
+        <v>28.3125</v>
       </c>
       <c r="F32" s="4">
-        <v>4.6725774875860798E-2</v>
+        <v>4.3934987605851898E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.4282239776825798</v>
+        <v>2.3931082632128899</v>
       </c>
       <c r="H32" s="24">
-        <v>4.1510382648505704E-3</v>
+        <v>4.3546783709508801E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>9.3964014207659402E-2</v>
+        <v>9.4599810554970395E-2</v>
       </c>
       <c r="J32" s="5">
-        <v>14.8767123287671</v>
+        <v>14.785714285714199</v>
       </c>
       <c r="K32" s="4">
-        <v>6.1753802131886498E-2</v>
+        <v>6.4387030199059406E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>2.5113062055697899</v>
+        <v>2.4119559285568699</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4810,34 +4822,34 @@
         <v>45334</v>
       </c>
       <c r="C33" s="24">
-        <v>1.8453163194119401E-3</v>
+        <v>1.72412656533466E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.108541638649746</v>
+        <v>0.106574497163159</v>
       </c>
       <c r="E33" s="5">
-        <v>23.409090909090899</v>
+        <v>24.047619047619001</v>
       </c>
       <c r="F33" s="4">
-        <v>4.3197177477143203E-2</v>
+        <v>4.1461138833047903E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.4714211551597298</v>
+        <v>2.4345694020459399</v>
       </c>
       <c r="H33" s="24">
-        <v>1.56958012200286E-3</v>
+        <v>1.4019600096160901E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>9.5533594329662297E-2</v>
+        <v>9.6001770564586503E-2</v>
       </c>
       <c r="J33" s="5">
-        <v>20.279411764705799</v>
+        <v>20.753623188405701</v>
       </c>
       <c r="K33" s="4">
-        <v>3.1830161591793402E-2</v>
+        <v>2.90957497647861E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>2.5431363671615901</v>
+        <v>2.4410516783216498</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4848,7 +4860,7 @@
         <v>4.8464074918128696E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.11338804614155799</v>
+        <v>0.11142090465497199</v>
       </c>
       <c r="E34" s="5">
         <v>16.3928571428571</v>
@@ -4857,22 +4869,22 @@
         <v>7.9446465669361102E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>2.5508676208290901</v>
+        <v>2.5140158677153002</v>
       </c>
       <c r="H34" s="24">
-        <v>4.4401488368381904E-3</v>
+        <v>4.4812217708615799E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>9.9973743166500498E-2</v>
+        <v>0.100482992335448</v>
       </c>
       <c r="J34" s="5">
-        <v>21.735632183907999</v>
+        <v>21.8488372093023</v>
       </c>
       <c r="K34" s="4">
-        <v>9.6509441959322206E-2</v>
+        <v>9.7909484970336302E-2</v>
       </c>
       <c r="L34" s="3">
-        <v>2.6396458091209101</v>
+        <v>2.5389611632919902</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4883,7 +4895,7 @@
         <v>7.9980680556569293E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.121386114197215</v>
+        <v>0.119418972710629</v>
       </c>
       <c r="E35" s="5">
         <v>16.125</v>
@@ -4892,22 +4904,22 @@
         <v>0.128968847397467</v>
       </c>
       <c r="G35" s="3">
-        <v>2.6798364682265499</v>
+        <v>2.6429847151127701</v>
       </c>
       <c r="H35" s="24">
-        <v>1.9964066917964201E-3</v>
+        <v>1.8958009321437699E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.101970149858296</v>
+        <v>0.102378793267591</v>
       </c>
       <c r="J35" s="5">
-        <v>15.9479166666666</v>
+        <v>16.5208333333333</v>
       </c>
       <c r="K35" s="4">
-        <v>3.1838527553545E-2</v>
+        <v>3.13202112331252E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>2.6714843366744598</v>
+        <v>2.5702813745251198</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4918,7 +4930,7 @@
         <v>-2.00269389832986E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.119383420298886</v>
+        <v>0.117416278812299</v>
       </c>
       <c r="E36" s="5">
         <v>25.1</v>
@@ -4927,22 +4939,22 @@
         <v>-5.0267616848079698E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.6295688513784801</v>
+        <v>2.5927170982646901</v>
       </c>
       <c r="H36" s="24">
-        <v>4.6220359177444499E-3</v>
+        <v>4.6440860267273698E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.106592185776041</v>
+        <v>0.107022879294319</v>
       </c>
       <c r="J36" s="5">
-        <v>20.274725274725199</v>
+        <v>20.011363636363601</v>
       </c>
       <c r="K36" s="4">
-        <v>9.3710508442181595E-2</v>
+        <v>9.2934494239396703E-2</v>
       </c>
       <c r="L36" s="3">
-        <v>2.7651948451166399</v>
+        <v>2.6632158687645102</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4953,7 +4965,7 @@
         <v>6.3407257815193E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.125724146080405</v>
+        <v>0.123757004593818</v>
       </c>
       <c r="E37" s="5">
         <v>32.700000000000003</v>
@@ -4962,22 +4974,22 @@
         <v>0.20734173305568099</v>
       </c>
       <c r="G37" s="3">
-        <v>2.8369105844341602</v>
+        <v>2.8000588313203698</v>
       </c>
       <c r="H37" s="24">
-        <v>3.7871696338986501E-3</v>
+        <v>3.8083631630088199E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.11037935540994</v>
+        <v>0.11083124245732801</v>
       </c>
       <c r="J37" s="5">
-        <v>15.2</v>
+        <v>16.024096385542101</v>
       </c>
       <c r="K37" s="4">
-        <v>5.7564978435259602E-2</v>
+        <v>6.10255783952015E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>2.8227598235519</v>
+        <v>2.7242414471597098</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -4988,7 +5000,7 @@
         <v>2.1121506307297702E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.127836296711135</v>
+        <v>0.125869155224548</v>
       </c>
       <c r="E38" s="5">
         <v>23.590909090909001</v>
@@ -4997,22 +5009,22 @@
         <v>4.9827553515852302E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.8867381379500099</v>
+        <v>2.8498863848362199</v>
       </c>
       <c r="H38" s="24">
-        <v>2.19938473518916E-3</v>
+        <v>2.0891264507689098E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.112578740145129</v>
+        <v>0.11292036890809699</v>
       </c>
       <c r="J38" s="5">
-        <v>22.84375</v>
+        <v>23.2717391304347</v>
       </c>
       <c r="K38" s="4">
-        <v>5.0242195044477397E-2</v>
+        <v>4.8617605772785198E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>2.8730020185963698</v>
+        <v>2.7728590529325001</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -5023,7 +5035,7 @@
         <v>3.0446350880736499E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.13088093179920801</v>
+        <v>0.12891379031262101</v>
       </c>
       <c r="E39" s="5">
         <v>13</v>
@@ -5032,25 +5044,25 @@
         <v>3.9580256144957499E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.9263183940949702</v>
+        <v>2.8894666409811798</v>
       </c>
       <c r="H39" s="24">
-        <v>2.7814659594262601E-3</v>
+        <v>2.6890491393450401E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.115360206104555</v>
+        <v>0.115609418047442</v>
       </c>
       <c r="J39" s="5">
-        <v>24.432203389830502</v>
+        <v>24.070175438596401</v>
       </c>
       <c r="K39" s="4">
-        <v>6.7957342042592503E-2</v>
+        <v>6.4725884547042006E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>2.9409593606389701</v>
+        <v>2.8375849374795399</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="13">
         <v>45344</v>
       </c>
@@ -5058,7 +5070,7 @@
         <v>4.88407736965237E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.135765009168861</v>
+        <v>0.133797867682274</v>
       </c>
       <c r="E40" s="5">
         <v>26.176470588235201</v>
@@ -5067,25 +5079,22 @@
         <v>0.12784790761737</v>
       </c>
       <c r="G40" s="3">
-        <v>3.0541663017123399</v>
+        <v>3.01731454859855</v>
       </c>
       <c r="H40" s="24">
-        <v>3.1753050883115501E-3</v>
+        <v>3.1272537145894401E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.118535511192867</v>
+        <v>0.118736671762031</v>
       </c>
       <c r="J40" s="5">
-        <v>22.138613861386101</v>
+        <v>22.7083333333333</v>
       </c>
       <c r="K40" s="4">
-        <v>7.0296853242224094E-2</v>
+        <v>7.1014719768801901E-2</v>
       </c>
       <c r="L40" s="3">
-        <v>3.01125621388119</v>
-      </c>
-      <c r="N40" s="23" t="s">
-        <v>18</v>
+        <v>2.9085996572483399</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -5093,74 +5102,112 @@
         <v>45345</v>
       </c>
       <c r="C41" s="24">
-        <v>7.0538716065200095E-4</v>
+        <v>9.4200097084764503E-4</v>
       </c>
       <c r="D41" s="2">
-        <v>0.13647039632951299</v>
+        <v>0.13473986865312099</v>
       </c>
       <c r="E41" s="5">
-        <v>30.657142857142802</v>
+        <v>32.78125</v>
       </c>
       <c r="F41" s="4">
-        <v>2.1625154953702701E-2</v>
+        <v>3.0879969325599301E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>3.0757914566660398</v>
+        <v>3.0481945179241499</v>
       </c>
       <c r="H41" s="24">
-        <v>3.9212526608851496E-3</v>
+        <v>4.1643462504871902E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.122456763853752</v>
+        <v>0.122901018012518</v>
       </c>
       <c r="J41" s="5">
-        <v>22.4646464646464</v>
+        <v>22.010752688172001</v>
       </c>
       <c r="K41" s="4">
-        <v>8.8089554725339095E-2</v>
+        <v>9.1660395427390198E-2</v>
       </c>
       <c r="L41" s="3">
-        <v>3.09934576860653</v>
+        <v>3.0002600526757299</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B42" s="13">
         <v>45348</v>
       </c>
       <c r="C42" s="24">
-        <v>3.3225736202206401E-3</v>
+        <v>4.5184040916795504E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.139792969949733</v>
+        <v>0.13925827274480099</v>
       </c>
       <c r="E42" s="5">
-        <v>26.545454545454501</v>
+        <v>23.636363636363601</v>
       </c>
       <c r="F42" s="4">
-        <v>8.8199227009493494E-2</v>
+        <v>0.10679864216697101</v>
       </c>
       <c r="G42" s="3">
-        <v>3.16399068367553</v>
+        <v>3.1549931600911201</v>
       </c>
       <c r="H42" s="24">
-        <v>2.9089211937351899E-3</v>
+        <v>2.84956141765895E-3</v>
       </c>
       <c r="I42" s="2">
-        <v>0.12536568504748699</v>
+        <v>0.12575057943017701</v>
       </c>
       <c r="J42" s="5">
-        <v>20.5833333333333</v>
+        <v>20.95</v>
       </c>
       <c r="K42" s="4">
-        <v>5.9875294571049502E-2</v>
+        <v>5.9698311699955001E-2</v>
       </c>
       <c r="L42" s="3">
-        <v>3.1592210631775801</v>
+        <v>3.05995836437569</v>
       </c>
       <c r="N42" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="B43" s="13">
+        <v>45349</v>
+      </c>
+      <c r="C43" s="24">
+        <v>3.69090433682442E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.142949177081625</v>
+      </c>
+      <c r="E43" s="5">
+        <v>25.842105263157801</v>
+      </c>
+      <c r="F43" s="4">
+        <v>9.5380738388462602E-2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3.25037389847959</v>
+      </c>
+      <c r="H43" s="24">
+        <v>5.6334576866570703E-3</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.131384037116834</v>
+      </c>
+      <c r="J43" s="5">
+        <v>23.108333333333299</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.13017981804250001</v>
+      </c>
+      <c r="L43" s="3">
+        <v>3.19013818241819</v>
+      </c>
+      <c r="N43" s="23" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60172A85-D675-45FC-BDD7-438F99B99FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E13497B-3926-49A7-A732-F139EDF55276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$44</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1100,135 +1100,141 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$44</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>4.49736663815544E-3</c:v>
+                  <c:v>3.4422026957734598E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8552362729229202E-3</c:v>
+                  <c:v>5.80007233054094E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2242664365060701E-2</c:v>
+                  <c:v>1.1357047134135901E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1687645474098301E-2</c:v>
+                  <c:v>2.0802028243173599E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0038487234353602E-2</c:v>
+                  <c:v>2.91528700034289E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.55556597495593E-2</c:v>
+                  <c:v>3.4670042518634502E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0134046161838398E-2</c:v>
+                  <c:v>4.94794102557733E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0701263396872998E-2</c:v>
+                  <c:v>6.00466274908079E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9723905172061604E-2</c:v>
+                  <c:v>6.7804542151937E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5069809050667902E-2</c:v>
+                  <c:v>7.4160307827294894E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8083022530680002E-2</c:v>
+                  <c:v>7.7173521307306994E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1423419976087694E-2</c:v>
+                  <c:v>8.05139187527147E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2979451059316797E-2</c:v>
+                  <c:v>8.2069949835943803E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.9203859163027204E-2</c:v>
+                  <c:v>7.8294357939654197E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9347512584588595E-2</c:v>
+                  <c:v>7.8438011361215601E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0221137263381703E-2</c:v>
+                  <c:v>7.9311636040008696E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0942054215412104E-2</c:v>
+                  <c:v>8.0032552992039097E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2999299026281198E-2</c:v>
+                  <c:v>8.2089797802908204E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8872991844767907E-2</c:v>
+                  <c:v>8.7963490621394899E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0668864035721997E-2</c:v>
+                  <c:v>8.9759362812348906E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.7183659207868103E-2</c:v>
+                  <c:v>9.6362502640622502E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.9777030543089701E-2</c:v>
+                  <c:v>0.10024548319226299</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.6637618605920503E-2</c:v>
+                  <c:v>9.7106071255093906E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.8684296958425302E-2</c:v>
+                  <c:v>9.8997144544676299E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.104081203257941</c:v>
+                  <c:v>0.104394050844192</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.106533818896741</c:v>
+                  <c:v>0.106795091970542</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1029231677058</c:v>
+                  <c:v>0.103184440779602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10329858295611601</c:v>
+                  <c:v>0.103237616364517</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.104850370597824</c:v>
+                  <c:v>0.103678986236747</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.106574497163159</c:v>
+                  <c:v>0.10540311280208101</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11142090465497199</c:v>
+                  <c:v>0.110303270565309</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.119418972710629</c:v>
+                  <c:v>0.118627164395436</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.117416278812299</c:v>
+                  <c:v>0.116624470497106</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.123757004593818</c:v>
+                  <c:v>0.122965196278625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.125869155224548</c:v>
+                  <c:v>0.12507734690935501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12891379031262101</c:v>
+                  <c:v>0.128171676790793</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.133797867682274</c:v>
+                  <c:v>0.13336538255021199</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13473986865312099</c:v>
+                  <c:v>0.134065861001712</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13925827274480099</c:v>
+                  <c:v>0.13784440150720001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.142949177081625</c:v>
+                  <c:v>0.14153530584402499</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15157554611733801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,10 +1627,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$44</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1744,16 +1750,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$44</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>4.0473516598901896E-3</c:v>
                 </c:pt>
@@ -1764,115 +1773,118 @@
                   <c:v>1.47799945715794E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.88963720305265E-2</c:v>
+                  <c:v>1.9184451246637899E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.29001879393219E-2</c:v>
+                  <c:v>2.33263297729779E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.64186817920949E-2</c:v>
+                  <c:v>2.6916798292034801E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8460500167742198E-2</c:v>
+                  <c:v>2.90002467186713E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1331816745136E-2</c:v>
+                  <c:v>3.1871563296065102E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7565788247177198E-2</c:v>
+                  <c:v>3.8149064497814897E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0251820025339703E-2</c:v>
+                  <c:v>4.0989364683116099E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2323257508249702E-2</c:v>
+                  <c:v>4.3060802166026098E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2681911337577698E-2</c:v>
+                  <c:v>4.3419455995354003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4287565813534199E-2</c:v>
+                  <c:v>4.5025110471310498E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7239520593383301E-2</c:v>
+                  <c:v>4.7977065251159703E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8912438050886499E-2</c:v>
+                  <c:v>4.9649982708662901E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2359058932942598E-2</c:v>
+                  <c:v>5.3096603590718897E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.42287198645841E-2</c:v>
+                  <c:v>5.4966264522360399E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.8818273459569199E-2</c:v>
+                  <c:v>5.9555818117345498E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2631070764715094E-2</c:v>
+                  <c:v>6.3368615422491406E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.5053420771178094E-2</c:v>
+                  <c:v>6.5790965428954504E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.7668294155902906E-2</c:v>
+                  <c:v>6.8405838813679301E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.9160726635593001E-2</c:v>
+                  <c:v>6.9949734482324097E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0339982922038496E-2</c:v>
+                  <c:v>7.1163325437836197E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.3028933483094804E-2</c:v>
+                  <c:v>7.3852275998892505E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5229359754718006E-2</c:v>
+                  <c:v>7.6743274852188695E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.8566945901341501E-2</c:v>
+                  <c:v>8.0117537769654301E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.47659901811397E-2</c:v>
+                  <c:v>8.6372413092407202E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.02451321840195E-2</c:v>
+                  <c:v>9.1144706667414602E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.4599810554970395E-2</c:v>
+                  <c:v>9.5781224681436905E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.6001770564586503E-2</c:v>
+                  <c:v>9.7061432570649295E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.100482992335448</c:v>
+                  <c:v>0.10169476455366799</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.102378793267591</c:v>
+                  <c:v>0.103573459861175</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.107022879294319</c:v>
+                  <c:v>0.10821446043770901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.11083124245732801</c:v>
+                  <c:v>0.112122336945271</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.11292036890809699</c:v>
+                  <c:v>0.114265796765755</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.115609418047442</c:v>
+                  <c:v>0.116837929273037</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.118736671762031</c:v>
+                  <c:v>0.120094378584732</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.122901018012518</c:v>
+                  <c:v>0.124444503576415</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.12575057943017701</c:v>
+                  <c:v>0.127263648843566</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.131384037116834</c:v>
+                  <c:v>0.13090360757855199</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.135890917050981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3282,13 +3294,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3319,8 +3331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L43" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L44" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
@@ -3635,10 +3647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z43"/>
+  <dimension ref="B1:Z44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y49" sqref="Y49"/>
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3669,7 +3681,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 249%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 259%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3720,19 +3732,19 @@
         <v>45289</v>
       </c>
       <c r="C4" s="24">
-        <v>4.49736663815544E-3</v>
+        <v>3.4422026957734598E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>4.49736663815544E-3</v>
+        <v>3.4422026957734598E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>23.1</v>
+        <v>25.5555555555555</v>
       </c>
       <c r="F4" s="4">
-        <v>0.10388916934139</v>
+        <v>8.79674022253219E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>0.10388916934139</v>
+        <v>8.79674022253219E-2</v>
       </c>
       <c r="H4" s="24">
         <v>4.0473516598901896E-3</v>
@@ -3754,7 +3766,7 @@
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.5737294270406414E-3</v>
+        <v>3.6969645394472794E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3765,7 +3777,7 @@
         <v>2.3578696347674702E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>6.8552362729229202E-3</v>
+        <v>5.80007233054094E-3</v>
       </c>
       <c r="E5" s="5">
         <v>26.210526315789402</v>
@@ -3774,7 +3786,7 @@
         <v>6.1801004111273698E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.16569017345266401</v>
+        <v>0.14976840633659499</v>
       </c>
       <c r="H5" s="24">
         <v>4.7752473245647204E-3</v>
@@ -3796,7 +3808,7 @@
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.1259347461989484E-2</v>
+        <v>8.2234103595195493E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3804,19 +3816,19 @@
         <v>45294</v>
       </c>
       <c r="C6" s="24">
-        <v>5.3874280921377901E-3</v>
+        <v>5.5569748035950196E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.2242664365060701E-2</v>
+        <v>1.1357047134135901E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>28.9</v>
+        <v>31.2222222222222</v>
       </c>
       <c r="F6" s="4">
-        <v>0.15569667186278199</v>
+        <v>0.17350110220113299</v>
       </c>
       <c r="G6" s="3">
-        <v>0.32138684531544598</v>
+        <v>0.32326950853772901</v>
       </c>
       <c r="H6" s="24">
         <v>5.9573955871245398E-3</v>
@@ -3838,7 +3850,7 @@
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>27.071685440380794</v>
+        <v>26.918707467560374</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3849,7 +3861,7 @@
         <v>9.4449811090376607E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.1687645474098301E-2</v>
+        <v>2.0802028243173599E-2</v>
       </c>
       <c r="E7" s="5">
         <v>40.25</v>
@@ -3858,22 +3870,22 @@
         <v>0.38016048963876498</v>
       </c>
       <c r="G7" s="3">
-        <v>0.70154733495421195</v>
+        <v>0.70342999817649499</v>
       </c>
       <c r="H7" s="24">
-        <v>4.11637745894708E-3</v>
+        <v>4.4044566750584798E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.88963720305265E-2</v>
+        <v>1.9184451246637899E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>31.8333333333333</v>
+        <v>33.5625</v>
       </c>
       <c r="K7" s="4">
-        <v>0.131038015776482</v>
+        <v>0.14782457715665001</v>
       </c>
       <c r="L7" s="3">
-        <v>0.63009093810446604</v>
+        <v>0.64687749948463402</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3884,7 +3896,7 @@
         <v>8.3508417602552992E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>3.0038487234353602E-2</v>
+        <v>2.91528700034289E-2</v>
       </c>
       <c r="E8" s="5">
         <v>22</v>
@@ -3893,29 +3905,29 @@
         <v>0.18371851872561601</v>
       </c>
       <c r="G8" s="3">
-        <v>0.88526585367982902</v>
+        <v>0.88714851690211105</v>
       </c>
       <c r="H8" s="24">
-        <v>4.0038159087953497E-3</v>
+        <v>4.1418785263400201E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>2.29001879393219E-2</v>
+        <v>2.33263297729779E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>57.766666666666602</v>
+        <v>59.758620689655103</v>
       </c>
       <c r="K8" s="4">
-        <v>0.23128709899807801</v>
+        <v>0.247512947798181</v>
       </c>
       <c r="L8" s="3">
-        <v>0.86137803710254401</v>
+        <v>0.89439044728281503</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.2846009279208651E-3</v>
+        <v>3.3144126109995466E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3926,7 +3938,7 @@
         <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.55556597495593E-2</v>
+        <v>3.4670042518634502E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3935,29 +3947,29 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>1.10250452146605</v>
+        <v>1.10438718468833</v>
       </c>
       <c r="H9" s="24">
-        <v>3.5184938527730802E-3</v>
+        <v>3.5904685190568499E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>2.64186817920949E-2</v>
+        <v>2.6916798292034801E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>22.659090909090899</v>
+        <v>23.170731707317</v>
       </c>
       <c r="K9" s="4">
-        <v>7.9725872073062906E-2</v>
+        <v>8.3193782758634496E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>0.94110390917560705</v>
+        <v>0.97758423004145001</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>7.9753454560454712E-2</v>
+        <v>8.2236498540862471E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3965,41 +3977,41 @@
         <v>45300</v>
       </c>
       <c r="C10" s="24">
-        <v>1.45783864122791E-2</v>
+        <v>1.48093677371388E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>5.0134046161838398E-2</v>
+        <v>4.94794102557733E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>13.8823529411764</v>
+        <v>11.75</v>
       </c>
       <c r="F10" s="4">
-        <v>0.20238230548811001</v>
+        <v>0.17401007091138099</v>
       </c>
       <c r="G10" s="3">
-        <v>1.30488682695416</v>
+        <v>1.2783972555997101</v>
       </c>
       <c r="H10" s="24">
-        <v>2.0418183756471999E-3</v>
+        <v>2.0834484266365602E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>2.8460500167742198E-2</v>
+        <v>2.90002467186713E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>15.090909090908999</v>
+        <v>14.953488372093</v>
       </c>
       <c r="K10" s="4">
-        <v>3.08128954870397E-2</v>
+        <v>3.1154821821565301E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>0.97191680466264696</v>
+        <v>1.0087390518630099</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>26.509908909883318</v>
+        <v>26.879798052152935</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -4010,7 +4022,7 @@
         <v>1.0567217235034501E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>6.0701263396872998E-2</v>
+        <v>6.00466274908079E-2</v>
       </c>
       <c r="E11" s="5">
         <v>10</v>
@@ -4019,13 +4031,13 @@
         <v>0.105672172350345</v>
       </c>
       <c r="G11" s="3">
-        <v>1.4105589993045</v>
+        <v>1.38406942795006</v>
       </c>
       <c r="H11" s="24">
         <v>2.8713165773937999E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.1331816745136E-2</v>
+        <v>3.1871563296065102E-2</v>
       </c>
       <c r="J11" s="5">
         <v>17.75</v>
@@ -4034,7 +4046,7 @@
         <v>5.0965869248739998E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.0228826739113801</v>
+        <v>1.05970492111175</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4042,41 +4054,41 @@
         <v>45302</v>
       </c>
       <c r="C12" s="24">
-        <v>9.0226417751885796E-3</v>
+        <v>7.7579146611291196E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>6.9723905172061604E-2</v>
+        <v>6.7804542151937E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>20.5</v>
+        <v>24.4</v>
       </c>
       <c r="F12" s="4">
-        <v>0.18496415639136499</v>
+        <v>0.18929311773155</v>
       </c>
       <c r="G12" s="3">
-        <v>1.59552315569587</v>
+        <v>1.57336254568161</v>
       </c>
       <c r="H12" s="24">
-        <v>6.2339715020412302E-3</v>
+        <v>6.2775012017497397E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>3.7565788247177198E-2</v>
+        <v>3.8149064497814897E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>16.886363636363601</v>
+        <v>17.139534883720899</v>
       </c>
       <c r="K12" s="4">
-        <v>0.10526910968219599</v>
+        <v>0.107593450829989</v>
       </c>
       <c r="L12" s="3">
-        <v>1.1281517835935799</v>
+        <v>1.16729837194174</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.4306808621768982E-3</v>
+        <v>3.5058269143069536E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4084,41 +4096,41 @@
         <v>45303</v>
       </c>
       <c r="C13" s="24">
-        <v>5.3459038786062996E-3</v>
+        <v>6.3557656753578497E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>7.5069809050667902E-2</v>
+        <v>7.4160307827294894E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>27</v>
+        <v>28.6666666666666</v>
       </c>
       <c r="F13" s="4">
-        <v>0.14433940472237</v>
+        <v>0.182198616026925</v>
       </c>
       <c r="G13" s="3">
-        <v>1.7398625604182401</v>
+        <v>1.75556116170853</v>
       </c>
       <c r="H13" s="24">
-        <v>2.6860317781625298E-3</v>
+        <v>2.8403001853011698E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.0251820025339703E-2</v>
+        <v>4.0989364683116099E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>18.473684210526301</v>
+        <v>17.9444444444444</v>
       </c>
       <c r="K13" s="4">
-        <v>4.9620902849213201E-2</v>
+        <v>5.0967608880682198E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.17777268644279</v>
+        <v>1.2182659808224201</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.0514295282564555E-2</v>
+        <v>8.2235300201964609E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4129,7 +4141,7 @@
         <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.8083022530680002E-2</v>
+        <v>7.7173521307306994E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4138,13 +4150,13 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.79460260530513</v>
+        <v>1.81030120659542</v>
       </c>
       <c r="H14" s="24">
         <v>2.0714374829100099E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>4.2323257508249702E-2</v>
+        <v>4.3060802166026098E-2</v>
       </c>
       <c r="J14" s="5">
         <v>25.875</v>
@@ -4153,7 +4165,7 @@
         <v>5.3598444870296601E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.23137113131309</v>
+        <v>1.2718644256927201</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4164,7 +4176,7 @@
         <v>3.34039744540771E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>8.1423419976087694E-2</v>
+        <v>8.05139187527147E-2</v>
       </c>
       <c r="E15" s="5">
         <v>25.571428571428498</v>
@@ -4173,13 +4185,13 @@
         <v>8.5418734675425795E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.8800213399805501</v>
+        <v>1.8957199412708401</v>
       </c>
       <c r="H15" s="24">
         <v>3.5865382932792199E-4</v>
       </c>
       <c r="I15" s="2">
-        <v>4.2681911337577698E-2</v>
+        <v>4.3419455995354003E-2</v>
       </c>
       <c r="J15" s="5">
         <v>121.30769230769199</v>
@@ -4188,7 +4200,7 @@
         <v>4.3507468373087201E-2</v>
       </c>
       <c r="L15" s="3">
-        <v>1.27487859968618</v>
+        <v>1.3153718940658099</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4205,7 +4217,7 @@
         <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.2979451059316797E-2</v>
+        <v>8.2069949835943803E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4214,13 +4226,13 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.9235902103109701</v>
+        <v>1.9392888116012601</v>
       </c>
       <c r="H16" s="24">
         <v>1.6056544759565001E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>4.4287565813534199E-2</v>
+        <v>4.5025110471310498E-2</v>
       </c>
       <c r="J16" s="5">
         <v>35.1111111111111</v>
@@ -4229,18 +4241,18 @@
         <v>5.6376312711361697E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.3312549123975399</v>
+        <v>1.37174820677717</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.3542033154699462</v>
+        <v>1.39869288360961</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.4905365650422819</v>
+        <v>2.5872610674203069</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4251,7 +4263,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>7.9203859163027204E-2</v>
+        <v>7.8294357939654197E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4260,13 +4272,13 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.7159326560150401</v>
+        <v>1.7316312573053301</v>
       </c>
       <c r="H17" s="24">
         <v>2.9519547798491602E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>4.7239520593383301E-2</v>
+        <v>4.7977065251159703E-2</v>
       </c>
       <c r="J17" s="5">
         <v>16</v>
@@ -4275,18 +4287,18 @@
         <v>4.7231276477586598E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.3784861888751201</v>
+        <v>1.41897948325476</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>7.457323907159374</v>
+        <v>7.860430533220887</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>21.581881671528041</v>
+        <v>23.170411511207323</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4300,7 +4312,7 @@
         <v>1.43653421561418E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>7.9347512584588595E-2</v>
+        <v>7.8438011361215601E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.636363636363601</v>
@@ -4309,13 +4321,13 @@
         <v>2.82083082338784E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.71875348683843</v>
+        <v>1.73445208812872</v>
       </c>
       <c r="H18" s="24">
         <v>1.6729174575032099E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>4.8912438050886499E-2</v>
+        <v>4.9649982708662901E-2</v>
       </c>
       <c r="J18" s="5">
         <v>29.478260869565201</v>
@@ -4324,7 +4336,7 @@
         <v>4.93146972255296E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>1.4278008861006499</v>
+        <v>1.46829418048028</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4335,7 +4347,7 @@
         <v>8.7362467879305598E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>8.0221137263381703E-2</v>
+        <v>7.9311636040008696E-2</v>
       </c>
       <c r="E19" s="5">
         <v>32.75</v>
@@ -4344,13 +4356,13 @@
         <v>2.8611208230472501E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.7473646950688999</v>
+        <v>1.7630632963591899</v>
       </c>
       <c r="H19" s="24">
         <v>3.4466208820560099E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>5.2359058932942598E-2</v>
+        <v>5.3096603590718897E-2</v>
       </c>
       <c r="J19" s="5">
         <v>25.380952380952301</v>
@@ -4359,7 +4371,7 @@
         <v>8.7478520482659902E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>1.51527940658331</v>
+        <v>1.5557727009629401</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4370,7 +4382,7 @@
         <v>7.2091695203043901E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>8.0942054215412104E-2</v>
+        <v>8.0032552992039097E-2</v>
       </c>
       <c r="E20" s="5">
         <v>37.4</v>
@@ -4379,13 +4391,13 @@
         <v>2.69622940059384E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.7743269890748401</v>
+        <v>1.7900255903651301</v>
       </c>
       <c r="H20" s="24">
         <v>1.86966093164153E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>5.42287198645841E-2</v>
+        <v>5.4966264522360399E-2</v>
       </c>
       <c r="J20" s="5">
         <v>16.0555555555555</v>
@@ -4394,7 +4406,7 @@
         <v>3.0018444958022299E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>1.54529785154134</v>
+        <v>1.5857911459209699</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4405,7 +4417,7 @@
         <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>8.2999299026281198E-2</v>
+        <v>8.2089797802908204E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.3333333333333</v>
@@ -4414,13 +4426,13 @@
         <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.84495906091467</v>
+        <v>1.86065766220497</v>
       </c>
       <c r="H21" s="24">
         <v>4.5895535949851199E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>5.8818273459569199E-2</v>
+        <v>5.9555818117345498E-2</v>
       </c>
       <c r="J21" s="5">
         <v>19.05</v>
@@ -4429,7 +4441,7 @@
         <v>8.7430995984466506E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>1.6327288475257999</v>
+        <v>1.6732221419054301</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4440,7 +4452,7 @@
         <v>5.8736928184867096E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>8.8872991844767907E-2</v>
+        <v>8.7963490621394899E-2</v>
       </c>
       <c r="E22" s="5">
         <v>27.8888888888888</v>
@@ -4449,13 +4461,13 @@
         <v>0.16381076638223999</v>
       </c>
       <c r="G22" s="3">
-        <v>2.0087698272969101</v>
+        <v>2.0244684285872099</v>
       </c>
       <c r="H22" s="24">
         <v>3.8127973051458302E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>6.2631070764715094E-2</v>
+        <v>6.3368615422491406E-2</v>
       </c>
       <c r="J22" s="5">
         <v>28.515151515151501</v>
@@ -4464,7 +4476,7 @@
         <v>0.10872249285279401</v>
       </c>
       <c r="L22" s="3">
-        <v>1.7414513403786001</v>
+        <v>1.78194463475823</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4475,7 +4487,7 @@
         <v>1.7958721909540501E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>9.0668864035721997E-2</v>
+        <v>8.9759362812348906E-2</v>
       </c>
       <c r="E23" s="5">
         <v>42.8</v>
@@ -4484,13 +4496,13 @@
         <v>7.6863329772833694E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>2.0856331570697502</v>
+        <v>2.1013317583600402</v>
       </c>
       <c r="H23" s="24">
         <v>2.4223500064630599E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>6.5053420771178094E-2</v>
+        <v>6.5790965428954504E-2</v>
       </c>
       <c r="J23" s="5">
         <v>26.6666666666666</v>
@@ -4499,7 +4511,7 @@
         <v>6.4596000172348303E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>1.8060473405509501</v>
+        <v>1.84654063493058</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4507,25 +4519,25 @@
         <v>45321</v>
       </c>
       <c r="C24" s="24">
-        <v>6.5147951721461804E-3</v>
+        <v>6.60313982827358E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>9.7183659207868103E-2</v>
+        <v>9.6362502640622502E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>27.782608695652101</v>
+        <v>28.4545454545454</v>
       </c>
       <c r="F24" s="4">
-        <v>0.180998005000061</v>
+        <v>0.18788934238633001</v>
       </c>
       <c r="G24" s="3">
-        <v>2.2666311620698099</v>
+        <v>2.2892211007463699</v>
       </c>
       <c r="H24" s="24">
         <v>2.6148733847248199E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>6.7668294155902906E-2</v>
+        <v>6.8405838813679301E-2</v>
       </c>
       <c r="J24" s="5">
         <v>28.824999999999999</v>
@@ -4534,7 +4546,7 @@
         <v>7.5373725314692996E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>1.8814210658656401</v>
+        <v>1.92191436024527</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4542,34 +4554,34 @@
         <v>45322</v>
       </c>
       <c r="C25" s="24">
-        <v>2.5933713352215399E-3</v>
+        <v>3.8829805516405499E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.9777030543089701E-2</v>
+        <v>0.10024548319226299</v>
       </c>
       <c r="E25" s="5">
-        <v>30</v>
+        <v>30.590909090909001</v>
       </c>
       <c r="F25" s="4">
-        <v>7.7801140056646304E-2</v>
+        <v>0.11878390505700399</v>
       </c>
       <c r="G25" s="3">
-        <v>2.3444323021264601</v>
+        <v>2.4080050058033802</v>
       </c>
       <c r="H25" s="24">
-        <v>1.4924324796900101E-3</v>
+        <v>1.54389566864484E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>6.9160726635593001E-2</v>
+        <v>6.9949734482324097E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>37.866666666666603</v>
+        <v>39.172413793103402</v>
       </c>
       <c r="K25" s="4">
-        <v>5.6513443230928502E-2</v>
+        <v>6.0478119985535803E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>1.9379345090965701</v>
+        <v>1.9823924802308099</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4580,7 +4592,7 @@
         <v>-3.1394119371691499E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.6637618605920503E-2</v>
+        <v>9.7106071255093906E-2</v>
       </c>
       <c r="E26" s="5">
         <v>42.75</v>
@@ -4589,22 +4601,22 @@
         <v>-0.13420986031398099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.2102224418124798</v>
+        <v>2.2737951454893901</v>
       </c>
       <c r="H26" s="24">
-        <v>1.1792562864455E-3</v>
+        <v>1.21359095551204E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>7.0339982922038496E-2</v>
+        <v>7.1163325437836197E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>26.0694444444444</v>
+        <v>26.185714285714202</v>
       </c>
       <c r="K26" s="4">
-        <v>3.0742556245252899E-2</v>
+        <v>3.1778746020765497E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>1.96867706534182</v>
+        <v>2.0141712262515701</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4612,25 +4624,25 @@
         <v>45324</v>
       </c>
       <c r="C27" s="24">
-        <v>2.0466783525047699E-3</v>
+        <v>1.8910732895823701E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.8684296958425302E-2</v>
+        <v>9.8997144544676299E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>15.4117647058823</v>
+        <v>10.6875</v>
       </c>
       <c r="F27" s="4">
-        <v>3.1542925197426401E-2</v>
+        <v>2.0210845782411599E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.2417653670098998</v>
+        <v>2.2940059912718098</v>
       </c>
       <c r="H27" s="24">
         <v>2.6889505610563501E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>7.3028933483094804E-2</v>
+        <v>7.3852275998892505E-2</v>
       </c>
       <c r="J27" s="5">
         <v>20</v>
@@ -4639,7 +4651,7 @@
         <v>5.3779011221127E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.0224560765629498</v>
+        <v>2.0679502374726999</v>
       </c>
     </row>
     <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4650,7 +4662,7 @@
         <v>5.3969062995158201E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.104081203257941</v>
+        <v>0.104394050844192</v>
       </c>
       <c r="E28" s="5">
         <v>27.8</v>
@@ -4659,22 +4671,22 @@
         <v>0.150033995126539</v>
       </c>
       <c r="G28" s="3">
-        <v>2.3917993621364402</v>
+        <v>2.4440399863983502</v>
       </c>
       <c r="H28" s="24">
-        <v>2.2004262716231698E-3</v>
+        <v>2.8909988532961998E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>7.5229359754718006E-2</v>
+        <v>7.6743274852188695E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>20.755102040816301</v>
+        <v>21.1041666666666</v>
       </c>
       <c r="K28" s="4">
-        <v>4.56700718008319E-2</v>
+        <v>6.10121216331053E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.0681261483637798</v>
+        <v>2.1289623591057998</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4682,34 +4694,34 @@
         <v>45328</v>
       </c>
       <c r="C29" s="24">
-        <v>2.4526156387998598E-3</v>
+        <v>2.4010411263502601E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.106533818896741</v>
+        <v>0.106795091970542</v>
       </c>
       <c r="E29" s="5">
-        <v>23.3125</v>
+        <v>24.3333333333333</v>
       </c>
       <c r="F29" s="4">
-        <v>5.7176602079521903E-2</v>
+        <v>5.8425334074523098E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.4489759642159599</v>
+        <v>2.50246532047287</v>
       </c>
       <c r="H29" s="24">
-        <v>3.3375861466235501E-3</v>
+        <v>3.3742629174655699E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>7.8566945901341501E-2</v>
+        <v>8.0117537769654301E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>19.728260869565201</v>
+        <v>19.945054945054899</v>
       </c>
       <c r="K29" s="4">
-        <v>6.5844770175236406E-2</v>
+        <v>6.7299859287912198E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.1339709185390201</v>
+        <v>2.1962622183937199</v>
       </c>
     </row>
     <row r="30" spans="2:26" ht="3" customHeight="1" x14ac:dyDescent="0.35">
@@ -4720,7 +4732,7 @@
         <v>-3.61065119094009E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.1029231677058</v>
+        <v>0.103184440779602</v>
       </c>
       <c r="E30" s="5">
         <v>30.25</v>
@@ -4729,57 +4741,57 @@
         <v>-0.10922219852593799</v>
       </c>
       <c r="G30" s="3">
-        <v>2.33975376569003</v>
+        <v>2.3932431219469299</v>
       </c>
       <c r="H30" s="24">
-        <v>6.1990442797981403E-3</v>
+        <v>6.2548753227529303E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>8.47659901811397E-2</v>
+        <v>8.6372413092407202E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>17.8840579710144</v>
+        <v>18.590909090909001</v>
       </c>
       <c r="K30" s="4">
-        <v>0.110864067264795</v>
+        <v>0.11628381850027</v>
       </c>
       <c r="L30" s="3">
-        <v>2.2448349858038101</v>
+        <v>2.3125460368939899</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="13">
         <v>45330</v>
       </c>
       <c r="C31" s="24">
-        <v>3.7541525031581802E-4</v>
+        <v>5.3175584915180098E-5</v>
       </c>
       <c r="D31" s="2">
-        <v>0.10329858295611601</v>
+        <v>0.103237616364517</v>
       </c>
       <c r="E31" s="5">
-        <v>25.090909090909001</v>
+        <v>24.6</v>
       </c>
       <c r="F31" s="4">
-        <v>9.4195099170150693E-3</v>
+        <v>1.3081193889134301E-3</v>
       </c>
       <c r="G31" s="3">
-        <v>2.3491732756070398</v>
+        <v>2.3945512413358401</v>
       </c>
       <c r="H31" s="24">
-        <v>5.4791420028798702E-3</v>
+        <v>4.7722935750073199E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.02451321840195E-2</v>
+        <v>9.1144706667414602E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>18.75</v>
+        <v>18.723076923076899</v>
       </c>
       <c r="K31" s="4">
-        <v>0.102733912553997</v>
+        <v>8.9352019704367805E-2</v>
       </c>
       <c r="L31" s="3">
-        <v>2.3475688983578098</v>
+        <v>2.4018980565983501</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4787,34 +4799,34 @@
         <v>45331</v>
       </c>
       <c r="C32" s="24">
-        <v>1.55178764170779E-3</v>
+        <v>4.4136987222964701E-4</v>
       </c>
       <c r="D32" s="2">
-        <v>0.104850370597824</v>
+        <v>0.103678986236747</v>
       </c>
       <c r="E32" s="5">
-        <v>28.3125</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4">
-        <v>4.3934987605851898E-2</v>
+        <v>1.3241096166889401E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.3931082632128899</v>
+        <v>2.4077923375027299</v>
       </c>
       <c r="H32" s="24">
-        <v>4.3546783709508801E-3</v>
+        <v>4.6365180140223597E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>9.4599810554970395E-2</v>
+        <v>9.5781224681436905E-2</v>
       </c>
       <c r="J32" s="5">
-        <v>14.785714285714199</v>
+        <v>15.3283582089552</v>
       </c>
       <c r="K32" s="4">
-        <v>6.4387030199059406E-2</v>
+        <v>7.1070208961208498E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>2.4119559285568699</v>
+        <v>2.47296826555956</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4825,7 +4837,7 @@
         <v>1.72412656533466E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.106574497163159</v>
+        <v>0.10540311280208101</v>
       </c>
       <c r="E33" s="5">
         <v>24.047619047619001</v>
@@ -4834,22 +4846,22 @@
         <v>4.1461138833047903E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.4345694020459399</v>
+        <v>2.4492534763357798</v>
       </c>
       <c r="H33" s="24">
-        <v>1.4019600096160901E-3</v>
+        <v>1.2802078892123999E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>9.6001770564586503E-2</v>
+        <v>9.7061432570649295E-2</v>
       </c>
       <c r="J33" s="5">
-        <v>20.753623188405701</v>
+        <v>20.447761194029798</v>
       </c>
       <c r="K33" s="4">
-        <v>2.90957497647861E-2</v>
+        <v>2.61773851973283E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>2.4410516783216498</v>
+        <v>2.4991456507568901</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4857,34 +4869,34 @@
         <v>45335</v>
       </c>
       <c r="C34" s="24">
-        <v>4.8464074918128696E-3</v>
+        <v>4.9001577632272397E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.11142090465497199</v>
+        <v>0.110303270565309</v>
       </c>
       <c r="E34" s="5">
-        <v>16.3928571428571</v>
+        <v>16.703703703703699</v>
       </c>
       <c r="F34" s="4">
-        <v>7.9446465669361102E-2</v>
+        <v>8.1850783378351305E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>2.5140158677153002</v>
+        <v>2.5311042597141298</v>
       </c>
       <c r="H34" s="24">
-        <v>4.4812217708615799E-3</v>
+        <v>4.6333319830187004E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.100482992335448</v>
+        <v>0.10169476455366799</v>
       </c>
       <c r="J34" s="5">
-        <v>21.8488372093023</v>
+        <v>22.037500000000001</v>
       </c>
       <c r="K34" s="4">
-        <v>9.7909484970336302E-2</v>
+        <v>0.102107053575774</v>
       </c>
       <c r="L34" s="3">
-        <v>2.5389611632919902</v>
+        <v>2.6012527043326701</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4892,34 +4904,34 @@
         <v>45336</v>
       </c>
       <c r="C35" s="24">
-        <v>7.9980680556569293E-3</v>
+        <v>8.3238938301273303E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.119418972710629</v>
+        <v>0.118627164395436</v>
       </c>
       <c r="E35" s="5">
-        <v>16.125</v>
+        <v>16.733333333333299</v>
       </c>
       <c r="F35" s="4">
-        <v>0.128968847397467</v>
+        <v>0.13928649009079699</v>
       </c>
       <c r="G35" s="3">
-        <v>2.6429847151127701</v>
+        <v>2.67039074980493</v>
       </c>
       <c r="H35" s="24">
-        <v>1.8958009321437699E-3</v>
+        <v>1.87869530750777E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.102378793267591</v>
+        <v>0.103573459861175</v>
       </c>
       <c r="J35" s="5">
-        <v>16.5208333333333</v>
+        <v>16.434782608695599</v>
       </c>
       <c r="K35" s="4">
-        <v>3.13202112331252E-2</v>
+        <v>3.0875948966866899E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>2.5702813745251198</v>
+        <v>2.6321286532995298</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4930,7 +4942,7 @@
         <v>-2.00269389832986E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.117416278812299</v>
+        <v>0.116624470497106</v>
       </c>
       <c r="E36" s="5">
         <v>25.1</v>
@@ -4939,22 +4951,22 @@
         <v>-5.0267616848079698E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.5927170982646901</v>
+        <v>2.62012313295685</v>
       </c>
       <c r="H36" s="24">
-        <v>4.6440860267273698E-3</v>
+        <v>4.6410005765337003E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.107022879294319</v>
+        <v>0.10821446043770901</v>
       </c>
       <c r="J36" s="5">
-        <v>20.011363636363601</v>
+        <v>20.364705882352901</v>
       </c>
       <c r="K36" s="4">
-        <v>9.2934494239396703E-2</v>
+        <v>9.4512611740939195E-2</v>
       </c>
       <c r="L36" s="3">
-        <v>2.6632158687645102</v>
+        <v>2.7266412650404699</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4965,7 +4977,7 @@
         <v>6.3407257815193E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.123757004593818</v>
+        <v>0.122965196278625</v>
       </c>
       <c r="E37" s="5">
         <v>32.700000000000003</v>
@@ -4974,22 +4986,22 @@
         <v>0.20734173305568099</v>
       </c>
       <c r="G37" s="3">
-        <v>2.8000588313203698</v>
+        <v>2.8274648660125301</v>
       </c>
       <c r="H37" s="24">
-        <v>3.8083631630088199E-3</v>
+        <v>3.9078765075622104E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.11083124245732801</v>
+        <v>0.112122336945271</v>
       </c>
       <c r="J37" s="5">
-        <v>16.024096385542101</v>
+        <v>16.645569620253099</v>
       </c>
       <c r="K37" s="4">
-        <v>6.10255783952015E-2</v>
+        <v>6.5048830473978705E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>2.7242414471597098</v>
+        <v>2.7916900955144501</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -5000,7 +5012,7 @@
         <v>2.1121506307297702E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.125869155224548</v>
+        <v>0.12507734690935501</v>
       </c>
       <c r="E38" s="5">
         <v>23.590909090909001</v>
@@ -5009,22 +5021,22 @@
         <v>4.9827553515852302E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.8498863848362199</v>
+        <v>2.87729241952839</v>
       </c>
       <c r="H38" s="24">
-        <v>2.0891264507689098E-3</v>
+        <v>2.1434598204832498E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.11292036890809699</v>
+        <v>0.114265796765755</v>
       </c>
       <c r="J38" s="5">
-        <v>23.2717391304347</v>
+        <v>24.290697674418599</v>
       </c>
       <c r="K38" s="4">
-        <v>4.8617605772785198E-2</v>
+        <v>5.2066134476622401E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>2.7728590529325001</v>
+        <v>2.8437562299910701</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -5032,34 +5044,34 @@
         <v>45343</v>
       </c>
       <c r="C39" s="24">
-        <v>3.0446350880736499E-3</v>
+        <v>3.0943298814374099E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.12891379031262101</v>
+        <v>0.128171676790793</v>
       </c>
       <c r="E39" s="5">
         <v>13</v>
       </c>
       <c r="F39" s="4">
-        <v>3.9580256144957499E-2</v>
+        <v>4.0226288458686303E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.8894666409811798</v>
+        <v>2.9175187079870701</v>
       </c>
       <c r="H39" s="24">
-        <v>2.6890491393450401E-3</v>
+        <v>2.5721325072826698E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.115609418047442</v>
+        <v>0.116837929273037</v>
       </c>
       <c r="J39" s="5">
-        <v>24.070175438596401</v>
+        <v>24.403669724770602</v>
       </c>
       <c r="K39" s="4">
-        <v>6.4725884547042006E-2</v>
+        <v>6.2769472196072595E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>2.8375849374795399</v>
+        <v>2.90652570218715</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
@@ -5067,72 +5079,69 @@
         <v>45344</v>
       </c>
       <c r="C40" s="24">
-        <v>4.88407736965237E-3</v>
+        <v>5.1937057594194898E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.133797867682274</v>
+        <v>0.13336538255021199</v>
       </c>
       <c r="E40" s="5">
-        <v>26.176470588235201</v>
+        <v>20.75</v>
       </c>
       <c r="F40" s="4">
-        <v>0.12784790761737</v>
+        <v>0.107769394507954</v>
       </c>
       <c r="G40" s="3">
-        <v>3.01731454859855</v>
+        <v>3.02528810249503</v>
       </c>
       <c r="H40" s="24">
-        <v>3.1272537145894401E-3</v>
+        <v>3.2564493116946799E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.118736671762031</v>
+        <v>0.120094378584732</v>
       </c>
       <c r="J40" s="5">
-        <v>22.7083333333333</v>
+        <v>23.5</v>
       </c>
       <c r="K40" s="4">
-        <v>7.1014719768801901E-2</v>
+        <v>7.6526558824824994E-2</v>
       </c>
       <c r="L40" s="3">
-        <v>2.9085996572483399</v>
+        <v>2.9830522610119701</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="13">
         <v>45345</v>
       </c>
       <c r="C41" s="24">
-        <v>9.4200097084764503E-4</v>
+        <v>7.0047845150002198E-4</v>
       </c>
       <c r="D41" s="2">
-        <v>0.13473986865312099</v>
+        <v>0.134065861001712</v>
       </c>
       <c r="E41" s="5">
-        <v>32.78125</v>
+        <v>34.724137931034399</v>
       </c>
       <c r="F41" s="4">
-        <v>3.0879969325599301E-2</v>
+        <v>2.43235103676042E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>3.0481945179241499</v>
+        <v>3.0496116128626301</v>
       </c>
       <c r="H41" s="24">
-        <v>4.1643462504871902E-3</v>
+        <v>4.3501249916830997E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.122901018012518</v>
+        <v>0.124444503576415</v>
       </c>
       <c r="J41" s="5">
-        <v>22.010752688172001</v>
+        <v>22.402439024390201</v>
       </c>
       <c r="K41" s="4">
-        <v>9.1660395427390198E-2</v>
+        <v>9.7453409874656699E-2</v>
       </c>
       <c r="L41" s="3">
-        <v>3.0002600526757299</v>
-      </c>
-      <c r="N41" s="23" t="s">
-        <v>18</v>
+        <v>3.0805056708866299</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -5140,40 +5149,40 @@
         <v>45348</v>
       </c>
       <c r="C42" s="24">
-        <v>4.5184040916795504E-3</v>
+        <v>3.7785405054882198E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.13925827274480099</v>
+        <v>0.13784440150720001</v>
       </c>
       <c r="E42" s="5">
-        <v>23.636363636363601</v>
+        <v>28</v>
       </c>
       <c r="F42" s="4">
-        <v>0.10679864216697101</v>
+        <v>0.10579913415367</v>
       </c>
       <c r="G42" s="3">
-        <v>3.1549931600911201</v>
+        <v>3.1554107470163002</v>
       </c>
       <c r="H42" s="24">
-        <v>2.84956141765895E-3</v>
+        <v>2.81914526715133E-3</v>
       </c>
       <c r="I42" s="2">
-        <v>0.12575057943017701</v>
+        <v>0.127263648843566</v>
       </c>
       <c r="J42" s="5">
-        <v>20.95</v>
+        <v>22.733333333333299</v>
       </c>
       <c r="K42" s="4">
-        <v>5.9698311699955001E-2</v>
+        <v>6.4088569073240301E-2</v>
       </c>
       <c r="L42" s="3">
-        <v>3.05995836437569</v>
+        <v>3.1445942399598699</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B43" s="13">
         <v>45349</v>
       </c>
@@ -5181,7 +5190,7 @@
         <v>3.69090433682442E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.142949177081625</v>
+        <v>0.14153530584402499</v>
       </c>
       <c r="E43" s="5">
         <v>25.842105263157801</v>
@@ -5190,24 +5199,62 @@
         <v>9.5380738388462602E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>3.25037389847959</v>
+        <v>3.2507914854047599</v>
       </c>
       <c r="H43" s="24">
-        <v>5.6334576866570703E-3</v>
+        <v>3.6399587349854202E-3</v>
       </c>
       <c r="I43" s="2">
-        <v>0.131384037116834</v>
+        <v>0.13090360757855199</v>
       </c>
       <c r="J43" s="5">
-        <v>23.108333333333299</v>
+        <v>26.382022471910101</v>
       </c>
       <c r="K43" s="4">
-        <v>0.13017981804250001</v>
+        <v>9.6029473143210906E-2</v>
       </c>
       <c r="L43" s="3">
-        <v>3.19013818241819</v>
+        <v>3.24062371310308</v>
       </c>
       <c r="N43" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="B44" s="13">
+        <v>45350</v>
+      </c>
+      <c r="C44" s="24">
+        <v>1.0040240273313499E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.15157554611733801</v>
+      </c>
+      <c r="E44" s="5">
+        <v>12.0322580645161</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.120806761998256</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3.3715982474030199</v>
+      </c>
+      <c r="H44" s="24">
+        <v>4.9873094724293401E-3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.135890917050981</v>
+      </c>
+      <c r="J44" s="5">
+        <v>26.28125</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.13107272707228301</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3.3716964401753602</v>
+      </c>
+      <c r="N44" s="23" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E13497B-3926-49A7-A732-F139EDF55276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4A5CD-E0D2-4A61-984A-5656D25A59D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1114,127 +1114,127 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>3.4422026957734598E-3</c:v>
+                  <c:v>3.6222097973263598E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.80007233054094E-3</c:v>
+                  <c:v>5.9800794320938296E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1357047134135901E-2</c:v>
+                  <c:v>1.14131204861013E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0802028243173599E-2</c:v>
+                  <c:v>2.08581015951389E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.91528700034289E-2</c:v>
+                  <c:v>2.9208943355394201E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4670042518634502E-2</c:v>
+                  <c:v>3.47261158705999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.94794102557733E-2</c:v>
+                  <c:v>4.9535483607738698E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.00466274908079E-2</c:v>
+                  <c:v>6.01027008427732E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7804542151937E-2</c:v>
+                  <c:v>6.7860615503902294E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4160307827294894E-2</c:v>
+                  <c:v>7.4216381179260202E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7173521307306994E-2</c:v>
+                  <c:v>7.7229594659272302E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.05139187527147E-2</c:v>
+                  <c:v>8.0569992104679994E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2069949835943803E-2</c:v>
+                  <c:v>8.2126023187909195E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8294357939654197E-2</c:v>
+                  <c:v>7.8350431291619504E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8438011361215601E-2</c:v>
+                  <c:v>7.8494084713181006E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9311636040008696E-2</c:v>
+                  <c:v>7.9367709391974003E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0032552992039097E-2</c:v>
+                  <c:v>8.0088626344004502E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2089797802908204E-2</c:v>
+                  <c:v>8.2145871154873498E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.7963490621394899E-2</c:v>
+                  <c:v>8.2918738882617193E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.9759362812348906E-2</c:v>
+                  <c:v>8.4883812626034796E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.6362502640622502E-2</c:v>
+                  <c:v>9.1486952454308296E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.10024548319226299</c:v>
+                  <c:v>9.5369933005948898E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7106071255093906E-2</c:v>
+                  <c:v>9.22305210687797E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.8997144544676299E-2</c:v>
+                  <c:v>9.4121594358362107E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.104394050844192</c:v>
+                  <c:v>9.9518500657877901E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.106795091970542</c:v>
+                  <c:v>0.101919541784228</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.103184440779602</c:v>
+                  <c:v>9.8999620889523895E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.103237616364517</c:v>
+                  <c:v>9.8993690057064002E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.103678986236747</c:v>
+                  <c:v>9.9545537010489196E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10540311280208101</c:v>
+                  <c:v>0.101269663575823</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.110303270565309</c:v>
+                  <c:v>0.10616982133905099</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.118627164395436</c:v>
+                  <c:v>0.113956339116055</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.116624470497106</c:v>
+                  <c:v>0.11195364521772599</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.122965196278625</c:v>
+                  <c:v>0.118294370999245</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12507734690935501</c:v>
+                  <c:v>0.12040652162997501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.128171676790793</c:v>
+                  <c:v>0.123500851511412</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13336538255021199</c:v>
+                  <c:v>0.12869455727083201</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.134065861001712</c:v>
+                  <c:v>0.12939503572233199</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13784440150720001</c:v>
+                  <c:v>0.13317357622782</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.14153530584402499</c:v>
+                  <c:v>0.13686448056464401</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.15157554611733801</c:v>
+                  <c:v>0.14674332556211001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1764,127 +1764,127 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>4.0473516598901896E-3</c:v>
+                  <c:v>3.3107337504963202E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8225989844549196E-3</c:v>
+                  <c:v>8.0859810750610502E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.47799945715794E-2</c:v>
+                  <c:v>1.4043376662185501E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9184451246637899E-2</c:v>
+                  <c:v>1.8447833337244E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.33263297729779E-2</c:v>
+                  <c:v>2.2589711863584001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6916798292034801E-2</c:v>
+                  <c:v>2.6180180382640899E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.90002467186713E-2</c:v>
+                  <c:v>2.8263628809277502E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1871563296065102E-2</c:v>
+                  <c:v>3.11349453866713E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8149064497814897E-2</c:v>
+                  <c:v>3.7412446588421001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0989364683116099E-2</c:v>
+                  <c:v>4.0525971343004299E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3060802166026098E-2</c:v>
+                  <c:v>4.2597408825914299E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3419455995354003E-2</c:v>
+                  <c:v>4.2956062655242197E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5025110471310498E-2</c:v>
+                  <c:v>4.4561717131198698E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7977065251159703E-2</c:v>
+                  <c:v>4.7513671911047897E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9649982708662901E-2</c:v>
+                  <c:v>4.9186589368551102E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3096603590718897E-2</c:v>
+                  <c:v>5.2944154267739102E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4966264522360399E-2</c:v>
+                  <c:v>5.4813815199380597E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.9555818117345498E-2</c:v>
+                  <c:v>5.9726037619293702E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3368615422491406E-2</c:v>
+                  <c:v>6.3646796796258703E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.5790965428954504E-2</c:v>
+                  <c:v>6.6214947012576603E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.8405838813679301E-2</c:v>
+                  <c:v>6.9005946908100704E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.9949734482324097E-2</c:v>
+                  <c:v>7.05498425767455E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1163325437836197E-2</c:v>
+                  <c:v>7.1805237475881203E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.3852275998892505E-2</c:v>
+                  <c:v>7.4585285167686102E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.6743274852188695E-2</c:v>
+                  <c:v>7.7474621562429402E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0117537769654301E-2</c:v>
+                  <c:v>8.0888287712126999E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.6372413092407202E-2</c:v>
+                  <c:v>8.7239391885999204E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.1144706667414602E-2</c:v>
+                  <c:v>9.2122614798597194E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.5781224681436905E-2</c:v>
+                  <c:v>9.6734462200499E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.7061432570649295E-2</c:v>
+                  <c:v>9.8014670089711403E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10169476455366799</c:v>
+                  <c:v>0.102704473814997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.103573459861175</c:v>
+                  <c:v>0.10460107135060399</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.10821446043770901</c:v>
+                  <c:v>0.10912301300707999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.112122336945271</c:v>
+                  <c:v>0.113118665002826</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.114265796765755</c:v>
+                  <c:v>0.115304919247618</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.116837929273037</c:v>
+                  <c:v>0.117898078108262</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.120094378584732</c:v>
+                  <c:v>0.12165621855902201</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.124444503576415</c:v>
+                  <c:v>0.126006343550705</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.127263648843566</c:v>
+                  <c:v>0.12892617038516399</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.13090360757855199</c:v>
+                  <c:v>0.13253392829791899</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.135890917050981</c:v>
+                  <c:v>0.13781248400969201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3650,7 +3650,7 @@
   <dimension ref="B1:Z44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+      <selection activeCell="B4" sqref="B4:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3681,7 +3681,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 259%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 254%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3732,41 +3732,41 @@
         <v>45289</v>
       </c>
       <c r="C4" s="24">
-        <v>3.4422026957734598E-3</v>
+        <v>3.6222097973263598E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>3.4422026957734598E-3</v>
+        <v>3.6222097973263598E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>25.5555555555555</v>
+        <v>24.6</v>
       </c>
       <c r="F4" s="4">
-        <v>8.79674022253219E-2</v>
+        <v>8.9106361014228405E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>8.79674022253219E-2</v>
+        <v>8.9106361014228405E-2</v>
       </c>
       <c r="H4" s="24">
-        <v>4.0473516598901896E-3</v>
+        <v>3.3107337504963202E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>4.0473516598901896E-3</v>
+        <v>3.3107337504963202E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>30.470588235294102</v>
+        <v>32.25</v>
       </c>
       <c r="K4" s="4">
-        <v>0.123325185871948</v>
+        <v>0.106771163453506</v>
       </c>
       <c r="L4" s="3">
-        <v>0.123325185871948</v>
+        <v>0.106771163453506</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.6969645394472794E-3</v>
+        <v>3.5791055015148864E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3777,7 +3777,7 @@
         <v>2.3578696347674702E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>5.80007233054094E-3</v>
+        <v>5.9800794320938296E-3</v>
       </c>
       <c r="E5" s="5">
         <v>26.210526315789402</v>
@@ -3786,13 +3786,13 @@
         <v>6.1801004111273698E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.14976840633659499</v>
+        <v>0.15090736512550201</v>
       </c>
       <c r="H5" s="24">
         <v>4.7752473245647204E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.8225989844549196E-3</v>
+        <v>8.0859810750610502E-3</v>
       </c>
       <c r="J5" s="5">
         <v>35.346153846153797</v>
@@ -3801,14 +3801,14 @@
         <v>0.16878662658749899</v>
       </c>
       <c r="L5" s="3">
-        <v>0.29211181245944701</v>
+        <v>0.275557790041005</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.2234103595195493E-2</v>
+        <v>7.9466623895157032E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3816,25 +3816,25 @@
         <v>45294</v>
       </c>
       <c r="C6" s="24">
-        <v>5.5569748035950196E-3</v>
+        <v>5.4330410540074699E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.1357047134135901E-2</v>
+        <v>1.14131204861013E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>31.2222222222222</v>
+        <v>29.2222222222222</v>
       </c>
       <c r="F6" s="4">
-        <v>0.17350110220113299</v>
+        <v>0.158765533022662</v>
       </c>
       <c r="G6" s="3">
-        <v>0.32326950853772901</v>
+        <v>0.30967289814816501</v>
       </c>
       <c r="H6" s="24">
         <v>5.9573955871245398E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.47799945715794E-2</v>
+        <v>1.4043376662185501E-2</v>
       </c>
       <c r="J6" s="5">
         <v>34.736842105263101</v>
@@ -3843,14 +3843,14 @@
         <v>0.20694110986853601</v>
       </c>
       <c r="L6" s="3">
-        <v>0.49905292232798398</v>
+        <v>0.48249889990954198</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>26.918707467560374</v>
+        <v>26.784152184352461</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3861,7 +3861,7 @@
         <v>9.4449811090376607E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.0802028243173599E-2</v>
+        <v>2.08581015951389E-2</v>
       </c>
       <c r="E7" s="5">
         <v>40.25</v>
@@ -3870,13 +3870,13 @@
         <v>0.38016048963876498</v>
       </c>
       <c r="G7" s="3">
-        <v>0.70342999817649499</v>
+        <v>0.68983338778693104</v>
       </c>
       <c r="H7" s="24">
         <v>4.4044566750584798E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.9184451246637899E-2</v>
+        <v>1.8447833337244E-2</v>
       </c>
       <c r="J7" s="5">
         <v>33.5625</v>
@@ -3885,7 +3885,7 @@
         <v>0.14782457715665001</v>
       </c>
       <c r="L7" s="3">
-        <v>0.64687749948463402</v>
+        <v>0.63032347706619196</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3896,7 +3896,7 @@
         <v>8.3508417602552992E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.91528700034289E-2</v>
+        <v>2.9208943355394201E-2</v>
       </c>
       <c r="E8" s="5">
         <v>22</v>
@@ -3905,13 +3905,13 @@
         <v>0.18371851872561601</v>
       </c>
       <c r="G8" s="3">
-        <v>0.88714851690211105</v>
+        <v>0.87355190651254699</v>
       </c>
       <c r="H8" s="24">
         <v>4.1418785263400201E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>2.33263297729779E-2</v>
+        <v>2.2589711863584001E-2</v>
       </c>
       <c r="J8" s="5">
         <v>59.758620689655103</v>
@@ -3920,14 +3920,14 @@
         <v>0.247512947798181</v>
       </c>
       <c r="L8" s="3">
-        <v>0.89439044728281503</v>
+        <v>0.87783642486437397</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.3144126109995466E-3</v>
+        <v>3.3612800977973695E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3938,7 +3938,7 @@
         <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.4670042518634502E-2</v>
+        <v>3.47261158705999E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3947,13 +3947,13 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>1.10438718468833</v>
+        <v>1.09079057429876</v>
       </c>
       <c r="H9" s="24">
         <v>3.5904685190568499E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>2.6916798292034801E-2</v>
+        <v>2.6180180382640899E-2</v>
       </c>
       <c r="J9" s="5">
         <v>23.170731707317</v>
@@ -3962,14 +3962,14 @@
         <v>8.3193782758634496E-2</v>
       </c>
       <c r="L9" s="3">
-        <v>0.97758423004145001</v>
+        <v>0.96103020762300795</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>8.2236498540862471E-2</v>
+        <v>8.3175860276864411E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3980,7 +3980,7 @@
         <v>1.48093677371388E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>4.94794102557733E-2</v>
+        <v>4.9535483607738698E-2</v>
       </c>
       <c r="E10" s="5">
         <v>11.75</v>
@@ -3989,13 +3989,13 @@
         <v>0.17401007091138099</v>
       </c>
       <c r="G10" s="3">
-        <v>1.2783972555997101</v>
+        <v>1.2648006452101499</v>
       </c>
       <c r="H10" s="24">
         <v>2.0834484266365602E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>2.90002467186713E-2</v>
+        <v>2.8263628809277502E-2</v>
       </c>
       <c r="J10" s="5">
         <v>14.953488372093</v>
@@ -4004,14 +4004,14 @@
         <v>3.1154821821565301E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.0087390518630099</v>
+        <v>0.99218502944457398</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>26.879798052152935</v>
+        <v>26.868600359410106</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -4022,7 +4022,7 @@
         <v>1.0567217235034501E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>6.00466274908079E-2</v>
+        <v>6.01027008427732E-2</v>
       </c>
       <c r="E11" s="5">
         <v>10</v>
@@ -4031,13 +4031,13 @@
         <v>0.105672172350345</v>
       </c>
       <c r="G11" s="3">
-        <v>1.38406942795006</v>
+        <v>1.3704728175604901</v>
       </c>
       <c r="H11" s="24">
         <v>2.8713165773937999E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.1871563296065102E-2</v>
+        <v>3.11349453866713E-2</v>
       </c>
       <c r="J11" s="5">
         <v>17.75</v>
@@ -4046,7 +4046,7 @@
         <v>5.0965869248739998E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>1.05970492111175</v>
+        <v>1.04315089869331</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4057,7 +4057,7 @@
         <v>7.7579146611291196E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>6.7804542151937E-2</v>
+        <v>6.7860615503902294E-2</v>
       </c>
       <c r="E12" s="5">
         <v>24.4</v>
@@ -4066,13 +4066,13 @@
         <v>0.18929311773155</v>
       </c>
       <c r="G12" s="3">
-        <v>1.57336254568161</v>
+        <v>1.5597659352920401</v>
       </c>
       <c r="H12" s="24">
         <v>6.2775012017497397E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>3.8149064497814897E-2</v>
+        <v>3.7412446588421001E-2</v>
       </c>
       <c r="J12" s="5">
         <v>17.139534883720899</v>
@@ -4081,14 +4081,14 @@
         <v>0.107593450829989</v>
       </c>
       <c r="L12" s="3">
-        <v>1.16729837194174</v>
+        <v>1.1507443495233001</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.5058269143069536E-3</v>
+        <v>3.4700213736159626E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4099,7 +4099,7 @@
         <v>6.3557656753578497E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>7.4160307827294894E-2</v>
+        <v>7.4216381179260202E-2</v>
       </c>
       <c r="E13" s="5">
         <v>28.6666666666666</v>
@@ -4108,29 +4108,29 @@
         <v>0.182198616026925</v>
       </c>
       <c r="G13" s="3">
-        <v>1.75556116170853</v>
+        <v>1.7419645513189701</v>
       </c>
       <c r="H13" s="24">
-        <v>2.8403001853011698E-3</v>
+        <v>3.11352475458324E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.0989364683116099E-2</v>
+        <v>4.0525971343004299E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>17.9444444444444</v>
+        <v>18.058823529411701</v>
       </c>
       <c r="K13" s="4">
-        <v>5.0967608880682198E-2</v>
+        <v>5.6226594097473902E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>1.2182659808224201</v>
+        <v>1.2069709436207701</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.2235300201964609E-2</v>
+        <v>8.1324161211576887E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4141,7 +4141,7 @@
         <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.7173521307306994E-2</v>
+        <v>7.7229594659272302E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4150,13 +4150,13 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.81030120659542</v>
+        <v>1.7967045962058501</v>
       </c>
       <c r="H14" s="24">
         <v>2.0714374829100099E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>4.3060802166026098E-2</v>
+        <v>4.2597408825914299E-2</v>
       </c>
       <c r="J14" s="5">
         <v>25.875</v>
@@ -4165,7 +4165,7 @@
         <v>5.3598444870296601E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.2718644256927201</v>
+        <v>1.26056938849107</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4176,7 +4176,7 @@
         <v>3.34039744540771E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>8.05139187527147E-2</v>
+        <v>8.0569992104679994E-2</v>
       </c>
       <c r="E15" s="5">
         <v>25.571428571428498</v>
@@ -4185,13 +4185,13 @@
         <v>8.5418734675425795E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.8957199412708401</v>
+        <v>1.8821233308812799</v>
       </c>
       <c r="H15" s="24">
         <v>3.5865382932792199E-4</v>
       </c>
       <c r="I15" s="2">
-        <v>4.3419455995354003E-2</v>
+        <v>4.2956062655242197E-2</v>
       </c>
       <c r="J15" s="5">
         <v>121.30769230769199</v>
@@ -4200,7 +4200,7 @@
         <v>4.3507468373087201E-2</v>
       </c>
       <c r="L15" s="3">
-        <v>1.3153718940658099</v>
+        <v>1.3040768568641601</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4217,7 +4217,7 @@
         <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.2069949835943803E-2</v>
+        <v>8.2126023187909195E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4226,13 +4226,13 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.9392888116012601</v>
+        <v>1.9256922012116899</v>
       </c>
       <c r="H16" s="24">
         <v>1.6056544759565001E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>4.5025110471310498E-2</v>
+        <v>4.4561717131198698E-2</v>
       </c>
       <c r="J16" s="5">
         <v>35.1111111111111</v>
@@ -4241,18 +4241,18 @@
         <v>5.6376312711361697E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.37174820677717</v>
+        <v>1.36045316957552</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.39869288360961</v>
+        <v>1.3773910411478179</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.5872610674203069</v>
+        <v>2.5408449333989083</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4263,7 +4263,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>7.8294357939654197E-2</v>
+        <v>7.8350431291619504E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4272,13 +4272,13 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.7316312573053301</v>
+        <v>1.7180346469157699</v>
       </c>
       <c r="H17" s="24">
         <v>2.9519547798491602E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>4.7977065251159703E-2</v>
+        <v>4.7513671911047897E-2</v>
       </c>
       <c r="J17" s="5">
         <v>16</v>
@@ -4287,18 +4287,18 @@
         <v>4.7231276477586598E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.41897948325476</v>
+        <v>1.4076844460531099</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>7.860430533220887</v>
+        <v>7.6660261644253751</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>23.170411511207323</v>
+        <v>22.400072018571382</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4312,7 +4312,7 @@
         <v>1.43653421561418E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>7.8438011361215601E-2</v>
+        <v>7.8494084713181006E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.636363636363601</v>
@@ -4321,13 +4321,13 @@
         <v>2.82083082338784E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.73445208812872</v>
+        <v>1.72085547773915</v>
       </c>
       <c r="H18" s="24">
         <v>1.6729174575032099E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>4.9649982708662901E-2</v>
+        <v>4.9186589368551102E-2</v>
       </c>
       <c r="J18" s="5">
         <v>29.478260869565201</v>
@@ -4336,7 +4336,7 @@
         <v>4.93146972255296E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>1.46829418048028</v>
+        <v>1.45699914327863</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4347,7 +4347,7 @@
         <v>8.7362467879305598E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>7.9311636040008696E-2</v>
+        <v>7.9367709391974003E-2</v>
       </c>
       <c r="E19" s="5">
         <v>32.75</v>
@@ -4356,22 +4356,22 @@
         <v>2.8611208230472501E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.7630632963591899</v>
+        <v>1.74946668596963</v>
       </c>
       <c r="H19" s="24">
-        <v>3.4466208820560099E-3</v>
+        <v>3.7575648991879798E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>5.3096603590718897E-2</v>
+        <v>5.2944154267739102E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>25.380952380952301</v>
+        <v>25.3</v>
       </c>
       <c r="K19" s="4">
-        <v>8.7478520482659902E-2</v>
+        <v>9.5066391949455903E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>1.5557727009629401</v>
+        <v>1.5520655352280901</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4382,7 +4382,7 @@
         <v>7.2091695203043901E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>8.0032552992039097E-2</v>
+        <v>8.0088626344004502E-2</v>
       </c>
       <c r="E20" s="5">
         <v>37.4</v>
@@ -4391,13 +4391,13 @@
         <v>2.69622940059384E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.7900255903651301</v>
+        <v>1.7764289799755699</v>
       </c>
       <c r="H20" s="24">
         <v>1.86966093164153E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>5.4966264522360399E-2</v>
+        <v>5.4813815199380597E-2</v>
       </c>
       <c r="J20" s="5">
         <v>16.0555555555555</v>
@@ -4406,7 +4406,7 @@
         <v>3.0018444958022299E-2</v>
       </c>
       <c r="L20" s="3">
-        <v>1.5857911459209699</v>
+        <v>1.58208398018611</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4417,7 +4417,7 @@
         <v>2.0572448108690301E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>8.2089797802908204E-2</v>
+        <v>8.2145871154873498E-2</v>
       </c>
       <c r="E21" s="5">
         <v>34.3333333333333</v>
@@ -4426,22 +4426,22 @@
         <v>7.0632071839836802E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.86065766220497</v>
+        <v>1.8470610518154</v>
       </c>
       <c r="H21" s="24">
-        <v>4.5895535949851199E-3</v>
+        <v>4.9122224199130799E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>5.9555818117345498E-2</v>
+        <v>5.9726037619293702E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>19.05</v>
+        <v>18.368421052631501</v>
       </c>
       <c r="K21" s="4">
-        <v>8.7430995984466506E-2</v>
+        <v>9.0229769713140298E-2</v>
       </c>
       <c r="L21" s="3">
-        <v>1.6732221419054301</v>
+        <v>1.67231374989925</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4449,34 +4449,34 @@
         <v>45317</v>
       </c>
       <c r="C22" s="24">
-        <v>5.8736928184867096E-3</v>
+        <v>7.72867727743675E-4</v>
       </c>
       <c r="D22" s="2">
-        <v>8.7963490621394899E-2</v>
+        <v>8.2918738882617193E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>27.8888888888888</v>
+        <v>31.25</v>
       </c>
       <c r="F22" s="4">
-        <v>0.16381076638223999</v>
+        <v>2.4152116491989801E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>2.0244684285872099</v>
+        <v>1.87121316830739</v>
       </c>
       <c r="H22" s="24">
-        <v>3.8127973051458302E-3</v>
+        <v>3.9207591769650496E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>6.3368615422491406E-2</v>
+        <v>6.3646796796258703E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>28.515151515151501</v>
+        <v>28.28125</v>
       </c>
       <c r="K22" s="4">
-        <v>0.10872249285279401</v>
+        <v>0.110883970473542</v>
       </c>
       <c r="L22" s="3">
-        <v>1.78194463475823</v>
+        <v>1.7831977203728</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4484,34 +4484,34 @@
         <v>45320</v>
       </c>
       <c r="C23" s="24">
-        <v>1.7958721909540501E-3</v>
+        <v>1.96507374341758E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.9759362812348906E-2</v>
+        <v>8.4883812626034796E-2</v>
       </c>
       <c r="E23" s="5">
-        <v>42.8</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="F23" s="4">
-        <v>7.6863329772833694E-2</v>
+        <v>7.5065816998551499E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>2.1013317583600402</v>
+        <v>1.9462789853059399</v>
       </c>
       <c r="H23" s="24">
-        <v>2.4223500064630599E-3</v>
+        <v>2.5681502163178199E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>6.5790965428954504E-2</v>
+        <v>6.6214947012576603E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>26.6666666666666</v>
+        <v>26.260869565217298</v>
       </c>
       <c r="K23" s="4">
-        <v>6.4596000172348303E-2</v>
+        <v>6.7441857854607296E-2</v>
       </c>
       <c r="L23" s="3">
-        <v>1.84654063493058</v>
+        <v>1.8506395782274001</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4522,7 +4522,7 @@
         <v>6.60313982827358E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>9.6362502640622502E-2</v>
+        <v>9.1486952454308296E-2</v>
       </c>
       <c r="E24" s="5">
         <v>28.4545454545454</v>
@@ -4531,22 +4531,22 @@
         <v>0.18788934238633001</v>
       </c>
       <c r="G24" s="3">
-        <v>2.2892211007463699</v>
+        <v>2.1341683276922701</v>
       </c>
       <c r="H24" s="24">
-        <v>2.6148733847248199E-3</v>
+        <v>2.7909998955241298E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>6.8405838813679301E-2</v>
+        <v>6.9005946908100704E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>28.824999999999999</v>
+        <v>28.3947368421052</v>
       </c>
       <c r="K24" s="4">
-        <v>7.5373725314692996E-2</v>
+        <v>7.9249707559750901E-2</v>
       </c>
       <c r="L24" s="3">
-        <v>1.92191436024527</v>
+        <v>1.9298892857871499</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4557,7 +4557,7 @@
         <v>3.8829805516405499E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.10024548319226299</v>
+        <v>9.5369933005948898E-2</v>
       </c>
       <c r="E25" s="5">
         <v>30.590909090909001</v>
@@ -4566,13 +4566,13 @@
         <v>0.11878390505700399</v>
       </c>
       <c r="G25" s="3">
-        <v>2.4080050058033802</v>
+        <v>2.2529522327492799</v>
       </c>
       <c r="H25" s="24">
         <v>1.54389566864484E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>6.9949734482324097E-2</v>
+        <v>7.05498425767455E-2</v>
       </c>
       <c r="J25" s="5">
         <v>39.172413793103402</v>
@@ -4581,7 +4581,7 @@
         <v>6.0478119985535803E-2</v>
       </c>
       <c r="L25" s="3">
-        <v>1.9823924802308099</v>
+        <v>1.9903674057726899</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4592,7 +4592,7 @@
         <v>-3.1394119371691499E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.7106071255093906E-2</v>
+        <v>9.22305210687797E-2</v>
       </c>
       <c r="E26" s="5">
         <v>42.75</v>
@@ -4601,22 +4601,22 @@
         <v>-0.13420986031398099</v>
       </c>
       <c r="G26" s="3">
-        <v>2.2737951454893901</v>
+        <v>2.1187423724353001</v>
       </c>
       <c r="H26" s="24">
-        <v>1.21359095551204E-3</v>
+        <v>1.2553948991357001E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>7.1163325437836197E-2</v>
+        <v>7.1805237475881203E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>26.185714285714202</v>
+        <v>26.043478260869499</v>
       </c>
       <c r="K26" s="4">
-        <v>3.1778746020765497E-2</v>
+        <v>3.2694849764447198E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.0141712262515701</v>
+        <v>2.0230622555371398</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4627,7 +4627,7 @@
         <v>1.8910732895823701E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.8997144544676299E-2</v>
+        <v>9.4121594358362107E-2</v>
       </c>
       <c r="E27" s="5">
         <v>10.6875</v>
@@ -4636,22 +4636,22 @@
         <v>2.0210845782411599E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.2940059912718098</v>
+        <v>2.13895321821771</v>
       </c>
       <c r="H27" s="24">
-        <v>2.6889505610563501E-3</v>
+        <v>2.7800476918048499E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>7.3852275998892505E-2</v>
+        <v>7.4585285167686102E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>20</v>
+        <v>20.04</v>
       </c>
       <c r="K27" s="4">
-        <v>5.3779011221127E-2</v>
+        <v>5.5712155743769302E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.0679502374726999</v>
+        <v>2.0787744112809099</v>
       </c>
     </row>
     <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4662,7 +4662,7 @@
         <v>5.3969062995158201E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.104394050844192</v>
+        <v>9.9518500657877901E-2</v>
       </c>
       <c r="E28" s="5">
         <v>27.8</v>
@@ -4671,22 +4671,22 @@
         <v>0.150033995126539</v>
       </c>
       <c r="G28" s="3">
-        <v>2.4440399863983502</v>
+        <v>2.2889872133442499</v>
       </c>
       <c r="H28" s="24">
-        <v>2.8909988532961998E-3</v>
+        <v>2.8893363947432799E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>7.6743274852188695E-2</v>
+        <v>7.7474621562429402E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>21.1041666666666</v>
+        <v>21.489361702127599</v>
       </c>
       <c r="K28" s="4">
-        <v>6.10121216331053E-2</v>
+        <v>6.2089994865759897E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.1289623591057998</v>
+        <v>2.1408644061466702</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4697,7 +4697,7 @@
         <v>2.4010411263502601E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.106795091970542</v>
+        <v>0.101919541784228</v>
       </c>
       <c r="E29" s="5">
         <v>24.3333333333333</v>
@@ -4706,22 +4706,22 @@
         <v>5.8425334074523098E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.50246532047287</v>
+        <v>2.3474125474187701</v>
       </c>
       <c r="H29" s="24">
-        <v>3.3742629174655699E-3</v>
+        <v>3.4136661496976398E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.0117537769654301E-2</v>
+        <v>8.0888287712126999E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>19.945054945054899</v>
+        <v>19.6444444444444</v>
       </c>
       <c r="K29" s="4">
-        <v>6.7299859287912198E-2</v>
+        <v>6.7059575029615903E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.1962622183937199</v>
+        <v>2.2079239811762799</v>
       </c>
     </row>
     <row r="30" spans="2:26" ht="3" customHeight="1" x14ac:dyDescent="0.35">
@@ -4729,34 +4729,34 @@
         <v>45329</v>
       </c>
       <c r="C30" s="24">
-        <v>-3.61065119094009E-3</v>
+        <v>-2.91992089470435E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.103184440779602</v>
+        <v>9.8999620889523895E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>30.25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="4">
-        <v>-0.10922219852593799</v>
+        <v>-7.8837864157017504E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.3932431219469299</v>
+        <v>2.2685746832617499</v>
       </c>
       <c r="H30" s="24">
-        <v>6.2548753227529303E-3</v>
+        <v>6.3511041738722098E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>8.6372413092407202E-2</v>
+        <v>8.7239391885999204E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>18.590909090909001</v>
+        <v>18.876923076922999</v>
       </c>
       <c r="K30" s="4">
-        <v>0.11628381850027</v>
+        <v>0.11988930494371</v>
       </c>
       <c r="L30" s="3">
-        <v>2.3125460368939899</v>
+        <v>2.3278132861199898</v>
       </c>
     </row>
     <row r="31" spans="2:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4764,34 +4764,34 @@
         <v>45330</v>
       </c>
       <c r="C31" s="24">
-        <v>5.3175584915180098E-5</v>
+        <v>-5.9308324598999599E-6</v>
       </c>
       <c r="D31" s="2">
-        <v>0.103237616364517</v>
+        <v>9.8993690057064002E-2</v>
       </c>
       <c r="E31" s="5">
-        <v>24.6</v>
+        <v>21</v>
       </c>
       <c r="F31" s="4">
-        <v>1.3081193889134301E-3</v>
+        <v>-1.24547481657899E-4</v>
       </c>
       <c r="G31" s="3">
-        <v>2.3945512413358401</v>
+        <v>2.2684501357801001</v>
       </c>
       <c r="H31" s="24">
-        <v>4.7722935750073199E-3</v>
+        <v>4.8832229125979898E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.1144706667414602E-2</v>
+        <v>9.2122614798597194E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>18.723076923076899</v>
+        <v>18.539682539682499</v>
       </c>
       <c r="K31" s="4">
-        <v>8.9352019704367805E-2</v>
+        <v>9.0533402570070795E-2</v>
       </c>
       <c r="L31" s="3">
-        <v>2.4018980565983501</v>
+        <v>2.4183466886900602</v>
       </c>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.35">
@@ -4799,34 +4799,34 @@
         <v>45331</v>
       </c>
       <c r="C32" s="24">
-        <v>4.4136987222964701E-4</v>
+        <v>5.5184695342524602E-4</v>
       </c>
       <c r="D32" s="2">
-        <v>0.103678986236747</v>
+        <v>9.9545537010489196E-2</v>
       </c>
       <c r="E32" s="5">
-        <v>30</v>
+        <v>33.230769230769198</v>
       </c>
       <c r="F32" s="4">
-        <v>1.3241096166889401E-2</v>
+        <v>1.83382987599774E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.4077923375027299</v>
+        <v>2.2867884345400702</v>
       </c>
       <c r="H32" s="24">
-        <v>4.6365180140223597E-3</v>
+        <v>4.6118474019017901E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>9.5781224681436905E-2</v>
+        <v>9.6734462200499E-2</v>
       </c>
       <c r="J32" s="5">
-        <v>15.3283582089552</v>
+        <v>15.0923076923076</v>
       </c>
       <c r="K32" s="4">
-        <v>7.1070208961208498E-2</v>
+        <v>6.9603420019471701E-2</v>
       </c>
       <c r="L32" s="3">
-        <v>2.47296826555956</v>
+        <v>2.4879501087095401</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4837,7 +4837,7 @@
         <v>1.72412656533466E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.10540311280208101</v>
+        <v>0.101269663575823</v>
       </c>
       <c r="E33" s="5">
         <v>24.047619047619001</v>
@@ -4846,13 +4846,13 @@
         <v>4.1461138833047903E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.4492534763357798</v>
+        <v>2.3282495733731201</v>
       </c>
       <c r="H33" s="24">
         <v>1.2802078892123999E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>9.7061432570649295E-2</v>
+        <v>9.8014670089711403E-2</v>
       </c>
       <c r="J33" s="5">
         <v>20.447761194029798</v>
@@ -4861,7 +4861,7 @@
         <v>2.61773851973283E-2</v>
       </c>
       <c r="L33" s="3">
-        <v>2.4991456507568901</v>
+        <v>2.5141274939068601</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4872,7 +4872,7 @@
         <v>4.9001577632272397E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.110303270565309</v>
+        <v>0.10616982133905099</v>
       </c>
       <c r="E34" s="5">
         <v>16.703703703703699</v>
@@ -4881,22 +4881,22 @@
         <v>8.1850783378351305E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>2.5311042597141298</v>
+        <v>2.4101003567514701</v>
       </c>
       <c r="H34" s="24">
-        <v>4.6333319830187004E-3</v>
+        <v>4.6898037252862098E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.10169476455366799</v>
+        <v>0.102704473814997</v>
       </c>
       <c r="J34" s="5">
-        <v>22.037500000000001</v>
+        <v>21.7088607594936</v>
       </c>
       <c r="K34" s="4">
-        <v>0.102107053575774</v>
+        <v>0.101810296061593</v>
       </c>
       <c r="L34" s="3">
-        <v>2.6012527043326701</v>
+        <v>2.6159377899684602</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4904,34 +4904,34 @@
         <v>45336</v>
       </c>
       <c r="C35" s="24">
-        <v>8.3238938301273303E-3</v>
+        <v>7.7865177770047103E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.118627164395436</v>
+        <v>0.113956339116055</v>
       </c>
       <c r="E35" s="5">
-        <v>16.733333333333299</v>
+        <v>18.75</v>
       </c>
       <c r="F35" s="4">
-        <v>0.13928649009079699</v>
+        <v>0.145997208318838</v>
       </c>
       <c r="G35" s="3">
-        <v>2.67039074980493</v>
+        <v>2.5560975650703099</v>
       </c>
       <c r="H35" s="24">
-        <v>1.87869530750777E-3</v>
+        <v>1.8965975356070601E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.103573459861175</v>
+        <v>0.10460107135060399</v>
       </c>
       <c r="J35" s="5">
-        <v>16.434782608695599</v>
+        <v>16.076923076922998</v>
       </c>
       <c r="K35" s="4">
-        <v>3.0875948966866899E-2</v>
+        <v>3.0491452687836498E-2</v>
       </c>
       <c r="L35" s="3">
-        <v>2.6321286532995298</v>
+        <v>2.6464292426562901</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4942,7 +4942,7 @@
         <v>-2.00269389832986E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.116624470497106</v>
+        <v>0.11195364521772599</v>
       </c>
       <c r="E36" s="5">
         <v>25.1</v>
@@ -4951,22 +4951,22 @@
         <v>-5.0267616848079698E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.62012313295685</v>
+        <v>2.5058299482222299</v>
       </c>
       <c r="H36" s="24">
-        <v>4.6410005765337003E-3</v>
+        <v>4.5219416564756497E-3</v>
       </c>
       <c r="I36" s="2">
-        <v>0.10821446043770901</v>
+        <v>0.10912301300707999</v>
       </c>
       <c r="J36" s="5">
-        <v>20.364705882352901</v>
+        <v>20.602409638554199</v>
       </c>
       <c r="K36" s="4">
-        <v>9.4512611740939195E-2</v>
+        <v>9.3162894368353802E-2</v>
       </c>
       <c r="L36" s="3">
-        <v>2.7266412650404699</v>
+        <v>2.7395921370246499</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4977,7 +4977,7 @@
         <v>6.3407257815193E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.122965196278625</v>
+        <v>0.118294370999245</v>
       </c>
       <c r="E37" s="5">
         <v>32.700000000000003</v>
@@ -4986,22 +4986,22 @@
         <v>0.20734173305568099</v>
       </c>
       <c r="G37" s="3">
-        <v>2.8274648660125301</v>
+        <v>2.7131716812779101</v>
       </c>
       <c r="H37" s="24">
-        <v>3.9078765075622104E-3</v>
+        <v>3.9956519957456702E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.112122336945271</v>
+        <v>0.113118665002826</v>
       </c>
       <c r="J37" s="5">
-        <v>16.645569620253099</v>
+        <v>16.896103896103799</v>
       </c>
       <c r="K37" s="4">
-        <v>6.5048830473978705E-2</v>
+        <v>6.7510951252793799E-2</v>
       </c>
       <c r="L37" s="3">
-        <v>2.7916900955144501</v>
+        <v>2.8071030882774402</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -5012,7 +5012,7 @@
         <v>2.1121506307297702E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.12507734690935501</v>
+        <v>0.12040652162997501</v>
       </c>
       <c r="E38" s="5">
         <v>23.590909090909001</v>
@@ -5021,22 +5021,22 @@
         <v>4.9827553515852302E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.87729241952839</v>
+        <v>2.76299923479377</v>
       </c>
       <c r="H38" s="24">
-        <v>2.1434598204832498E-3</v>
+        <v>2.1862542447926999E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.114265796765755</v>
+        <v>0.115304919247618</v>
       </c>
       <c r="J38" s="5">
-        <v>24.290697674418599</v>
+        <v>24.240963855421601</v>
       </c>
       <c r="K38" s="4">
-        <v>5.2066134476622401E-2</v>
+        <v>5.2996910126782197E-2</v>
       </c>
       <c r="L38" s="3">
-        <v>2.8437562299910701</v>
+        <v>2.8600999984042201</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -5047,7 +5047,7 @@
         <v>3.0943298814374099E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.128171676790793</v>
+        <v>0.123500851511412</v>
       </c>
       <c r="E39" s="5">
         <v>13</v>
@@ -5056,22 +5056,22 @@
         <v>4.0226288458686303E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.9175187079870701</v>
+        <v>2.8032255232524501</v>
       </c>
       <c r="H39" s="24">
-        <v>2.5721325072826698E-3</v>
+        <v>2.5931588606440598E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.116837929273037</v>
+        <v>0.117898078108262</v>
       </c>
       <c r="J39" s="5">
-        <v>24.403669724770602</v>
+        <v>24.112149532710198</v>
       </c>
       <c r="K39" s="4">
-        <v>6.2769472196072595E-2</v>
+        <v>6.2526634209922397E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>2.90652570218715</v>
+        <v>2.9226266326141501</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
@@ -5082,7 +5082,7 @@
         <v>5.1937057594194898E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.13336538255021199</v>
+        <v>0.12869455727083201</v>
       </c>
       <c r="E40" s="5">
         <v>20.75</v>
@@ -5091,22 +5091,22 @@
         <v>0.107769394507954</v>
       </c>
       <c r="G40" s="3">
-        <v>3.02528810249503</v>
+        <v>2.91099491776041</v>
       </c>
       <c r="H40" s="24">
-        <v>3.2564493116946799E-3</v>
+        <v>3.7581404507595999E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.120094378584732</v>
+        <v>0.12165621855902201</v>
       </c>
       <c r="J40" s="5">
-        <v>23.5</v>
+        <v>23.126436781609101</v>
       </c>
       <c r="K40" s="4">
-        <v>7.6526558824824994E-2</v>
+        <v>8.6912397550900203E-2</v>
       </c>
       <c r="L40" s="3">
-        <v>2.9830522610119701</v>
+        <v>3.0095390301650502</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
@@ -5117,7 +5117,7 @@
         <v>7.0047845150002198E-4</v>
       </c>
       <c r="D41" s="2">
-        <v>0.134065861001712</v>
+        <v>0.12939503572233199</v>
       </c>
       <c r="E41" s="5">
         <v>34.724137931034399</v>
@@ -5126,13 +5126,13 @@
         <v>2.43235103676042E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>3.0496116128626301</v>
+        <v>2.93531842812801</v>
       </c>
       <c r="H41" s="24">
         <v>4.3501249916830997E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.124444503576415</v>
+        <v>0.126006343550705</v>
       </c>
       <c r="J41" s="5">
         <v>22.402439024390201</v>
@@ -5141,7 +5141,7 @@
         <v>9.7453409874656699E-2</v>
       </c>
       <c r="L41" s="3">
-        <v>3.0805056708866299</v>
+        <v>3.1069924400397002</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -5152,7 +5152,7 @@
         <v>3.7785405054882198E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.13784440150720001</v>
+        <v>0.13317357622782</v>
       </c>
       <c r="E42" s="5">
         <v>28</v>
@@ -5161,22 +5161,22 @@
         <v>0.10579913415367</v>
       </c>
       <c r="G42" s="3">
-        <v>3.1554107470163002</v>
+        <v>3.0411175622816802</v>
       </c>
       <c r="H42" s="24">
-        <v>2.81914526715133E-3</v>
+        <v>2.9198268344588101E-3</v>
       </c>
       <c r="I42" s="2">
-        <v>0.127263648843566</v>
+        <v>0.12892617038516399</v>
       </c>
       <c r="J42" s="5">
-        <v>22.733333333333299</v>
+        <v>22.6551724137931</v>
       </c>
       <c r="K42" s="4">
-        <v>6.4088569073240301E-2</v>
+        <v>6.6149180353084203E-2</v>
       </c>
       <c r="L42" s="3">
-        <v>3.1445942399598699</v>
+        <v>3.1731416203927898</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>18</v>
@@ -5190,7 +5190,7 @@
         <v>3.69090433682442E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.14153530584402499</v>
+        <v>0.13686448056464401</v>
       </c>
       <c r="E43" s="5">
         <v>25.842105263157801</v>
@@ -5199,22 +5199,22 @@
         <v>9.5380738388462602E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>3.2507914854047599</v>
+        <v>3.1364983006701501</v>
       </c>
       <c r="H43" s="24">
-        <v>3.6399587349854202E-3</v>
+        <v>3.6077579127545998E-3</v>
       </c>
       <c r="I43" s="2">
-        <v>0.13090360757855199</v>
+        <v>0.13253392829791899</v>
       </c>
       <c r="J43" s="5">
-        <v>26.382022471910101</v>
+        <v>26.4545454545454</v>
       </c>
       <c r="K43" s="4">
-        <v>9.6029473143210906E-2</v>
+        <v>9.54415956919627E-2</v>
       </c>
       <c r="L43" s="3">
-        <v>3.24062371310308</v>
+        <v>3.2685832160847501</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>19</v>
@@ -5225,34 +5225,34 @@
         <v>45350</v>
       </c>
       <c r="C44" s="24">
-        <v>1.0040240273313499E-2</v>
+        <v>9.8788449974658698E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.15157554611733801</v>
+        <v>0.14674332556211001</v>
       </c>
       <c r="E44" s="5">
-        <v>12.0322580645161</v>
+        <v>12.3125</v>
       </c>
       <c r="F44" s="4">
-        <v>0.120806761998256</v>
+        <v>0.121633279031298</v>
       </c>
       <c r="G44" s="3">
-        <v>3.3715982474030199</v>
+        <v>3.2581315797014399</v>
       </c>
       <c r="H44" s="24">
-        <v>4.9873094724293401E-3</v>
+        <v>5.2785557117733303E-3</v>
       </c>
       <c r="I44" s="2">
-        <v>0.135890917050981</v>
+        <v>0.13781248400969201</v>
       </c>
       <c r="J44" s="5">
-        <v>26.28125</v>
+        <v>26.830645161290299</v>
       </c>
       <c r="K44" s="4">
-        <v>0.13107272707228301</v>
+        <v>0.141627055266692</v>
       </c>
       <c r="L44" s="3">
-        <v>3.3716964401753602</v>
+        <v>3.4102102713514402</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>20</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4A5CD-E0D2-4A61-984A-5656D25A59D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6426CE9-7E85-48E7-94D5-9C8096F6961A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$45</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1103,21 +1103,24 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$45</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>3.6222097973263598E-3</c:v>
+                  <c:v>3.6222097973263E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9800794320938296E-3</c:v>
+                  <c:v>5.9800794320938001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.14131204861013E-2</c:v>
@@ -1235,6 +1238,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.14674332556211001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14760331882002317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,10 +1633,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$45</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1753,21 +1759,24 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45350</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$45</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>3.3107337504963202E-3</c:v>
+                  <c:v>3.3107337504962998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0859810750610502E-3</c:v>
+                  <c:v>8.0859810750609998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.4043376662185501E-2</c:v>
@@ -1885,6 +1894,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.13781248400969201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.13862013782734001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3294,13 +3306,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3331,8 +3343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L44" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L45" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
@@ -3647,10 +3659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z44"/>
+  <dimension ref="B1:Z45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:L44"/>
+      <selection activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3681,7 +3693,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 254%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 263%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3732,10 +3744,10 @@
         <v>45289</v>
       </c>
       <c r="C4" s="24">
-        <v>3.6222097973263598E-3</v>
+        <v>3.6222097973263E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>3.6222097973263598E-3</v>
+        <v>3.6222097973263E-3</v>
       </c>
       <c r="E4" s="5">
         <v>24.6</v>
@@ -3747,10 +3759,10 @@
         <v>8.9106361014228405E-2</v>
       </c>
       <c r="H4" s="24">
-        <v>3.3107337504963202E-3</v>
+        <v>3.3107337504962998E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>3.3107337504963202E-3</v>
+        <v>3.3107337504962998E-3</v>
       </c>
       <c r="J4" s="5">
         <v>32.25</v>
@@ -3766,7 +3778,7 @@
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.5791055015148864E-3</v>
+        <v>3.6334250669064309E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3774,10 +3786,10 @@
         <v>45293</v>
       </c>
       <c r="C5" s="24">
-        <v>2.3578696347674702E-3</v>
+        <v>2.3578696347674E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>5.9800794320938296E-3</v>
+        <v>5.9800794320938001E-3</v>
       </c>
       <c r="E5" s="5">
         <v>26.210526315789402</v>
@@ -3789,10 +3801,10 @@
         <v>0.15090736512550201</v>
       </c>
       <c r="H5" s="24">
-        <v>4.7752473245647204E-3</v>
+        <v>4.7752473245646996E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.0859810750610502E-3</v>
+        <v>8.0859810750609998E-3</v>
       </c>
       <c r="J5" s="5">
         <v>35.346153846153797</v>
@@ -3808,7 +3820,7 @@
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>7.9466623895157032E-2</v>
+        <v>8.0432651064557131E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3816,7 +3828,7 @@
         <v>45294</v>
       </c>
       <c r="C6" s="24">
-        <v>5.4330410540074699E-3</v>
+        <v>5.4330410540073997E-3</v>
       </c>
       <c r="D6" s="2">
         <v>1.14131204861013E-2</v>
@@ -3831,7 +3843,7 @@
         <v>0.30967289814816501</v>
       </c>
       <c r="H6" s="24">
-        <v>5.9573955871245398E-3</v>
+        <v>5.9573955871244999E-3</v>
       </c>
       <c r="I6" s="2">
         <v>1.4043376662185501E-2</v>
@@ -3850,7 +3862,7 @@
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>26.784152184352461</v>
+        <v>26.634119004265251</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3858,7 +3870,7 @@
         <v>45295</v>
       </c>
       <c r="C7" s="24">
-        <v>9.4449811090376607E-3</v>
+        <v>9.4449811090376E-3</v>
       </c>
       <c r="D7" s="2">
         <v>2.08581015951389E-2</v>
@@ -3873,7 +3885,7 @@
         <v>0.68983338778693104</v>
       </c>
       <c r="H7" s="24">
-        <v>4.4044566750584798E-3</v>
+        <v>4.4044566750584E-3</v>
       </c>
       <c r="I7" s="2">
         <v>1.8447833337244E-2</v>
@@ -3908,7 +3920,7 @@
         <v>0.87355190651254699</v>
       </c>
       <c r="H8" s="24">
-        <v>4.1418785263400201E-3</v>
+        <v>4.1418785263400001E-3</v>
       </c>
       <c r="I8" s="2">
         <v>2.2589711863584001E-2</v>
@@ -3927,7 +3939,7 @@
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.3612800977973695E-3</v>
+        <v>3.4414732343893257E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3935,7 +3947,7 @@
         <v>45299</v>
       </c>
       <c r="C9" s="24">
-        <v>5.5171725152056298E-3</v>
+        <v>5.5171725152056003E-3</v>
       </c>
       <c r="D9" s="2">
         <v>3.47261158705999E-2</v>
@@ -3950,7 +3962,7 @@
         <v>1.09079057429876</v>
       </c>
       <c r="H9" s="24">
-        <v>3.5904685190568499E-3</v>
+        <v>3.5904685190568E-3</v>
       </c>
       <c r="I9" s="2">
         <v>2.6180180382640899E-2</v>
@@ -3969,7 +3981,7 @@
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>8.3175860276864411E-2</v>
+        <v>8.6648653180967039E-2</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3992,7 +4004,7 @@
         <v>1.2648006452101499</v>
       </c>
       <c r="H10" s="24">
-        <v>2.0834484266365602E-3</v>
+        <v>2.0834484266364999E-3</v>
       </c>
       <c r="I10" s="2">
         <v>2.8263628809277502E-2</v>
@@ -4011,7 +4023,7 @@
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>26.868600359410106</v>
+        <v>27.03922294691818</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -4054,7 +4066,7 @@
         <v>45302</v>
       </c>
       <c r="C12" s="24">
-        <v>7.7579146611291196E-3</v>
+        <v>7.7579146611290997E-3</v>
       </c>
       <c r="D12" s="2">
         <v>6.7860615503902294E-2</v>
@@ -4069,7 +4081,7 @@
         <v>1.5597659352920401</v>
       </c>
       <c r="H12" s="24">
-        <v>6.2775012017497397E-3</v>
+        <v>6.2775012017496998E-3</v>
       </c>
       <c r="I12" s="2">
         <v>3.7412446588421001E-2</v>
@@ -4088,7 +4100,7 @@
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.4700213736159626E-3</v>
+        <v>3.5367247645622974E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4096,7 +4108,7 @@
         <v>45303</v>
       </c>
       <c r="C13" s="24">
-        <v>6.3557656753578497E-3</v>
+        <v>6.3557656753578003E-3</v>
       </c>
       <c r="D13" s="2">
         <v>7.4216381179260202E-2</v>
@@ -4111,7 +4123,7 @@
         <v>1.7419645513189701</v>
       </c>
       <c r="H13" s="24">
-        <v>3.11352475458324E-3</v>
+        <v>3.1135247545832001E-3</v>
       </c>
       <c r="I13" s="2">
         <v>4.0525971343004299E-2</v>
@@ -4130,7 +4142,7 @@
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.1324161211576887E-2</v>
+        <v>8.3564110015203238E-2</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4138,7 +4150,7 @@
         <v>45307</v>
       </c>
       <c r="C14" s="24">
-        <v>3.0132134800121202E-3</v>
+        <v>3.0132134800121002E-3</v>
       </c>
       <c r="D14" s="2">
         <v>7.7229594659272302E-2</v>
@@ -4153,7 +4165,7 @@
         <v>1.7967045962058501</v>
       </c>
       <c r="H14" s="24">
-        <v>2.0714374829100099E-3</v>
+        <v>2.0714374829099999E-3</v>
       </c>
       <c r="I14" s="2">
         <v>4.2597408825914299E-2</v>
@@ -4173,7 +4185,7 @@
         <v>45308</v>
       </c>
       <c r="C15" s="24">
-        <v>3.34039744540771E-3</v>
+        <v>3.3403974454077E-3</v>
       </c>
       <c r="D15" s="2">
         <v>8.0569992104679994E-2</v>
@@ -4188,7 +4200,7 @@
         <v>1.8821233308812799</v>
       </c>
       <c r="H15" s="24">
-        <v>3.5865382932792199E-4</v>
+        <v>3.5865382932789998E-4</v>
       </c>
       <c r="I15" s="2">
         <v>4.2956062655242197E-2</v>
@@ -4214,7 +4226,7 @@
         <v>45309</v>
       </c>
       <c r="C16" s="24">
-        <v>1.5560310832290901E-3</v>
+        <v>1.5560310832289999E-3</v>
       </c>
       <c r="D16" s="2">
         <v>8.2126023187909195E-2</v>
@@ -4226,7 +4238,7 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.9256922012116899</v>
+        <v>1.9256922012116999</v>
       </c>
       <c r="H16" s="24">
         <v>1.6056544759565001E-3</v>
@@ -4248,11 +4260,11 @@
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.3773910411478179</v>
+        <v>1.4172277247108216</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.5408449333989083</v>
+        <v>2.6278025984261753</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4275,7 +4287,7 @@
         <v>1.7180346469157699</v>
       </c>
       <c r="H17" s="24">
-        <v>2.9519547798491602E-3</v>
+        <v>2.9519547798490999E-3</v>
       </c>
       <c r="I17" s="2">
         <v>4.7513671911047897E-2</v>
@@ -4294,11 +4306,11 @@
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>7.6660261644253751</v>
+        <v>8.0316763859127569</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>22.400072018571382</v>
+        <v>23.855460699475501</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4309,7 +4321,7 @@
         <v>45313</v>
       </c>
       <c r="C18" s="24">
-        <v>1.43653421561418E-4</v>
+        <v>1.4365342156140001E-4</v>
       </c>
       <c r="D18" s="2">
         <v>7.8494084713181006E-2</v>
@@ -4318,13 +4330,13 @@
         <v>19.636363636363601</v>
       </c>
       <c r="F18" s="4">
-        <v>2.82083082338784E-3</v>
+        <v>2.8208308233878001E-3</v>
       </c>
       <c r="G18" s="3">
         <v>1.72085547773915</v>
       </c>
       <c r="H18" s="24">
-        <v>1.6729174575032099E-3</v>
+        <v>1.6729174575031999E-3</v>
       </c>
       <c r="I18" s="2">
         <v>4.9186589368551102E-2</v>
@@ -4344,7 +4356,7 @@
         <v>45314</v>
       </c>
       <c r="C19" s="24">
-        <v>8.7362467879305598E-4</v>
+        <v>8.7362467879300004E-4</v>
       </c>
       <c r="D19" s="2">
         <v>7.9367709391974003E-2</v>
@@ -4359,7 +4371,7 @@
         <v>1.74946668596963</v>
       </c>
       <c r="H19" s="24">
-        <v>3.7575648991879798E-3</v>
+        <v>3.7575648991879E-3</v>
       </c>
       <c r="I19" s="2">
         <v>5.2944154267739102E-2</v>
@@ -4379,7 +4391,7 @@
         <v>45315</v>
       </c>
       <c r="C20" s="24">
-        <v>7.2091695203043901E-4</v>
+        <v>7.2091695203039998E-4</v>
       </c>
       <c r="D20" s="2">
         <v>8.0088626344004502E-2</v>
@@ -4394,7 +4406,7 @@
         <v>1.7764289799755699</v>
       </c>
       <c r="H20" s="24">
-        <v>1.86966093164153E-3</v>
+        <v>1.8696609316415E-3</v>
       </c>
       <c r="I20" s="2">
         <v>5.4813815199380597E-2</v>
@@ -4414,7 +4426,7 @@
         <v>45316</v>
       </c>
       <c r="C21" s="24">
-        <v>2.0572448108690301E-3</v>
+        <v>2.0572448108690002E-3</v>
       </c>
       <c r="D21" s="2">
         <v>8.2145871154873498E-2</v>
@@ -4429,7 +4441,7 @@
         <v>1.8470610518154</v>
       </c>
       <c r="H21" s="24">
-        <v>4.9122224199130799E-3</v>
+        <v>4.9122224199130001E-3</v>
       </c>
       <c r="I21" s="2">
         <v>5.9726037619293702E-2</v>
@@ -4449,7 +4461,7 @@
         <v>45317</v>
       </c>
       <c r="C22" s="24">
-        <v>7.72867727743675E-4</v>
+        <v>7.7286772774359997E-4</v>
       </c>
       <c r="D22" s="2">
         <v>8.2918738882617193E-2</v>
@@ -4464,7 +4476,7 @@
         <v>1.87121316830739</v>
       </c>
       <c r="H22" s="24">
-        <v>3.9207591769650496E-3</v>
+        <v>3.9207591769650002E-3</v>
       </c>
       <c r="I22" s="2">
         <v>6.3646796796258703E-2</v>
@@ -4484,7 +4496,7 @@
         <v>45320</v>
       </c>
       <c r="C23" s="24">
-        <v>1.96507374341758E-3</v>
+        <v>1.9650737434175002E-3</v>
       </c>
       <c r="D23" s="2">
         <v>8.4883812626034796E-2</v>
@@ -4499,7 +4511,7 @@
         <v>1.9462789853059399</v>
       </c>
       <c r="H23" s="24">
-        <v>2.5681502163178199E-3</v>
+        <v>2.5681502163178E-3</v>
       </c>
       <c r="I23" s="2">
         <v>6.6214947012576603E-2</v>
@@ -4519,7 +4531,7 @@
         <v>45321</v>
       </c>
       <c r="C24" s="24">
-        <v>6.60313982827358E-3</v>
+        <v>6.6031398282735002E-3</v>
       </c>
       <c r="D24" s="2">
         <v>9.1486952454308296E-2</v>
@@ -4534,7 +4546,7 @@
         <v>2.1341683276922701</v>
       </c>
       <c r="H24" s="24">
-        <v>2.7909998955241298E-3</v>
+        <v>2.7909998955240999E-3</v>
       </c>
       <c r="I24" s="2">
         <v>6.9005946908100704E-2</v>
@@ -4554,7 +4566,7 @@
         <v>45322</v>
       </c>
       <c r="C25" s="24">
-        <v>3.8829805516405499E-3</v>
+        <v>3.8829805516405001E-3</v>
       </c>
       <c r="D25" s="2">
         <v>9.5369933005948898E-2</v>
@@ -4569,7 +4581,7 @@
         <v>2.2529522327492799</v>
       </c>
       <c r="H25" s="24">
-        <v>1.54389566864484E-3</v>
+        <v>1.5438956686448001E-3</v>
       </c>
       <c r="I25" s="2">
         <v>7.05498425767455E-2</v>
@@ -4589,7 +4601,7 @@
         <v>45323</v>
       </c>
       <c r="C26" s="24">
-        <v>-3.1394119371691499E-3</v>
+        <v>-3.1394119371691001E-3</v>
       </c>
       <c r="D26" s="2">
         <v>9.22305210687797E-2</v>
@@ -4624,7 +4636,7 @@
         <v>45324</v>
       </c>
       <c r="C27" s="24">
-        <v>1.8910732895823701E-3</v>
+        <v>1.8910732895823E-3</v>
       </c>
       <c r="D27" s="2">
         <v>9.4121594358362107E-2</v>
@@ -4639,7 +4651,7 @@
         <v>2.13895321821771</v>
       </c>
       <c r="H27" s="24">
-        <v>2.7800476918048499E-3</v>
+        <v>2.7800476918048E-3</v>
       </c>
       <c r="I27" s="2">
         <v>7.4585285167686102E-2</v>
@@ -4659,7 +4671,7 @@
         <v>45327</v>
       </c>
       <c r="C28" s="24">
-        <v>5.3969062995158201E-3</v>
+        <v>5.3969062995158001E-3</v>
       </c>
       <c r="D28" s="2">
         <v>9.9518500657877901E-2</v>
@@ -4674,7 +4686,7 @@
         <v>2.2889872133442499</v>
       </c>
       <c r="H28" s="24">
-        <v>2.8893363947432799E-3</v>
+        <v>2.8893363947432001E-3</v>
       </c>
       <c r="I28" s="2">
         <v>7.7474621562429402E-2</v>
@@ -4694,7 +4706,7 @@
         <v>45328</v>
       </c>
       <c r="C29" s="24">
-        <v>2.4010411263502601E-3</v>
+        <v>2.4010411263501999E-3</v>
       </c>
       <c r="D29" s="2">
         <v>0.101919541784228</v>
@@ -4709,7 +4721,7 @@
         <v>2.3474125474187701</v>
       </c>
       <c r="H29" s="24">
-        <v>3.4136661496976398E-3</v>
+        <v>3.4136661496975999E-3</v>
       </c>
       <c r="I29" s="2">
         <v>8.0888287712126999E-2</v>
@@ -4729,7 +4741,7 @@
         <v>45329</v>
       </c>
       <c r="C30" s="24">
-        <v>-2.91992089470435E-3</v>
+        <v>-2.9199208947043001E-3</v>
       </c>
       <c r="D30" s="2">
         <v>9.8999620889523895E-2</v>
@@ -4741,10 +4753,10 @@
         <v>-7.8837864157017504E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.2685746832617499</v>
+        <v>2.2685746832617601</v>
       </c>
       <c r="H30" s="24">
-        <v>6.3511041738722098E-3</v>
+        <v>6.3511041738722003E-3</v>
       </c>
       <c r="I30" s="2">
         <v>8.7239391885999204E-2</v>
@@ -4759,7 +4771,7 @@
         <v>2.3278132861199898</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="13">
         <v>45330</v>
       </c>
@@ -4773,13 +4785,13 @@
         <v>21</v>
       </c>
       <c r="F31" s="4">
-        <v>-1.24547481657899E-4</v>
+        <v>-1.2454748165779999E-4</v>
       </c>
       <c r="G31" s="3">
         <v>2.2684501357801001</v>
       </c>
       <c r="H31" s="24">
-        <v>4.8832229125979898E-3</v>
+        <v>4.8832229125978996E-3</v>
       </c>
       <c r="I31" s="2">
         <v>9.2122614798597194E-2</v>
@@ -4794,12 +4806,12 @@
         <v>2.4183466886900602</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="13">
         <v>45331</v>
       </c>
       <c r="C32" s="24">
-        <v>5.5184695342524602E-4</v>
+        <v>5.5184695342520005E-4</v>
       </c>
       <c r="D32" s="2">
         <v>9.9545537010489196E-2</v>
@@ -4814,7 +4826,7 @@
         <v>2.2867884345400702</v>
       </c>
       <c r="H32" s="24">
-        <v>4.6118474019017901E-3</v>
+        <v>4.6118474019016999E-3</v>
       </c>
       <c r="I32" s="2">
         <v>9.6734462200499E-2</v>
@@ -4834,7 +4846,7 @@
         <v>45334</v>
       </c>
       <c r="C33" s="24">
-        <v>1.72412656533466E-3</v>
+        <v>1.7241265653346E-3</v>
       </c>
       <c r="D33" s="2">
         <v>0.101269663575823</v>
@@ -4869,7 +4881,7 @@
         <v>45335</v>
       </c>
       <c r="C34" s="24">
-        <v>4.9001577632272397E-3</v>
+        <v>4.9001577632271998E-3</v>
       </c>
       <c r="D34" s="2">
         <v>0.10616982133905099</v>
@@ -4884,7 +4896,7 @@
         <v>2.4101003567514701</v>
       </c>
       <c r="H34" s="24">
-        <v>4.6898037252862098E-3</v>
+        <v>4.6898037252862002E-3</v>
       </c>
       <c r="I34" s="2">
         <v>0.102704473814997</v>
@@ -4904,7 +4916,7 @@
         <v>45336</v>
       </c>
       <c r="C35" s="24">
-        <v>7.7865177770047103E-3</v>
+        <v>7.7865177770046999E-3</v>
       </c>
       <c r="D35" s="2">
         <v>0.113956339116055</v>
@@ -4919,7 +4931,7 @@
         <v>2.5560975650703099</v>
       </c>
       <c r="H35" s="24">
-        <v>1.8965975356070601E-3</v>
+        <v>1.896597535607E-3</v>
       </c>
       <c r="I35" s="2">
         <v>0.10460107135060399</v>
@@ -4939,7 +4951,7 @@
         <v>45337</v>
       </c>
       <c r="C36" s="24">
-        <v>-2.00269389832986E-3</v>
+        <v>-2.0026938983298001E-3</v>
       </c>
       <c r="D36" s="2">
         <v>0.11195364521772599</v>
@@ -4954,7 +4966,7 @@
         <v>2.5058299482222299</v>
       </c>
       <c r="H36" s="24">
-        <v>4.5219416564756497E-3</v>
+        <v>4.5219416564756003E-3</v>
       </c>
       <c r="I36" s="2">
         <v>0.10912301300707999</v>
@@ -4989,7 +5001,7 @@
         <v>2.7131716812779101</v>
       </c>
       <c r="H37" s="24">
-        <v>3.9956519957456702E-3</v>
+        <v>3.9956519957455999E-3</v>
       </c>
       <c r="I37" s="2">
         <v>0.113118665002826</v>
@@ -5009,7 +5021,7 @@
         <v>45342</v>
       </c>
       <c r="C38" s="24">
-        <v>2.1121506307297702E-3</v>
+        <v>2.1121506307296999E-3</v>
       </c>
       <c r="D38" s="2">
         <v>0.12040652162997501</v>
@@ -5044,7 +5056,7 @@
         <v>45343</v>
       </c>
       <c r="C39" s="24">
-        <v>3.0943298814374099E-3</v>
+        <v>3.0943298814373999E-3</v>
       </c>
       <c r="D39" s="2">
         <v>0.123500851511412</v>
@@ -5059,7 +5071,7 @@
         <v>2.8032255232524501</v>
       </c>
       <c r="H39" s="24">
-        <v>2.5931588606440598E-3</v>
+        <v>2.593158860644E-3</v>
       </c>
       <c r="I39" s="2">
         <v>0.117898078108262</v>
@@ -5079,7 +5091,7 @@
         <v>45344</v>
       </c>
       <c r="C40" s="24">
-        <v>5.1937057594194898E-3</v>
+        <v>5.1937057594193996E-3</v>
       </c>
       <c r="D40" s="2">
         <v>0.12869455727083201</v>
@@ -5100,7 +5112,7 @@
         <v>0.12165621855902201</v>
       </c>
       <c r="J40" s="5">
-        <v>23.126436781609101</v>
+        <v>23.1264367816092</v>
       </c>
       <c r="K40" s="4">
         <v>8.6912397550900203E-2</v>
@@ -5114,7 +5126,7 @@
         <v>45345</v>
       </c>
       <c r="C41" s="24">
-        <v>7.0047845150002198E-4</v>
+        <v>7.0047845149999997E-4</v>
       </c>
       <c r="D41" s="2">
         <v>0.12939503572233199</v>
@@ -5149,7 +5161,7 @@
         <v>45348</v>
       </c>
       <c r="C42" s="24">
-        <v>3.7785405054882198E-3</v>
+        <v>3.7785405054881998E-3</v>
       </c>
       <c r="D42" s="2">
         <v>0.13317357622782</v>
@@ -5164,7 +5176,7 @@
         <v>3.0411175622816802</v>
       </c>
       <c r="H42" s="24">
-        <v>2.9198268344588101E-3</v>
+        <v>2.9198268344588002E-3</v>
       </c>
       <c r="I42" s="2">
         <v>0.12892617038516399</v>
@@ -5187,7 +5199,7 @@
         <v>45349</v>
       </c>
       <c r="C43" s="24">
-        <v>3.69090433682442E-3</v>
+        <v>3.6909043368244E-3</v>
       </c>
       <c r="D43" s="2">
         <v>0.13686448056464401</v>
@@ -5225,7 +5237,7 @@
         <v>45350</v>
       </c>
       <c r="C44" s="24">
-        <v>9.8788449974658698E-3</v>
+        <v>9.8788449974658004E-3</v>
       </c>
       <c r="D44" s="2">
         <v>0.14674332556211001</v>
@@ -5240,7 +5252,7 @@
         <v>3.2581315797014399</v>
       </c>
       <c r="H44" s="24">
-        <v>5.2785557117733303E-3</v>
+        <v>5.2785557117732999E-3</v>
       </c>
       <c r="I44" s="2">
         <v>0.13781248400969201</v>
@@ -5256,6 +5268,43 @@
       </c>
       <c r="N44" s="23" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B45" s="13">
+        <v>45351</v>
+      </c>
+      <c r="C45" s="24">
+        <v>5.86052724796107E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <f>D44*(1+Table1[[#This Row],[Realized Daily Return]])</f>
+        <v>0.14760331882002317</v>
+      </c>
+      <c r="E45" s="5">
+        <v>20.482758620689602</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.120039765009961</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.120039765009961</v>
+      </c>
+      <c r="H45" s="24">
+        <v>6.7293918346609796E-3</v>
+      </c>
+      <c r="I45" s="2">
+        <f>I44*(1+Table1[[#This Row],[Realized Daily Return]])</f>
+        <v>0.13862013782734001</v>
+      </c>
+      <c r="J45" s="5">
+        <v>34.034749034748998</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.229033162249175</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.229033162249175</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6426CE9-7E85-48E7-94D5-9C8096F6961A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5859C2-F68E-4EE8-A865-F548DD6651F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,130 +1117,130 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>3.6222097973263E-3</c:v>
+                  <c:v>3.6222097973263598E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9800794320938001E-3</c:v>
+                  <c:v>6.1148152228214497E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.14131204861013E-2</c:v>
+                  <c:v>1.180024494069E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.08581015951389E-2</c:v>
+                  <c:v>2.2031239158667199E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9208943355394201E-2</c:v>
+                  <c:v>3.0382080918922499E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.47261158705999E-2</c:v>
+                  <c:v>3.5899253434128101E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9535483607738698E-2</c:v>
+                  <c:v>5.1034250733504802E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.01027008427732E-2</c:v>
+                  <c:v>6.2438769106589402E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7860615503902294E-2</c:v>
+                  <c:v>7.0196683767718607E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4216381179260202E-2</c:v>
+                  <c:v>7.6552449443076404E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7229594659272302E-2</c:v>
+                  <c:v>7.9565662923088504E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0569992104679994E-2</c:v>
+                  <c:v>8.2906060368496307E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2126023187909195E-2</c:v>
+                  <c:v>8.4462091451725396E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8350431291619504E-2</c:v>
+                  <c:v>8.0686499555435803E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8494084713181006E-2</c:v>
+                  <c:v>8.0830152976997194E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9367709391974003E-2</c:v>
+                  <c:v>8.1982887169692195E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0088626344004502E-2</c:v>
+                  <c:v>8.2703804121722596E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2145871154873498E-2</c:v>
+                  <c:v>8.5832290431213099E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.2918738882617193E-2</c:v>
+                  <c:v>8.6605158158956794E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.4883812626034796E-2</c:v>
+                  <c:v>8.8570231902374397E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.1486952454308296E-2</c:v>
+                  <c:v>9.5173371730647993E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.5369933005948898E-2</c:v>
+                  <c:v>9.9471073738348806E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.22305210687797E-2</c:v>
+                  <c:v>9.7396608349688898E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.4121594358362107E-2</c:v>
+                  <c:v>0.10089853431877301</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.9518500657877901E-2</c:v>
+                  <c:v>0.10629544061828899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.101919541784228</c:v>
+                  <c:v>0.108163104698834</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.8999620889523895E-2</c:v>
+                  <c:v>0.10524318380413</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.8993690057064002E-2</c:v>
+                  <c:v>0.10533221956731301</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9545537010489196E-2</c:v>
+                  <c:v>0.10588406652073799</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.101269663575823</c:v>
+                  <c:v>0.107608193086072</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10616982133905099</c:v>
+                  <c:v>0.110943457359194</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.113956339116055</c:v>
+                  <c:v>0.118539017050799</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11195364521772599</c:v>
+                  <c:v>0.11653632315246901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.118294370999245</c:v>
+                  <c:v>0.122725068125738</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12040652162997501</c:v>
+                  <c:v>0.12505004210092799</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.123500851511412</c:v>
+                  <c:v>0.128739722384073</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.12869455727083201</c:v>
+                  <c:v>0.134176825123311</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.12939503572233199</c:v>
+                  <c:v>0.13463127656459001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13317357622782</c:v>
+                  <c:v>0.13834105478398101</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.13686448056464401</c:v>
+                  <c:v>0.142084449626525</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.14674332556211001</c:v>
+                  <c:v>0.15212468989983899</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.14760331882002317</c:v>
+                  <c:v>0.15803633737773201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,130 +1773,130 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>3.3107337504962998E-3</c:v>
+                  <c:v>5.8048320730386604E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0859810750609998E-3</c:v>
+                  <c:v>9.6703119701003794E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4043376662185501E-2</c:v>
+                  <c:v>1.2608834243340101E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8447833337244E-2</c:v>
+                  <c:v>1.5794338602512999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2589711863584001E-2</c:v>
+                  <c:v>1.9532167015284398E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6180180382640899E-2</c:v>
+                  <c:v>2.2363425937387299E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8263628809277502E-2</c:v>
+                  <c:v>2.38838399853879E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.11349453866713E-2</c:v>
+                  <c:v>2.87448823406273E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7412446588421001E-2</c:v>
+                  <c:v>3.2037789045926898E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0525971343004299E-2</c:v>
+                  <c:v>3.5863220647759202E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2597408825914299E-2</c:v>
+                  <c:v>3.72711341646507E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2956062655242197E-2</c:v>
+                  <c:v>3.7531634799680497E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4561717131198698E-2</c:v>
+                  <c:v>3.8228878124797597E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7513671911047897E-2</c:v>
+                  <c:v>4.0152987664748299E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9186589368551102E-2</c:v>
+                  <c:v>4.2056508006633603E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2944154267739102E-2</c:v>
+                  <c:v>4.44131807437948E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4813815199380597E-2</c:v>
+                  <c:v>4.9372798087754598E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.9726037619293702E-2</c:v>
+                  <c:v>5.3568378622932601E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3646796796258703E-2</c:v>
+                  <c:v>5.7101106477498297E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.6214947012576603E-2</c:v>
+                  <c:v>6.0119211208638598E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.9005946908100704E-2</c:v>
+                  <c:v>6.4182487205431293E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.05498425767455E-2</c:v>
+                  <c:v>6.7096766136297198E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1805237475881203E-2</c:v>
+                  <c:v>6.8865137837315904E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.4585285167686102E-2</c:v>
+                  <c:v>6.9917014964492305E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.7474621562429402E-2</c:v>
+                  <c:v>7.1257533964462105E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0888287712126999E-2</c:v>
+                  <c:v>7.3139463989794096E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.7239391885999204E-2</c:v>
+                  <c:v>7.5158691140729206E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.2122614798597194E-2</c:v>
+                  <c:v>8.1576565695153994E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.6734462200499E-2</c:v>
+                  <c:v>9.0797014038890497E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.8014670089711403E-2</c:v>
+                  <c:v>9.7999424962166001E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.102704473814997</c:v>
+                  <c:v>0.103579696926106</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.10460107135060399</c:v>
+                  <c:v>0.109191360722148</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.10912301300707999</c:v>
+                  <c:v>0.11978332325053601</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.113118665002826</c:v>
+                  <c:v>0.12990557428149199</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.115304919247618</c:v>
+                  <c:v>0.13432504763300901</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.117898078108262</c:v>
+                  <c:v>0.137152365939014</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.12165621855902201</c:v>
+                  <c:v>0.141833091502653</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.126006343550705</c:v>
+                  <c:v>0.14853350536858501</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.12892617038516399</c:v>
+                  <c:v>0.15293868026988999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.13253392829791899</c:v>
+                  <c:v>0.159378826171892</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.13781248400969201</c:v>
+                  <c:v>0.166965823356716</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.13862013782734001</c:v>
+                  <c:v>0.17381317471348001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3662,7 +3662,7 @@
   <dimension ref="B1:Z45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA42" sqref="AA42"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3693,7 +3693,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 263%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 327%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3744,10 +3744,10 @@
         <v>45289</v>
       </c>
       <c r="C4" s="24">
-        <v>3.6222097973263E-3</v>
+        <v>3.6222097973263598E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>3.6222097973263E-3</v>
+        <v>3.6222097973263598E-3</v>
       </c>
       <c r="E4" s="5">
         <v>24.6</v>
@@ -3759,26 +3759,26 @@
         <v>8.9106361014228405E-2</v>
       </c>
       <c r="H4" s="24">
-        <v>3.3107337504962998E-3</v>
+        <v>5.8048320730386604E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>3.3107337504962998E-3</v>
+        <v>5.8048320730386604E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>32.25</v>
+        <v>45.067567567567501</v>
       </c>
       <c r="K4" s="4">
-        <v>0.106771163453506</v>
+        <v>0.26160966167005301</v>
       </c>
       <c r="L4" s="3">
-        <v>0.106771163453506</v>
+        <v>0.26160966167005301</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.6334250669064309E-3</v>
+        <v>3.7627699375650477E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3786,41 +3786,41 @@
         <v>45293</v>
       </c>
       <c r="C5" s="24">
-        <v>2.3578696347674E-3</v>
+        <v>2.4926054254950899E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>5.9800794320938001E-3</v>
+        <v>6.1148152228214497E-3</v>
       </c>
       <c r="E5" s="5">
-        <v>26.210526315789402</v>
+        <v>26.2</v>
       </c>
       <c r="F5" s="4">
-        <v>6.1801004111273698E-2</v>
+        <v>6.5306262147971403E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.15090736512550201</v>
+        <v>0.154412623162199</v>
       </c>
       <c r="H5" s="24">
-        <v>4.7752473245646996E-3</v>
+        <v>3.8654798970617099E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>8.0859810750609998E-3</v>
+        <v>9.6703119701003794E-3</v>
       </c>
       <c r="J5" s="5">
-        <v>35.346153846153797</v>
+        <v>48.413333333333298</v>
       </c>
       <c r="K5" s="4">
-        <v>0.16878662658749899</v>
+        <v>0.187140766749747</v>
       </c>
       <c r="L5" s="3">
-        <v>0.275557790041005</v>
+        <v>0.44875042841980101</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.0432651064557131E-2</v>
+        <v>8.4909251695091295E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3828,41 +3828,41 @@
         <v>45294</v>
       </c>
       <c r="C6" s="24">
-        <v>5.4330410540073997E-3</v>
+        <v>5.6854297178686296E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.14131204861013E-2</v>
+        <v>1.180024494069E-2</v>
       </c>
       <c r="E6" s="5">
         <v>29.2222222222222</v>
       </c>
       <c r="F6" s="4">
-        <v>0.158765533022662</v>
+        <v>0.166140890644383</v>
       </c>
       <c r="G6" s="3">
-        <v>0.30967289814816501</v>
+        <v>0.32055351380658298</v>
       </c>
       <c r="H6" s="24">
-        <v>5.9573955871244999E-3</v>
+        <v>2.93852227323978E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.4043376662185501E-2</v>
+        <v>1.2608834243340101E-2</v>
       </c>
       <c r="J6" s="5">
-        <v>34.736842105263101</v>
+        <v>48.7631578947368</v>
       </c>
       <c r="K6" s="4">
-        <v>0.20694110986853601</v>
+        <v>0.143291625587192</v>
       </c>
       <c r="L6" s="3">
-        <v>0.48249889990954198</v>
+        <v>0.59204205400699395</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>26.634119004265251</v>
+        <v>26.436386870533688</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3870,34 +3870,34 @@
         <v>45295</v>
       </c>
       <c r="C7" s="24">
-        <v>9.4449811090376E-3</v>
+        <v>1.02309942179771E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>2.08581015951389E-2</v>
+        <v>2.2031239158667199E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>40.25</v>
+        <v>38.571428571428498</v>
       </c>
       <c r="F7" s="4">
-        <v>0.38016048963876498</v>
+        <v>0.394624062693404</v>
       </c>
       <c r="G7" s="3">
-        <v>0.68983338778693104</v>
+        <v>0.71517757649998703</v>
       </c>
       <c r="H7" s="24">
-        <v>4.4044566750584E-3</v>
+        <v>3.18550435917283E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.8447833337244E-2</v>
+        <v>1.5794338602512999E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>33.5625</v>
+        <v>46.691358024691297</v>
       </c>
       <c r="K7" s="4">
-        <v>0.14782457715665001</v>
+        <v>0.14873552452335401</v>
       </c>
       <c r="L7" s="3">
-        <v>0.63032347706619196</v>
+        <v>0.74077757853034798</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3908,7 +3908,7 @@
         <v>8.3508417602552992E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.9208943355394201E-2</v>
+        <v>3.0382080918922499E-2</v>
       </c>
       <c r="E8" s="5">
         <v>22</v>
@@ -3917,29 +3917,29 @@
         <v>0.18371851872561601</v>
       </c>
       <c r="G8" s="3">
-        <v>0.87355190651254699</v>
+        <v>0.89889609522560399</v>
       </c>
       <c r="H8" s="24">
-        <v>4.1418785263400001E-3</v>
+        <v>3.7378284127714402E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>2.2589711863584001E-2</v>
+        <v>1.9532167015284398E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>59.758620689655103</v>
+        <v>45.447058823529403</v>
       </c>
       <c r="K8" s="4">
-        <v>0.247512947798181</v>
+        <v>0.16987330774748299</v>
       </c>
       <c r="L8" s="3">
-        <v>0.87783642486437397</v>
+        <v>0.91065088627783097</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>3.4414732343893257E-3</v>
+        <v>4.1384089217495392E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3947,10 +3947,10 @@
         <v>45299</v>
       </c>
       <c r="C9" s="24">
-        <v>5.5171725152056003E-3</v>
+        <v>5.5171725152056298E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.47261158705999E-2</v>
+        <v>3.5899253434128101E-2</v>
       </c>
       <c r="E9" s="5">
         <v>39.375</v>
@@ -3959,29 +3959,29 @@
         <v>0.217238667786221</v>
       </c>
       <c r="G9" s="3">
-        <v>1.09079057429876</v>
+        <v>1.1161347630118199</v>
       </c>
       <c r="H9" s="24">
-        <v>3.5904685190568E-3</v>
+        <v>2.8312589221028898E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>2.6180180382640899E-2</v>
+        <v>2.2363425937387299E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>23.170731707317</v>
+        <v>42.8958333333333</v>
       </c>
       <c r="K9" s="4">
-        <v>8.3193782758634496E-2</v>
+        <v>0.12144921084603801</v>
       </c>
       <c r="L9" s="3">
-        <v>0.96103020762300795</v>
+        <v>1.0321000971238701</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>8.6648653180967039E-2</v>
+        <v>0.14983793329548448</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -3989,41 +3989,41 @@
         <v>45300</v>
       </c>
       <c r="C10" s="24">
-        <v>1.48093677371388E-2</v>
+        <v>1.5134997299376601E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>4.9535483607738698E-2</v>
+        <v>5.1034250733504802E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>11.75</v>
+        <v>12.1666666666666</v>
       </c>
       <c r="F10" s="4">
-        <v>0.17401007091138099</v>
+        <v>0.184142467142416</v>
       </c>
       <c r="G10" s="3">
-        <v>1.2648006452101499</v>
+        <v>1.30027723015424</v>
       </c>
       <c r="H10" s="24">
-        <v>2.0834484266364999E-3</v>
+        <v>1.5204140480006201E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>2.8263628809277502E-2</v>
+        <v>2.38838399853879E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>14.953488372093</v>
+        <v>35.411764705882298</v>
       </c>
       <c r="K10" s="4">
-        <v>3.1154821821565301E-2</v>
+        <v>5.3840544523316103E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>0.99218502944457398</v>
+        <v>1.08594064164718</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>27.03922294691818</v>
+        <v>37.235502973387568</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -4031,34 +4031,34 @@
         <v>45301</v>
       </c>
       <c r="C11" s="24">
-        <v>1.0567217235034501E-2</v>
+        <v>1.14045183730846E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>6.01027008427732E-2</v>
+        <v>6.2438769106589402E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>10</v>
+        <v>10.285714285714199</v>
       </c>
       <c r="F11" s="4">
-        <v>0.105672172350345</v>
+        <v>0.117303617551727</v>
       </c>
       <c r="G11" s="3">
-        <v>1.3704728175604901</v>
+        <v>1.4175808477059699</v>
       </c>
       <c r="H11" s="24">
-        <v>2.8713165773937999E-3</v>
+        <v>4.8610423552393903E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.11349453866713E-2</v>
+        <v>2.87448823406273E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>17.75</v>
+        <v>34.3888888888888</v>
       </c>
       <c r="K11" s="4">
-        <v>5.0965869248739998E-2</v>
+        <v>0.16716584543851001</v>
       </c>
       <c r="L11" s="3">
-        <v>1.04315089869331</v>
+        <v>1.2531064870856901</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4066,10 +4066,10 @@
         <v>45302</v>
       </c>
       <c r="C12" s="24">
-        <v>7.7579146611290997E-3</v>
+        <v>7.7579146611291196E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>6.7860615503902294E-2</v>
+        <v>7.0196683767718607E-2</v>
       </c>
       <c r="E12" s="5">
         <v>24.4</v>
@@ -4078,29 +4078,29 @@
         <v>0.18929311773155</v>
       </c>
       <c r="G12" s="3">
-        <v>1.5597659352920401</v>
+        <v>1.6068739654375199</v>
       </c>
       <c r="H12" s="24">
-        <v>6.2775012017496998E-3</v>
+        <v>3.29290670529957E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>3.7412446588421001E-2</v>
+        <v>3.2037789045926898E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>17.139534883720899</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="K12" s="4">
-        <v>0.107593450829989</v>
+        <v>0.11294669999177499</v>
       </c>
       <c r="L12" s="3">
-        <v>1.1507443495233001</v>
+        <v>1.3660531870774699</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.5367247645622974E-3</v>
+        <v>3.9824446880209943E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4108,10 +4108,10 @@
         <v>45303</v>
       </c>
       <c r="C13" s="24">
-        <v>6.3557656753578003E-3</v>
+        <v>6.3557656753578497E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>7.4216381179260202E-2</v>
+        <v>7.6552449443076404E-2</v>
       </c>
       <c r="E13" s="5">
         <v>28.6666666666666</v>
@@ -4120,29 +4120,29 @@
         <v>0.182198616026925</v>
       </c>
       <c r="G13" s="3">
-        <v>1.7419645513189701</v>
+        <v>1.7890725814644399</v>
       </c>
       <c r="H13" s="24">
-        <v>3.1135247545832001E-3</v>
+        <v>3.8254316018322999E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.0525971343004299E-2</v>
+        <v>3.5863220647759202E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>18.058823529411701</v>
+        <v>33.496350364963497</v>
       </c>
       <c r="K13" s="4">
-        <v>5.6226594097473902E-2</v>
+        <v>0.128137997232178</v>
       </c>
       <c r="L13" s="3">
-        <v>1.2069709436207701</v>
+        <v>1.49419118430965</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>8.3564110015203238E-2</v>
+        <v>0.12287973007598998</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4150,10 +4150,10 @@
         <v>45307</v>
       </c>
       <c r="C14" s="24">
-        <v>3.0132134800121002E-3</v>
+        <v>3.0132134800121202E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.7229594659272302E-2</v>
+        <v>7.9565662923088504E-2</v>
       </c>
       <c r="E14" s="5">
         <v>18.1666666666666</v>
@@ -4162,22 +4162,22 @@
         <v>5.4740044886886899E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.7967045962058501</v>
+        <v>1.8438126263513299</v>
       </c>
       <c r="H14" s="24">
-        <v>2.0714374829099999E-3</v>
+        <v>1.4079135168914799E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>4.2597408825914299E-2</v>
+        <v>3.72711341646507E-2</v>
       </c>
       <c r="J14" s="5">
-        <v>25.875</v>
+        <v>37.2246376811594</v>
       </c>
       <c r="K14" s="4">
-        <v>5.3598444870296601E-2</v>
+        <v>5.2409070552692498E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.26056938849107</v>
+        <v>1.5466002548623401</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4185,10 +4185,10 @@
         <v>45308</v>
       </c>
       <c r="C15" s="24">
-        <v>3.3403974454077E-3</v>
+        <v>3.34039744540771E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>8.0569992104679994E-2</v>
+        <v>8.2906060368496307E-2</v>
       </c>
       <c r="E15" s="5">
         <v>25.571428571428498</v>
@@ -4197,22 +4197,22 @@
         <v>8.5418734675425795E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.8821233308812799</v>
+        <v>1.92923136102675</v>
       </c>
       <c r="H15" s="24">
-        <v>3.5865382932789998E-4</v>
+        <v>2.6050063502978E-4</v>
       </c>
       <c r="I15" s="2">
-        <v>4.2956062655242197E-2</v>
+        <v>3.7531634799680497E-2</v>
       </c>
       <c r="J15" s="5">
-        <v>121.30769230769199</v>
+        <v>38.2246376811594</v>
       </c>
       <c r="K15" s="4">
-        <v>4.3507468373087201E-2</v>
+        <v>9.9575423897252796E-3</v>
       </c>
       <c r="L15" s="3">
-        <v>1.3040768568641601</v>
+        <v>1.5565577972520599</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4226,10 +4226,10 @@
         <v>45309</v>
       </c>
       <c r="C16" s="24">
-        <v>1.5560310832289999E-3</v>
+        <v>1.5560310832290901E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.2126023187909195E-2</v>
+        <v>8.4462091451725396E-2</v>
       </c>
       <c r="E16" s="5">
         <v>28</v>
@@ -4238,33 +4238,33 @@
         <v>4.3568870330414698E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.9256922012116999</v>
+        <v>1.97280023135717</v>
       </c>
       <c r="H16" s="24">
-        <v>1.6056544759565001E-3</v>
+        <v>6.9724332511716502E-4</v>
       </c>
       <c r="I16" s="2">
-        <v>4.4561717131198698E-2</v>
+        <v>3.8228878124797597E-2</v>
       </c>
       <c r="J16" s="5">
-        <v>35.1111111111111</v>
+        <v>37.853146853146797</v>
       </c>
       <c r="K16" s="4">
-        <v>5.6376312711361697E-2</v>
+        <v>2.6392853978036399E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.36045316957552</v>
+        <v>1.5829506512300999</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.4172277247108216</v>
+        <v>1.7010320387279201</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>2.6278025984261753</v>
+        <v>3.2661234056583597</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4275,7 +4275,7 @@
         <v>-3.7755918962895998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>7.8350431291619504E-2</v>
+        <v>8.0686499555435803E-2</v>
       </c>
       <c r="E17" s="5">
         <v>55</v>
@@ -4284,33 +4284,33 @@
         <v>-0.207657554295928</v>
       </c>
       <c r="G17" s="3">
-        <v>1.7180346469157699</v>
+        <v>1.76514267706124</v>
       </c>
       <c r="H17" s="24">
-        <v>2.9519547798490999E-3</v>
+        <v>1.92410953995072E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>4.7513671911047897E-2</v>
+        <v>4.0152987664748299E-2</v>
       </c>
       <c r="J17" s="5">
-        <v>16</v>
+        <v>38.054794520547901</v>
       </c>
       <c r="K17" s="4">
-        <v>4.7231276477586598E-2</v>
+        <v>7.3221593177850694E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.4076844460531099</v>
+        <v>1.6561722444079501</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>8.0316763859127569</v>
+        <v>10.902149828120974</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>23.855460699475501</v>
+        <v>36.188880331468731</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4321,34 +4321,34 @@
         <v>45313</v>
       </c>
       <c r="C18" s="24">
-        <v>1.4365342156140001E-4</v>
+        <v>1.43653421561418E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>7.8494084713181006E-2</v>
+        <v>8.0830152976997194E-2</v>
       </c>
       <c r="E18" s="5">
         <v>19.636363636363601</v>
       </c>
       <c r="F18" s="4">
-        <v>2.8208308233878001E-3</v>
+        <v>2.82083082338784E-3</v>
       </c>
       <c r="G18" s="3">
-        <v>1.72085547773915</v>
+        <v>1.7679635078846301</v>
       </c>
       <c r="H18" s="24">
-        <v>1.6729174575031999E-3</v>
+        <v>1.9035203418852401E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>4.9186589368551102E-2</v>
+        <v>4.2056508006633603E-2</v>
       </c>
       <c r="J18" s="5">
-        <v>29.478260869565201</v>
+        <v>40.5</v>
       </c>
       <c r="K18" s="4">
-        <v>4.93146972255296E-2</v>
+        <v>7.7092573846352402E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>1.45699914327863</v>
+        <v>1.7332648182543</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4356,34 +4356,34 @@
         <v>45314</v>
       </c>
       <c r="C19" s="24">
-        <v>8.7362467879300004E-4</v>
+        <v>1.15273419269499E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>7.9367709391974003E-2</v>
+        <v>8.1982887169692195E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>32.75</v>
+        <v>37.285714285714199</v>
       </c>
       <c r="F19" s="4">
-        <v>2.8611208230472501E-2</v>
+        <v>4.2980517756199002E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.74946668596963</v>
+        <v>1.81094402564083</v>
       </c>
       <c r="H19" s="24">
-        <v>3.7575648991879E-3</v>
+        <v>2.3566727371612398E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>5.2944154267739102E-2</v>
+        <v>4.44131807437948E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>25.3</v>
+        <v>40.675496688741703</v>
       </c>
       <c r="K19" s="4">
-        <v>9.5066391949455903E-2</v>
+        <v>9.5858834116850006E-2</v>
       </c>
       <c r="L19" s="3">
-        <v>1.5520655352280901</v>
+        <v>1.82912365237115</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4391,10 +4391,10 @@
         <v>45315</v>
       </c>
       <c r="C20" s="24">
-        <v>7.2091695203039998E-4</v>
+        <v>7.2091695203043901E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>8.0088626344004502E-2</v>
+        <v>8.2703804121722596E-2</v>
       </c>
       <c r="E20" s="5">
         <v>37.4</v>
@@ -4403,22 +4403,22 @@
         <v>2.69622940059384E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.7764289799755699</v>
+        <v>1.83790631964677</v>
       </c>
       <c r="H20" s="24">
-        <v>1.8696609316415E-3</v>
+        <v>4.9596173439597603E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>5.4813815199380597E-2</v>
+        <v>4.9372798087754598E-2</v>
       </c>
       <c r="J20" s="5">
-        <v>16.0555555555555</v>
+        <v>40.863636363636303</v>
       </c>
       <c r="K20" s="4">
-        <v>3.0018444958022299E-2</v>
+        <v>0.20266799964635501</v>
       </c>
       <c r="L20" s="3">
-        <v>1.58208398018611</v>
+        <v>2.0317916520175099</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4426,34 +4426,34 @@
         <v>45316</v>
       </c>
       <c r="C21" s="24">
-        <v>2.0572448108690002E-3</v>
+        <v>3.1284863094905198E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>8.2145871154873498E-2</v>
+        <v>8.5832290431213099E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>34.3333333333333</v>
+        <v>34.875</v>
       </c>
       <c r="F21" s="4">
-        <v>7.0632071839836802E-2</v>
+        <v>0.109105960043482</v>
       </c>
       <c r="G21" s="3">
-        <v>1.8470610518154</v>
+        <v>1.94701227969025</v>
       </c>
       <c r="H21" s="24">
-        <v>4.9122224199130001E-3</v>
+        <v>4.1955805351780104E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>5.9726037619293702E-2</v>
+        <v>5.3568378622932601E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>18.368421052631501</v>
+        <v>40.5471698113207</v>
       </c>
       <c r="K21" s="4">
-        <v>9.0229769713140298E-2</v>
+        <v>0.170118916416934</v>
       </c>
       <c r="L21" s="3">
-        <v>1.67231374989925</v>
+        <v>2.2019105684344402</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4461,10 +4461,10 @@
         <v>45317</v>
       </c>
       <c r="C22" s="24">
-        <v>7.7286772774359997E-4</v>
+        <v>7.72867727743675E-4</v>
       </c>
       <c r="D22" s="2">
-        <v>8.2918738882617193E-2</v>
+        <v>8.6605158158956794E-2</v>
       </c>
       <c r="E22" s="5">
         <v>31.25</v>
@@ -4473,22 +4473,22 @@
         <v>2.4152116491989801E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>1.87121316830739</v>
+        <v>1.97116439618224</v>
       </c>
       <c r="H22" s="24">
-        <v>3.9207591769650002E-3</v>
+        <v>3.5327278545656802E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>6.3646796796258703E-2</v>
+        <v>5.7101106477498297E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>28.28125</v>
+        <v>39.556886227544901</v>
       </c>
       <c r="K22" s="4">
-        <v>0.110883970473542</v>
+        <v>0.13974371381593301</v>
       </c>
       <c r="L22" s="3">
-        <v>1.7831977203728</v>
+        <v>2.3416542822503801</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4496,10 +4496,10 @@
         <v>45320</v>
       </c>
       <c r="C23" s="24">
-        <v>1.9650737434175002E-3</v>
+        <v>1.96507374341758E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.4883812626034796E-2</v>
+        <v>8.8570231902374397E-2</v>
       </c>
       <c r="E23" s="5">
         <v>38.200000000000003</v>
@@ -4508,22 +4508,22 @@
         <v>7.5065816998551499E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>1.9462789853059399</v>
+        <v>2.0462302131807899</v>
       </c>
       <c r="H23" s="24">
-        <v>2.5681502163178E-3</v>
+        <v>3.0181047311403399E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>6.6214947012576603E-2</v>
+        <v>6.0119211208638598E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>26.260869565217298</v>
+        <v>40.1525423728813</v>
       </c>
       <c r="K23" s="4">
-        <v>6.7441857854607296E-2</v>
+        <v>0.121184578102906</v>
       </c>
       <c r="L23" s="3">
-        <v>1.8506395782274001</v>
+        <v>2.4628388603532798</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4531,10 +4531,10 @@
         <v>45321</v>
       </c>
       <c r="C24" s="24">
-        <v>6.6031398282735002E-3</v>
+        <v>6.60313982827358E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>9.1486952454308296E-2</v>
+        <v>9.5173371730647993E-2</v>
       </c>
       <c r="E24" s="5">
         <v>28.4545454545454</v>
@@ -4543,22 +4543,22 @@
         <v>0.18788934238633001</v>
       </c>
       <c r="G24" s="3">
-        <v>2.1341683276922701</v>
+        <v>2.2341195555671201</v>
       </c>
       <c r="H24" s="24">
-        <v>2.7909998955240999E-3</v>
+        <v>4.0632759967926301E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>6.9005946908100704E-2</v>
+        <v>6.4182487205431293E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>28.3947368421052</v>
+        <v>39.372972972972903</v>
       </c>
       <c r="K24" s="4">
-        <v>7.9249707559750901E-2</v>
+        <v>0.15998325600344601</v>
       </c>
       <c r="L24" s="3">
-        <v>1.9298892857871499</v>
+        <v>2.6228221163567298</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4566,34 +4566,34 @@
         <v>45322</v>
       </c>
       <c r="C25" s="24">
-        <v>3.8829805516405001E-3</v>
+        <v>4.2977020077008101E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.5369933005948898E-2</v>
+        <v>9.9471073738348806E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>30.590909090909001</v>
+        <v>32.049999999999997</v>
       </c>
       <c r="F25" s="4">
-        <v>0.11878390505700399</v>
+        <v>0.13774134934681101</v>
       </c>
       <c r="G25" s="3">
-        <v>2.2529522327492799</v>
+        <v>2.3718609049139299</v>
       </c>
       <c r="H25" s="24">
-        <v>1.5438956686448001E-3</v>
+        <v>2.91427893086596E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>7.05498425767455E-2</v>
+        <v>6.7096766136297198E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>39.172413793103402</v>
+        <v>39.310526315789403</v>
       </c>
       <c r="K25" s="4">
-        <v>6.0478119985535803E-2</v>
+        <v>0.114561838603357</v>
       </c>
       <c r="L25" s="3">
-        <v>1.9903674057726899</v>
+        <v>2.73738395496009</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4601,34 +4601,34 @@
         <v>45323</v>
       </c>
       <c r="C26" s="24">
-        <v>-3.1394119371691001E-3</v>
+        <v>-2.0744653886599E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.22305210687797E-2</v>
+        <v>9.7396608349688898E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>42.75</v>
+        <v>24.3</v>
       </c>
       <c r="F26" s="4">
-        <v>-0.13420986031398099</v>
+        <v>-5.0409508944435501E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>2.1187423724353001</v>
+        <v>2.3214513959694898</v>
       </c>
       <c r="H26" s="24">
-        <v>1.2553948991357001E-3</v>
+        <v>1.7683717010187E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>7.1805237475881203E-2</v>
+        <v>6.8865137837315904E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>26.043478260869499</v>
+        <v>36.822115384615302</v>
       </c>
       <c r="K26" s="4">
-        <v>3.2694849764447198E-2</v>
+        <v>6.5115186817799403E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.0230622555371398</v>
+        <v>2.8024991417778899</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4636,34 +4636,34 @@
         <v>45324</v>
       </c>
       <c r="C27" s="24">
-        <v>1.8910732895823E-3</v>
+        <v>3.50192596908437E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>9.4121594358362107E-2</v>
+        <v>0.10089853431877301</v>
       </c>
       <c r="E27" s="5">
-        <v>10.6875</v>
+        <v>11.3333333333333</v>
       </c>
       <c r="F27" s="4">
-        <v>2.0210845782411599E-2</v>
+        <v>3.9688494316289499E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.13895321821771</v>
+        <v>2.3611398902857799</v>
       </c>
       <c r="H27" s="24">
-        <v>2.7800476918048E-3</v>
+        <v>1.0518771271763501E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>7.4585285167686102E-2</v>
+        <v>6.9917014964492305E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>20.04</v>
+        <v>34.056277056276997</v>
       </c>
       <c r="K27" s="4">
-        <v>5.5712155743769302E-2</v>
+        <v>3.5823018872278803E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.0787744112809099</v>
+        <v>2.8383221606501698</v>
       </c>
     </row>
     <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4671,10 +4671,10 @@
         <v>45327</v>
       </c>
       <c r="C28" s="24">
-        <v>5.3969062995158001E-3</v>
+        <v>5.3969062995158201E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>9.9518500657877901E-2</v>
+        <v>0.10629544061828899</v>
       </c>
       <c r="E28" s="5">
         <v>27.8</v>
@@ -4683,22 +4683,22 @@
         <v>0.150033995126539</v>
       </c>
       <c r="G28" s="3">
-        <v>2.2889872133442499</v>
+        <v>2.5111738854123198</v>
       </c>
       <c r="H28" s="24">
-        <v>2.8893363947432001E-3</v>
+        <v>1.34051899996981E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>7.7474621562429402E-2</v>
+        <v>7.1257533964462105E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>21.489361702127599</v>
+        <v>36.425531914893597</v>
       </c>
       <c r="K28" s="4">
-        <v>6.2089994865759897E-2</v>
+        <v>4.8829117615921701E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.1408644061466702</v>
+        <v>2.88715127826609</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4706,34 +4706,34 @@
         <v>45328</v>
       </c>
       <c r="C29" s="24">
-        <v>2.4010411263501999E-3</v>
+        <v>1.86766408054538E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.101919541784228</v>
+        <v>0.108163104698834</v>
       </c>
       <c r="E29" s="5">
-        <v>24.3333333333333</v>
+        <v>25.307692307692299</v>
       </c>
       <c r="F29" s="4">
-        <v>5.8425334074523098E-2</v>
+        <v>4.7266267884571597E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.3474125474187701</v>
+        <v>2.5584401532969001</v>
       </c>
       <c r="H29" s="24">
-        <v>3.4136661496975999E-3</v>
+        <v>1.8819300253320301E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.0888287712126999E-2</v>
+        <v>7.3139463989794096E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>19.6444444444444</v>
+        <v>35.463709677419303</v>
       </c>
       <c r="K29" s="4">
-        <v>6.7059575029615903E-2</v>
+        <v>6.6740220051593704E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.2079239811762799</v>
+        <v>2.9538914983176801</v>
       </c>
     </row>
     <row r="30" spans="2:26" ht="3" customHeight="1" x14ac:dyDescent="0.35">
@@ -4741,10 +4741,10 @@
         <v>45329</v>
       </c>
       <c r="C30" s="24">
-        <v>-2.9199208947043001E-3</v>
+        <v>-2.91992089470435E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>9.8999620889523895E-2</v>
+        <v>0.10524318380413</v>
       </c>
       <c r="E30" s="5">
         <v>27</v>
@@ -4753,22 +4753,22 @@
         <v>-7.8837864157017504E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.2685746832617601</v>
+        <v>2.4796022891398799</v>
       </c>
       <c r="H30" s="24">
-        <v>6.3511041738722003E-3</v>
+        <v>2.0192271509350099E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>8.7239391885999204E-2</v>
+        <v>7.5158691140729206E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>18.876923076922999</v>
+        <v>34.515267175572497</v>
       </c>
       <c r="K30" s="4">
-        <v>0.11988930494371</v>
+        <v>6.9694164602692205E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>2.3278132861199898</v>
+        <v>3.0235856629203699</v>
       </c>
     </row>
     <row r="31" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4776,34 +4776,34 @@
         <v>45330</v>
       </c>
       <c r="C31" s="24">
-        <v>-5.9308324598999599E-6</v>
+        <v>8.9035763182900005E-5</v>
       </c>
       <c r="D31" s="2">
-        <v>9.8993690057064002E-2</v>
+        <v>0.10533221956731301</v>
       </c>
       <c r="E31" s="5">
-        <v>21</v>
+        <v>23.375</v>
       </c>
       <c r="F31" s="4">
-        <v>-1.2454748165779999E-4</v>
+        <v>2.0812109644002801E-3</v>
       </c>
       <c r="G31" s="3">
-        <v>2.2684501357801001</v>
+        <v>2.4816835001042801</v>
       </c>
       <c r="H31" s="24">
-        <v>4.8832229125978996E-3</v>
+        <v>6.4178745544248798E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.2122614798597194E-2</v>
+        <v>8.1576565695153994E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>18.539682539682499</v>
+        <v>33.232142857142797</v>
       </c>
       <c r="K31" s="4">
-        <v>9.0533402570070795E-2</v>
+        <v>0.21327972403186901</v>
       </c>
       <c r="L31" s="3">
-        <v>2.4183466886900602</v>
+        <v>3.2368653869522399</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4811,10 +4811,10 @@
         <v>45331</v>
       </c>
       <c r="C32" s="24">
-        <v>5.5184695342520005E-4</v>
+        <v>5.5184695342524602E-4</v>
       </c>
       <c r="D32" s="2">
-        <v>9.9545537010489196E-2</v>
+        <v>0.10588406652073799</v>
       </c>
       <c r="E32" s="5">
         <v>33.230769230769198</v>
@@ -4823,22 +4823,22 @@
         <v>1.83382987599774E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.2867884345400702</v>
+        <v>2.5000217988642599</v>
       </c>
       <c r="H32" s="24">
-        <v>4.6118474019016999E-3</v>
+        <v>9.2204483437364204E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>9.6734462200499E-2</v>
+        <v>9.0797014038890497E-2</v>
       </c>
       <c r="J32" s="5">
-        <v>15.0923076923076</v>
+        <v>32.491525423728802</v>
       </c>
       <c r="K32" s="4">
-        <v>6.9603420019471701E-2</v>
+        <v>0.29958643177868999</v>
       </c>
       <c r="L32" s="3">
-        <v>2.4879501087095401</v>
+        <v>3.5364518187309302</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -4846,10 +4846,10 @@
         <v>45334</v>
       </c>
       <c r="C33" s="24">
-        <v>1.7241265653346E-3</v>
+        <v>1.72412656533466E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.101269663575823</v>
+        <v>0.107608193086072</v>
       </c>
       <c r="E33" s="5">
         <v>24.047619047619001</v>
@@ -4858,22 +4858,22 @@
         <v>4.1461138833047903E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.3282495733731201</v>
+        <v>2.5414829376973</v>
       </c>
       <c r="H33" s="24">
-        <v>1.2802078892123999E-3</v>
+        <v>7.2024109232755699E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>9.8014670089711403E-2</v>
+        <v>9.7999424962166001E-2</v>
       </c>
       <c r="J33" s="5">
-        <v>20.447761194029798</v>
+        <v>33.774193548386997</v>
       </c>
       <c r="K33" s="4">
-        <v>2.61773851973283E-2</v>
+        <v>0.24325562053772601</v>
       </c>
       <c r="L33" s="3">
-        <v>2.5141274939068601</v>
+        <v>3.7797074392686598</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4881,34 +4881,34 @@
         <v>45335</v>
       </c>
       <c r="C34" s="24">
-        <v>4.9001577632271998E-3</v>
+        <v>3.3352642731213698E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.10616982133905099</v>
+        <v>0.110943457359194</v>
       </c>
       <c r="E34" s="5">
-        <v>16.703703703703699</v>
+        <v>17.307692307692299</v>
       </c>
       <c r="F34" s="4">
-        <v>8.1850783378351305E-2</v>
+        <v>5.7725727804023699E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>2.4101003567514701</v>
+        <v>2.59920866550133</v>
       </c>
       <c r="H34" s="24">
-        <v>4.6898037252862002E-3</v>
+        <v>5.5802719639404903E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.102704473814997</v>
+        <v>0.103579696926106</v>
       </c>
       <c r="J34" s="5">
-        <v>21.7088607594936</v>
+        <v>34.2222222222222</v>
       </c>
       <c r="K34" s="4">
-        <v>0.101810296061593</v>
+        <v>0.190969307210408</v>
       </c>
       <c r="L34" s="3">
-        <v>2.6159377899684602</v>
+        <v>3.9706767464790702</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4916,34 +4916,34 @@
         <v>45336</v>
       </c>
       <c r="C35" s="24">
-        <v>7.7865177770046999E-3</v>
+        <v>7.5955596916053598E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.113956339116055</v>
+        <v>0.118539017050799</v>
       </c>
       <c r="E35" s="5">
-        <v>18.75</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F35" s="4">
-        <v>0.145997208318838</v>
+        <v>0.14887296995546501</v>
       </c>
       <c r="G35" s="3">
-        <v>2.5560975650703099</v>
+        <v>2.7480816354567899</v>
       </c>
       <c r="H35" s="24">
-        <v>1.896597535607E-3</v>
+        <v>5.6116637960418898E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.10460107135060399</v>
+        <v>0.109191360722148</v>
       </c>
       <c r="J35" s="5">
-        <v>16.076923076922998</v>
+        <v>32.066473988439299</v>
       </c>
       <c r="K35" s="4">
-        <v>3.0491452687836498E-2</v>
+        <v>0.179946271147643</v>
       </c>
       <c r="L35" s="3">
-        <v>2.6464292426562901</v>
+        <v>4.1506230176267103</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4951,10 +4951,10 @@
         <v>45337</v>
       </c>
       <c r="C36" s="24">
-        <v>-2.0026938983298001E-3</v>
+        <v>-2.00269389832986E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.11195364521772599</v>
+        <v>0.11653632315246901</v>
       </c>
       <c r="E36" s="5">
         <v>25.1</v>
@@ -4963,22 +4963,22 @@
         <v>-5.0267616848079698E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.5058299482222299</v>
+        <v>2.6978140186087098</v>
       </c>
       <c r="H36" s="24">
-        <v>4.5219416564756003E-3</v>
+        <v>1.05919625283875E-2</v>
       </c>
       <c r="I36" s="2">
-        <v>0.10912301300707999</v>
+        <v>0.11978332325053601</v>
       </c>
       <c r="J36" s="5">
-        <v>20.602409638554199</v>
+        <v>32.047619047619001</v>
       </c>
       <c r="K36" s="4">
-        <v>9.3162894368353802E-2</v>
+        <v>0.33944718007642</v>
       </c>
       <c r="L36" s="3">
-        <v>2.7395921370246499</v>
+        <v>4.4900701977031297</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4986,34 +4986,34 @@
         <v>45338</v>
       </c>
       <c r="C37" s="24">
-        <v>6.3407257815193E-3</v>
+        <v>6.1887449732689398E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.118294370999245</v>
+        <v>0.122725068125738</v>
       </c>
       <c r="E37" s="5">
-        <v>32.700000000000003</v>
+        <v>32.903225806451601</v>
       </c>
       <c r="F37" s="4">
-        <v>0.20734173305568099</v>
+        <v>0.20362967331401</v>
       </c>
       <c r="G37" s="3">
-        <v>2.7131716812779101</v>
+        <v>2.90144369192272</v>
       </c>
       <c r="H37" s="24">
-        <v>3.9956519957455999E-3</v>
+        <v>1.0122251030956301E-2</v>
       </c>
       <c r="I37" s="2">
-        <v>0.113118665002826</v>
+        <v>0.12990557428149199</v>
       </c>
       <c r="J37" s="5">
-        <v>16.896103896103799</v>
+        <v>31.377659574468002</v>
       </c>
       <c r="K37" s="4">
-        <v>6.7510951252793799E-2</v>
+        <v>0.31761254697665697</v>
       </c>
       <c r="L37" s="3">
-        <v>2.8071030882774402</v>
+        <v>4.8076827446797896</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -5021,34 +5021,34 @@
         <v>45342</v>
       </c>
       <c r="C38" s="24">
-        <v>2.1121506307296999E-3</v>
+        <v>2.3249739751896102E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.12040652162997501</v>
+        <v>0.12505004210092799</v>
       </c>
       <c r="E38" s="5">
-        <v>23.590909090909001</v>
+        <v>24.3</v>
       </c>
       <c r="F38" s="4">
-        <v>4.9827553515852302E-2</v>
+        <v>5.6496867597107599E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.76299923479377</v>
+        <v>2.9579405595198298</v>
       </c>
       <c r="H38" s="24">
-        <v>2.1862542447926999E-3</v>
+        <v>4.41947335151686E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.115304919247618</v>
+        <v>0.13432504763300901</v>
       </c>
       <c r="J38" s="5">
-        <v>24.240963855421601</v>
+        <v>33.933673469387699</v>
       </c>
       <c r="K38" s="4">
-        <v>5.2996910126782197E-2</v>
+        <v>0.14996896561703399</v>
       </c>
       <c r="L38" s="3">
-        <v>2.8600999984042201</v>
+        <v>4.9576517102968198</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -5056,34 +5056,34 @@
         <v>45343</v>
       </c>
       <c r="C39" s="24">
-        <v>3.0943298814373999E-3</v>
+        <v>3.6896802831450598E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.123500851511412</v>
+        <v>0.128739722384073</v>
       </c>
       <c r="E39" s="5">
-        <v>13</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="F39" s="4">
-        <v>4.0226288458686303E-2</v>
+        <v>4.9195737108600798E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>2.8032255232524501</v>
+        <v>3.0071362966284299</v>
       </c>
       <c r="H39" s="24">
-        <v>2.593158860644E-3</v>
+        <v>2.8273183060056098E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.117898078108262</v>
+        <v>0.137152365939014</v>
       </c>
       <c r="J39" s="5">
-        <v>24.112149532710198</v>
+        <v>33.077294685990303</v>
       </c>
       <c r="K39" s="4">
-        <v>6.2526634209922397E-2</v>
+        <v>9.3520040778842795E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>2.9226266326141501</v>
+        <v>5.0511717510756702</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
@@ -5091,34 +5091,34 @@
         <v>45344</v>
       </c>
       <c r="C40" s="24">
-        <v>5.1937057594193996E-3</v>
+        <v>5.4371027392379704E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.12869455727083201</v>
+        <v>0.134176825123311</v>
       </c>
       <c r="E40" s="5">
-        <v>20.75</v>
+        <v>18.933333333333302</v>
       </c>
       <c r="F40" s="4">
-        <v>0.107769394507954</v>
+        <v>0.102942478529572</v>
       </c>
       <c r="G40" s="3">
-        <v>2.91099491776041</v>
+        <v>3.1100787751580099</v>
       </c>
       <c r="H40" s="24">
-        <v>3.7581404507595999E-3</v>
+        <v>4.6807255636384902E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.12165621855902201</v>
+        <v>0.141833091502653</v>
       </c>
       <c r="J40" s="5">
-        <v>23.1264367816092</v>
+        <v>32.581986143187002</v>
       </c>
       <c r="K40" s="4">
-        <v>8.6912397550900203E-2</v>
+        <v>0.15250733545452999</v>
       </c>
       <c r="L40" s="3">
-        <v>3.0095390301650502</v>
+        <v>5.2036790865302001</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
@@ -5126,34 +5126,34 @@
         <v>45345</v>
       </c>
       <c r="C41" s="24">
-        <v>7.0047845149999997E-4</v>
+        <v>4.5445144127867601E-4</v>
       </c>
       <c r="D41" s="2">
-        <v>0.12939503572233199</v>
+        <v>0.13463127656459001</v>
       </c>
       <c r="E41" s="5">
-        <v>34.724137931034399</v>
+        <v>35.571428571428498</v>
       </c>
       <c r="F41" s="4">
-        <v>2.43235103676042E-2</v>
+        <v>1.6165486982627202E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>2.93531842812801</v>
+        <v>3.1262442621406299</v>
       </c>
       <c r="H41" s="24">
-        <v>4.3501249916830997E-3</v>
+        <v>6.7004138659318797E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.126006343550705</v>
+        <v>0.14853350536858501</v>
       </c>
       <c r="J41" s="5">
-        <v>22.402439024390201</v>
+        <v>32.603139013452903</v>
       </c>
       <c r="K41" s="4">
-        <v>9.7453409874656699E-2</v>
+        <v>0.21845452471864399</v>
       </c>
       <c r="L41" s="3">
-        <v>3.1069924400397002</v>
+        <v>5.4221336112488396</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -5161,34 +5161,34 @@
         <v>45348</v>
       </c>
       <c r="C42" s="24">
-        <v>3.7785405054881998E-3</v>
+        <v>3.7097782193914099E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.13317357622782</v>
+        <v>0.13834105478398101</v>
       </c>
       <c r="E42" s="5">
-        <v>28</v>
+        <v>26.7777777777777</v>
       </c>
       <c r="F42" s="4">
-        <v>0.10579913415367</v>
+        <v>9.9339616763703398E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>3.0411175622816802</v>
+        <v>3.2255838789043398</v>
       </c>
       <c r="H42" s="24">
-        <v>2.9198268344588002E-3</v>
+        <v>4.4051749013050197E-3</v>
       </c>
       <c r="I42" s="2">
-        <v>0.12892617038516399</v>
+        <v>0.15293868026988999</v>
       </c>
       <c r="J42" s="5">
-        <v>22.6551724137931</v>
+        <v>34.898901098901099</v>
       </c>
       <c r="K42" s="4">
-        <v>6.6149180353084203E-2</v>
+        <v>0.153735763204005</v>
       </c>
       <c r="L42" s="3">
-        <v>3.1731416203927898</v>
+        <v>5.57586937445285</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>18</v>
@@ -5199,34 +5199,34 @@
         <v>45349</v>
       </c>
       <c r="C43" s="24">
-        <v>3.6909043368244E-3</v>
+        <v>3.74339484254433E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.13686448056464401</v>
+        <v>0.142084449626525</v>
       </c>
       <c r="E43" s="5">
-        <v>25.842105263157801</v>
+        <v>25.947368421052602</v>
       </c>
       <c r="F43" s="4">
-        <v>9.5380738388462602E-2</v>
+        <v>9.7131245124966195E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>3.1364983006701501</v>
+        <v>3.3227151240292998</v>
       </c>
       <c r="H43" s="24">
-        <v>3.6077579127545998E-3</v>
+        <v>6.4401459020020802E-3</v>
       </c>
       <c r="I43" s="2">
-        <v>0.13253392829791899</v>
+        <v>0.159378826171892</v>
       </c>
       <c r="J43" s="5">
-        <v>26.4545454545454</v>
+        <v>34.605932203389798</v>
       </c>
       <c r="K43" s="4">
-        <v>9.54415956919627E-2</v>
+        <v>0.22286725246462299</v>
       </c>
       <c r="L43" s="3">
-        <v>3.2685832160847501</v>
+        <v>5.7987366269174698</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>19</v>
@@ -5237,34 +5237,34 @@
         <v>45350</v>
       </c>
       <c r="C44" s="24">
-        <v>9.8788449974658004E-3</v>
+        <v>1.0040240273313499E-2</v>
       </c>
       <c r="D44" s="2">
-        <v>0.14674332556211001</v>
+        <v>0.15212468989983899</v>
       </c>
       <c r="E44" s="5">
-        <v>12.3125</v>
+        <v>12.0322580645161</v>
       </c>
       <c r="F44" s="4">
-        <v>0.121633279031298</v>
+        <v>0.120806761998256</v>
       </c>
       <c r="G44" s="3">
-        <v>3.2581315797014399</v>
+        <v>3.4435218860275598</v>
       </c>
       <c r="H44" s="24">
-        <v>5.2785557117732999E-3</v>
+        <v>7.58699718482388E-3</v>
       </c>
       <c r="I44" s="2">
-        <v>0.13781248400969201</v>
+        <v>0.166965823356716</v>
       </c>
       <c r="J44" s="5">
-        <v>26.830645161290299</v>
+        <v>34.509240246406499</v>
       </c>
       <c r="K44" s="4">
-        <v>0.141627055266692</v>
+        <v>0.261821508599897</v>
       </c>
       <c r="L44" s="3">
-        <v>3.4102102713514402</v>
+        <v>6.0605581355173701</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>20</v>
@@ -5275,36 +5275,34 @@
         <v>45351</v>
       </c>
       <c r="C45" s="24">
-        <v>5.86052724796107E-3</v>
+        <v>5.9116474778929196E-3</v>
       </c>
       <c r="D45" s="2">
-        <f>D44*(1+Table1[[#This Row],[Realized Daily Return]])</f>
-        <v>0.14760331882002317</v>
+        <v>0.15803633737773201</v>
       </c>
       <c r="E45" s="5">
-        <v>20.482758620689602</v>
+        <v>20.75</v>
       </c>
       <c r="F45" s="4">
-        <v>0.120039765009961</v>
+        <v>0.122666685166278</v>
       </c>
       <c r="G45" s="3">
-        <v>0.120039765009961</v>
+        <v>3.5661885711938401</v>
       </c>
       <c r="H45" s="24">
-        <v>6.7293918346609796E-3</v>
+        <v>6.8473513567646697E-3</v>
       </c>
       <c r="I45" s="2">
-        <f>I44*(1+Table1[[#This Row],[Realized Daily Return]])</f>
-        <v>0.13862013782734001</v>
+        <v>0.17381317471348001</v>
       </c>
       <c r="J45" s="5">
-        <v>34.034749034748998</v>
+        <v>33.974459724950798</v>
       </c>
       <c r="K45" s="4">
-        <v>0.229033162249175</v>
+        <v>0.23263506289298899</v>
       </c>
       <c r="L45" s="3">
-        <v>0.229033162249175</v>
+        <v>6.2931931984103597</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5859C2-F68E-4EE8-A865-F548DD6651F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF470F33-2626-4946-B1CE-A7044D7FBF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$46</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1106,16 +1106,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$46</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>3.6222097973263598E-3</c:v>
                 </c:pt>
@@ -1180,67 +1183,70 @@
                   <c:v>9.5173371730647993E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.9471073738348806E-2</c:v>
+                  <c:v>9.9478569870607797E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7396608349688898E-2</c:v>
+                  <c:v>9.7404104481947903E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.10089853431877301</c:v>
+                  <c:v>0.100906030451032</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.10629544061828899</c:v>
+                  <c:v>0.106302936750548</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.108163104698834</c:v>
+                  <c:v>0.10817060083109301</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.10524318380413</c:v>
+                  <c:v>0.10525067993638899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10533221956731301</c:v>
+                  <c:v>0.105339715699572</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10588406652073799</c:v>
+                  <c:v>0.105891562652997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.107608193086072</c:v>
+                  <c:v>0.107148350130186</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.110943457359194</c:v>
+                  <c:v>0.110561683881384</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.118539017050799</c:v>
+                  <c:v>0.118721003419547</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11653632315246901</c:v>
+                  <c:v>0.11671830952121701</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.122725068125738</c:v>
+                  <c:v>0.12294405915965501</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.12505004210092799</c:v>
+                  <c:v>0.125269033134845</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.128739722384073</c:v>
+                  <c:v>0.12895871341799001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.134176825123311</c:v>
+                  <c:v>0.13439581615722801</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13463127656459001</c:v>
+                  <c:v>0.13485026759850599</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13834105478398101</c:v>
+                  <c:v>0.13856004581789799</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.142084449626525</c:v>
+                  <c:v>0.142517096357995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.15212468989983899</c:v>
+                  <c:v>0.15284759177357299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.15803633737773201</c:v>
+                  <c:v>0.15875923925146601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15895901361824599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,10 +1639,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$46</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1762,141 +1768,147 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$46</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>5.8048320730386604E-3</c:v>
+                  <c:v>6.2467466517549799E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6703119701003794E-3</c:v>
+                  <c:v>1.0576203766369099E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2608834243340101E-2</c:v>
+                  <c:v>1.4153824407810701E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5794338602512999E-2</c:v>
+                  <c:v>1.7910779267457301E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9532167015284398E-2</c:v>
+                  <c:v>2.2206068709922401E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2363425937387299E-2</c:v>
+                  <c:v>2.5498564794474699E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.38838399853879E-2</c:v>
+                  <c:v>2.7354947952943701E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.87448823406273E-2</c:v>
+                  <c:v>3.2557955513712697E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2037789045926898E-2</c:v>
+                  <c:v>3.6194280104359801E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5863220647759202E-2</c:v>
+                  <c:v>4.0387570757687501E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.72711341646507E-2</c:v>
+                  <c:v>4.2080320039666302E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7531634799680497E-2</c:v>
+                  <c:v>4.2606434916458602E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8228878124797597E-2</c:v>
+                  <c:v>4.3603262165448603E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0152987664748299E-2</c:v>
+                  <c:v>4.57901106627066E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2056508006633603E-2</c:v>
+                  <c:v>4.7972213105815703E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.44131807437948E-2</c:v>
+                  <c:v>5.0625649553780801E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9372798087754598E-2</c:v>
+                  <c:v>5.5931896975487602E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3568378622932601E-2</c:v>
+                  <c:v>6.0405450733993803E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7101106477498297E-2</c:v>
+                  <c:v>6.4212059981226394E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0119211208638598E-2</c:v>
+                  <c:v>6.7475000076050895E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.4182487205431293E-2</c:v>
+                  <c:v>7.1783631023866007E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.7096766136297198E-2</c:v>
+                  <c:v>7.4915803233906397E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.8865137837315904E-2</c:v>
+                  <c:v>7.6874967517514103E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.9917014964492305E-2</c:v>
+                  <c:v>7.7894519614805105E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.1257533964462105E-2</c:v>
+                  <c:v>7.9344622422400701E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.3139463989794096E-2</c:v>
+                  <c:v>8.1313394630381605E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.5158691140729206E-2</c:v>
+                  <c:v>8.3434741109641997E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.1576565695153994E-2</c:v>
+                  <c:v>9.0049285048250494E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0797014038890497E-2</c:v>
+                  <c:v>9.9494354090780404E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.7999424962166001E-2</c:v>
+                  <c:v>0.106880412515579</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.103579696926106</c:v>
+                  <c:v>0.112633589794204</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.109191360722148</c:v>
+                  <c:v>0.11842396780791301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11978332325053601</c:v>
+                  <c:v>0.12892013183741299</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12990557428149199</c:v>
+                  <c:v>0.13904047309648601</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13432504763300901</c:v>
+                  <c:v>0.143511085217568</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.137152365939014</c:v>
+                  <c:v>0.14631432817509399</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.141833091502653</c:v>
+                  <c:v>0.15105944522343001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.14853350536858501</c:v>
+                  <c:v>0.15786316452882501</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.15293868026988999</c:v>
+                  <c:v>0.162341582407448</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.159378826171892</c:v>
+                  <c:v>0.16885515642884599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.166965823356716</c:v>
+                  <c:v>0.17655794263452401</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.17381317471348001</c:v>
+                  <c:v>0.183272782237035</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19022405030605299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,15 +3316,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3343,8 +3355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L45" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L46" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
@@ -3659,10 +3671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z45"/>
+  <dimension ref="B1:Z46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="N44" sqref="N44:N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3693,7 +3705,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 327%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 349%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3759,26 +3771,26 @@
         <v>8.9106361014228405E-2</v>
       </c>
       <c r="H4" s="24">
-        <v>5.8048320730386604E-3</v>
+        <v>6.2467466517549799E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>5.8048320730386604E-3</v>
+        <v>6.2467466517549799E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>45.067567567567501</v>
+        <v>46</v>
       </c>
       <c r="K4" s="4">
-        <v>0.26160966167005301</v>
+        <v>0.28735034598072901</v>
       </c>
       <c r="L4" s="3">
-        <v>0.26160966167005301</v>
+        <v>0.28735034598072901</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.7627699375650477E-3</v>
+        <v>3.6967212469359674E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3801,26 +3813,26 @@
         <v>0.154412623162199</v>
       </c>
       <c r="H5" s="24">
-        <v>3.8654798970617099E-3</v>
+        <v>4.3294571146141299E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>9.6703119701003794E-3</v>
+        <v>1.0576203766369099E-2</v>
       </c>
       <c r="J5" s="5">
-        <v>48.413333333333298</v>
+        <v>49.315068493150598</v>
       </c>
       <c r="K5" s="4">
-        <v>0.187140766749747</v>
+        <v>0.21350747414535401</v>
       </c>
       <c r="L5" s="3">
-        <v>0.44875042841980101</v>
+        <v>0.50085782012608404</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.4909251695091295E-2</v>
+        <v>8.3755967576647536E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3843,26 +3855,26 @@
         <v>0.32055351380658298</v>
       </c>
       <c r="H6" s="24">
-        <v>2.93852227323978E-3</v>
+        <v>3.5776206414416599E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.2608834243340101E-2</v>
+        <v>1.4153824407810701E-2</v>
       </c>
       <c r="J6" s="5">
-        <v>48.7631578947368</v>
+        <v>49.635135135135101</v>
       </c>
       <c r="K6" s="4">
-        <v>0.143291625587192</v>
+        <v>0.17757568400020499</v>
       </c>
       <c r="L6" s="3">
-        <v>0.59204205400699395</v>
+        <v>0.678433504126289</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>26.436386870533688</v>
+        <v>26.511867976984217</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3885,19 +3897,19 @@
         <v>0.71517757649998703</v>
       </c>
       <c r="H7" s="24">
-        <v>3.18550435917283E-3</v>
+        <v>3.7569548596465799E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.5794338602512999E-2</v>
+        <v>1.7910779267457301E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>46.691358024691297</v>
+        <v>47.430379746835399</v>
       </c>
       <c r="K7" s="4">
-        <v>0.14873552452335401</v>
+        <v>0.17819379568475599</v>
       </c>
       <c r="L7" s="3">
-        <v>0.74077757853034798</v>
+        <v>0.85662729981104502</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3920,26 +3932,26 @@
         <v>0.89889609522560399</v>
       </c>
       <c r="H8" s="24">
-        <v>3.7378284127714402E-3</v>
+        <v>4.2952894424650896E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>1.9532167015284398E-2</v>
+        <v>2.2206068709922401E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>45.447058823529403</v>
+        <v>46.096385542168598</v>
       </c>
       <c r="K8" s="4">
-        <v>0.16987330774748299</v>
+        <v>0.19799731815507701</v>
       </c>
       <c r="L8" s="3">
-        <v>0.91065088627783097</v>
+        <v>1.0546246179661201</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>4.1384089217495392E-3</v>
+        <v>4.4238151233965796E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3962,26 +3974,26 @@
         <v>1.1161347630118199</v>
       </c>
       <c r="H9" s="24">
-        <v>2.8312589221028898E-3</v>
+        <v>3.2924960845523302E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>2.2363425937387299E-2</v>
+        <v>2.5498564794474699E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>42.8958333333333</v>
+        <v>43.351063829787201</v>
       </c>
       <c r="K9" s="4">
-        <v>0.12144921084603801</v>
+        <v>0.142733207920753</v>
       </c>
       <c r="L9" s="3">
-        <v>1.0321000971238701</v>
+        <v>1.19735782588687</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>0.14983793329548448</v>
+        <v>0.16135837793767324</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -4004,26 +4016,26 @@
         <v>1.30027723015424</v>
       </c>
       <c r="H10" s="24">
-        <v>1.5204140480006201E-3</v>
+        <v>1.8563831584689E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>2.38838399853879E-2</v>
+        <v>2.7354947952943701E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>35.411764705882298</v>
+        <v>35.939655172413701</v>
       </c>
       <c r="K10" s="4">
-        <v>5.3840544523316103E-2</v>
+        <v>6.6717770583248695E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.08594064164718</v>
+        <v>1.26407559647012</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>37.235502973387568</v>
+        <v>37.377967537513612</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -4046,19 +4058,19 @@
         <v>1.4175808477059699</v>
       </c>
       <c r="H11" s="24">
-        <v>4.8610423552393903E-3</v>
+        <v>5.2030075607689998E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>2.87448823406273E-2</v>
+        <v>3.2557955513712697E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>34.3888888888888</v>
+        <v>34.837398373983703</v>
       </c>
       <c r="K11" s="4">
-        <v>0.16716584543851001</v>
+        <v>0.181259247137359</v>
       </c>
       <c r="L11" s="3">
-        <v>1.2531064870856901</v>
+        <v>1.44533484360748</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4081,26 +4093,26 @@
         <v>1.6068739654375199</v>
       </c>
       <c r="H12" s="24">
-        <v>3.29290670529957E-3</v>
+        <v>3.6363245906471798E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>3.2037789045926898E-2</v>
+        <v>3.6194280104359801E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>34.299999999999997</v>
+        <v>34.708661417322801</v>
       </c>
       <c r="K12" s="4">
-        <v>0.11294669999177499</v>
+        <v>0.126211959020258</v>
       </c>
       <c r="L12" s="3">
-        <v>1.3660531870774699</v>
+        <v>1.5715468026277399</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>3.9824446880209943E-3</v>
+        <v>4.1220986343124405E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4123,26 +4135,26 @@
         <v>1.7890725814644399</v>
       </c>
       <c r="H13" s="24">
-        <v>3.8254316018322999E-3</v>
+        <v>4.19329065332762E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>3.5863220647759202E-2</v>
+        <v>4.0387570757687501E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>33.496350364963497</v>
+        <v>33.843283582089498</v>
       </c>
       <c r="K13" s="4">
-        <v>0.128137997232178</v>
+        <v>0.14191472472269201</v>
       </c>
       <c r="L13" s="3">
-        <v>1.49419118430965</v>
+        <v>1.7134615273504299</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>0.12287973007598998</v>
+        <v>0.12915630946121887</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4165,19 +4177,19 @@
         <v>1.8438126263513299</v>
       </c>
       <c r="H14" s="24">
-        <v>1.4079135168914799E-3</v>
+        <v>1.6927492819788399E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>3.72711341646507E-2</v>
+        <v>4.2080320039666302E-2</v>
       </c>
       <c r="J14" s="5">
-        <v>37.2246376811594</v>
+        <v>37.562962962962899</v>
       </c>
       <c r="K14" s="4">
-        <v>5.2409070552692498E-2</v>
+        <v>6.3584678584553495E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.5466002548623401</v>
+        <v>1.7770462059349801</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4200,19 +4212,19 @@
         <v>1.92923136102675</v>
       </c>
       <c r="H15" s="24">
-        <v>2.6050063502978E-4</v>
+        <v>5.2611487679223696E-4</v>
       </c>
       <c r="I15" s="2">
-        <v>3.7531634799680497E-2</v>
+        <v>4.2606434916458602E-2</v>
       </c>
       <c r="J15" s="5">
-        <v>38.2246376811594</v>
+        <v>38.562962962962899</v>
       </c>
       <c r="K15" s="4">
-        <v>9.9575423897252796E-3</v>
+        <v>2.02885485080028E-2</v>
       </c>
       <c r="L15" s="3">
-        <v>1.5565577972520599</v>
+        <v>1.7973347544429901</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4241,30 +4253,30 @@
         <v>1.97280023135717</v>
       </c>
       <c r="H16" s="24">
-        <v>6.9724332511716502E-4</v>
+        <v>9.9682724899001398E-4</v>
       </c>
       <c r="I16" s="2">
-        <v>3.8228878124797597E-2</v>
+        <v>4.3603262165448603E-2</v>
       </c>
       <c r="J16" s="5">
-        <v>37.853146853146797</v>
+        <v>38.15</v>
       </c>
       <c r="K16" s="4">
-        <v>2.6392853978036399E-2</v>
+        <v>3.8028959548969003E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.5829506512300999</v>
+        <v>1.8353637139919601</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.7010320387279201</v>
+        <v>1.7966059333055928</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>3.2661234056583597</v>
+        <v>3.4882977618597986</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4287,30 +4299,30 @@
         <v>1.76514267706124</v>
       </c>
       <c r="H17" s="24">
-        <v>1.92410953995072E-3</v>
+        <v>2.1868484972580502E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>4.0152987664748299E-2</v>
+        <v>4.57901106627066E-2</v>
       </c>
       <c r="J17" s="5">
-        <v>38.054794520547901</v>
+        <v>38.328671328671298</v>
       </c>
       <c r="K17" s="4">
-        <v>7.3221593177850694E-2</v>
+        <v>8.3818997297002901E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.6561722444079501</v>
+        <v>1.9191827112889599</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>10.902149828120974</v>
+        <v>11.976335905808295</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>36.188880331468731</v>
+        <v>41.189272402597226</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4336,19 +4348,19 @@
         <v>1.7679635078846301</v>
       </c>
       <c r="H18" s="24">
-        <v>1.9035203418852401E-3</v>
+        <v>2.1821024431090299E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>4.2056508006633603E-2</v>
+        <v>4.7972213105815703E-2</v>
       </c>
       <c r="J18" s="5">
-        <v>40.5</v>
+        <v>40.758620689655103</v>
       </c>
       <c r="K18" s="4">
-        <v>7.7092573846352402E-2</v>
+        <v>8.8939485784650996E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>1.7332648182543</v>
+        <v>2.0081221970736101</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4371,19 +4383,19 @@
         <v>1.81094402564083</v>
       </c>
       <c r="H19" s="24">
-        <v>2.3566727371612398E-3</v>
+        <v>2.6534364479650898E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>4.44131807437948E-2</v>
+        <v>5.0625649553780801E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>40.675496688741703</v>
+        <v>40.912162162162097</v>
       </c>
       <c r="K19" s="4">
-        <v>9.5858834116850006E-2</v>
+        <v>0.108557822246139</v>
       </c>
       <c r="L19" s="3">
-        <v>1.82912365237115</v>
+        <v>2.1166800193197499</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4406,19 +4418,19 @@
         <v>1.83790631964677</v>
       </c>
       <c r="H20" s="24">
-        <v>4.9596173439597603E-3</v>
+        <v>5.3062474217068101E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>4.9372798087754598E-2</v>
+        <v>5.5931896975487602E-2</v>
       </c>
       <c r="J20" s="5">
-        <v>40.863636363636303</v>
+        <v>41.079470198675402</v>
       </c>
       <c r="K20" s="4">
-        <v>0.20266799964635501</v>
+        <v>0.217977832826803</v>
       </c>
       <c r="L20" s="3">
-        <v>2.0317916520175099</v>
+        <v>2.3346578521465502</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4441,19 +4453,19 @@
         <v>1.94701227969025</v>
       </c>
       <c r="H21" s="24">
-        <v>4.1955805351780104E-3</v>
+        <v>4.4735537585061901E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>5.3568378622932601E-2</v>
+        <v>6.0405450733993803E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>40.5471698113207</v>
+        <v>40.730769230769198</v>
       </c>
       <c r="K21" s="4">
-        <v>0.170118916416934</v>
+        <v>0.18221128577915599</v>
       </c>
       <c r="L21" s="3">
-        <v>2.2019105684344402</v>
+        <v>2.5168691379257102</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4476,19 +4488,19 @@
         <v>1.97116439618224</v>
       </c>
       <c r="H22" s="24">
-        <v>3.5327278545656802E-3</v>
+        <v>3.8066092472326001E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>5.7101106477498297E-2</v>
+        <v>6.4212059981226394E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>39.556886227544901</v>
+        <v>39.695121951219498</v>
       </c>
       <c r="K22" s="4">
-        <v>0.13974371381593301</v>
+        <v>0.15110381828953801</v>
       </c>
       <c r="L22" s="3">
-        <v>2.3416542822503801</v>
+        <v>2.6679729562152499</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4511,19 +4523,19 @@
         <v>2.0462302131807899</v>
       </c>
       <c r="H23" s="24">
-        <v>3.0181047311403399E-3</v>
+        <v>3.2629400948245E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>6.0119211208638598E-2</v>
+        <v>6.7475000076050895E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>40.1525423728813</v>
+        <v>40.241379310344797</v>
       </c>
       <c r="K23" s="4">
-        <v>0.121184578102906</v>
+        <v>0.13130521002276499</v>
       </c>
       <c r="L23" s="3">
-        <v>2.4628388603532798</v>
+        <v>2.7992781662380102</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4546,19 +4558,19 @@
         <v>2.2341195555671201</v>
       </c>
       <c r="H24" s="24">
-        <v>4.0632759967926301E-3</v>
+        <v>4.3086309478151596E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>6.4182487205431293E-2</v>
+        <v>7.1783631023866007E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>39.372972972972903</v>
+        <v>39.428571428571402</v>
       </c>
       <c r="K24" s="4">
-        <v>0.15998325600344601</v>
+        <v>0.16988316308528301</v>
       </c>
       <c r="L24" s="3">
-        <v>2.6228221163567298</v>
+        <v>2.9691613293232999</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4566,34 +4578,34 @@
         <v>45322</v>
       </c>
       <c r="C25" s="24">
-        <v>4.2977020077008101E-3</v>
+        <v>4.30519813995977E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.9471073738348806E-2</v>
+        <v>9.9478569870607797E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>32.049999999999997</v>
+        <v>34.8888888888888</v>
       </c>
       <c r="F25" s="4">
-        <v>0.13774134934681101</v>
+        <v>0.15020357954970701</v>
       </c>
       <c r="G25" s="3">
-        <v>2.3718609049139299</v>
+        <v>2.3843231351168299</v>
       </c>
       <c r="H25" s="24">
-        <v>2.91427893086596E-3</v>
+        <v>3.13217221004037E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>6.7096766136297198E-2</v>
+        <v>7.4915803233906397E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>39.310526315789403</v>
+        <v>39.347593582887697</v>
       </c>
       <c r="K25" s="4">
-        <v>0.114561838603357</v>
+        <v>0.123243439152283</v>
       </c>
       <c r="L25" s="3">
-        <v>2.73738395496009</v>
+        <v>3.0924047684755802</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4604,7 +4616,7 @@
         <v>-2.0744653886599E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.7396608349688898E-2</v>
+        <v>9.7404104481947903E-2</v>
       </c>
       <c r="E26" s="5">
         <v>24.3</v>
@@ -4613,22 +4625,22 @@
         <v>-5.0409508944435501E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>2.3214513959694898</v>
+        <v>2.3339136261723898</v>
       </c>
       <c r="H26" s="24">
-        <v>1.7683717010187E-3</v>
+        <v>1.9591642836076901E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>6.8865137837315904E-2</v>
+        <v>7.6874967517514103E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>36.822115384615302</v>
+        <v>37.167487684728997</v>
       </c>
       <c r="K26" s="4">
-        <v>6.5115186817799403E-2</v>
+        <v>7.2817214383349996E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>2.8024991417778899</v>
+        <v>3.1652219828589301</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4639,7 +4651,7 @@
         <v>3.50192596908437E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.10089853431877301</v>
+        <v>0.100906030451032</v>
       </c>
       <c r="E27" s="5">
         <v>11.3333333333333</v>
@@ -4648,22 +4660,22 @@
         <v>3.9688494316289499E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.3611398902857799</v>
+        <v>2.3736021204886799</v>
       </c>
       <c r="H27" s="24">
-        <v>1.0518771271763501E-3</v>
+        <v>1.01955209729094E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>6.9917014964492305E-2</v>
+        <v>7.7894519614805105E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>34.056277056276997</v>
+        <v>34.283185840707901</v>
       </c>
       <c r="K27" s="4">
-        <v>3.5823018872278803E-2</v>
+        <v>3.4953494025709103E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>2.8383221606501698</v>
+        <v>3.20017547688464</v>
       </c>
     </row>
     <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4674,7 +4686,7 @@
         <v>5.3969062995158201E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.10629544061828899</v>
+        <v>0.106302936750548</v>
       </c>
       <c r="E28" s="5">
         <v>27.8</v>
@@ -4683,22 +4695,22 @@
         <v>0.150033995126539</v>
       </c>
       <c r="G28" s="3">
-        <v>2.5111738854123198</v>
+        <v>2.5236361156152198</v>
       </c>
       <c r="H28" s="24">
-        <v>1.34051899996981E-3</v>
+        <v>1.4501028075956099E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>7.1257533964462105E-2</v>
+        <v>7.9344622422400701E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>36.425531914893597</v>
+        <v>36.634782608695602</v>
       </c>
       <c r="K28" s="4">
-        <v>4.8829117615921701E-2</v>
+        <v>5.3124201116524598E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>2.88715127826609</v>
+        <v>3.2532996780011598</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4709,7 +4721,7 @@
         <v>1.86766408054538E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.108163104698834</v>
+        <v>0.10817060083109301</v>
       </c>
       <c r="E29" s="5">
         <v>25.307692307692299</v>
@@ -4718,22 +4730,22 @@
         <v>4.7266267884571597E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.5584401532969001</v>
+        <v>2.5709023834997899</v>
       </c>
       <c r="H29" s="24">
-        <v>1.8819300253320301E-3</v>
+        <v>1.9687722079808801E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>7.3139463989794096E-2</v>
+        <v>8.1313394630381605E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>35.463709677419303</v>
+        <v>35.621399176954696</v>
       </c>
       <c r="K29" s="4">
-        <v>6.6740220051593704E-2</v>
+        <v>7.0130420708981706E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>2.9538914983176801</v>
+        <v>3.3234300987101499</v>
       </c>
     </row>
     <row r="30" spans="2:26" ht="3" customHeight="1" x14ac:dyDescent="0.35">
@@ -4744,7 +4756,7 @@
         <v>-2.91992089470435E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.10524318380413</v>
+        <v>0.10525067993638899</v>
       </c>
       <c r="E30" s="5">
         <v>27</v>
@@ -4753,22 +4765,22 @@
         <v>-7.8837864157017504E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.4796022891398799</v>
+        <v>2.4920645193427702</v>
       </c>
       <c r="H30" s="24">
-        <v>2.0192271509350099E-3</v>
+        <v>2.1213464792604101E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>7.5158691140729206E-2</v>
+        <v>8.3434741109641997E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>34.515267175572497</v>
+        <v>34.626459143968802</v>
       </c>
       <c r="K30" s="4">
-        <v>6.9694164602692205E-2</v>
+        <v>7.3454717194312999E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>3.0235856629203699</v>
+        <v>3.39688481590446</v>
       </c>
     </row>
     <row r="31" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4779,7 +4791,7 @@
         <v>8.9035763182900005E-5</v>
       </c>
       <c r="D31" s="2">
-        <v>0.10533221956731301</v>
+        <v>0.105339715699572</v>
       </c>
       <c r="E31" s="5">
         <v>23.375</v>
@@ -4788,22 +4800,22 @@
         <v>2.0812109644002801E-3</v>
       </c>
       <c r="G31" s="3">
-        <v>2.4816835001042801</v>
+        <v>2.4941457303071699</v>
       </c>
       <c r="H31" s="24">
-        <v>6.4178745544248798E-3</v>
+        <v>6.6145439386085404E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>8.1576565695153994E-2</v>
+        <v>9.0049285048250494E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>33.232142857142797</v>
+        <v>33.2945454545454</v>
       </c>
       <c r="K31" s="4">
-        <v>0.21327972403186901</v>
+        <v>0.22022823382508999</v>
       </c>
       <c r="L31" s="3">
-        <v>3.2368653869522399</v>
+        <v>3.6171130497295501</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4814,7 +4826,7 @@
         <v>5.5184695342524602E-4</v>
       </c>
       <c r="D32" s="2">
-        <v>0.10588406652073799</v>
+        <v>0.105891562652997</v>
       </c>
       <c r="E32" s="5">
         <v>33.230769230769198</v>
@@ -4823,57 +4835,57 @@
         <v>1.83382987599774E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.5000217988642599</v>
+        <v>2.5124840290671502</v>
       </c>
       <c r="H32" s="24">
-        <v>9.2204483437364204E-3</v>
+        <v>9.4450690425298203E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>9.0797014038890497E-2</v>
+        <v>9.9494354090780404E-2</v>
       </c>
       <c r="J32" s="5">
-        <v>32.491525423728802</v>
+        <v>32.520689655172397</v>
       </c>
       <c r="K32" s="4">
-        <v>0.29958643177868999</v>
+        <v>0.30716015910378902</v>
       </c>
       <c r="L32" s="3">
-        <v>3.5364518187309302</v>
+        <v>3.9242732088333399</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" ht="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="13">
         <v>45334</v>
       </c>
       <c r="C33" s="24">
-        <v>1.72412656533466E-3</v>
+        <v>1.25678747718951E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.107608193086072</v>
+        <v>0.107148350130186</v>
       </c>
       <c r="E33" s="5">
-        <v>24.047619047619001</v>
+        <v>24.95</v>
       </c>
       <c r="F33" s="4">
-        <v>4.1461138833047903E-2</v>
+        <v>3.1356847555878198E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.5414829376973</v>
+        <v>2.54384087662303</v>
       </c>
       <c r="H33" s="24">
-        <v>7.2024109232755699E-3</v>
+        <v>7.3860584247986798E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>9.7999424962166001E-2</v>
+        <v>0.106880412515579</v>
       </c>
       <c r="J33" s="5">
-        <v>33.774193548386997</v>
+        <v>33.773770491803198</v>
       </c>
       <c r="K33" s="4">
-        <v>0.24325562053772601</v>
+        <v>0.24945504207819999</v>
       </c>
       <c r="L33" s="3">
-        <v>3.7797074392686598</v>
+        <v>4.1737282509115401</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -4881,34 +4893,34 @@
         <v>45335</v>
       </c>
       <c r="C34" s="24">
-        <v>3.3352642731213698E-3</v>
+        <v>3.4133337511977001E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.110943457359194</v>
+        <v>0.110561683881384</v>
       </c>
       <c r="E34" s="5">
-        <v>17.307692307692299</v>
+        <v>17.2083333333333</v>
       </c>
       <c r="F34" s="4">
-        <v>5.7725727804023699E-2</v>
+        <v>5.8737784968527197E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>2.59920866550133</v>
+        <v>2.60257866159156</v>
       </c>
       <c r="H34" s="24">
-        <v>5.5802719639404903E-3</v>
+        <v>5.7531772786251299E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.103579696926106</v>
+        <v>0.112633589794204</v>
       </c>
       <c r="J34" s="5">
-        <v>34.2222222222222</v>
+        <v>34.2129032258064</v>
       </c>
       <c r="K34" s="4">
-        <v>0.190969307210408</v>
+        <v>0.19683289747450999</v>
       </c>
       <c r="L34" s="3">
-        <v>3.9706767464790702</v>
+        <v>4.3705611483860496</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -4916,34 +4928,34 @@
         <v>45336</v>
       </c>
       <c r="C35" s="24">
-        <v>7.5955596916053598E-3</v>
+        <v>8.1593195381631407E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.118539017050799</v>
+        <v>0.118721003419547</v>
       </c>
       <c r="E35" s="5">
-        <v>19.600000000000001</v>
+        <v>20.928571428571399</v>
       </c>
       <c r="F35" s="4">
-        <v>0.14887296995546501</v>
+        <v>0.170762901762985</v>
       </c>
       <c r="G35" s="3">
-        <v>2.7480816354567899</v>
+        <v>2.7733415633545402</v>
       </c>
       <c r="H35" s="24">
-        <v>5.6116637960418898E-3</v>
+        <v>5.7903780137094204E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.109191360722148</v>
+        <v>0.11842396780791301</v>
       </c>
       <c r="J35" s="5">
-        <v>32.066473988439299</v>
+        <v>32.200589970501397</v>
       </c>
       <c r="K35" s="4">
-        <v>0.179946271147643</v>
+        <v>0.18645358819366301</v>
       </c>
       <c r="L35" s="3">
-        <v>4.1506230176267103</v>
+        <v>4.5570147365797098</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4954,7 +4966,7 @@
         <v>-2.00269389832986E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.11653632315246901</v>
+        <v>0.11671830952121701</v>
       </c>
       <c r="E36" s="5">
         <v>25.1</v>
@@ -4963,22 +4975,22 @@
         <v>-5.0267616848079698E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.6978140186087098</v>
+        <v>2.7230739465064602</v>
       </c>
       <c r="H36" s="24">
-        <v>1.05919625283875E-2</v>
+        <v>1.0496164029499501E-2</v>
       </c>
       <c r="I36" s="2">
-        <v>0.11978332325053601</v>
+        <v>0.12892013183741299</v>
       </c>
       <c r="J36" s="5">
-        <v>32.047619047619001</v>
+        <v>32.157142857142802</v>
       </c>
       <c r="K36" s="4">
-        <v>0.33944718007642</v>
+        <v>0.33752664614861999</v>
       </c>
       <c r="L36" s="3">
-        <v>4.4900701977031297</v>
+        <v>4.8945413827283302</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4986,34 +4998,34 @@
         <v>45338</v>
       </c>
       <c r="C37" s="24">
-        <v>6.1887449732689398E-3</v>
+        <v>6.2257496384378001E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.122725068125738</v>
+        <v>0.12294405915965501</v>
       </c>
       <c r="E37" s="5">
-        <v>32.903225806451601</v>
+        <v>33.466666666666598</v>
       </c>
       <c r="F37" s="4">
-        <v>0.20362967331401</v>
+        <v>0.20835508789971799</v>
       </c>
       <c r="G37" s="3">
-        <v>2.90144369192272</v>
+        <v>2.9314290344061802</v>
       </c>
       <c r="H37" s="24">
-        <v>1.0122251030956301E-2</v>
+        <v>1.01203412590734E-2</v>
       </c>
       <c r="I37" s="2">
-        <v>0.12990557428149199</v>
+        <v>0.13904047309648601</v>
       </c>
       <c r="J37" s="5">
-        <v>31.377659574468002</v>
+        <v>31.449864498644899</v>
       </c>
       <c r="K37" s="4">
-        <v>0.31761254697665697</v>
+        <v>0.31828336127790502</v>
       </c>
       <c r="L37" s="3">
-        <v>4.8076827446797896</v>
+        <v>5.2128247440062401</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -5024,7 +5036,7 @@
         <v>2.3249739751896102E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.12505004210092799</v>
+        <v>0.125269033134845</v>
       </c>
       <c r="E38" s="5">
         <v>24.3</v>
@@ -5033,22 +5045,22 @@
         <v>5.6496867597107599E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.9579405595198298</v>
+        <v>2.98792590200329</v>
       </c>
       <c r="H38" s="24">
-        <v>4.41947335151686E-3</v>
+        <v>4.4706121210818604E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.13432504763300901</v>
+        <v>0.143511085217568</v>
       </c>
       <c r="J38" s="5">
-        <v>33.933673469387699</v>
+        <v>34.0651041666666</v>
       </c>
       <c r="K38" s="4">
-        <v>0.14996896561703399</v>
+        <v>0.15229186759341601</v>
       </c>
       <c r="L38" s="3">
-        <v>4.9576517102968198</v>
+        <v>5.3651166115996602</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -5059,7 +5071,7 @@
         <v>3.6896802831450598E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.128739722384073</v>
+        <v>0.12895871341799001</v>
       </c>
       <c r="E39" s="5">
         <v>13.3333333333333</v>
@@ -5068,22 +5080,22 @@
         <v>4.9195737108600798E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>3.0071362966284299</v>
+        <v>3.03712163911189</v>
       </c>
       <c r="H39" s="24">
-        <v>2.8273183060056098E-3</v>
+        <v>2.80324295752599E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.137152365939014</v>
+        <v>0.14631432817509399</v>
       </c>
       <c r="J39" s="5">
-        <v>33.077294685990303</v>
+        <v>33.246913580246897</v>
       </c>
       <c r="K39" s="4">
-        <v>9.3520040778842795E-2</v>
+        <v>9.3199176353302493E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>5.0511717510756702</v>
+        <v>5.4583157879529596</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
@@ -5094,7 +5106,7 @@
         <v>5.4371027392379704E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.134176825123311</v>
+        <v>0.13439581615722801</v>
       </c>
       <c r="E40" s="5">
         <v>18.933333333333302</v>
@@ -5103,22 +5115,22 @@
         <v>0.102942478529572</v>
       </c>
       <c r="G40" s="3">
-        <v>3.1100787751580099</v>
+        <v>3.1400641176414599</v>
       </c>
       <c r="H40" s="24">
-        <v>4.6807255636384902E-3</v>
+        <v>4.7451170483356203E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.141833091502653</v>
+        <v>0.15105944522343001</v>
       </c>
       <c r="J40" s="5">
-        <v>32.581986143187002</v>
+        <v>32.712264150943398</v>
       </c>
       <c r="K40" s="4">
-        <v>0.15250733545452999</v>
+        <v>0.15522352231229899</v>
       </c>
       <c r="L40" s="3">
-        <v>5.2036790865302001</v>
+        <v>5.61353931026526</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
@@ -5129,7 +5141,7 @@
         <v>4.5445144127867601E-4</v>
       </c>
       <c r="D41" s="2">
-        <v>0.13463127656459001</v>
+        <v>0.13485026759850599</v>
       </c>
       <c r="E41" s="5">
         <v>35.571428571428498</v>
@@ -5138,25 +5150,25 @@
         <v>1.6165486982627202E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>3.1262442621406299</v>
+        <v>3.1562296046240901</v>
       </c>
       <c r="H41" s="24">
-        <v>6.7004138659318797E-3</v>
+        <v>6.8037193053954899E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.14853350536858501</v>
+        <v>0.15786316452882501</v>
       </c>
       <c r="J41" s="5">
-        <v>32.603139013452903</v>
+        <v>32.7093821510297</v>
       </c>
       <c r="K41" s="4">
-        <v>0.21845452471864399</v>
+        <v>0.22254545480851901</v>
       </c>
       <c r="L41" s="3">
-        <v>5.4221336112488396</v>
+        <v>5.8360847650737799</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="13">
         <v>45348</v>
       </c>
@@ -5164,7 +5176,7 @@
         <v>3.7097782193914099E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.13834105478398101</v>
+        <v>0.13856004581789799</v>
       </c>
       <c r="E42" s="5">
         <v>26.7777777777777</v>
@@ -5173,104 +5185,98 @@
         <v>9.9339616763703398E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>3.2255838789043398</v>
+        <v>3.2555692213877898</v>
       </c>
       <c r="H42" s="24">
-        <v>4.4051749013050197E-3</v>
+        <v>4.4784178786233097E-3</v>
       </c>
       <c r="I42" s="2">
-        <v>0.15293868026988999</v>
+        <v>0.162341582407448</v>
       </c>
       <c r="J42" s="5">
-        <v>34.898901098901099</v>
+        <v>34.988789237668101</v>
       </c>
       <c r="K42" s="4">
-        <v>0.153735763204005</v>
+        <v>0.15669441927335601</v>
       </c>
       <c r="L42" s="3">
-        <v>5.57586937445285</v>
-      </c>
-      <c r="N42" s="23" t="s">
-        <v>18</v>
+        <v>5.9927791843471301</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="13">
         <v>45349</v>
       </c>
       <c r="C43" s="24">
-        <v>3.74339484254433E-3</v>
+        <v>3.9570505400974296E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.142084449626525</v>
+        <v>0.142517096357995</v>
       </c>
       <c r="E43" s="5">
-        <v>25.947368421052602</v>
+        <v>23.9444444444444</v>
       </c>
       <c r="F43" s="4">
-        <v>9.7131245124966195E-2</v>
+        <v>9.4749376821222003E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>3.3227151240292998</v>
+        <v>3.3503185982090198</v>
       </c>
       <c r="H43" s="24">
-        <v>6.4401459020020802E-3</v>
+        <v>6.5135740213974804E-3</v>
       </c>
       <c r="I43" s="2">
-        <v>0.159378826171892</v>
+        <v>0.16885515642884599</v>
       </c>
       <c r="J43" s="5">
-        <v>34.605932203389798</v>
+        <v>34.667386609071201</v>
       </c>
       <c r="K43" s="4">
-        <v>0.22286725246462299</v>
+        <v>0.22580858880658899</v>
       </c>
       <c r="L43" s="3">
-        <v>5.7987366269174698</v>
-      </c>
-      <c r="N43" s="23" t="s">
-        <v>19</v>
+        <v>6.21858777315372</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B44" s="13">
         <v>45350</v>
       </c>
       <c r="C44" s="24">
-        <v>1.0040240273313499E-2</v>
+        <v>1.0330495415577399E-2</v>
       </c>
       <c r="D44" s="2">
-        <v>0.15212468989983899</v>
+        <v>0.15284759177357299</v>
       </c>
       <c r="E44" s="5">
-        <v>12.0322580645161</v>
+        <v>11.9333333333333</v>
       </c>
       <c r="F44" s="4">
-        <v>0.120806761998256</v>
+        <v>0.123277245292557</v>
       </c>
       <c r="G44" s="3">
-        <v>3.4435218860275598</v>
+        <v>3.4735958435015699</v>
       </c>
       <c r="H44" s="24">
-        <v>7.58699718482388E-3</v>
+        <v>7.7027862056785303E-3</v>
       </c>
       <c r="I44" s="2">
-        <v>0.166965823356716</v>
+        <v>0.17655794263452401</v>
       </c>
       <c r="J44" s="5">
-        <v>34.509240246406499</v>
+        <v>34.693277310924302</v>
       </c>
       <c r="K44" s="4">
-        <v>0.261821508599897</v>
+        <v>0.26723489790036797</v>
       </c>
       <c r="L44" s="3">
-        <v>6.0605581355173701</v>
+        <v>6.4858226710540903</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B45" s="13">
         <v>45351</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>5.9116474778929196E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.15803633737773201</v>
+        <v>0.15875923925146601</v>
       </c>
       <c r="E45" s="5">
         <v>20.75</v>
@@ -5287,22 +5293,63 @@
         <v>0.122666685166278</v>
       </c>
       <c r="G45" s="3">
-        <v>3.5661885711938401</v>
+        <v>3.5962625286678498</v>
       </c>
       <c r="H45" s="24">
-        <v>6.8473513567646697E-3</v>
+        <v>6.7148396025102702E-3</v>
       </c>
       <c r="I45" s="2">
-        <v>0.17381317471348001</v>
+        <v>0.183272782237035</v>
       </c>
       <c r="J45" s="5">
-        <v>33.974459724950798</v>
+        <v>34.185110663983899</v>
       </c>
       <c r="K45" s="4">
-        <v>0.23263506289298899</v>
+        <v>0.22954753490271501</v>
       </c>
       <c r="L45" s="3">
-        <v>6.2931931984103597</v>
+        <v>6.7153702059568099</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="B46" s="13">
+        <v>45352</v>
+      </c>
+      <c r="C46" s="24">
+        <v>1.9977436678077399E-4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.15895901361824599</v>
+      </c>
+      <c r="E46" s="5">
+        <v>26.25</v>
+      </c>
+      <c r="F46" s="4">
+        <v>5.2440771279953302E-3</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3.60150660579585</v>
+      </c>
+      <c r="H46" s="24">
+        <v>6.9512680690179997E-3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.19022405030605299</v>
+      </c>
+      <c r="J46" s="5">
+        <v>32.086238532110002</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.223040045363151</v>
+      </c>
+      <c r="L46" s="3">
+        <v>6.9384102513199597</v>
+      </c>
+      <c r="N46" s="23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF470F33-2626-4946-B1CE-A7044D7FBF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B37BC1-2769-4B35-B3F0-C665A5F2E23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,10 +977,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$47</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1109,144 +1109,150 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$4:$D$47</c:f>
+              <c:f>_Annual_20231229!$D$4:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>3.6222097973263598E-3</c:v>
+                  <c:v>2.7924770234258002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1148152228214497E-3</c:v>
+                  <c:v>5.5849540468516003E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.180024494069E-2</c:v>
+                  <c:v>8.3774310702775003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2031239158667199E-2</c:v>
+                  <c:v>1.11699080937033E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0382080918922499E-2</c:v>
+                  <c:v>1.3962385117129101E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5899253434128101E-2</c:v>
+                  <c:v>1.6754862140555001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1034250733504802E-2</c:v>
+                  <c:v>1.9547339163980802E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2438769106589402E-2</c:v>
+                  <c:v>2.2339816187406599E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0196683767718607E-2</c:v>
+                  <c:v>2.5132293210832501E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6552449443076404E-2</c:v>
+                  <c:v>2.7924770234258298E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9565662923088504E-2</c:v>
+                  <c:v>3.0717247257684099E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2906060368496307E-2</c:v>
+                  <c:v>3.3509724281110001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4462091451725396E-2</c:v>
+                  <c:v>3.6302201304535799E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0686499555435803E-2</c:v>
+                  <c:v>3.90946783279617E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0830152976997194E-2</c:v>
+                  <c:v>4.1887155351387498E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.1982887169692195E-2</c:v>
+                  <c:v>4.4679632374813302E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2703804121722596E-2</c:v>
+                  <c:v>4.7472109398239197E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5832290431213099E-2</c:v>
+                  <c:v>5.0264586421665002E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6605158158956794E-2</c:v>
+                  <c:v>5.3057063445090903E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8570231902374397E-2</c:v>
+                  <c:v>5.5849540468516701E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.5173371730647993E-2</c:v>
+                  <c:v>5.8642017491942498E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.9478569870607797E-2</c:v>
+                  <c:v>6.14344945153684E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7404104481947903E-2</c:v>
+                  <c:v>6.4226971538794198E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.100906030451032</c:v>
+                  <c:v>6.7019448562220099E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.106302936750548</c:v>
+                  <c:v>6.9811925585645904E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.10817060083109301</c:v>
+                  <c:v>7.2604402609071694E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.10525067993638899</c:v>
+                  <c:v>7.5396879632497596E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.105339715699572</c:v>
+                  <c:v>7.81893566559234E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.105891562652997</c:v>
+                  <c:v>8.0981833679349205E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.107148350130186</c:v>
+                  <c:v>8.3774310702774996E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.110561683881384</c:v>
+                  <c:v>8.6566787726200897E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.118721003419547</c:v>
+                  <c:v>8.9359264749626702E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11671830952121701</c:v>
+                  <c:v>9.2151741773052506E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12294405915965501</c:v>
+                  <c:v>9.4944218796478394E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.125269033134845</c:v>
+                  <c:v>9.7736695819904199E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12895871341799001</c:v>
+                  <c:v>0.10052917284333</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13439581615722801</c:v>
+                  <c:v>0.103321649866755</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13485026759850599</c:v>
+                  <c:v>0.106114126890181</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13856004581789799</c:v>
+                  <c:v>0.108906603913607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.142517096357995</c:v>
+                  <c:v>0.111699080937033</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.15284759177357299</c:v>
+                  <c:v>0.114491557960459</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.15875923925146601</c:v>
+                  <c:v>0.117284034983885</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.15895901361824599</c:v>
+                  <c:v>0.12007651200731</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.12040578705823939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,10 +1645,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$4:$B$47</c:f>
+              <c:f>_Annual_20231229!$B$4:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1771,144 +1777,150 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$I$4:$I$47</c:f>
+              <c:f>_Annual_20231229!$I$4:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>6.2467466517549799E-3</c:v>
+                  <c:v>6.3865863538342003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0576203766369099E-2</c:v>
+                  <c:v>1.0799675698042899E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4153824407810701E-2</c:v>
+                  <c:v>1.4491352059534999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7910779267457301E-2</c:v>
+                  <c:v>1.8339592106220499E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2206068709922401E-2</c:v>
+                  <c:v>2.2714312861605E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5498564794474699E-2</c:v>
+                  <c:v>2.60750248943502E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7354947952943701E-2</c:v>
+                  <c:v>2.7956073509639402E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2557955513712697E-2</c:v>
+                  <c:v>3.3244163029983502E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6194280104359801E-2</c:v>
+                  <c:v>3.6945166838787999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0387570757687501E-2</c:v>
+                  <c:v>4.1164148127052901E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2080320039666302E-2</c:v>
+                  <c:v>4.2907587141224598E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2606434916458602E-2</c:v>
+                  <c:v>4.3495315783577501E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3603262165448603E-2</c:v>
+                  <c:v>4.4552949564750102E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.57901106627066E-2</c:v>
+                  <c:v>4.6819416141395002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7972213105815703E-2</c:v>
+                  <c:v>4.9061219259039397E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0625649553780801E-2</c:v>
+                  <c:v>5.1772205040088101E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5931896975487602E-2</c:v>
+                  <c:v>5.7152770349553898E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0405450733993803E-2</c:v>
+                  <c:v>6.1693027192282798E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.4212059981226394E-2</c:v>
+                  <c:v>6.5555397793280998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7475000076050895E-2</c:v>
+                  <c:v>6.8862408176823403E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.1783631023866007E-2</c:v>
+                  <c:v>7.3217983842462794E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.4915803233906397E-2</c:v>
+                  <c:v>7.6405143667964096E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.6874967517514103E-2</c:v>
+                  <c:v>7.8632915990649893E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.7894519614805105E-2</c:v>
+                  <c:v>7.9832705512454E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.9344622422400701E-2</c:v>
+                  <c:v>8.1382830263559802E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.1313394630381605E-2</c:v>
+                  <c:v>8.3440468497700204E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.3434741109641997E-2</c:v>
+                  <c:v>8.5654994836683096E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.0049285048250494E-2</c:v>
+                  <c:v>9.2433511108889699E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.9494354090780404E-2</c:v>
+                  <c:v>0.101676196458979</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.106880412515579</c:v>
+                  <c:v>0.109065392914746</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.112633589794204</c:v>
+                  <c:v>0.114848943057394</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11842396780791301</c:v>
+                  <c:v>0.12086570967674699</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.12892013183741299</c:v>
+                  <c:v>0.13112868165432601</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.13904047309648601</c:v>
+                  <c:v>0.140271985569555</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.143511085217568</c:v>
+                  <c:v>0.144579889748148</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.14631432817509399</c:v>
+                  <c:v>0.14686470664274701</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.15105944522343001</c:v>
+                  <c:v>0.15116204528476701</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.15786316452882501</c:v>
+                  <c:v>0.157589817070066</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.162341582407448</c:v>
+                  <c:v>0.16178959364297901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.16885515642884599</c:v>
+                  <c:v>0.16811288574925101</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.17655794263452401</c:v>
+                  <c:v>0.17590118143351</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.183272782237035</c:v>
+                  <c:v>0.182684226777349</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.19022405030605299</c:v>
+                  <c:v>0.189717308450328</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19023755321225419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3316,15 +3328,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3355,8 +3367,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L46" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="B3:L46" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:L47" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="B3:L47" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Realized Daily Return" dataDxfId="9"/>
@@ -3671,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z46"/>
+  <dimension ref="B1:Z47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44:N46"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3705,7 +3717,7 @@
     <row r="2" spans="2:25" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;Y15 &amp; " -&gt; " &amp; TEXT(Y16,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 349%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 295%</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -3756,41 +3768,41 @@
         <v>45289</v>
       </c>
       <c r="C4" s="24">
-        <v>3.6222097973263598E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>3.6222097973263598E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>24.6</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F4" s="4">
-        <v>8.9106361014228405E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>8.9106361014228405E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="H4" s="24">
-        <v>6.2467466517549799E-3</v>
+        <v>6.3865863538342003E-3</v>
       </c>
       <c r="I4" s="2">
-        <v>6.2467466517549799E-3</v>
+        <v>6.3865863538342003E-3</v>
       </c>
       <c r="J4" s="5">
-        <v>46</v>
+        <v>46.957142857142799</v>
       </c>
       <c r="K4" s="4">
-        <v>0.28735034598072901</v>
+        <v>0.29989584778647099</v>
       </c>
       <c r="L4" s="3">
-        <v>0.28735034598072901</v>
+        <v>0.29989584778647099</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="X4" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>3.6967212469359674E-3</v>
+        <v>2.7913345984451033E-3</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.35">
@@ -3798,41 +3810,41 @@
         <v>45293</v>
       </c>
       <c r="C5" s="24">
-        <v>2.4926054254950899E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>6.1148152228214497E-3</v>
+        <v>5.5849540468516003E-3</v>
       </c>
       <c r="E5" s="5">
-        <v>26.2</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F5" s="4">
-        <v>6.5306262147971403E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.154412623162199</v>
+        <v>0.143558705158846</v>
       </c>
       <c r="H5" s="24">
-        <v>4.3294571146141299E-3</v>
+        <v>4.4130893442087E-3</v>
       </c>
       <c r="I5" s="2">
-        <v>1.0576203766369099E-2</v>
+        <v>1.0799675698042899E-2</v>
       </c>
       <c r="J5" s="5">
-        <v>49.315068493150598</v>
+        <v>50.239436619718298</v>
       </c>
       <c r="K5" s="4">
-        <v>0.21350747414535401</v>
+        <v>0.22171112240552801</v>
       </c>
       <c r="L5" s="3">
-        <v>0.50085782012608404</v>
+        <v>0.52160697019199997</v>
       </c>
       <c r="W5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X5" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>8.3755967576647536E-2</v>
+        <v>7.1745451984895348E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.35">
@@ -3840,41 +3852,41 @@
         <v>45294</v>
       </c>
       <c r="C6" s="24">
-        <v>5.6854297178686296E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.180024494069E-2</v>
+        <v>8.3774310702775003E-3</v>
       </c>
       <c r="E6" s="5">
-        <v>29.2222222222222</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F6" s="4">
-        <v>0.166140890644383</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>0.32055351380658298</v>
+        <v>0.215338057738269</v>
       </c>
       <c r="H6" s="24">
-        <v>3.5776206414416599E-3</v>
+        <v>3.6916763614921002E-3</v>
       </c>
       <c r="I6" s="2">
-        <v>1.4153824407810701E-2</v>
+        <v>1.4491352059534999E-2</v>
       </c>
       <c r="J6" s="5">
-        <v>49.635135135135101</v>
+        <v>50.5277777777777</v>
       </c>
       <c r="K6" s="4">
-        <v>0.17757568400020499</v>
+        <v>0.18653220282094801</v>
       </c>
       <c r="L6" s="3">
-        <v>0.678433504126289</v>
+        <v>0.70813917301294904</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X6" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>26.511867976984217</v>
+        <v>25.702891650078627</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.35">
@@ -3882,34 +3894,34 @@
         <v>45295</v>
       </c>
       <c r="C7" s="24">
-        <v>1.02309942179771E-2</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.2031239158667199E-2</v>
+        <v>1.11699080937033E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>38.571428571428498</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F7" s="4">
-        <v>0.394624062693404</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G7" s="3">
-        <v>0.71517757649998703</v>
+        <v>0.287117410317692</v>
       </c>
       <c r="H7" s="24">
-        <v>3.7569548596465799E-3</v>
+        <v>3.8482400466854001E-3</v>
       </c>
       <c r="I7" s="2">
-        <v>1.7910779267457301E-2</v>
+        <v>1.8339592106220499E-2</v>
       </c>
       <c r="J7" s="5">
-        <v>47.430379746835399</v>
+        <v>48.181818181818102</v>
       </c>
       <c r="K7" s="4">
-        <v>0.17819379568475599</v>
+        <v>0.18541520224939101</v>
       </c>
       <c r="L7" s="3">
-        <v>0.85662729981104502</v>
+        <v>0.89355437526234005</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.35">
@@ -3917,41 +3929,41 @@
         <v>45296</v>
       </c>
       <c r="C8" s="24">
-        <v>8.3508417602552992E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>3.0382080918922499E-2</v>
+        <v>1.3962385117129101E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>22</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F8" s="4">
-        <v>0.18371851872561601</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G8" s="3">
-        <v>0.89889609522560399</v>
+        <v>0.35889676289711597</v>
       </c>
       <c r="H8" s="24">
-        <v>4.2952894424650896E-3</v>
+        <v>4.3747207553845001E-3</v>
       </c>
       <c r="I8" s="2">
-        <v>2.2206068709922401E-2</v>
+        <v>2.2714312861605E-2</v>
       </c>
       <c r="J8" s="5">
-        <v>46.096385542168598</v>
+        <v>46.753086419752997</v>
       </c>
       <c r="K8" s="4">
-        <v>0.19799731815507701</v>
+        <v>0.204531697538781</v>
       </c>
       <c r="L8" s="3">
-        <v>1.0546246179661201</v>
+        <v>1.0980860728011199</v>
       </c>
       <c r="W8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="X8" s="15">
         <f>AVERAGE(H:H)</f>
-        <v>4.4238151233965796E-3</v>
+        <v>4.4397725091713976E-3</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.35">
@@ -3959,41 +3971,41 @@
         <v>45299</v>
       </c>
       <c r="C9" s="24">
-        <v>5.5171725152056298E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.5899253434128101E-2</v>
+        <v>1.6754862140555001E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>39.375</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F9" s="4">
-        <v>0.217238667786221</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>1.1161347630118199</v>
+        <v>0.430676115476539</v>
       </c>
       <c r="H9" s="24">
-        <v>3.2924960845523302E-3</v>
+        <v>3.3607120327451001E-3</v>
       </c>
       <c r="I9" s="2">
-        <v>2.5498564794474699E-2</v>
+        <v>2.60750248943502E-2</v>
       </c>
       <c r="J9" s="5">
-        <v>43.351063829787201</v>
+        <v>43.804347826086897</v>
       </c>
       <c r="K9" s="4">
-        <v>0.142733207920753</v>
+        <v>0.147213798825684</v>
       </c>
       <c r="L9" s="3">
-        <v>1.19735782588687</v>
+        <v>1.2452998716268</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="X9" s="17">
         <f>AVERAGE(K:K)</f>
-        <v>0.16135837793767324</v>
+        <v>0.16447323754390916</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.35">
@@ -4001,41 +4013,41 @@
         <v>45300</v>
       </c>
       <c r="C10" s="24">
-        <v>1.5134997299376601E-2</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>5.1034250733504802E-2</v>
+        <v>1.9547339163980802E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>12.1666666666666</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F10" s="4">
-        <v>0.184142467142416</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G10" s="3">
-        <v>1.30027723015424</v>
+        <v>0.50245546805596197</v>
       </c>
       <c r="H10" s="24">
-        <v>1.8563831584689E-3</v>
+        <v>1.8810486152892E-3</v>
       </c>
       <c r="I10" s="2">
-        <v>2.7354947952943701E-2</v>
+        <v>2.7956073509639402E-2</v>
       </c>
       <c r="J10" s="5">
-        <v>35.939655172413701</v>
+        <v>36.157894736842103</v>
       </c>
       <c r="K10" s="4">
-        <v>6.6717770583248695E-2</v>
+        <v>6.8014757826510799E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>1.26407559647012</v>
+        <v>1.31331462945331</v>
       </c>
       <c r="W10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X10" s="19">
         <f>AVERAGE(J:J)</f>
-        <v>37.377967537513612</v>
+        <v>37.711118649954223</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.35">
@@ -4043,34 +4055,34 @@
         <v>45301</v>
       </c>
       <c r="C11" s="24">
-        <v>1.14045183730846E-2</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>6.2438769106589402E-2</v>
+        <v>2.2339816187406599E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>10.285714285714199</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F11" s="4">
-        <v>0.117303617551727</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.4175808477059699</v>
+        <v>0.574234820635385</v>
       </c>
       <c r="H11" s="24">
-        <v>5.2030075607689998E-3</v>
+        <v>5.2880895203439998E-3</v>
       </c>
       <c r="I11" s="2">
-        <v>3.2557955513712697E-2</v>
+        <v>3.3244163029983502E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>34.837398373983703</v>
+        <v>35.008264462809898</v>
       </c>
       <c r="K11" s="4">
-        <v>0.181259247137359</v>
+        <v>0.18512683643121899</v>
       </c>
       <c r="L11" s="3">
-        <v>1.44533484360748</v>
+        <v>1.49844146588453</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.35">
@@ -4078,41 +4090,41 @@
         <v>45302</v>
       </c>
       <c r="C12" s="24">
-        <v>7.7579146611291196E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>7.0196683767718607E-2</v>
+        <v>2.5132293210832501E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>24.4</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F12" s="4">
-        <v>0.18929311773155</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G12" s="3">
-        <v>1.6068739654375199</v>
+        <v>0.64601417321480803</v>
       </c>
       <c r="H12" s="24">
-        <v>3.6363245906471798E-3</v>
+        <v>3.7010038088045E-3</v>
       </c>
       <c r="I12" s="2">
-        <v>3.6194280104359801E-2</v>
+        <v>3.6945166838787999E-2</v>
       </c>
       <c r="J12" s="5">
-        <v>34.708661417322801</v>
+        <v>34.856000000000002</v>
       </c>
       <c r="K12" s="4">
-        <v>0.126211959020258</v>
+        <v>0.12900218875969099</v>
       </c>
       <c r="L12" s="3">
-        <v>1.5715468026277399</v>
+        <v>1.6274436546442199</v>
       </c>
       <c r="W12" s="14" t="s">
         <v>11</v>
       </c>
       <c r="X12" s="15">
         <f>SUM(X4*X6+X8*X10)/SUM(X6,X10)</f>
-        <v>4.1220986343124405E-3</v>
+        <v>3.7716296049328055E-3</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.35">
@@ -4120,41 +4132,41 @@
         <v>45303</v>
       </c>
       <c r="C13" s="24">
-        <v>6.3557656753578497E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>7.6552449443076404E-2</v>
+        <v>2.7924770234258298E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>28.6666666666666</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F13" s="4">
-        <v>0.182198616026925</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G13" s="3">
-        <v>1.7890725814644399</v>
+        <v>0.71779352579423195</v>
       </c>
       <c r="H13" s="24">
-        <v>4.19329065332762E-3</v>
+        <v>4.2189812882648002E-3</v>
       </c>
       <c r="I13" s="2">
-        <v>4.0387570757687501E-2</v>
+        <v>4.1164148127052901E-2</v>
       </c>
       <c r="J13" s="5">
-        <v>33.843283582089498</v>
+        <v>33.699248120300702</v>
       </c>
       <c r="K13" s="4">
-        <v>0.14191472472269201</v>
+        <v>0.14217649724814399</v>
       </c>
       <c r="L13" s="3">
-        <v>1.7134615273504299</v>
+        <v>1.76962015189237</v>
       </c>
       <c r="W13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X13" s="20">
         <f>SUM(X5*X6+X9*X10)/SUM(X6,X10)</f>
-        <v>0.12915630946121887</v>
+        <v>0.12688892117756476</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.35">
@@ -4162,34 +4174,34 @@
         <v>45307</v>
       </c>
       <c r="C14" s="24">
-        <v>3.0132134800121202E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.9565662923088504E-2</v>
+        <v>3.0717247257684099E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>18.1666666666666</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F14" s="4">
-        <v>5.4740044886886899E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.8438126263513299</v>
+        <v>0.78957287837365497</v>
       </c>
       <c r="H14" s="24">
-        <v>1.6927492819788399E-3</v>
+        <v>1.7434390141716999E-3</v>
       </c>
       <c r="I14" s="2">
-        <v>4.2080320039666302E-2</v>
+        <v>4.2907587141224598E-2</v>
       </c>
       <c r="J14" s="5">
-        <v>37.562962962962899</v>
+        <v>37.417910447761201</v>
       </c>
       <c r="K14" s="4">
-        <v>6.3584678584553495E-2</v>
+        <v>6.5235844903410903E-2</v>
       </c>
       <c r="L14" s="3">
-        <v>1.7770462059349801</v>
+        <v>1.83485599679578</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.35">
@@ -4197,34 +4209,34 @@
         <v>45308</v>
       </c>
       <c r="C15" s="24">
-        <v>3.34039744540771E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>8.2906060368496307E-2</v>
+        <v>3.3509724281110001E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>25.571428571428498</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F15" s="4">
-        <v>8.5418734675425795E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.92923136102675</v>
+        <v>0.861352230953078</v>
       </c>
       <c r="H15" s="24">
-        <v>5.2611487679223696E-4</v>
+        <v>5.877286423528E-4</v>
       </c>
       <c r="I15" s="2">
-        <v>4.2606434916458602E-2</v>
+        <v>4.3495315783577501E-2</v>
       </c>
       <c r="J15" s="5">
-        <v>38.562962962962899</v>
+        <v>38.417910447761201</v>
       </c>
       <c r="K15" s="4">
-        <v>2.02885485080028E-2</v>
+        <v>2.2579306349496502E-2</v>
       </c>
       <c r="L15" s="3">
-        <v>1.7973347544429901</v>
+        <v>1.8574353031452699</v>
       </c>
       <c r="X15" s="14">
         <v>250</v>
@@ -4238,45 +4250,45 @@
         <v>45309</v>
       </c>
       <c r="C16" s="24">
-        <v>1.5560310832290901E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.4462091451725396E-2</v>
+        <v>3.6302201304535799E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>28</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F16" s="4">
-        <v>4.3568870330414698E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>1.97280023135717</v>
+        <v>0.93313158353250103</v>
       </c>
       <c r="H16" s="24">
-        <v>9.9682724899001398E-4</v>
+        <v>1.0576337811725E-3</v>
       </c>
       <c r="I16" s="2">
-        <v>4.3603262165448603E-2</v>
+        <v>4.4552949564750102E-2</v>
       </c>
       <c r="J16" s="5">
-        <v>38.15</v>
+        <v>38</v>
       </c>
       <c r="K16" s="4">
-        <v>3.8028959548969003E-2</v>
+        <v>4.0190083684558398E-2</v>
       </c>
       <c r="L16" s="3">
-        <v>1.8353637139919601</v>
+        <v>1.8976253868298301</v>
       </c>
       <c r="W16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="X16" s="22">
         <f>POWER(1+X12,X15)-1</f>
-        <v>1.7966059333055928</v>
+        <v>1.5628853429657368</v>
       </c>
       <c r="Y16" s="22">
         <f>POWER(1+X12,Y15)-1</f>
-        <v>3.4882977618597986</v>
+        <v>2.9513418019146012</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.35">
@@ -4284,45 +4296,45 @@
         <v>45310</v>
       </c>
       <c r="C17" s="24">
-        <v>-3.7755918962895998E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>8.0686499555435803E-2</v>
+        <v>3.90946783279617E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>55</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F17" s="4">
-        <v>-0.207657554295928</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G17" s="3">
-        <v>1.76514267706124</v>
+        <v>1.00491093611192</v>
       </c>
       <c r="H17" s="24">
-        <v>2.1868484972580502E-3</v>
+        <v>2.2664665766449002E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>4.57901106627066E-2</v>
+        <v>4.6819416141395002E-2</v>
       </c>
       <c r="J17" s="5">
-        <v>38.328671328671298</v>
+        <v>38.176056338028097</v>
       </c>
       <c r="K17" s="4">
-        <v>8.3818997297002901E-2</v>
+        <v>8.6524755718254201E-2</v>
       </c>
       <c r="L17" s="3">
-        <v>1.9191827112889599</v>
+        <v>1.9841501425480901</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>13</v>
       </c>
       <c r="X17" s="21">
         <f>POWER(1+X12*Z17,X15)-1</f>
-        <v>11.976335905808295</v>
+        <v>9.4460554967025452</v>
       </c>
       <c r="Y17" s="21">
         <f>POWER(1+X12*Z17,Y15)-1</f>
-        <v>41.189272402597226</v>
+        <v>29.737631520910522</v>
       </c>
       <c r="Z17">
         <v>2.5</v>
@@ -4333,34 +4345,34 @@
         <v>45313</v>
       </c>
       <c r="C18" s="24">
-        <v>1.43653421561418E-4</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>8.0830152976997194E-2</v>
+        <v>4.1887155351387498E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>19.636363636363601</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F18" s="4">
-        <v>2.82083082338784E-3</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G18" s="3">
-        <v>1.7679635078846301</v>
+        <v>1.0766902886913401</v>
       </c>
       <c r="H18" s="24">
-        <v>2.1821024431090299E-3</v>
+        <v>2.2418031176444E-3</v>
       </c>
       <c r="I18" s="2">
-        <v>4.7972213105815703E-2</v>
+        <v>4.9061219259039397E-2</v>
       </c>
       <c r="J18" s="5">
-        <v>40.758620689655103</v>
+        <v>40.6041666666666</v>
       </c>
       <c r="K18" s="4">
-        <v>8.8939485784650996E-2</v>
+        <v>9.1026547422686996E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>2.0081221970736101</v>
+        <v>2.0751766899707702</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.35">
@@ -4368,34 +4380,34 @@
         <v>45314</v>
       </c>
       <c r="C19" s="24">
-        <v>1.15273419269499E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>8.1982887169692195E-2</v>
+        <v>4.4679632374813302E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>37.285714285714199</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F19" s="4">
-        <v>4.2980517756199002E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>1.81094402564083</v>
+        <v>1.14846964127077</v>
       </c>
       <c r="H19" s="24">
-        <v>2.6534364479650898E-3</v>
+        <v>2.7109857810485999E-3</v>
       </c>
       <c r="I19" s="2">
-        <v>5.0625649553780801E-2</v>
+        <v>5.1772205040088101E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>40.912162162162097</v>
+        <v>40.755102040816297</v>
       </c>
       <c r="K19" s="4">
-        <v>0.108557822246139</v>
+        <v>0.11048650213783801</v>
       </c>
       <c r="L19" s="3">
-        <v>2.1166800193197499</v>
+        <v>2.1856631921086098</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4403,34 +4415,34 @@
         <v>45315</v>
       </c>
       <c r="C20" s="24">
-        <v>7.2091695203043901E-4</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>8.2703804121722596E-2</v>
+        <v>4.7472109398239197E-2</v>
       </c>
       <c r="E20" s="5">
-        <v>37.4</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F20" s="4">
-        <v>2.69622940059384E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.83790631964677</v>
+        <v>1.2202489938501899</v>
       </c>
       <c r="H20" s="24">
-        <v>5.3062474217068101E-3</v>
+        <v>5.3805653094657997E-3</v>
       </c>
       <c r="I20" s="2">
-        <v>5.5931896975487602E-2</v>
+        <v>5.7152770349553898E-2</v>
       </c>
       <c r="J20" s="5">
-        <v>41.079470198675402</v>
+        <v>40.92</v>
       </c>
       <c r="K20" s="4">
-        <v>0.217977832826803</v>
+        <v>0.22017273246333999</v>
       </c>
       <c r="L20" s="3">
-        <v>2.3346578521465502</v>
+        <v>2.4058359245719498</v>
       </c>
     </row>
     <row r="21" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4438,34 +4450,34 @@
         <v>45316</v>
       </c>
       <c r="C21" s="24">
-        <v>3.1284863094905198E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>8.5832290431213099E-2</v>
+        <v>5.0264586421665002E-2</v>
       </c>
       <c r="E21" s="5">
-        <v>34.875</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F21" s="4">
-        <v>0.109105960043482</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>1.94701227969025</v>
+        <v>1.2920283464296101</v>
       </c>
       <c r="H21" s="24">
-        <v>4.4735537585061901E-3</v>
+        <v>4.5402568427289E-3</v>
       </c>
       <c r="I21" s="2">
-        <v>6.0405450733993803E-2</v>
+        <v>6.1693027192282798E-2</v>
       </c>
       <c r="J21" s="5">
-        <v>40.730769230769198</v>
+        <v>40.567741935483802</v>
       </c>
       <c r="K21" s="4">
-        <v>0.18221128577915599</v>
+        <v>0.18418796791664099</v>
       </c>
       <c r="L21" s="3">
-        <v>2.5168691379257102</v>
+        <v>2.5900238924885999</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4473,34 +4485,34 @@
         <v>45317</v>
       </c>
       <c r="C22" s="24">
-        <v>7.72867727743675E-4</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>8.6605158158956794E-2</v>
+        <v>5.3057063445090903E-2</v>
       </c>
       <c r="E22" s="5">
-        <v>31.25</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F22" s="4">
-        <v>2.4152116491989801E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>1.97116439618224</v>
+        <v>1.36380769900904</v>
       </c>
       <c r="H22" s="24">
-        <v>3.8066092472326001E-3</v>
+        <v>3.8623706009981002E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>6.4212059981226394E-2</v>
+        <v>6.5555397793280998E-2</v>
       </c>
       <c r="J22" s="5">
-        <v>39.695121951219498</v>
+        <v>39.527607361963099</v>
       </c>
       <c r="K22" s="4">
-        <v>0.15110381828953801</v>
+        <v>0.15267026860264599</v>
       </c>
       <c r="L22" s="3">
-        <v>2.6679729562152499</v>
+        <v>2.7426941610912401</v>
       </c>
     </row>
     <row r="23" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4508,34 +4520,34 @@
         <v>45320</v>
       </c>
       <c r="C23" s="24">
-        <v>1.96507374341758E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>8.8570231902374397E-2</v>
+        <v>5.5849540468516701E-2</v>
       </c>
       <c r="E23" s="5">
-        <v>38.200000000000003</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F23" s="4">
-        <v>7.5065816998551499E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>2.0462302131807899</v>
+        <v>1.4355870515884599</v>
       </c>
       <c r="H23" s="24">
-        <v>3.2629400948245E-3</v>
+        <v>3.3070103835424001E-3</v>
       </c>
       <c r="I23" s="2">
-        <v>6.7475000076050895E-2</v>
+        <v>6.8862408176823403E-2</v>
       </c>
       <c r="J23" s="5">
-        <v>40.241379310344797</v>
+        <v>40.069364161849698</v>
       </c>
       <c r="K23" s="4">
-        <v>0.13130521002276499</v>
+        <v>0.13250980334518001</v>
       </c>
       <c r="L23" s="3">
-        <v>2.7992781662380102</v>
+        <v>2.87520396443642</v>
       </c>
     </row>
     <row r="24" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4543,34 +4555,34 @@
         <v>45321</v>
       </c>
       <c r="C24" s="24">
-        <v>6.60313982827358E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>9.5173371730647993E-2</v>
+        <v>5.8642017491942498E-2</v>
       </c>
       <c r="E24" s="5">
-        <v>28.4545454545454</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F24" s="4">
-        <v>0.18788934238633001</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>2.2341195555671201</v>
+        <v>1.50736640416788</v>
       </c>
       <c r="H24" s="24">
-        <v>4.3086309478151596E-3</v>
+        <v>4.3555756656393002E-3</v>
       </c>
       <c r="I24" s="2">
-        <v>7.1783631023866007E-2</v>
+        <v>7.3217983842462794E-2</v>
       </c>
       <c r="J24" s="5">
-        <v>39.428571428571402</v>
+        <v>39.254143646408799</v>
       </c>
       <c r="K24" s="4">
-        <v>0.16988316308528301</v>
+        <v>0.17097439284181001</v>
       </c>
       <c r="L24" s="3">
-        <v>2.9691613293232999</v>
+        <v>3.0461783572782299</v>
       </c>
     </row>
     <row r="25" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4578,34 +4590,34 @@
         <v>45322</v>
       </c>
       <c r="C25" s="24">
-        <v>4.30519813995977E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>9.9478569870607797E-2</v>
+        <v>6.14344945153684E-2</v>
       </c>
       <c r="E25" s="5">
-        <v>34.8888888888888</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F25" s="4">
-        <v>0.15020357954970701</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>2.3843231351168299</v>
+        <v>1.5791457567473099</v>
       </c>
       <c r="H25" s="24">
-        <v>3.13217221004037E-3</v>
+        <v>3.1871598255012001E-3</v>
       </c>
       <c r="I25" s="2">
-        <v>7.4915803233906397E-2</v>
+        <v>7.6405143667964096E-2</v>
       </c>
       <c r="J25" s="5">
-        <v>39.347593582887697</v>
+        <v>39.383783783783699</v>
       </c>
       <c r="K25" s="4">
-        <v>0.123243439152283</v>
+        <v>0.12552241345190401</v>
       </c>
       <c r="L25" s="3">
-        <v>3.0924047684755802</v>
+        <v>3.1717007707301401</v>
       </c>
     </row>
     <row r="26" spans="2:26" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4613,34 +4625,34 @@
         <v>45323</v>
       </c>
       <c r="C26" s="24">
-        <v>-2.0744653886599E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>9.7404104481947903E-2</v>
+        <v>6.4226971538794198E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>24.3</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F26" s="4">
-        <v>-5.0409508944435501E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>2.3339136261723898</v>
+        <v>1.6509251093267301</v>
       </c>
       <c r="H26" s="24">
-        <v>1.9591642836076901E-3</v>
+        <v>2.2277723226858002E-3</v>
       </c>
       <c r="I26" s="2">
-        <v>7.6874967517514103E-2</v>
+        <v>7.8632915990649893E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>37.167487684728997</v>
+        <v>37.169154228855703</v>
       </c>
       <c r="K26" s="4">
-        <v>7.2817214383349996E-2</v>
+        <v>8.2804413048686396E-2</v>
       </c>
       <c r="L26" s="3">
-        <v>3.1652219828589301</v>
+        <v>3.2545051837788201</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="2" customHeight="1" x14ac:dyDescent="0.35">
@@ -4648,34 +4660,34 @@
         <v>45324</v>
       </c>
       <c r="C27" s="24">
-        <v>3.50192596908437E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.100906030451032</v>
+        <v>6.7019448562220099E-2</v>
       </c>
       <c r="E27" s="5">
-        <v>11.3333333333333</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F27" s="4">
-        <v>3.9688494316289499E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>2.3736021204886799</v>
+        <v>1.72270446190615</v>
       </c>
       <c r="H27" s="24">
-        <v>1.01955209729094E-3</v>
+        <v>1.1997895218039999E-3</v>
       </c>
       <c r="I27" s="2">
-        <v>7.7894519614805105E-2</v>
+        <v>7.9832705512454E-2</v>
       </c>
       <c r="J27" s="5">
-        <v>34.283185840707901</v>
+        <v>34.403587443946101</v>
       </c>
       <c r="K27" s="4">
-        <v>3.4953494025709103E-2</v>
+        <v>4.1277063727716397E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>3.20017547688464</v>
+        <v>3.2957822475065401</v>
       </c>
     </row>
     <row r="28" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4683,34 +4695,34 @@
         <v>45327</v>
       </c>
       <c r="C28" s="24">
-        <v>5.3969062995158201E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.106302936750548</v>
+        <v>6.9811925585645904E-2</v>
       </c>
       <c r="E28" s="5">
-        <v>27.8</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F28" s="4">
-        <v>0.150033995126539</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>2.5236361156152198</v>
+        <v>1.7944838144855799</v>
       </c>
       <c r="H28" s="24">
-        <v>1.4501028075956099E-3</v>
+        <v>1.5501247511057999E-3</v>
       </c>
       <c r="I28" s="2">
-        <v>7.9344622422400701E-2</v>
+        <v>8.1382830263559802E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>36.634782608695602</v>
+        <v>36.744493392070403</v>
       </c>
       <c r="K28" s="4">
-        <v>5.3124201116524598E-2</v>
+        <v>5.6958548673892301E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>3.2532996780011598</v>
+        <v>3.3527407961804299</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4718,34 +4730,34 @@
         <v>45328</v>
       </c>
       <c r="C29" s="24">
-        <v>1.86766408054538E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.10817060083109301</v>
+        <v>7.2604402609071694E-2</v>
       </c>
       <c r="E29" s="5">
-        <v>25.307692307692299</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F29" s="4">
-        <v>4.7266267884571597E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>2.5709023834997899</v>
+        <v>1.8662631670650001</v>
       </c>
       <c r="H29" s="24">
-        <v>1.9687722079808801E-3</v>
+        <v>2.0576382341403001E-3</v>
       </c>
       <c r="I29" s="2">
-        <v>8.1313394630381605E-2</v>
+        <v>8.3440468497700204E-2</v>
       </c>
       <c r="J29" s="5">
-        <v>35.621399176954696</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="K29" s="4">
-        <v>7.0130420708981706E-2</v>
+        <v>7.3457684958810596E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>3.3234300987101499</v>
+        <v>3.4261984811392399</v>
       </c>
     </row>
     <row r="30" spans="2:26" ht="3" customHeight="1" x14ac:dyDescent="0.35">
@@ -4753,34 +4765,34 @@
         <v>45329</v>
       </c>
       <c r="C30" s="24">
-        <v>-2.91992089470435E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.10525067993638899</v>
+        <v>7.5396879632497596E-2</v>
       </c>
       <c r="E30" s="5">
-        <v>27</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F30" s="4">
-        <v>-7.8837864157017504E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>2.4920645193427702</v>
+        <v>1.93804251964442</v>
       </c>
       <c r="H30" s="24">
-        <v>2.1213464792604101E-3</v>
+        <v>2.2145263389827998E-3</v>
       </c>
       <c r="I30" s="2">
-        <v>8.3434741109641997E-2</v>
+        <v>8.5654994836683096E-2</v>
       </c>
       <c r="J30" s="5">
-        <v>34.626459143968802</v>
+        <v>34.814229249011802</v>
       </c>
       <c r="K30" s="4">
-        <v>7.3454717194312999E-2</v>
+        <v>7.70970276433256E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>3.39688481590446</v>
+        <v>3.5032955087825699</v>
       </c>
     </row>
     <row r="31" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4788,34 +4800,34 @@
         <v>45330</v>
       </c>
       <c r="C31" s="24">
-        <v>8.9035763182900005E-5</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.105339715699572</v>
+        <v>7.81893566559234E-2</v>
       </c>
       <c r="E31" s="5">
-        <v>23.375</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F31" s="4">
-        <v>2.0812109644002801E-3</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>2.4941457303071699</v>
+        <v>2.0098218722238501</v>
       </c>
       <c r="H31" s="24">
-        <v>6.6145439386085404E-3</v>
+        <v>6.7785162722064996E-3</v>
       </c>
       <c r="I31" s="2">
-        <v>9.0049285048250494E-2</v>
+        <v>9.2433511108889699E-2</v>
       </c>
       <c r="J31" s="5">
-        <v>33.2945454545454</v>
+        <v>33.5592592592592</v>
       </c>
       <c r="K31" s="4">
-        <v>0.22022823382508999</v>
+        <v>0.22748198497208799</v>
       </c>
       <c r="L31" s="3">
-        <v>3.6171130497295501</v>
+        <v>3.7307774937546601</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4823,34 +4835,34 @@
         <v>45331</v>
       </c>
       <c r="C32" s="24">
-        <v>5.5184695342524602E-4</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.105891562652997</v>
+        <v>8.0981833679349205E-2</v>
       </c>
       <c r="E32" s="5">
-        <v>33.230769230769198</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F32" s="4">
-        <v>1.83382987599774E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>2.5124840290671502</v>
+        <v>2.0816012248032698</v>
       </c>
       <c r="H32" s="24">
-        <v>9.4450690425298203E-3</v>
+        <v>9.2426853500897008E-3</v>
       </c>
       <c r="I32" s="2">
-        <v>9.9494354090780404E-2</v>
+        <v>0.101676196458979</v>
       </c>
       <c r="J32" s="5">
-        <v>32.520689655172397</v>
+        <v>32.740350877192903</v>
       </c>
       <c r="K32" s="4">
-        <v>0.30716015910378902</v>
+        <v>0.30260876140942899</v>
       </c>
       <c r="L32" s="3">
-        <v>3.9242732088333399</v>
+        <v>4.03338625516409</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -4858,104 +4870,104 @@
         <v>45334</v>
       </c>
       <c r="C33" s="24">
-        <v>1.25678747718951E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.107148350130186</v>
+        <v>8.3774310702774996E-2</v>
       </c>
       <c r="E33" s="5">
-        <v>24.95</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F33" s="4">
-        <v>3.1356847555878198E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>2.54384087662303</v>
+        <v>2.15338057738269</v>
       </c>
       <c r="H33" s="24">
-        <v>7.3860584247986798E-3</v>
+        <v>7.3891964557673004E-3</v>
       </c>
       <c r="I33" s="2">
-        <v>0.106880412515579</v>
+        <v>0.109065392914746</v>
       </c>
       <c r="J33" s="5">
-        <v>33.773770491803198</v>
+        <v>33.953333333333298</v>
       </c>
       <c r="K33" s="4">
-        <v>0.24945504207819999</v>
+        <v>0.25088785032815403</v>
       </c>
       <c r="L33" s="3">
-        <v>4.1737282509115401</v>
+        <v>4.2842741054922397</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" ht="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="13">
         <v>45335</v>
       </c>
       <c r="C34" s="24">
-        <v>3.4133337511977001E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.110561683881384</v>
+        <v>8.6566787726200897E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>17.2083333333333</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F34" s="4">
-        <v>5.8737784968527197E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>2.60257866159156</v>
+        <v>2.2251599299621199</v>
       </c>
       <c r="H34" s="24">
-        <v>5.7531772786251299E-3</v>
+        <v>5.7835501426477002E-3</v>
       </c>
       <c r="I34" s="2">
-        <v>0.112633589794204</v>
+        <v>0.114848943057394</v>
       </c>
       <c r="J34" s="5">
-        <v>34.2129032258064</v>
+        <v>34.380327868852397</v>
       </c>
       <c r="K34" s="4">
-        <v>0.19683289747450999</v>
+        <v>0.19884035015017701</v>
       </c>
       <c r="L34" s="3">
-        <v>4.3705611483860496</v>
+        <v>4.4831144556424203</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" ht="2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="13">
         <v>45336</v>
       </c>
       <c r="C35" s="24">
-        <v>8.1593195381631407E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.118721003419547</v>
+        <v>8.9359264749626702E-2</v>
       </c>
       <c r="E35" s="5">
-        <v>20.928571428571399</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F35" s="4">
-        <v>0.170762901762985</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>2.7733415633545402</v>
+        <v>2.29693928254154</v>
       </c>
       <c r="H35" s="24">
-        <v>5.7903780137094204E-3</v>
+        <v>6.0167666193533002E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>0.11842396780791301</v>
+        <v>0.12086570967674699</v>
       </c>
       <c r="J35" s="5">
-        <v>32.200589970501397</v>
+        <v>33.512422360248401</v>
       </c>
       <c r="K35" s="4">
-        <v>0.18645358819366301</v>
+        <v>0.20163642419081301</v>
       </c>
       <c r="L35" s="3">
-        <v>4.5570147365797098</v>
+        <v>4.6847508798332296</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -4963,34 +4975,34 @@
         <v>45337</v>
       </c>
       <c r="C36" s="24">
-        <v>-2.00269389832986E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.11671830952121701</v>
+        <v>9.2151741773052506E-2</v>
       </c>
       <c r="E36" s="5">
-        <v>25.1</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F36" s="4">
-        <v>-5.0267616848079698E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>2.7230739465064602</v>
+        <v>2.3687186351209601</v>
       </c>
       <c r="H36" s="24">
-        <v>1.0496164029499501E-2</v>
+        <v>1.02629719775788E-2</v>
       </c>
       <c r="I36" s="2">
-        <v>0.12892013183741299</v>
+        <v>0.13112868165432601</v>
       </c>
       <c r="J36" s="5">
-        <v>32.157142857142802</v>
+        <v>33.472891566264998</v>
       </c>
       <c r="K36" s="4">
-        <v>0.33752664614861999</v>
+        <v>0.34353134815311498</v>
       </c>
       <c r="L36" s="3">
-        <v>4.8945413827283302</v>
+        <v>5.0282822279863497</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -4998,34 +5010,34 @@
         <v>45338</v>
       </c>
       <c r="C37" s="24">
-        <v>6.2257496384378001E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.12294405915965501</v>
+        <v>9.4944218796478394E-2</v>
       </c>
       <c r="E37" s="5">
-        <v>33.466666666666598</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F37" s="4">
-        <v>0.20835508789971799</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>2.9314290344061802</v>
+        <v>2.4404979877003901</v>
       </c>
       <c r="H37" s="24">
-        <v>1.01203412590734E-2</v>
+        <v>9.1433039152281001E-3</v>
       </c>
       <c r="I37" s="2">
-        <v>0.13904047309648601</v>
+        <v>0.140271985569555</v>
       </c>
       <c r="J37" s="5">
-        <v>31.449864498644899</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="K37" s="4">
-        <v>0.31828336127790502</v>
+        <v>0.29898603802796098</v>
       </c>
       <c r="L37" s="3">
-        <v>5.2128247440062401</v>
+        <v>5.3272682660143102</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
@@ -5033,34 +5045,34 @@
         <v>45342</v>
       </c>
       <c r="C38" s="24">
-        <v>2.3249739751896102E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.125269033134845</v>
+        <v>9.7736695819904199E-2</v>
       </c>
       <c r="E38" s="5">
-        <v>24.3</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F38" s="4">
-        <v>5.6496867597107599E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>2.98792590200329</v>
+        <v>2.5122773402798102</v>
       </c>
       <c r="H38" s="24">
-        <v>4.4706121210818604E-3</v>
+        <v>4.3079041785937999E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.143511085217568</v>
+        <v>0.144579889748148</v>
       </c>
       <c r="J38" s="5">
-        <v>34.0651041666666</v>
+        <v>35.385674931129401</v>
       </c>
       <c r="K38" s="4">
-        <v>0.15229186759341601</v>
+        <v>0.152438096898176</v>
       </c>
       <c r="L38" s="3">
-        <v>5.3651166115996602</v>
+        <v>5.4797063629124896</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -5068,34 +5080,34 @@
         <v>45343</v>
       </c>
       <c r="C39" s="24">
-        <v>3.6896802831450598E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.12895871341799001</v>
+        <v>0.10052917284333</v>
       </c>
       <c r="E39" s="5">
-        <v>13.3333333333333</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F39" s="4">
-        <v>4.9195737108600798E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>3.03712163911189</v>
+        <v>2.5840566928592299</v>
       </c>
       <c r="H39" s="24">
-        <v>2.80324295752599E-3</v>
+        <v>2.2848168945985999E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>0.14631432817509399</v>
+        <v>0.14686470664274701</v>
       </c>
       <c r="J39" s="5">
-        <v>33.246913580246897</v>
+        <v>34.3958333333333</v>
       </c>
       <c r="K39" s="4">
-        <v>9.3199176353302493E-2</v>
+        <v>7.8588181103799906E-2</v>
       </c>
       <c r="L39" s="3">
-        <v>5.4583157879529596</v>
+        <v>5.5582945440162899</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
@@ -5103,34 +5115,34 @@
         <v>45344</v>
       </c>
       <c r="C40" s="24">
-        <v>5.4371027392379704E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.13439581615722801</v>
+        <v>0.103321649866755</v>
       </c>
       <c r="E40" s="5">
-        <v>18.933333333333302</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F40" s="4">
-        <v>0.102942478529572</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>3.1400641176414599</v>
+        <v>2.6558360454386598</v>
       </c>
       <c r="H40" s="24">
-        <v>4.7451170483356203E-3</v>
+        <v>4.2973386420194996E-3</v>
       </c>
       <c r="I40" s="2">
-        <v>0.15105944522343001</v>
+        <v>0.15116204528476701</v>
       </c>
       <c r="J40" s="5">
-        <v>32.712264150943398</v>
+        <v>33.727047146401901</v>
       </c>
       <c r="K40" s="4">
-        <v>0.15522352231229899</v>
+        <v>0.14493654298344699</v>
       </c>
       <c r="L40" s="3">
-        <v>5.61353931026526</v>
+        <v>5.7032310869997298</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
@@ -5138,34 +5150,34 @@
         <v>45345</v>
       </c>
       <c r="C41" s="24">
-        <v>4.5445144127867601E-4</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.13485026759850599</v>
+        <v>0.106114126890181</v>
       </c>
       <c r="E41" s="5">
-        <v>35.571428571428498</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F41" s="4">
-        <v>1.6165486982627202E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>3.1562296046240901</v>
+        <v>2.72761539801808</v>
       </c>
       <c r="H41" s="24">
-        <v>6.8037193053954899E-3</v>
+        <v>6.427771785299E-3</v>
       </c>
       <c r="I41" s="2">
-        <v>0.15786316452882501</v>
+        <v>0.157589817070066</v>
       </c>
       <c r="J41" s="5">
-        <v>32.7093821510297</v>
+        <v>33.641826923076898</v>
       </c>
       <c r="K41" s="4">
-        <v>0.22254545480851901</v>
+        <v>0.216241985902068</v>
       </c>
       <c r="L41" s="3">
-        <v>5.8360847650737799</v>
+        <v>5.9194730729018001</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
@@ -5173,34 +5185,34 @@
         <v>45348</v>
       </c>
       <c r="C42" s="24">
-        <v>3.7097782193914099E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.13856004581789799</v>
+        <v>0.108906603913607</v>
       </c>
       <c r="E42" s="5">
-        <v>26.7777777777777</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F42" s="4">
-        <v>9.9339616763703398E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>3.2555692213877898</v>
+        <v>2.7993947505975001</v>
       </c>
       <c r="H42" s="24">
-        <v>4.4784178786233097E-3</v>
+        <v>4.1997765729138003E-3</v>
       </c>
       <c r="I42" s="2">
-        <v>0.162341582407448</v>
+        <v>0.16178959364297901</v>
       </c>
       <c r="J42" s="5">
-        <v>34.988789237668101</v>
+        <v>35.865882352941099</v>
       </c>
       <c r="K42" s="4">
-        <v>0.15669441927335601</v>
+        <v>0.150628692472766</v>
       </c>
       <c r="L42" s="3">
-        <v>5.9927791843471301</v>
+        <v>6.0701017653745701</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
@@ -5208,72 +5220,69 @@
         <v>45349</v>
       </c>
       <c r="C43" s="24">
-        <v>3.9570505400974296E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.142517096357995</v>
+        <v>0.111699080937033</v>
       </c>
       <c r="E43" s="5">
-        <v>23.9444444444444</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F43" s="4">
-        <v>9.4749376821222003E-2</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>3.3503185982090198</v>
+        <v>2.8711741031769198</v>
       </c>
       <c r="H43" s="24">
-        <v>6.5135740213974804E-3</v>
+        <v>6.3232921062714E-3</v>
       </c>
       <c r="I43" s="2">
-        <v>0.16885515642884599</v>
+        <v>0.16811288574925101</v>
       </c>
       <c r="J43" s="5">
-        <v>34.667386609071201</v>
+        <v>35.528344671201801</v>
       </c>
       <c r="K43" s="4">
-        <v>0.22580858880658899</v>
+        <v>0.224656101408302</v>
       </c>
       <c r="L43" s="3">
-        <v>6.21858777315372</v>
+        <v>6.2947578667828701</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="13">
         <v>45350</v>
       </c>
       <c r="C44" s="24">
-        <v>1.0330495415577399E-2</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.15284759177357299</v>
+        <v>0.114491557960459</v>
       </c>
       <c r="E44" s="5">
-        <v>11.9333333333333</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F44" s="4">
-        <v>0.123277245292557</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>3.4735958435015699</v>
+        <v>2.9429534557563501</v>
       </c>
       <c r="H44" s="24">
-        <v>7.7027862056785303E-3</v>
+        <v>7.7882956842586001E-3</v>
       </c>
       <c r="I44" s="2">
-        <v>0.17655794263452401</v>
+        <v>0.17590118143351</v>
       </c>
       <c r="J44" s="5">
-        <v>34.693277310924302</v>
+        <v>35.639380530973398</v>
       </c>
       <c r="K44" s="4">
-        <v>0.26723489790036797</v>
+        <v>0.27757003357903098</v>
       </c>
       <c r="L44" s="3">
-        <v>6.4858226710540903</v>
-      </c>
-      <c r="N44" s="23" t="s">
-        <v>18</v>
+        <v>6.5723279003619002</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="18" x14ac:dyDescent="0.4">
@@ -5281,74 +5290,114 @@
         <v>45351</v>
       </c>
       <c r="C45" s="24">
-        <v>5.9116474778929196E-3</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.15875923925146601</v>
+        <v>0.117284034983885</v>
       </c>
       <c r="E45" s="5">
-        <v>20.75</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F45" s="4">
-        <v>0.122666685166278</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>3.5962625286678498</v>
+        <v>3.0147328083357698</v>
       </c>
       <c r="H45" s="24">
-        <v>6.7148396025102702E-3</v>
+        <v>6.7830453438395997E-3</v>
       </c>
       <c r="I45" s="2">
-        <v>0.183272782237035</v>
+        <v>0.182684226777349</v>
       </c>
       <c r="J45" s="5">
-        <v>34.185110663983899</v>
+        <v>35.012684989429097</v>
       </c>
       <c r="K45" s="4">
-        <v>0.22954753490271501</v>
+        <v>0.23749262989287301</v>
       </c>
       <c r="L45" s="3">
-        <v>6.7153702059568099</v>
+        <v>6.8098205302547798</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:14" ht="18" x14ac:dyDescent="0.4">
       <c r="B46" s="13">
         <v>45352</v>
       </c>
       <c r="C46" s="24">
-        <v>1.9977436678077399E-4</v>
+        <v>2.7924770234258002E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.15895901361824599</v>
+        <v>0.12007651200731</v>
       </c>
       <c r="E46" s="5">
-        <v>26.25</v>
+        <v>25.7045454545454</v>
       </c>
       <c r="F46" s="4">
-        <v>5.2440771279953302E-3</v>
+        <v>7.1779352579423195E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>3.60150660579585</v>
+        <v>3.08651216091519</v>
       </c>
       <c r="H46" s="24">
-        <v>6.9512680690179997E-3</v>
+        <v>7.0330816729792002E-3</v>
       </c>
       <c r="I46" s="2">
-        <v>0.19022405030605299</v>
+        <v>0.189717308450328</v>
       </c>
       <c r="J46" s="5">
-        <v>32.086238532110002</v>
+        <v>32.757692307692302</v>
       </c>
       <c r="K46" s="4">
-        <v>0.223040045363151</v>
+        <v>0.230387525418323</v>
       </c>
       <c r="L46" s="3">
-        <v>6.9384102513199597</v>
+        <v>7.0402080556730997</v>
       </c>
       <c r="N46" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="B47" s="13">
+        <v>45355</v>
+      </c>
+      <c r="C47" s="24">
+        <v>2.74221032427508E-3</v>
+      </c>
+      <c r="D47" s="2">
+        <f>D46*(1+Table1[[#This Row],[Realized Daily Return]])</f>
+        <v>0.12040578705823939</v>
+      </c>
+      <c r="E47" s="5">
+        <v>25.631778058007502</v>
+      </c>
+      <c r="F47" s="4">
+        <v>7.0287726420195804E-2</v>
+      </c>
+      <c r="G47" s="3">
+        <v>7.0287726420195804E-2</v>
+      </c>
+      <c r="H47" s="24">
+        <v>5.6326819532147897E-3</v>
+      </c>
+      <c r="I47" s="2">
+        <f>I46*(1+Table1[[#This Row],[Realized Daily Return]])</f>
+        <v>0.19023755321225419</v>
+      </c>
+      <c r="J47" s="5">
+        <v>34.905999999999999</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.196614396258915</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.196614396258915</v>
+      </c>
+      <c r="N47" s="23" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E688C20-B6BB-46F5-910B-9C13525A2068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBB9A88-09A8-4AD4-B193-847C619CCE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -705,14 +705,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1091,115 +1090,115 @@
                   <c:v>2.1746554404266701E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6991237454304599E-2</c:v>
+                  <c:v>2.68925936801656E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3538909167249102E-2</c:v>
+                  <c:v>3.3350036745999699E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0569022239695197E-2</c:v>
+                  <c:v>4.0292531815752097E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8006871513175398E-2</c:v>
+                  <c:v>4.7646865031589498E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5212732240196502E-2</c:v>
+                  <c:v>5.47796827409439E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2220684605971598E-2</c:v>
+                  <c:v>6.1718110682061601E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9165598032550707E-2</c:v>
+                  <c:v>6.8597098442454402E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6373286044632602E-2</c:v>
+                  <c:v>7.5739848240492499E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3580775789319606E-2</c:v>
+                  <c:v>8.2882627710170603E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0467623219468996E-2</c:v>
+                  <c:v>8.9709603188787596E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7183851940515903E-2</c:v>
+                  <c:v>9.6368684020857506E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.103812993754977</c:v>
+                  <c:v>0.102944181281591</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.110289912965475</c:v>
+                  <c:v>0.109369718084752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.116655469818728</c:v>
+                  <c:v>0.11568571744473501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.123009213573406</c:v>
+                  <c:v>0.12199058500377399</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14775462911366199</c:v>
+                  <c:v>0.146601393512786</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.153677288154974</c:v>
+                  <c:v>0.152493129110543</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.15951406012597999</c:v>
+                  <c:v>0.15829989667306699</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16530343082087601</c:v>
+                  <c:v>0.16405974818284499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.171233271765449</c:v>
+                  <c:v>0.16996052448355101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.17708590784177999</c:v>
+                  <c:v>0.17578466120981001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18288184374770899</c:v>
+                  <c:v>0.18156850962858301</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.18906393948995301</c:v>
+                  <c:v>0.18773889027756899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.19533342764481501</c:v>
+                  <c:v>0.193996743224081</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20150913015102601</c:v>
+                  <c:v>0.20016076606489699</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.20779563518446301</c:v>
+                  <c:v>0.20643574619714999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.21401879487325101</c:v>
+                  <c:v>0.21264743279818099</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.22022206467309199</c:v>
+                  <c:v>0.218839271427441</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.22653798946547701</c:v>
+                  <c:v>0.22514379771027601</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.232671964059392</c:v>
+                  <c:v>0.231266459230348</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.23883604813496701</c:v>
+                  <c:v>0.23741926328790999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.24501323555841301</c:v>
+                  <c:v>0.24358518536669099</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.251443876692721</c:v>
+                  <c:v>0.25000460759863202</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.25794150140733402</c:v>
+                  <c:v>0.256491048053611</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.26441206430755398</c:v>
+                  <c:v>0.26295040266801101</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.27072490413596201</c:v>
+                  <c:v>0.26925220556250401</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.27706023484854497</c:v>
+                  <c:v>0.27553434280900202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,10 +2360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:S47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2405,18 +2405,18 @@
       <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="24" t="str">
+      <c r="I2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;L40 &amp; " -&gt; " &amp; TEXT(L41,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 627%</v>
-      </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 620%</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="13">
@@ -2432,7 +2432,7 @@
         <v>22.6</v>
       </c>
       <c r="F3" s="4">
-        <v>9.45037611160435E-2</v>
+        <v>9.4503761116043403E-2</v>
       </c>
       <c r="G3" s="3">
         <v>9.45037611160435E-2</v>
@@ -2523,19 +2523,19 @@
         <v>45299</v>
       </c>
       <c r="C8" s="23">
-        <v>5.1330567521176203E-3</v>
+        <v>5.0365124831757199E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.6991237454304599E-2</v>
+        <v>2.68925936801656E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>28.4353741496598</v>
+        <v>28.3108108108108</v>
       </c>
       <c r="F8" s="4">
-        <v>0.17420399925073901</v>
+        <v>0.17240833067125499</v>
       </c>
       <c r="G8" s="3">
-        <v>1.1868369630934099</v>
+        <v>1.18349271079519</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2543,19 +2543,19 @@
         <v>45300</v>
       </c>
       <c r="C9" s="23">
-        <v>6.3755867374047899E-3</v>
+        <v>6.2883334689290103E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.3538909167249102E-2</v>
+        <v>3.3350036745999699E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>27.536723163841799</v>
+        <v>27.438202247191001</v>
       </c>
       <c r="F9" s="4">
-        <v>0.17431305968270699</v>
+        <v>0.172819419175991</v>
       </c>
       <c r="G9" s="3">
-        <v>1.5680312051574701</v>
+        <v>1.56084265284983</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2563,19 +2563,19 @@
         <v>45301</v>
       </c>
       <c r="C10" s="23">
-        <v>6.80198201547193E-3</v>
+        <v>6.7184350151224302E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>4.0569022239695197E-2</v>
+        <v>4.0292531815752097E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>26.378947368420999</v>
+        <v>26.293193717277401</v>
       </c>
       <c r="F10" s="4">
-        <v>0.16453551441634701</v>
+        <v>0.163194726641848</v>
       </c>
       <c r="G10" s="3">
-        <v>1.9905635405352899</v>
+        <v>1.9787586695544399</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2583,19 +2583,19 @@
         <v>45302</v>
       </c>
       <c r="C11" s="23">
-        <v>7.1478672865651098E-3</v>
+        <v>7.0694857368639097E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.8006871513175398E-2</v>
+        <v>4.7646865031589498E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>26.067632850241498</v>
+        <v>25.990384615384599</v>
       </c>
       <c r="F11" s="4">
-        <v>0.16494593179783201</v>
+        <v>0.163712754479031</v>
       </c>
       <c r="G11" s="3">
-        <v>2.48384483032951</v>
+        <v>2.46641945627549</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2603,19 +2603,19 @@
         <v>45303</v>
       </c>
       <c r="C12" s="23">
-        <v>6.8757762214066596E-3</v>
+        <v>6.8084179387483002E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.5212732240196502E-2</v>
+        <v>5.47796827409439E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>25.6962025316455</v>
+        <v>25.630252100840298</v>
       </c>
       <c r="F12" s="4">
-        <v>0.16047742512403201</v>
+        <v>0.159418465562533</v>
       </c>
       <c r="G12" s="3">
-        <v>3.0429232782324598</v>
+        <v>3.0190307269910401</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2623,41 +2623,40 @@
         <v>45307</v>
       </c>
       <c r="C13" s="23">
-        <v>6.6412697190427004E-3</v>
+        <v>6.5780826599613901E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.2220684605971598E-2</v>
+        <v>6.1718110682061601E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>25.1124497991967</v>
+        <v>25.052</v>
       </c>
       <c r="F13" s="4">
-        <v>0.15397721897681299</v>
+        <v>0.152995090298855</v>
       </c>
       <c r="G13" s="3">
-        <v>3.6654413611513199</v>
-      </c>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
+        <v>3.6339226959809099</v>
+      </c>
+      <c r="S13" s="24"/>
     </row>
     <row r="14" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>45308</v>
       </c>
       <c r="C14" s="23">
-        <v>6.5381078783599703E-3</v>
+        <v>6.4791093711056803E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.9165598032550707E-2</v>
+        <v>6.8597098442454402E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>25.8301886792452</v>
+        <v>25.7706766917293</v>
       </c>
       <c r="F14" s="4">
-        <v>0.156734031727123</v>
+        <v>0.15580061450065699</v>
       </c>
       <c r="G14" s="3">
-        <v>4.3966747954710401</v>
+        <v>4.3558906995632896</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2665,19 +2664,19 @@
         <v>45309</v>
       </c>
       <c r="C15" s="23">
-        <v>6.7414140759347301E-3</v>
+        <v>6.6842309495778298E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.6373286044632602E-2</v>
+        <v>7.5739848240492499E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>26.173285198555899</v>
+        <v>26.115107913669</v>
       </c>
       <c r="F15" s="4">
-        <v>0.170523357708595</v>
+        <v>0.16958062998118001</v>
       </c>
       <c r="G15" s="3">
-        <v>5.3169339020561104</v>
+        <v>5.2641460185055697</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2685,19 +2684,19 @@
         <v>45310</v>
       </c>
       <c r="C16" s="23">
-        <v>6.6960875359258704E-3</v>
+        <v>6.6398762501556196E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.3580775789319606E-2</v>
+        <v>8.2882627710170603E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>26.327402135231299</v>
+        <v>26.269503546099202</v>
       </c>
       <c r="F16" s="4">
-        <v>0.16834051437367101</v>
+        <v>0.16741889924996001</v>
       </c>
       <c r="G16" s="3">
-        <v>6.3803298043927201</v>
+        <v>6.3128824496647997</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2705,19 +2704,19 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.3556382542248897E-3</v>
+        <v>6.30444639513081E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>9.0467623219468996E-2</v>
+        <v>8.9709603188787596E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>25.9437086092715</v>
+        <v>25.891089108910801</v>
       </c>
       <c r="F17" s="4">
-        <v>0.158343027859008</v>
+        <v>0.15751828205580101</v>
       </c>
       <c r="G17" s="3">
-        <v>7.5489535722183501</v>
+        <v>7.4647951300120203</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2725,19 +2724,19 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.1590354248372498E-3</v>
+        <v>6.1108765239689397E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>9.7183851940515903E-2</v>
+        <v>9.6368684020857506E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>26.466876971608801</v>
+        <v>26.415094339622598</v>
       </c>
       <c r="F18" s="4">
-        <v>0.15515142966238499</v>
+        <v>0.154375623435419</v>
       </c>
       <c r="G18" s="3">
-        <v>8.87533594106538</v>
+        <v>8.7715531554607296</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2745,19 +2744,19 @@
         <v>45315</v>
       </c>
       <c r="C19" s="23">
-        <v>6.0419607914730398E-3</v>
+        <v>5.9975237860848702E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.103812993754977</v>
+        <v>0.102944181281591</v>
       </c>
       <c r="E19" s="5">
-        <v>27.263929618768302</v>
+        <v>27.213450292397599</v>
       </c>
       <c r="F19" s="4">
-        <v>0.148811273568904</v>
+        <v>0.14810844835229101</v>
       </c>
       <c r="G19" s="3">
-        <v>10.344897259376101</v>
+        <v>10.2188027313079</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2765,19 +2764,19 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>5.8677685868368896E-3</v>
+        <v>5.82580416326672E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.110289912965475</v>
+        <v>0.109369718084752</v>
       </c>
       <c r="E20" s="5">
-        <v>27.529411764705799</v>
+        <v>27.480446927374299</v>
       </c>
       <c r="F20" s="4">
-        <v>0.14233782855225099</v>
+        <v>0.141684496767153</v>
       </c>
       <c r="G20" s="3">
-        <v>11.959705300424099</v>
+        <v>11.8083331506232</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -2785,19 +2784,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>5.73323848025505E-3</v>
+        <v>5.69332230456728E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.116655469818728</v>
+        <v>0.11568571744473501</v>
       </c>
       <c r="E21" s="5">
-        <v>27.360215053763401</v>
+        <v>27.313672922252</v>
       </c>
       <c r="F21" s="4">
-        <v>0.13846864736130801</v>
+        <v>0.13785196211231501</v>
       </c>
       <c r="G21" s="3">
-        <v>13.754218163575</v>
+        <v>13.5739870068249</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -2805,19 +2804,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.6899768338657198E-3</v>
+        <v>5.6511143420197802E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.123009213573406</v>
+        <v>0.12199058500377399</v>
       </c>
       <c r="E22" s="5">
-        <v>27.419947506561599</v>
+        <v>27.374345549738202</v>
       </c>
       <c r="F22" s="4">
-        <v>0.13664751072209999</v>
+        <v>0.13605012208012399</v>
       </c>
       <c r="G22" s="3">
-        <v>15.770345348278299</v>
+        <v>15.5567797182976</v>
       </c>
     </row>
     <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2825,19 +2824,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.6604193471439497E-3</v>
+        <v>5.6330658409927299E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.12936591665293801</v>
+        <v>0.12831083184207401</v>
       </c>
       <c r="E23" s="5">
-        <v>27.3696682464454</v>
+        <v>27.213270142180001</v>
       </c>
       <c r="F23" s="4">
-        <v>0.135855154152698</v>
+        <v>0.135418658666317</v>
       </c>
       <c r="G23" s="3">
-        <v>18.0486832007626</v>
+        <v>17.798876619583101</v>
       </c>
     </row>
     <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2845,19 +2844,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.6814169043541002E-3</v>
+        <v>5.6567519906878198E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.13578231526301099</v>
+        <v>0.134693406386211</v>
       </c>
       <c r="E24" s="5">
-        <v>27.164529914529901</v>
+        <v>27.023504273504201</v>
       </c>
       <c r="F24" s="4">
-        <v>0.131075678435122</v>
+        <v>0.130682086351249</v>
       </c>
       <c r="G24" s="3">
-        <v>20.545502274598299</v>
+        <v>20.255553037289999</v>
       </c>
     </row>
     <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2865,19 +2864,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.3458277721748397E-3</v>
+        <v>5.3221737156260397E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14185401190708899</v>
+        <v>0.14073244180897401</v>
       </c>
       <c r="E25" s="5">
-        <v>27.540983606557301</v>
+        <v>27.405737704918</v>
       </c>
       <c r="F25" s="4">
-        <v>0.124524574507729</v>
+        <v>0.12414711324696601</v>
       </c>
       <c r="G25" s="3">
-        <v>23.228446777898</v>
+        <v>22.894368587337301</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -2885,19 +2884,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.1675758416066704E-3</v>
+        <v>5.1448976891590899E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.14775462911366199</v>
+        <v>0.146601393512786</v>
       </c>
       <c r="E26" s="5">
-        <v>27.115913555992101</v>
+        <v>26.9862475442043</v>
       </c>
       <c r="F26" s="4">
-        <v>0.120609550596535</v>
+        <v>0.12024766239368199</v>
       </c>
       <c r="G26" s="3">
-        <v>26.150628855432299</v>
+        <v>25.767610554337701</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2905,19 +2904,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.1602135953794197E-3</v>
+        <v>5.1384340112363702E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.153677288154974</v>
+        <v>0.152493129110543</v>
       </c>
       <c r="E27" s="5">
-        <v>26.907547169811298</v>
+        <v>26.7830188679245</v>
       </c>
       <c r="F27" s="4">
-        <v>0.12374857396741799</v>
+        <v>0.123401024731093</v>
       </c>
       <c r="G27" s="3">
-        <v>29.510480458610701</v>
+        <v>29.070761126345801</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2925,19 +2924,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.0592761346121397E-3</v>
+        <v>5.03844007035977E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.15951406012597999</v>
+        <v>0.15829989667306699</v>
       </c>
       <c r="E28" s="5">
-        <v>26.653429602888</v>
+        <v>26.534296028880799</v>
       </c>
       <c r="F28" s="4">
-        <v>0.120336434454841</v>
+        <v>0.12000394150312101</v>
       </c>
       <c r="G28" s="3">
-        <v>33.182002890504101</v>
+        <v>32.679370985506097</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -2945,19 +2944,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>4.9929284119822901E-3</v>
+        <v>4.9726772197089299E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.16530343082087601</v>
+        <v>0.16405974818284499</v>
       </c>
       <c r="E29" s="5">
-        <v>26.463157894736799</v>
+        <v>26.3473684210526</v>
       </c>
       <c r="F29" s="4">
-        <v>0.11956809800788901</v>
+        <v>0.119244938191657</v>
       </c>
       <c r="G29" s="3">
-        <v>37.269079962221802</v>
+        <v>36.695465497006701</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -2965,19 +2964,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.0886668551168596E-3</v>
+        <v>5.0691352483557498E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.171233271765449</v>
+        <v>0.16996052448355101</v>
       </c>
       <c r="E30" s="5">
-        <v>26.052453468697099</v>
+        <v>25.9407783417935</v>
       </c>
       <c r="F30" s="4">
-        <v>0.11590916604588999</v>
+        <v>0.115597489065767</v>
       </c>
       <c r="G30" s="3">
-        <v>41.7048171059865</v>
+        <v>41.052966657626001</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -2985,19 +2984,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>4.9969858416926997E-3</v>
+        <v>4.9780625964536496E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.17708590784177999</v>
+        <v>0.17578466120981001</v>
       </c>
       <c r="E31" s="5">
-        <v>26.108196721311401</v>
+        <v>26</v>
       </c>
       <c r="F31" s="4">
-        <v>0.113678369493598</v>
+        <v>0.113376400484987</v>
       </c>
       <c r="G31" s="3">
-        <v>46.5594310841173</v>
+        <v>45.820780646982797</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3005,19 +3004,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>4.9239701769568101E-3</v>
+        <v>4.9191392008990304E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.18288184374770899</v>
+        <v>0.18156850962858301</v>
       </c>
       <c r="E32" s="5">
-        <v>25.993680884676099</v>
+        <v>25.859177215189799</v>
       </c>
       <c r="F32" s="4">
-        <v>0.11067765362107999</v>
+        <v>0.11081522960705099</v>
       </c>
       <c r="G32" s="3">
-        <v>51.823197324060899</v>
+        <v>51.009236204759603</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
@@ -3025,19 +3024,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.22630030625646E-3</v>
+        <v>5.2221945648546503E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.18906393948995301</v>
+        <v>0.18773889027756899</v>
       </c>
       <c r="E33" s="5">
-        <v>25.616989567809199</v>
+        <v>25.489552238805899</v>
       </c>
       <c r="F33" s="4">
-        <v>0.105651997214945</v>
+        <v>0.105774269404092</v>
       </c>
       <c r="G33" s="3">
-        <v>57.404073620627102</v>
+        <v>56.510475166582999</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
@@ -3045,19 +3044,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.2726249166649298E-3</v>
+        <v>5.2687109917317898E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.19533342764481501</v>
+        <v>0.193996743224081</v>
       </c>
       <c r="E34" s="5">
-        <v>25.358381502890101</v>
+        <v>25.234442836468801</v>
       </c>
       <c r="F34" s="4">
-        <v>0.10335954190207799</v>
+        <v>0.103474780558251</v>
       </c>
       <c r="G34" s="3">
-        <v>63.440691915270499</v>
+        <v>62.461358964245903</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
@@ -3065,19 +3064,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.1665103337560202E-3</v>
+        <v>5.1625122729996699E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.20150913015102601</v>
+        <v>0.20016076606489699</v>
       </c>
       <c r="E35" s="5">
-        <v>25.295454545454501</v>
+        <v>25.173541963015602</v>
       </c>
       <c r="F35" s="4">
-        <v>0.101431592199929</v>
+        <v>0.101542121306207</v>
       </c>
       <c r="G35" s="3">
-        <v>69.9770138987015</v>
+        <v>68.905359974450107</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
@@ -3085,23 +3084,23 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.2321741680368501E-3</v>
+        <v>5.2284496458150902E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.20779563518446301</v>
+        <v>0.20643574619714999</v>
       </c>
       <c r="E36" s="5">
-        <v>25.634146341463399</v>
+        <v>25.518317503392101</v>
       </c>
       <c r="F36" s="4">
-        <v>0.101512968445783</v>
+        <v>0.101618508931481</v>
       </c>
       <c r="G36" s="3">
-        <v>77.182101270976304</v>
+        <v>76.009038421372196</v>
       </c>
       <c r="J36" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>5.4497788247750015E-3</v>
+        <v>5.4230501899583108E-3</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
@@ -3109,26 +3108,26 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.15249393813002E-3</v>
+        <v>5.1487919026027102E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.21401879487325101</v>
+        <v>0.21264743279818099</v>
       </c>
       <c r="E37" s="5">
-        <v>25.439790575916199</v>
+        <v>25.3276539973787</v>
       </c>
       <c r="F37" s="4">
-        <v>9.9037346822171204E-2</v>
+        <v>9.9136046319333995E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>84.925049149836198</v>
+        <v>83.643410021320705</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>0.1260489941881851</v>
+        <v>0.12566642386502863</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
@@ -3136,26 +3135,26 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.1096983226600803E-3</v>
+        <v>5.10605016906872E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.22022206467309199</v>
+        <v>0.218839271427441</v>
       </c>
       <c r="E38" s="5">
-        <v>25.0940279542566</v>
+        <v>24.9847328244274</v>
       </c>
       <c r="F38" s="4">
-        <v>9.68900898448352E-2</v>
+        <v>9.6983169309667203E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>93.250334881885706</v>
+        <v>91.852396186366093</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="J38" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>25.997068198835915</v>
+        <v>25.913151146221328</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
@@ -3163,19 +3162,19 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.1760453898012102E-3</v>
+        <v>5.1725657604152903E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.22653798946547701</v>
+        <v>0.22514379771027601</v>
       </c>
       <c r="E39" s="5">
-        <v>25.054590570719601</v>
+        <v>24.9478260869565</v>
       </c>
       <c r="F39" s="4">
-        <v>9.5548642518881594E-2</v>
+        <v>9.5637858682896398E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>102.255826436799</v>
+        <v>100.732600531206</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>0</v>
@@ -3186,19 +3185,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.0010473761092104E-3</v>
+        <v>4.9975044003123499E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.232671964059392</v>
+        <v>0.231266459230348</v>
       </c>
       <c r="E40" s="5">
-        <v>25.2877526753864</v>
+        <v>25.185714285714202</v>
       </c>
       <c r="F40" s="4">
-        <v>9.3123230983062799E-2</v>
+        <v>9.3205842412224904E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>111.871342612421</v>
+        <v>110.21467326450301</v>
       </c>
       <c r="J40" s="14">
         <v>250</v>
@@ -3212,27 +3211,27 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.0005875490798501E-3</v>
+        <v>4.9971344638172098E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.23883604813496701</v>
+        <v>0.23741926328790999</v>
       </c>
       <c r="E41" s="5">
-        <v>25.249130938586301</v>
+        <v>25.149651972157699</v>
       </c>
       <c r="F41" s="4">
-        <v>9.2735984242977604E-2</v>
+        <v>9.2816038017636604E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>122.33857766241</v>
+        <v>120.53717860634001</v>
       </c>
       <c r="J41" s="21">
         <f>POWER(1+J36,J40)-1</f>
-        <v>2.8913090914792923</v>
+        <v>2.8655330906429977</v>
       </c>
       <c r="L41" s="21">
         <f>POWER(1+J36,L40)-1</f>
-        <v>6.2700896098771972</v>
+        <v>6.1998876113422563</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
@@ -3240,30 +3239,30 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>4.9862832396145801E-3</v>
+        <v>4.9828883885296204E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.24501323555841301</v>
+        <v>0.24358518536669099</v>
       </c>
       <c r="E42" s="5">
-        <v>25.2641723356009</v>
+        <v>25.1668558456299</v>
       </c>
       <c r="F42" s="4">
-        <v>9.3908472527284695E-2</v>
+        <v>9.3988130690781199E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>133.92111509437501</v>
+        <v>131.96023083298201</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J42" s="20">
         <f>POWER(1+J36*M42,J40)-1</f>
-        <v>28.462468356092632</v>
+        <v>27.980865350897488</v>
       </c>
       <c r="L42" s="20">
         <f>POWER(1+J36*M42,L40)-1</f>
-        <v>138.67958256305491</v>
+        <v>135.35861131007695</v>
       </c>
       <c r="M42">
         <v>2.5</v>
@@ -3274,19 +3273,19 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.1651186916285997E-3</v>
+        <v>5.1620285505804197E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.251443876692721</v>
+        <v>0.25000460759863202</v>
       </c>
       <c r="E43" s="5">
-        <v>24.855104281009801</v>
+        <v>24.760439560439501</v>
       </c>
       <c r="F43" s="4">
-        <v>9.1352318402469199E-2</v>
+        <v>9.1426629048530203E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>146.24647175969201</v>
+        <v>144.116336535556</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>4</v>
@@ -3297,19 +3296,19 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.1921023672151E-3</v>
+        <v>5.1891332364280398E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.25794150140733402</v>
+        <v>0.256491048053611</v>
       </c>
       <c r="E44" s="5">
-        <v>24.7326943556975</v>
+        <v>24.640724946694998</v>
       </c>
       <c r="F44" s="4">
-        <v>8.9241191461589695E-2</v>
+        <v>8.9311033211029706E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>159.38692233804201</v>
+        <v>157.07682648734601</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3317,19 +3316,19 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.1437709090458002E-3</v>
+        <v>5.1407884078495704E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.26441206430755398</v>
+        <v>0.26295040266801101</v>
       </c>
       <c r="E45" s="5">
-        <v>24.751840168243898</v>
+        <v>24.661052631578901</v>
       </c>
       <c r="F45" s="4">
-        <v>8.7030333620587097E-2</v>
+        <v>8.7096965939675197E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>173.34544969750101</v>
+        <v>170.84483845976601</v>
       </c>
       <c r="I45" s="22" t="s">
         <v>6</v>
@@ -3340,19 +3339,19 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>4.9927076833655003E-3</v>
+        <v>4.9897469300300796E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.27072490413596201</v>
+        <v>0.26925220556250401</v>
       </c>
       <c r="E46" s="5">
-        <v>24.399405351833401</v>
+        <v>24.313492063491999</v>
       </c>
       <c r="F46" s="4">
-        <v>8.5371843971212794E-2</v>
+        <v>8.5432996960780605E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>188.22964222616801</v>
+        <v>185.526058021625</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>7</v>
@@ -3363,19 +3362,19 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>4.9856036440004301E-3</v>
+        <v>4.9494790861628699E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.27706023484854497</v>
+        <v>0.27553434280900202</v>
       </c>
       <c r="E47" s="5">
-        <v>24.580078125</v>
+        <v>24.543520309477699</v>
       </c>
       <c r="F47" s="4">
-        <v>8.7711371487355694E-2</v>
+        <v>8.7168484770848001E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>204.82723367188601</v>
+        <v>201.78525186965001</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>8</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBB9A88-09A8-4AD4-B193-847C619CCE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ED6D13-AE33-416C-97E1-FA9094160ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$48</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1064,16 +1064,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45356</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$48</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>3.5445015465715899E-3</c:v>
                 </c:pt>
@@ -1199,6 +1202,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.27553434280900202</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.28188475978560101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,13 +2020,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>285517</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>100219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>248811</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57702</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2049,8 +2055,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G47" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G47" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G48" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2361,10 +2367,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S47"/>
+  <dimension ref="B2:S48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2406,8 +2412,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L40 &amp; " -&gt; " &amp; TEXT(L41,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 620%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L41 &amp; " -&gt; " &amp; TEXT(L42,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 617%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2432,7 +2438,7 @@
         <v>22.6</v>
       </c>
       <c r="F3" s="4">
-        <v>9.4503761116043403E-2</v>
+        <v>9.45037611160435E-2</v>
       </c>
       <c r="G3" s="3">
         <v>9.45037611160435E-2</v>
@@ -2615,7 +2621,7 @@
         <v>0.159418465562533</v>
       </c>
       <c r="G12" s="3">
-        <v>3.0190307269910401</v>
+        <v>3.0190307269910499</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2724,7 +2730,7 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.1108765239689397E-3</v>
+        <v>6.1108765239689502E-3</v>
       </c>
       <c r="D18" s="2">
         <v>9.6368684020857506E-2</v>
@@ -2776,7 +2782,7 @@
         <v>0.141684496767153</v>
       </c>
       <c r="G20" s="3">
-        <v>11.8083331506232</v>
+        <v>11.8083331506233</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -2824,7 +2830,7 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.6330658409927299E-3</v>
+        <v>5.6330658409927204E-3</v>
       </c>
       <c r="D23" s="2">
         <v>0.12831083184207401</v>
@@ -2853,7 +2859,7 @@
         <v>27.023504273504201</v>
       </c>
       <c r="F24" s="4">
-        <v>0.130682086351249</v>
+        <v>0.13068208635125</v>
       </c>
       <c r="G24" s="3">
         <v>20.255553037289999</v>
@@ -2936,7 +2942,7 @@
         <v>0.12000394150312101</v>
       </c>
       <c r="G28" s="3">
-        <v>32.679370985506097</v>
+        <v>32.679370985506203</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -2996,7 +3002,7 @@
         <v>0.113376400484987</v>
       </c>
       <c r="G31" s="3">
-        <v>45.820780646982797</v>
+        <v>45.820780646982897</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3016,7 +3022,7 @@
         <v>0.11081522960705099</v>
       </c>
       <c r="G32" s="3">
-        <v>51.009236204759603</v>
+        <v>51.009236204759702</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
@@ -3076,7 +3082,7 @@
         <v>0.101542121306207</v>
       </c>
       <c r="G35" s="3">
-        <v>68.905359974450107</v>
+        <v>68.905359974450207</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
@@ -3096,11 +3102,7 @@
         <v>0.101618508931481</v>
       </c>
       <c r="G36" s="3">
-        <v>76.009038421372196</v>
-      </c>
-      <c r="J36" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.4230501899583108E-3</v>
+        <v>76.009038421372296</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
@@ -3120,14 +3122,11 @@
         <v>9.9136046319333995E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>83.643410021320705</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.12566642386502863</v>
+        <v>83.643410021320804</v>
+      </c>
+      <c r="J37" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.4133889399638644E-3</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
@@ -3149,12 +3148,12 @@
       <c r="G38" s="3">
         <v>91.852396186366093</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.913151146221328</v>
+      <c r="I38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.1248284846700588</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
@@ -3171,13 +3170,17 @@
         <v>24.9478260869565</v>
       </c>
       <c r="F39" s="4">
-        <v>9.5637858682896398E-2</v>
+        <v>9.5637858682896495E-2</v>
       </c>
       <c r="G39" s="3">
         <v>100.732600531206</v>
       </c>
-      <c r="I39" s="18" t="s">
-        <v>0</v>
+      <c r="I39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.880871814494615</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
@@ -3199,11 +3202,8 @@
       <c r="G40" s="3">
         <v>110.21467326450301</v>
       </c>
-      <c r="J40" s="14">
-        <v>250</v>
-      </c>
-      <c r="L40" s="14">
-        <v>365</v>
+      <c r="I40" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
@@ -3225,13 +3225,11 @@
       <c r="G41" s="3">
         <v>120.53717860634001</v>
       </c>
-      <c r="J41" s="21">
-        <f>POWER(1+J36,J40)-1</f>
-        <v>2.8655330906429977</v>
-      </c>
-      <c r="L41" s="21">
-        <f>POWER(1+J36,L40)-1</f>
-        <v>6.1998876113422563</v>
+      <c r="J41" s="14">
+        <v>250</v>
+      </c>
+      <c r="L41" s="14">
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
@@ -3253,19 +3251,13 @@
       <c r="G42" s="3">
         <v>131.96023083298201</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="20">
-        <f>POWER(1+J36*M42,J40)-1</f>
-        <v>27.980865350897488</v>
-      </c>
-      <c r="L42" s="20">
-        <f>POWER(1+J36*M42,L40)-1</f>
-        <v>135.35861131007695</v>
-      </c>
-      <c r="M42">
-        <v>2.5</v>
+      <c r="J42" s="21">
+        <f>POWER(1+J37,J41)-1</f>
+        <v>2.8562580798098547</v>
+      </c>
+      <c r="L42" s="21">
+        <f>POWER(1+J37,L41)-1</f>
+        <v>6.1746792995724498</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
@@ -3287,8 +3279,19 @@
       <c r="G43" s="3">
         <v>144.116336535556</v>
       </c>
-      <c r="I43" s="18" t="s">
-        <v>4</v>
+      <c r="I43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="20">
+        <f>POWER(1+J37*M43,J41)-1</f>
+        <v>27.80872274008583</v>
+      </c>
+      <c r="L43" s="20">
+        <f>POWER(1+J37*M43,L41)-1</f>
+        <v>134.17769777805518</v>
+      </c>
+      <c r="M43">
+        <v>2.5</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
@@ -3310,8 +3313,11 @@
       <c r="G44" s="3">
         <v>157.07682648734601</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="I44" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="13">
         <v>45352</v>
       </c>
@@ -3329,9 +3335,6 @@
       </c>
       <c r="G45" s="3">
         <v>170.84483845976601</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3354,10 +3357,10 @@
         <v>185.526058021625</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B47" s="13">
         <v>45356</v>
       </c>
@@ -3377,6 +3380,29 @@
         <v>201.78525186965001</v>
       </c>
       <c r="I47" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B48" s="13">
+        <v>45357</v>
+      </c>
+      <c r="C48" s="23">
+        <v>4.9786326902137804E-3</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.28188475978560101</v>
+      </c>
+      <c r="E48" s="5">
+        <v>24.428301886792401</v>
+      </c>
+      <c r="F48" s="4">
+        <v>8.7121220896416704E-2</v>
+      </c>
+      <c r="G48" s="3">
+        <v>219.452150592321</v>
+      </c>
+      <c r="I48" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ED6D13-AE33-416C-97E1-FA9094160ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90C470-D5F2-4CDD-8AE4-862BA5AC371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,100 +1111,100 @@
                   <c:v>6.1718110682061601E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8597098442454402E-2</c:v>
+                  <c:v>6.8622055409892996E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5739848240492499E-2</c:v>
+                  <c:v>7.5789794406891403E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2882627710170603E-2</c:v>
+                  <c:v>8.2957368866319395E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9709603188787596E-2</c:v>
+                  <c:v>8.9806526626811906E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6368684020857506E-2</c:v>
+                  <c:v>9.6486348833220797E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.102944181281591</c:v>
+                  <c:v>0.103081032120398</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.109369718084752</c:v>
+                  <c:v>0.109524593844836</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11568571744473501</c:v>
+                  <c:v>0.115857709390734</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12199058500377399</c:v>
+                  <c:v>0.122179366693205</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.146601393512786</c:v>
+                  <c:v>0.14690729100848099</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.152493129110543</c:v>
+                  <c:v>0.152829879452207</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.15829989667306699</c:v>
+                  <c:v>0.15866607860079501</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16405974818284499</c:v>
+                  <c:v>0.164454572792988</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16996052448355101</c:v>
+                  <c:v>0.17038372661165599</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.17578466120981001</c:v>
+                  <c:v>0.17623530138983301</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.18156850962858301</c:v>
+                  <c:v>0.182045715511477</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.18773889027756899</c:v>
+                  <c:v>0.18824273801254801</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.193996743224081</c:v>
+                  <c:v>0.19452694250987801</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20016076606489699</c:v>
+                  <c:v>0.20071675502755201</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.20643574619714999</c:v>
+                  <c:v>0.207016957624055</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.21264743279818099</c:v>
+                  <c:v>0.213253050244336</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.218839271427441</c:v>
+                  <c:v>0.21946874156831001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.22514379771027601</c:v>
+                  <c:v>0.22579709886030899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.231266459230348</c:v>
+                  <c:v>0.23194233111621099</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.23741926328790999</c:v>
+                  <c:v>0.238117417835497</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.24358518536669099</c:v>
+                  <c:v>0.24430536791495699</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.25000460759863202</c:v>
+                  <c:v>0.25074985584853199</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.256491048053611</c:v>
+                  <c:v>0.25726527437408597</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.26295040266801101</c:v>
+                  <c:v>0.26375327361010698</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26925220556250401</c:v>
+                  <c:v>0.27008631385767201</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.27553434280900202</c:v>
+                  <c:v>0.27639900718199201</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.28188475978560101</c:v>
+                  <c:v>0.28277525468728398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,7 +2370,7 @@
   <dimension ref="B2:S48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="I2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;L41 &amp; " -&gt; " &amp; TEXT(L42,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 617%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 621%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2650,19 +2650,19 @@
         <v>45308</v>
       </c>
       <c r="C14" s="23">
-        <v>6.4791093711056803E-3</v>
+        <v>6.5026155797569098E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.8597098442454402E-2</v>
+        <v>6.8622055409892996E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>25.7706766917293</v>
+        <v>25.735849056603701</v>
       </c>
       <c r="F14" s="4">
-        <v>0.15580061450065699</v>
+        <v>0.15635552722425</v>
       </c>
       <c r="G14" s="3">
-        <v>4.3558906995632896</v>
+        <v>4.3584621222274302</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2670,19 +2670,19 @@
         <v>45309</v>
       </c>
       <c r="C15" s="23">
-        <v>6.6842309495778298E-3</v>
+        <v>6.7074593498343297E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.5739848240492499E-2</v>
+        <v>7.5789794406891403E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>26.115107913669</v>
+        <v>26.083032490974698</v>
       </c>
       <c r="F15" s="4">
-        <v>0.16958062998118001</v>
+        <v>0.170161250512706</v>
       </c>
       <c r="G15" s="3">
-        <v>5.2641460185055697</v>
+        <v>5.2702647377706198</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2690,19 +2690,19 @@
         <v>45310</v>
       </c>
       <c r="C16" s="23">
-        <v>6.6398762501556196E-3</v>
+        <v>6.6626161511222698E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.2882627710170603E-2</v>
+        <v>8.2957368866319395E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>26.269503546099202</v>
+        <v>26.238434163701001</v>
       </c>
       <c r="F16" s="4">
-        <v>0.16741889924996001</v>
+        <v>0.16798356172861301</v>
       </c>
       <c r="G16" s="3">
-        <v>6.3128824496647997</v>
+        <v>6.3235661414026598</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2710,19 +2710,19 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.30444639513081E-3</v>
+        <v>6.3244943498215501E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>8.9709603188787596E-2</v>
+        <v>8.9806526626811906E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>25.891089108910801</v>
+        <v>25.860927152317799</v>
       </c>
       <c r="F17" s="4">
-        <v>0.15751828205580101</v>
+        <v>0.158010896424368</v>
       </c>
       <c r="G17" s="3">
-        <v>7.4647951300120203</v>
+        <v>7.4807693924288499</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2730,19 +2730,19 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.1108765239689502E-3</v>
+        <v>6.1293652067621303E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>9.6368684020857506E-2</v>
+        <v>9.6486348833220797E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>26.415094339622598</v>
+        <v>26.3880126182965</v>
       </c>
       <c r="F18" s="4">
-        <v>0.154375623435419</v>
+        <v>0.154835014226229</v>
       </c>
       <c r="G18" s="3">
-        <v>8.7715531554607296</v>
+        <v>8.7938894419549491</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2750,19 +2750,19 @@
         <v>45315</v>
       </c>
       <c r="C19" s="23">
-        <v>5.9975237860848702E-3</v>
+        <v>6.01437792107076E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.102944181281591</v>
+        <v>0.103081032120398</v>
       </c>
       <c r="E19" s="5">
-        <v>27.213450292397599</v>
+        <v>27.190615835777098</v>
       </c>
       <c r="F19" s="4">
-        <v>0.14810844835229101</v>
+        <v>0.148517103233926</v>
       </c>
       <c r="G19" s="3">
-        <v>10.2188027313079</v>
+        <v>10.248449531267401</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2770,19 +2770,19 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>5.82580416326672E-3</v>
+        <v>5.8414219235114603E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.109369718084752</v>
+        <v>0.109524593844836</v>
       </c>
       <c r="E20" s="5">
-        <v>27.480446927374299</v>
+        <v>27.459383753501399</v>
       </c>
       <c r="F20" s="4">
-        <v>0.141684496767153</v>
+        <v>0.14205684232192201</v>
       </c>
       <c r="G20" s="3">
-        <v>11.8083331506233</v>
+        <v>11.846368752696799</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -2790,19 +2790,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>5.69332230456728E-3</v>
+        <v>5.7079541823862904E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.11568571744473501</v>
+        <v>0.115857709390734</v>
       </c>
       <c r="E21" s="5">
-        <v>27.313672922252</v>
+        <v>27.293010752688101</v>
       </c>
       <c r="F21" s="4">
-        <v>0.13785196211231501</v>
+        <v>0.138198991220911</v>
       </c>
       <c r="G21" s="3">
-        <v>13.5739870068249</v>
+        <v>13.6217239551713</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -2810,19 +2810,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.6511143420197802E-3</v>
+        <v>5.6652898028757498E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.12199058500377399</v>
+        <v>0.122179366693205</v>
       </c>
       <c r="E22" s="5">
-        <v>27.374345549738202</v>
+        <v>27.354330708661401</v>
       </c>
       <c r="F22" s="4">
-        <v>0.13605012208012399</v>
+        <v>0.13638422441179099</v>
       </c>
       <c r="G22" s="3">
-        <v>15.5567797182976</v>
+        <v>15.6158964363606</v>
       </c>
     </row>
     <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2830,19 +2830,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.6330658409927204E-3</v>
+        <v>5.6458515941639796E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.12831083184207401</v>
+        <v>0.12851502485958799</v>
       </c>
       <c r="E23" s="5">
-        <v>27.213270142180001</v>
+        <v>27.194774346793299</v>
       </c>
       <c r="F23" s="4">
-        <v>0.135418658666317</v>
+        <v>0.13571951739541799</v>
       </c>
       <c r="G23" s="3">
-        <v>17.798876619583101</v>
+        <v>17.870997881795802</v>
       </c>
     </row>
     <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2850,19 +2850,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.6567519906878198E-3</v>
+        <v>5.6879038507654496E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.134693406386211</v>
+        <v>0.13493390981513301</v>
       </c>
       <c r="E24" s="5">
-        <v>27.023504273504201</v>
+        <v>26.989270386266</v>
       </c>
       <c r="F24" s="4">
-        <v>0.13068208635125</v>
+        <v>0.13148355626553801</v>
       </c>
       <c r="G24" s="3">
-        <v>20.255553037289999</v>
+        <v>20.3522237935737</v>
       </c>
     </row>
     <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2870,19 +2870,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.3221737156260397E-3</v>
+        <v>5.3506667408236702E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14073244180897401</v>
+        <v>0.14100656293941399</v>
       </c>
       <c r="E25" s="5">
-        <v>27.405737704918</v>
+        <v>27.3744855967078</v>
       </c>
       <c r="F25" s="4">
-        <v>0.12414711324696601</v>
+        <v>0.124888707966822</v>
       </c>
       <c r="G25" s="3">
-        <v>22.894368587337301</v>
+        <v>23.018875435371601</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -2890,19 +2890,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.1448976891590899E-3</v>
+        <v>5.1715110681451199E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.146601393512786</v>
+        <v>0.14690729100848099</v>
       </c>
       <c r="E26" s="5">
-        <v>26.9862475442043</v>
+        <v>26.954635108481199</v>
       </c>
       <c r="F26" s="4">
-        <v>0.12024766239368199</v>
+        <v>0.120943157575331</v>
       </c>
       <c r="G26" s="3">
-        <v>25.767610554337701</v>
+        <v>25.923794071934001</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2910,19 +2910,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.1384340112363702E-3</v>
+        <v>5.1639644199296796E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.152493129110543</v>
+        <v>0.152829879452207</v>
       </c>
       <c r="E27" s="5">
-        <v>26.7830188679245</v>
+        <v>26.751893939393899</v>
       </c>
       <c r="F27" s="4">
-        <v>0.123401024731093</v>
+        <v>0.124080802726871</v>
       </c>
       <c r="G27" s="3">
-        <v>29.070761126345801</v>
+        <v>29.264520052832601</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2930,19 +2930,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.03844007035977E-3</v>
+        <v>5.0624981643965696E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.15829989667306699</v>
+        <v>0.15866607860079501</v>
       </c>
       <c r="E28" s="5">
-        <v>26.534296028880799</v>
+        <v>26.503623188405701</v>
       </c>
       <c r="F28" s="4">
-        <v>0.12000394150312101</v>
+        <v>0.12064185566129999</v>
       </c>
       <c r="G28" s="3">
-        <v>32.679370985506203</v>
+        <v>32.915687912704897</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -2950,19 +2950,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>4.9726772197089299E-3</v>
+        <v>4.9958260616226801E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.16405974818284499</v>
+        <v>0.164454572792988</v>
       </c>
       <c r="E29" s="5">
-        <v>26.3473684210526</v>
+        <v>26.3169014084507</v>
       </c>
       <c r="F29" s="4">
-        <v>0.119244938191657</v>
+        <v>0.119862210390058</v>
       </c>
       <c r="G29" s="3">
-        <v>36.695465497006701</v>
+        <v>36.9808972328211</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -2970,19 +2970,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.0691352483557498E-3</v>
+        <v>5.09178628106255E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.16996052448355101</v>
+        <v>0.17038372661165599</v>
       </c>
       <c r="E30" s="5">
-        <v>25.9407783417935</v>
+        <v>25.910016977928599</v>
       </c>
       <c r="F30" s="4">
-        <v>0.115597489065767</v>
+        <v>0.116180368030861</v>
       </c>
       <c r="G30" s="3">
-        <v>41.052966657626001</v>
+        <v>41.393531851472602</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -2990,19 +2990,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>4.9780625964536496E-3</v>
+        <v>4.9997062032965901E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.17578466120981001</v>
+        <v>0.17623530138983301</v>
       </c>
       <c r="E31" s="5">
-        <v>26</v>
+        <v>25.970394736842099</v>
       </c>
       <c r="F31" s="4">
-        <v>0.113376400484987</v>
+        <v>0.113933758269985</v>
       </c>
       <c r="G31" s="3">
-        <v>45.820780646982897</v>
+        <v>46.223586261649302</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3010,19 +3010,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>4.9191392008990304E-3</v>
+        <v>4.9398399408504502E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.18156850962858301</v>
+        <v>0.182045715511477</v>
       </c>
       <c r="E32" s="5">
-        <v>25.859177215189799</v>
+        <v>25.830158730158701</v>
       </c>
       <c r="F32" s="4">
-        <v>0.11081522960705099</v>
+        <v>0.111344993403119</v>
       </c>
       <c r="G32" s="3">
-        <v>51.009236204759702</v>
+        <v>51.4816961624242</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
@@ -3030,19 +3030,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.2221945648546503E-3</v>
+        <v>5.2426250691919299E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.18773889027756899</v>
+        <v>0.18824273801254801</v>
       </c>
       <c r="E33" s="5">
-        <v>25.489552238805899</v>
+        <v>25.461077844311301</v>
       </c>
       <c r="F33" s="4">
-        <v>0.105774269404092</v>
+        <v>0.10625880424109301</v>
       </c>
       <c r="G33" s="3">
-        <v>56.510475166582999</v>
+        <v>57.0583384411878</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
@@ -3050,19 +3050,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.2687109917317898E-3</v>
+        <v>5.28865382155916E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.193996743224081</v>
+        <v>0.19452694250987801</v>
       </c>
       <c r="E34" s="5">
-        <v>25.234442836468801</v>
+        <v>25.206095791001399</v>
       </c>
       <c r="F34" s="4">
-        <v>0.103474780558251</v>
+        <v>0.103937872420987</v>
       </c>
       <c r="G34" s="3">
-        <v>62.461358964245903</v>
+        <v>63.092798615062499</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
@@ -3070,19 +3070,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.1625122729996699E-3</v>
+        <v>5.18181072137855E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.20016076606489699</v>
+        <v>0.20071675502755201</v>
       </c>
       <c r="E35" s="5">
-        <v>25.173541963015602</v>
+        <v>25.1455064194008</v>
       </c>
       <c r="F35" s="4">
-        <v>0.101542121306207</v>
+        <v>0.10199177176971801</v>
       </c>
       <c r="G35" s="3">
-        <v>68.905359974450207</v>
+        <v>69.629736703492497</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
@@ -3090,19 +3090,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.2284496458150902E-3</v>
+        <v>5.2470347982766204E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.20643574619714999</v>
+        <v>0.207016957624055</v>
       </c>
       <c r="E36" s="5">
-        <v>25.518317503392101</v>
+        <v>25.4925170068027</v>
       </c>
       <c r="F36" s="4">
-        <v>0.101618508931481</v>
+        <v>0.102047567094979</v>
       </c>
       <c r="G36" s="3">
-        <v>76.009038421372296</v>
+        <v>76.837329498642902</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
@@ -3110,23 +3110,23 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.1487919026027102E-3</v>
+        <v>5.1665327325275401E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.21264743279818099</v>
+        <v>0.213253050244336</v>
       </c>
       <c r="E37" s="5">
-        <v>25.3276539973787</v>
+        <v>25.3022339027595</v>
       </c>
       <c r="F37" s="4">
-        <v>9.9136046319333995E-2</v>
+        <v>9.9543921253561804E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>83.643410021320804</v>
+        <v>84.585562496843394</v>
       </c>
       <c r="J37" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>5.4133889399638644E-3</v>
+        <v>5.4285671260393695E-3</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
@@ -3134,26 +3134,26 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.10605016906872E-3</v>
+        <v>5.1231615059382802E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.218839271427441</v>
+        <v>0.21946874156831001</v>
       </c>
       <c r="E38" s="5">
-        <v>24.9847328244274</v>
+        <v>24.959183673469301</v>
       </c>
       <c r="F38" s="4">
-        <v>9.6983169309667203E-2</v>
+        <v>9.7373586491973294E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>91.852396186366093</v>
+        <v>92.919335669093897</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J38" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>0.1248284846700588</v>
+        <v>0.12519237944178357</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
@@ -3161,26 +3161,26 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.1725657604152903E-3</v>
+        <v>5.1894378890434602E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.22514379771027601</v>
+        <v>0.22579709886030899</v>
       </c>
       <c r="E39" s="5">
-        <v>24.9478260869565</v>
+        <v>24.9227895392278</v>
       </c>
       <c r="F39" s="4">
-        <v>9.5637858682896495E-2</v>
+        <v>9.6015687387347795E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>100.732600531206</v>
+        <v>101.937065242325</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>2</v>
       </c>
       <c r="J39" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>25.880871814494615</v>
+        <v>25.863627391634203</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
@@ -3188,19 +3188,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>4.9975044003123499E-3</v>
+        <v>5.0132540382219204E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.231266459230348</v>
+        <v>0.23194233111621099</v>
       </c>
       <c r="E40" s="5">
-        <v>25.185714285714202</v>
+        <v>25.162291169450999</v>
       </c>
       <c r="F40" s="4">
-        <v>9.3205842412224904E-2</v>
+        <v>9.3562086346751297E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>110.21467326450301</v>
+        <v>111.568071828808</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>0</v>
@@ -3211,19 +3211,19 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>4.9971344638172098E-3</v>
+        <v>5.0124803436953896E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.23741926328790999</v>
+        <v>0.238117417835497</v>
       </c>
       <c r="E41" s="5">
-        <v>25.149651972157699</v>
+        <v>25.126744186046501</v>
       </c>
       <c r="F41" s="4">
-        <v>9.2816038017636604E-2</v>
+        <v>9.3162262213385305E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>120.53717860634001</v>
+        <v>122.05516805337901</v>
       </c>
       <c r="J41" s="14">
         <v>250</v>
@@ -3237,27 +3237,27 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>4.9828883885296204E-3</v>
+        <v>4.99787014569077E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.24358518536669099</v>
+        <v>0.24430536791495699</v>
       </c>
       <c r="E42" s="5">
-        <v>25.1668558456299</v>
+        <v>25.144482366325299</v>
       </c>
       <c r="F42" s="4">
-        <v>9.3988130690781199E-2</v>
+        <v>9.4329537964603999E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>131.96023083298201</v>
+        <v>133.66290520001101</v>
       </c>
       <c r="J42" s="21">
         <f>POWER(1+J37,J41)-1</f>
-        <v>2.8562580798098547</v>
+        <v>2.870839432698487</v>
       </c>
       <c r="L42" s="21">
         <f>POWER(1+J37,L41)-1</f>
-        <v>6.1746792995724498</v>
+        <v>6.2143221026444122</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
@@ -3265,30 +3265,30 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.1620285505804197E-3</v>
+        <v>5.1791851901872403E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.25000460759863202</v>
+        <v>0.25074985584853199</v>
       </c>
       <c r="E43" s="5">
-        <v>24.760439560439501</v>
+        <v>24.762954796030801</v>
       </c>
       <c r="F43" s="4">
-        <v>9.1426629048530203E-2</v>
+        <v>9.1845751669106093E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>144.116336535556</v>
+        <v>146.03112095005099</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="20">
         <f>POWER(1+J37*M43,J41)-1</f>
-        <v>27.80872274008583</v>
+        <v>28.079624388609581</v>
       </c>
       <c r="L43" s="20">
         <f>POWER(1+J37*M43,L41)-1</f>
-        <v>134.17769777805518</v>
+        <v>136.03756628512102</v>
       </c>
       <c r="M43">
         <v>2.5</v>
@@ -3299,19 +3299,19 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.1891332364280398E-3</v>
+        <v>5.2092098952382102E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.256491048053611</v>
+        <v>0.25726527437408597</v>
       </c>
       <c r="E44" s="5">
-        <v>24.640724946694998</v>
+        <v>24.613490364025601</v>
       </c>
       <c r="F44" s="4">
-        <v>8.9311033211029706E-2</v>
+        <v>8.9691068133889204E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>157.07682648734601</v>
+        <v>159.218499236985</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>4</v>
@@ -3322,19 +3322,19 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.1407884078495704E-3</v>
+        <v>5.1604059765751296E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.26295040266801101</v>
+        <v>0.26375327361010698</v>
       </c>
       <c r="E45" s="5">
-        <v>24.661052631578901</v>
+        <v>24.634249471458698</v>
       </c>
       <c r="F45" s="4">
-        <v>8.7096965939675197E-2</v>
+        <v>8.74628183169113E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>170.84483845976601</v>
+        <v>173.23166072675701</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3342,19 +3342,19 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>4.9897469300300796E-3</v>
+        <v>5.0112948308918999E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.26925220556250401</v>
+        <v>0.27008631385767201</v>
       </c>
       <c r="E46" s="5">
-        <v>24.313492063491999</v>
+        <v>24.307078763708802</v>
       </c>
       <c r="F46" s="4">
-        <v>8.5432996960780605E-2</v>
+        <v>8.5851290524126198E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>185.526058021625</v>
+        <v>188.18967365031099</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>6</v>
@@ -3365,19 +3365,19 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>4.9494790861628699E-3</v>
+        <v>4.9702868658956902E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.27553434280900202</v>
+        <v>0.27639900718199201</v>
       </c>
       <c r="E47" s="5">
-        <v>24.543520309477699</v>
+        <v>24.5383867832847</v>
       </c>
       <c r="F47" s="4">
-        <v>8.7168484770848001E-2</v>
+        <v>8.7584642091631207E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>201.78525186965001</v>
+        <v>204.75978350440599</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>7</v>
@@ -3388,19 +3388,19 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>4.9786326902137804E-3</v>
+        <v>4.9954970737318303E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.28188475978560101</v>
+        <v>0.28277525468728398</v>
       </c>
       <c r="E48" s="5">
-        <v>24.428301886792401</v>
+        <v>24.490530303030301</v>
       </c>
       <c r="F48" s="4">
-        <v>8.7121220896416704E-2</v>
+        <v>8.7555871825897996E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>219.452150592321</v>
+        <v>222.77526073584301</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>8</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90C470-D5F2-4CDD-8AE4-862BA5AC371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DD04C6-5C75-437B-870F-DC4C2807223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$49</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1067,16 +1067,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45357</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$49</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>3.5445015465715899E-3</c:v>
                 </c:pt>
@@ -1205,6 +1208,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.28277525468728398</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28927798962680601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,16 +2023,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285517</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37039</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>100219</xdr:rowOff>
+      <xdr:rowOff>78132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>248811</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57702</xdr:rowOff>
+      <xdr:colOff>309550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>24571</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2055,8 +2061,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G48" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G48" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G49" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2367,10 +2373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S48"/>
+  <dimension ref="B2:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2412,8 +2418,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L41 &amp; " -&gt; " &amp; TEXT(L42,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 621%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L42 &amp; " -&gt; " &amp; TEXT(L43,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 619%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2710,7 +2716,7 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.3244943498215501E-3</v>
+        <v>6.3244943498215397E-3</v>
       </c>
       <c r="D17" s="2">
         <v>8.9806526626811906E-2</v>
@@ -2885,7 +2891,7 @@
         <v>23.018875435371601</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="13">
         <v>45324</v>
       </c>
@@ -3124,10 +3130,6 @@
       <c r="G37" s="3">
         <v>84.585562496843394</v>
       </c>
-      <c r="J37" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.4285671260393695E-3</v>
-      </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="13">
@@ -3146,14 +3148,11 @@
         <v>9.7373586491973294E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>92.919335669093897</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.12519237944178357</v>
+        <v>92.919335669093996</v>
+      </c>
+      <c r="J38" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.4209225200067806E-3</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
@@ -3175,12 +3174,12 @@
       <c r="G39" s="3">
         <v>101.937065242325</v>
       </c>
-      <c r="I39" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.863627391634203</v>
+      <c r="I39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.12436337463917017</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
@@ -3202,8 +3201,12 @@
       <c r="G40" s="3">
         <v>111.568071828808</v>
       </c>
-      <c r="I40" s="18" t="s">
-        <v>0</v>
+      <c r="I40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.826510076352779</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
@@ -3220,16 +3223,13 @@
         <v>25.126744186046501</v>
       </c>
       <c r="F41" s="4">
-        <v>9.3162262213385305E-2</v>
+        <v>9.3162262213385402E-2</v>
       </c>
       <c r="G41" s="3">
         <v>122.05516805337901</v>
       </c>
-      <c r="J41" s="14">
-        <v>250</v>
-      </c>
-      <c r="L41" s="14">
-        <v>365</v>
+      <c r="I41" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
@@ -3251,13 +3251,11 @@
       <c r="G42" s="3">
         <v>133.66290520001101</v>
       </c>
-      <c r="J42" s="21">
-        <f>POWER(1+J37,J41)-1</f>
-        <v>2.870839432698487</v>
-      </c>
-      <c r="L42" s="21">
-        <f>POWER(1+J37,L41)-1</f>
-        <v>6.2143221026444122</v>
+      <c r="J42" s="14">
+        <v>250</v>
+      </c>
+      <c r="L42" s="14">
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
@@ -3277,21 +3275,15 @@
         <v>9.1845751669106093E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>146.03112095005099</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="20">
-        <f>POWER(1+J37*M43,J41)-1</f>
-        <v>28.079624388609581</v>
-      </c>
-      <c r="L43" s="20">
-        <f>POWER(1+J37*M43,L41)-1</f>
-        <v>136.03756628512102</v>
-      </c>
-      <c r="M43">
-        <v>2.5</v>
+        <v>146.03112095005201</v>
+      </c>
+      <c r="J43" s="21">
+        <f>POWER(1+J38,J42)-1</f>
+        <v>2.8634885751319432</v>
+      </c>
+      <c r="L43" s="21">
+        <f>POWER(1+J38,L42)-1</f>
+        <v>6.1943284823980393</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
@@ -3313,8 +3305,19 @@
       <c r="G44" s="3">
         <v>159.218499236985</v>
       </c>
-      <c r="I44" s="18" t="s">
-        <v>4</v>
+      <c r="I44" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="20">
+        <f>POWER(1+J38*M44,J42)-1</f>
+        <v>27.942867113408333</v>
+      </c>
+      <c r="L44" s="20">
+        <f>POWER(1+J38*M44,L42)-1</f>
+        <v>135.09766178503313</v>
+      </c>
+      <c r="M44">
+        <v>2.5</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
@@ -3336,8 +3339,11 @@
       <c r="G45" s="3">
         <v>173.23166072675701</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="I45" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="13">
         <v>45355</v>
       </c>
@@ -3355,9 +3361,6 @@
       </c>
       <c r="G46" s="3">
         <v>188.18967365031099</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3380,10 +3383,10 @@
         <v>204.75978350440599</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B48" s="13">
         <v>45357</v>
       </c>
@@ -3403,6 +3406,29 @@
         <v>222.77526073584301</v>
       </c>
       <c r="I48" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B49" s="13">
+        <v>45358</v>
+      </c>
+      <c r="C49" s="23">
+        <v>5.0692706425076598E-3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.28927798962680601</v>
+      </c>
+      <c r="E49" s="5">
+        <v>24.119113573407201</v>
+      </c>
+      <c r="F49" s="4">
+        <v>8.6229153718953594E-2</v>
+      </c>
+      <c r="G49" s="3">
+        <v>242.07121209233301</v>
+      </c>
+      <c r="I49" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DD04C6-5C75-437B-870F-DC4C2807223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E5D895-3841-4660-BD13-B4EBB7B5799E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1087,130 +1087,130 @@
                   <c:v>7.2492636376126898E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1466954532036E-2</c:v>
+                  <c:v>1.14625385769653E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6372617220555798E-2</c:v>
+                  <c:v>1.6364721808648001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1746554404266701E-2</c:v>
+                  <c:v>2.1735747904739498E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.68925936801656E-2</c:v>
+                  <c:v>2.6879160087098501E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3350036745999699E-2</c:v>
+                  <c:v>3.33343688389506E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0292531815752097E-2</c:v>
+                  <c:v>4.0274742535367697E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7646865031589498E-2</c:v>
+                  <c:v>4.7627086224366101E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.47796827409439E-2</c:v>
+                  <c:v>5.47581289218948E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1718110682061601E-2</c:v>
+                  <c:v>6.1694842837875803E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8622055409892996E-2</c:v>
+                  <c:v>6.8597143261662996E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5789794406891403E-2</c:v>
+                  <c:v>7.5763277552207603E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2957368866319395E-2</c:v>
+                  <c:v>8.2929248691431395E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9806526626811906E-2</c:v>
+                  <c:v>8.9776892319004306E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6486348833220797E-2</c:v>
+                  <c:v>9.6455251780269702E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.103081032120398</c:v>
+                  <c:v>0.103048549800551</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.109524593844836</c:v>
+                  <c:v>0.10949077036469</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.115857709390734</c:v>
+                  <c:v>0.115822581404913</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.122179366693205</c:v>
+                  <c:v>0.122142948315803</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14690729100848099</c:v>
+                  <c:v>0.14686237939348001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.152829879452207</c:v>
+                  <c:v>0.15278259412235501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.15866607860079501</c:v>
+                  <c:v>0.15861649464216701</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.164454572792988</c:v>
+                  <c:v>0.16440272975390099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.17038372661165599</c:v>
+                  <c:v>0.170329670257055</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.17623530138983301</c:v>
+                  <c:v>0.17617907673214001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.182045715511477</c:v>
+                  <c:v>0.18198737220116401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.18824273801254801</c:v>
+                  <c:v>0.18818234406707199</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.19452694250987801</c:v>
+                  <c:v>0.19446452871137701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20071675502755201</c:v>
+                  <c:v>0.200669422974569</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.207016957624055</c:v>
+                  <c:v>0.20697899028803199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.213253050244336</c:v>
+                  <c:v>0.213224220173822</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21946874156831001</c:v>
+                  <c:v>0.21944887028631199</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.22579709886030899</c:v>
+                  <c:v>0.225786061092899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.23194233111621099</c:v>
+                  <c:v>0.23193984590292199</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.238117417835497</c:v>
+                  <c:v>0.23812334996106899</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.24430536791495699</c:v>
+                  <c:v>0.244319618667725</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.25074985584853199</c:v>
+                  <c:v>0.25077225370080702</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.25726527437408597</c:v>
+                  <c:v>0.25730090590351101</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.26375327361010698</c:v>
+                  <c:v>0.26380870860017702</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.27008631385767201</c:v>
+                  <c:v>0.27016024828616803</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.27639900718199201</c:v>
+                  <c:v>0.27649226794769999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.28277525468728398</c:v>
+                  <c:v>0.28288760769197902</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28927798962680601</c:v>
+                  <c:v>0.28939869040921001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2376,7 +2376,7 @@
   <dimension ref="B2:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="I2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;L42 &amp; " -&gt; " &amp; TEXT(L43,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 619%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 620%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2444,7 +2444,7 @@
         <v>22.6</v>
       </c>
       <c r="F3" s="4">
-        <v>9.45037611160435E-2</v>
+        <v>9.4503761116043403E-2</v>
       </c>
       <c r="G3" s="3">
         <v>9.45037611160435E-2</v>
@@ -2475,19 +2475,19 @@
         <v>45294</v>
       </c>
       <c r="C5" s="23">
-        <v>4.1873357933183801E-3</v>
+        <v>4.1829516202738799E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.1466954532036E-2</v>
+        <v>1.14625385769653E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>25.282352941176399</v>
+        <v>25.1294117647058</v>
       </c>
       <c r="F5" s="4">
-        <v>0.124333979451862</v>
+        <v>0.123191212409763</v>
       </c>
       <c r="G5" s="3">
-        <v>0.360163012767169</v>
+        <v>0.35878055035717499</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2495,19 +2495,19 @@
         <v>45295</v>
       </c>
       <c r="C6" s="23">
-        <v>4.8500474153298501E-3</v>
+        <v>4.8466285647905602E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.6372617220555798E-2</v>
+        <v>1.6364721808648001E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>26.633027522935699</v>
+        <v>26.5137614678899</v>
       </c>
       <c r="F6" s="4">
-        <v>0.16089061358075801</v>
+        <v>0.15999946496994699</v>
       </c>
       <c r="G6" s="3">
-        <v>0.57900047446113201</v>
+        <v>0.576184711425893</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2515,19 +2515,19 @@
         <v>45296</v>
       </c>
       <c r="C7" s="23">
-        <v>5.2873691131180402E-3</v>
+        <v>5.2845459713848301E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.1746554404266701E-2</v>
+        <v>2.1735747904739498E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>26.977272727272702</v>
+        <v>26.878787878787801</v>
       </c>
       <c r="F7" s="4">
-        <v>0.17948002476939201</v>
+        <v>0.17874415205288899</v>
       </c>
       <c r="G7" s="3">
-        <v>0.86239951872829801</v>
+        <v>0.85791851114844198</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2535,19 +2535,19 @@
         <v>45299</v>
       </c>
       <c r="C8" s="23">
-        <v>5.0365124831757199E-3</v>
+        <v>5.0339945459542202E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.68925936801656E-2</v>
+        <v>2.6879160087098501E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>28.3108108108108</v>
+        <v>28.222972972972901</v>
       </c>
       <c r="F8" s="4">
-        <v>0.17240833067125499</v>
+        <v>0.17175201176194199</v>
       </c>
       <c r="G8" s="3">
-        <v>1.18349271079519</v>
+        <v>1.17701975312794</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2555,19 +2555,19 @@
         <v>45300</v>
       </c>
       <c r="C9" s="23">
-        <v>6.2883334689290103E-3</v>
+        <v>6.2862399031493304E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.3350036745999699E-2</v>
+        <v>3.33343688389506E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>27.438202247191001</v>
+        <v>27.365168539325801</v>
       </c>
       <c r="F9" s="4">
-        <v>0.172819419175991</v>
+        <v>0.17227371581319101</v>
       </c>
       <c r="G9" s="3">
-        <v>1.56084265284983</v>
+        <v>1.5520630353980001</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2575,19 +2575,19 @@
         <v>45301</v>
       </c>
       <c r="C10" s="23">
-        <v>6.7184350151224302E-3</v>
+        <v>6.7164839433487E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>4.0292531815752097E-2</v>
+        <v>4.0274742535367697E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>26.293193717277401</v>
+        <v>26.225130890052299</v>
       </c>
       <c r="F10" s="4">
-        <v>0.163194726641848</v>
+        <v>0.162686165392747</v>
       </c>
       <c r="G10" s="3">
-        <v>1.9787586695544399</v>
+        <v>1.96724838446748</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2595,19 +2595,19 @@
         <v>45302</v>
       </c>
       <c r="C11" s="23">
-        <v>7.0694857368639097E-3</v>
+        <v>7.0676941276870704E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.7646865031589498E-2</v>
+        <v>4.7627086224366101E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>25.990384615384599</v>
+        <v>25.927884615384599</v>
       </c>
       <c r="F11" s="4">
-        <v>0.163712754479031</v>
+        <v>0.16324575833202001</v>
       </c>
       <c r="G11" s="3">
-        <v>2.46641945627549</v>
+        <v>2.4516390971493398</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2615,19 +2615,19 @@
         <v>45303</v>
       </c>
       <c r="C12" s="23">
-        <v>6.8084179387483002E-3</v>
+        <v>6.8068521626609797E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.47796827409439E-2</v>
+        <v>5.47581289218948E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>25.630252100840298</v>
+        <v>25.575630252100801</v>
       </c>
       <c r="F12" s="4">
-        <v>0.159418465562533</v>
+        <v>0.15901033447606899</v>
       </c>
       <c r="G12" s="3">
-        <v>3.0190307269910499</v>
+        <v>3.0004853844777299</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2635,19 +2635,19 @@
         <v>45307</v>
       </c>
       <c r="C13" s="23">
-        <v>6.5780826599613901E-3</v>
+        <v>6.5765920411262604E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.1718110682061601E-2</v>
+        <v>6.1694842837875803E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>25.052</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4">
-        <v>0.152995090298855</v>
+        <v>0.152606549504541</v>
       </c>
       <c r="G13" s="3">
-        <v>3.6339226959809099</v>
+        <v>3.6109856553462301</v>
       </c>
       <c r="S13" s="24"/>
     </row>
@@ -2656,19 +2656,19 @@
         <v>45308</v>
       </c>
       <c r="C14" s="23">
-        <v>6.5026155797569098E-3</v>
+        <v>6.5012093355728299E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.8622055409892996E-2</v>
+        <v>6.8597143261662996E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>25.735849056603701</v>
+        <v>25.686792452830101</v>
       </c>
       <c r="F14" s="4">
-        <v>0.15635552722425</v>
+        <v>0.15598897930508601</v>
       </c>
       <c r="G14" s="3">
-        <v>4.3584621222274302</v>
+        <v>4.3302486013140804</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2676,19 +2676,19 @@
         <v>45309</v>
       </c>
       <c r="C15" s="23">
-        <v>6.7074593498343297E-3</v>
+        <v>6.7061140259759002E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.5789794406891403E-2</v>
+        <v>7.5763277552207603E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>26.083032490974698</v>
+        <v>26.036101083032399</v>
       </c>
       <c r="F15" s="4">
-        <v>0.170161250512706</v>
+        <v>0.16981058192578</v>
       </c>
       <c r="G15" s="3">
-        <v>5.2702647377706198</v>
+        <v>5.2353812181123098</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2696,19 +2696,19 @@
         <v>45310</v>
       </c>
       <c r="C16" s="23">
-        <v>6.6626161511222698E-3</v>
+        <v>6.6612899777814E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.2957368866319395E-2</v>
+        <v>8.2929248691431395E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>26.238434163701001</v>
+        <v>26.1921708185053</v>
       </c>
       <c r="F16" s="4">
-        <v>0.16798356172861301</v>
+        <v>0.167637884865345</v>
       </c>
       <c r="G16" s="3">
-        <v>6.3235661414026598</v>
+        <v>6.2806673368457497</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2716,19 +2716,19 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.3244943498215397E-3</v>
+        <v>6.3232603938322002E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>8.9806526626811906E-2</v>
+        <v>8.9776892319004306E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>25.860927152317799</v>
+        <v>25.8178807947019</v>
       </c>
       <c r="F17" s="4">
-        <v>0.158010896424368</v>
+        <v>0.15768925669397599</v>
       </c>
       <c r="G17" s="3">
-        <v>7.4807693924288499</v>
+        <v>7.4287503574290703</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2736,19 +2736,19 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.1293652067621303E-3</v>
+        <v>6.12818963985745E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>9.6486348833220797E-2</v>
+        <v>9.6455251780269702E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>26.3880126182965</v>
+        <v>26.3470031545741</v>
       </c>
       <c r="F18" s="4">
-        <v>0.154835014226229</v>
+        <v>0.15452859404143901</v>
       </c>
       <c r="G18" s="3">
-        <v>8.7938894419549491</v>
+        <v>8.7312332996888706</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2756,19 +2756,19 @@
         <v>45315</v>
       </c>
       <c r="C19" s="23">
-        <v>6.01437792107076E-3</v>
+        <v>6.01328509264393E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.103081032120398</v>
+        <v>0.103048549800551</v>
       </c>
       <c r="E19" s="5">
-        <v>27.190615835777098</v>
+        <v>27.152492668621701</v>
       </c>
       <c r="F19" s="4">
-        <v>0.148517103233926</v>
+        <v>0.14823224929682399</v>
       </c>
       <c r="G19" s="3">
-        <v>10.248449531267401</v>
+        <v>10.173715900133899</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2776,19 +2776,19 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>5.8414219235114603E-3</v>
+        <v>5.8403780733894796E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.109524593844836</v>
+        <v>0.10949077036469</v>
       </c>
       <c r="E20" s="5">
-        <v>27.459383753501399</v>
+        <v>27.422969187675001</v>
       </c>
       <c r="F20" s="4">
-        <v>0.14205684232192201</v>
+        <v>0.141784754947827</v>
       </c>
       <c r="G20" s="3">
-        <v>11.846368752696799</v>
+        <v>11.757978470891</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -2796,19 +2796,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>5.7079541823862904E-3</v>
+        <v>5.70695242299503E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.115857709390734</v>
+        <v>0.115822581404913</v>
       </c>
       <c r="E21" s="5">
-        <v>27.293010752688101</v>
+        <v>27.258064516129</v>
       </c>
       <c r="F21" s="4">
-        <v>0.138198991220911</v>
+        <v>0.1379378751119</v>
       </c>
       <c r="G21" s="3">
-        <v>13.6217239551713</v>
+        <v>13.5177869118891</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -2816,19 +2816,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.6652898028757498E-3</v>
+        <v>5.66431170709216E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.122179366693205</v>
+        <v>0.122142948315803</v>
       </c>
       <c r="E22" s="5">
-        <v>27.354330708661401</v>
+        <v>27.320209973753201</v>
       </c>
       <c r="F22" s="4">
-        <v>0.13638422441179099</v>
+        <v>0.13612927639984401</v>
       </c>
       <c r="G22" s="3">
-        <v>15.6158964363606</v>
+        <v>15.4940827391317</v>
       </c>
     </row>
     <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2836,19 +2836,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.6458515941639796E-3</v>
+        <v>5.6373962955850003E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.12851502485958799</v>
+        <v>0.12846891281575501</v>
       </c>
       <c r="E23" s="5">
-        <v>27.194774346793299</v>
+        <v>27.1018957345971</v>
       </c>
       <c r="F23" s="4">
-        <v>0.13571951739541799</v>
+        <v>0.135173535614452</v>
       </c>
       <c r="G23" s="3">
-        <v>17.870997881795802</v>
+        <v>17.7236462196974</v>
       </c>
     </row>
     <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2856,19 +2856,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.6879038507654496E-3</v>
+        <v>5.6884984369443099E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.13493390981513301</v>
+        <v>0.13488820646244801</v>
       </c>
       <c r="E24" s="5">
-        <v>26.989270386266</v>
+        <v>26.914163090128699</v>
       </c>
       <c r="F24" s="4">
-        <v>0.13148355626553801</v>
+        <v>0.13119149724312401</v>
       </c>
       <c r="G24" s="3">
-        <v>20.3522237935737</v>
+        <v>20.180029401110101</v>
       </c>
     </row>
     <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
@@ -2876,19 +2876,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.3506667408236702E-3</v>
+        <v>5.3512368584355003E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14100656293941399</v>
+        <v>0.14096126206307399</v>
       </c>
       <c r="E25" s="5">
-        <v>27.3744855967078</v>
+        <v>27.302469135802401</v>
       </c>
       <c r="F25" s="4">
-        <v>0.124888707966822</v>
+        <v>0.12460866783421901</v>
       </c>
       <c r="G25" s="3">
-        <v>23.018875435371601</v>
+        <v>22.819244649472001</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -2896,19 +2896,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.1715110681451199E-3</v>
+        <v>5.1720575681385604E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.14690729100848099</v>
+        <v>0.14686237939348001</v>
       </c>
       <c r="E26" s="5">
-        <v>26.954635108481199</v>
+        <v>26.885601577909199</v>
       </c>
       <c r="F26" s="4">
-        <v>0.120943157575331</v>
+        <v>0.120674716734882</v>
       </c>
       <c r="G26" s="3">
-        <v>25.923794071934001</v>
+        <v>25.693625250385999</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2916,19 +2916,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.1639644199296796E-3</v>
+        <v>5.1620968960595596E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.152829879452207</v>
+        <v>0.15278259412235501</v>
       </c>
       <c r="E27" s="5">
-        <v>26.751893939393899</v>
+        <v>26.566287878787801</v>
       </c>
       <c r="F27" s="4">
-        <v>0.124080802726871</v>
+        <v>0.123486123821803</v>
       </c>
       <c r="G27" s="3">
-        <v>29.264520052832601</v>
+        <v>28.989917563307898</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2936,19 +2936,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.0624981643965696E-3</v>
+        <v>5.0607118372164497E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.15866607860079501</v>
+        <v>0.15861649464216701</v>
       </c>
       <c r="E28" s="5">
-        <v>26.503623188405701</v>
+        <v>26.326086956521699</v>
       </c>
       <c r="F28" s="4">
-        <v>0.12064185566129999</v>
+        <v>0.120073032360801</v>
       </c>
       <c r="G28" s="3">
-        <v>32.915687912704897</v>
+        <v>32.5908979053848</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -2956,19 +2956,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>4.9958260616226801E-3</v>
+        <v>4.9940900535180603E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.164454572792988</v>
+        <v>0.16440272975390099</v>
       </c>
       <c r="E29" s="5">
-        <v>26.3169014084507</v>
+        <v>26.1443661971831</v>
       </c>
       <c r="F29" s="4">
-        <v>0.119862210390058</v>
+        <v>0.11930941028112201</v>
       </c>
       <c r="G29" s="3">
-        <v>36.9808972328211</v>
+        <v>36.598608125289601</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -2976,19 +2976,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.09178628106255E-3</v>
+        <v>5.0901121679837302E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.17038372661165599</v>
+        <v>0.170329670257055</v>
       </c>
       <c r="E30" s="5">
-        <v>25.910016977928599</v>
+        <v>25.743633276740201</v>
       </c>
       <c r="F30" s="4">
-        <v>0.116180368030861</v>
+        <v>0.11564727726367</v>
       </c>
       <c r="G30" s="3">
-        <v>41.393531851472602</v>
+        <v>40.946784783883103</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -2996,19 +2996,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>4.9997062032965901E-3</v>
+        <v>4.9980844062514802E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.17623530138983301</v>
+        <v>0.17617907673214001</v>
       </c>
       <c r="E31" s="5">
-        <v>25.970394736842099</v>
+        <v>25.809210526315699</v>
       </c>
       <c r="F31" s="4">
-        <v>0.113933758269985</v>
+        <v>0.11341732658926799</v>
       </c>
       <c r="G31" s="3">
-        <v>46.223586261649302</v>
+        <v>45.7042769730865</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3016,19 +3016,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>4.9398399408504502E-3</v>
+        <v>4.9382747779878697E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.182045715511477</v>
+        <v>0.18198737220116401</v>
       </c>
       <c r="E32" s="5">
-        <v>25.830158730158701</v>
+        <v>25.674603174603099</v>
       </c>
       <c r="F32" s="4">
-        <v>0.111344993403119</v>
+        <v>0.110846595844586</v>
       </c>
       <c r="G32" s="3">
-        <v>51.4816961624242</v>
+        <v>50.881287086935899</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
@@ -3036,19 +3036,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.2426250691919299E-3</v>
+        <v>5.2411489425400999E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.18824273801254801</v>
+        <v>0.18818234406707199</v>
       </c>
       <c r="E33" s="5">
-        <v>25.461077844311301</v>
+        <v>25.314371257485</v>
       </c>
       <c r="F33" s="4">
-        <v>0.10625880424109301</v>
+        <v>0.10578875863948201</v>
       </c>
       <c r="G33" s="3">
-        <v>57.0583384411878</v>
+        <v>56.3697440444815</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
@@ -3056,19 +3056,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.28865382155916E-3</v>
+        <v>5.2872226857051301E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.19452694250987801</v>
+        <v>0.19446452871137701</v>
       </c>
       <c r="E34" s="5">
-        <v>25.206095791001399</v>
+        <v>25.063860667634199</v>
       </c>
       <c r="F34" s="4">
-        <v>0.103937872420987</v>
+        <v>0.103482153318119</v>
       </c>
       <c r="G34" s="3">
-        <v>63.092798615062499</v>
+        <v>62.306488693513799</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
@@ -3076,19 +3076,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.18181072137855E-3</v>
+        <v>5.19470784945485E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.20071675502755201</v>
+        <v>0.200669422974569</v>
       </c>
       <c r="E35" s="5">
-        <v>25.1455064194008</v>
+        <v>25.022857142857099</v>
       </c>
       <c r="F35" s="4">
-        <v>0.10199177176971801</v>
+        <v>0.101778657940939</v>
       </c>
       <c r="G35" s="3">
-        <v>69.629736703492497</v>
+        <v>68.749738151692895</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
@@ -3096,19 +3096,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.2470347982766204E-3</v>
+        <v>5.2550412234457396E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.207016957624055</v>
+        <v>0.20697899028803199</v>
       </c>
       <c r="E36" s="5">
-        <v>25.4925170068027</v>
+        <v>25.365986394557801</v>
       </c>
       <c r="F36" s="4">
-        <v>0.102047567094979</v>
+        <v>0.101755760744362</v>
       </c>
       <c r="G36" s="3">
-        <v>76.837329498642902</v>
+        <v>75.847175819038497</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
@@ -3116,19 +3116,19 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.1665327325275401E-3</v>
+        <v>5.1742656136041501E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.213253050244336</v>
+        <v>0.213224220173822</v>
       </c>
       <c r="E37" s="5">
-        <v>25.3022339027595</v>
+        <v>25.1800262812089</v>
       </c>
       <c r="F37" s="4">
-        <v>9.9543921253561804E-2</v>
+        <v>9.9262084633714207E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>84.585562496843394</v>
+        <v>83.475186689049806</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
@@ -3136,23 +3136,23 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.1231615059382802E-3</v>
+        <v>5.1306675295343203E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.21946874156831001</v>
+        <v>0.21944887028631199</v>
       </c>
       <c r="E38" s="5">
-        <v>24.959183673469301</v>
+        <v>24.840561224489701</v>
       </c>
       <c r="F38" s="4">
-        <v>9.7373586491973294E-2</v>
+        <v>9.7100018038269204E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>92.919335669093996</v>
+        <v>91.677728840342695</v>
       </c>
       <c r="J38" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>5.4209225200067806E-3</v>
+        <v>5.4229239441096972E-3</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
@@ -3160,26 +3160,26 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.1894378890434602E-3</v>
+        <v>5.1967663105867996E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.22579709886030899</v>
+        <v>0.225786061092899</v>
       </c>
       <c r="E39" s="5">
-        <v>24.9227895392278</v>
+        <v>24.806973848069699</v>
       </c>
       <c r="F39" s="4">
-        <v>9.6015687387347795E-2</v>
+        <v>9.5748591910754993E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>101.937065242325</v>
+        <v>100.551490878292</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J39" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>0.12436337463917017</v>
+        <v>0.1239900103042771</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
@@ -3187,26 +3187,26 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.0132540382219204E-3</v>
+        <v>5.0202763804771998E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.23194233111621099</v>
+        <v>0.23193984590292199</v>
       </c>
       <c r="E40" s="5">
-        <v>25.162291169450999</v>
+        <v>25.051312649164601</v>
       </c>
       <c r="F40" s="4">
-        <v>9.3562086346751297E-2</v>
+        <v>9.3306146414346397E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>111.568071828808</v>
+        <v>110.026869154777</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>2</v>
       </c>
       <c r="J40" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>25.826510076352779</v>
+        <v>25.724328946324864</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
@@ -3214,19 +3214,19 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.0124803436953896E-3</v>
+        <v>5.0193230446371603E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.238117417835497</v>
+        <v>0.23812334996106899</v>
       </c>
       <c r="E41" s="5">
-        <v>25.126744186046501</v>
+        <v>25.0186046511627</v>
       </c>
       <c r="F41" s="4">
-        <v>9.3162262213385402E-2</v>
+        <v>9.2912869581576907E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>122.05516805337901</v>
+        <v>120.342694168606</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>4.99787014569077E-3</v>
+        <v>5.00456493842106E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.24430536791495699</v>
+        <v>0.244319618667725</v>
       </c>
       <c r="E42" s="5">
-        <v>25.144482366325299</v>
+        <v>25.0386803185438</v>
       </c>
       <c r="F42" s="4">
-        <v>9.4329537964603999E-2</v>
+        <v>9.4085536072277196E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>133.66290520001101</v>
+        <v>131.75928659791299</v>
       </c>
       <c r="J42" s="14">
         <v>250</v>
@@ -3263,27 +3263,27 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.1791851901872403E-3</v>
+        <v>5.1856733079490101E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.25074985584853199</v>
+        <v>0.25077225370080702</v>
       </c>
       <c r="E43" s="5">
-        <v>24.762954796030801</v>
+        <v>24.660418963616301</v>
       </c>
       <c r="F43" s="4">
-        <v>9.1845751669106093E-2</v>
+        <v>9.1609282360004402E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>146.03112095005201</v>
+        <v>143.92126956977401</v>
       </c>
       <c r="J43" s="21">
         <f>POWER(1+J38,J42)-1</f>
-        <v>2.8634885751319432</v>
+        <v>2.8654117487171882</v>
       </c>
       <c r="L43" s="21">
         <f>POWER(1+J38,L42)-1</f>
-        <v>6.1943284823980393</v>
+        <v>6.1995576394666223</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
@@ -3291,30 +3291,30 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.2092098952382102E-3</v>
+        <v>5.2196970178913201E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.25726527437408597</v>
+        <v>0.25730090590351101</v>
       </c>
       <c r="E44" s="5">
-        <v>24.613490364025601</v>
+        <v>24.457663451232499</v>
       </c>
       <c r="F44" s="4">
-        <v>8.9691068133889204E-2</v>
+        <v>8.94492524479331E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>159.218499236985</v>
+        <v>156.88436879659599</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="20">
         <f>POWER(1+J38*M44,J42)-1</f>
-        <v>27.942867113408333</v>
+        <v>27.978609329625648</v>
       </c>
       <c r="L44" s="20">
         <f>POWER(1+J38*M44,L42)-1</f>
-        <v>135.09766178503313</v>
+        <v>135.34311388695349</v>
       </c>
       <c r="M44">
         <v>2.5</v>
@@ -3325,19 +3325,19 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.1604059765751296E-3</v>
+        <v>5.1760105048119197E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.26375327361010698</v>
+        <v>0.26380870860017702</v>
       </c>
       <c r="E45" s="5">
-        <v>24.634249471458698</v>
+        <v>24.4512711864406</v>
       </c>
       <c r="F45" s="4">
-        <v>8.74628183169113E-2</v>
+        <v>8.7304999530831803E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>173.23166072675701</v>
+        <v>170.66846354030901</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>4</v>
@@ -3348,19 +3348,19 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.0112948308918999E-3</v>
+        <v>5.0257128652217396E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.27008631385767201</v>
+        <v>0.27016024828616803</v>
       </c>
       <c r="E46" s="5">
-        <v>24.307078763708802</v>
+        <v>24.1338661338661</v>
       </c>
       <c r="F46" s="4">
-        <v>8.5851290524126198E-2</v>
+        <v>8.5699238586419299E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>188.18967365031099</v>
+        <v>185.380320155014</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3368,19 +3368,19 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>4.9702868658956902E-3</v>
+        <v>4.98521322020248E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.27639900718199201</v>
+        <v>0.27649226794769999</v>
       </c>
       <c r="E47" s="5">
-        <v>24.5383867832847</v>
+        <v>24.367088607594901</v>
       </c>
       <c r="F47" s="4">
-        <v>8.7584642091631207E-2</v>
+        <v>8.7437563178767996E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>204.75978350440599</v>
+        <v>201.67696117384699</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>6</v>
@@ -3391,19 +3391,19 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>4.9954970737318303E-3</v>
+        <v>5.0100889013302598E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.28277525468728398</v>
+        <v>0.28288760769197902</v>
       </c>
       <c r="E48" s="5">
-        <v>24.490530303030301</v>
+        <v>24.323529411764699</v>
       </c>
       <c r="F48" s="4">
-        <v>8.7555871825897996E-2</v>
+        <v>8.7412505996636095E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>222.77526073584301</v>
+        <v>219.39346225783601</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>7</v>
@@ -3414,19 +3414,19 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.0692706425076598E-3</v>
+        <v>5.0753337067036396E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.28927798962680601</v>
+        <v>0.28939869040921001</v>
       </c>
       <c r="E49" s="5">
-        <v>24.119113573407201</v>
+        <v>23.955637707948199</v>
       </c>
       <c r="F49" s="4">
-        <v>8.6229153718953594E-2</v>
+        <v>8.5920893062997494E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>242.07121209233301</v>
+        <v>238.32986536027499</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>8</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E5D895-3841-4660-BD13-B4EBB7B5799E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B870B-1BE0-4E2C-94A5-B2D1DF283F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$50</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1000,86 +1000,98 @@
                   <c:v>45320</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>45324</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>45327</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>45328</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>45329</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>45330</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>45331</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>45334</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>45335</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>45336</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>45337</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>45338</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>45342</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>45343</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>45344</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>45345</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>45348</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>45349</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>45350</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>45351</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>45352</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>45355</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>45356</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>45357</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>45358</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$50</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>3.5445015465715899E-3</c:v>
                 </c:pt>
@@ -1141,76 +1153,88 @@
                   <c:v>0.122142948315803</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.12846891281575501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13488820646244801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14096126206307399</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.14686237939348001</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>0.15278259412235501</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>0.15861649464216701</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>0.16440272975390099</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>0.170329670257055</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>0.17617907673214001</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>0.18198737220116401</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>0.18818234406707199</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>0.19446452871137701</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>0.200669422974569</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>0.20697899028803199</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>0.213224220173822</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>0.21944887028631199</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>0.225786061092899</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>0.23193984590292199</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>0.23812334996106899</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>0.244319618667725</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>0.25077225370080702</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>0.25730090590351101</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>0.26380870860017702</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>0.27016024828616803</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>0.27649226794769999</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>0.28288760769197902</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>0.28939869040921001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.29600490965500498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,15 +2048,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>37039</xdr:colOff>
+      <xdr:colOff>14953</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>78132</xdr:rowOff>
+      <xdr:rowOff>22915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>309550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>24571</xdr:rowOff>
+      <xdr:colOff>287464</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2061,8 +2085,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G49" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G50" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2373,10 +2397,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S49"/>
+  <dimension ref="B2:S50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+      <selection activeCell="S10" sqref="S10:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2418,8 +2442,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L42 &amp; " -&gt; " &amp; TEXT(L43,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 620%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L22 &amp; " -&gt; " &amp; TEXT(L23,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 618%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2444,13 +2468,13 @@
         <v>22.6</v>
       </c>
       <c r="F3" s="4">
-        <v>9.4503761116043403E-2</v>
+        <v>9.45037611160435E-2</v>
       </c>
       <c r="G3" s="3">
         <v>9.45037611160435E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="13">
         <v>45293</v>
       </c>
@@ -2470,12 +2494,12 @@
         <v>0.20974998321253199</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="13">
         <v>45294</v>
       </c>
       <c r="C5" s="23">
-        <v>4.1829516202738799E-3</v>
+        <v>4.1829516202738703E-3</v>
       </c>
       <c r="D5" s="2">
         <v>1.14625385769653E-2</v>
@@ -2490,7 +2514,7 @@
         <v>0.35878055035717499</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="13">
         <v>45295</v>
       </c>
@@ -2510,7 +2534,7 @@
         <v>0.576184711425893</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="13">
         <v>45296</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>0.85791851114844198</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="13">
         <v>45299</v>
       </c>
@@ -2550,7 +2574,7 @@
         <v>1.17701975312794</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="13">
         <v>45300</v>
       </c>
@@ -2570,7 +2594,7 @@
         <v>1.5520630353980001</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10" s="13">
         <v>45301</v>
       </c>
@@ -2590,7 +2614,7 @@
         <v>1.96724838446748</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="13">
         <v>45302</v>
       </c>
@@ -2610,7 +2634,7 @@
         <v>2.4516390971493398</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="13">
         <v>45303</v>
       </c>
@@ -2630,7 +2654,7 @@
         <v>3.0004853844777299</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="13">
         <v>45307</v>
       </c>
@@ -2651,7 +2675,7 @@
       </c>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>45308</v>
       </c>
@@ -2671,7 +2695,7 @@
         <v>4.3302486013140804</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="13">
         <v>45309</v>
       </c>
@@ -2688,10 +2712,10 @@
         <v>0.16981058192578</v>
       </c>
       <c r="G15" s="3">
-        <v>5.2353812181123098</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.2353812181123001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="13">
         <v>45310</v>
       </c>
@@ -2711,7 +2735,7 @@
         <v>6.2806673368457497</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="13">
         <v>45313</v>
       </c>
@@ -2731,7 +2755,7 @@
         <v>7.4287503574290703</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="13">
         <v>45314</v>
       </c>
@@ -2750,8 +2774,12 @@
       <c r="G18" s="3">
         <v>8.7312332996888706</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.4166857038095081E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="13">
         <v>45315</v>
       </c>
@@ -2770,8 +2798,15 @@
       <c r="G19" s="3">
         <v>10.173715900133899</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.1231598334643549</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="13">
         <v>45316</v>
       </c>
@@ -2790,8 +2825,15 @@
       <c r="G20" s="3">
         <v>11.757978470891</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.685593111630482</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="13">
         <v>45317</v>
       </c>
@@ -2810,8 +2852,11 @@
       <c r="G21" s="3">
         <v>13.5177869118891</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="13">
         <v>45320</v>
       </c>
@@ -2830,8 +2875,14 @@
       <c r="G22" s="3">
         <v>15.4940827391317</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="14">
+        <v>250</v>
+      </c>
+      <c r="L22" s="14">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="13">
         <v>45321</v>
       </c>
@@ -2850,8 +2901,19 @@
       <c r="G23" s="3">
         <v>17.7236462196974</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="21">
+        <f>POWER(1+J18,J22)-1</f>
+        <v>2.859420551026604</v>
+      </c>
+      <c r="L23" s="21">
+        <f>POWER(1+J18,L22)-1</f>
+        <v>6.1832713681797129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="13">
         <v>45322</v>
       </c>
@@ -2870,8 +2932,22 @@
       <c r="G24" s="3">
         <v>20.180029401110101</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="20">
+        <f>POWER(1+J18*M24,J22)-1</f>
+        <v>27.867349180176209</v>
+      </c>
+      <c r="L24" s="20">
+        <f>POWER(1+J18*M24,L22)-1</f>
+        <v>134.57951687507568</v>
+      </c>
+      <c r="M24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="13">
         <v>45323</v>
       </c>
@@ -2891,7 +2967,7 @@
         <v>22.819244649472001</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B26" s="13">
         <v>45324</v>
       </c>
@@ -2905,13 +2981,16 @@
         <v>26.885601577909199</v>
       </c>
       <c r="F26" s="4">
-        <v>0.120674716734882</v>
+        <v>0.120674716734881</v>
       </c>
       <c r="G26" s="3">
-        <v>25.693625250385999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+        <v>25.6936252503859</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B27" s="13">
         <v>45327</v>
       </c>
@@ -2930,8 +3009,11 @@
       <c r="G27" s="3">
         <v>28.989917563307898</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I27" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B28" s="13">
         <v>45328</v>
       </c>
@@ -2950,8 +3032,11 @@
       <c r="G28" s="3">
         <v>32.5908979053848</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I28" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="13">
         <v>45329</v>
       </c>
@@ -2971,7 +3056,7 @@
         <v>36.598608125289601</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="13">
         <v>45330</v>
       </c>
@@ -2991,7 +3076,7 @@
         <v>40.946784783883103</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="13">
         <v>45331</v>
       </c>
@@ -3011,7 +3096,7 @@
         <v>45.7042769730865</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="13">
         <v>45334</v>
       </c>
@@ -3031,7 +3116,7 @@
         <v>50.881287086935899</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="13">
         <v>45335</v>
       </c>
@@ -3048,10 +3133,10 @@
         <v>0.10578875863948201</v>
       </c>
       <c r="G33" s="3">
-        <v>56.3697440444815</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+        <v>56.369744044481401</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="13">
         <v>45336</v>
       </c>
@@ -3071,7 +3156,7 @@
         <v>62.306488693513799</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="13">
         <v>45337</v>
       </c>
@@ -3091,7 +3176,7 @@
         <v>68.749738151692895</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="13">
         <v>45338</v>
       </c>
@@ -3108,10 +3193,10 @@
         <v>0.101755760744362</v>
       </c>
       <c r="G36" s="3">
-        <v>75.847175819038497</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+        <v>75.847175819038398</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="13">
         <v>45342</v>
       </c>
@@ -3128,10 +3213,10 @@
         <v>9.9262084633714207E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>83.475186689049806</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+        <v>83.475186689049707</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="13">
         <v>45343</v>
       </c>
@@ -3150,12 +3235,8 @@
       <c r="G38" s="3">
         <v>91.677728840342695</v>
       </c>
-      <c r="J38" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.4229239441096972E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="13">
         <v>45344</v>
       </c>
@@ -3174,15 +3255,8 @@
       <c r="G39" s="3">
         <v>100.551490878292</v>
       </c>
-      <c r="I39" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.1239900103042771</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="13">
         <v>45345</v>
       </c>
@@ -3201,15 +3275,8 @@
       <c r="G40" s="3">
         <v>110.026869154777</v>
       </c>
-      <c r="I40" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.724328946324864</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="13">
         <v>45348</v>
       </c>
@@ -3228,11 +3295,8 @@
       <c r="G41" s="3">
         <v>120.342694168606</v>
       </c>
-      <c r="I41" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="13">
         <v>45349</v>
       </c>
@@ -3251,14 +3315,8 @@
       <c r="G42" s="3">
         <v>131.75928659791299</v>
       </c>
-      <c r="J42" s="14">
-        <v>250</v>
-      </c>
-      <c r="L42" s="14">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="13">
         <v>45350</v>
       </c>
@@ -3277,16 +3335,8 @@
       <c r="G43" s="3">
         <v>143.92126956977401</v>
       </c>
-      <c r="J43" s="21">
-        <f>POWER(1+J38,J42)-1</f>
-        <v>2.8654117487171882</v>
-      </c>
-      <c r="L43" s="21">
-        <f>POWER(1+J38,L42)-1</f>
-        <v>6.1995576394666223</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="13">
         <v>45351</v>
       </c>
@@ -3305,22 +3355,8 @@
       <c r="G44" s="3">
         <v>156.88436879659599</v>
       </c>
-      <c r="I44" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="20">
-        <f>POWER(1+J38*M44,J42)-1</f>
-        <v>27.978609329625648</v>
-      </c>
-      <c r="L44" s="20">
-        <f>POWER(1+J38*M44,L42)-1</f>
-        <v>135.34311388695349</v>
-      </c>
-      <c r="M44">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="13">
         <v>45352</v>
       </c>
@@ -3339,11 +3375,8 @@
       <c r="G45" s="3">
         <v>170.66846354030901</v>
       </c>
-      <c r="I45" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="13">
         <v>45355</v>
       </c>
@@ -3363,7 +3396,7 @@
         <v>185.380320155014</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="13">
         <v>45356</v>
       </c>
@@ -3382,11 +3415,8 @@
       <c r="G47" s="3">
         <v>201.67696117384699</v>
       </c>
-      <c r="I47" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="13">
         <v>45357</v>
       </c>
@@ -3403,13 +3433,10 @@
         <v>8.7412505996636095E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>219.39346225783601</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>219.39346225783501</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="13">
         <v>45358</v>
       </c>
@@ -3428,8 +3455,25 @@
       <c r="G49" s="3">
         <v>238.32986536027499</v>
       </c>
-      <c r="I49" s="22" t="s">
-        <v>8</v>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="13">
+        <v>45359</v>
+      </c>
+      <c r="C50" s="23">
+        <v>5.1234884097005901E-3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.29600490965500498</v>
+      </c>
+      <c r="E50" s="5">
+        <v>23.865008880994601</v>
+      </c>
+      <c r="F50" s="4">
+        <v>8.4141521988012197E-2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>258.46744448887398</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B870B-1BE0-4E2C-94A5-B2D1DF283F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D442E8-22C2-4021-BA0F-E3823A833ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1099,142 +1099,142 @@
                   <c:v>7.2492636376126898E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.14625385769653E-2</c:v>
+                  <c:v>1.1454278812466301E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6364721808648001E-2</c:v>
+                  <c:v>1.6356186476402301E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1735747904739498E-2</c:v>
+                  <c:v>2.1730369901672202E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6879160087098501E-2</c:v>
+                  <c:v>2.6874882502432699E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.33343688389506E-2</c:v>
+                  <c:v>3.3338270438030899E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0274742535367697E-2</c:v>
+                  <c:v>4.02887029967684E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7627086224366101E-2</c:v>
+                  <c:v>4.7652181037006698E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.47581289218948E-2</c:v>
+                  <c:v>5.4791948493403103E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1694842837875803E-2</c:v>
+                  <c:v>6.1736106609050899E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8597143261662996E-2</c:v>
+                  <c:v>6.8691621939553194E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5763277552207603E-2</c:v>
+                  <c:v>7.59109503614743E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2929248691431395E-2</c:v>
+                  <c:v>8.3129716443033505E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9776892319004306E-2</c:v>
+                  <c:v>9.0024694568890007E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6455251780269702E-2</c:v>
+                  <c:v>9.6747375080235204E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.103048549800551</c:v>
+                  <c:v>0.103381704703591</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10949077036469</c:v>
+                  <c:v>0.109862527900376</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.115822581404913</c:v>
+                  <c:v>0.116231037459834</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.122142948315803</c:v>
+                  <c:v>0.12258741634569199</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12846891281575501</c:v>
+                  <c:v>0.128946324521724</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13488820646244801</c:v>
+                  <c:v>0.13539629066244999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14096126206307399</c:v>
+                  <c:v>0.14149743743017801</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14686237939348001</c:v>
+                  <c:v>0.14742496590306101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15278259412235501</c:v>
+                  <c:v>0.153370853437064</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.15861649464216701</c:v>
+                  <c:v>0.15922919372527899</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.16440272975390099</c:v>
+                  <c:v>0.165018439736318</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.170329670257055</c:v>
+                  <c:v>0.17094884796354001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.17617907673214001</c:v>
+                  <c:v>0.176801318372449</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.18198737220116401</c:v>
+                  <c:v>0.18261243264951699</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18818234406707199</c:v>
+                  <c:v>0.18881151549143901</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.19446452871137701</c:v>
+                  <c:v>0.195097999822513</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.200669422974569</c:v>
+                  <c:v>0.20130683082638701</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.20697899028803199</c:v>
+                  <c:v>0.20762056389550301</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.213224220173822</c:v>
+                  <c:v>0.21386964875047801</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.21944887028631199</c:v>
+                  <c:v>0.22009799723246301</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.225786061092899</c:v>
+                  <c:v>0.226439142416789</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.23193984590292199</c:v>
+                  <c:v>0.23259624762773701</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.23812334996106899</c:v>
+                  <c:v>0.238783084524924</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.244319618667725</c:v>
+                  <c:v>0.244982650731323</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.25077225370080702</c:v>
+                  <c:v>0.251439218247755</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.25730090590351101</c:v>
+                  <c:v>0.25797192617704801</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26380870860017702</c:v>
+                  <c:v>0.26448365603134599</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.27016024828616803</c:v>
+                  <c:v>0.27083863759538401</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.27649226794769999</c:v>
+                  <c:v>0.27717398751295902</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28288760769197902</c:v>
+                  <c:v>0.28357275254881997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.28939869040921001</c:v>
+                  <c:v>0.29008747730023599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.29600490965500498</c:v>
+                  <c:v>0.29669288160103802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,8 +2399,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:S50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:T10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="I2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;L22 &amp; " -&gt; " &amp; TEXT(L23,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 618%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 621%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2499,19 +2499,19 @@
         <v>45294</v>
       </c>
       <c r="C5" s="23">
-        <v>4.1829516202738703E-3</v>
+        <v>4.1747513020435299E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.14625385769653E-2</v>
+        <v>1.1454278812466301E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>25.1294117647058</v>
+        <v>25.035714285714199</v>
       </c>
       <c r="F5" s="4">
-        <v>0.123191212409763</v>
+        <v>0.12274386153840799</v>
       </c>
       <c r="G5" s="3">
-        <v>0.35878055035717499</v>
+        <v>0.35823936764806302</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
@@ -2519,19 +2519,19 @@
         <v>45295</v>
       </c>
       <c r="C6" s="23">
-        <v>4.8466285647905602E-3</v>
+        <v>4.8463956963939597E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.6364721808648001E-2</v>
+        <v>1.6356186476402301E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>26.5137614678899</v>
+        <v>26.453703703703699</v>
       </c>
       <c r="F6" s="4">
-        <v>0.15999946496994699</v>
+        <v>0.159992342556673</v>
       </c>
       <c r="G6" s="3">
-        <v>0.576184711425893</v>
+        <v>0.57554726583077098</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
@@ -2539,19 +2539,19 @@
         <v>45296</v>
       </c>
       <c r="C7" s="23">
-        <v>5.2845459713848301E-3</v>
+        <v>5.2876968692456101E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.1735747904739498E-2</v>
+        <v>2.1730369901672202E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>26.878787878787801</v>
+        <v>26.832061068702199</v>
       </c>
       <c r="F7" s="4">
-        <v>0.17874415205288899</v>
+        <v>0.17888136935402801</v>
       </c>
       <c r="G7" s="3">
-        <v>0.85791851114844198</v>
+        <v>0.85738331822457603</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
@@ -2559,19 +2559,19 @@
         <v>45299</v>
       </c>
       <c r="C8" s="23">
-        <v>5.0339945459542202E-3</v>
+        <v>5.0350980574802801E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.6879160087098501E-2</v>
+        <v>2.6874882502432699E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>28.222972972972901</v>
+        <v>28.190476190476101</v>
       </c>
       <c r="F8" s="4">
-        <v>0.17175201176194199</v>
+        <v>0.17182672826642101</v>
       </c>
       <c r="G8" s="3">
-        <v>1.17701975312794</v>
+        <v>1.17653141693173</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
@@ -2579,19 +2579,19 @@
         <v>45300</v>
       </c>
       <c r="C9" s="23">
-        <v>6.2862399031493304E-3</v>
+        <v>6.2942312113500503E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.33343688389506E-2</v>
+        <v>3.3338270438030899E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>27.365168539325801</v>
+        <v>27.3333333333333</v>
       </c>
       <c r="F9" s="4">
-        <v>0.17227371581319101</v>
+        <v>0.17233871598386699</v>
       </c>
       <c r="G9" s="3">
-        <v>1.5520630353980001</v>
+        <v>1.5516320466242901</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
@@ -2599,19 +2599,19 @@
         <v>45301</v>
       </c>
       <c r="C10" s="23">
-        <v>6.7164839433487E-3</v>
+        <v>6.7261929201472602E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>4.0274742535367697E-2</v>
+        <v>4.02887029967684E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>26.225130890052299</v>
+        <v>26.189473684210501</v>
       </c>
       <c r="F10" s="4">
-        <v>0.162686165392747</v>
+        <v>0.16269625739163701</v>
       </c>
       <c r="G10" s="3">
-        <v>1.96724838446748</v>
+        <v>1.9667730308506299</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
@@ -2619,19 +2619,19 @@
         <v>45302</v>
       </c>
       <c r="C11" s="23">
-        <v>7.0676941276870704E-3</v>
+        <v>7.0783024164603296E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.7627086224366101E-2</v>
+        <v>4.7652181037006698E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>25.927884615384599</v>
+        <v>25.893719806763201</v>
       </c>
       <c r="F11" s="4">
-        <v>0.16324575833202001</v>
+        <v>0.16325772486694001</v>
       </c>
       <c r="G11" s="3">
-        <v>2.4516390971493398</v>
+        <v>2.4511216460638998</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
@@ -2639,19 +2639,19 @@
         <v>45303</v>
       </c>
       <c r="C12" s="23">
-        <v>6.8068521626609797E-3</v>
+        <v>6.8150170310619798E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.47581289218948E-2</v>
+        <v>5.4791948493403103E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>25.575630252100801</v>
+        <v>25.544303797468299</v>
       </c>
       <c r="F12" s="4">
-        <v>0.15901033447606899</v>
+        <v>0.15900291527299901</v>
       </c>
       <c r="G12" s="3">
-        <v>3.0004853844777299</v>
+        <v>2.9998600487498202</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
@@ -2659,19 +2659,19 @@
         <v>45307</v>
       </c>
       <c r="C13" s="23">
-        <v>6.5765920411262604E-3</v>
+        <v>6.5834386824495704E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.1694842837875803E-2</v>
+        <v>6.1736106609050899E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>25</v>
+        <v>24.9678714859437</v>
       </c>
       <c r="F13" s="4">
-        <v>0.152606549504541</v>
+        <v>0.15257376984149301</v>
       </c>
       <c r="G13" s="3">
-        <v>3.6109856553462301</v>
+        <v>3.6101337752259499</v>
       </c>
       <c r="S13" s="24"/>
     </row>
@@ -2680,19 +2680,19 @@
         <v>45308</v>
       </c>
       <c r="C14" s="23">
-        <v>6.5012093355728299E-3</v>
+        <v>6.55107732251558E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.8597143261662996E-2</v>
+        <v>6.8691621939553194E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>25.686792452830101</v>
+        <v>25.718631178707199</v>
       </c>
       <c r="F14" s="4">
-        <v>0.15598897930508601</v>
+        <v>0.15671714688337801</v>
       </c>
       <c r="G14" s="3">
-        <v>4.3302486013140804</v>
+        <v>4.3326207872300699</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
@@ -2700,19 +2700,19 @@
         <v>45309</v>
       </c>
       <c r="C15" s="23">
-        <v>6.7061140259759002E-3</v>
+        <v>6.7552961712368199E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.5763277552207603E-2</v>
+        <v>7.59109503614743E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>26.036101083032399</v>
+        <v>26.0690909090909</v>
       </c>
       <c r="F15" s="4">
-        <v>0.16981058192578</v>
+        <v>0.17060749566517</v>
       </c>
       <c r="G15" s="3">
-        <v>5.2353812181123001</v>
+        <v>5.2424058650714196</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
@@ -2720,19 +2720,19 @@
         <v>45310</v>
       </c>
       <c r="C16" s="23">
-        <v>6.6612899777814E-3</v>
+        <v>6.7094456833382598E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.2929248691431395E-2</v>
+        <v>8.3129716443033505E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>26.1921708185053</v>
+        <v>26.2258064516129</v>
       </c>
       <c r="F16" s="4">
-        <v>0.167637884865345</v>
+        <v>0.168407798428826</v>
       </c>
       <c r="G16" s="3">
-        <v>6.2806673368457497</v>
+        <v>6.2936756937072902</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
@@ -2740,19 +2740,19 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.3232603938322002E-3</v>
+        <v>6.3657916694404102E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>8.9776892319004306E-2</v>
+        <v>9.0024694568890007E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>25.8178807947019</v>
+        <v>25.8466666666666</v>
       </c>
       <c r="F17" s="4">
-        <v>0.15768925669397599</v>
+        <v>0.15833895212020399</v>
       </c>
       <c r="G17" s="3">
-        <v>7.4287503574290703</v>
+        <v>7.4485486601535102</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
@@ -2760,23 +2760,23 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.12818963985745E-3</v>
+        <v>6.1674570721574999E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>9.6455251780269702E-2</v>
+        <v>9.6747375080235204E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>26.3470031545741</v>
+        <v>26.377777777777698</v>
       </c>
       <c r="F18" s="4">
-        <v>0.15452859404143901</v>
+        <v>0.15512728389084701</v>
       </c>
       <c r="G18" s="3">
-        <v>8.7312332996888706</v>
+        <v>8.7591490666227791</v>
       </c>
       <c r="J18" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>5.4166857038095081E-3</v>
+        <v>5.4278093968520838E-3</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
@@ -2784,26 +2784,26 @@
         <v>45315</v>
       </c>
       <c r="C19" s="23">
-        <v>6.01328509264393E-3</v>
+        <v>6.0490955110524504E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.103048549800551</v>
+        <v>0.103381704703591</v>
       </c>
       <c r="E19" s="5">
-        <v>27.152492668621701</v>
+        <v>27.185840707964601</v>
       </c>
       <c r="F19" s="4">
-        <v>0.14823224929682399</v>
+        <v>0.14875143220645601</v>
       </c>
       <c r="G19" s="3">
-        <v>10.173715900133899</v>
+        <v>10.210836467399201</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J19" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>0.1231598334643549</v>
+        <v>0.12327436002546603</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
@@ -2811,26 +2811,26 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>5.8403780733894796E-3</v>
+        <v>5.8736003770570198E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.10949077036469</v>
+        <v>0.109862527900376</v>
       </c>
       <c r="E20" s="5">
-        <v>27.422969187675001</v>
+        <v>27.456338028169</v>
       </c>
       <c r="F20" s="4">
-        <v>0.141784754947827</v>
+        <v>0.142244214152524</v>
       </c>
       <c r="G20" s="3">
-        <v>11.757978470891</v>
+        <v>11.8055130906969</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>2</v>
       </c>
       <c r="J20" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>25.685593111630482</v>
+        <v>25.714278476535743</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
@@ -2838,19 +2838,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>5.70695242299503E-3</v>
+        <v>5.7381066567820296E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.115822581404913</v>
+        <v>0.116231037459834</v>
       </c>
       <c r="E21" s="5">
-        <v>27.258064516129</v>
+        <v>27.289189189189099</v>
       </c>
       <c r="F21" s="4">
-        <v>0.1379378751119</v>
+        <v>0.13835791364702399</v>
       </c>
       <c r="G21" s="3">
-        <v>13.5177869118891</v>
+        <v>13.5772571651053</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>0</v>
@@ -2861,19 +2861,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.66431170709216E-3</v>
+        <v>5.6945011136076799E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.122142948315803</v>
+        <v>0.12258741634569199</v>
       </c>
       <c r="E22" s="5">
-        <v>27.320209973753201</v>
+        <v>27.350923482849598</v>
       </c>
       <c r="F22" s="4">
-        <v>0.13612927639984401</v>
+        <v>0.13652979634858201</v>
       </c>
       <c r="G22" s="3">
-        <v>15.4940827391317</v>
+        <v>15.5674871171781</v>
       </c>
       <c r="J22" s="14">
         <v>250</v>
@@ -2887,30 +2887,30 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.6373962955850003E-3</v>
+        <v>5.6645104723620698E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.12846891281575501</v>
+        <v>0.128946324521724</v>
       </c>
       <c r="E23" s="5">
-        <v>27.1018957345971</v>
+        <v>27.128571428571401</v>
       </c>
       <c r="F23" s="4">
-        <v>0.135173535614452</v>
+        <v>0.13553040604064401</v>
       </c>
       <c r="G23" s="3">
-        <v>17.7236462196974</v>
+        <v>17.812885373242398</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="21">
         <f>POWER(1+J18,J22)-1</f>
-        <v>2.859420551026604</v>
+        <v>2.8701101981887067</v>
       </c>
       <c r="L23" s="21">
         <f>POWER(1+J18,L22)-1</f>
-        <v>6.1832713681797129</v>
+        <v>6.2123378744266136</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
@@ -2918,30 +2918,30 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.6884984369443099E-3</v>
+        <v>5.7132620042481003E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.13488820646244801</v>
+        <v>0.13539629066244999</v>
       </c>
       <c r="E24" s="5">
-        <v>26.914163090128699</v>
+        <v>26.9375</v>
       </c>
       <c r="F24" s="4">
-        <v>0.13119149724312401</v>
+        <v>0.13149736313893801</v>
       </c>
       <c r="G24" s="3">
-        <v>20.180029401110101</v>
+        <v>20.286730192858901</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>4</v>
       </c>
       <c r="J24" s="20">
         <f>POWER(1+J18*M24,J22)-1</f>
-        <v>27.867349180176209</v>
+        <v>28.066040396488397</v>
       </c>
       <c r="L24" s="20">
         <f>POWER(1+J18*M24,L22)-1</f>
-        <v>134.57951687507568</v>
+        <v>135.94411517725899</v>
       </c>
       <c r="M24">
         <v>2.5</v>
@@ -2952,19 +2952,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.3512368584355003E-3</v>
+        <v>5.3735834949477802E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14096126206307399</v>
+        <v>0.14149743743017801</v>
       </c>
       <c r="E25" s="5">
-        <v>27.302469135802401</v>
+        <v>27.3264462809917</v>
       </c>
       <c r="F25" s="4">
-        <v>0.12460866783421901</v>
+        <v>0.124874692869012</v>
       </c>
       <c r="G25" s="3">
-        <v>22.819244649472001</v>
+        <v>22.944904087877699</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -2972,19 +2972,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.1720575681385604E-3</v>
+        <v>5.1927654662347498E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.14686237939348001</v>
+        <v>0.14742496590306101</v>
       </c>
       <c r="E26" s="5">
-        <v>26.885601577909199</v>
+        <v>26.906930693069299</v>
       </c>
       <c r="F26" s="4">
-        <v>0.120674716734881</v>
+        <v>0.12091409948674001</v>
       </c>
       <c r="G26" s="3">
-        <v>25.6936252503859</v>
+        <v>25.840180602959801</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>6</v>
@@ -2995,19 +2995,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.1620968960595596E-3</v>
+        <v>5.1819401796991396E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.15278259412235501</v>
+        <v>0.153370853437064</v>
       </c>
       <c r="E27" s="5">
-        <v>26.566287878787801</v>
+        <v>26.585551330798399</v>
       </c>
       <c r="F27" s="4">
-        <v>0.123486123821803</v>
+        <v>0.123726639228386</v>
       </c>
       <c r="G27" s="3">
-        <v>28.989917563307898</v>
+        <v>29.161025945246902</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>7</v>
@@ -3018,19 +3018,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.0607118372164497E-3</v>
+        <v>5.0793205591741497E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.15861649464216701</v>
+        <v>0.15922919372527899</v>
       </c>
       <c r="E28" s="5">
-        <v>26.326086956521699</v>
+        <v>26.3436363636363</v>
       </c>
       <c r="F28" s="4">
-        <v>0.120073032360801</v>
+        <v>0.120290641307965</v>
       </c>
       <c r="G28" s="3">
-        <v>32.5908979053848</v>
+        <v>32.789115098706802</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>8</v>
@@ -3041,19 +3041,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>4.9940900535180603E-3</v>
+        <v>4.9940478055379503E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.16440272975390099</v>
+        <v>0.165018439736318</v>
       </c>
       <c r="E29" s="5">
-        <v>26.1443661971831</v>
+        <v>26.234982332155401</v>
       </c>
       <c r="F29" s="4">
-        <v>0.11930941028112201</v>
+        <v>0.119302126258019</v>
       </c>
       <c r="G29" s="3">
-        <v>36.598608125289601</v>
+        <v>36.820228374359502</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
@@ -3061,19 +3061,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.0901121679837302E-3</v>
+        <v>5.0903985936603703E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.170329670257055</v>
+        <v>0.17094884796354001</v>
       </c>
       <c r="E30" s="5">
-        <v>25.743633276740201</v>
+        <v>25.829642248722301</v>
       </c>
       <c r="F30" s="4">
-        <v>0.11564727726367</v>
+        <v>0.115627776372509</v>
       </c>
       <c r="G30" s="3">
-        <v>40.946784783883103</v>
+        <v>41.193297283187199</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
@@ -3081,19 +3081,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>4.9980844062514802E-3</v>
+        <v>4.9980581295992E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.17617907673214001</v>
+        <v>0.176801318372449</v>
       </c>
       <c r="E31" s="5">
-        <v>25.809210526315699</v>
+        <v>25.892739273927301</v>
       </c>
       <c r="F31" s="4">
-        <v>0.11341732658926799</v>
+        <v>0.113391077539004</v>
       </c>
       <c r="G31" s="3">
-        <v>45.7042769730865</v>
+        <v>45.977640727051302</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
@@ -3101,19 +3101,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>4.9382747779878697E-3</v>
+        <v>4.9380589453321298E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.18198737220116401</v>
+        <v>0.18261243264951699</v>
       </c>
       <c r="E32" s="5">
-        <v>25.674603174603099</v>
+        <v>25.7547770700636</v>
       </c>
       <c r="F32" s="4">
-        <v>0.110846595844586</v>
+        <v>0.11081307930645</v>
       </c>
       <c r="G32" s="3">
-        <v>50.881287086935899</v>
+        <v>51.183377754567999</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
@@ -3121,19 +3121,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.2411489425400999E-3</v>
+        <v>5.2418549566861901E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.18818234406707199</v>
+        <v>0.18881151549143901</v>
       </c>
       <c r="E33" s="5">
-        <v>25.314371257485</v>
+        <v>25.3888888888888</v>
       </c>
       <c r="F33" s="4">
-        <v>0.10578875863948201</v>
+        <v>0.105741965756059</v>
       </c>
       <c r="G33" s="3">
-        <v>56.369744044481401</v>
+        <v>56.701350698127101</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
@@ -3141,19 +3141,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.2872226857051301E-3</v>
+        <v>5.2880412488894501E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.19446452871137701</v>
+        <v>0.195097999822513</v>
       </c>
       <c r="E34" s="5">
-        <v>25.063860667634199</v>
+        <v>25.1353711790393</v>
       </c>
       <c r="F34" s="4">
-        <v>0.103482153318119</v>
+        <v>0.10343007577663101</v>
       </c>
       <c r="G34" s="3">
-        <v>62.306488693513799</v>
+        <v>62.6694057732484</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
@@ -3161,19 +3161,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.19470784945485E-3</v>
+        <v>5.1952484271556099E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.200669422974569</v>
+        <v>0.20130683082638701</v>
       </c>
       <c r="E35" s="5">
-        <v>25.022857142857099</v>
+        <v>25.093123209169001</v>
       </c>
       <c r="F35" s="4">
-        <v>0.101778657940939</v>
+        <v>0.10172252003011301</v>
       </c>
       <c r="G35" s="3">
-        <v>68.749738151692895</v>
+        <v>69.146018177323</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
@@ -3181,19 +3181,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.2550412234457396E-3</v>
+        <v>5.2557206095072799E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.20697899028803199</v>
+        <v>0.20762056389550301</v>
       </c>
       <c r="E36" s="5">
-        <v>25.365986394557801</v>
+        <v>25.433833560709399</v>
       </c>
       <c r="F36" s="4">
-        <v>0.101755760744362</v>
+        <v>0.10170224088604</v>
       </c>
       <c r="G36" s="3">
-        <v>75.847175819038398</v>
+        <v>76.280025415189698</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -3201,19 +3201,19 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.1742656136041501E-3</v>
+        <v>5.1747088794321201E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.213224220173822</v>
+        <v>0.21386964875047801</v>
       </c>
       <c r="E37" s="5">
-        <v>25.1800262812089</v>
+        <v>25.245059288537501</v>
       </c>
       <c r="F37" s="4">
-        <v>9.9262084633714207E-2</v>
+        <v>9.9203827178679593E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>83.475186689049707</v>
+        <v>83.946499700842196</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
@@ -3221,19 +3221,19 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.1306675295343203E-3</v>
+        <v>5.1309862540807301E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.21944887028631199</v>
+        <v>0.22009799723246301</v>
       </c>
       <c r="E38" s="5">
-        <v>24.840561224489701</v>
+        <v>24.902813299232701</v>
       </c>
       <c r="F38" s="4">
-        <v>9.7100018038269204E-2</v>
+        <v>9.7037944455708902E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>91.677728840342695</v>
+        <v>92.189533420519396</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
@@ -3241,19 +3241,19 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.1967663105867996E-3</v>
+        <v>5.1972425155273599E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.225786061092899</v>
+        <v>0.226439142416789</v>
       </c>
       <c r="E39" s="5">
-        <v>24.806973848069699</v>
+        <v>24.867665418227201</v>
       </c>
       <c r="F39" s="4">
-        <v>9.5748591910754993E-2</v>
+        <v>9.5684616387887098E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>100.551490878292</v>
+        <v>101.106338177228</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
@@ -3261,19 +3261,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.0202763804771998E-3</v>
+        <v>5.0203104238948698E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.23193984590292199</v>
+        <v>0.23259624762773701</v>
       </c>
       <c r="E40" s="5">
-        <v>25.051312649164601</v>
+        <v>25.110047846889898</v>
       </c>
       <c r="F40" s="4">
-        <v>9.3306146414346397E-2</v>
+        <v>9.3239006121511495E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>110.026869154777</v>
+        <v>110.62663166757901</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
@@ -3281,19 +3281,19 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.0193230446371603E-3</v>
+        <v>5.0193539929186204E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.23812334996106899</v>
+        <v>0.238783084524924</v>
       </c>
       <c r="E41" s="5">
-        <v>25.0186046511627</v>
+        <v>25.0757575757575</v>
       </c>
       <c r="F41" s="4">
-        <v>9.2912869581576907E-2</v>
+        <v>9.2846534105498202E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>120.342694168606</v>
+        <v>120.990777531785</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
@@ -3301,19 +3301,19 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>5.00456493842106E-3</v>
+        <v>5.0045615603287697E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.244319618667725</v>
+        <v>0.244982650731323</v>
       </c>
       <c r="E42" s="5">
-        <v>25.0386803185438</v>
+        <v>25.094640820980601</v>
       </c>
       <c r="F42" s="4">
-        <v>9.4085536072277196E-2</v>
+        <v>9.4023312006719498E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>131.75928659791299</v>
+        <v>132.46075446959799</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
@@ -3321,19 +3321,19 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.1856733079490101E-3</v>
+        <v>5.1860702738629498E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.25077225370080702</v>
+        <v>0.251439218247755</v>
       </c>
       <c r="E43" s="5">
-        <v>24.660418963616301</v>
+        <v>24.7138121546961</v>
       </c>
       <c r="F43" s="4">
-        <v>9.1609282360004402E-2</v>
+        <v>9.1543511075011394E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>143.92126956977401</v>
+        <v>144.67822052446601</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
@@ -3341,19 +3341,19 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.2196970178913201E-3</v>
+        <v>5.2201559884305299E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.25730090590351101</v>
+        <v>0.25797192617704801</v>
       </c>
       <c r="E44" s="5">
-        <v>24.457663451232499</v>
+        <v>24.509129967776499</v>
       </c>
       <c r="F44" s="4">
-        <v>8.94492524479331E-2</v>
+        <v>8.9380677718886095E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>156.88436879659599</v>
+        <v>157.69903860382399</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
@@ -3361,19 +3361,19 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.1760105048119197E-3</v>
+        <v>5.1763713631408402E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.26380870860017702</v>
+        <v>0.26448365603134599</v>
       </c>
       <c r="E45" s="5">
-        <v>24.4512711864406</v>
+        <v>24.5021231422505</v>
       </c>
       <c r="F45" s="4">
-        <v>8.7304999530831803E-2</v>
+        <v>8.72326730142957E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>170.66846354030901</v>
+        <v>171.54277994603399</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
@@ -3381,19 +3381,19 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.0257128652217396E-3</v>
+        <v>5.0257522378610404E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.27016024828616803</v>
+        <v>0.27083863759538401</v>
       </c>
       <c r="E46" s="5">
-        <v>24.1338661338661</v>
+        <v>24.181181181181099</v>
       </c>
       <c r="F46" s="4">
-        <v>8.5699238586419299E-2</v>
+        <v>8.5627824071438499E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>185.380320155014</v>
+        <v>186.31724275204999</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
@@ -3401,19 +3401,19 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>4.98521322020248E-3</v>
+        <v>4.9851725704235803E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.27649226794769999</v>
+        <v>0.27717398751295902</v>
       </c>
       <c r="E47" s="5">
-        <v>24.367088607594901</v>
+        <v>24.413658536585299</v>
       </c>
       <c r="F47" s="4">
-        <v>8.7437563178767996E-2</v>
+        <v>8.7371352006786404E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>201.67696117384699</v>
+        <v>202.68340350547999</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
@@ -3421,19 +3421,19 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>5.0100889013302598E-3</v>
+        <v>5.0100965870136099E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.28288760769197902</v>
+        <v>0.28357275254881997</v>
       </c>
       <c r="E48" s="5">
-        <v>24.323529411764699</v>
+        <v>24.3688212927756</v>
       </c>
       <c r="F48" s="4">
-        <v>8.7412505996636095E-2</v>
+        <v>8.7347946523589196E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>219.39346225783501</v>
+        <v>220.47473054261999</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
@@ -3441,19 +3441,19 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.0753337067036396E-3</v>
+        <v>5.0754620168421902E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.28939869040921001</v>
+        <v>0.29008747730023599</v>
       </c>
       <c r="E49" s="5">
-        <v>23.955637707948199</v>
+        <v>23.999074074073999</v>
       </c>
       <c r="F49" s="4">
-        <v>8.5920893062997494E-2</v>
+        <v>8.5855245107893205E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>238.32986536027499</v>
+        <v>239.48949781856101</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.35">
@@ -3461,19 +3461,19 @@
         <v>45359</v>
       </c>
       <c r="C50" s="23">
-        <v>5.1234884097005901E-3</v>
+        <v>5.1201212452861499E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>0.29600490965500498</v>
+        <v>0.29669288160103802</v>
       </c>
       <c r="E50" s="5">
-        <v>23.865008880994601</v>
+        <v>23.8986666666666</v>
       </c>
       <c r="F50" s="4">
-        <v>8.4141521988012197E-2</v>
+        <v>8.4015218081938195E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>258.46744448887398</v>
+        <v>259.694275424203</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D442E8-22C2-4021-BA0F-E3823A833ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC971CC-AC80-445E-9513-FCB9AD7E19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$51</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1082,16 +1082,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$51</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>3.5445015465715899E-3</c:v>
                 </c:pt>
@@ -1235,6 +1238,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.29669288160103802</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.30331082390925901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2048,15 +2054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>14953</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>22915</xdr:rowOff>
+      <xdr:colOff>25996</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>287464</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>298507</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>79788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2085,8 +2091,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G50" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G51" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2397,10 +2403,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S50"/>
+  <dimension ref="B2:S51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2442,8 +2449,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L22 &amp; " -&gt; " &amp; TEXT(L23,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 621%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L45 &amp; " -&gt; " &amp; TEXT(L46,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 620%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2671,7 +2678,7 @@
         <v>0.15257376984149301</v>
       </c>
       <c r="G13" s="3">
-        <v>3.6101337752259499</v>
+        <v>3.6101337752259601</v>
       </c>
       <c r="S13" s="24"/>
     </row>
@@ -2735,7 +2742,7 @@
         <v>6.2936756937072902</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="13">
         <v>45313</v>
       </c>
@@ -2755,7 +2762,7 @@
         <v>7.4485486601535102</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="13">
         <v>45314</v>
       </c>
@@ -2772,14 +2779,10 @@
         <v>0.15512728389084701</v>
       </c>
       <c r="G18" s="3">
-        <v>8.7591490666227791</v>
-      </c>
-      <c r="J18" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.4278093968520838E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+        <v>8.7591490666227898</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="13">
         <v>45315</v>
       </c>
@@ -2798,15 +2801,8 @@
       <c r="G19" s="3">
         <v>10.210836467399201</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.12327436002546603</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="13">
         <v>45316</v>
       </c>
@@ -2825,15 +2821,8 @@
       <c r="G20" s="3">
         <v>11.8055130906969</v>
       </c>
-      <c r="I20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.714278476535743</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="13">
         <v>45317</v>
       </c>
@@ -2852,11 +2841,8 @@
       <c r="G21" s="3">
         <v>13.5772571651053</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="13">
         <v>45320</v>
       </c>
@@ -2875,14 +2861,8 @@
       <c r="G22" s="3">
         <v>15.5674871171781</v>
       </c>
-      <c r="J22" s="14">
-        <v>250</v>
-      </c>
-      <c r="L22" s="14">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="13">
         <v>45321</v>
       </c>
@@ -2901,19 +2881,8 @@
       <c r="G23" s="3">
         <v>17.812885373242398</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="21">
-        <f>POWER(1+J18,J22)-1</f>
-        <v>2.8701101981887067</v>
-      </c>
-      <c r="L23" s="21">
-        <f>POWER(1+J18,L22)-1</f>
-        <v>6.2123378744266136</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="13">
         <v>45322</v>
       </c>
@@ -2932,22 +2901,8 @@
       <c r="G24" s="3">
         <v>20.286730192858901</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="20">
-        <f>POWER(1+J18*M24,J22)-1</f>
-        <v>28.066040396488397</v>
-      </c>
-      <c r="L24" s="20">
-        <f>POWER(1+J18*M24,L22)-1</f>
-        <v>135.94411517725899</v>
-      </c>
-      <c r="M24">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="13">
         <v>45323</v>
       </c>
@@ -2967,7 +2922,7 @@
         <v>22.944904087877699</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="13">
         <v>45324</v>
       </c>
@@ -2986,11 +2941,8 @@
       <c r="G26" s="3">
         <v>25.840180602959801</v>
       </c>
-      <c r="I26" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="13">
         <v>45327</v>
       </c>
@@ -3009,11 +2961,8 @@
       <c r="G27" s="3">
         <v>29.161025945246902</v>
       </c>
-      <c r="I27" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="13">
         <v>45328</v>
       </c>
@@ -3030,13 +2979,10 @@
         <v>0.120290641307965</v>
       </c>
       <c r="G28" s="3">
-        <v>32.789115098706802</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+        <v>32.789115098706901</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="13">
         <v>45329</v>
       </c>
@@ -3056,7 +3002,7 @@
         <v>36.820228374359502</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="13">
         <v>45330</v>
       </c>
@@ -3076,7 +3022,7 @@
         <v>41.193297283187199</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="13">
         <v>45331</v>
       </c>
@@ -3093,10 +3039,10 @@
         <v>0.113391077539004</v>
       </c>
       <c r="G31" s="3">
-        <v>45.977640727051302</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+        <v>45.977640727051401</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="13">
         <v>45334</v>
       </c>
@@ -3113,10 +3059,10 @@
         <v>0.11081307930645</v>
       </c>
       <c r="G32" s="3">
-        <v>51.183377754567999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+        <v>51.183377754568099</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="13">
         <v>45335</v>
       </c>
@@ -3136,7 +3082,7 @@
         <v>56.701350698127101</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="13">
         <v>45336</v>
       </c>
@@ -3156,7 +3102,7 @@
         <v>62.6694057732484</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="13">
         <v>45337</v>
       </c>
@@ -3173,10 +3119,10 @@
         <v>0.10172252003011301</v>
       </c>
       <c r="G35" s="3">
-        <v>69.146018177323</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+        <v>69.1460181773231</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="13">
         <v>45338</v>
       </c>
@@ -3193,10 +3139,10 @@
         <v>0.10170224088604</v>
       </c>
       <c r="G36" s="3">
-        <v>76.280025415189698</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+        <v>76.280025415189797</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="13">
         <v>45342</v>
       </c>
@@ -3213,10 +3159,10 @@
         <v>9.9203827178679593E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>83.946499700842196</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+        <v>83.946499700842296</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="13">
         <v>45343</v>
       </c>
@@ -3233,10 +3179,10 @@
         <v>9.7037944455708902E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>92.189533420519396</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+        <v>92.189533420519496</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="13">
         <v>45344</v>
       </c>
@@ -3256,7 +3202,7 @@
         <v>101.106338177228</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="13">
         <v>45345</v>
       </c>
@@ -3276,7 +3222,7 @@
         <v>110.62663166757901</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="13">
         <v>45348</v>
       </c>
@@ -3295,8 +3241,12 @@
       <c r="G41" s="3">
         <v>120.990777531785</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="J41" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.421195090104098E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="13">
         <v>45349</v>
       </c>
@@ -3313,10 +3263,17 @@
         <v>9.4023312006719498E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>132.46075446959799</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+        <v>132.46075446959901</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.12247563800456079</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="13">
         <v>45350</v>
       </c>
@@ -3335,8 +3292,15 @@
       <c r="G43" s="3">
         <v>144.67822052446601</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.675150862153966</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="13">
         <v>45351</v>
       </c>
@@ -3355,8 +3319,11 @@
       <c r="G44" s="3">
         <v>157.69903860382399</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I44" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="13">
         <v>45352</v>
       </c>
@@ -3375,8 +3342,14 @@
       <c r="G45" s="3">
         <v>171.54277994603399</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="J45" s="14">
+        <v>250</v>
+      </c>
+      <c r="L45" s="14">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="13">
         <v>45355</v>
       </c>
@@ -3395,8 +3368,19 @@
       <c r="G46" s="3">
         <v>186.31724275204999</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I46" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="21">
+        <f>POWER(1+J41,J45)-1</f>
+        <v>2.8637504323744265</v>
+      </c>
+      <c r="L46" s="21">
+        <f>POWER(1+J41,L45)-1</f>
+        <v>6.1950404083863688</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="13">
         <v>45356</v>
       </c>
@@ -3413,10 +3397,24 @@
         <v>8.7371352006786404E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>202.68340350547999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+        <v>202.68340350548101</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="20">
+        <f>POWER(1+J41*M47,J45)-1</f>
+        <v>27.947732193153385</v>
+      </c>
+      <c r="L47" s="20">
+        <f>POWER(1+J41*M47,L45)-1</f>
+        <v>135.13106349663738</v>
+      </c>
+      <c r="M47">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="13">
         <v>45357</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v>220.47473054261999</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.4">
       <c r="B49" s="13">
         <v>45358</v>
       </c>
@@ -3455,8 +3453,11 @@
       <c r="G49" s="3">
         <v>239.48949781856101</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I49" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.4">
       <c r="B50" s="13">
         <v>45359</v>
       </c>
@@ -3474,6 +3475,32 @@
       </c>
       <c r="G50" s="3">
         <v>259.694275424203</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B51" s="13">
+        <v>45362</v>
+      </c>
+      <c r="C51" s="23">
+        <v>5.1037083662007904E-3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.30331082390925901</v>
+      </c>
+      <c r="E51" s="5">
+        <v>23.7970253718285</v>
+      </c>
+      <c r="F51" s="4">
+        <v>8.4136981001110098E-2</v>
+      </c>
+      <c r="G51" s="3">
+        <v>281.62830472266802</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC971CC-AC80-445E-9513-FCB9AD7E19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCAF0BD-E045-49BC-858C-2EABAAFF7DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1189,58 +1189,58 @@
                   <c:v>0.18881151549143901</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.195097999822513</c:v>
+                  <c:v>0.19509079576732699</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20130683082638701</c:v>
+                  <c:v>0.20129261985410299</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.20762056389550301</c:v>
+                  <c:v>0.20759950766264201</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.21386964875047801</c:v>
+                  <c:v>0.213842039004185</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.22009799723246301</c:v>
+                  <c:v>0.220064026016077</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.226439142416789</c:v>
+                  <c:v>0.22639879027020299</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.23259624762773701</c:v>
+                  <c:v>0.23254997634890301</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.238783084524924</c:v>
+                  <c:v>0.23873098428429301</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.244982650731323</c:v>
+                  <c:v>0.244924807566162</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.251439218247755</c:v>
+                  <c:v>0.25137548637190299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.25797192617704801</c:v>
+                  <c:v>0.25790235487098501</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26448365603134599</c:v>
+                  <c:v>0.26440831211320398</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.27083863759538401</c:v>
+                  <c:v>0.27076178204180801</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.27717398751295902</c:v>
+                  <c:v>0.27709563903587803</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28357275254881997</c:v>
+                  <c:v>0.28349292484654398</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.29008747730023599</c:v>
+                  <c:v>0.29000618061484201</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.29669288160103802</c:v>
+                  <c:v>0.29661014221637899</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.30331082390925901</c:v>
+                  <c:v>0.30322555966458198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,7 +2407,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="I2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;L45 &amp; " -&gt; " &amp; TEXT(L46,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 620%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 619%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -3087,19 +3087,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.2880412488894501E-3</v>
+        <v>5.2819813688399003E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.195097999822513</v>
+        <v>0.19509079576732699</v>
       </c>
       <c r="E34" s="5">
-        <v>25.1353711790393</v>
+        <v>25.1279069767441</v>
       </c>
       <c r="F34" s="4">
-        <v>0.10343007577663101</v>
+        <v>0.103312265892502</v>
       </c>
       <c r="G34" s="3">
-        <v>62.6694057732484</v>
+        <v>62.662607983808599</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
@@ -3107,19 +3107,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.1952484271556099E-3</v>
+        <v>5.1894166608432296E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.20130683082638701</v>
+        <v>0.20129261985410299</v>
       </c>
       <c r="E35" s="5">
-        <v>25.093123209169001</v>
+        <v>25.085836909871201</v>
       </c>
       <c r="F35" s="4">
-        <v>0.10172252003011301</v>
+        <v>0.101609006947803</v>
       </c>
       <c r="G35" s="3">
-        <v>69.1460181773231</v>
+        <v>69.131302360750794</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
@@ -3127,19 +3127,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.2557206095072799E-3</v>
+        <v>5.25008453752539E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.20762056389550301</v>
+        <v>0.20759950766264201</v>
       </c>
       <c r="E36" s="5">
-        <v>25.433833560709399</v>
+        <v>25.426430517711101</v>
       </c>
       <c r="F36" s="4">
-        <v>0.10170224088604</v>
+        <v>0.101594168181149</v>
       </c>
       <c r="G36" s="3">
-        <v>76.280025415189797</v>
+        <v>76.256233687551898</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
@@ -3147,19 +3147,19 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.1747088794321201E-3</v>
+        <v>5.1693722148207603E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.21386964875047801</v>
+        <v>0.213842039004185</v>
       </c>
       <c r="E37" s="5">
-        <v>25.245059288537501</v>
+        <v>25.238157894736801</v>
       </c>
       <c r="F37" s="4">
-        <v>9.9203827178679593E-2</v>
+        <v>9.9102739084360306E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>83.946499700842296</v>
+        <v>83.912538057329698</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
@@ -3167,19 +3167,19 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.1309862540807301E-3</v>
+        <v>5.1258621896116598E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.22009799723246301</v>
+        <v>0.220064026016077</v>
       </c>
       <c r="E38" s="5">
-        <v>24.902813299232701</v>
+        <v>24.8965517241379</v>
       </c>
       <c r="F38" s="4">
-        <v>9.7037944455708902E-2</v>
+        <v>9.6942591877216294E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>92.189533420519496</v>
+        <v>92.144179579480095</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
@@ -3187,19 +3187,19 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.1972425155273599E-3</v>
+        <v>5.1921572303144899E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.226439142416789</v>
+        <v>0.22639879027020299</v>
       </c>
       <c r="E39" s="5">
-        <v>24.867665418227201</v>
+        <v>24.861596009974999</v>
       </c>
       <c r="F39" s="4">
-        <v>9.5684616387887098E-2</v>
+        <v>9.5593210227174097E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>101.106338177228</v>
+        <v>101.048130719459</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
@@ -3207,19 +3207,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.0203104238948698E-3</v>
+        <v>5.0156491734180599E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.23259624762773701</v>
+        <v>0.23254997634890301</v>
       </c>
       <c r="E40" s="5">
-        <v>25.110047846889898</v>
+        <v>25.1039426523297</v>
       </c>
       <c r="F40" s="4">
-        <v>9.3239006121511495E-2</v>
+        <v>9.3154344077753401E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>110.62663166757901</v>
+        <v>110.55435740099099</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
@@ -3227,23 +3227,23 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.0193539929186204E-3</v>
+        <v>5.0148132359708704E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.238783084524924</v>
+        <v>0.23873098428429301</v>
       </c>
       <c r="E41" s="5">
-        <v>25.0757575757575</v>
+        <v>25.069848661233902</v>
       </c>
       <c r="F41" s="4">
-        <v>9.2846534105498202E-2</v>
+        <v>9.2764497250306693E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>120.990777531785</v>
+        <v>120.902641281375</v>
       </c>
       <c r="J41" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>5.421195090104098E-3</v>
+        <v>5.4198530419319992E-3</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
@@ -3251,26 +3251,26 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>5.0045615603287697E-3</v>
+        <v>5.0001359136482102E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.244982650731323</v>
+        <v>0.244924807566162</v>
       </c>
       <c r="E42" s="5">
-        <v>25.094640820980601</v>
+        <v>25.088838268792699</v>
       </c>
       <c r="F42" s="4">
-        <v>9.4023312006719498E-2</v>
+        <v>9.3941710142811996E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>132.46075446959901</v>
+        <v>132.354383874273</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J42" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>0.12247563800456079</v>
+        <v>0.12243800789437125</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
@@ -3278,26 +3278,26 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.1860702738629498E-3</v>
+        <v>5.1815810613915804E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.251439218247755</v>
+        <v>0.25137548637190299</v>
       </c>
       <c r="E43" s="5">
-        <v>24.7138121546961</v>
+        <v>24.708609271523098</v>
       </c>
       <c r="F43" s="4">
-        <v>9.1543511075011394E-2</v>
+        <v>9.1467168210133898E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>144.67822052446601</v>
+        <v>144.55193173565999</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>2</v>
       </c>
       <c r="J43" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>25.675150862153966</v>
+        <v>25.670171713863613</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
@@ -3305,19 +3305,19 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.2201559884305299E-3</v>
+        <v>5.2157554388450799E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.25797192617704801</v>
+        <v>0.25790235487098501</v>
       </c>
       <c r="E44" s="5">
-        <v>24.509129967776499</v>
+        <v>24.504291845493501</v>
       </c>
       <c r="F44" s="4">
-        <v>8.9380677718886095E-2</v>
+        <v>8.9308785227230597E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>157.69903860382399</v>
+        <v>157.55099794644801</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>0</v>
@@ -3328,19 +3328,19 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.1763713631408402E-3</v>
+        <v>5.1720685767269103E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.26448365603134599</v>
+        <v>0.26440831211320398</v>
       </c>
       <c r="E45" s="5">
-        <v>24.5021231422505</v>
+        <v>24.497348886532301</v>
       </c>
       <c r="F45" s="4">
-        <v>8.72326730142957E-2</v>
+        <v>8.7163896982993094E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>171.54277994603399</v>
+        <v>171.370920798003</v>
       </c>
       <c r="J45" s="14">
         <v>250</v>
@@ -3354,30 +3354,30 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.0257522378610404E-3</v>
+        <v>5.0248561858830696E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.27083863759538401</v>
+        <v>0.27076178204180801</v>
       </c>
       <c r="E46" s="5">
-        <v>24.181181181181099</v>
+        <v>24.162162162162101</v>
       </c>
       <c r="F46" s="4">
-        <v>8.5627824071438499E-2</v>
+        <v>8.5571598733265405E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>186.31724275204999</v>
+        <v>186.12097606581301</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J46" s="21">
         <f>POWER(1+J41,J45)-1</f>
-        <v>2.8637504323744265</v>
+        <v>2.8624613016089104</v>
       </c>
       <c r="L46" s="21">
         <f>POWER(1+J41,L45)-1</f>
-        <v>6.1950404083863688</v>
+        <v>6.1915357905333863</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
@@ -3385,30 +3385,30 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>4.9851725704235803E-3</v>
+        <v>4.9842992475689499E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.27717398751295902</v>
+        <v>0.27709563903587803</v>
       </c>
       <c r="E47" s="5">
-        <v>24.413658536585299</v>
+        <v>24.395121951219501</v>
       </c>
       <c r="F47" s="4">
-        <v>8.7371352006786404E-2</v>
+        <v>8.7316552872313297E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>202.68340350548101</v>
+        <v>202.45973466598301</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>4</v>
       </c>
       <c r="J47" s="20">
         <f>POWER(1+J41*M47,J45)-1</f>
-        <v>27.947732193153385</v>
+        <v>27.923785958285713</v>
       </c>
       <c r="L47" s="20">
         <f>POWER(1+J41*M47,L45)-1</f>
-        <v>135.13106349663738</v>
+        <v>134.96668305792429</v>
       </c>
       <c r="M47">
         <v>2.5</v>
@@ -3419,19 +3419,19 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>5.0100965870136099E-3</v>
+        <v>5.0092456783387097E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.28357275254881997</v>
+        <v>0.28349292484654398</v>
       </c>
       <c r="E48" s="5">
-        <v>24.3688212927756</v>
+        <v>24.350760456273701</v>
       </c>
       <c r="F48" s="4">
-        <v>8.7347946523589196E-2</v>
+        <v>8.7294553830780303E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>220.47473054261999</v>
+        <v>220.22066142617899</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.4">
@@ -3439,19 +3439,19 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.0754620168421902E-3</v>
+        <v>5.0746331687625598E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.29008747730023599</v>
+        <v>0.29000618061484201</v>
       </c>
       <c r="E49" s="5">
-        <v>23.999074074073999</v>
+        <v>23.981481481481399</v>
       </c>
       <c r="F49" s="4">
-        <v>8.5855245107893205E-2</v>
+        <v>8.5803236670083105E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>239.48949781856101</v>
+        <v>239.20211019484199</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>6</v>
@@ -3462,19 +3462,19 @@
         <v>45359</v>
       </c>
       <c r="C50" s="23">
-        <v>5.1201212452861499E-3</v>
+        <v>5.1193255511297097E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>0.29669288160103802</v>
+        <v>0.29661014221637899</v>
       </c>
       <c r="E50" s="5">
-        <v>23.8986666666666</v>
+        <v>23.8817777777777</v>
       </c>
       <c r="F50" s="4">
-        <v>8.4015218081938195E-2</v>
+        <v>8.3965289981640504E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>259.694275424203</v>
+        <v>259.370750031554</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>7</v>
@@ -3485,19 +3485,19 @@
         <v>45362</v>
       </c>
       <c r="C51" s="23">
-        <v>5.1037083662007904E-3</v>
+        <v>5.1020867667244604E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>0.30331082390925901</v>
+        <v>0.30322555966458198</v>
       </c>
       <c r="E51" s="5">
-        <v>23.7970253718285</v>
+        <v>23.717162872154098</v>
       </c>
       <c r="F51" s="4">
-        <v>8.4136981001110098E-2</v>
+        <v>8.3652013960932095E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>281.62830472266802</v>
+        <v>281.15128764821202</v>
       </c>
       <c r="I51" s="22" t="s">
         <v>8</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCAF0BD-E045-49BC-858C-2EABAAFF7DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551877F-A68C-4CD1-B698-A58875E409DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$52</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1085,16 +1085,19 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$52</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>3.5445015465715899E-3</c:v>
                 </c:pt>
@@ -1241,6 +1244,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.30322555966458198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.31003140445030503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,15 +2060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>25996</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>83654</xdr:rowOff>
+      <xdr:colOff>9431</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>298507</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>79788</xdr:rowOff>
+      <xdr:colOff>281942</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>135005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2091,8 +2097,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G51" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G52" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2403,11 +2409,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S51"/>
+  <dimension ref="B2:S52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T47" sqref="T47"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2449,8 +2455,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L45 &amp; " -&gt; " &amp; TEXT(L46,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 619%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L46 &amp; " -&gt; " &amp; TEXT(L47,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 618%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2779,7 +2785,7 @@
         <v>0.15512728389084701</v>
       </c>
       <c r="G18" s="3">
-        <v>8.7591490666227898</v>
+        <v>8.7591490666227791</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -3119,7 +3125,7 @@
         <v>0.101609006947803</v>
       </c>
       <c r="G35" s="3">
-        <v>69.131302360750794</v>
+        <v>69.131302360750695</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
@@ -3179,7 +3185,7 @@
         <v>9.6942591877216294E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>92.144179579480095</v>
+        <v>92.144179579479996</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
@@ -3199,7 +3205,7 @@
         <v>9.5593210227174097E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>101.048130719459</v>
+        <v>101.048130719458</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
@@ -3219,7 +3225,7 @@
         <v>9.3154344077753401E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>110.55435740099099</v>
+        <v>110.55435740099</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
@@ -3239,11 +3245,7 @@
         <v>9.2764497250306693E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>120.902641281375</v>
-      </c>
-      <c r="J41" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.4198530419319992E-3</v>
+        <v>120.902641281374</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
@@ -3265,12 +3267,9 @@
       <c r="G42" s="3">
         <v>132.354383874273</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.12243800789437125</v>
+      <c r="J42" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.4159021337221551E-3</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
@@ -3292,12 +3291,12 @@
       <c r="G43" s="3">
         <v>144.55193173565999</v>
       </c>
-      <c r="I43" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.670171713863613</v>
+      <c r="I43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.12163415881740405</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
@@ -3319,8 +3318,12 @@
       <c r="G44" s="3">
         <v>157.55099794644801</v>
       </c>
-      <c r="I44" s="18" t="s">
-        <v>0</v>
+      <c r="I44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.625991166008198</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
@@ -3342,11 +3345,8 @@
       <c r="G45" s="3">
         <v>171.370920798003</v>
       </c>
-      <c r="J45" s="14">
-        <v>250</v>
-      </c>
-      <c r="L45" s="14">
-        <v>365</v>
+      <c r="I45" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
@@ -3368,16 +3368,11 @@
       <c r="G46" s="3">
         <v>186.12097606581301</v>
       </c>
-      <c r="I46" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="21">
-        <f>POWER(1+J41,J45)-1</f>
-        <v>2.8624613016089104</v>
-      </c>
-      <c r="L46" s="21">
-        <f>POWER(1+J41,L45)-1</f>
-        <v>6.1915357905333863</v>
+      <c r="J46" s="14">
+        <v>250</v>
+      </c>
+      <c r="L46" s="14">
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
@@ -3399,19 +3394,16 @@
       <c r="G47" s="3">
         <v>202.45973466598301</v>
       </c>
-      <c r="I47" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="20">
-        <f>POWER(1+J41*M47,J45)-1</f>
-        <v>27.923785958285713</v>
-      </c>
-      <c r="L47" s="20">
-        <f>POWER(1+J41*M47,L45)-1</f>
-        <v>134.96668305792429</v>
-      </c>
-      <c r="M47">
-        <v>2.5</v>
+      <c r="I47" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="21">
+        <f>POWER(1+J42,J46)-1</f>
+        <v>2.8586686654818045</v>
+      </c>
+      <c r="L47" s="21">
+        <f>POWER(1+J42,L46)-1</f>
+        <v>6.1812282885274241</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.35">
@@ -3433,8 +3425,22 @@
       <c r="G48" s="3">
         <v>220.22066142617899</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.4">
+      <c r="I48" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="20">
+        <f>POWER(1+J42*M48,J46)-1</f>
+        <v>27.85340417613055</v>
+      </c>
+      <c r="L48" s="20">
+        <f>POWER(1+J42*M48,L46)-1</f>
+        <v>134.48390531224294</v>
+      </c>
+      <c r="M48">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="13">
         <v>45358</v>
       </c>
@@ -3452,9 +3458,6 @@
       </c>
       <c r="G49" s="3">
         <v>239.20211019484199</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.4">
@@ -3477,10 +3480,10 @@
         <v>259.370750031554</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.4">
       <c r="B51" s="13">
         <v>45362</v>
       </c>
@@ -3497,9 +3500,32 @@
         <v>8.3652013960932095E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>281.15128764821202</v>
+        <v>281.151287648211</v>
       </c>
       <c r="I51" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B52" s="13">
+        <v>45363</v>
+      </c>
+      <c r="C52" s="23">
+        <v>5.2223076314397701E-3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.31003140445030503</v>
+      </c>
+      <c r="E52" s="5">
+        <v>23.461144321092998</v>
+      </c>
+      <c r="F52" s="4">
+        <v>8.2245554046012095E-2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>304.35697662563399</v>
+      </c>
+      <c r="I52" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551877F-A68C-4CD1-B698-A58875E409DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D47164C-A614-4699-BFB4-9D5097D555A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,148 +1105,148 @@
                   <c:v>7.2492636376126898E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1454278812466301E-2</c:v>
+                  <c:v>1.15101751827542E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6356186476402301E-2</c:v>
+                  <c:v>1.6462245328300502E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1730369901672202E-2</c:v>
+                  <c:v>2.1881705721834298E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6874882502432699E-2</c:v>
+                  <c:v>2.70652403714906E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3338270438030899E-2</c:v>
+                  <c:v>3.35690737103191E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.02887029967684E-2</c:v>
+                  <c:v>4.0560200067579703E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7652181037006698E-2</c:v>
+                  <c:v>4.7963532607942602E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4791948493403103E-2</c:v>
+                  <c:v>5.5137599181469897E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1736106609050899E-2</c:v>
+                  <c:v>6.2113877502055902E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8691621939553194E-2</c:v>
+                  <c:v>6.9100173113923302E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.59109503614743E-2</c:v>
+                  <c:v>7.6350302097105194E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3129716443033505E-2</c:v>
+                  <c:v>8.3599663099557603E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0024694568890007E-2</c:v>
+                  <c:v>9.0522265851174802E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6747375080235204E-2</c:v>
+                  <c:v>9.7270932452511394E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.103381704703591</c:v>
+                  <c:v>0.103929466706457</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.109862527900376</c:v>
+                  <c:v>0.110433168589</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.116231037459834</c:v>
+                  <c:v>0.116823518036985</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12258741634569199</c:v>
+                  <c:v>0.12320136972218999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.128946324521724</c:v>
+                  <c:v>0.12958009639455001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13539629066244999</c:v>
+                  <c:v>0.13604867421037001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14149743743017801</c:v>
+                  <c:v>0.142166979993712</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14742496590306101</c:v>
+                  <c:v>0.14811073042872799</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.153370853437064</c:v>
+                  <c:v>0.154072446929127</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.15922919372527899</c:v>
+                  <c:v>0.159945934817429</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.165018439736318</c:v>
+                  <c:v>0.16574989842802601</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17094884796354001</c:v>
+                  <c:v>0.17169501449091601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.176801318372449</c:v>
+                  <c:v>0.17756172916247201</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.18261243264951699</c:v>
+                  <c:v>0.18338668244591599</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18881151549143901</c:v>
+                  <c:v>0.18959058017633801</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.19509079576732699</c:v>
+                  <c:v>0.195879331274072</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20129261985410299</c:v>
+                  <c:v>0.20209022892213699</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.20759950766264201</c:v>
+                  <c:v>0.208409208923589</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.213842039004185</c:v>
+                  <c:v>0.21466334223607</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.220064026016077</c:v>
+                  <c:v>0.22089663896591899</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.22639879027020299</c:v>
+                  <c:v>0.22724289540460699</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.23254997634890301</c:v>
+                  <c:v>0.233404700700585</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.23873098428429301</c:v>
+                  <c:v>0.239596245311022</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.244924807566162</c:v>
+                  <c:v>0.24580049899679801</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.25137548637190299</c:v>
+                  <c:v>0.25226215989136203</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.25790235487098501</c:v>
+                  <c:v>0.258800042038143</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26440831211320398</c:v>
+                  <c:v>0.26531687255418201</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.27076178204180801</c:v>
+                  <c:v>0.271680445073189</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.27709563903587803</c:v>
+                  <c:v>0.27802420374136599</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28349292484654398</c:v>
+                  <c:v>0.284431413469596</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.29000618061484201</c:v>
+                  <c:v>0.29095474884811801</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.29661014221637899</c:v>
+                  <c:v>0.29756879921563301</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.30322555966458198</c:v>
+                  <c:v>0.30419424968588399</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.31003140445030503</c:v>
+                  <c:v>0.31101143167509299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2413,7 +2413,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W37" sqref="W37"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="I2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;L46 &amp; " -&gt; " &amp; TEXT(L47,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 618%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 622%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2512,19 +2512,19 @@
         <v>45294</v>
       </c>
       <c r="C5" s="23">
-        <v>4.1747513020435299E-3</v>
+        <v>4.23024538112213E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.1454278812466301E-2</v>
+        <v>1.15101751827542E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>25.035714285714199</v>
+        <v>24.566265060240902</v>
       </c>
       <c r="F5" s="4">
-        <v>0.12274386153840799</v>
+        <v>0.12455523896338599</v>
       </c>
       <c r="G5" s="3">
-        <v>0.35823936764806302</v>
+        <v>0.360430681457521</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
@@ -2532,19 +2532,19 @@
         <v>45295</v>
       </c>
       <c r="C6" s="23">
-        <v>4.8463956963939597E-3</v>
+        <v>4.89571955581335E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.6356186476402301E-2</v>
+        <v>1.6462245328300502E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>26.453703703703699</v>
+        <v>26.1028037383177</v>
       </c>
       <c r="F6" s="4">
-        <v>0.159992342556673</v>
+        <v>0.16174554636313401</v>
       </c>
       <c r="G6" s="3">
-        <v>0.57554726583077098</v>
+        <v>0.58047428531904</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
@@ -2552,19 +2552,19 @@
         <v>45296</v>
       </c>
       <c r="C7" s="23">
-        <v>5.2876968692456101E-3</v>
+        <v>5.3316888240973496E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.1730369901672202E-2</v>
+        <v>2.1881705721834298E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>26.832061068702199</v>
+        <v>26.5461538461538</v>
       </c>
       <c r="F7" s="4">
-        <v>0.17888136935402801</v>
+        <v>0.18046969115471101</v>
       </c>
       <c r="G7" s="3">
-        <v>0.85738331822457603</v>
+        <v>0.865701991468531</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
@@ -2572,19 +2572,19 @@
         <v>45299</v>
       </c>
       <c r="C8" s="23">
-        <v>5.0350980574802801E-3</v>
+        <v>5.0725388473361697E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.6874882502432699E-2</v>
+        <v>2.70652403714906E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>28.190476190476101</v>
+        <v>27.945205479452</v>
       </c>
       <c r="F8" s="4">
-        <v>0.17182672826642101</v>
+        <v>0.17319266794451099</v>
       </c>
       <c r="G8" s="3">
-        <v>1.17653141693173</v>
+        <v>1.1888278969603501</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
@@ -2592,19 +2592,19 @@
         <v>45300</v>
       </c>
       <c r="C9" s="23">
-        <v>6.2942312113500503E-3</v>
+        <v>6.3324442140365797E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.3338270438030899E-2</v>
+        <v>3.35690737103191E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>27.3333333333333</v>
+        <v>27.125</v>
       </c>
       <c r="F9" s="4">
-        <v>0.17233871598386699</v>
+        <v>0.17347473405613201</v>
       </c>
       <c r="G9" s="3">
-        <v>1.5516320466242901</v>
+        <v>1.56853423428019</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
@@ -2612,19 +2612,19 @@
         <v>45301</v>
       </c>
       <c r="C10" s="23">
-        <v>6.7261929201472602E-3</v>
+        <v>6.76406302692835E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>4.02887029967684E-2</v>
+        <v>4.0560200067579703E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>26.189473684210501</v>
+        <v>25.989417989417898</v>
       </c>
       <c r="F10" s="4">
-        <v>0.16269625739163701</v>
+        <v>0.16370311835526899</v>
       </c>
       <c r="G10" s="3">
-        <v>1.9667730308506299</v>
+        <v>1.9890112980341199</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
@@ -2632,19 +2632,19 @@
         <v>45302</v>
       </c>
       <c r="C11" s="23">
-        <v>7.0783024164603296E-3</v>
+        <v>7.1147565896542099E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.7652181037006698E-2</v>
+        <v>4.7963532607942602E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>25.893719806763201</v>
+        <v>25.708737864077602</v>
       </c>
       <c r="F11" s="4">
-        <v>0.16325772486694001</v>
+        <v>0.164184220932967</v>
       </c>
       <c r="G11" s="3">
-        <v>2.4511216460638998</v>
+        <v>2.4797597893616898</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
@@ -2652,19 +2652,19 @@
         <v>45303</v>
       </c>
       <c r="C12" s="23">
-        <v>6.8150170310619798E-3</v>
+        <v>6.8457215831490299E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.4791948493403103E-2</v>
+        <v>5.5137599181469897E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>25.544303797468299</v>
+        <v>25.381355932203299</v>
       </c>
       <c r="F12" s="4">
-        <v>0.15900291527299901</v>
+        <v>0.15979360756116801</v>
       </c>
       <c r="G12" s="3">
-        <v>2.9998600487498202</v>
+        <v>3.0358031595500901</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
@@ -2672,19 +2672,19 @@
         <v>45307</v>
       </c>
       <c r="C13" s="23">
-        <v>6.5834386824495704E-3</v>
+        <v>6.6117237467396102E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.1736106609050899E-2</v>
+        <v>6.2113877502055902E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>24.9678714859437</v>
+        <v>24.810483870967701</v>
       </c>
       <c r="F13" s="4">
-        <v>0.15257376984149301</v>
+        <v>0.15330027885188099</v>
       </c>
       <c r="G13" s="3">
-        <v>3.6101337752259601</v>
+        <v>3.6544929093004201</v>
       </c>
       <c r="S13" s="24"/>
     </row>
@@ -2693,19 +2693,19 @@
         <v>45308</v>
       </c>
       <c r="C14" s="23">
-        <v>6.55107732251558E-3</v>
+        <v>6.5777274545155704E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.8691621939553194E-2</v>
+        <v>6.9100173113923302E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>25.718631178707199</v>
+        <v>25.5725190839694</v>
       </c>
       <c r="F14" s="4">
-        <v>0.15671714688337801</v>
+        <v>0.157420649217798</v>
       </c>
       <c r="G14" s="3">
-        <v>4.3326207872300699</v>
+        <v>4.3872062048621396</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
@@ -2713,19 +2713,19 @@
         <v>45309</v>
       </c>
       <c r="C15" s="23">
-        <v>6.7552961712368199E-3</v>
+        <v>6.7815244684365098E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.59109503614743E-2</v>
+        <v>7.6350302097105194E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>26.0690909090909</v>
+        <v>25.930656934306501</v>
       </c>
       <c r="F15" s="4">
-        <v>0.17060749566517</v>
+        <v>0.17133088238195801</v>
       </c>
       <c r="G15" s="3">
-        <v>5.2424058650714196</v>
+        <v>5.3102009975147304</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
@@ -2733,19 +2733,19 @@
         <v>45310</v>
       </c>
       <c r="C16" s="23">
-        <v>6.7094456833382598E-3</v>
+        <v>6.7351316651541497E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.3129716443033505E-2</v>
+        <v>8.3599663099557603E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>26.2258064516129</v>
+        <v>26.089928057553902</v>
       </c>
       <c r="F16" s="4">
-        <v>0.168407798428826</v>
+        <v>0.169112864123659</v>
       </c>
       <c r="G16" s="3">
-        <v>6.2936756937072902</v>
+        <v>6.37733716140042</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
@@ -2753,19 +2753,19 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.3657916694404102E-3</v>
+        <v>6.3885242745605501E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>9.0024694568890007E-2</v>
+        <v>9.0522265851174802E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>25.8466666666666</v>
+        <v>25.719063545150501</v>
       </c>
       <c r="F17" s="4">
-        <v>0.15833895212020399</v>
+        <v>0.15896082307958501</v>
       </c>
       <c r="G17" s="3">
-        <v>7.4485486601535102</v>
+        <v>7.5500447487122502</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -2773,19 +2773,19 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.1674570721574999E-3</v>
+        <v>6.1884720859588897E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>9.6747375080235204E-2</v>
+        <v>9.7270932452511394E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>26.377777777777698</v>
+        <v>26.257961783439399</v>
       </c>
       <c r="F18" s="4">
-        <v>0.15512728389084701</v>
+        <v>0.155709219396024</v>
       </c>
       <c r="G18" s="3">
-        <v>8.7591490666227791</v>
+        <v>8.8813655423353097</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2793,19 +2793,19 @@
         <v>45315</v>
       </c>
       <c r="C19" s="23">
-        <v>6.0490955110524504E-3</v>
+        <v>6.0682681523913096E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.103381704703591</v>
+        <v>0.103929466706457</v>
       </c>
       <c r="E19" s="5">
-        <v>27.185840707964601</v>
+        <v>27.076923076922998</v>
       </c>
       <c r="F19" s="4">
-        <v>0.14875143220645601</v>
+        <v>0.149273183380838</v>
       </c>
       <c r="G19" s="3">
-        <v>10.210836467399201</v>
+        <v>10.3563884329894</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -2813,19 +2813,19 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>5.8736003770570198E-3</v>
+        <v>5.8914107093692696E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.109862527900376</v>
+        <v>0.110433168589</v>
       </c>
       <c r="E20" s="5">
-        <v>27.456338028169</v>
+        <v>27.353107344632701</v>
       </c>
       <c r="F20" s="4">
-        <v>0.142244214152524</v>
+        <v>0.14272400138101901</v>
       </c>
       <c r="G20" s="3">
-        <v>11.8055130906969</v>
+        <v>11.9772176313828</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
@@ -2833,19 +2833,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>5.7381066567820296E-3</v>
+        <v>5.7548258001919603E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.116231037459834</v>
+        <v>0.116823518036985</v>
       </c>
       <c r="E21" s="5">
-        <v>27.289189189189099</v>
+        <v>27.1897018970189</v>
       </c>
       <c r="F21" s="4">
-        <v>0.13835791364702399</v>
+        <v>0.13880766534995501</v>
       </c>
       <c r="G21" s="3">
-        <v>13.5772571651053</v>
+        <v>13.7785549135333</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -2853,19 +2853,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.6945011136076799E-3</v>
+        <v>5.7107068235946901E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.12258741634569199</v>
+        <v>0.12320136972218999</v>
       </c>
       <c r="E22" s="5">
-        <v>27.350923482849598</v>
+        <v>27.2539682539682</v>
       </c>
       <c r="F22" s="4">
-        <v>0.13652979634858201</v>
+        <v>0.136964003388485</v>
       </c>
       <c r="G22" s="3">
-        <v>15.5674871171781</v>
+        <v>15.802684958787401</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
@@ -2873,19 +2873,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.6645104723620698E-3</v>
+        <v>5.67905884404189E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.128946324521724</v>
+        <v>0.12958009639455001</v>
       </c>
       <c r="E23" s="5">
-        <v>27.128571428571401</v>
+        <v>27.040572792362699</v>
       </c>
       <c r="F23" s="4">
-        <v>0.13553040604064401</v>
+        <v>0.13591973986111</v>
       </c>
       <c r="G23" s="3">
-        <v>17.812885373242398</v>
+        <v>18.086501527353999</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -2893,19 +2893,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.7132620042481003E-3</v>
+        <v>5.7265331041740797E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.13539629066244999</v>
+        <v>0.13604867421037001</v>
       </c>
       <c r="E24" s="5">
-        <v>26.9375</v>
+        <v>26.857451403887602</v>
       </c>
       <c r="F24" s="4">
-        <v>0.13149736313893801</v>
+        <v>0.13184098695724</v>
       </c>
       <c r="G24" s="3">
-        <v>20.286730192858901</v>
+        <v>20.6028847262812</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -2913,19 +2913,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.3735834949477802E-3</v>
+        <v>5.3856017987913198E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14149743743017801</v>
+        <v>0.142166979993712</v>
       </c>
       <c r="E25" s="5">
-        <v>27.3264462809917</v>
+        <v>27.250517598343599</v>
       </c>
       <c r="F25" s="4">
-        <v>0.124874692869012</v>
+        <v>0.12519037642512701</v>
       </c>
       <c r="G25" s="3">
-        <v>22.944904087877699</v>
+        <v>23.307357997033002</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -2933,19 +2933,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.1927654662347498E-3</v>
+        <v>5.2039242414881502E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.14742496590306101</v>
+        <v>0.14811073042872799</v>
       </c>
       <c r="E26" s="5">
-        <v>26.906930693069299</v>
+        <v>26.8333333333333</v>
       </c>
       <c r="F26" s="4">
-        <v>0.12091409948674001</v>
+        <v>0.121208771241148</v>
       </c>
       <c r="G26" s="3">
-        <v>25.840180602959801</v>
+        <v>26.253622991972101</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2953,19 +2953,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.1819401796991396E-3</v>
+        <v>5.1926319843490004E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.153370853437064</v>
+        <v>0.154072446929127</v>
       </c>
       <c r="E27" s="5">
-        <v>26.585551330798399</v>
+        <v>26.514285714285698</v>
       </c>
       <c r="F27" s="4">
-        <v>0.123726639228386</v>
+        <v>0.124014881331173</v>
       </c>
       <c r="G27" s="3">
-        <v>29.161025945246902</v>
+        <v>29.633477813165999</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2973,19 +2973,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.0793205591741497E-3</v>
+        <v>5.0893580415432797E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.15922919372527899</v>
+        <v>0.159945934817429</v>
       </c>
       <c r="E28" s="5">
-        <v>26.3436363636363</v>
+        <v>26.275045537340599</v>
       </c>
       <c r="F28" s="4">
-        <v>0.120290641307965</v>
+        <v>0.120560024014783</v>
       </c>
       <c r="G28" s="3">
-        <v>32.789115098706901</v>
+        <v>33.3266506339777</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -2993,19 +2993,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>4.9940478055379503E-3</v>
+        <v>5.0036501153910796E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.165018439736318</v>
+        <v>0.16574989842802601</v>
       </c>
       <c r="E29" s="5">
-        <v>26.234982332155401</v>
+        <v>26.1681415929203</v>
       </c>
       <c r="F29" s="4">
-        <v>0.119302126258019</v>
+        <v>0.11956213084384699</v>
       </c>
       <c r="G29" s="3">
-        <v>36.820228374359502</v>
+        <v>37.430818128508299</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -3013,19 +3013,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.0903985936603703E-3</v>
+        <v>5.0998212145735803E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.17094884796354001</v>
+        <v>0.17169501449091601</v>
       </c>
       <c r="E30" s="5">
-        <v>25.829642248722301</v>
+        <v>25.764505119453901</v>
       </c>
       <c r="F30" s="4">
-        <v>0.115627776372509</v>
+        <v>0.115872193166207</v>
       </c>
       <c r="G30" s="3">
-        <v>41.193297283187199</v>
+        <v>41.883881310230301</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -3033,19 +3033,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>4.9980581295992E-3</v>
+        <v>5.0070322046257797E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.176801318372449</v>
+        <v>0.17756172916247201</v>
       </c>
       <c r="E31" s="5">
-        <v>25.892739273927301</v>
+        <v>25.829752066115699</v>
       </c>
       <c r="F31" s="4">
-        <v>0.113391077539004</v>
+        <v>0.11362412141053101</v>
       </c>
       <c r="G31" s="3">
-        <v>45.977640727051401</v>
+        <v>46.756524646778701</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3053,19 +3053,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>4.9380589453321298E-3</v>
+        <v>4.9466224480543197E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.18261243264951699</v>
+        <v>0.18338668244591599</v>
       </c>
       <c r="E32" s="5">
-        <v>25.7547770700636</v>
+        <v>25.693779904306201</v>
       </c>
       <c r="F32" s="4">
-        <v>0.11081307930645</v>
+        <v>0.111033834560104</v>
       </c>
       <c r="G32" s="3">
-        <v>51.183377754568099</v>
+        <v>52.0591147035747</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
@@ -3073,19 +3073,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.2418549566861901E-3</v>
+        <v>5.2424941250805799E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.18881151549143901</v>
+        <v>0.18959058017633801</v>
       </c>
       <c r="E33" s="5">
-        <v>25.3888888888888</v>
+        <v>25.361445783132499</v>
       </c>
       <c r="F33" s="4">
-        <v>0.105741965756059</v>
+        <v>0.10602303744196601</v>
       </c>
       <c r="G33" s="3">
-        <v>56.701350698127101</v>
+        <v>57.684603208429401</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
@@ -3093,19 +3093,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.2819813688399003E-3</v>
+        <v>5.2864836041340898E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.19509079576732699</v>
+        <v>0.195879331274072</v>
       </c>
       <c r="E34" s="5">
-        <v>25.1279069767441</v>
+        <v>25.097667638483902</v>
       </c>
       <c r="F34" s="4">
-        <v>0.103312265892502</v>
+        <v>0.103573760814495</v>
       </c>
       <c r="G34" s="3">
-        <v>62.662607983808599</v>
+        <v>63.762788264632803</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
@@ -3113,19 +3113,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.1894166608432296E-3</v>
+        <v>5.1935822332905999E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.20129261985410299</v>
+        <v>0.20209022892213699</v>
       </c>
       <c r="E35" s="5">
-        <v>25.085836909871201</v>
+        <v>25.0559540889526</v>
       </c>
       <c r="F35" s="4">
-        <v>0.101609006947803</v>
+        <v>0.10186148757706801</v>
       </c>
       <c r="G35" s="3">
-        <v>69.131302360750695</v>
+        <v>70.359622216907098</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
@@ -3133,19 +3133,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.25008453752539E-3</v>
+        <v>5.2566603150229997E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.20759950766264201</v>
+        <v>0.208409208923589</v>
       </c>
       <c r="E36" s="5">
-        <v>25.426430517711101</v>
+        <v>25.378415300546401</v>
       </c>
       <c r="F36" s="4">
-        <v>0.101594168181149</v>
+        <v>0.101858751743698</v>
       </c>
       <c r="G36" s="3">
-        <v>76.256233687551898</v>
+        <v>77.628224260823103</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
@@ -3153,19 +3153,19 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.1693722148207603E-3</v>
+        <v>5.1755094766714801E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.213842039004185</v>
+        <v>0.21466334223607</v>
       </c>
       <c r="E37" s="5">
-        <v>25.238157894736801</v>
+        <v>25.191292875989401</v>
       </c>
       <c r="F37" s="4">
-        <v>9.9102739084360306E-2</v>
+        <v>9.9351673529732995E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>83.912538057329698</v>
+        <v>85.440069927807102</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
@@ -3173,19 +3173,19 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.1258621896116598E-3</v>
+        <v>5.1317072913177096E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.220064026016077</v>
+        <v>0.22089663896591899</v>
       </c>
       <c r="E38" s="5">
-        <v>24.8965517241379</v>
+        <v>24.850192061459602</v>
       </c>
       <c r="F38" s="4">
-        <v>9.6942591877216294E-2</v>
+        <v>9.7178663599595594E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>92.144179579479996</v>
+        <v>93.840200404846996</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
@@ -3193,19 +3193,19 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.1921572303144899E-3</v>
+        <v>5.1980292484567802E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.22639879027020299</v>
+        <v>0.22724289540460699</v>
       </c>
       <c r="E39" s="5">
-        <v>24.861596009974999</v>
+        <v>24.81625</v>
       </c>
       <c r="F39" s="4">
-        <v>9.5593210227174097E-2</v>
+        <v>9.5820301792021695E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>101.048130719458</v>
+        <v>102.927817029655</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
@@ -3213,19 +3213,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.0156491734180599E-3</v>
+        <v>5.0208522852743902E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.23254997634890301</v>
+        <v>0.233404700700585</v>
       </c>
       <c r="E40" s="5">
-        <v>25.1039426523297</v>
+        <v>25.061077844311299</v>
       </c>
       <c r="F40" s="4">
-        <v>9.3154344077753401E-2</v>
+        <v>9.3366075238926205E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>110.55435740099</v>
+        <v>112.631149413863</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
@@ -3233,19 +3233,19 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.0148132359708704E-3</v>
+        <v>5.0198808281822398E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.23873098428429301</v>
+        <v>0.239596245311022</v>
       </c>
       <c r="E41" s="5">
-        <v>25.069848661233902</v>
+        <v>25.028004667444499</v>
       </c>
       <c r="F41" s="4">
-        <v>9.2764497250306693E-2</v>
+        <v>9.2969883278223198E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>120.902641281374</v>
+        <v>123.19542411163999</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
@@ -3253,23 +3253,23 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>5.0001359136482102E-3</v>
+        <v>5.0050600824615701E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.244924807566162</v>
+        <v>0.24580049899679801</v>
       </c>
       <c r="E42" s="5">
-        <v>25.088838268792699</v>
+        <v>25.047945205479401</v>
       </c>
       <c r="F42" s="4">
-        <v>9.3941710142811996E-2</v>
+        <v>9.4145329151612694E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>132.354383874273</v>
+        <v>134.887843193755</v>
       </c>
       <c r="J42" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>5.4159021337221551E-3</v>
+        <v>5.4309441201950345E-3</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
@@ -3277,26 +3277,26 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.1815810613915804E-3</v>
+        <v>5.1867541390198798E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.25137548637190299</v>
+        <v>0.25226215989136203</v>
       </c>
       <c r="E43" s="5">
-        <v>24.708609271523098</v>
+        <v>24.6681415929203</v>
       </c>
       <c r="F43" s="4">
-        <v>9.1467168210133898E-2</v>
+        <v>9.1659005785182698E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>144.55193173565999</v>
+        <v>147.34318779918701</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J43" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>0.12163415881740405</v>
+        <v>0.12209928087929295</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
@@ -3304,26 +3304,26 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.2157554388450799E-3</v>
+        <v>5.2208573860825997E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.25790235487098501</v>
+        <v>0.258800042038143</v>
       </c>
       <c r="E44" s="5">
-        <v>24.504291845493501</v>
+        <v>24.464516129032202</v>
       </c>
       <c r="F44" s="4">
-        <v>8.9308785227230597E-2</v>
+        <v>8.9490617917422299E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>157.55099794644801</v>
+        <v>160.61851133917699</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>2</v>
       </c>
       <c r="J44" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>25.625991166008198</v>
+        <v>25.530175364357579</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
@@ -3331,19 +3331,19 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.1720685767269103E-3</v>
+        <v>5.1770180317817997E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.26440831211320398</v>
+        <v>0.26531687255418201</v>
       </c>
       <c r="E45" s="5">
-        <v>24.497348886532301</v>
+        <v>24.458023379383601</v>
       </c>
       <c r="F45" s="4">
-        <v>8.7163896982993094E-2</v>
+        <v>8.7339045362790996E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>171.370920798003</v>
+        <v>174.734117832496</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>0</v>
@@ -3354,19 +3354,19 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.0248561858830696E-3</v>
+        <v>5.0292323267305799E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.27076178204180801</v>
+        <v>0.271680445073189</v>
       </c>
       <c r="E46" s="5">
-        <v>24.162162162162101</v>
+        <v>24.124373119358001</v>
       </c>
       <c r="F46" s="4">
-        <v>8.5571598733265405E-2</v>
+        <v>8.5733715111289799E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>186.12097606581301</v>
+        <v>189.800456626081</v>
       </c>
       <c r="J46" s="14">
         <v>250</v>
@@ -3380,30 +3380,30 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>4.9842992475689499E-3</v>
+        <v>4.98848487664846E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.27709563903587803</v>
+        <v>0.27802420374136599</v>
       </c>
       <c r="E47" s="5">
-        <v>24.395121951219501</v>
+        <v>24.3587487781036</v>
       </c>
       <c r="F47" s="4">
-        <v>8.7316552872313297E-2</v>
+        <v>8.7477960435527705E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>202.45973466598301</v>
+        <v>206.49129142189801</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="21">
         <f>POWER(1+J42,J46)-1</f>
-        <v>2.8586686654818045</v>
+        <v>2.8731279273094672</v>
       </c>
       <c r="L47" s="21">
         <f>POWER(1+J42,L46)-1</f>
-        <v>6.1812282885274241</v>
+        <v>6.2205501537360171</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.35">
@@ -3411,30 +3411,30 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>5.0092456783387097E-3</v>
+        <v>5.01337119396716E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.28349292484654398</v>
+        <v>0.284431413469596</v>
       </c>
       <c r="E48" s="5">
-        <v>24.350760456273701</v>
+        <v>24.315238095238001</v>
       </c>
       <c r="F48" s="4">
-        <v>8.7294553830780303E-2</v>
+        <v>8.7451769010861602E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>220.22066142617899</v>
+        <v>224.63677191109099</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>4</v>
       </c>
       <c r="J48" s="20">
         <f>POWER(1+J42*M48,J46)-1</f>
-        <v>27.85340417613055</v>
+        <v>28.122278373679304</v>
       </c>
       <c r="L48" s="20">
         <f>POWER(1+J42*M48,L46)-1</f>
-        <v>134.48390531224294</v>
+        <v>136.33113499542247</v>
       </c>
       <c r="M48">
         <v>2.5</v>
@@ -3445,19 +3445,19 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.0746331687625598E-3</v>
+        <v>5.0787728407391203E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.29000618061484201</v>
+        <v>0.29095474884811801</v>
       </c>
       <c r="E49" s="5">
-        <v>23.981481481481399</v>
+        <v>23.9461966604823</v>
       </c>
       <c r="F49" s="4">
-        <v>8.5803236670083105E-2</v>
+        <v>8.5953601516802897E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>239.20211019484199</v>
+        <v>244.031065091475</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.4">
@@ -3465,19 +3465,19 @@
         <v>45359</v>
       </c>
       <c r="C50" s="23">
-        <v>5.1193255511297097E-3</v>
+        <v>5.1233789359520299E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>0.29661014221637899</v>
+        <v>0.29756879921563301</v>
       </c>
       <c r="E50" s="5">
-        <v>23.8817777777777</v>
+        <v>23.847729296527099</v>
       </c>
       <c r="F50" s="4">
-        <v>8.3965289981640504E-2</v>
+        <v>8.4106356242893504E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>259.370750031554</v>
+        <v>264.63973514263398</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>6</v>
@@ -3488,19 +3488,19 @@
         <v>45362</v>
       </c>
       <c r="C51" s="23">
-        <v>5.1020867667244604E-3</v>
+        <v>5.1060494628531001E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>0.30322555966458198</v>
+        <v>0.30419424968588399</v>
       </c>
       <c r="E51" s="5">
-        <v>23.717162872154098</v>
+        <v>23.683333333333302</v>
       </c>
       <c r="F51" s="4">
-        <v>8.3652013960932095E-2</v>
+        <v>8.3790426995445894E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>281.151287648211</v>
+        <v>286.89780197719301</v>
       </c>
       <c r="I51" s="22" t="s">
         <v>7</v>
@@ -3511,19 +3511,19 @@
         <v>45363</v>
       </c>
       <c r="C52" s="23">
-        <v>5.2223076314397701E-3</v>
+        <v>5.2271216430002602E-3</v>
       </c>
       <c r="D52" s="2">
-        <v>0.31003140445030503</v>
+        <v>0.31101143167509299</v>
       </c>
       <c r="E52" s="5">
-        <v>23.461144321092998</v>
+        <v>23.4575835475578</v>
       </c>
       <c r="F52" s="4">
-        <v>8.2245554046012095E-2</v>
+        <v>8.2463954770804607E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>304.35697662563399</v>
+        <v>310.638993298054</v>
       </c>
       <c r="I52" s="22" t="s">
         <v>8</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D47164C-A614-4699-BFB4-9D5097D555A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F9FF5-6320-4166-AD90-DE1406322C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$53</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1088,16 +1088,19 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45363</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$53</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>3.5445015465715899E-3</c:v>
                 </c:pt>
@@ -1247,6 +1250,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.31101143167509299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.31784587633890199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2061,14 +2067,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9431</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138872</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>281942</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>135005</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2097,8 +2103,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G52" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G53" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2409,11 +2415,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S52"/>
+  <dimension ref="B2:S53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:G52"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2455,8 +2461,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L46 &amp; " -&gt; " &amp; TEXT(L47,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 622%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L47 &amp; " -&gt; " &amp; TEXT(L48,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 621%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2652,7 +2658,7 @@
         <v>45303</v>
       </c>
       <c r="C12" s="23">
-        <v>6.8457215831490299E-3</v>
+        <v>6.8457215831490203E-3</v>
       </c>
       <c r="D12" s="2">
         <v>5.5137599181469897E-2</v>
@@ -2765,7 +2771,7 @@
         <v>0.15896082307958501</v>
       </c>
       <c r="G17" s="3">
-        <v>7.5500447487122502</v>
+        <v>7.5500447487122404</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -3013,7 +3019,7 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.0998212145735803E-3</v>
+        <v>5.0998212145735699E-3</v>
       </c>
       <c r="D30" s="2">
         <v>0.17169501449091601</v>
@@ -3068,7 +3074,7 @@
         <v>52.0591147035747</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="13">
         <v>45335</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>57.684603208429401</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="13">
         <v>45336</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>63.762788264632803</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="13">
         <v>45337</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>70.359622216907098</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="13">
         <v>45338</v>
       </c>
@@ -3148,7 +3154,7 @@
         <v>77.628224260823103</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="13">
         <v>45342</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>85.440069927807102</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="13">
         <v>45343</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>93.840200404846996</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="13">
         <v>45344</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>102.927817029655</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="13">
         <v>45345</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>112.631149413863</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="13">
         <v>45348</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>123.19542411163999</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="13">
         <v>45349</v>
       </c>
@@ -3267,12 +3273,8 @@
       <c r="G42" s="3">
         <v>134.887843193755</v>
       </c>
-      <c r="J42" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.4309441201950345E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" s="13">
         <v>45350</v>
       </c>
@@ -3286,20 +3288,17 @@
         <v>24.6681415929203</v>
       </c>
       <c r="F43" s="4">
-        <v>9.1659005785182698E-2</v>
+        <v>9.1659005785182601E-2</v>
       </c>
       <c r="G43" s="3">
         <v>147.34318779918701</v>
       </c>
-      <c r="I43" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J43" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.12209928087929295</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J43" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.4266728309183519E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="13">
         <v>45351</v>
       </c>
@@ -3318,15 +3317,15 @@
       <c r="G44" s="3">
         <v>160.61851133917699</v>
       </c>
-      <c r="I44" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.530175364357579</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.12130641022196899</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="13">
         <v>45352</v>
       </c>
@@ -3345,11 +3344,15 @@
       <c r="G45" s="3">
         <v>174.734117832496</v>
       </c>
-      <c r="I45" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I45" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.48771962948598</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="13">
         <v>45355</v>
       </c>
@@ -3368,14 +3371,11 @@
       <c r="G46" s="3">
         <v>189.800456626081</v>
       </c>
-      <c r="J46" s="14">
-        <v>250</v>
-      </c>
-      <c r="L46" s="14">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I46" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="13">
         <v>45356</v>
       </c>
@@ -3394,19 +3394,14 @@
       <c r="G47" s="3">
         <v>206.49129142189801</v>
       </c>
-      <c r="I47" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="21">
-        <f>POWER(1+J42,J46)-1</f>
-        <v>2.8731279273094672</v>
-      </c>
-      <c r="L47" s="21">
-        <f>POWER(1+J42,L46)-1</f>
-        <v>6.2205501537360171</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J47" s="14">
+        <v>250</v>
+      </c>
+      <c r="L47" s="14">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48" s="13">
         <v>45357</v>
       </c>
@@ -3425,22 +3420,19 @@
       <c r="G48" s="3">
         <v>224.63677191109099</v>
       </c>
-      <c r="I48" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="20">
-        <f>POWER(1+J42*M48,J46)-1</f>
-        <v>28.122278373679304</v>
-      </c>
-      <c r="L48" s="20">
-        <f>POWER(1+J42*M48,L46)-1</f>
-        <v>136.33113499542247</v>
-      </c>
-      <c r="M48">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="21">
+        <f>POWER(1+J43,J47)-1</f>
+        <v>2.8690166297667825</v>
+      </c>
+      <c r="L48" s="21">
+        <f>POWER(1+J43,L47)-1</f>
+        <v>6.2093626253999776</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="13">
         <v>45358</v>
       </c>
@@ -3459,8 +3451,22 @@
       <c r="G49" s="3">
         <v>244.031065091475</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.4">
+      <c r="I49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="20">
+        <f>POWER(1+J43*M49,J47)-1</f>
+        <v>28.045676756399224</v>
+      </c>
+      <c r="L49" s="20">
+        <f>POWER(1+J43*M49,L47)-1</f>
+        <v>135.80406109430805</v>
+      </c>
+      <c r="M49">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="13">
         <v>45359</v>
       </c>
@@ -3479,11 +3485,8 @@
       <c r="G50" s="3">
         <v>264.63973514263398</v>
       </c>
-      <c r="I50" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B51" s="13">
         <v>45362</v>
       </c>
@@ -3503,10 +3506,10 @@
         <v>286.89780197719301</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B52" s="13">
         <v>45363</v>
       </c>
@@ -3526,6 +3529,29 @@
         <v>310.638993298054</v>
       </c>
       <c r="I52" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B53" s="13">
+        <v>45364</v>
+      </c>
+      <c r="C53" s="23">
+        <v>5.2131083670842E-3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.31784587633890199</v>
+      </c>
+      <c r="E53" s="5">
+        <v>23.364932885906001</v>
+      </c>
+      <c r="F53" s="4">
+        <v>8.1662877355771005E-2</v>
+      </c>
+      <c r="G53" s="3">
+        <v>336.08833018702899</v>
+      </c>
+      <c r="I53" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38F9FF5-6320-4166-AD90-DE1406322C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D796DE-CD8E-4024-B464-3E87BE66BCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$54</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1091,168 +1091,174 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$54</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>3.5445015465715899E-3</c:v>
+                  <c:v>3.62633206792217E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2492636376126898E-3</c:v>
+                  <c:v>7.4132207105428397E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.15101751827542E-2</c:v>
+                  <c:v>1.1747033828872501E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6462245328300502E-2</c:v>
+                  <c:v>1.6827428985685101E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1881705721834298E-2</c:v>
+                  <c:v>2.23748430634109E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.70652403714906E-2</c:v>
+                  <c:v>2.7669318612353101E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.35690737103191E-2</c:v>
+                  <c:v>3.4289528931541399E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0560200067579703E-2</c:v>
+                  <c:v>4.1398088347855501E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7963532607942602E-2</c:v>
+                  <c:v>4.8916621961470501E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5137599181469897E-2</c:v>
+                  <c:v>5.6322216041937399E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2113877502055902E-2</c:v>
+                  <c:v>6.3539541340701805E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.9100173113923302E-2</c:v>
+                  <c:v>7.0722288893147994E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6350302097105194E-2</c:v>
+                  <c:v>7.8261862395355403E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3599663099557603E-2</c:v>
+                  <c:v>8.5799275733514604E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0522265851174802E-2</c:v>
+                  <c:v>9.30242091115078E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7270932452511394E-2</c:v>
+                  <c:v>0.100093183711833</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.103929466706457</c:v>
+                  <c:v>0.10704964269066999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.110433168589</c:v>
+                  <c:v>0.11385114092913701</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.116823518036985</c:v>
+                  <c:v>0.120526306833907</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12320136972218999</c:v>
+                  <c:v>0.12713611310432499</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12958009639455001</c:v>
+                  <c:v>0.13373198158546001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13604867421037001</c:v>
+                  <c:v>0.140412934125628</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.142166979993712</c:v>
+                  <c:v>0.146824887365826</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14811073042872799</c:v>
+                  <c:v>0.15307542473838301</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.154072446929127</c:v>
+                  <c:v>0.15933487857627801</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.159945934817429</c:v>
+                  <c:v>0.165496792864395</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.16574989842802601</c:v>
+                  <c:v>0.17155635162956101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17169501449091601</c:v>
+                  <c:v>0.17777500524748199</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.17756172916247201</c:v>
+                  <c:v>0.18390650405648701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.18338668244591599</c:v>
+                  <c:v>0.18999627489725701</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18959058017633801</c:v>
+                  <c:v>0.196465289596198</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.195879331274072</c:v>
+                  <c:v>0.203015820176522</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20209022892213699</c:v>
+                  <c:v>0.20948399167586099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.208409208923589</c:v>
+                  <c:v>0.21606460244578299</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.21466334223607</c:v>
+                  <c:v>0.222564417331863</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.22089663896591899</c:v>
+                  <c:v>0.22903223117485999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.22724289540460699</c:v>
+                  <c:v>0.23561271175356699</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.233404700700585</c:v>
+                  <c:v>0.24200972025390699</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.239596245311022</c:v>
+                  <c:v>0.24844049237615501</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.24580049899679801</c:v>
+                  <c:v>0.25489899778833802</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.25226215989136203</c:v>
+                  <c:v>0.261631677991639</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.258800042038143</c:v>
+                  <c:v>0.26843802178519699</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26531687255418201</c:v>
+                  <c:v>0.27521603944353801</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.271680445073189</c:v>
+                  <c:v>0.28183629641875502</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.27802420374136599</c:v>
+                  <c:v>0.28843707317605499</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.284431413469596</c:v>
+                  <c:v>0.295099143329697</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.29095474884811801</c:v>
+                  <c:v>0.301871650187721</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.29756879921563301</c:v>
+                  <c:v>0.30873074665816802</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.30419424968588399</c:v>
+                  <c:v>0.31559834092858302</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.31101143167509299</c:v>
+                  <c:v>0.32266802165506597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.31784587633890199</c:v>
+                  <c:v>0.32973912927492599</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.33693864915272598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,15 +2072,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9431</xdr:colOff>
+      <xdr:colOff>3910</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>11872</xdr:rowOff>
+      <xdr:rowOff>116785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>281942</xdr:colOff>
+      <xdr:colOff>276421</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>8006</xdr:rowOff>
+      <xdr:rowOff>112919</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2103,8 +2109,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G53" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G54" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2415,11 +2421,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S53"/>
+  <dimension ref="B2:S54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U56" sqref="U56"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2461,8 +2467,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L47 &amp; " -&gt; " &amp; TEXT(L48,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 621%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L48 &amp; " -&gt; " &amp; TEXT(L49,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 668%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2478,19 +2484,19 @@
         <v>45289</v>
       </c>
       <c r="C3" s="23">
-        <v>3.54450154657155E-3</v>
+        <v>3.6263320679221899E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>3.5445015465715899E-3</v>
+        <v>3.62633206792217E-3</v>
       </c>
       <c r="E3" s="5">
-        <v>22.6</v>
+        <v>19.0416666666666</v>
       </c>
       <c r="F3" s="4">
-        <v>9.45037611160435E-2</v>
+        <v>9.1328857175509398E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>9.45037611160435E-2</v>
+        <v>9.1328857175509301E-2</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
@@ -2498,19 +2504,19 @@
         <v>45293</v>
       </c>
       <c r="C4" s="23">
-        <v>3.6916769364305998E-3</v>
+        <v>3.7732057456263501E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>7.2492636376126898E-3</v>
+        <v>7.4132207105428397E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>24.85</v>
+        <v>23.775862068965498</v>
       </c>
       <c r="F4" s="4">
-        <v>0.105295409838495</v>
+        <v>0.105909080672404</v>
       </c>
       <c r="G4" s="3">
-        <v>0.20974998321253199</v>
+        <v>0.20691049315023299</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
@@ -2518,19 +2524,19 @@
         <v>45294</v>
       </c>
       <c r="C5" s="23">
-        <v>4.23024538112213E-3</v>
+        <v>4.3019220209089999E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.15101751827542E-2</v>
+        <v>1.1747033828872501E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>24.566265060240902</v>
+        <v>23.790123456790099</v>
       </c>
       <c r="F5" s="4">
-        <v>0.12455523896338599</v>
+        <v>0.12547020892161401</v>
       </c>
       <c r="G5" s="3">
-        <v>0.360430681457521</v>
+        <v>0.35834180487548201</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
@@ -2538,19 +2544,19 @@
         <v>45295</v>
       </c>
       <c r="C6" s="23">
-        <v>4.89571955581335E-3</v>
+        <v>5.0214085012795203E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.6462245328300502E-2</v>
+        <v>1.6827428985685101E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>26.1028037383177</v>
+        <v>25.221153846153801</v>
       </c>
       <c r="F6" s="4">
-        <v>0.16174554636313401</v>
+        <v>0.165308150734394</v>
       </c>
       <c r="G6" s="3">
-        <v>0.58047428531904</v>
+        <v>0.58288677670466704</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
@@ -2558,19 +2564,19 @@
         <v>45296</v>
       </c>
       <c r="C7" s="23">
-        <v>5.3316888240973496E-3</v>
+        <v>5.4556101847679696E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.1881705721834298E-2</v>
+        <v>2.23748430634109E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>26.5461538461538</v>
+        <v>25.90625</v>
       </c>
       <c r="F7" s="4">
-        <v>0.18046969115471101</v>
+        <v>0.18425645574699401</v>
       </c>
       <c r="G7" s="3">
-        <v>0.865701991468531</v>
+        <v>0.87454388402905303</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
@@ -2578,19 +2584,19 @@
         <v>45299</v>
       </c>
       <c r="C8" s="23">
-        <v>5.0725388473361697E-3</v>
+        <v>5.1786050731432503E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.70652403714906E-2</v>
+        <v>2.7669318612353101E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>27.945205479452</v>
+        <v>27.923076923076898</v>
       </c>
       <c r="F8" s="4">
-        <v>0.17319266794451099</v>
+        <v>0.176663077066394</v>
       </c>
       <c r="G8" s="3">
-        <v>1.1888278969603501</v>
+        <v>1.2057065746776101</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
@@ -2598,19 +2604,19 @@
         <v>45300</v>
       </c>
       <c r="C9" s="23">
-        <v>6.3324442140365797E-3</v>
+        <v>6.4419655226522696E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.35690737103191E-2</v>
+        <v>3.4289528931541399E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>27.125</v>
+        <v>27.092485549132899</v>
       </c>
       <c r="F9" s="4">
-        <v>0.17347473405613201</v>
+        <v>0.17634822944783199</v>
       </c>
       <c r="G9" s="3">
-        <v>1.56853423428019</v>
+        <v>1.5946790238034501</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
@@ -2618,19 +2624,19 @@
         <v>45301</v>
       </c>
       <c r="C10" s="23">
-        <v>6.76406302692835E-3</v>
+        <v>6.8728912141820496E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>4.0560200067579703E-2</v>
+        <v>4.1398088347855501E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>25.989417989417898</v>
+        <v>25.9408602150537</v>
       </c>
       <c r="F10" s="4">
-        <v>0.16370311835526899</v>
+        <v>0.16621817134269701</v>
       </c>
       <c r="G10" s="3">
-        <v>1.9890112980341199</v>
+        <v>2.0259618263613199</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
@@ -2638,19 +2644,19 @@
         <v>45302</v>
       </c>
       <c r="C11" s="23">
-        <v>7.1147565896542099E-3</v>
+        <v>7.2196537498382804E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.7963532607942602E-2</v>
+        <v>4.8916621961470501E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>25.708737864077602</v>
+        <v>25.660098522167399</v>
       </c>
       <c r="F11" s="4">
-        <v>0.164184220932967</v>
+        <v>0.16649576360978799</v>
       </c>
       <c r="G11" s="3">
-        <v>2.4797597893616898</v>
+        <v>2.52977165129542</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
@@ -2658,19 +2664,19 @@
         <v>45303</v>
       </c>
       <c r="C12" s="23">
-        <v>6.8457215831490203E-3</v>
+        <v>7.0602314096409697E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.5137599181469897E-2</v>
+        <v>5.6322216041937399E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>25.381355932203299</v>
+        <v>25.426724137931</v>
       </c>
       <c r="F12" s="4">
-        <v>0.15979360756116801</v>
+        <v>0.16283498294694701</v>
       </c>
       <c r="G12" s="3">
-        <v>3.0358031595500901</v>
+        <v>3.1045419579407301</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
@@ -2678,19 +2684,19 @@
         <v>45307</v>
       </c>
       <c r="C13" s="23">
-        <v>6.6117237467396102E-3</v>
+        <v>6.8325035573025897E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.2113877502055902E-2</v>
+        <v>6.3539541340701805E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>24.810483870967701</v>
+        <v>24.897119341563702</v>
       </c>
       <c r="F13" s="4">
-        <v>0.15330027885188099</v>
+        <v>0.15663943866813801</v>
       </c>
       <c r="G13" s="3">
-        <v>3.6544929093004201</v>
+        <v>3.7474751062223799</v>
       </c>
       <c r="S13" s="24"/>
     </row>
@@ -2699,19 +2705,19 @@
         <v>45308</v>
       </c>
       <c r="C14" s="23">
-        <v>6.5777274545155704E-3</v>
+        <v>6.7536252985868602E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>6.9100173113923302E-2</v>
+        <v>7.0722288893147994E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>25.5725190839694</v>
+        <v>25.697674418604599</v>
       </c>
       <c r="F14" s="4">
-        <v>0.157420649217798</v>
+        <v>0.15984092974375499</v>
       </c>
       <c r="G14" s="3">
-        <v>4.3872062048621396</v>
+        <v>4.5063159411363003</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
@@ -2719,19 +2725,19 @@
         <v>45309</v>
       </c>
       <c r="C15" s="23">
-        <v>6.7815244684365098E-3</v>
+        <v>7.0415770554298502E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.6350302097105194E-2</v>
+        <v>7.8261862395355403E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>25.930656934306501</v>
+        <v>25.996268656716399</v>
       </c>
       <c r="F15" s="4">
-        <v>0.17133088238195801</v>
+        <v>0.175631410552507</v>
       </c>
       <c r="G15" s="3">
-        <v>5.3102009975147304</v>
+        <v>5.4733979768258303</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
@@ -2739,19 +2745,19 @@
         <v>45310</v>
       </c>
       <c r="C16" s="23">
-        <v>6.7351316651541497E-3</v>
+        <v>6.9903365787369496E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.3599663099557603E-2</v>
+        <v>8.5799275733514604E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>26.089928057553902</v>
+        <v>26.158088235294102</v>
       </c>
       <c r="F16" s="4">
-        <v>0.169112864123659</v>
+        <v>0.17330122235953199</v>
       </c>
       <c r="G16" s="3">
-        <v>6.37733716140042</v>
+        <v>6.5952457590294697</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
@@ -2759,19 +2765,19 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.3885242745605501E-3</v>
+        <v>6.65402302199218E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>9.0522265851174802E-2</v>
+        <v>9.30242091115078E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>25.719063545150501</v>
+        <v>25.931271477663199</v>
       </c>
       <c r="F17" s="4">
-        <v>0.15896082307958501</v>
+        <v>0.163729496015873</v>
       </c>
       <c r="G17" s="3">
-        <v>7.5500447487122404</v>
+        <v>7.8388115192720704</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -2779,19 +2785,19 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.1884720859588897E-3</v>
+        <v>6.4673541001176301E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>9.7270932452511394E-2</v>
+        <v>0.100093183711833</v>
       </c>
       <c r="E18" s="5">
-        <v>26.257961783439399</v>
+        <v>26.501639344262198</v>
       </c>
       <c r="F18" s="4">
-        <v>0.155709219396024</v>
+        <v>0.16087372775892</v>
       </c>
       <c r="G18" s="3">
-        <v>8.8813655423353097</v>
+        <v>9.2607440773358594</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2799,19 +2805,19 @@
         <v>45315</v>
       </c>
       <c r="C19" s="23">
-        <v>6.0682681523913096E-3</v>
+        <v>6.3235179363314497E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.103929466706457</v>
+        <v>0.10704964269066999</v>
       </c>
       <c r="E19" s="5">
-        <v>27.076923076922998</v>
+        <v>27.325227963525801</v>
       </c>
       <c r="F19" s="4">
-        <v>0.149273183380838</v>
+        <v>0.153884887716846</v>
       </c>
       <c r="G19" s="3">
-        <v>10.3563884329894</v>
+        <v>10.839717527567901</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -2819,19 +2825,19 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>5.8914107093692696E-3</v>
+        <v>6.1438060012695001E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.110433168589</v>
+        <v>0.11385114092913701</v>
       </c>
       <c r="E20" s="5">
-        <v>27.353107344632701</v>
+        <v>27.5959302325581</v>
       </c>
       <c r="F20" s="4">
-        <v>0.14272400138101901</v>
+        <v>0.14725990576367901</v>
       </c>
       <c r="G20" s="3">
-        <v>11.9772176313828</v>
+        <v>12.583233214946199</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
@@ -2839,19 +2845,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>5.7548258001919603E-3</v>
+        <v>5.9928707342362603E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.116823518036985</v>
+        <v>0.120526306833907</v>
       </c>
       <c r="E21" s="5">
-        <v>27.1897018970189</v>
+        <v>27.417827298050099</v>
       </c>
       <c r="F21" s="4">
-        <v>0.13880766534995501</v>
+        <v>0.14304495712523199</v>
       </c>
       <c r="G21" s="3">
-        <v>13.7785549135333</v>
+        <v>14.5262462278002</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -2859,19 +2865,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.7107068235946901E-3</v>
+        <v>5.89884077696925E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.12320136972218999</v>
+        <v>0.12713611310432499</v>
       </c>
       <c r="E22" s="5">
-        <v>27.2539682539682</v>
+        <v>27.480978260869499</v>
       </c>
       <c r="F22" s="4">
-        <v>0.136964003388485</v>
+        <v>0.14092319149743901</v>
       </c>
       <c r="G22" s="3">
-        <v>15.802684958787401</v>
+        <v>16.7142543981969</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
@@ -2879,19 +2885,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.67905884404189E-3</v>
+        <v>5.8518828422312397E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.12958009639455001</v>
+        <v>0.13373198158546001</v>
       </c>
       <c r="E23" s="5">
-        <v>27.040572792362699</v>
+        <v>27.303921568627398</v>
       </c>
       <c r="F23" s="4">
-        <v>0.13591973986111</v>
+        <v>0.13978830517006499</v>
       </c>
       <c r="G23" s="3">
-        <v>18.086501527353999</v>
+        <v>19.190499997872202</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -2899,19 +2905,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.7265331041740797E-3</v>
+        <v>5.8928853103583203E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.13604867421037001</v>
+        <v>0.140412934125628</v>
       </c>
       <c r="E24" s="5">
-        <v>26.857451403887602</v>
+        <v>27.135555555555499</v>
       </c>
       <c r="F24" s="4">
-        <v>0.13184098695724</v>
+        <v>0.135659285925089</v>
       </c>
       <c r="G24" s="3">
-        <v>20.6028847262812</v>
+        <v>21.929528810054101</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -2919,19 +2925,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.3856017987913198E-3</v>
+        <v>5.6224837936563301E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.142166979993712</v>
+        <v>0.146824887365826</v>
       </c>
       <c r="E25" s="5">
-        <v>27.250517598343599</v>
+        <v>27.636752136752101</v>
       </c>
       <c r="F25" s="4">
-        <v>0.12519037642512701</v>
+        <v>0.12941846784706301</v>
       </c>
       <c r="G25" s="3">
-        <v>23.307357997033002</v>
+        <v>24.8970332971064</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -2939,19 +2945,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.2039242414881502E-3</v>
+        <v>5.4502979848252897E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.14811073042872799</v>
+        <v>0.15307542473838301</v>
       </c>
       <c r="E26" s="5">
-        <v>26.8333333333333</v>
+        <v>27.229508196721302</v>
       </c>
       <c r="F26" s="4">
-        <v>0.121208771241148</v>
+        <v>0.12550253824341301</v>
       </c>
       <c r="G26" s="3">
-        <v>26.253622991972101</v>
+        <v>28.147176708867399</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2959,19 +2965,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.1926319843490004E-3</v>
+        <v>5.4284860327464398E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.154072446929127</v>
+        <v>0.15933487857627801</v>
       </c>
       <c r="E27" s="5">
-        <v>26.514285714285698</v>
+        <v>26.884086444007799</v>
       </c>
       <c r="F27" s="4">
-        <v>0.124014881331173</v>
+        <v>0.12821970659354101</v>
       </c>
       <c r="G27" s="3">
-        <v>29.633477813165999</v>
+        <v>31.8844191545085</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2979,19 +2985,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.0893580415432797E-3</v>
+        <v>5.31504261795637E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.159945934817429</v>
+        <v>0.165496792864395</v>
       </c>
       <c r="E28" s="5">
-        <v>26.275045537340599</v>
+        <v>26.607879924953</v>
       </c>
       <c r="F28" s="4">
-        <v>0.120560024014783</v>
+        <v>0.124471786366788</v>
       </c>
       <c r="G28" s="3">
-        <v>33.3266506339777</v>
+        <v>35.977601550304499</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -2999,19 +3005,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>5.0036501153910796E-3</v>
+        <v>5.19912092617062E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.16574989842802601</v>
+        <v>0.17155635162956101</v>
       </c>
       <c r="E29" s="5">
-        <v>26.1681415929203</v>
+        <v>26.512727272727201</v>
       </c>
       <c r="F29" s="4">
-        <v>0.11956213084384699</v>
+        <v>0.12264068113005699</v>
       </c>
       <c r="G29" s="3">
-        <v>37.430818128508299</v>
+        <v>40.512559790989698</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -3019,19 +3025,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.0998212145735699E-3</v>
+        <v>5.3080277438396599E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.17169501449091601</v>
+        <v>0.17777500524748199</v>
       </c>
       <c r="E30" s="5">
-        <v>25.764505119453901</v>
+        <v>26.087719298245599</v>
       </c>
       <c r="F30" s="4">
-        <v>0.115872193166207</v>
+        <v>0.119224596848905</v>
       </c>
       <c r="G30" s="3">
-        <v>41.883881310230301</v>
+        <v>45.461877996236502</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -3039,19 +3045,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>5.0070322046257797E-3</v>
+        <v>5.2060018099271497E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.17756172916247201</v>
+        <v>0.18390650405648701</v>
       </c>
       <c r="E31" s="5">
-        <v>25.829752066115699</v>
+        <v>26.144312393887901</v>
       </c>
       <c r="F31" s="4">
-        <v>0.11362412141053101</v>
+        <v>0.11680731487580601</v>
       </c>
       <c r="G31" s="3">
-        <v>46.756524646778701</v>
+        <v>50.888965209064203</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3059,19 +3065,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>4.9466224480543197E-3</v>
+        <v>5.1437937201152997E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.18338668244591599</v>
+        <v>0.18999627489725701</v>
       </c>
       <c r="E32" s="5">
-        <v>25.693779904306201</v>
+        <v>26.0180327868852</v>
       </c>
       <c r="F32" s="4">
-        <v>0.111033834560104</v>
+        <v>0.114205317558481</v>
       </c>
       <c r="G32" s="3">
-        <v>52.0591147035747</v>
+        <v>56.814960958546401</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.35">
@@ -3079,19 +3085,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.2424941250805799E-3</v>
+        <v>5.4361638228652004E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.18959058017633801</v>
+        <v>0.196465289596198</v>
       </c>
       <c r="E33" s="5">
-        <v>25.361445783132499</v>
+        <v>25.658423493044801</v>
       </c>
       <c r="F33" s="4">
-        <v>0.10602303744196601</v>
+        <v>0.108881493513066</v>
       </c>
       <c r="G33" s="3">
-        <v>57.684603208429401</v>
+        <v>63.109940255112598</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.35">
@@ -3099,19 +3105,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.2864836041340898E-3</v>
+        <v>5.4749023120721401E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.195879331274072</v>
+        <v>0.203015820176522</v>
       </c>
       <c r="E34" s="5">
-        <v>25.097667638483902</v>
+        <v>25.378176382660602</v>
       </c>
       <c r="F34" s="4">
-        <v>0.103573760814495</v>
+        <v>0.10627597811693799</v>
       </c>
       <c r="G34" s="3">
-        <v>63.762788264632803</v>
+        <v>69.923286862743197</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.35">
@@ -3119,19 +3125,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.1935822332905999E-3</v>
+        <v>5.3766304572703304E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.20209022892213699</v>
+        <v>0.20948399167586099</v>
       </c>
       <c r="E35" s="5">
-        <v>25.0559540889526</v>
+        <v>25.330882352941099</v>
       </c>
       <c r="F35" s="4">
-        <v>0.10186148757706801</v>
+        <v>0.10447718570986</v>
       </c>
       <c r="G35" s="3">
-        <v>70.359622216907098</v>
+        <v>77.333152275455703</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.35">
@@ -3139,19 +3145,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.2566603150229997E-3</v>
+        <v>5.4408415615350703E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.208409208923589</v>
+        <v>0.21606460244578299</v>
       </c>
       <c r="E36" s="5">
-        <v>25.378415300546401</v>
+        <v>25.589635854341701</v>
       </c>
       <c r="F36" s="4">
-        <v>0.101858751743698</v>
+        <v>0.10455851390448601</v>
       </c>
       <c r="G36" s="3">
-        <v>77.628224260823103</v>
+        <v>85.523550266831194</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.35">
@@ -3159,19 +3165,19 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.1755094766714801E-3</v>
+        <v>5.3449585433273401E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.21466334223607</v>
+        <v>0.222564417331863</v>
       </c>
       <c r="E37" s="5">
-        <v>25.191292875989401</v>
+        <v>25.334682860998601</v>
       </c>
       <c r="F37" s="4">
-        <v>9.9351673529732995E-2</v>
+        <v>0.101740200320539</v>
       </c>
       <c r="G37" s="3">
-        <v>85.440069927807102</v>
+        <v>94.326473603422897</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
@@ -3179,19 +3185,19 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.1317072913177096E-3</v>
+        <v>5.2903665044593696E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.22089663896591899</v>
+        <v>0.22903223117485999</v>
       </c>
       <c r="E38" s="5">
-        <v>24.850192061459602</v>
+        <v>24.956862745098</v>
       </c>
       <c r="F38" s="4">
-        <v>9.7178663599595594E-2</v>
+        <v>9.9330182324037203E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>93.840200404846996</v>
+        <v>103.795269606758</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.35">
@@ -3199,19 +3205,19 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.1980292484567802E-3</v>
+        <v>5.3541969134664599E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.22724289540460699</v>
+        <v>0.23561271175356699</v>
       </c>
       <c r="E39" s="5">
-        <v>24.81625</v>
+        <v>24.919642857142801</v>
       </c>
       <c r="F39" s="4">
-        <v>9.5820301792021695E-2</v>
+        <v>9.7891957449262296E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>102.927817029655</v>
+        <v>114.053883679987</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.35">
@@ -3219,19 +3225,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.0208522852743902E-3</v>
+        <v>5.1771954427865799E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.233404700700585</v>
+        <v>0.24200972025390699</v>
       </c>
       <c r="E40" s="5">
-        <v>25.061077844311299</v>
+        <v>25.123321123321102</v>
       </c>
       <c r="F40" s="4">
-        <v>9.3366075238926205E-2</v>
+        <v>9.5530986417034294E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>112.631149413863</v>
+        <v>125.045094679047</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.35">
@@ -3239,19 +3245,19 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.0198808281822398E-3</v>
+        <v>5.1777148096178501E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.239596245311022</v>
+        <v>0.24844049237615501</v>
       </c>
       <c r="E41" s="5">
-        <v>25.028004667444499</v>
+        <v>25.055952380952299</v>
       </c>
       <c r="F41" s="4">
-        <v>9.2969883278223198E-2</v>
+        <v>9.5154780222260496E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>123.19542411163999</v>
+        <v>137.038887961325</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.35">
@@ -3259,19 +3265,19 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>5.0050600824615701E-3</v>
+        <v>5.1732585186266503E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.24580049899679801</v>
+        <v>0.25489899778833802</v>
       </c>
       <c r="E42" s="5">
-        <v>25.047945205479401</v>
+        <v>25.066433566433499</v>
       </c>
       <c r="F42" s="4">
-        <v>9.4145329151612694E-2</v>
+        <v>9.63813222704515E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>134.887843193755</v>
+        <v>150.343258507781</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.35">
@@ -3279,23 +3285,19 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.1867541390198798E-3</v>
+        <v>5.3651172047838999E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.25226215989136203</v>
+        <v>0.261631677991639</v>
       </c>
       <c r="E43" s="5">
-        <v>24.6681415929203</v>
+        <v>24.5690045248868</v>
       </c>
       <c r="F43" s="4">
-        <v>9.1659005785182601E-2</v>
+        <v>9.3963138284141698E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>147.34318779918701</v>
-      </c>
-      <c r="J43" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.4266728309183519E-3</v>
+        <v>164.56394603531999</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.35">
@@ -3303,26 +3305,23 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.2208573860825997E-3</v>
+        <v>5.3948738861668297E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.258800042038143</v>
+        <v>0.26843802178519699</v>
       </c>
       <c r="E44" s="5">
-        <v>24.464516129032202</v>
+        <v>24.3637362637362</v>
       </c>
       <c r="F44" s="4">
-        <v>8.9490617917422299E-2</v>
+        <v>9.1681261183053697E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>160.61851133917699</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J44" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.12130641022196899</v>
+        <v>179.743057414281</v>
+      </c>
+      <c r="J44" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.6001786958624821E-3</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.35">
@@ -3330,26 +3329,26 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.1770180317817997E-3</v>
+        <v>5.3435938862834804E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.26531687255418201</v>
+        <v>0.27521603944353801</v>
       </c>
       <c r="E45" s="5">
-        <v>24.458023379383601</v>
+        <v>24.3329718004338</v>
       </c>
       <c r="F45" s="4">
-        <v>8.7339045362790996E-2</v>
+        <v>8.9361167492032698E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>174.734117832496</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J45" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.48771962948598</v>
+        <v>195.89446804090099</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.12334734978276669</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.35">
@@ -3357,22 +3356,26 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.0292323267305799E-3</v>
+        <v>5.1914787537542398E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.271680445073189</v>
+        <v>0.28183629641875502</v>
       </c>
       <c r="E46" s="5">
-        <v>24.124373119358001</v>
+        <v>24.043032786885199</v>
       </c>
       <c r="F46" s="4">
-        <v>8.5733715111289799E-2</v>
+        <v>8.7780764163140304E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>189.800456626081</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>0</v>
+        <v>213.178014905026</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.411825534420668</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.35">
@@ -3380,25 +3383,22 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>4.98848487664846E-3</v>
+        <v>5.1494693790003097E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.27802420374136599</v>
+        <v>0.28843707317605499</v>
       </c>
       <c r="E47" s="5">
-        <v>24.3587487781036</v>
+        <v>24.286713286713201</v>
       </c>
       <c r="F47" s="4">
-        <v>8.7477960435527705E-2</v>
+        <v>8.95486985370883E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>206.49129142189801</v>
-      </c>
-      <c r="J47" s="14">
-        <v>250</v>
-      </c>
-      <c r="L47" s="14">
-        <v>365</v>
+        <v>232.35737739502801</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.35">
@@ -3406,30 +3406,25 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>5.01337119396716E-3</v>
+        <v>5.1706600906940197E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.284431413469596</v>
+        <v>0.295099143329697</v>
       </c>
       <c r="E48" s="5">
-        <v>24.315238095238001</v>
+        <v>24.244163424124501</v>
       </c>
       <c r="F48" s="4">
-        <v>8.7451769010861602E-2</v>
+        <v>8.9467559505335803E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>224.63677191109099</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="21">
-        <f>POWER(1+J43,J47)-1</f>
-        <v>2.8690166297667825</v>
-      </c>
-      <c r="L48" s="21">
-        <f>POWER(1+J43,L47)-1</f>
-        <v>6.2093626253999776</v>
+        <v>253.23529244312701</v>
+      </c>
+      <c r="J48" s="14">
+        <v>250</v>
+      </c>
+      <c r="L48" s="14">
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
@@ -3437,33 +3432,30 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.0787728407391203E-3</v>
+        <v>5.2293346751905697E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.29095474884811801</v>
+        <v>0.301871650187721</v>
       </c>
       <c r="E49" s="5">
-        <v>23.9461966604823</v>
+        <v>23.866603595080399</v>
       </c>
       <c r="F49" s="4">
-        <v>8.5953601516802897E-2</v>
+        <v>8.7823257474759095E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>244.031065091475</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="20">
-        <f>POWER(1+J43*M49,J47)-1</f>
-        <v>28.045676756399224</v>
-      </c>
-      <c r="L49" s="20">
-        <f>POWER(1+J43*M49,L47)-1</f>
-        <v>135.80406109430805</v>
-      </c>
-      <c r="M49">
-        <v>2.5</v>
+        <v>275.56306399053102</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="21">
+        <f>POWER(1+J44,J48)-1</f>
+        <v>3.0395730215629175</v>
+      </c>
+      <c r="L49" s="21">
+        <f>POWER(1+J44,L48)-1</f>
+        <v>6.6780294947774097</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
@@ -3471,42 +3463,53 @@
         <v>45359</v>
       </c>
       <c r="C50" s="23">
-        <v>5.1233789359520299E-3</v>
+        <v>5.2686426265279402E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>0.29756879921563301</v>
+        <v>0.30873074665816802</v>
       </c>
       <c r="E50" s="5">
-        <v>23.847729296527099</v>
+        <v>23.769509981851101</v>
       </c>
       <c r="F50" s="4">
-        <v>8.4106356242893504E-2</v>
+        <v>8.5864463499524701E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>264.63973514263398</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>299.31000310386298</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="20">
+        <f>POWER(1+J44*M50,J48)-1</f>
+        <v>31.324854876557126</v>
+      </c>
+      <c r="L50" s="20">
+        <f>POWER(1+J44*M50,L48)-1</f>
+        <v>158.92759719726772</v>
+      </c>
+      <c r="M50">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="13">
         <v>45362</v>
       </c>
       <c r="C51" s="23">
-        <v>5.1060494628531001E-3</v>
+        <v>5.2475226764187996E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>0.30419424968588399</v>
+        <v>0.31559834092858302</v>
       </c>
       <c r="E51" s="5">
-        <v>23.683333333333302</v>
+        <v>23.5522788203753</v>
       </c>
       <c r="F51" s="4">
-        <v>8.3790426995445894E-2</v>
+        <v>8.5419012432046498E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>286.89780197719301</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>6</v>
+        <v>324.96218699245901</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3514,44 +3517,67 @@
         <v>45363</v>
       </c>
       <c r="C52" s="23">
-        <v>5.2271216430002602E-3</v>
+        <v>5.37373794610647E-3</v>
       </c>
       <c r="D52" s="2">
-        <v>0.31101143167509299</v>
+        <v>0.32266802165506597</v>
       </c>
       <c r="E52" s="5">
-        <v>23.4575835475578</v>
+        <v>23.255671902268698</v>
       </c>
       <c r="F52" s="4">
-        <v>8.2463954770804607E-2</v>
+        <v>8.4145184188439498E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>310.638993298054</v>
+        <v>352.390335255406</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B53" s="13">
         <v>45364</v>
       </c>
       <c r="C53" s="23">
-        <v>5.2131083670842E-3</v>
+        <v>5.3460940342476898E-3</v>
       </c>
       <c r="D53" s="2">
-        <v>0.31784587633890199</v>
+        <v>0.32973912927492599</v>
       </c>
       <c r="E53" s="5">
-        <v>23.364932885906001</v>
+        <v>23.229982964224799</v>
       </c>
       <c r="F53" s="4">
-        <v>8.1662877355771005E-2</v>
+        <v>8.3240909363568302E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>336.08833018702899</v>
+        <v>381.80686812236303</v>
       </c>
       <c r="I53" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B54" s="13">
+        <v>45365</v>
+      </c>
+      <c r="C54" s="23">
+        <v>5.4142348068868399E-3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.33693864915272598</v>
+      </c>
+      <c r="E54" s="5">
+        <v>23.146422628951701</v>
+      </c>
+      <c r="F54" s="4">
+        <v>8.3644026907099794E-2</v>
+      </c>
+      <c r="G54" s="3">
+        <v>413.82637609981202</v>
+      </c>
+      <c r="I54" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D796DE-CD8E-4024-B464-3E87BE66BCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733A7C4-6244-40D4-801D-045E25FB240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$55</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1094,16 +1094,19 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45365</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$55</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>3.62633206792217E-3</c:v>
                 </c:pt>
@@ -1259,6 +1262,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.33693864915272598</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.34424175957338898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,15 +2078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3910</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>116785</xdr:rowOff>
+      <xdr:colOff>9431</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>276421</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>112919</xdr:rowOff>
+      <xdr:colOff>281942</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>52179</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2109,8 +2115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G54" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G55" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2421,11 +2427,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S54"/>
+  <dimension ref="B2:S55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X47" sqref="X47"/>
+      <selection pane="bottomLeft" activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2467,8 +2473,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L48 &amp; " -&gt; " &amp; TEXT(L49,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 668%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L49 &amp; " -&gt; " &amp; TEXT(L50,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 667%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2977,7 +2983,7 @@
         <v>0.12821970659354101</v>
       </c>
       <c r="G27" s="3">
-        <v>31.8844191545085</v>
+        <v>31.884419154508599</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -3080,7 +3086,7 @@
         <v>56.814960958546401</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="13">
         <v>45335</v>
       </c>
@@ -3100,7 +3106,7 @@
         <v>63.109940255112598</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="13">
         <v>45336</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>69.923286862743197</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="13">
         <v>45337</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>77.333152275455703</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="13">
         <v>45338</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>85.523550266831194</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="13">
         <v>45342</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>94.326473603422897</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="13">
         <v>45343</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>103.795269606758</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="13">
         <v>45344</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>114.053883679987</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="13">
         <v>45345</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>125.045094679047</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="13">
         <v>45348</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>137.038887961325</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="13">
         <v>45349</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>150.343258507781</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="13">
         <v>45350</v>
       </c>
@@ -3300,12 +3306,12 @@
         <v>164.56394603531999</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="13">
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.3948738861668297E-3</v>
+        <v>5.3948738861668401E-3</v>
       </c>
       <c r="D44" s="2">
         <v>0.26843802178519699</v>
@@ -3319,12 +3325,8 @@
       <c r="G44" s="3">
         <v>179.743057414281</v>
       </c>
-      <c r="J44" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.6001786958624821E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="13">
         <v>45352</v>
       </c>
@@ -3343,15 +3345,12 @@
       <c r="G45" s="3">
         <v>195.89446804090099</v>
       </c>
-      <c r="I45" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.12334734978276669</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J45" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.597582156681674E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="13">
         <v>45355</v>
       </c>
@@ -3370,15 +3369,15 @@
       <c r="G46" s="3">
         <v>213.178014905026</v>
       </c>
-      <c r="I46" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.411825534420668</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I46" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.12265932977671837</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="13">
         <v>45356</v>
       </c>
@@ -3397,11 +3396,15 @@
       <c r="G47" s="3">
         <v>232.35737739502801</v>
       </c>
-      <c r="I47" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.370531120304491</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="13">
         <v>45357</v>
       </c>
@@ -3420,11 +3423,8 @@
       <c r="G48" s="3">
         <v>253.23529244312701</v>
       </c>
-      <c r="J48" s="14">
-        <v>250</v>
-      </c>
-      <c r="L48" s="14">
-        <v>365</v>
+      <c r="I48" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
@@ -3446,16 +3446,11 @@
       <c r="G49" s="3">
         <v>275.56306399053102</v>
       </c>
-      <c r="I49" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="21">
-        <f>POWER(1+J44,J48)-1</f>
-        <v>3.0395730215629175</v>
-      </c>
-      <c r="L49" s="21">
-        <f>POWER(1+J44,L48)-1</f>
-        <v>6.6780294947774097</v>
+      <c r="J49" s="14">
+        <v>250</v>
+      </c>
+      <c r="L49" s="14">
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
@@ -3477,19 +3472,16 @@
       <c r="G50" s="3">
         <v>299.31000310386298</v>
       </c>
-      <c r="I50" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J50" s="20">
-        <f>POWER(1+J44*M50,J48)-1</f>
-        <v>31.324854876557126</v>
-      </c>
-      <c r="L50" s="20">
-        <f>POWER(1+J44*M50,L48)-1</f>
-        <v>158.92759719726772</v>
-      </c>
-      <c r="M50">
-        <v>2.5</v>
+      <c r="I50" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="21">
+        <f>POWER(1+J45,J49)-1</f>
+        <v>3.0369662354097038</v>
+      </c>
+      <c r="L50" s="21">
+        <f>POWER(1+J45,L49)-1</f>
+        <v>6.6707966673488679</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
@@ -3511,8 +3503,22 @@
       <c r="G51" s="3">
         <v>324.96218699245901</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="I51" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="20">
+        <f>POWER(1+J45*M51,J49)-1</f>
+        <v>31.273162411665673</v>
+      </c>
+      <c r="L51" s="20">
+        <f>POWER(1+J45*M51,L49)-1</f>
+        <v>158.55434092504376</v>
+      </c>
+      <c r="M51">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="13">
         <v>45363</v>
       </c>
@@ -3530,9 +3536,6 @@
       </c>
       <c r="G52" s="3">
         <v>352.390335255406</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3555,10 +3558,10 @@
         <v>381.80686812236303</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B54" s="13">
         <v>45365</v>
       </c>
@@ -3578,6 +3581,29 @@
         <v>413.82637609981202</v>
       </c>
       <c r="I54" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B55" s="13">
+        <v>45366</v>
+      </c>
+      <c r="C55" s="23">
+        <v>5.4625621192796597E-3</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.34424175957338898</v>
+      </c>
+      <c r="E55" s="5">
+        <v>23.2232215862632</v>
+      </c>
+      <c r="F55" s="4">
+        <v>8.6882289462205803E-2</v>
+      </c>
+      <c r="G55" s="3">
+        <v>449.86744138467401</v>
+      </c>
+      <c r="I55" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733A7C4-6244-40D4-801D-045E25FB240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B80DCA-002B-4C6B-A938-A757B8D8B71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,160 +1111,160 @@
                   <c:v>3.62633206792217E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4132207105428397E-3</c:v>
+                  <c:v>7.4411102655302904E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1747033828872501E-2</c:v>
+                  <c:v>1.17886907736188E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6827428985685101E-2</c:v>
+                  <c:v>1.6873066048029801E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.23748430634109E-2</c:v>
+                  <c:v>2.2420391200760299E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7669318612353101E-2</c:v>
+                  <c:v>2.7716765044910299E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4289528931541399E-2</c:v>
+                  <c:v>3.4331201999539401E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1398088347855501E-2</c:v>
+                  <c:v>4.1478206429716301E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8916621961470501E-2</c:v>
+                  <c:v>4.9029031126474699E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6322216041937399E-2</c:v>
+                  <c:v>5.6464832114715403E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3539541340701805E-2</c:v>
+                  <c:v>6.3713387615068798E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0722288893147994E-2</c:v>
+                  <c:v>7.0926660538488603E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8261862395355403E-2</c:v>
+                  <c:v>7.8493844738213497E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5799275733514604E-2</c:v>
+                  <c:v>8.6059254848143502E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.30242091115078E-2</c:v>
+                  <c:v>9.3313249173708299E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.100093183711833</c:v>
+                  <c:v>0.100411681557749</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10704964269066999</c:v>
+                  <c:v>0.10739686515250101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11385114092913701</c:v>
+                  <c:v>0.11422736183752399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.120526306833907</c:v>
+                  <c:v>0.12093162182801501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12713611310432499</c:v>
+                  <c:v>0.127570732877791</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.13373198158546001</c:v>
+                  <c:v>0.13420417742711599</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.140412934125628</c:v>
+                  <c:v>0.14091976660362701</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.146824887365826</c:v>
+                  <c:v>0.14736604016291499</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15307542473838301</c:v>
+                  <c:v>0.153650285044938</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15933487857627801</c:v>
+                  <c:v>0.159942561929167</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.165496792864395</c:v>
+                  <c:v>0.16613647470697501</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.17155635162956101</c:v>
+                  <c:v>0.17222763450092099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17777500524748199</c:v>
+                  <c:v>0.17847705511605499</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.18390650405648701</c:v>
+                  <c:v>0.18463888070013301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.18999627489725701</c:v>
+                  <c:v>0.19075842920403799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.196465289596198</c:v>
+                  <c:v>0.19725570183691299</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.203015820176522</c:v>
+                  <c:v>0.20383394079387199</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20948399167586099</c:v>
+                  <c:v>0.21032981441592799</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21606460244578299</c:v>
+                  <c:v>0.216937233501379</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.222564417331863</c:v>
+                  <c:v>0.22346338491811599</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.22903223117485999</c:v>
+                  <c:v>0.22995714773090201</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.23561271175356699</c:v>
+                  <c:v>0.236563270395451</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24200972025390699</c:v>
+                  <c:v>0.24298538022020999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.24844049237615501</c:v>
+                  <c:v>0.249440981646527</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.25489899778833802</c:v>
+                  <c:v>0.25592413307832701</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.261631677991639</c:v>
+                  <c:v>0.26268103726458097</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26843802178519699</c:v>
+                  <c:v>0.26951128846327499</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.27521603944353801</c:v>
+                  <c:v>0.27631321819423699</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28183629641875502</c:v>
+                  <c:v>0.28295663418202999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.28843707317605499</c:v>
+                  <c:v>0.28958034983095199</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.295099143329697</c:v>
+                  <c:v>0.29626274669998098</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.301871650187721</c:v>
+                  <c:v>0.303055287910037</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.30873074665816802</c:v>
+                  <c:v>0.30993772205844</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.31559834092858302</c:v>
+                  <c:v>0.31682860555369602</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.32266802165506597</c:v>
+                  <c:v>0.32392139605648002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.32973912927492599</c:v>
+                  <c:v>0.33101542772692899</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.33693864915272598</c:v>
+                  <c:v>0.33823771309097</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.34424175957338898</c:v>
+                  <c:v>0.34556721012978903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2431,7 +2431,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W59" sqref="W59"/>
+      <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="I2" s="25" t="str">
         <f>"Forecast Annual Cumulative Realized Return: " &amp;L49 &amp; " -&gt; " &amp; TEXT(L50,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 667%</v>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 672%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2510,19 +2510,19 @@
         <v>45293</v>
       </c>
       <c r="C4" s="23">
-        <v>3.7732057456263501E-3</v>
+        <v>3.8009945292567498E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>7.4132207105428397E-3</v>
+        <v>7.4411102655302904E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>23.775862068965498</v>
+        <v>23.932203389830502</v>
       </c>
       <c r="F4" s="4">
-        <v>0.105909080672404</v>
+        <v>0.10714147848022899</v>
       </c>
       <c r="G4" s="3">
-        <v>0.20691049315023299</v>
+        <v>0.20825544444143201</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
@@ -2530,19 +2530,19 @@
         <v>45294</v>
       </c>
       <c r="C5" s="23">
-        <v>4.3019220209089999E-3</v>
+        <v>4.3154686301640098E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.1747033828872501E-2</v>
+        <v>1.17886907736188E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>23.790123456790099</v>
+        <v>23.902439024390201</v>
       </c>
       <c r="F5" s="4">
-        <v>0.12547020892161401</v>
+        <v>0.126118383829083</v>
       </c>
       <c r="G5" s="3">
-        <v>0.35834180487548201</v>
+        <v>0.36063866834707697</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
@@ -2550,19 +2550,19 @@
         <v>45295</v>
       </c>
       <c r="C6" s="23">
-        <v>5.0214085012795203E-3</v>
+        <v>5.0251355058370502E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.6827428985685101E-2</v>
+        <v>1.6873066048029801E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>25.221153846153801</v>
+        <v>25.295238095237998</v>
       </c>
       <c r="F6" s="4">
-        <v>0.165308150734394</v>
+        <v>0.16543493550200999</v>
       </c>
       <c r="G6" s="3">
-        <v>0.58288677670466704</v>
+        <v>0.58573583868661605</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
@@ -2570,19 +2570,19 @@
         <v>45296</v>
       </c>
       <c r="C7" s="23">
-        <v>5.4556101847679696E-3</v>
+        <v>5.4552778886055898E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.23748430634109E-2</v>
+        <v>2.2420391200760299E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>25.90625</v>
+        <v>25.9612403100775</v>
       </c>
       <c r="F7" s="4">
-        <v>0.18425645574699401</v>
+        <v>0.18421276656549801</v>
       </c>
       <c r="G7" s="3">
-        <v>0.87454388402905303</v>
+        <v>0.87784862457313895</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
@@ -2590,19 +2590,19 @@
         <v>45299</v>
       </c>
       <c r="C8" s="23">
-        <v>5.1786050731432503E-3</v>
+        <v>5.1802310377729501E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.7669318612353101E-2</v>
+        <v>2.7716765044910299E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>27.923076923076898</v>
+        <v>27.9583333333333</v>
       </c>
       <c r="F8" s="4">
-        <v>0.176663077066394</v>
+        <v>0.17667667063769699</v>
       </c>
       <c r="G8" s="3">
-        <v>1.2057065746776101</v>
+        <v>1.2096206675243</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
@@ -2610,19 +2610,19 @@
         <v>45300</v>
       </c>
       <c r="C9" s="23">
-        <v>6.4419655226522696E-3</v>
+        <v>6.4360504563141501E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.4289528931541399E-2</v>
+        <v>3.4331201999539401E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>27.092485549132899</v>
+        <v>27.126436781609101</v>
       </c>
       <c r="F9" s="4">
-        <v>0.17634822944783199</v>
+        <v>0.17636128876901699</v>
       </c>
       <c r="G9" s="3">
-        <v>1.5946790238034501</v>
+        <v>1.5993122161395401</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
@@ -2630,19 +2630,19 @@
         <v>45301</v>
       </c>
       <c r="C10" s="23">
-        <v>6.8728912141820496E-3</v>
+        <v>6.9097832651288001E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>4.1398088347855501E-2</v>
+        <v>4.1478206429716301E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>25.9408602150537</v>
+        <v>26.0904255319148</v>
       </c>
       <c r="F10" s="4">
-        <v>0.16621817134269701</v>
+        <v>0.169217188246397</v>
       </c>
       <c r="G10" s="3">
-        <v>2.0259618263613199</v>
+        <v>2.0391605207291801</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
@@ -2650,19 +2650,19 @@
         <v>45302</v>
       </c>
       <c r="C11" s="23">
-        <v>7.2196537498382804E-3</v>
+        <v>7.2501034108464601E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.8916621961470501E-2</v>
+        <v>4.9029031126474699E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>25.660098522167399</v>
+        <v>25.8</v>
       </c>
       <c r="F11" s="4">
-        <v>0.16649576360978799</v>
+        <v>0.16924337333350301</v>
       </c>
       <c r="G11" s="3">
-        <v>2.52977165129542</v>
+        <v>2.5535182993593999</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
@@ -2670,19 +2670,19 @@
         <v>45303</v>
       </c>
       <c r="C12" s="23">
-        <v>7.0602314096409697E-3</v>
+        <v>7.0882699788164796E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.6322216041937399E-2</v>
+        <v>5.6464832114715403E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>25.426724137931</v>
+        <v>25.551282051282001</v>
       </c>
       <c r="F12" s="4">
-        <v>0.16283498294694701</v>
+        <v>0.16527336565928599</v>
       </c>
       <c r="G12" s="3">
-        <v>3.1045419579407301</v>
+        <v>3.14082022862639</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
@@ -2690,19 +2690,19 @@
         <v>45307</v>
       </c>
       <c r="C13" s="23">
-        <v>6.8325035573025897E-3</v>
+        <v>6.8611422548199297E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.3539541340701805E-2</v>
+        <v>6.3713387615068798E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>24.897119341563702</v>
+        <v>25.020408163265301</v>
       </c>
       <c r="F13" s="4">
-        <v>0.15663943866813801</v>
+        <v>0.159018918844647</v>
       </c>
       <c r="G13" s="3">
-        <v>3.7474751062223799</v>
+        <v>3.7992889845126099</v>
       </c>
       <c r="S13" s="24"/>
     </row>
@@ -2711,19 +2711,19 @@
         <v>45308</v>
       </c>
       <c r="C14" s="23">
-        <v>6.7536252985868602E-3</v>
+        <v>6.7812185193913896E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.0722288893147994E-2</v>
+        <v>7.0926660538488603E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>25.697674418604599</v>
+        <v>25.807692307692299</v>
       </c>
       <c r="F14" s="4">
-        <v>0.15984092974375499</v>
+        <v>0.16205850536334501</v>
       </c>
       <c r="G14" s="3">
-        <v>4.5063159411363003</v>
+        <v>4.5770545841494901</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
@@ -2731,19 +2731,19 @@
         <v>45309</v>
       </c>
       <c r="C15" s="23">
-        <v>7.0415770554298502E-3</v>
+        <v>7.0660153291168598E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.8261862395355403E-2</v>
+        <v>7.8493844738213497E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>25.996268656716399</v>
+        <v>26.1</v>
       </c>
       <c r="F15" s="4">
-        <v>0.175631410552507</v>
+        <v>0.17764988721723299</v>
       </c>
       <c r="G15" s="3">
-        <v>5.4733979768258303</v>
+        <v>5.567817702028</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
@@ -2751,19 +2751,19 @@
         <v>45310</v>
       </c>
       <c r="C16" s="23">
-        <v>6.9903365787369496E-3</v>
+        <v>7.0147921073824898E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.5799275733514604E-2</v>
+        <v>8.6059254848143502E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>26.158088235294102</v>
+        <v>26.2591240875912</v>
       </c>
       <c r="F16" s="4">
-        <v>0.17330122235953199</v>
+        <v>0.175307240884576</v>
       </c>
       <c r="G16" s="3">
-        <v>6.5952457590294697</v>
+        <v>6.7192037020034103</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
@@ -2771,19 +2771,19 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.65402302199218E-3</v>
+        <v>6.6791883529217604E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>9.30242091115078E-2</v>
+        <v>9.3313249173708299E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>25.931271477663199</v>
+        <v>26.0273037542662</v>
       </c>
       <c r="F17" s="4">
-        <v>0.163729496015873</v>
+        <v>0.16567076744436901</v>
       </c>
       <c r="G17" s="3">
-        <v>7.8388115192720704</v>
+        <v>7.9980501033737399</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -2791,19 +2791,19 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.4673541001176301E-3</v>
+        <v>6.4925879105610096E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>0.100093183711833</v>
+        <v>0.100411681557749</v>
       </c>
       <c r="E18" s="5">
-        <v>26.501639344262198</v>
+        <v>26.5895765472312</v>
       </c>
       <c r="F18" s="4">
-        <v>0.16087372775892</v>
+        <v>0.16274507650505399</v>
       </c>
       <c r="G18" s="3">
-        <v>9.2607440773358594</v>
+        <v>9.4624384558436194</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2811,19 +2811,19 @@
         <v>45315</v>
       </c>
       <c r="C19" s="23">
-        <v>6.3235179363314497E-3</v>
+        <v>6.3477912056175197E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.10704964269066999</v>
+        <v>0.10739686515250101</v>
       </c>
       <c r="E19" s="5">
-        <v>27.325227963525801</v>
+        <v>27.4018126888217</v>
       </c>
       <c r="F19" s="4">
-        <v>0.153884887716846</v>
+        <v>0.15566277818556901</v>
       </c>
       <c r="G19" s="3">
-        <v>10.839717527567901</v>
+        <v>11.091050692475701</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -2831,19 +2831,19 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>6.1438060012695001E-3</v>
+        <v>6.1680657585059502E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.11385114092913701</v>
+        <v>0.11422736183752399</v>
       </c>
       <c r="E20" s="5">
-        <v>27.5959302325581</v>
+        <v>27.6676300578034</v>
       </c>
       <c r="F20" s="4">
-        <v>0.14725990576367901</v>
+        <v>0.14899901474938301</v>
       </c>
       <c r="G20" s="3">
-        <v>12.583233214946199</v>
+        <v>12.8926053329395</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
@@ -2851,19 +2851,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>5.9928707342362603E-3</v>
+        <v>6.0169586747843996E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.120526306833907</v>
+        <v>0.12093162182801501</v>
       </c>
       <c r="E21" s="5">
-        <v>27.417827298050099</v>
+        <v>27.487534626038698</v>
       </c>
       <c r="F21" s="4">
-        <v>0.14304495712523199</v>
+        <v>0.144735155480718</v>
       </c>
       <c r="G21" s="3">
-        <v>14.5262462278002</v>
+        <v>14.9033537258347</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -2871,19 +2871,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.89884077696925E-3</v>
+        <v>5.9228510646784699E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.12713611310432499</v>
+        <v>0.127570732877791</v>
       </c>
       <c r="E22" s="5">
-        <v>27.480978260869499</v>
+        <v>27.548648648648602</v>
       </c>
       <c r="F22" s="4">
-        <v>0.14092319149743901</v>
+        <v>0.14258374592334699</v>
       </c>
       <c r="G22" s="3">
-        <v>16.7142543981969</v>
+        <v>17.170913472808301</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
@@ -2891,19 +2891,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.8518828422312397E-3</v>
+        <v>5.8829520454074299E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.13373198158546001</v>
+        <v>0.13420417742711599</v>
       </c>
       <c r="E23" s="5">
-        <v>27.303921568627398</v>
+        <v>27.246943765281099</v>
       </c>
       <c r="F23" s="4">
-        <v>0.13978830517006499</v>
+        <v>0.14124348447193899</v>
       </c>
       <c r="G23" s="3">
-        <v>19.190499997872202</v>
+        <v>19.737436607745899</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -2911,19 +2911,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.8928853103583203E-3</v>
+        <v>5.9209702363692603E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.140412934125628</v>
+        <v>0.14091976660362701</v>
       </c>
       <c r="E24" s="5">
-        <v>27.135555555555499</v>
+        <v>27.084257206208399</v>
       </c>
       <c r="F24" s="4">
-        <v>0.135659285925089</v>
+        <v>0.13698810489119001</v>
       </c>
       <c r="G24" s="3">
-        <v>21.929528810054101</v>
+        <v>22.578218748942199</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -2931,19 +2931,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.6224837936563301E-3</v>
+        <v>5.6500673824572602E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.146824887365826</v>
+        <v>0.14736604016291499</v>
       </c>
       <c r="E25" s="5">
-        <v>27.636752136752101</v>
+        <v>27.586353944562799</v>
       </c>
       <c r="F25" s="4">
-        <v>0.12941846784706301</v>
+        <v>0.13070959401292601</v>
       </c>
       <c r="G25" s="3">
-        <v>24.8970332971064</v>
+        <v>25.660118149164401</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -2951,19 +2951,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.4502979848252897E-3</v>
+        <v>5.47710552870355E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.15307542473838301</v>
+        <v>0.153650285044938</v>
       </c>
       <c r="E26" s="5">
-        <v>27.229508196721302</v>
+        <v>27.1820040899795</v>
       </c>
       <c r="F26" s="4">
-        <v>0.12550253824341301</v>
+        <v>0.12674886564912499</v>
       </c>
       <c r="G26" s="3">
-        <v>28.147176708867399</v>
+        <v>29.039257882642602</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2971,19 +2971,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.4284860327464398E-3</v>
+        <v>5.4542325051161397E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.15933487857627801</v>
+        <v>0.159942561929167</v>
       </c>
       <c r="E27" s="5">
-        <v>26.884086444007799</v>
+        <v>26.8392156862745</v>
       </c>
       <c r="F27" s="4">
-        <v>0.12821970659354101</v>
+        <v>0.12940938685441</v>
       </c>
       <c r="G27" s="3">
-        <v>31.884419154508599</v>
+        <v>32.926619826796902</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2991,19 +2991,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.31504261795637E-3</v>
+        <v>5.3398443863521298E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.165496792864395</v>
+        <v>0.16613647470697501</v>
       </c>
       <c r="E28" s="5">
-        <v>26.607879924953</v>
+        <v>26.565543071160999</v>
       </c>
       <c r="F28" s="4">
-        <v>0.124471786366788</v>
+        <v>0.12561501642909101</v>
       </c>
       <c r="G28" s="3">
-        <v>35.977601550304499</v>
+        <v>37.188312733723599</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -3011,19 +3011,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>5.19912092617062E-3</v>
+        <v>5.2233678699367299E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.17155635162956101</v>
+        <v>0.17222763450092099</v>
       </c>
       <c r="E29" s="5">
-        <v>26.512727272727201</v>
+        <v>26.4718693284936</v>
       </c>
       <c r="F29" s="4">
-        <v>0.12264068113005699</v>
+        <v>0.123751962361467</v>
       </c>
       <c r="G29" s="3">
-        <v>40.512559790989698</v>
+        <v>41.914191373795298</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -3031,19 +3031,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.3080277438396599E-3</v>
+        <v>5.3312346776355499E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.17777500524748199</v>
+        <v>0.17847705511605499</v>
       </c>
       <c r="E30" s="5">
-        <v>26.087719298245599</v>
+        <v>26.049036777583101</v>
       </c>
       <c r="F30" s="4">
-        <v>0.119224596848905</v>
+        <v>0.12030293667865601</v>
       </c>
       <c r="G30" s="3">
-        <v>45.461877996236502</v>
+        <v>47.076894621252698</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -3051,19 +3051,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>5.2060018099271497E-3</v>
+        <v>5.2286343270989497E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.18390650405648701</v>
+        <v>0.18463888070013301</v>
       </c>
       <c r="E31" s="5">
-        <v>26.144312393887901</v>
+        <v>26.106779661016901</v>
       </c>
       <c r="F31" s="4">
-        <v>0.11680731487580601</v>
+        <v>0.117855025595739</v>
       </c>
       <c r="G31" s="3">
-        <v>50.888965209064203</v>
+        <v>52.742998267404097</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3071,19 +3071,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>5.1437937201152997E-3</v>
+        <v>5.16575017383244E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.18999627489725701</v>
+        <v>0.19075842920403799</v>
       </c>
       <c r="E32" s="5">
-        <v>26.0180327868852</v>
+        <v>25.981996726677501</v>
       </c>
       <c r="F32" s="4">
-        <v>0.114205317558481</v>
+        <v>0.11522127716908399</v>
       </c>
       <c r="G32" s="3">
-        <v>56.814960958546401</v>
+        <v>58.935335166670299</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
@@ -3091,19 +3091,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.4361638228652004E-3</v>
+        <v>5.4564154017516598E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.196465289596198</v>
+        <v>0.19725570183691299</v>
       </c>
       <c r="E33" s="5">
-        <v>25.658423493044801</v>
+        <v>25.625</v>
       </c>
       <c r="F33" s="4">
-        <v>0.108881493513066</v>
+        <v>0.109847658862022</v>
       </c>
       <c r="G33" s="3">
-        <v>63.109940255112598</v>
+        <v>65.519091417839704</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
@@ -3111,19 +3111,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.4749023120721401E-3</v>
+        <v>5.4944310951008301E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.203015820176522</v>
+        <v>0.20383394079387199</v>
       </c>
       <c r="E34" s="5">
-        <v>25.378176382660602</v>
+        <v>25.346268656716401</v>
       </c>
       <c r="F34" s="4">
-        <v>0.10627597811693799</v>
+        <v>0.10721430746249</v>
       </c>
       <c r="G34" s="3">
-        <v>69.923286862743197</v>
+        <v>72.650889737237506</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
@@ -3131,19 +3131,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.3766304572703304E-3</v>
+        <v>5.3959881026213203E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.20948399167586099</v>
+        <v>0.21032981441592799</v>
       </c>
       <c r="E35" s="5">
-        <v>25.330882352941099</v>
+        <v>25.299559471365601</v>
       </c>
       <c r="F35" s="4">
-        <v>0.10447718570986</v>
+        <v>0.10540299988596399</v>
       </c>
       <c r="G35" s="3">
-        <v>77.333152275455703</v>
+        <v>80.413914459812702</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
@@ -3151,19 +3151,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.4408415615350703E-3</v>
+        <v>5.4591888977305403E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.21606460244578299</v>
+        <v>0.216937233501379</v>
       </c>
       <c r="E36" s="5">
-        <v>25.589635854341701</v>
+        <v>25.5594405594405</v>
       </c>
       <c r="F36" s="4">
-        <v>0.10455851390448601</v>
+        <v>0.105440189604811</v>
       </c>
       <c r="G36" s="3">
-        <v>85.523550266831194</v>
+        <v>88.998213036925193</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
@@ -3171,19 +3171,19 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.3449585433273401E-3</v>
+        <v>5.3627674764782302E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.222564417331863</v>
+        <v>0.22346338491811599</v>
       </c>
       <c r="E37" s="5">
-        <v>25.334682860998601</v>
+        <v>25.305929919137402</v>
       </c>
       <c r="F37" s="4">
-        <v>0.101740200320539</v>
+        <v>0.10259359174818899</v>
       </c>
       <c r="G37" s="3">
-        <v>94.326473603422897</v>
+        <v>98.231452963302104</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
@@ -3191,19 +3191,19 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.2903665044593696E-3</v>
+        <v>5.3076887243507899E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.22903223117485999</v>
+        <v>0.22995714773090201</v>
       </c>
       <c r="E38" s="5">
-        <v>24.956862745098</v>
+        <v>24.929503916449001</v>
       </c>
       <c r="F38" s="4">
-        <v>9.9330182324037203E-2</v>
+        <v>0.100159981876664</v>
       </c>
       <c r="G38" s="3">
-        <v>103.795269606758</v>
+        <v>108.170473493701</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
@@ -3211,19 +3211,19 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.3541969134664599E-3</v>
+        <v>5.3710185568140098E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.23561271175356699</v>
+        <v>0.236563270395451</v>
       </c>
       <c r="E39" s="5">
-        <v>24.919642857142801</v>
+        <v>24.892993630573201</v>
       </c>
       <c r="F39" s="4">
-        <v>9.7891957449262296E-2</v>
+        <v>9.8703504815106105E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>114.053883679987</v>
+        <v>118.94598184985399</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
@@ -3231,19 +3231,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.1771954427865799E-3</v>
+        <v>5.19351494461403E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.24200972025390699</v>
+        <v>0.24298538022020999</v>
       </c>
       <c r="E40" s="5">
-        <v>25.123321123321102</v>
+        <v>25.097560975609699</v>
       </c>
       <c r="F40" s="4">
-        <v>9.5530986417034294E-2</v>
+        <v>9.6310773799009403E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>125.045094679047</v>
+        <v>130.498072175896</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
@@ -3251,19 +3251,19 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.1777148096178501E-3</v>
+        <v>5.1936261914628896E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.24844049237615501</v>
+        <v>0.249440981646527</v>
       </c>
       <c r="E41" s="5">
-        <v>25.055952380952299</v>
+        <v>25.030915576694401</v>
       </c>
       <c r="F41" s="4">
-        <v>9.5154780222260496E-2</v>
+        <v>9.5915543432027905E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>137.038887961325</v>
+        <v>143.11078122891101</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
@@ -3271,19 +3271,19 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>5.1732585186266503E-3</v>
+        <v>5.1888416716215999E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.25489899778833802</v>
+        <v>0.25592413307832701</v>
       </c>
       <c r="E42" s="5">
-        <v>25.066433566433499</v>
+        <v>25.041909196740299</v>
       </c>
       <c r="F42" s="4">
-        <v>9.63813222704515E-2</v>
+        <v>9.71247161207031E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>150.343258507781</v>
+        <v>157.10749994570099</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
@@ -3291,19 +3291,19 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.3651172047838999E-3</v>
+        <v>5.3800257581584901E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.261631677991639</v>
+        <v>0.26268103726458097</v>
       </c>
       <c r="E43" s="5">
-        <v>24.5690045248868</v>
+        <v>24.545762711864398</v>
       </c>
       <c r="F43" s="4">
-        <v>9.3963138284141698E-2</v>
+        <v>9.4687424726347905E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>164.56394603531999</v>
+        <v>172.078291945481</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
@@ -3311,19 +3311,19 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.3948738861668401E-3</v>
+        <v>5.4093242846905698E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.26843802178519699</v>
+        <v>0.26951128846327499</v>
       </c>
       <c r="E44" s="5">
-        <v>24.3637362637362</v>
+        <v>24.341383095499399</v>
       </c>
       <c r="F44" s="4">
-        <v>9.1681261183053697E-2</v>
+        <v>9.2387381247217903E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>179.743057414281</v>
+        <v>188.068542089066</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
@@ -3331,23 +3331,23 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.3435938862834804E-3</v>
+        <v>5.3579119719335397E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.27521603944353801</v>
+        <v>0.27631321819423699</v>
       </c>
       <c r="E45" s="5">
-        <v>24.3329718004338</v>
+        <v>24.3109425785482</v>
       </c>
       <c r="F45" s="4">
-        <v>8.9361167492032698E-2</v>
+        <v>9.0060620874637898E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>195.89446804090099</v>
+        <v>205.096172377469</v>
       </c>
       <c r="J45" s="15">
         <f>AVERAGE(C:C)</f>
-        <v>5.597582156681674E-3</v>
+        <v>5.6162845327232015E-3</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
@@ -3355,26 +3355,26 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.1914787537542398E-3</v>
+        <v>5.2051611572215203E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.28183629641875502</v>
+        <v>0.28295663418202999</v>
       </c>
       <c r="E46" s="5">
-        <v>24.043032786885199</v>
+        <v>24.022517911975399</v>
       </c>
       <c r="F46" s="4">
-        <v>8.7780764163140304E-2</v>
+        <v>8.8443175499346494E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>213.178014905026</v>
+        <v>223.32397232079401</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>1</v>
       </c>
       <c r="J46" s="17">
         <f>AVERAGE(F:F)</f>
-        <v>0.12265932977671837</v>
+        <v>0.123730170343364</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
@@ -3382,26 +3382,26 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>5.1494693790003097E-3</v>
+        <v>5.1628523306592898E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.28843707317605499</v>
+        <v>0.28958034983095199</v>
       </c>
       <c r="E47" s="5">
-        <v>24.286713286713201</v>
+        <v>24.266467065868198</v>
       </c>
       <c r="F47" s="4">
-        <v>8.95486985370883E-2</v>
+        <v>9.01928182387845E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>232.35737739502801</v>
+        <v>243.55638358292501</v>
       </c>
       <c r="I47" s="16" t="s">
         <v>2</v>
       </c>
       <c r="J47" s="19">
         <f>AVERAGE(E:E)</f>
-        <v>25.370531120304491</v>
+        <v>25.375771954595724</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
@@ -3409,19 +3409,19 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>5.1706600906940197E-3</v>
+        <v>5.1818383165545302E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.295099143329697</v>
+        <v>0.29626274669998098</v>
       </c>
       <c r="E48" s="5">
-        <v>24.244163424124501</v>
+        <v>24.2019417475728</v>
       </c>
       <c r="F48" s="4">
-        <v>8.9467559505335803E-2</v>
+        <v>9.0010585938833196E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>253.23529244312701</v>
+        <v>265.56904696430598</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.2293346751905697E-3</v>
+        <v>5.2400959815808801E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.301871650187721</v>
+        <v>0.303055287910037</v>
       </c>
       <c r="E49" s="5">
-        <v>23.866603595080399</v>
+        <v>23.826251180358799</v>
       </c>
       <c r="F49" s="4">
-        <v>8.7823257474759095E-2</v>
+        <v>8.8354518882279007E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>275.56306399053102</v>
+        <v>289.12162685774501</v>
       </c>
       <c r="J49" s="14">
         <v>250</v>
@@ -3458,30 +3458,30 @@
         <v>45359</v>
       </c>
       <c r="C50" s="23">
-        <v>5.2686426265279402E-3</v>
+        <v>5.2817667924447698E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>0.30873074665816802</v>
+        <v>0.30993772205844</v>
       </c>
       <c r="E50" s="5">
-        <v>23.769509981851101</v>
+        <v>23.663644605620998</v>
       </c>
       <c r="F50" s="4">
-        <v>8.5864463499524701E-2</v>
+        <v>8.6268433539316805E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>299.31000310386298</v>
+        <v>314.14996514264101</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J50" s="21">
         <f>POWER(1+J45,J49)-1</f>
-        <v>3.0369662354097038</v>
+        <v>3.0557799120039659</v>
       </c>
       <c r="L50" s="21">
         <f>POWER(1+J45,L49)-1</f>
-        <v>6.6707966673488679</v>
+        <v>6.7230455198711097</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
@@ -3489,30 +3489,30 @@
         <v>45362</v>
       </c>
       <c r="C51" s="23">
-        <v>5.2475226764187996E-3</v>
+        <v>5.2604664933441304E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>0.31559834092858302</v>
+        <v>0.31682860555369602</v>
       </c>
       <c r="E51" s="5">
-        <v>23.5522788203753</v>
+        <v>23.448214285714201</v>
       </c>
       <c r="F51" s="4">
-        <v>8.5419012432046498E-2</v>
+        <v>8.5817248507901997E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>324.96218699245901</v>
+        <v>341.19526801854403</v>
       </c>
       <c r="I51" s="18" t="s">
         <v>4</v>
       </c>
       <c r="J51" s="20">
         <f>POWER(1+J45*M51,J49)-1</f>
-        <v>31.273162411665673</v>
+        <v>31.647340623427773</v>
       </c>
       <c r="L51" s="20">
         <f>POWER(1+J45*M51,L49)-1</f>
-        <v>158.55434092504376</v>
+        <v>161.26236560918576</v>
       </c>
       <c r="M51">
         <v>2.5</v>
@@ -3523,19 +3523,19 @@
         <v>45363</v>
       </c>
       <c r="C52" s="23">
-        <v>5.37373794610647E-3</v>
+        <v>5.3862670304017403E-3</v>
       </c>
       <c r="D52" s="2">
-        <v>0.32266802165506597</v>
+        <v>0.32392139605648002</v>
       </c>
       <c r="E52" s="5">
-        <v>23.255671902268698</v>
+        <v>23.154315605928499</v>
       </c>
       <c r="F52" s="4">
-        <v>8.4145184188439498E-2</v>
+        <v>8.4535156492887301E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>352.390335255406</v>
+        <v>370.122798551617</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3543,19 +3543,19 @@
         <v>45364</v>
       </c>
       <c r="C53" s="23">
-        <v>5.3460940342476898E-3</v>
+        <v>5.3583480798634698E-3</v>
       </c>
       <c r="D53" s="2">
-        <v>0.32973912927492599</v>
+        <v>0.33101542772692899</v>
       </c>
       <c r="E53" s="5">
-        <v>23.229982964224799</v>
+        <v>23.131063829787202</v>
       </c>
       <c r="F53" s="4">
-        <v>8.3240909363568302E-2</v>
+        <v>8.3622358306569694E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>381.80686812236303</v>
+        <v>401.15696218783802</v>
       </c>
       <c r="I53" s="22" t="s">
         <v>6</v>
@@ -3566,19 +3566,19 @@
         <v>45365</v>
       </c>
       <c r="C54" s="23">
-        <v>5.4142348068868399E-3</v>
+        <v>5.4261469954370502E-3</v>
       </c>
       <c r="D54" s="2">
-        <v>0.33693864915272598</v>
+        <v>0.33823771309097</v>
       </c>
       <c r="E54" s="5">
-        <v>23.146422628951701</v>
+        <v>23.049875311720601</v>
       </c>
       <c r="F54" s="4">
-        <v>8.3644026907099794E-2</v>
+        <v>8.4016262476911102E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>413.82637609981202</v>
+        <v>434.94468707992797</v>
       </c>
       <c r="I54" s="22" t="s">
         <v>7</v>
@@ -3589,19 +3589,19 @@
         <v>45366</v>
       </c>
       <c r="C55" s="23">
-        <v>5.4625621192796597E-3</v>
+        <v>5.4769768981402303E-3</v>
       </c>
       <c r="D55" s="2">
-        <v>0.34424175957338898</v>
+        <v>0.34556721012978903</v>
       </c>
       <c r="E55" s="5">
-        <v>23.2232215862632</v>
+        <v>23.141455437448801</v>
       </c>
       <c r="F55" s="4">
-        <v>8.6882289462205803E-2</v>
+        <v>8.7304722950174704E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>449.86744138467401</v>
+        <v>473.00471720704201</v>
       </c>
       <c r="I55" s="22" t="s">
         <v>8</v>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B80DCA-002B-4C6B-A938-A757B8D8B71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8164FC11-8B62-4294-9994-819D019127B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$56</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1097,16 +1097,19 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45366</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$56</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>3.62633206792217E-3</c:v>
                 </c:pt>
@@ -1168,103 +1171,106 @@
                   <c:v>0.127570732877791</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.13420417742711599</c:v>
+                  <c:v>0.134193834988135</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.14091976660362701</c:v>
+                  <c:v>0.140899831008888</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14736604016291499</c:v>
+                  <c:v>0.14733742846690301</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.153650285044938</c:v>
+                  <c:v>0.15361366134836901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.159942561929167</c:v>
+                  <c:v>0.15989821644003099</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.16613647470697501</c:v>
+                  <c:v>0.166084916676352</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.17222763450092099</c:v>
+                  <c:v>0.172169256244848</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17847705511605499</c:v>
+                  <c:v>0.17841178973437599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.18463888070013301</c:v>
+                  <c:v>0.184567080262974</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.19075842920403799</c:v>
+                  <c:v>0.19068036706371899</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.19725570183691299</c:v>
+                  <c:v>0.19717109686270301</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.20383394079387199</c:v>
+                  <c:v>0.203742854545269</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21032981441592799</c:v>
+                  <c:v>0.21023245854768599</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.216937233501379</c:v>
+                  <c:v>0.21683370591168</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.22346338491811599</c:v>
+                  <c:v>0.223353995123592</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.22995714773090201</c:v>
+                  <c:v>0.22984209668178701</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.236563270395451</c:v>
+                  <c:v>0.236442518186782</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24298538022020999</c:v>
+                  <c:v>0.24285937557324699</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.249440981646527</c:v>
+                  <c:v>0.24930978905688</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.25592413307832701</c:v>
+                  <c:v>0.25578780503110599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26268103726458097</c:v>
+                  <c:v>0.262539358375115</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26951128846327499</c:v>
+                  <c:v>0.26936429275233598</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.27631321819423699</c:v>
+                  <c:v>0.27616098990517701</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28295663418202999</c:v>
+                  <c:v>0.282799590794439</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.28958034983095199</c:v>
+                  <c:v>0.28941860689987697</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.29626274669998098</c:v>
+                  <c:v>0.296096339237504</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.303055287910037</c:v>
+                  <c:v>0.30288419622763701</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.30993772205844</c:v>
+                  <c:v>0.30976199807021298</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.31682860555369602</c:v>
+                  <c:v>0.31664829058314797</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.32392139605648002</c:v>
+                  <c:v>0.32373636639862502</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.33101542772692899</c:v>
+                  <c:v>0.33082576403658098</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.33823771309097</c:v>
+                  <c:v>0.338043368394366</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.34556721012978903</c:v>
+                  <c:v>0.345368133771778</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.35267668425732301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,15 +2084,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9431</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56046</xdr:rowOff>
+      <xdr:colOff>31518</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>281942</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>52179</xdr:rowOff>
+      <xdr:colOff>304029</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2115,8 +2121,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G55" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G56" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2427,11 +2433,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S55"/>
+  <dimension ref="B2:S56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U62" sqref="U62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2473,8 +2479,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L49 &amp; " -&gt; " &amp; TEXT(L50,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 672%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L50 &amp; " -&gt; " &amp; TEXT(L51,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 671%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2891,19 +2897,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.8829520454074299E-3</v>
+        <v>5.8737797259431597E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.13420417742711599</v>
+        <v>0.134193834988135</v>
       </c>
       <c r="E23" s="5">
-        <v>27.246943765281099</v>
+        <v>27.365853658536501</v>
       </c>
       <c r="F23" s="4">
-        <v>0.14124348447193899</v>
+        <v>0.141292390316994</v>
       </c>
       <c r="G23" s="3">
-        <v>19.737436607745899</v>
+        <v>19.738325271624699</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -2911,19 +2917,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.9209702363692603E-3</v>
+        <v>5.9125661010345099E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.14091976660362701</v>
+        <v>0.140899831008888</v>
       </c>
       <c r="E24" s="5">
-        <v>27.084257206208399</v>
+        <v>27.1924778761061</v>
       </c>
       <c r="F24" s="4">
-        <v>0.13698810489119001</v>
+        <v>0.137041880944405</v>
       </c>
       <c r="G24" s="3">
-        <v>22.578218748942199</v>
+        <v>22.580344374485001</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -2931,19 +2937,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.6500673824572602E-3</v>
+        <v>5.64256149667556E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14736604016291499</v>
+        <v>0.14733742846690301</v>
       </c>
       <c r="E25" s="5">
-        <v>27.586353944562799</v>
+        <v>27.689361702127599</v>
       </c>
       <c r="F25" s="4">
-        <v>0.13070959401292601</v>
+        <v>0.13077466909150301</v>
       </c>
       <c r="G25" s="3">
-        <v>25.660118149164401</v>
+        <v>25.664056107122001</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -2951,19 +2957,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.47710552870355E-3</v>
+        <v>5.4702589889818196E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.153650285044938</v>
+        <v>0.15361366134836901</v>
       </c>
       <c r="E26" s="5">
-        <v>27.1820040899795</v>
+        <v>27.281632653061202</v>
       </c>
       <c r="F26" s="4">
-        <v>0.12674886564912499</v>
+        <v>0.12681936772115601</v>
       </c>
       <c r="G26" s="3">
-        <v>29.039257882642602</v>
+        <v>29.0455748435087</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2971,19 +2977,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.4542325051161397E-3</v>
+        <v>5.4477120913391198E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.159942561929167</v>
+        <v>0.15989821644003099</v>
       </c>
       <c r="E27" s="5">
-        <v>26.8392156862745</v>
+        <v>26.935420743639899</v>
       </c>
       <c r="F27" s="4">
-        <v>0.12940938685441</v>
+        <v>0.12947178508159199</v>
       </c>
       <c r="G27" s="3">
-        <v>32.926619826796902</v>
+        <v>32.9356290523003</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2991,19 +2997,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.3398443863521298E-3</v>
+        <v>5.3338302866861699E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.16613647470697501</v>
+        <v>0.166084916676352</v>
       </c>
       <c r="E28" s="5">
-        <v>26.565543071160999</v>
+        <v>26.657943925233599</v>
       </c>
       <c r="F28" s="4">
-        <v>0.12561501642909101</v>
+        <v>0.125681707764634</v>
       </c>
       <c r="G28" s="3">
-        <v>37.188312733723599</v>
+        <v>37.200716865660603</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -3011,19 +3017,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>5.2233678699367299E-3</v>
+        <v>5.2177499952902103E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.17222763450092099</v>
+        <v>0.172169256244848</v>
       </c>
       <c r="E29" s="5">
-        <v>26.4718693284936</v>
+        <v>26.561594202898501</v>
       </c>
       <c r="F29" s="4">
-        <v>0.123751962361467</v>
+        <v>0.123819974895132</v>
       </c>
       <c r="G29" s="3">
-        <v>41.914191373795298</v>
+        <v>41.930728668942699</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -3031,19 +3037,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.3312346776355499E-3</v>
+        <v>5.3256246538373403E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.17847705511605499</v>
+        <v>0.17841178973437599</v>
       </c>
       <c r="E30" s="5">
-        <v>26.049036777583101</v>
+        <v>26.136363636363601</v>
       </c>
       <c r="F30" s="4">
-        <v>0.12030293667865601</v>
+        <v>0.120374600916883</v>
       </c>
       <c r="G30" s="3">
-        <v>47.076894621252698</v>
+        <v>47.098497999537699</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -3051,19 +3057,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>5.2286343270989497E-3</v>
+        <v>5.2233782640498201E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.18463888070013301</v>
+        <v>0.184567080262974</v>
       </c>
       <c r="E31" s="5">
-        <v>26.106779661016901</v>
+        <v>26.191201353637901</v>
       </c>
       <c r="F31" s="4">
-        <v>0.117855025595739</v>
+        <v>0.117928527889053</v>
       </c>
       <c r="G31" s="3">
-        <v>52.742998267404097</v>
+        <v>52.770683062297799</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3071,19 +3077,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>5.16575017383244E-3</v>
+        <v>5.1607772177723601E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.19075842920403799</v>
+        <v>0.19068036706371899</v>
       </c>
       <c r="E32" s="5">
-        <v>25.981996726677501</v>
+        <v>26.063725490195999</v>
       </c>
       <c r="F32" s="4">
-        <v>0.11522127716908399</v>
+        <v>0.11529656083538301</v>
       </c>
       <c r="G32" s="3">
-        <v>58.935335166670299</v>
+        <v>58.970257893150098</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
@@ -3091,19 +3097,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.4564154017516598E-3</v>
+        <v>5.4512780915256303E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.19725570183691299</v>
+        <v>0.19717109686270301</v>
       </c>
       <c r="E33" s="5">
-        <v>25.625</v>
+        <v>25.702619414483799</v>
       </c>
       <c r="F33" s="4">
-        <v>0.109847658862022</v>
+        <v>0.109926930390654</v>
       </c>
       <c r="G33" s="3">
-        <v>65.519091417839704</v>
+        <v>65.5626042580801</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
@@ -3111,19 +3117,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.4944310951008301E-3</v>
+        <v>5.4894055659949498E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.20383394079387199</v>
+        <v>0.203742854545269</v>
       </c>
       <c r="E34" s="5">
-        <v>25.346268656716401</v>
+        <v>25.421758569299499</v>
       </c>
       <c r="F34" s="4">
-        <v>0.10721430746249</v>
+        <v>0.10729490444234401</v>
       </c>
       <c r="G34" s="3">
-        <v>72.650889737237506</v>
+        <v>72.704432521384405</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
@@ -3131,19 +3137,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.3959881026213203E-3</v>
+        <v>5.3911879750002598E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.21032981441592799</v>
+        <v>0.21023245854768599</v>
       </c>
       <c r="E35" s="5">
-        <v>25.299559471365601</v>
+        <v>25.373900293255101</v>
       </c>
       <c r="F35" s="4">
-        <v>0.10540299988596399</v>
+        <v>0.10548495279074201</v>
       </c>
       <c r="G35" s="3">
-        <v>80.413914459812702</v>
+        <v>80.479141106371003</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
@@ -3151,19 +3157,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.4591888977305403E-3</v>
+        <v>5.4545284398636804E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.216937233501379</v>
+        <v>0.21683370591168</v>
       </c>
       <c r="E36" s="5">
-        <v>25.5594405594405</v>
+        <v>25.6298882681564</v>
       </c>
       <c r="F36" s="4">
-        <v>0.105440189604811</v>
+        <v>0.10551819895025701</v>
       </c>
       <c r="G36" s="3">
-        <v>88.998213036925193</v>
+        <v>89.0766733279292</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
@@ -3171,19 +3177,19 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.3627674764782302E-3</v>
+        <v>5.3584061488720202E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.22346338491811599</v>
+        <v>0.223353995123592</v>
       </c>
       <c r="E37" s="5">
-        <v>25.305929919137402</v>
+        <v>25.374158815612301</v>
       </c>
       <c r="F37" s="4">
-        <v>0.10259359174818899</v>
+        <v>0.102672597520996</v>
       </c>
       <c r="G37" s="3">
-        <v>98.231452963302104</v>
+        <v>98.325079354558099</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
@@ -3191,19 +3197,19 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.3076887243507899E-3</v>
+        <v>5.3035356765551104E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.22995714773090201</v>
+        <v>0.22984209668178701</v>
       </c>
       <c r="E38" s="5">
-        <v>24.929503916449001</v>
+        <v>24.996088657105599</v>
       </c>
       <c r="F38" s="4">
-        <v>0.100159981876664</v>
+        <v>0.100239688394354</v>
       </c>
       <c r="G38" s="3">
-        <v>108.170473493701</v>
+        <v>108.281394358803</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
@@ -3211,19 +3217,19 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.3710185568140098E-3</v>
+        <v>5.3668853284530001E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.236563270395451</v>
+        <v>0.236442518186782</v>
       </c>
       <c r="E39" s="5">
-        <v>24.892993630573201</v>
+        <v>24.958015267175501</v>
       </c>
       <c r="F39" s="4">
-        <v>9.8703504815106105E-2</v>
+        <v>9.8783137609163796E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>118.94598184985399</v>
+        <v>119.07655337587001</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
@@ -3231,19 +3237,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.19351494461403E-3</v>
+        <v>5.1897741238106703E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.24298538022020999</v>
+        <v>0.24285937557324699</v>
       </c>
       <c r="E40" s="5">
-        <v>25.097560975609699</v>
+        <v>25.1595615103532</v>
       </c>
       <c r="F40" s="4">
-        <v>9.6310773799009403E-2</v>
+        <v>9.6389926182865002E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>130.498072175896</v>
+        <v>130.65072349206301</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
@@ -3251,19 +3257,19 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.1936261914628896E-3</v>
+        <v>5.1899785369184702E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.249440981646527</v>
+        <v>0.24930978905688</v>
       </c>
       <c r="E41" s="5">
-        <v>25.030915576694401</v>
+        <v>25.0914489311163</v>
       </c>
       <c r="F41" s="4">
-        <v>9.5915543432027905E-2</v>
+        <v>9.5993191101282599E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>143.11078122891101</v>
+        <v>143.288296550859</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
@@ -3271,19 +3277,19 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>5.1888416716215999E-3</v>
+        <v>5.1852759267302503E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.25592413307832701</v>
+        <v>0.25578780503110599</v>
       </c>
       <c r="E42" s="5">
-        <v>25.041909196740299</v>
+        <v>25.1011627906976</v>
       </c>
       <c r="F42" s="4">
-        <v>9.71247161207031E-2</v>
+        <v>9.7199332591428406E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>157.10749994570099</v>
+        <v>157.31302267635601</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
@@ -3291,19 +3297,19 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.3800257581584901E-3</v>
+        <v>5.3763488679856898E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.26268103726458097</v>
+        <v>0.262539358375115</v>
       </c>
       <c r="E43" s="5">
-        <v>24.545762711864398</v>
+        <v>24.603837471783201</v>
       </c>
       <c r="F43" s="4">
-        <v>9.4687424726347905E-2</v>
+        <v>9.4762602442169705E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>172.078291945481</v>
+        <v>172.31517670565401</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
@@ -3311,19 +3317,19 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.4093242846905698E-3</v>
+        <v>5.4057200925637797E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.26951128846327499</v>
+        <v>0.26936429275233598</v>
       </c>
       <c r="E44" s="5">
-        <v>24.341383095499399</v>
+        <v>24.398026315789402</v>
       </c>
       <c r="F44" s="4">
-        <v>9.2387381247217903E-2</v>
+        <v>9.2462937716184093E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>188.068542089066</v>
+        <v>188.34040709465901</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
@@ -3331,23 +3337,19 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.3579119719335397E-3</v>
+        <v>5.3544102285278299E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.27631321819423699</v>
+        <v>0.27616098990517701</v>
       </c>
       <c r="E45" s="5">
-        <v>24.3109425785482</v>
+        <v>24.366883116883098</v>
       </c>
       <c r="F45" s="4">
-        <v>9.0060620874637898E-2</v>
+        <v>9.0137714229691801E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>205.096172377469</v>
-      </c>
-      <c r="J45" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.6162845327232015E-3</v>
+        <v>205.40711860149</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
@@ -3355,26 +3357,23 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.2051611572215203E-3</v>
+        <v>5.2020089485383296E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.28295663418202999</v>
+        <v>0.282799590794439</v>
       </c>
       <c r="E46" s="5">
-        <v>24.022517911975399</v>
+        <v>24.0756646216768</v>
       </c>
       <c r="F46" s="4">
-        <v>8.8443175499346494E-2</v>
+        <v>8.8517665995711606E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>223.32397232079401</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J46" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.123730170343364</v>
+        <v>223.67779498499399</v>
+      </c>
+      <c r="J46" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.6101240368918708E-3</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
@@ -3382,26 +3381,26 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>5.1628523306592898E-3</v>
+        <v>5.1598208737643697E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.28958034983095199</v>
+        <v>0.28941860689987697</v>
       </c>
       <c r="E47" s="5">
-        <v>24.266467065868198</v>
+        <v>24.318045862412699</v>
       </c>
       <c r="F47" s="4">
-        <v>9.01928182387845E-2</v>
+        <v>9.02637076333066E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>243.55638358292501</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J47" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.375771954595724</v>
+        <v>243.95804578321599</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.12311571070842799</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
@@ -3409,22 +3408,26 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>5.1818383165545302E-3</v>
+        <v>5.1788707731486201E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.29626274669998098</v>
+        <v>0.296096339237504</v>
       </c>
       <c r="E48" s="5">
-        <v>24.2019417475728</v>
+        <v>24.2521823472356</v>
       </c>
       <c r="F48" s="4">
-        <v>9.0010585938833196E-2</v>
+        <v>9.0079726865123805E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>265.56904696430598</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>0</v>
+        <v>266.02379964078301</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.376349677350746</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
@@ -3432,25 +3435,22 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.2400959815808801E-3</v>
+        <v>5.23715466562189E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.303055287910037</v>
+        <v>0.30288419622763701</v>
       </c>
       <c r="E49" s="5">
-        <v>23.826251180358799</v>
+        <v>23.875471698113198</v>
       </c>
       <c r="F49" s="4">
-        <v>8.8354518882279007E-2</v>
+        <v>8.8423330544601803E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>289.12162685774501</v>
-      </c>
-      <c r="J49" s="14">
-        <v>250</v>
-      </c>
-      <c r="L49" s="14">
-        <v>365</v>
+        <v>289.63493333969501</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
@@ -3458,30 +3458,25 @@
         <v>45359</v>
       </c>
       <c r="C50" s="23">
-        <v>5.2817667924447698E-3</v>
+        <v>5.2789049575467702E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>0.30993772205844</v>
+        <v>0.30976199807021298</v>
       </c>
       <c r="E50" s="5">
-        <v>23.663644605620998</v>
+        <v>23.711050724637602</v>
       </c>
       <c r="F50" s="4">
-        <v>8.6268433539316805E-2</v>
+        <v>8.6336392277908305E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>314.14996514264101</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="21">
-        <f>POWER(1+J45,J49)-1</f>
-        <v>3.0557799120039659</v>
-      </c>
-      <c r="L50" s="21">
-        <f>POWER(1+J45,L49)-1</f>
-        <v>6.7230455198711097</v>
+        <v>314.727304954175</v>
+      </c>
+      <c r="J50" s="14">
+        <v>250</v>
+      </c>
+      <c r="L50" s="14">
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
@@ -3489,33 +3484,30 @@
         <v>45362</v>
       </c>
       <c r="C51" s="23">
-        <v>5.2604664933441304E-3</v>
+        <v>5.2576670594205897E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>0.31682860555369602</v>
+        <v>0.31664829058314797</v>
       </c>
       <c r="E51" s="5">
-        <v>23.448214285714201</v>
+        <v>23.4950936663693</v>
       </c>
       <c r="F51" s="4">
-        <v>8.5817248507901997E-2</v>
+        <v>8.5884579134517899E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>341.19526801854403</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J51" s="20">
-        <f>POWER(1+J45*M51,J49)-1</f>
-        <v>31.647340623427773</v>
-      </c>
-      <c r="L51" s="20">
-        <f>POWER(1+J45*M51,L49)-1</f>
-        <v>161.26236560918576</v>
-      </c>
-      <c r="M51">
-        <v>2.5</v>
+        <v>341.84341166143997</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="21">
+        <f>POWER(1+J46,J50)-1</f>
+        <v>3.0495731289623693</v>
+      </c>
+      <c r="L51" s="21">
+        <f>POWER(1+J46,L50)-1</f>
+        <v>6.7057958533841466</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.35">
@@ -3523,42 +3515,53 @@
         <v>45363</v>
       </c>
       <c r="C52" s="23">
-        <v>5.3862670304017403E-3</v>
+        <v>5.3834238544737496E-3</v>
       </c>
       <c r="D52" s="2">
-        <v>0.32392139605648002</v>
+        <v>0.32373636639862502</v>
       </c>
       <c r="E52" s="5">
-        <v>23.154315605928499</v>
+        <v>23.200348432055701</v>
       </c>
       <c r="F52" s="4">
-        <v>8.4535156492887301E-2</v>
+        <v>8.4602020364360805E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>370.122798551617</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>370.84865695660801</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="20">
+        <f>POWER(1+J46*M52,J50)-1</f>
+        <v>31.523612863617956</v>
+      </c>
+      <c r="L52" s="20">
+        <f>POWER(1+J46*M52,L50)-1</f>
+        <v>160.36532724490021</v>
+      </c>
+      <c r="M52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="13">
         <v>45364</v>
       </c>
       <c r="C53" s="23">
-        <v>5.3583480798634698E-3</v>
+        <v>5.3555963392046199E-3</v>
       </c>
       <c r="D53" s="2">
-        <v>0.33101542772692899</v>
+        <v>0.33082576403658098</v>
       </c>
       <c r="E53" s="5">
-        <v>23.131063829787202</v>
+        <v>23.1760204081632</v>
       </c>
       <c r="F53" s="4">
-        <v>8.3622358306569694E-2</v>
+        <v>8.3688406370037202E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>401.15696218783802</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>6</v>
+        <v>401.96807846814499</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3566,44 +3569,67 @@
         <v>45365</v>
       </c>
       <c r="C54" s="23">
-        <v>5.4261469954370502E-3</v>
+        <v>5.42340293735534E-3</v>
       </c>
       <c r="D54" s="2">
-        <v>0.33823771309097</v>
+        <v>0.338043368394366</v>
       </c>
       <c r="E54" s="5">
-        <v>23.049875311720601</v>
+        <v>23.093853820598</v>
       </c>
       <c r="F54" s="4">
-        <v>8.4016262476911102E-2</v>
+        <v>8.4080447375970493E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>434.94468707992797</v>
+        <v>435.84981478398203</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B55" s="13">
         <v>45366</v>
       </c>
       <c r="C55" s="23">
-        <v>5.4769768981402303E-3</v>
+        <v>5.47423614991058E-3</v>
       </c>
       <c r="D55" s="2">
-        <v>0.34556721012978903</v>
+        <v>0.345368133771778</v>
       </c>
       <c r="E55" s="5">
-        <v>23.141455437448801</v>
+        <v>23.184640522875799</v>
       </c>
       <c r="F55" s="4">
-        <v>8.7304722950174704E-2</v>
+        <v>8.7365172425660206E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>473.00471720704201</v>
+        <v>474.01527417670297</v>
       </c>
       <c r="I55" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B56" s="13">
+        <v>45369</v>
+      </c>
+      <c r="C56" s="23">
+        <v>5.4323796603204504E-3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.35267668425732301</v>
+      </c>
+      <c r="E56" s="5">
+        <v>23.118589743589698</v>
+      </c>
+      <c r="F56" s="4">
+        <v>8.8199950652574202E-2</v>
+      </c>
+      <c r="G56" s="3">
+        <v>515.91159791830705</v>
+      </c>
+      <c r="I56" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8164FC11-8B62-4294-9994-819D019127B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F58CBE-37AF-4759-BDA8-ED402FE5680F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$57</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1100,16 +1100,19 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$57</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>3.62633206792217E-3</c:v>
                 </c:pt>
@@ -1162,115 +1165,118 @@
                   <c:v>0.10739686515250101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11422736183752399</c:v>
+                  <c:v>0.114236828731147</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12093162182801501</c:v>
+                  <c:v>0.12095027525964901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.127570732877791</c:v>
+                  <c:v>0.12759447192359699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.134193834988135</c:v>
+                  <c:v>0.134211850487961</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.140899831008888</c:v>
+                  <c:v>0.140912603622937</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14733742846690301</c:v>
+                  <c:v>0.14734509822524999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15361366134836901</c:v>
+                  <c:v>0.153641982946748</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15989821644003099</c:v>
+                  <c:v>0.159953966253741</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.166084916676352</c:v>
+                  <c:v>0.166166656513207</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.172169256244848</c:v>
+                  <c:v>0.17226681228570601</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17841178973437599</c:v>
+                  <c:v>0.17852501513448499</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.184567080262974</c:v>
+                  <c:v>0.184695433055549</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.19068036706371899</c:v>
+                  <c:v>0.190823370740518</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.19717109686270301</c:v>
+                  <c:v>0.19732867192700901</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.203742854545269</c:v>
+                  <c:v>0.203914774576407</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21023245854768599</c:v>
+                  <c:v>0.21041846698307901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21683370591168</c:v>
+                  <c:v>0.21703393954769301</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.223353995123592</c:v>
+                  <c:v>0.22356794350951001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.22984209668178701</c:v>
+                  <c:v>0.230069403576701</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.236442518186782</c:v>
+                  <c:v>0.23668313562090601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24285937557324699</c:v>
+                  <c:v>0.24311261142682999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.24930978905688</c:v>
+                  <c:v>0.24957548290136899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.25578780503110599</c:v>
+                  <c:v>0.25606583664258098</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.262539358375115</c:v>
+                  <c:v>0.26282984930317899</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26936429275233598</c:v>
+                  <c:v>0.26966710366063401</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.27616098990517701</c:v>
+                  <c:v>0.27647601896088397</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.282799590794439</c:v>
+                  <c:v>0.28312612428160999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.28941860689987697</c:v>
+                  <c:v>0.28975644083045099</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.296096339237504</c:v>
+                  <c:v>0.29644534915096798</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.30288419622763701</c:v>
+                  <c:v>0.30324432110973298</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.30976199807021298</c:v>
+                  <c:v>0.310135488478675</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.31664829058314797</c:v>
+                  <c:v>0.31703506998421699</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.32373636639862502</c:v>
+                  <c:v>0.32413648934563599</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.33082576403658098</c:v>
+                  <c:v>0.33123905078795501</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.338043368394366</c:v>
+                  <c:v>0.33846979373455199</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.345368133771778</c:v>
+                  <c:v>0.34581280669744002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.35267668425732301</c:v>
+                  <c:v>0.35313786203210001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.36047293402658998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,8 +2127,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G56" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G57" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2433,11 +2439,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S56"/>
+  <dimension ref="B2:S57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U62" sqref="U62"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47:Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2479,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L50 &amp; " -&gt; " &amp; TEXT(L51,"#%")</f>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L51 &amp; " -&gt; " &amp; TEXT(L52,"#%")</f>
         <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 671%</v>
       </c>
       <c r="J2" s="26"/>
@@ -2837,19 +2843,19 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>6.1680657585059502E-3</v>
+        <v>6.1766145398148798E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.11422736183752399</v>
+        <v>0.114236828731147</v>
       </c>
       <c r="E20" s="5">
-        <v>27.6676300578034</v>
+        <v>27.606936416184901</v>
       </c>
       <c r="F20" s="4">
-        <v>0.14899901474938301</v>
+        <v>0.14903056959048</v>
       </c>
       <c r="G20" s="3">
-        <v>12.8926053329395</v>
+        <v>12.8929868641228</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
@@ -2857,19 +2863,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>6.0169586747843996E-3</v>
+        <v>6.0251522435735699E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.12093162182801501</v>
+        <v>0.12095027525964901</v>
       </c>
       <c r="E21" s="5">
-        <v>27.487534626038698</v>
+        <v>27.429362880886401</v>
       </c>
       <c r="F21" s="4">
-        <v>0.144735155480718</v>
+        <v>0.14476539917883299</v>
       </c>
       <c r="G21" s="3">
-        <v>14.9033537258347</v>
+        <v>14.9042106532938</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -2877,19 +2883,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.9228510646784699E-3</v>
+        <v>5.9272893816893699E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.127570732877791</v>
+        <v>0.12759447192359699</v>
       </c>
       <c r="E22" s="5">
-        <v>27.548648648648602</v>
+        <v>27.550135501355001</v>
       </c>
       <c r="F22" s="4">
-        <v>0.14258374592334699</v>
+        <v>0.14288196754508001</v>
       </c>
       <c r="G22" s="3">
-        <v>17.170913472808301</v>
+        <v>17.176635563687899</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
@@ -2897,19 +2903,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.8737797259431597E-3</v>
+        <v>5.8685801758809998E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.134193834988135</v>
+        <v>0.134211850487961</v>
       </c>
       <c r="E23" s="5">
-        <v>27.365853658536501</v>
+        <v>27.429268292682899</v>
       </c>
       <c r="F23" s="4">
-        <v>0.141292390316994</v>
+        <v>0.14149137751282601</v>
       </c>
       <c r="G23" s="3">
-        <v>19.738325271624699</v>
+        <v>19.748472768142701</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -2917,19 +2923,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.9125661010345099E-3</v>
+        <v>5.9078496950046699E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.140899831008888</v>
+        <v>0.140912603622937</v>
       </c>
       <c r="E24" s="5">
-        <v>27.1924778761061</v>
+        <v>27.25</v>
       </c>
       <c r="F24" s="4">
-        <v>0.137041880944405</v>
+        <v>0.13722237817956201</v>
       </c>
       <c r="G24" s="3">
-        <v>22.580344374485001</v>
+        <v>22.595627544981099</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -2937,19 +2943,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.64256149667556E-3</v>
+        <v>5.6380257189617604E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14733742846690301</v>
+        <v>0.14734509822524999</v>
       </c>
       <c r="E25" s="5">
-        <v>27.689361702127599</v>
+        <v>27.744680851063801</v>
       </c>
       <c r="F25" s="4">
-        <v>0.13077466909150301</v>
+        <v>0.13094825366659099</v>
       </c>
       <c r="G25" s="3">
-        <v>25.664056107122001</v>
+        <v>25.685433766163701</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -2957,19 +2963,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.4702589889818196E-3</v>
+        <v>5.4882220974648002E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.15361366134836901</v>
+        <v>0.153641982946748</v>
       </c>
       <c r="E26" s="5">
-        <v>27.281632653061202</v>
+        <v>27.3701431492842</v>
       </c>
       <c r="F26" s="4">
-        <v>0.12681936772115601</v>
+        <v>0.12735691226892501</v>
       </c>
       <c r="G26" s="3">
-        <v>29.0455748435087</v>
+        <v>29.084008213179299</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2977,19 +2983,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.4477120913391198E-3</v>
+        <v>5.4713536784347398E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.15989821644003099</v>
+        <v>0.159953966253741</v>
       </c>
       <c r="E27" s="5">
-        <v>26.935420743639899</v>
+        <v>26.956777996070699</v>
       </c>
       <c r="F27" s="4">
-        <v>0.12947178508159199</v>
+        <v>0.12999560747667899</v>
       </c>
       <c r="G27" s="3">
-        <v>32.9356290523003</v>
+        <v>32.994797136184999</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2997,19 +3003,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.3338302866861699E-3</v>
+        <v>5.3559800131821496E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.166084916676352</v>
+        <v>0.166166656513207</v>
       </c>
       <c r="E28" s="5">
-        <v>26.657943925233599</v>
+        <v>26.677298311444599</v>
       </c>
       <c r="F28" s="4">
-        <v>0.125681707764634</v>
+        <v>0.12616772173173499</v>
       </c>
       <c r="G28" s="3">
-        <v>37.200716865660603</v>
+        <v>37.283843241589999</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -3017,19 +3023,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>5.2177499952902103E-3</v>
+        <v>5.2309468277355704E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.172169256244848</v>
+        <v>0.17226681228570601</v>
       </c>
       <c r="E29" s="5">
-        <v>26.561594202898501</v>
+        <v>26.6551724137931</v>
       </c>
       <c r="F29" s="4">
-        <v>0.123819974895132</v>
+        <v>0.124171626717424</v>
       </c>
       <c r="G29" s="3">
-        <v>41.930728668942699</v>
+        <v>42.037610333892999</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -3037,19 +3043,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.3256246538373403E-3</v>
+        <v>5.3385481728144696E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.17841178973437599</v>
+        <v>0.17852501513448499</v>
       </c>
       <c r="E30" s="5">
-        <v>26.136363636363601</v>
+        <v>26.225919439579599</v>
       </c>
       <c r="F30" s="4">
-        <v>0.120374600916883</v>
+        <v>0.12070790175769699</v>
       </c>
       <c r="G30" s="3">
-        <v>47.098497999537699</v>
+        <v>47.232589973962597</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -3057,19 +3063,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>5.2233782640498201E-3</v>
+        <v>5.2357123029415998E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.184567080262974</v>
+        <v>0.184695433055549</v>
       </c>
       <c r="E31" s="5">
-        <v>26.191201353637901</v>
+        <v>26.277966101694901</v>
       </c>
       <c r="F31" s="4">
-        <v>0.117928527889053</v>
+        <v>0.118246949426472</v>
       </c>
       <c r="G31" s="3">
-        <v>52.770683062297799</v>
+        <v>52.935946601321596</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3077,19 +3083,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>5.1607772177723601E-3</v>
+        <v>5.17258488045628E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.19068036706371899</v>
+        <v>0.190823370740518</v>
       </c>
       <c r="E32" s="5">
-        <v>26.063725490195999</v>
+        <v>26.147299509001598</v>
       </c>
       <c r="F32" s="4">
-        <v>0.11529656083538301</v>
+        <v>0.11559973062265499</v>
       </c>
       <c r="G32" s="3">
-        <v>58.970257893150098</v>
+        <v>59.170927499312299</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
@@ -3097,19 +3103,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.4512780915256303E-3</v>
+        <v>5.4628598550651797E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.19717109686270301</v>
+        <v>0.19732867192700901</v>
       </c>
       <c r="E33" s="5">
-        <v>25.702619414483799</v>
+        <v>25.7808641975308</v>
       </c>
       <c r="F33" s="4">
-        <v>0.109926930390654</v>
+        <v>0.11020450309062101</v>
       </c>
       <c r="G33" s="3">
-        <v>65.5626042580801</v>
+        <v>65.802034664875805</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
@@ -3117,19 +3123,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.4894055659949498E-3</v>
+        <v>5.5006639394995799E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.203742854545269</v>
+        <v>0.203914774576407</v>
       </c>
       <c r="E34" s="5">
-        <v>25.421758569299499</v>
+        <v>25.497014925373101</v>
       </c>
       <c r="F34" s="4">
-        <v>0.10729490444234401</v>
+        <v>0.10755943441791101</v>
       </c>
       <c r="G34" s="3">
-        <v>72.704432521384405</v>
+        <v>72.987223731395602</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
@@ -3137,19 +3143,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.3911879750002598E-3</v>
+        <v>5.4021202696509299E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.21023245854768599</v>
+        <v>0.21041846698307901</v>
       </c>
       <c r="E35" s="5">
-        <v>25.373900293255101</v>
+        <v>25.447870778267198</v>
       </c>
       <c r="F35" s="4">
-        <v>0.10548495279074201</v>
+        <v>0.105742552103485</v>
       </c>
       <c r="G35" s="3">
-        <v>80.479141106371003</v>
+        <v>80.810821591804995</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
@@ -3157,19 +3163,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.4545284398636804E-3</v>
+        <v>5.4654425267513101E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.21683370591168</v>
+        <v>0.21703393954769301</v>
       </c>
       <c r="E36" s="5">
-        <v>25.6298882681564</v>
+        <v>25.6993006993007</v>
       </c>
       <c r="F36" s="4">
-        <v>0.10551819895025701</v>
+        <v>0.105767870137501</v>
       </c>
       <c r="G36" s="3">
-        <v>89.0766733279292</v>
+        <v>89.463777945769294</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
@@ -3177,19 +3183,19 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.3584061488720202E-3</v>
+        <v>5.3687935475696799E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.223353995123592</v>
+        <v>0.22356794350951001</v>
       </c>
       <c r="E37" s="5">
-        <v>25.374158815612301</v>
+        <v>25.440700808625301</v>
       </c>
       <c r="F37" s="4">
-        <v>0.102672597520996</v>
+        <v>0.10290934859572699</v>
       </c>
       <c r="G37" s="3">
-        <v>98.325079354558099</v>
+        <v>98.773346405677003</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
@@ -3197,19 +3203,19 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.3035356765551104E-3</v>
+        <v>5.3135259890372899E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.22984209668178701</v>
+        <v>0.230069403576701</v>
       </c>
       <c r="E38" s="5">
-        <v>24.996088657105599</v>
+        <v>25.060052219321101</v>
       </c>
       <c r="F38" s="4">
-        <v>0.100239688394354</v>
+        <v>0.10046584555926601</v>
       </c>
       <c r="G38" s="3">
-        <v>108.281394358803</v>
+        <v>108.7971600166</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
@@ -3217,19 +3223,19 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.3668853284530001E-3</v>
+        <v>5.3767145373870796E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.236442518186782</v>
+        <v>0.23668313562090601</v>
       </c>
       <c r="E39" s="5">
-        <v>24.958015267175501</v>
+        <v>25.020382165605</v>
       </c>
       <c r="F39" s="4">
-        <v>9.8783137609163796E-2</v>
+        <v>9.9001965427683497E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>119.07655337587001</v>
+        <v>119.667294656622</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
@@ -3237,19 +3243,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.1897741238106703E-3</v>
+        <v>5.1989678040650703E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.24285937557324699</v>
+        <v>0.24311261142682999</v>
       </c>
       <c r="E40" s="5">
-        <v>25.1595615103532</v>
+        <v>25.219512195121901</v>
       </c>
       <c r="F40" s="4">
-        <v>9.6389926182865002E-2</v>
+        <v>9.6596495239098801E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>130.65072349206301</v>
+        <v>131.323332410435</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
@@ -3257,19 +3263,19 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.1899785369184702E-3</v>
+        <v>5.1989428915221701E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.24930978905688</v>
+        <v>0.24957548290136899</v>
       </c>
       <c r="E41" s="5">
-        <v>25.0914489311163</v>
+        <v>25.1498216409036</v>
       </c>
       <c r="F41" s="4">
-        <v>9.5993191101282599E-2</v>
+        <v>9.6194130329618002E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>143.288296550859</v>
+        <v>144.05206029397399</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
@@ -3277,19 +3283,19 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>5.1852759267302503E-3</v>
+        <v>5.1940469623664902E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.25578780503110599</v>
+        <v>0.25606583664258098</v>
       </c>
       <c r="E42" s="5">
-        <v>25.1011627906976</v>
+        <v>25.158323632130301</v>
       </c>
       <c r="F42" s="4">
-        <v>9.7199332591428406E-2</v>
+        <v>9.7397465341743095E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>157.31302267635601</v>
+        <v>158.17976330920499</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
@@ -3297,19 +3303,19 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.3763488679856898E-3</v>
+        <v>5.3850781251074797E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.262539358375115</v>
+        <v>0.26282984930317899</v>
       </c>
       <c r="E43" s="5">
-        <v>24.603837471783201</v>
+        <v>24.658757062146801</v>
       </c>
       <c r="F43" s="4">
-        <v>9.4762602442169705E-2</v>
+        <v>9.4952160975922198E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>172.31517670565401</v>
+        <v>173.29422581905001</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
@@ -3317,19 +3323,19 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.4057200925637797E-3</v>
+        <v>5.4142324567540796E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.26936429275233598</v>
+        <v>0.26966710366063401</v>
       </c>
       <c r="E44" s="5">
-        <v>24.398026315789402</v>
+        <v>24.4511525795828</v>
       </c>
       <c r="F44" s="4">
-        <v>9.2462937716184093E-2</v>
+        <v>9.2644561906793405E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>188.34040709465901</v>
+        <v>189.44163801293899</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
@@ -3337,19 +3343,19 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.3544102285278299E-3</v>
+        <v>5.3627563324425897E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.27616098990517701</v>
+        <v>0.27647601896088397</v>
       </c>
       <c r="E45" s="5">
-        <v>24.366883116883098</v>
+        <v>24.4192849404117</v>
       </c>
       <c r="F45" s="4">
-        <v>9.0137714229691801E-2</v>
+        <v>9.0314457907003307E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>205.40711860149</v>
+        <v>206.641271313</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
@@ -3357,23 +3363,19 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.2020089485383296E-3</v>
+        <v>5.2097377639255702E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.282799590794439</v>
+        <v>0.28312612428160999</v>
       </c>
       <c r="E46" s="5">
-        <v>24.0756646216768</v>
+        <v>24.124872057318299</v>
       </c>
       <c r="F46" s="4">
-        <v>8.8517665995711606E-2</v>
+        <v>8.8682982644559705E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>223.67779498499399</v>
-      </c>
-      <c r="J46" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.6101240368918708E-3</v>
+        <v>225.05551857314501</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
@@ -3381,26 +3383,23 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>5.1598208737643697E-3</v>
+        <v>5.1673147505693203E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.28941860689987697</v>
+        <v>0.28975644083045099</v>
       </c>
       <c r="E47" s="5">
-        <v>24.318045862412699</v>
+        <v>24.3662674650698</v>
       </c>
       <c r="F47" s="4">
-        <v>9.02637076333066E-2</v>
+        <v>9.0426642171791805E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>243.95804578321599</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.12311571070842799</v>
+        <v>245.49696006211801</v>
+      </c>
+      <c r="J47" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.6129126195257461E-3</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
@@ -3408,26 +3407,26 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>5.1788707731486201E-3</v>
+        <v>5.1861794279621596E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.296096339237504</v>
+        <v>0.29644534915096798</v>
       </c>
       <c r="E48" s="5">
-        <v>24.2521823472356</v>
+        <v>24.299029126213501</v>
       </c>
       <c r="F48" s="4">
-        <v>9.0079726865123805E-2</v>
+        <v>9.0238053493079201E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>266.02379964078301</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J48" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.376349677350746</v>
+        <v>267.74036593008498</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.12263403357625359</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
@@ -3435,22 +3434,26 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.23715466562189E-3</v>
+        <v>5.2443182145835701E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.30288419622763701</v>
+        <v>0.30324432110973298</v>
       </c>
       <c r="E49" s="5">
-        <v>23.875471698113198</v>
+        <v>23.920679886685502</v>
       </c>
       <c r="F49" s="4">
-        <v>8.8423330544601803E-2</v>
+        <v>8.8575757391130105E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>289.63493333969501</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>0</v>
+        <v>291.544247383911</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.364682095523015</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
@@ -3458,25 +3461,22 @@
         <v>45359</v>
       </c>
       <c r="C50" s="23">
-        <v>5.2789049575467702E-3</v>
+        <v>5.2877018202347401E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>0.30976199807021298</v>
+        <v>0.310135488478675</v>
       </c>
       <c r="E50" s="5">
-        <v>23.711050724637602</v>
+        <v>23.721668177697101</v>
       </c>
       <c r="F50" s="4">
-        <v>8.6336392277908305E-2</v>
+        <v>8.6498858763070494E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>314.727304954175</v>
-      </c>
-      <c r="J50" s="14">
-        <v>250</v>
-      </c>
-      <c r="L50" s="14">
-        <v>365</v>
+        <v>316.848990920321</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
@@ -3484,30 +3484,25 @@
         <v>45362</v>
       </c>
       <c r="C51" s="23">
-        <v>5.2576670594205897E-3</v>
+        <v>5.2663114358908704E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>0.31664829058314797</v>
+        <v>0.31703506998421699</v>
       </c>
       <c r="E51" s="5">
-        <v>23.4950936663693</v>
+        <v>23.5053571428571</v>
       </c>
       <c r="F51" s="4">
-        <v>8.5884579134517899E-2</v>
+        <v>8.6044176205938003E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>341.84341166143997</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J51" s="21">
-        <f>POWER(1+J46,J50)-1</f>
-        <v>3.0495731289623693</v>
-      </c>
-      <c r="L51" s="21">
-        <f>POWER(1+J46,L50)-1</f>
-        <v>6.7057958533841466</v>
+        <v>344.19804550194903</v>
+      </c>
+      <c r="J51" s="14">
+        <v>250</v>
+      </c>
+      <c r="L51" s="14">
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.35">
@@ -3515,33 +3510,30 @@
         <v>45363</v>
       </c>
       <c r="C52" s="23">
-        <v>5.3834238544737496E-3</v>
+        <v>5.3919743849373501E-3</v>
       </c>
       <c r="D52" s="2">
-        <v>0.32373636639862502</v>
+        <v>0.32413648934563599</v>
       </c>
       <c r="E52" s="5">
-        <v>23.200348432055701</v>
+        <v>23.210113339145501</v>
       </c>
       <c r="F52" s="4">
-        <v>8.4602020364360805E-2</v>
+        <v>8.4756742388092596E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>370.84865695660801</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="20">
-        <f>POWER(1+J46*M52,J50)-1</f>
-        <v>31.523612863617956</v>
-      </c>
-      <c r="L52" s="20">
-        <f>POWER(1+J46*M52,L50)-1</f>
-        <v>160.36532724490021</v>
-      </c>
-      <c r="M52">
-        <v>2.5</v>
+        <v>373.45590731743101</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="21">
+        <f>POWER(1+J47,J51)-1</f>
+        <v>3.0523814909188953</v>
+      </c>
+      <c r="L52" s="21">
+        <f>POWER(1+J47,L51)-1</f>
+        <v>6.7135992458099469</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
@@ -3549,42 +3541,53 @@
         <v>45364</v>
       </c>
       <c r="C53" s="23">
-        <v>5.3555963392046199E-3</v>
+        <v>5.3639194293548199E-3</v>
       </c>
       <c r="D53" s="2">
-        <v>0.33082576403658098</v>
+        <v>0.33123905078795501</v>
       </c>
       <c r="E53" s="5">
-        <v>23.1760204081632</v>
+        <v>23.185531914893598</v>
       </c>
       <c r="F53" s="4">
-        <v>8.3688406370037202E-2</v>
+        <v>8.3838663857038101E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>401.96807846814499</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>404.84979026029902</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="20">
+        <f>POWER(1+J47*M53,J51)-1</f>
+        <v>31.579560958974099</v>
+      </c>
+      <c r="L53" s="20">
+        <f>POWER(1+J47*M53,L51)-1</f>
+        <v>160.77076234548321</v>
+      </c>
+      <c r="M53">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="13">
         <v>45365</v>
       </c>
       <c r="C54" s="23">
-        <v>5.42340293735534E-3</v>
+        <v>5.4315886709585303E-3</v>
       </c>
       <c r="D54" s="2">
-        <v>0.338043368394366</v>
+        <v>0.33846979373455199</v>
       </c>
       <c r="E54" s="5">
-        <v>23.093853820598</v>
+        <v>23.103075644222699</v>
       </c>
       <c r="F54" s="4">
-        <v>8.4080447375970493E-2</v>
+        <v>8.4227533484226402E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>435.84981478398203</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>6</v>
+        <v>439.033517059014</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="18" x14ac:dyDescent="0.4">
@@ -3592,44 +3595,67 @@
         <v>45366</v>
       </c>
       <c r="C55" s="23">
-        <v>5.47423614991058E-3</v>
+        <v>5.4861252732494098E-3</v>
       </c>
       <c r="D55" s="2">
-        <v>0.345368133771778</v>
+        <v>0.34581280669744002</v>
       </c>
       <c r="E55" s="5">
-        <v>23.184640522875799</v>
+        <v>23.175941080196399</v>
       </c>
       <c r="F55" s="4">
-        <v>8.7365172425660206E-2</v>
+        <v>8.7553073054293107E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>474.01527417670297</v>
+        <v>477.55980372442002</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B56" s="13">
         <v>45369</v>
       </c>
       <c r="C56" s="23">
-        <v>5.4323796603204504E-3</v>
+        <v>5.4428485880103801E-3</v>
       </c>
       <c r="D56" s="2">
-        <v>0.35267668425732301</v>
+        <v>0.35313786203210001</v>
       </c>
       <c r="E56" s="5">
-        <v>23.118589743589698</v>
+        <v>23.128307939053698</v>
       </c>
       <c r="F56" s="4">
-        <v>8.8199950652574202E-2</v>
+        <v>8.8463809244743605E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>515.91159791830705</v>
+        <v>519.89502691329903</v>
       </c>
       <c r="I56" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B57" s="13">
+        <v>45370</v>
+      </c>
+      <c r="C57" s="23">
+        <v>5.4207868985902E-3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.36047293402658998</v>
+      </c>
+      <c r="E57" s="5">
+        <v>23.127490039840598</v>
+      </c>
+      <c r="F57" s="4">
+        <v>8.8106884645630504E-2</v>
+      </c>
+      <c r="G57" s="3">
+        <v>565.78946496203196</v>
+      </c>
+      <c r="I57" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F58CBE-37AF-4759-BDA8-ED402FE5680F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9CFFAD-6623-4684-A303-D12738A940C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$58</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1103,180 +1103,192 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45370</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45371</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$58</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>3.62633206792217E-3</c:v>
+                  <c:v>3.6851530580226301E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4411102655302904E-3</c:v>
+                  <c:v>7.52417019163575E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.17886907736188E-2</c:v>
+                  <c:v>1.1889454577129499E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6873066048029801E-2</c:v>
+                  <c:v>1.7018784986549001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2420391200760299E-2</c:v>
+                  <c:v>2.2586088475263499E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7716765044910299E-2</c:v>
+                  <c:v>2.79044802589372E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4331201999539401E-2</c:v>
+                  <c:v>3.4580871267479302E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1478206429716301E-2</c:v>
+                  <c:v>4.1728378544310302E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9029031126474699E-2</c:v>
+                  <c:v>4.9278166847377999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6464832114715403E-2</c:v>
+                  <c:v>5.6622128521845998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3713387615068798E-2</c:v>
+                  <c:v>6.3795889257661095E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0926660538488603E-2</c:v>
+                  <c:v>7.0937739576536707E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8493844738213497E-2</c:v>
+                  <c:v>7.8435220640072398E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6059254848143502E-2</c:v>
+                  <c:v>8.5904783175857896E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3313249173708299E-2</c:v>
+                  <c:v>9.3070308455836998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.100411681557749</c:v>
+                  <c:v>0.10012390474725499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10739686515250101</c:v>
+                  <c:v>0.107067350789069</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.114236828731147</c:v>
+                  <c:v>0.113847475184678</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12095027525964901</c:v>
+                  <c:v>0.120528236664909</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12759447192359699</c:v>
+                  <c:v>0.12717044157191301</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.134211850487961</c:v>
+                  <c:v>0.13374566474945701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.140912603622937</c:v>
+                  <c:v>0.140409339886509</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14734509822524999</c:v>
+                  <c:v>0.14683955987667899</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.153641982946748</c:v>
+                  <c:v>0.15302953254683799</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.159953966253741</c:v>
+                  <c:v>0.159258115861348</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.166166656513207</c:v>
+                  <c:v>0.165389731503538</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.17226681228570601</c:v>
+                  <c:v>0.17134661619953301</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17852501513448499</c:v>
+                  <c:v>0.17746420443213901</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.184695433055549</c:v>
+                  <c:v>0.18349764065964499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.190823370740518</c:v>
+                  <c:v>0.189513472100794</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.19732867192700901</c:v>
+                  <c:v>0.19590909107377799</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.203914774576407</c:v>
+                  <c:v>0.20238740365762301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21041846698307901</c:v>
+                  <c:v>0.20878240213546501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21703393954769301</c:v>
+                  <c:v>0.21530040546319301</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.22356794350951001</c:v>
+                  <c:v>0.221757487605627</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.230069403576701</c:v>
+                  <c:v>0.228180307784277</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.23668313562090601</c:v>
+                  <c:v>0.23471175834248201</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24311261142682999</c:v>
+                  <c:v>0.24114153747942299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.24957548290136899</c:v>
+                  <c:v>0.247604503641107</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.25606583664258098</c:v>
+                  <c:v>0.25409946778214498</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26282984930317899</c:v>
+                  <c:v>0.26086793195173502</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26966710366063401</c:v>
+                  <c:v>0.26771932299768297</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.27647601896088397</c:v>
+                  <c:v>0.27454589203690699</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28312612428160999</c:v>
+                  <c:v>0.28120683125672302</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.28975644083045099</c:v>
+                  <c:v>0.287847540029257</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.29644534915096798</c:v>
+                  <c:v>0.294546477905754</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.30324432110973298</c:v>
+                  <c:v>0.30135518836794101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.310135488478675</c:v>
+                  <c:v>0.30825550881060099</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.31703506998421699</c:v>
+                  <c:v>0.31516576697252402</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.32413648934563599</c:v>
+                  <c:v>0.32229006638697899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.33123905078795501</c:v>
+                  <c:v>0.32941491001859202</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.33846979373455199</c:v>
+                  <c:v>0.336667723805472</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.34581280669744002</c:v>
+                  <c:v>0.34401912987466299</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.35313786203210001</c:v>
+                  <c:v>0.35136504206388203</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.36047293402658998</c:v>
+                  <c:v>0.35871715596818199</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.36606226094984301</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.37386180105998501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,15 +2102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>31518</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>105741</xdr:rowOff>
+      <xdr:colOff>25168</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>86691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304029</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>101875</xdr:rowOff>
+      <xdr:colOff>297679</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2127,8 +2139,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G57" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G57" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G59" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2439,11 +2451,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S57"/>
+  <dimension ref="B2:S59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47:Q57"/>
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y63" sqref="Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2485,8 +2497,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L51 &amp; " -&gt; " &amp; TEXT(L52,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 671%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L53 &amp; " -&gt; " &amp; TEXT(L54,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 664%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2502,19 +2514,19 @@
         <v>45289</v>
       </c>
       <c r="C3" s="23">
-        <v>3.6263320679221899E-3</v>
+        <v>3.68515305802267E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>3.62633206792217E-3</v>
+        <v>3.6851530580226301E-3</v>
       </c>
       <c r="E3" s="5">
-        <v>19.0416666666666</v>
+        <v>17.5833333333333</v>
       </c>
       <c r="F3" s="4">
-        <v>9.1328857175509398E-2</v>
+        <v>8.7156144072653499E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>9.1328857175509301E-2</v>
+        <v>8.7156144072653596E-2</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
@@ -2522,19 +2534,19 @@
         <v>45293</v>
       </c>
       <c r="C4" s="23">
-        <v>3.8009945292567498E-3</v>
+        <v>3.8249217116705101E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>7.4411102655302904E-3</v>
+        <v>7.52417019163575E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>23.932203389830502</v>
+        <v>23.3389830508474</v>
       </c>
       <c r="F4" s="4">
-        <v>0.10714147848022899</v>
+        <v>0.105444103658728</v>
       </c>
       <c r="G4" s="3">
-        <v>0.20825544444143201</v>
+        <v>0.20179034922147401</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
@@ -2542,19 +2554,19 @@
         <v>45294</v>
       </c>
       <c r="C5" s="23">
-        <v>4.3154686301640098E-3</v>
+        <v>4.3326845297056204E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.17886907736188E-2</v>
+        <v>1.1889454577129499E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>23.902439024390201</v>
+        <v>23.475609756097501</v>
       </c>
       <c r="F5" s="4">
-        <v>0.126118383829083</v>
+        <v>0.12489710194532</v>
       </c>
       <c r="G5" s="3">
-        <v>0.36063866834707697</v>
+        <v>0.35189048098509101</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
@@ -2562,19 +2574,19 @@
         <v>45295</v>
       </c>
       <c r="C6" s="23">
-        <v>5.0251355058370502E-3</v>
+        <v>5.0690620267044399E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.6873066048029801E-2</v>
+        <v>1.7018784986549001E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>25.295238095237998</v>
+        <v>25.4339622641509</v>
       </c>
       <c r="F6" s="4">
-        <v>0.16543493550200999</v>
+        <v>0.16070864312330799</v>
       </c>
       <c r="G6" s="3">
-        <v>0.58573583868661605</v>
+        <v>0.56915096583552105</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
@@ -2582,19 +2594,19 @@
         <v>45296</v>
       </c>
       <c r="C7" s="23">
-        <v>5.4552778886055898E-3</v>
+        <v>5.4741402724315597E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.2420391200760299E-2</v>
+        <v>2.2586088475263499E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>25.9612403100775</v>
+        <v>26.328244274809101</v>
       </c>
       <c r="F7" s="4">
-        <v>0.18421276656549801</v>
+        <v>0.18053363137974601</v>
       </c>
       <c r="G7" s="3">
-        <v>0.87784862457313895</v>
+        <v>0.852435487880845</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
@@ -2602,19 +2614,19 @@
         <v>45299</v>
       </c>
       <c r="C8" s="23">
-        <v>5.1802310377729501E-3</v>
+        <v>5.2009232705323202E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.7716765044910299E-2</v>
+        <v>2.79044802589372E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>27.9583333333333</v>
+        <v>28.2602739726027</v>
       </c>
       <c r="F8" s="4">
-        <v>0.17667667063769699</v>
+        <v>0.17347876298373899</v>
       </c>
       <c r="G8" s="3">
-        <v>1.2096206675243</v>
+        <v>1.17379370482559</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
@@ -2622,19 +2634,19 @@
         <v>45300</v>
       </c>
       <c r="C9" s="23">
-        <v>6.4360504563141501E-3</v>
+        <v>6.4951472989594802E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.4331201999539401E-2</v>
+        <v>3.4580871267479302E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>27.126436781609101</v>
+        <v>27.287356321838999</v>
       </c>
       <c r="F9" s="4">
-        <v>0.17636128876901699</v>
+        <v>0.17504233953273601</v>
       </c>
       <c r="G9" s="3">
-        <v>1.5993122161395401</v>
+        <v>1.5542996405798</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
@@ -2642,19 +2654,19 @@
         <v>45301</v>
       </c>
       <c r="C10" s="23">
-        <v>6.9097832651288001E-3</v>
+        <v>6.9086018071014398E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>4.1478206429716301E-2</v>
+        <v>4.1728378544310302E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>26.0904255319148</v>
+        <v>26.105820105820101</v>
       </c>
       <c r="F10" s="4">
-        <v>0.169217188246397</v>
+        <v>0.16708856010734</v>
       </c>
       <c r="G10" s="3">
-        <v>2.0391605207291801</v>
+        <v>1.9810938896069701</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
@@ -2662,19 +2674,19 @@
         <v>45302</v>
       </c>
       <c r="C11" s="23">
-        <v>7.2501034108464601E-3</v>
+        <v>7.2473674122402101E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.9029031126474699E-2</v>
+        <v>4.9278166847377999E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>25.8</v>
+        <v>25.815533980582501</v>
       </c>
       <c r="F11" s="4">
-        <v>0.16924337333350301</v>
+        <v>0.16729028156957601</v>
       </c>
       <c r="G11" s="3">
-        <v>2.5535182993593999</v>
+        <v>2.47980192578467</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
@@ -2682,19 +2694,19 @@
         <v>45303</v>
       </c>
       <c r="C12" s="23">
-        <v>7.0882699788164796E-3</v>
+        <v>6.9990607891264002E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.6464832114715403E-2</v>
+        <v>5.6622128521845998E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>25.551282051282001</v>
+        <v>25.685106382978699</v>
       </c>
       <c r="F12" s="4">
-        <v>0.16527336565928599</v>
+        <v>0.163627477042669</v>
       </c>
       <c r="G12" s="3">
-        <v>3.14082022862639</v>
+        <v>3.0491931355090398</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
@@ -2702,19 +2714,19 @@
         <v>45307</v>
       </c>
       <c r="C13" s="23">
-        <v>6.8611422548199297E-3</v>
+        <v>6.78933418312059E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.3713387615068798E-2</v>
+        <v>6.3795889257661095E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>25.020408163265301</v>
+        <v>25.2</v>
       </c>
       <c r="F13" s="4">
-        <v>0.159018918844647</v>
+        <v>0.15791756128207801</v>
       </c>
       <c r="G13" s="3">
-        <v>3.7992889845126099</v>
+        <v>3.6886318406287599</v>
       </c>
       <c r="S13" s="24"/>
     </row>
@@ -2723,19 +2735,19 @@
         <v>45308</v>
       </c>
       <c r="C14" s="23">
-        <v>6.7812185193913896E-3</v>
+        <v>6.7135532210593199E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.0926660538488603E-2</v>
+        <v>7.0937739576536707E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>25.807692307692299</v>
+        <v>25.976923076923001</v>
       </c>
       <c r="F14" s="4">
-        <v>0.16205850536334501</v>
+        <v>0.16102068766015401</v>
       </c>
       <c r="G14" s="3">
-        <v>4.5770545841494901</v>
+        <v>4.4435985637920998</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
@@ -2743,19 +2755,19 @@
         <v>45309</v>
       </c>
       <c r="C15" s="23">
-        <v>7.0660153291168598E-3</v>
+        <v>7.0008561529452404E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.8493844738213497E-2</v>
+        <v>7.8435220640072398E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>26.1</v>
+        <v>26.262962962962899</v>
       </c>
       <c r="F15" s="4">
-        <v>0.17764988721723299</v>
+        <v>0.17665050720675299</v>
       </c>
       <c r="G15" s="3">
-        <v>5.567817702028</v>
+        <v>5.4052130111159302</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
@@ -2763,19 +2775,19 @@
         <v>45310</v>
       </c>
       <c r="C16" s="23">
-        <v>7.0147921073824898E-3</v>
+        <v>6.9262969094722997E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.6059254848143502E-2</v>
+        <v>8.5904783175857896E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>26.2591240875912</v>
+        <v>26.507246376811501</v>
       </c>
       <c r="F16" s="4">
-        <v>0.175307240884576</v>
+        <v>0.17406351900316699</v>
       </c>
       <c r="G16" s="3">
-        <v>6.7192037020034103</v>
+        <v>6.5201269277956397</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
@@ -2783,19 +2795,19 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.6791883529217604E-3</v>
+        <v>6.5986681254156998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>9.3313249173708299E-2</v>
+        <v>9.3070308455836998E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>26.0273037542662</v>
+        <v>26.261016949152499</v>
       </c>
       <c r="F17" s="4">
-        <v>0.16567076744436901</v>
+        <v>0.164572481707459</v>
       </c>
       <c r="G17" s="3">
-        <v>7.9980501033737399</v>
+        <v>7.7577328790580697</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -2803,19 +2815,19 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.4925879105610096E-3</v>
+        <v>6.45301243374113E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>0.100411681557749</v>
+        <v>0.10012390474725499</v>
       </c>
       <c r="E18" s="5">
-        <v>26.5895765472312</v>
+        <v>26.837662337662302</v>
       </c>
       <c r="F18" s="4">
-        <v>0.16274507650505399</v>
+        <v>0.16251512173962501</v>
       </c>
       <c r="G18" s="3">
-        <v>9.4624384558436194</v>
+        <v>9.1809969040613204</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2823,19 +2835,19 @@
         <v>45315</v>
       </c>
       <c r="C19" s="23">
-        <v>6.3477912056175197E-3</v>
+        <v>6.3115127412934798E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.10739686515250101</v>
+        <v>0.107067350789069</v>
       </c>
       <c r="E19" s="5">
-        <v>27.4018126888217</v>
+        <v>27.629518072289098</v>
       </c>
       <c r="F19" s="4">
-        <v>0.15566277818556901</v>
+        <v>0.15547077888005001</v>
       </c>
       <c r="G19" s="3">
-        <v>11.091050692475701</v>
+        <v>10.763844422511101</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -2843,19 +2855,19 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>6.1766145398148798E-3</v>
+        <v>6.1244010048492701E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.114236828731147</v>
+        <v>0.113847475184678</v>
       </c>
       <c r="E20" s="5">
-        <v>27.606936416184901</v>
+        <v>27.530259365994201</v>
       </c>
       <c r="F20" s="4">
-        <v>0.14903056959048</v>
+        <v>0.148136343031124</v>
       </c>
       <c r="G20" s="3">
-        <v>12.8929868641228</v>
+        <v>12.506497315249</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
@@ -2863,19 +2875,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>6.0251522435735699E-3</v>
+        <v>5.9979141032070402E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.12095027525964901</v>
+        <v>0.120528236664909</v>
       </c>
       <c r="E21" s="5">
         <v>27.429362880886401</v>
       </c>
       <c r="F21" s="4">
-        <v>0.14476539917883299</v>
+        <v>0.1443245195858</v>
       </c>
       <c r="G21" s="3">
-        <v>14.9042106532938</v>
+        <v>14.4558160515592</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -2883,19 +2895,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.9272893816893699E-3</v>
+        <v>5.9277443349162696E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.12759447192359699</v>
+        <v>0.12717044157191301</v>
       </c>
       <c r="E22" s="5">
-        <v>27.550135501355001</v>
+        <v>27.533875338753301</v>
       </c>
       <c r="F22" s="4">
-        <v>0.14288196754508001</v>
+        <v>0.14253961714986099</v>
       </c>
       <c r="G22" s="3">
-        <v>17.176635563687899</v>
+        <v>16.658882154287099</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
@@ -2903,19 +2915,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.8685801758809998E-3</v>
+        <v>5.8333885764204202E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.134211850487961</v>
+        <v>0.13374566474945701</v>
       </c>
       <c r="E23" s="5">
-        <v>27.429268292682899</v>
+        <v>27.3722627737226</v>
       </c>
       <c r="F23" s="4">
-        <v>0.14149137751282601</v>
+        <v>0.14040369540817199</v>
       </c>
       <c r="G23" s="3">
-        <v>19.748472768142701</v>
+        <v>19.138254465526401</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -2923,19 +2935,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.9078496950046699E-3</v>
+        <v>5.8775749660959801E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.140912603622937</v>
+        <v>0.140409339886509</v>
       </c>
       <c r="E24" s="5">
-        <v>27.25</v>
+        <v>27.232300884955698</v>
       </c>
       <c r="F24" s="4">
-        <v>0.13722237817956201</v>
+        <v>0.13643030391017</v>
       </c>
       <c r="G24" s="3">
-        <v>22.595627544981099</v>
+        <v>21.885722642478601</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -2943,19 +2955,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.6380257189617604E-3</v>
+        <v>5.6385192274993603E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14734509822524999</v>
+        <v>0.14683955987667899</v>
       </c>
       <c r="E25" s="5">
-        <v>27.744680851063801</v>
+        <v>27.638297872340399</v>
       </c>
       <c r="F25" s="4">
-        <v>0.13094825366659099</v>
+        <v>0.12984029464142399</v>
       </c>
       <c r="G25" s="3">
-        <v>25.685433766163701</v>
+        <v>24.857211613459899</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -2963,19 +2975,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.4882220974648002E-3</v>
+        <v>5.3974181626806998E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.153641982946748</v>
+        <v>0.15302953254683799</v>
       </c>
       <c r="E26" s="5">
-        <v>27.3701431492842</v>
+        <v>27.3217213114754</v>
       </c>
       <c r="F26" s="4">
-        <v>0.12735691226892501</v>
+        <v>0.12644827226719499</v>
       </c>
       <c r="G26" s="3">
-        <v>29.084008213179299</v>
+        <v>28.1268113476292</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2983,19 +2995,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.4713536784347398E-3</v>
+        <v>5.4019286919324699E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.159953966253741</v>
+        <v>0.159258115861348</v>
       </c>
       <c r="E27" s="5">
-        <v>26.956777996070699</v>
+        <v>26.8994082840236</v>
       </c>
       <c r="F27" s="4">
-        <v>0.12999560747667899</v>
+        <v>0.12961359114159901</v>
       </c>
       <c r="G27" s="3">
-        <v>32.994797136184999</v>
+        <v>31.902041964899301</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -3003,19 +3015,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.3559800131821496E-3</v>
+        <v>5.2892583267656699E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.166166656513207</v>
+        <v>0.165389731503538</v>
       </c>
       <c r="E28" s="5">
-        <v>26.677298311444599</v>
+        <v>26.6214689265536</v>
       </c>
       <c r="F28" s="4">
-        <v>0.12616772173173499</v>
+        <v>0.12578855402293099</v>
       </c>
       <c r="G28" s="3">
-        <v>37.283843241589999</v>
+        <v>36.040742248065797</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -3023,19 +3035,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>5.2309468277355704E-3</v>
+        <v>5.1114957811656501E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.17226681228570601</v>
+        <v>0.17134661619953301</v>
       </c>
       <c r="E29" s="5">
-        <v>26.6551724137931</v>
+        <v>26.528880866425901</v>
       </c>
       <c r="F29" s="4">
-        <v>0.124171626717424</v>
+        <v>0.122042187225311</v>
       </c>
       <c r="G29" s="3">
-        <v>42.037610333892999</v>
+        <v>40.561275448468798</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -3043,19 +3055,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.3385481728144696E-3</v>
+        <v>5.22269680724832E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.17852501513448499</v>
+        <v>0.17746420443213901</v>
       </c>
       <c r="E30" s="5">
-        <v>26.225919439579599</v>
+        <v>26.1062717770034</v>
       </c>
       <c r="F30" s="4">
-        <v>0.12070790175769699</v>
+        <v>0.118670761855691</v>
       </c>
       <c r="G30" s="3">
-        <v>47.232589973962597</v>
+        <v>45.493383669632799</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -3063,19 +3075,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>5.2357123029415998E-3</v>
+        <v>5.1240931187504501E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.184695433055549</v>
+        <v>0.18349764065964499</v>
       </c>
       <c r="E31" s="5">
-        <v>26.277966101694901</v>
+        <v>26.1618887015177</v>
       </c>
       <c r="F31" s="4">
-        <v>0.118246949426472</v>
+        <v>0.116287530460607</v>
       </c>
       <c r="G31" s="3">
-        <v>52.935946601321596</v>
+        <v>50.899984439332002</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3083,350 +3095,339 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>5.17258488045628E-3</v>
+        <v>5.0830954236597602E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.190823370740518</v>
+        <v>0.189513472100794</v>
       </c>
       <c r="E32" s="5">
-        <v>26.147299509001598</v>
+        <v>25.9983739837398</v>
       </c>
       <c r="F32" s="4">
-        <v>0.11559973062265499</v>
+        <v>0.11361406975721899</v>
       </c>
       <c r="G32" s="3">
-        <v>59.170927499312299</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+        <v>56.796552891820802</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="13">
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.4628598550651797E-3</v>
+        <v>5.3766679596230103E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.19732867192700901</v>
+        <v>0.19590909107377799</v>
       </c>
       <c r="E33" s="5">
-        <v>25.7808641975308</v>
+        <v>25.642638036809799</v>
       </c>
       <c r="F33" s="4">
-        <v>0.11020450309062101</v>
+        <v>0.10836462498921701</v>
       </c>
       <c r="G33" s="3">
-        <v>65.802034664875805</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+        <v>63.059654671612499</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="13">
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.5006639394995799E-3</v>
+        <v>5.4170610727843904E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.203914774576407</v>
+        <v>0.20238740365762301</v>
       </c>
       <c r="E34" s="5">
-        <v>25.497014925373101</v>
+        <v>25.3649851632047</v>
       </c>
       <c r="F34" s="4">
-        <v>0.10755943441791101</v>
+        <v>0.105795309421733</v>
       </c>
       <c r="G34" s="3">
-        <v>72.987223731395602</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+        <v>69.836865659045102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="13">
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.4021202696509299E-3</v>
+        <v>5.3185840590052602E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.21041846698307901</v>
+        <v>0.20878240213546501</v>
       </c>
       <c r="E35" s="5">
-        <v>25.447870778267198</v>
+        <v>25.336734693877499</v>
       </c>
       <c r="F35" s="4">
-        <v>0.105742552103485</v>
+        <v>0.10409010508505601</v>
       </c>
       <c r="G35" s="3">
-        <v>80.810821591804995</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+        <v>77.210282449391201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="13">
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.4654425267513101E-3</v>
+        <v>5.3922056742494702E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.21703393954769301</v>
+        <v>0.21530040546319301</v>
       </c>
       <c r="E36" s="5">
-        <v>25.6993006993007</v>
+        <v>25.405857740585699</v>
       </c>
       <c r="F36" s="4">
-        <v>0.105767870137501</v>
+        <v>0.103632605922724</v>
       </c>
       <c r="G36" s="3">
-        <v>89.463777945769294</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+        <v>85.315417829573903</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="13">
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.3687935475696799E-3</v>
+        <v>5.3131572353693202E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.22356794350951001</v>
+        <v>0.221757487605627</v>
       </c>
       <c r="E37" s="5">
-        <v>25.440700808625301</v>
+        <v>25.109164420485101</v>
       </c>
       <c r="F37" s="4">
-        <v>0.10290934859572699</v>
+        <v>0.101186136500357</v>
       </c>
       <c r="G37" s="3">
-        <v>98.773346405677003</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+        <v>94.049341480162596</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" s="13">
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.3135259890372899E-3</v>
+        <v>5.2570336124871699E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.230069403576701</v>
+        <v>0.228180307784277</v>
       </c>
       <c r="E38" s="5">
-        <v>25.060052219321101</v>
+        <v>24.764705882352899</v>
       </c>
       <c r="F38" s="4">
-        <v>0.10046584555926601</v>
+        <v>9.8878397479278804E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>108.7971600166</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+        <v>103.447668047181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" s="13">
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.3767145373870796E-3</v>
+        <v>5.3179899700457004E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.23668313562090601</v>
+        <v>0.23471175834248201</v>
       </c>
       <c r="E39" s="5">
-        <v>25.020382165605</v>
+        <v>24.7006369426751</v>
       </c>
       <c r="F39" s="4">
-        <v>9.9001965427683497E-2</v>
+        <v>9.7325536279818797E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>119.667294656622</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+        <v>113.61309335305</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" s="13">
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.1989678040650703E-3</v>
+        <v>5.2075142991858496E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.24311261142682999</v>
+        <v>0.24114153747942299</v>
       </c>
       <c r="E40" s="5">
-        <v>25.219512195121901</v>
+        <v>24.764346764346701</v>
       </c>
       <c r="F40" s="4">
-        <v>9.6596495239098801E-2</v>
+        <v>9.4387819917312807E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>131.323332410435</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+        <v>124.431173368624</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="13">
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.1989428915221701E-3</v>
+        <v>5.20727569460714E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.24957548290136899</v>
+        <v>0.247604503641107</v>
       </c>
       <c r="E41" s="5">
-        <v>25.1498216409036</v>
+        <v>24.705952380952301</v>
       </c>
       <c r="F41" s="4">
-        <v>9.6194130329618002E-2</v>
+        <v>9.4040192885032098E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>144.05206029397399</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+        <v>136.22674510600501</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="13">
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>5.1940469623664902E-3</v>
+        <v>5.2059479763676203E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.25606583664258098</v>
+        <v>0.25409946778214498</v>
       </c>
       <c r="E42" s="5">
-        <v>25.158323632130301</v>
+        <v>24.7514585764294</v>
       </c>
       <c r="F42" s="4">
-        <v>9.7397465341743095E-2</v>
+        <v>9.5398986707292702E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>158.17976330920499</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+        <v>149.31803753825801</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="13">
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.3850781251074797E-3</v>
+        <v>5.3970712399390997E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.26282984930317899</v>
+        <v>0.26086793195173502</v>
       </c>
       <c r="E43" s="5">
-        <v>24.658757062146801</v>
+        <v>24.2604756511891</v>
       </c>
       <c r="F43" s="4">
-        <v>9.4952160975922198E-2</v>
+        <v>9.2999356058848695E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>173.29422581905001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+        <v>163.29751823334601</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="13">
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.4142324567540796E-3</v>
+        <v>5.4338689027825099E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.26966710366063401</v>
+        <v>0.26771932299768297</v>
       </c>
       <c r="E44" s="5">
-        <v>24.4511525795828</v>
+        <v>24.050660792951501</v>
       </c>
       <c r="F44" s="4">
-        <v>9.2644561906793405E-2</v>
+        <v>9.0912546659194807E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>189.44163801293899</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+        <v>178.23422402572501</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" s="13">
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.3627563324425897E-3</v>
+        <v>5.38492150066974E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.27647601896088397</v>
+        <v>0.27454589203690699</v>
       </c>
       <c r="E45" s="5">
-        <v>24.4192849404117</v>
+        <v>24.016304347826001</v>
       </c>
       <c r="F45" s="4">
-        <v>9.0314457907003307E-2</v>
+        <v>8.8571800339879603E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>206.641271313</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+        <v>194.109321930205</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" s="13">
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.2097377639255702E-3</v>
+        <v>5.2261274085394103E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.28312612428160999</v>
+        <v>0.28120683125672302</v>
       </c>
       <c r="E46" s="5">
-        <v>24.124872057318299</v>
+        <v>23.7392197125256</v>
       </c>
       <c r="F46" s="4">
-        <v>8.8682982644559705E-2</v>
+        <v>8.6975712642994196E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>225.05551857314501</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+        <v>211.07909424837601</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" s="13">
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>5.1673147505693203E-3</v>
+        <v>5.1831668474800396E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.28975644083045099</v>
+        <v>0.287847540029257</v>
       </c>
       <c r="E47" s="5">
-        <v>24.3662674650698</v>
+        <v>23.990990990990898</v>
       </c>
       <c r="F47" s="4">
-        <v>9.0426642171791805E-2</v>
+        <v>8.8767332859536405E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>245.49696006211801</v>
-      </c>
-      <c r="J47" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.6129126195257461E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+        <v>229.90478980007001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" s="13">
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>5.1861794279621596E-3</v>
+        <v>5.2016544414441399E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.29644534915096798</v>
+        <v>0.294546477905754</v>
       </c>
       <c r="E48" s="5">
-        <v>24.299029126213501</v>
+        <v>23.933787731256</v>
       </c>
       <c r="F48" s="4">
-        <v>9.0238053493079201E-2</v>
+        <v>8.8623432491151996E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>267.74036593008498</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.12263403357625359</v>
+        <v>250.36836485079999</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
@@ -3434,26 +3435,23 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.2443182145835701E-3</v>
+        <v>5.2595334183769896E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.30324432110973298</v>
+        <v>0.30135518836794101</v>
       </c>
       <c r="E49" s="5">
-        <v>23.920679886685502</v>
+        <v>23.564393939393899</v>
       </c>
       <c r="F49" s="4">
-        <v>8.8575757391130105E-2</v>
+        <v>8.7000754874761596E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>291.544247383911</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J49" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.364682095523015</v>
+        <v>272.23760234445501</v>
+      </c>
+      <c r="J49" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.5881816598588891E-3</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
@@ -3461,22 +3459,26 @@
         <v>45359</v>
       </c>
       <c r="C50" s="23">
-        <v>5.2877018202347401E-3</v>
+        <v>5.30241128966013E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>0.310135488478675</v>
+        <v>0.30825550881060099</v>
       </c>
       <c r="E50" s="5">
-        <v>23.721668177697101</v>
+        <v>23.378181818181801</v>
       </c>
       <c r="F50" s="4">
-        <v>8.6498858763070494E-2</v>
+        <v>8.4977607482840001E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>316.848990920321</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>0</v>
+        <v>295.45668006603398</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.11981782719567564</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
@@ -3484,25 +3486,26 @@
         <v>45362</v>
       </c>
       <c r="C51" s="23">
-        <v>5.2663114358908704E-3</v>
+        <v>5.2820401789899904E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>0.31703506998421699</v>
+        <v>0.31516576697252402</v>
       </c>
       <c r="E51" s="5">
-        <v>23.5053571428571</v>
+        <v>23.149641577060901</v>
       </c>
       <c r="F51" s="4">
-        <v>8.6044176205938003E-2</v>
+        <v>8.44765005674879E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>344.19804550194903</v>
-      </c>
-      <c r="J51" s="14">
-        <v>250</v>
-      </c>
-      <c r="L51" s="14">
-        <v>365</v>
+        <v>320.50030296786798</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>25.112648418841481</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.35">
@@ -3510,30 +3513,22 @@
         <v>45363</v>
       </c>
       <c r="C52" s="23">
-        <v>5.3919743849373501E-3</v>
+        <v>5.4170353223653199E-3</v>
       </c>
       <c r="D52" s="2">
-        <v>0.32413648934563599</v>
+        <v>0.32229006638697899</v>
       </c>
       <c r="E52" s="5">
-        <v>23.210113339145501</v>
+        <v>22.8511383537653</v>
       </c>
       <c r="F52" s="4">
-        <v>8.4756742388092596E-2</v>
+        <v>8.3452968344144299E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>373.45590731743101</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="21">
-        <f>POWER(1+J47,J51)-1</f>
-        <v>3.0523814909188953</v>
-      </c>
-      <c r="L52" s="21">
-        <f>POWER(1+J47,L51)-1</f>
-        <v>6.7135992458099469</v>
+        <v>347.33045757407803</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
@@ -3541,33 +3536,25 @@
         <v>45364</v>
       </c>
       <c r="C53" s="23">
-        <v>5.3639194293548199E-3</v>
+        <v>5.38826072488031E-3</v>
       </c>
       <c r="D53" s="2">
-        <v>0.33123905078795501</v>
+        <v>0.32941491001859202</v>
       </c>
       <c r="E53" s="5">
-        <v>23.185531914893598</v>
+        <v>22.835042735042698</v>
       </c>
       <c r="F53" s="4">
-        <v>8.3838663857038101E-2</v>
+        <v>8.2562167830675506E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>404.84979026029902</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J53" s="20">
-        <f>POWER(1+J47*M53,J51)-1</f>
-        <v>31.579560958974099</v>
-      </c>
-      <c r="L53" s="20">
-        <f>POWER(1+J47*M53,L51)-1</f>
-        <v>160.77076234548321</v>
-      </c>
-      <c r="M53">
-        <v>2.5</v>
+        <v>376.08937527284502</v>
+      </c>
+      <c r="J53" s="14">
+        <v>250</v>
+      </c>
+      <c r="L53" s="14">
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.35">
@@ -3575,87 +3562,152 @@
         <v>45365</v>
       </c>
       <c r="C54" s="23">
-        <v>5.4315886709585303E-3</v>
+        <v>5.4556434806186703E-3</v>
       </c>
       <c r="D54" s="2">
-        <v>0.33846979373455199</v>
+        <v>0.336667723805472</v>
       </c>
       <c r="E54" s="5">
-        <v>23.103075644222699</v>
+        <v>22.760434056761198</v>
       </c>
       <c r="F54" s="4">
-        <v>8.4227533484226402E-2</v>
+        <v>8.2982495084636898E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>439.033517059014</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>407.38119250289299</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="21">
+        <f>POWER(1+J49,J53)-1</f>
+        <v>3.0275426459810415</v>
+      </c>
+      <c r="L54" s="21">
+        <f>POWER(1+J49,L53)-1</f>
+        <v>6.6446677608471427</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="13">
         <v>45366</v>
       </c>
       <c r="C55" s="23">
-        <v>5.4861252732494098E-3</v>
+        <v>5.4998006896297101E-3</v>
       </c>
       <c r="D55" s="2">
-        <v>0.34581280669744002</v>
+        <v>0.34401912987466299</v>
       </c>
       <c r="E55" s="5">
-        <v>23.175941080196399</v>
+        <v>22.850574712643599</v>
       </c>
       <c r="F55" s="4">
-        <v>8.7553073054293107E-2</v>
+        <v>8.6059196869870694E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>477.55980372442002</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>442.52614994645199</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="20">
+        <f>POWER(1+J49*M55,J53)-1</f>
+        <v>31.086702958043368</v>
+      </c>
+      <c r="L55" s="20">
+        <f>POWER(1+J49*M55,L53)-1</f>
+        <v>157.2102573543778</v>
+      </c>
+      <c r="M55">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="13">
         <v>45369</v>
       </c>
       <c r="C56" s="23">
-        <v>5.4428485880103801E-3</v>
+        <v>5.4656306788610897E-3</v>
       </c>
       <c r="D56" s="2">
-        <v>0.35313786203210001</v>
+        <v>0.35136504206388203</v>
       </c>
       <c r="E56" s="5">
-        <v>23.128307939053698</v>
+        <v>22.818035426731001</v>
       </c>
       <c r="F56" s="4">
-        <v>8.8463809244743605E-2</v>
+        <v>8.7134496084872504E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>519.89502691329903</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+        <v>481.17257752249998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="18" x14ac:dyDescent="0.4">
       <c r="B57" s="13">
         <v>45370</v>
       </c>
       <c r="C57" s="23">
-        <v>5.4207868985902E-3</v>
+        <v>5.4405091706907901E-3</v>
       </c>
       <c r="D57" s="2">
-        <v>0.36047293402658998</v>
+        <v>0.35871715596818199</v>
       </c>
       <c r="E57" s="5">
-        <v>23.127490039840598</v>
+        <v>22.822541966426801</v>
       </c>
       <c r="F57" s="4">
-        <v>8.8106884645630504E-2</v>
+        <v>8.6756465518761205E-2</v>
       </c>
       <c r="G57" s="3">
-        <v>565.78946496203196</v>
+        <v>523.00416611842297</v>
       </c>
       <c r="I57" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="B58" s="13">
+        <v>45371</v>
+      </c>
+      <c r="C58" s="23">
+        <v>5.4059117082589396E-3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.36606226094984301</v>
+      </c>
+      <c r="E58" s="5">
+        <v>22.829113924050599</v>
+      </c>
+      <c r="F58" s="4">
+        <v>8.6046552247046701E-2</v>
+      </c>
+      <c r="G58" s="3">
+        <v>568.09291797600201</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B59" s="13">
+        <v>45372</v>
+      </c>
+      <c r="C59" s="23">
+        <v>5.7095055863111699E-3</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.37386180105998501</v>
+      </c>
+      <c r="E59" s="5">
+        <v>22.660015349194101</v>
+      </c>
+      <c r="F59" s="4">
+        <v>8.6599605656780598E-2</v>
+      </c>
+      <c r="G59" s="3">
+        <v>617.37614025479104</v>
+      </c>
+      <c r="I59" s="22" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Session/_Annual_20231229.xlsx
+++ b/Session/_Annual_20231229.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdang\source\repos\DDRINQ\Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9CFFAD-6623-4684-A303-D12738A940C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62187280-8827-49D5-9032-8D9E6A36A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$B$3:$B$60</c:f>
+              <c:f>_Annual_20231229!$B$3:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>mm/dd/yy;@</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>45289</c:v>
                 </c:pt>
@@ -1109,186 +1109,216 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>45372</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45373</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45377</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45378</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>_Annual_20231229!$D$3:$D$60</c:f>
+              <c:f>_Annual_20231229!$D$3:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3.6851530580226301E-3</c:v>
+                  <c:v>3.6082678107927E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.52417019163575E-3</c:v>
+                  <c:v>7.40305542795294E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1889454577129499E-2</c:v>
+                  <c:v>1.1742551248818E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7018784986549001E-2</c:v>
+                  <c:v>1.68586592883288E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2586088475263499E-2</c:v>
+                  <c:v>2.2418125633274E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.79044802589372E-2</c:v>
+                  <c:v>2.7724305928686601E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4580871267479302E-2</c:v>
+                  <c:v>3.4405451540846899E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1728378544310302E-2</c:v>
+                  <c:v>4.1277135092668997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9278166847377999E-2</c:v>
+                  <c:v>4.8587916774559502E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6622128521845998E-2</c:v>
+                  <c:v>5.5776945158185501E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3795889257661095E-2</c:v>
+                  <c:v>6.2796432297031093E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0937739576536707E-2</c:v>
+                  <c:v>6.9789552460122195E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8435220640072398E-2</c:v>
+                  <c:v>7.7146036597809595E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5904783175857896E-2</c:v>
+                  <c:v>8.4452729957175995E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3070308455836998E-2</c:v>
+                  <c:v>9.1477257502003501E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10012390474725499</c:v>
+                  <c:v>9.8391870781574298E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.107067350789069</c:v>
+                  <c:v>0.10520244825167301</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.113847475184678</c:v>
+                  <c:v>0.111789179261991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.120528236664909</c:v>
+                  <c:v>0.118280518974934</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12717044157191301</c:v>
+                  <c:v>0.124734539741817</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.13374566474945701</c:v>
+                  <c:v>0.13113700780210599</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.140409339886509</c:v>
+                  <c:v>0.13764820502557701</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.14683955987667899</c:v>
+                  <c:v>0.14392849098265001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.15302953254683799</c:v>
+                  <c:v>0.149970952612795</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.159258115861348</c:v>
+                  <c:v>0.15605554444987099</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.165389731503538</c:v>
+                  <c:v>0.16204716180595399</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.17134661619953301</c:v>
+                  <c:v>0.16786730281783299</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.17746420443213901</c:v>
+                  <c:v>0.17385135667694601</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.18349764065964499</c:v>
+                  <c:v>0.17975793322042499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.189513472100794</c:v>
+                  <c:v>0.185649540409942</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.19590909107377799</c:v>
+                  <c:v>0.19192628122355199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.20238740365762301</c:v>
+                  <c:v>0.19830192297207799</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20878240213546501</c:v>
+                  <c:v>0.20459440540745699</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21530040546319301</c:v>
+                  <c:v>0.21101264335204101</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.221757487605627</c:v>
+                  <c:v>0.217387008372531</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.228180307784277</c:v>
+                  <c:v>0.22372797563241101</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.23471175834248201</c:v>
+                  <c:v>0.230178560599514</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24114153747942299</c:v>
+                  <c:v>0.23660769348694899</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.247604503641107</c:v>
+                  <c:v>0.24304775135847401</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.25409946778214498</c:v>
+                  <c:v>0.24953624176296699</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26086793195173502</c:v>
+                  <c:v>0.256306955963778</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26771932299768297</c:v>
+                  <c:v>0.26315257849379498</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.27454589203690699</c:v>
+                  <c:v>0.26997288090114802</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28120683125672302</c:v>
+                  <c:v>0.276625644852313</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.287847540029257</c:v>
+                  <c:v>0.28325319882879402</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.294546477905754</c:v>
+                  <c:v>0.28988339843271799</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.30135518836794101</c:v>
+                  <c:v>0.29662713997984202</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.30825550881060099</c:v>
+                  <c:v>0.303466562126262</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.31516576697252402</c:v>
+                  <c:v>0.31031576484265799</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.32229006638697899</c:v>
+                  <c:v>0.31738612121521398</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.32941491001859202</c:v>
+                  <c:v>0.32445361996566602</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.336667723805472</c:v>
+                  <c:v>0.33164999330002498</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.34401912987466299</c:v>
+                  <c:v>0.33894539438174398</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.35136504206388203</c:v>
+                  <c:v>0.34623508515498602</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.35871715596818199</c:v>
+                  <c:v>0.35353049723326102</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.36606226094984301</c:v>
+                  <c:v>0.36081842951065302</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.37386180105998501</c:v>
+                  <c:v>0.368577870322715</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.376647139422771</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.38472750450734799</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.392847708880048</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.40096277921361301</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.40912980117088699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,16 +2131,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>25168</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>86691</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298218</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>297679</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>82825</xdr:rowOff>
+      <xdr:colOff>259579</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2139,8 +2169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G59" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="B2:G59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:G64" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B2:G64" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Daily Return" dataDxfId="4"/>
@@ -2451,11 +2481,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:S59"/>
+  <dimension ref="B2:S64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y63" sqref="Y63"/>
+      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T69" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2497,8 +2527,8 @@
         <v>13</v>
       </c>
       <c r="I2" s="25" t="str">
-        <f>"Forecast Annual Cumulative Realized Return: " &amp;L53 &amp; " -&gt; " &amp; TEXT(L54,"#%")</f>
-        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 664%</v>
+        <f>"Forecast Annual Cumulative Realized Return: " &amp;L58 &amp; " -&gt; " &amp; TEXT(L59,"#%")</f>
+        <v>Forecast Annual Cumulative Realized Return: 365 -&gt; 653%</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -2514,19 +2544,19 @@
         <v>45289</v>
       </c>
       <c r="C3" s="23">
-        <v>3.68515305802267E-3</v>
+        <v>3.6082678107926102E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>3.6851530580226301E-3</v>
+        <v>3.6082678107927E-3</v>
       </c>
       <c r="E3" s="5">
-        <v>17.5833333333333</v>
+        <v>17.652173913043399</v>
       </c>
       <c r="F3" s="4">
-        <v>8.7156144072653499E-2</v>
+        <v>8.7151792949333104E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>8.7156144072653596E-2</v>
+        <v>8.7151792949333007E-2</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.35">
@@ -2534,19 +2564,19 @@
         <v>45293</v>
       </c>
       <c r="C4" s="23">
-        <v>3.8249217116705101E-3</v>
+        <v>3.7811442361250802E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>7.52417019163575E-3</v>
+        <v>7.40305542795294E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>23.3389830508474</v>
+        <v>23.2586206896551</v>
       </c>
       <c r="F4" s="4">
-        <v>0.105444103658728</v>
+        <v>0.104541014773954</v>
       </c>
       <c r="G4" s="3">
-        <v>0.20179034922147401</v>
+        <v>0.20080374459757999</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.35">
@@ -2554,19 +2584,19 @@
         <v>45294</v>
       </c>
       <c r="C5" s="23">
-        <v>4.3326845297056204E-3</v>
+        <v>4.3076063721303104E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.1889454577129499E-2</v>
+        <v>1.1742551248818E-2</v>
       </c>
       <c r="E5" s="5">
-        <v>23.475609756097501</v>
+        <v>23.4197530864197</v>
       </c>
       <c r="F5" s="4">
-        <v>0.12489710194532</v>
+        <v>0.124490606179514</v>
       </c>
       <c r="G5" s="3">
-        <v>0.35189048098509101</v>
+        <v>0.35029253066516303</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
@@ -2574,19 +2604,19 @@
         <v>45295</v>
       </c>
       <c r="C6" s="23">
-        <v>5.0690620267044399E-3</v>
+        <v>5.0567291384510998E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>1.7018784986549001E-2</v>
+        <v>1.68586592883288E-2</v>
       </c>
       <c r="E6" s="5">
-        <v>25.4339622641509</v>
+        <v>25.409523809523801</v>
       </c>
       <c r="F6" s="4">
-        <v>0.16070864312330799</v>
+        <v>0.160736122972333</v>
       </c>
       <c r="G6" s="3">
-        <v>0.56915096583552105</v>
+        <v>0.56733331692278199</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
@@ -2594,19 +2624,19 @@
         <v>45296</v>
       </c>
       <c r="C7" s="23">
-        <v>5.4741402724315597E-3</v>
+        <v>5.4672950799633004E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.2586088475263499E-2</v>
+        <v>2.2418125633274E-2</v>
       </c>
       <c r="E7" s="5">
-        <v>26.328244274809101</v>
+        <v>26.315384615384598</v>
       </c>
       <c r="F7" s="4">
-        <v>0.18053363137974601</v>
+        <v>0.18070832655208599</v>
       </c>
       <c r="G7" s="3">
-        <v>0.852435487880845</v>
+        <v>0.85056349777322904</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.35">
@@ -2614,19 +2644,19 @@
         <v>45299</v>
       </c>
       <c r="C8" s="23">
-        <v>5.2009232705323202E-3</v>
+        <v>5.18983394599545E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.79044802589372E-2</v>
+        <v>2.7724305928686601E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>28.2602739726027</v>
+        <v>28.3888888888888</v>
       </c>
       <c r="F8" s="4">
-        <v>0.17347876298373899</v>
+        <v>0.17440089720027499</v>
       </c>
       <c r="G8" s="3">
-        <v>1.17379370482559</v>
+        <v>1.1733034321109601</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.35">
@@ -2634,19 +2664,19 @@
         <v>45300</v>
       </c>
       <c r="C9" s="23">
-        <v>6.4951472989594802E-3</v>
+        <v>6.5009123299103301E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.4580871267479302E-2</v>
+        <v>3.4405451540846899E-2</v>
       </c>
       <c r="E9" s="5">
-        <v>27.287356321838999</v>
+        <v>27.383720930232499</v>
       </c>
       <c r="F9" s="4">
-        <v>0.17504233953273601</v>
+        <v>0.17583253999947501</v>
       </c>
       <c r="G9" s="3">
-        <v>1.5542996405798</v>
+        <v>1.5554408947686</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
@@ -2654,19 +2684,19 @@
         <v>45301</v>
       </c>
       <c r="C10" s="23">
-        <v>6.9086018071014398E-3</v>
+        <v>6.6431238752523297E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>4.1728378544310302E-2</v>
+        <v>4.1277135092668997E-2</v>
       </c>
       <c r="E10" s="5">
-        <v>26.105820105820101</v>
+        <v>26.315508021390301</v>
       </c>
       <c r="F10" s="4">
-        <v>0.16708856010734</v>
+        <v>0.16759543830891499</v>
       </c>
       <c r="G10" s="3">
-        <v>1.9810938896069701</v>
+        <v>1.98372113159987</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
@@ -2674,19 +2704,19 @@
         <v>45302</v>
       </c>
       <c r="C11" s="23">
-        <v>7.2473674122402101E-3</v>
+        <v>7.0209759107404297E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>4.9278166847377999E-2</v>
+        <v>4.8587916774559502E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>25.815533980582501</v>
+        <v>26.123152709359601</v>
       </c>
       <c r="F11" s="4">
-        <v>0.16729028156957601</v>
+        <v>0.16854153254418799</v>
       </c>
       <c r="G11" s="3">
-        <v>2.47980192578467</v>
+        <v>2.4866020638042001</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
@@ -2694,19 +2724,19 @@
         <v>45303</v>
       </c>
       <c r="C12" s="23">
-        <v>6.9990607891264002E-3</v>
+        <v>6.8559138138261999E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.6622128521845998E-2</v>
+        <v>5.5776945158185501E-2</v>
       </c>
       <c r="E12" s="5">
-        <v>25.685106382978699</v>
+        <v>26.034632034632001</v>
       </c>
       <c r="F12" s="4">
-        <v>0.163627477042669</v>
+        <v>0.165588938901717</v>
       </c>
       <c r="G12" s="3">
-        <v>3.0491931355090398</v>
+        <v>3.0639447999220799</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
@@ -2714,19 +2744,19 @@
         <v>45307</v>
       </c>
       <c r="C13" s="23">
-        <v>6.78933418312059E-3</v>
+        <v>6.6486459768202999E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6.3795889257661095E-2</v>
+        <v>6.2796432297031093E-2</v>
       </c>
       <c r="E13" s="5">
-        <v>25.2</v>
+        <v>25.526970954356798</v>
       </c>
       <c r="F13" s="4">
-        <v>0.15791756128207801</v>
+        <v>0.159702864296177</v>
       </c>
       <c r="G13" s="3">
-        <v>3.6886318406287599</v>
+        <v>3.7129684248111898</v>
       </c>
       <c r="S13" s="24"/>
     </row>
@@ -2735,19 +2765,19 @@
         <v>45308</v>
       </c>
       <c r="C14" s="23">
-        <v>6.7135532210593199E-3</v>
+        <v>6.5799243868147296E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>7.0937739576536707E-2</v>
+        <v>6.9789552460122195E-2</v>
       </c>
       <c r="E14" s="5">
-        <v>25.976923076923001</v>
+        <v>26.296875</v>
       </c>
       <c r="F14" s="4">
-        <v>0.16102068766015401</v>
+        <v>0.16274986942542899</v>
       </c>
       <c r="G14" s="3">
-        <v>4.4435985637920998</v>
+        <v>4.4800034205553798</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
@@ -2755,19 +2785,19 @@
         <v>45309</v>
       </c>
       <c r="C15" s="23">
-        <v>7.0008561529452404E-3</v>
+        <v>6.8765713039261704E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>7.8435220640072398E-2</v>
+        <v>7.7146036597809595E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>26.262962962962899</v>
+        <v>26.575187969924801</v>
       </c>
       <c r="F15" s="4">
-        <v>0.17665050720675299</v>
+        <v>0.17854971701914699</v>
       </c>
       <c r="G15" s="3">
-        <v>5.4052130111159302</v>
+        <v>5.4584564805594997</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
@@ -2775,19 +2805,19 @@
         <v>45310</v>
       </c>
       <c r="C16" s="23">
-        <v>6.9262969094722997E-3</v>
+        <v>6.7833823001796096E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>8.5904783175857896E-2</v>
+        <v>8.4452729957175995E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>26.507246376811501</v>
+        <v>26.7948717948717</v>
       </c>
       <c r="F16" s="4">
-        <v>0.17406351900316699</v>
+        <v>0.17533611703018201</v>
       </c>
       <c r="G16" s="3">
-        <v>6.5201269277956397</v>
+        <v>6.5908571618692298</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
@@ -2795,19 +2825,19 @@
         <v>45313</v>
       </c>
       <c r="C17" s="23">
-        <v>6.5986681254156998E-3</v>
+        <v>6.4774861557173498E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>9.3070308455836998E-2</v>
+        <v>9.1477257502003501E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>26.261016949152499</v>
+        <v>26.525773195876202</v>
       </c>
       <c r="F17" s="4">
-        <v>0.164572481707459</v>
+        <v>0.166061104980636</v>
       </c>
       <c r="G17" s="3">
-        <v>7.7577328790580697</v>
+        <v>7.8514032899194097</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -2815,19 +2845,19 @@
         <v>45314</v>
       </c>
       <c r="C18" s="23">
-        <v>6.45301243374113E-3</v>
+        <v>6.3350960654881003E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>0.10012390474725499</v>
+        <v>9.8391870781574298E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>26.837662337662302</v>
+        <v>27.098684210526301</v>
       </c>
       <c r="F18" s="4">
-        <v>0.16251512173962501</v>
+        <v>0.16391301625483301</v>
       </c>
       <c r="G18" s="3">
-        <v>9.1809969040613204</v>
+        <v>9.3022635012580608</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2835,19 +2865,19 @@
         <v>45315</v>
       </c>
       <c r="C19" s="23">
-        <v>6.3115127412934798E-3</v>
+        <v>6.2004987939803403E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.107067350789069</v>
+        <v>0.10520244825167301</v>
       </c>
       <c r="E19" s="5">
-        <v>27.629518072289098</v>
+        <v>27.881097560975601</v>
       </c>
       <c r="F19" s="4">
-        <v>0.15547077888005001</v>
+        <v>0.15668048181049099</v>
       </c>
       <c r="G19" s="3">
-        <v>10.763844422511101</v>
+        <v>10.9164271103738</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -2855,19 +2885,19 @@
         <v>45316</v>
       </c>
       <c r="C20" s="23">
-        <v>6.1244010048492701E-3</v>
+        <v>5.9597506508767602E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.113847475184678</v>
+        <v>0.111789179261991</v>
       </c>
       <c r="E20" s="5">
-        <v>27.530259365994201</v>
+        <v>27.706395348837201</v>
       </c>
       <c r="F20" s="4">
-        <v>0.148136343031124</v>
+        <v>0.148540943845586</v>
       </c>
       <c r="G20" s="3">
-        <v>12.506497315249</v>
+        <v>12.686504440615799</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
@@ -2875,19 +2905,19 @@
         <v>45317</v>
       </c>
       <c r="C21" s="23">
-        <v>5.9979141032070402E-3</v>
+        <v>5.8386426437895197E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>0.120528236664909</v>
+        <v>0.118280518974934</v>
       </c>
       <c r="E21" s="5">
-        <v>27.429362880886401</v>
+        <v>27.597765363128399</v>
       </c>
       <c r="F21" s="4">
-        <v>0.1443245195858</v>
+        <v>0.14468135536747201</v>
       </c>
       <c r="G21" s="3">
-        <v>14.4558160515592</v>
+        <v>14.666686453327101</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -2895,19 +2925,19 @@
         <v>45320</v>
       </c>
       <c r="C22" s="23">
-        <v>5.9277443349162696E-3</v>
+        <v>5.7713790568388297E-3</v>
       </c>
       <c r="D22" s="2">
-        <v>0.12717044157191301</v>
+        <v>0.124734539741817</v>
       </c>
       <c r="E22" s="5">
-        <v>27.533875338753301</v>
+        <v>27.699453551912502</v>
       </c>
       <c r="F22" s="4">
-        <v>0.14253961714986099</v>
+        <v>0.14287402289448101</v>
       </c>
       <c r="G22" s="3">
-        <v>16.658882154287099</v>
+        <v>16.905048972340399</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
@@ -2915,19 +2945,19 @@
         <v>45321</v>
       </c>
       <c r="C23" s="23">
-        <v>5.8333885764204202E-3</v>
+        <v>5.6924259316855396E-3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.13374566474945701</v>
+        <v>0.13113700780210599</v>
       </c>
       <c r="E23" s="5">
-        <v>27.3722627737226</v>
+        <v>27.519607843137202</v>
       </c>
       <c r="F23" s="4">
-        <v>0.14040369540817199</v>
+        <v>0.140687971725098</v>
       </c>
       <c r="G23" s="3">
-        <v>19.138254465526401</v>
+        <v>19.424073995897501</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
@@ -2935,19 +2965,19 @@
         <v>45322</v>
       </c>
       <c r="C24" s="23">
-        <v>5.8775749660959801E-3</v>
+        <v>5.7563294088694298E-3</v>
       </c>
       <c r="D24" s="2">
-        <v>0.140409339886509</v>
+        <v>0.13764820502557701</v>
       </c>
       <c r="E24" s="5">
-        <v>27.232300884955698</v>
+        <v>27.3385300668151</v>
       </c>
       <c r="F24" s="4">
-        <v>0.13643030391017</v>
+        <v>0.13664671380731899</v>
       </c>
       <c r="G24" s="3">
-        <v>21.885722642478601</v>
+        <v>22.2149565899945</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
@@ -2955,19 +2985,19 @@
         <v>45323</v>
       </c>
       <c r="C25" s="23">
-        <v>5.6385192274993603E-3</v>
+        <v>5.5204112565989099E-3</v>
       </c>
       <c r="D25" s="2">
-        <v>0.14683955987667899</v>
+        <v>0.14392849098265001</v>
       </c>
       <c r="E25" s="5">
-        <v>27.638297872340399</v>
+        <v>27.743040685224798</v>
       </c>
       <c r="F25" s="4">
-        <v>0.12984029464142399</v>
+        <v>0.130006029151089</v>
       </c>
       <c r="G25" s="3">
-        <v>24.857211613459899</v>
+        <v>25.233040913174602</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -2975,19 +3005,19 @@
         <v>45324</v>
       </c>
       <c r="C26" s="23">
-        <v>5.3974181626806998E-3</v>
+        <v>5.2822022335983002E-3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.15302953254683799</v>
+        <v>0.149970952612795</v>
       </c>
       <c r="E26" s="5">
-        <v>27.3217213114754</v>
+        <v>27.420618556701001</v>
       </c>
       <c r="F26" s="4">
-        <v>0.12644827226719499</v>
+        <v>0.12658687422367099</v>
       </c>
       <c r="G26" s="3">
-        <v>28.1268113476292</v>
+        <v>28.553799563755</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
@@ -2995,19 +3025,19 @@
         <v>45327</v>
       </c>
       <c r="C27" s="23">
-        <v>5.4019286919324699E-3</v>
+        <v>5.2910830688824503E-3</v>
       </c>
       <c r="D27" s="2">
-        <v>0.159258115861348</v>
+        <v>0.15605554444987099</v>
       </c>
       <c r="E27" s="5">
-        <v>26.8994082840236</v>
+        <v>26.992063492063401</v>
       </c>
       <c r="F27" s="4">
-        <v>0.12961359114159901</v>
+        <v>0.12976580920809599</v>
       </c>
       <c r="G27" s="3">
-        <v>31.902041964899301</v>
+        <v>32.3888722793196</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -3015,19 +3045,19 @@
         <v>45328</v>
       </c>
       <c r="C28" s="23">
-        <v>5.2892583267656699E-3</v>
+        <v>5.1828109685976504E-3</v>
       </c>
       <c r="D28" s="2">
-        <v>0.165389731503538</v>
+        <v>0.16204716180595399</v>
       </c>
       <c r="E28" s="5">
-        <v>26.6214689265536</v>
+        <v>26.7083333333333</v>
       </c>
       <c r="F28" s="4">
-        <v>0.12578855402293099</v>
+        <v>0.12591211992095799</v>
       </c>
       <c r="G28" s="3">
-        <v>36.040742248065797</v>
+        <v>36.5929359697788</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
@@ -3035,19 +3065,19 @@
         <v>45329</v>
       </c>
       <c r="C29" s="23">
-        <v>5.1114957811656501E-3</v>
+        <v>5.0085239249959401E-3</v>
       </c>
       <c r="D29" s="2">
-        <v>0.17134661619953301</v>
+        <v>0.16786730281783299</v>
       </c>
       <c r="E29" s="5">
-        <v>26.528880866425901</v>
+        <v>26.611615245008998</v>
       </c>
       <c r="F29" s="4">
-        <v>0.122042187225311</v>
+        <v>0.12214019755882299</v>
       </c>
       <c r="G29" s="3">
-        <v>40.561275448468798</v>
+        <v>41.184544595943798</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
@@ -3055,19 +3085,19 @@
         <v>45330</v>
       </c>
       <c r="C30" s="23">
-        <v>5.22269680724832E-3</v>
+        <v>5.1239159146541603E-3</v>
       </c>
       <c r="D30" s="2">
-        <v>0.17746420443213901</v>
+        <v>0.17385135667694601</v>
       </c>
       <c r="E30" s="5">
-        <v>26.1062717770034</v>
+        <v>26.1838879159369</v>
       </c>
       <c r="F30" s="4">
-        <v>0.118670761855691</v>
+        <v>0.11874762598468699</v>
       </c>
       <c r="G30" s="3">
-        <v>45.493383669632799</v>
+        <v>46.193859119957303</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
@@ -3075,19 +3105,19 @@
         <v>45331</v>
       </c>
       <c r="C31" s="23">
-        <v>5.1240931187504501E-3</v>
+        <v>5.0317925773842196E-3</v>
       </c>
       <c r="D31" s="2">
-        <v>0.18349764065964499</v>
+        <v>0.17975793322042499</v>
       </c>
       <c r="E31" s="5">
-        <v>26.1618887015177</v>
+        <v>26.179661016949101</v>
       </c>
       <c r="F31" s="4">
-        <v>0.116287530460607</v>
+        <v>0.11620622936941501</v>
       </c>
       <c r="G31" s="3">
-        <v>50.899984439332002</v>
+        <v>51.678079537678997</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
@@ -3095,19 +3125,19 @@
         <v>45334</v>
       </c>
       <c r="C32" s="23">
-        <v>5.0830954236597602E-3</v>
+        <v>4.9939119065170396E-3</v>
       </c>
       <c r="D32" s="2">
-        <v>0.189513472100794</v>
+        <v>0.185649540409942</v>
       </c>
       <c r="E32" s="5">
-        <v>25.9983739837398</v>
+        <v>26.014705882352899</v>
       </c>
       <c r="F32" s="4">
-        <v>0.11361406975721899</v>
+        <v>0.11352258605474499</v>
       </c>
       <c r="G32" s="3">
-        <v>56.796552891820802</v>
+        <v>57.658231355193898</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
@@ -3115,19 +3145,19 @@
         <v>45335</v>
       </c>
       <c r="C33" s="23">
-        <v>5.3766679596230103E-3</v>
+        <v>5.2939259027918002E-3</v>
       </c>
       <c r="D33" s="2">
-        <v>0.19590909107377799</v>
+        <v>0.19192628122355199</v>
       </c>
       <c r="E33" s="5">
-        <v>25.642638036809799</v>
+        <v>25.656394453004602</v>
       </c>
       <c r="F33" s="4">
-        <v>0.10836462498921701</v>
+        <v>0.108254091306293</v>
       </c>
       <c r="G33" s="3">
-        <v>63.059654671612499</v>
+        <v>64.008224888184699</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
@@ -3135,19 +3165,19 @@
         <v>45336</v>
       </c>
       <c r="C34" s="23">
-        <v>5.4170610727843904E-3</v>
+        <v>5.3490235503336698E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>0.20238740365762301</v>
+        <v>0.19830192297207799</v>
       </c>
       <c r="E34" s="5">
-        <v>25.3649851632047</v>
+        <v>25.374626865671601</v>
       </c>
       <c r="F34" s="4">
-        <v>0.105795309421733</v>
+        <v>0.105938456872613</v>
       </c>
       <c r="G34" s="3">
-        <v>69.836865659045102</v>
+        <v>70.895095916866893</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
@@ -3155,19 +3185,19 @@
         <v>45337</v>
       </c>
       <c r="C35" s="23">
-        <v>5.3185840590052602E-3</v>
+        <v>5.2511660999186001E-3</v>
       </c>
       <c r="D35" s="2">
-        <v>0.20878240213546501</v>
+        <v>0.20459440540745699</v>
       </c>
       <c r="E35" s="5">
-        <v>25.336734693877499</v>
+        <v>25.346041055718398</v>
       </c>
       <c r="F35" s="4">
-        <v>0.10409010508505601</v>
+        <v>0.104220732614005</v>
       </c>
       <c r="G35" s="3">
-        <v>77.210282449391201</v>
+        <v>78.388055484676897</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
@@ -3175,19 +3205,19 @@
         <v>45338</v>
       </c>
       <c r="C36" s="23">
-        <v>5.3922056742494702E-3</v>
+        <v>5.32813195526473E-3</v>
       </c>
       <c r="D36" s="2">
-        <v>0.21530040546319301</v>
+        <v>0.21101264335204101</v>
       </c>
       <c r="E36" s="5">
-        <v>25.405857740585699</v>
+        <v>25.415147265077099</v>
       </c>
       <c r="F36" s="4">
-        <v>0.103632605922724</v>
+        <v>0.103754987378676</v>
       </c>
       <c r="G36" s="3">
-        <v>85.315417829573903</v>
+        <v>86.624962179507193</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -3195,19 +3225,19 @@
         <v>45342</v>
       </c>
       <c r="C37" s="23">
-        <v>5.3131572353693202E-3</v>
+        <v>5.2636651280914704E-3</v>
       </c>
       <c r="D37" s="2">
-        <v>0.221757487605627</v>
+        <v>0.217387008372531</v>
       </c>
       <c r="E37" s="5">
-        <v>25.109164420485101</v>
+        <v>25.107191316146501</v>
       </c>
       <c r="F37" s="4">
-        <v>0.101186136500357</v>
+        <v>0.10161142757208701</v>
       </c>
       <c r="G37" s="3">
-        <v>94.049341480162596</v>
+        <v>95.528659677517098</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
@@ -3215,19 +3245,19 @@
         <v>45343</v>
       </c>
       <c r="C38" s="23">
-        <v>5.2570336124871699E-3</v>
+        <v>5.20867005830534E-3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.228180307784277</v>
+        <v>0.22372797563241101</v>
       </c>
       <c r="E38" s="5">
-        <v>24.764705882352899</v>
+        <v>24.760526315789399</v>
       </c>
       <c r="F38" s="4">
-        <v>9.8878397479278804E-2</v>
+        <v>9.9275635406593593E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>103.447668047181</v>
+        <v>105.11160370194899</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
@@ -3235,19 +3265,19 @@
         <v>45344</v>
       </c>
       <c r="C39" s="23">
-        <v>5.3179899700457004E-3</v>
+        <v>5.2712572528785303E-3</v>
       </c>
       <c r="D39" s="2">
-        <v>0.23471175834248201</v>
+        <v>0.230178560599514</v>
       </c>
       <c r="E39" s="5">
-        <v>24.7006369426751</v>
+        <v>24.696153846153798</v>
       </c>
       <c r="F39" s="4">
-        <v>9.7325536279818797E-2</v>
+        <v>9.7702634380795697E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>113.61309335305</v>
+        <v>115.478986922001</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
@@ -3255,19 +3285,19 @@
         <v>45345</v>
       </c>
       <c r="C40" s="23">
-        <v>5.2075142991858496E-3</v>
+        <v>5.2261786161362104E-3</v>
       </c>
       <c r="D40" s="2">
-        <v>0.24114153747942299</v>
+        <v>0.23660769348694899</v>
       </c>
       <c r="E40" s="5">
-        <v>24.764346764346701</v>
+        <v>24.6863468634686</v>
       </c>
       <c r="F40" s="4">
-        <v>9.4387819917312807E-2</v>
+        <v>9.4848490934596699E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>124.431173368624</v>
+        <v>126.526843057143</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
@@ -3275,19 +3305,19 @@
         <v>45348</v>
       </c>
       <c r="C41" s="23">
-        <v>5.20727569460714E-3</v>
+        <v>5.2078423136493503E-3</v>
       </c>
       <c r="D41" s="2">
-        <v>0.247604503641107</v>
+        <v>0.24304775135847401</v>
       </c>
       <c r="E41" s="5">
-        <v>24.705952380952301</v>
+        <v>24.613173652694599</v>
       </c>
       <c r="F41" s="4">
-        <v>9.4040192885032098E-2</v>
+        <v>9.4248557881357303E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>136.22674510600501</v>
+        <v>138.54606410644101</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
@@ -3295,19 +3325,19 @@
         <v>45349</v>
       </c>
       <c r="C42" s="23">
-        <v>5.2059479763676203E-3</v>
+        <v>5.21982393468093E-3</v>
       </c>
       <c r="D42" s="2">
-        <v>0.25409946778214498</v>
+        <v>0.24953624176296699</v>
       </c>
       <c r="E42" s="5">
-        <v>24.7514585764294</v>
+        <v>24.6478873239436</v>
       </c>
       <c r="F42" s="4">
-        <v>9.5398986707292702E-2</v>
+        <v>9.5741747675752206E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>149.31803753825801</v>
+        <v>151.90644816526401</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
@@ -3315,19 +3345,19 @@
         <v>45350</v>
       </c>
       <c r="C43" s="23">
-        <v>5.3970712399390997E-3</v>
+        <v>5.4185816901624398E-3</v>
       </c>
       <c r="D43" s="2">
-        <v>0.26086793195173502</v>
+        <v>0.256306955963778</v>
       </c>
       <c r="E43" s="5">
-        <v>24.2604756511891</v>
+        <v>24.197488584474801</v>
       </c>
       <c r="F43" s="4">
-        <v>9.2999356058848695E-2</v>
+        <v>9.3467610267643705E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>163.29751823334601</v>
+        <v>166.198248469785</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
@@ -3335,19 +3365,19 @@
         <v>45351</v>
       </c>
       <c r="C44" s="23">
-        <v>5.4338689027825099E-3</v>
+        <v>5.4490047177725796E-3</v>
       </c>
       <c r="D44" s="2">
-        <v>0.26771932299768297</v>
+        <v>0.26315257849379498</v>
       </c>
       <c r="E44" s="5">
-        <v>24.050660792951501</v>
+        <v>24.0133333333333</v>
       </c>
       <c r="F44" s="4">
-        <v>9.0912546659194807E-2</v>
+        <v>9.14409724306601E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>178.23422402572501</v>
+        <v>181.487018898565</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
@@ -3355,19 +3385,19 @@
         <v>45352</v>
       </c>
       <c r="C45" s="23">
-        <v>5.38492150066974E-3</v>
+        <v>5.3994287970229897E-3</v>
       </c>
       <c r="D45" s="2">
-        <v>0.27454589203690699</v>
+        <v>0.26997288090114802</v>
       </c>
       <c r="E45" s="5">
-        <v>24.016304347826001</v>
+        <v>23.9791666666666</v>
       </c>
       <c r="F45" s="4">
-        <v>8.8571800339879603E-2</v>
+        <v>8.9072740278217599E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>194.109321930205</v>
+        <v>197.741637737063</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
@@ -3375,19 +3405,19 @@
         <v>45355</v>
       </c>
       <c r="C46" s="23">
-        <v>5.2261274085394103E-3</v>
+        <v>5.2385086730705899E-3</v>
       </c>
       <c r="D46" s="2">
-        <v>0.28120683125672302</v>
+        <v>0.276625644852313</v>
       </c>
       <c r="E46" s="5">
-        <v>23.7392197125256</v>
+        <v>23.701863354037201</v>
       </c>
       <c r="F46" s="4">
-        <v>8.6975712642994196E-2</v>
+        <v>8.7435431610063799E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>211.07909424837601</v>
+        <v>215.11869861149401</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
@@ -3395,19 +3425,19 @@
         <v>45356</v>
       </c>
       <c r="C47" s="23">
-        <v>5.1831668474800396E-3</v>
+        <v>5.1914623548447803E-3</v>
       </c>
       <c r="D47" s="2">
-        <v>0.287847540029257</v>
+        <v>0.28325319882879402</v>
       </c>
       <c r="E47" s="5">
-        <v>23.990990990990898</v>
+        <v>23.933467741935399</v>
       </c>
       <c r="F47" s="4">
-        <v>8.8767332859536405E-2</v>
+        <v>8.9141778266962499E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>229.90478980007001</v>
+        <v>234.38390372246499</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
@@ -3415,19 +3445,19 @@
         <v>45357</v>
       </c>
       <c r="C48" s="23">
-        <v>5.2016544414441399E-3</v>
+        <v>5.1667119240195996E-3</v>
       </c>
       <c r="D48" s="2">
-        <v>0.294546477905754</v>
+        <v>0.28988339843271799</v>
       </c>
       <c r="E48" s="5">
-        <v>23.933787731256</v>
+        <v>23.8831041257367</v>
       </c>
       <c r="F48" s="4">
-        <v>8.8623432491151996E-2</v>
+        <v>8.9099379624551195E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>250.36836485079999</v>
+        <v>255.35646351774199</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.35">
@@ -3435,23 +3465,19 @@
         <v>45358</v>
       </c>
       <c r="C49" s="23">
-        <v>5.2595334183769896E-3</v>
+        <v>5.2281791945826403E-3</v>
       </c>
       <c r="D49" s="2">
-        <v>0.30135518836794101</v>
+        <v>0.29662713997984202</v>
       </c>
       <c r="E49" s="5">
-        <v>23.564393939393899</v>
+        <v>23.5315487571701</v>
       </c>
       <c r="F49" s="4">
-        <v>8.7000754874761596E-2</v>
+        <v>8.7524554494369494E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>272.23760234445501</v>
-      </c>
-      <c r="J49" s="15">
-        <f>AVERAGE(C:C)</f>
-        <v>5.5881816598588891E-3</v>
+        <v>277.79394877888399</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.35">
@@ -3459,26 +3485,19 @@
         <v>45359</v>
       </c>
       <c r="C50" s="23">
-        <v>5.30241128966013E-3</v>
+        <v>5.2747794146324502E-3</v>
       </c>
       <c r="D50" s="2">
-        <v>0.30825550881060099</v>
+        <v>0.303466562126262</v>
       </c>
       <c r="E50" s="5">
-        <v>23.378181818181801</v>
+        <v>23.365472910927402</v>
       </c>
       <c r="F50" s="4">
-        <v>8.4977607482840001E-2</v>
+        <v>8.5537400643404496E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>295.45668006603398</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="17">
-        <f>AVERAGE(F:F)</f>
-        <v>0.11981782719567564</v>
+        <v>301.64125847254002</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.35">
@@ -3486,26 +3505,19 @@
         <v>45362</v>
       </c>
       <c r="C51" s="23">
-        <v>5.2820401789899904E-3</v>
+        <v>5.2546056150633699E-3</v>
       </c>
       <c r="D51" s="2">
-        <v>0.31516576697252402</v>
+        <v>0.31031576484265799</v>
       </c>
       <c r="E51" s="5">
-        <v>23.149641577060901</v>
+        <v>23.134841628959201</v>
       </c>
       <c r="F51" s="4">
-        <v>8.44765005674879E-2</v>
+        <v>8.50231997337655E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>320.50030296786798</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J51" s="19">
-        <f>AVERAGE(E:E)</f>
-        <v>25.112648418841481</v>
+        <v>327.37278663932898</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.35">
@@ -3513,22 +3525,19 @@
         <v>45363</v>
       </c>
       <c r="C52" s="23">
-        <v>5.4170353223653199E-3</v>
+        <v>5.3959179628780196E-3</v>
       </c>
       <c r="D52" s="2">
-        <v>0.32229006638697899</v>
+        <v>0.31738612121521398</v>
       </c>
       <c r="E52" s="5">
-        <v>22.8511383537653</v>
+        <v>22.836283185840699</v>
       </c>
       <c r="F52" s="4">
-        <v>8.3452968344144299E-2</v>
+        <v>8.4043506922020006E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>347.33045757407803</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>0</v>
+        <v>354.970387206255</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.35">
@@ -3536,25 +3545,19 @@
         <v>45364</v>
       </c>
       <c r="C53" s="23">
-        <v>5.38826072488031E-3</v>
+        <v>5.3647891355742602E-3</v>
       </c>
       <c r="D53" s="2">
-        <v>0.32941491001859202</v>
+        <v>0.32445361996566602</v>
       </c>
       <c r="E53" s="5">
-        <v>22.835042735042698</v>
+        <v>22.8323249783923</v>
       </c>
       <c r="F53" s="4">
-        <v>8.2562167830675506E-2</v>
+        <v>8.3136194063358995E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>376.08937527284502</v>
-      </c>
-      <c r="J53" s="14">
-        <v>250</v>
-      </c>
-      <c r="L53" s="14">
-        <v>365</v>
+        <v>384.56441039784301</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.35">
@@ -3562,30 +3565,23 @@
         <v>45365</v>
       </c>
       <c r="C54" s="23">
-        <v>5.4556434806186703E-3</v>
+        <v>5.4334657143718197E-3</v>
       </c>
       <c r="D54" s="2">
-        <v>0.336667723805472</v>
+        <v>0.33164999330002498</v>
       </c>
       <c r="E54" s="5">
-        <v>22.760434056761198</v>
+        <v>22.756962025316401</v>
       </c>
       <c r="F54" s="4">
-        <v>8.2982495084636898E-2</v>
+        <v>8.3547569013342704E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>407.38119250289299</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="21">
-        <f>POWER(1+J49,J53)-1</f>
-        <v>3.0275426459810415</v>
-      </c>
-      <c r="L54" s="21">
-        <f>POWER(1+J49,L53)-1</f>
-        <v>6.6446677608471427</v>
+        <v>416.77737958464598</v>
+      </c>
+      <c r="J54" s="15">
+        <f>AVERAGE(C:C)</f>
+        <v>5.5473501735701551E-3</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.35">
@@ -3593,33 +3589,26 @@
         <v>45366</v>
       </c>
       <c r="C55" s="23">
-        <v>5.4998006896297101E-3</v>
+        <v>5.4784674039157098E-3</v>
       </c>
       <c r="D55" s="2">
-        <v>0.34401912987466299</v>
+        <v>0.33894539438174398</v>
       </c>
       <c r="E55" s="5">
-        <v>22.850574712643599</v>
+        <v>22.848132780082899</v>
       </c>
       <c r="F55" s="4">
-        <v>8.6059196869870694E-2</v>
+        <v>8.6648084611550699E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>442.52614994645199</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="20">
-        <f>POWER(1+J49*M55,J53)-1</f>
-        <v>31.086702958043368</v>
-      </c>
-      <c r="L55" s="20">
-        <f>POWER(1+J49*M55,L53)-1</f>
-        <v>157.2102573543778</v>
-      </c>
-      <c r="M55">
-        <v>2.5</v>
+        <v>452.97698931968802</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="17">
+        <f>AVERAGE(F:F)</f>
+        <v>0.11762729980981931</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.35">
@@ -3627,87 +3616,228 @@
         <v>45369</v>
       </c>
       <c r="C56" s="23">
-        <v>5.4656306788610897E-3</v>
+        <v>5.4443525507688597E-3</v>
       </c>
       <c r="D56" s="2">
-        <v>0.35136504206388203</v>
+        <v>0.34623508515498602</v>
       </c>
       <c r="E56" s="5">
-        <v>22.818035426731001</v>
+        <v>22.815296989422201</v>
       </c>
       <c r="F56" s="4">
-        <v>8.7134496084872504E-2</v>
+        <v>8.7723258182935498E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>481.17257752249998</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>492.80132996289097</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>24.953760978720148</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="13">
         <v>45370</v>
       </c>
       <c r="C57" s="23">
-        <v>5.4405091706907901E-3</v>
+        <v>5.4191219339932402E-3</v>
       </c>
       <c r="D57" s="2">
-        <v>0.35871715596818199</v>
+        <v>0.35353049723326102</v>
       </c>
       <c r="E57" s="5">
-        <v>22.822541966426801</v>
+        <v>22.819870759289099</v>
       </c>
       <c r="F57" s="4">
-        <v>8.6756465518761205E-2</v>
+        <v>8.7336977813720795E-2</v>
       </c>
       <c r="G57" s="3">
-        <v>523.00416611842297</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+        <v>535.92844576224604</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="13">
         <v>45371</v>
       </c>
       <c r="C58" s="23">
-        <v>5.4059117082589396E-3</v>
+        <v>5.38438719503497E-3</v>
       </c>
       <c r="D58" s="2">
-        <v>0.36606226094984301</v>
+        <v>0.36081842951065302</v>
       </c>
       <c r="E58" s="5">
-        <v>22.829113924050599</v>
+        <v>22.8265387689848</v>
       </c>
       <c r="F58" s="4">
-        <v>8.6046552247046701E-2</v>
+        <v>8.6613654843871304E-2</v>
       </c>
       <c r="G58" s="3">
-        <v>568.09291797600201</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+        <v>582.43378083935295</v>
+      </c>
+      <c r="J58" s="14">
+        <v>250</v>
+      </c>
+      <c r="L58" s="14">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="13">
         <v>45372</v>
       </c>
       <c r="C59" s="23">
-        <v>5.7095055863111699E-3</v>
+        <v>5.7020397753227798E-3</v>
       </c>
       <c r="D59" s="2">
-        <v>0.37386180105998501</v>
+        <v>0.368577870322715</v>
       </c>
       <c r="E59" s="5">
-        <v>22.660015349194101</v>
+        <v>22.652713178294501</v>
       </c>
       <c r="F59" s="4">
-        <v>8.6599605656780598E-2</v>
+        <v>8.7181627817355098E-2</v>
       </c>
       <c r="G59" s="3">
-        <v>617.37614025479104</v>
-      </c>
-      <c r="I59" s="22" t="s">
+        <v>633.29848757656202</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="21">
+        <f>POWER(1+J54,J58)-1</f>
+        <v>2.986864464579432</v>
+      </c>
+      <c r="L59" s="21">
+        <f>POWER(1+J54,L58)-1</f>
+        <v>6.5322018338872203</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B60" s="13">
+        <v>45373</v>
+      </c>
+      <c r="C60" s="23">
+        <v>5.8960978947830102E-3</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.376647139422771</v>
+      </c>
+      <c r="E60" s="5">
+        <v>22.460090361445701</v>
+      </c>
+      <c r="F60" s="4">
+        <v>8.7811210543149901E-2</v>
+      </c>
+      <c r="G60" s="3">
+        <v>688.99700561634904</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="20">
+        <f>POWER(1+J54*M60,J58)-1</f>
+        <v>30.289180589796626</v>
+      </c>
+      <c r="L60" s="20">
+        <f>POWER(1+J54*M60,L58)-1</f>
+        <v>151.50199223649682</v>
+      </c>
+      <c r="M60">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B61" s="13">
+        <v>45376</v>
+      </c>
+      <c r="C61" s="23">
+        <v>5.8695978462313201E-3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.38472750450734799</v>
+      </c>
+      <c r="E61" s="5">
+        <v>22.404585798816498</v>
+      </c>
+      <c r="F61" s="4">
+        <v>8.6811510669414102E-2</v>
+      </c>
+      <c r="G61" s="3">
+        <v>748.89668803127597</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="B62" s="13">
+        <v>45377</v>
+      </c>
+      <c r="C62" s="23">
+        <v>5.8641171972601902E-3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.392847708880048</v>
+      </c>
+      <c r="E62" s="5">
+        <v>22.3734590282813</v>
+      </c>
+      <c r="F62" s="4">
+        <v>8.7062714962484397E-2</v>
+      </c>
+      <c r="G62" s="3">
+        <v>814.18472963265503</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="B63" s="13">
+        <v>45378</v>
+      </c>
+      <c r="C63" s="23">
+        <v>5.8262438038468502E-3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.40096277921361301</v>
+      </c>
+      <c r="E63" s="5">
+        <v>22.394376351838499</v>
+      </c>
+      <c r="F63" s="4">
+        <v>8.6902048287301401E-2</v>
+      </c>
+      <c r="G63" s="3">
+        <v>885.02595237026298</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B64" s="13">
+        <v>45379</v>
+      </c>
+      <c r="C64" s="23">
+        <v>5.8295781147439897E-3</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.40912980117088699</v>
+      </c>
+      <c r="E64" s="5">
+        <v>22.352272727272702</v>
+      </c>
+      <c r="F64" s="4">
+        <v>8.5835540795760001E-2</v>
+      </c>
+      <c r="G64" s="3">
+        <v>961.07846915104199</v>
+      </c>
+      <c r="I64" s="22" t="s">
         <v>8</v>
       </c>
     </row>
